--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC04A2E9-804E-41E8-91C5-9C5F84CF6230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A852F2-33FF-45D1-82FA-7421DF84BAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_04.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_04.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_05.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_05.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_04.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_04.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_05.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_05.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -245,16 +245,16 @@
     <t>Thüringen</t>
   </si>
   <si>
-    <t>Datenstand: 05.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 04.05.21 (Impfquote_bis_einschl_04.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 04.05.21 durchgeführt und bis zum 05.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 04.05.21 (Impfstoff_bis_einschl_04.05.21)</t>
+    <t>Datenstand: 06.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 05.05.21 (Impfquote_bis_einschl_05.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.05.21 durchgeführt und bis zum 06.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 05.05.21 (Impfstoff_bis_einschl_05.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -272,7 +272,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1.903 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1.902 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +368,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -561,7 +554,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -714,9 +707,22 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,6 +744,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,40 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1140,7 +1124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1261,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,102 +1273,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="73"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1434,55 +1420,55 @@
         <v>70</v>
       </c>
       <c r="C5" s="32">
-        <v>4105631</v>
+        <v>4240736</v>
       </c>
       <c r="D5" s="32">
-        <v>3222145</v>
+        <v>3330692</v>
       </c>
       <c r="E5" s="32">
-        <v>883486</v>
+        <v>910044</v>
       </c>
       <c r="F5" s="33">
-        <v>29.027302994830634</v>
+        <v>30.005169185886555</v>
       </c>
       <c r="G5" s="33">
-        <v>16.298549553929739</v>
+        <v>16.967648785988544</v>
       </c>
       <c r="H5" s="33">
-        <v>63.410967937359771</v>
+        <v>65.228514331820591</v>
       </c>
       <c r="I5" s="33">
-        <v>7.9590508228807018</v>
+        <v>8.1983035917463845</v>
       </c>
       <c r="J5" s="33">
-        <v>3.1756215449361296</v>
+        <v>3.346666689666542</v>
       </c>
       <c r="K5" s="33">
-        <v>20.967039359229702</v>
+        <v>21.391780212357023</v>
       </c>
       <c r="L5" s="32">
-        <v>1101724</v>
+        <v>1124877</v>
       </c>
       <c r="M5" s="32">
-        <v>1406982</v>
+        <v>1418535</v>
       </c>
       <c r="N5" s="32">
-        <v>248289</v>
+        <v>258961</v>
       </c>
       <c r="O5" s="32">
-        <v>608575</v>
+        <v>614674</v>
       </c>
       <c r="P5" s="34">
-        <v>221064</v>
+        <v>252215</v>
       </c>
       <c r="Q5" s="34">
-        <v>485460</v>
+        <v>528150</v>
       </c>
       <c r="R5" s="34">
-        <v>9444</v>
+        <v>12654</v>
       </c>
       <c r="S5" s="34">
-        <v>17167</v>
+        <v>23744</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1493,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>4959174</v>
+        <v>5140210</v>
       </c>
       <c r="D6" s="13">
-        <v>3940111</v>
+        <v>4083915</v>
       </c>
       <c r="E6" s="13">
-        <v>1019063</v>
+        <v>1056295</v>
       </c>
       <c r="F6" s="14">
-        <v>30.02049488686897</v>
+        <v>31.116166365847942</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>76</v>
@@ -1511,7 +1497,7 @@
         <v>76</v>
       </c>
       <c r="I6" s="14">
-        <v>7.7644451085000785</v>
+        <v>8.0481231738205494</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>76</v>
@@ -1532,16 +1518,16 @@
         <v>76</v>
       </c>
       <c r="P6" s="17">
-        <v>342382</v>
+        <v>399991</v>
       </c>
       <c r="Q6" s="18">
-        <v>603176</v>
+        <v>657467</v>
       </c>
       <c r="R6" s="17">
-        <v>9881</v>
+        <v>13668</v>
       </c>
       <c r="S6" s="18">
-        <v>10845</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1552,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1358673</v>
+        <v>1400999</v>
       </c>
       <c r="D7" s="37">
-        <v>990501</v>
+        <v>1023994</v>
       </c>
       <c r="E7" s="37">
-        <v>368172</v>
+        <v>377005</v>
       </c>
       <c r="F7" s="38">
-        <v>26.992871763413508</v>
+        <v>27.905614157385862</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>76</v>
@@ -1570,7 +1556,7 @@
         <v>76</v>
       </c>
       <c r="I7" s="38">
-        <v>10.03332614795894</v>
+        <v>10.274040732079735</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>76</v>
@@ -1591,16 +1577,16 @@
         <v>76</v>
       </c>
       <c r="P7" s="41">
-        <v>144459</v>
+        <v>164288</v>
       </c>
       <c r="Q7" s="41">
-        <v>89725</v>
+        <v>96958</v>
       </c>
       <c r="R7" s="41">
-        <v>5035</v>
+        <v>7056</v>
       </c>
       <c r="S7" s="41">
-        <v>3428</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1611,55 +1597,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>867860</v>
+        <v>900396</v>
       </c>
       <c r="D8" s="13">
-        <v>665537</v>
+        <v>685944</v>
       </c>
       <c r="E8" s="13">
-        <v>202323</v>
+        <v>214452</v>
       </c>
       <c r="F8" s="14">
-        <v>26.39037421492506</v>
+        <v>27.199567943604269</v>
       </c>
       <c r="G8" s="44">
-        <v>13.614997642345253</v>
+        <v>14.079665656750318</v>
       </c>
       <c r="H8" s="44">
-        <v>51.466715725530086</v>
+        <v>52.976117471929427</v>
       </c>
       <c r="I8" s="44">
-        <v>8.0226639274544951</v>
+        <v>8.503612167526537</v>
       </c>
       <c r="J8" s="63">
-        <v>3.6365271420195606</v>
+        <v>3.8660213141455144</v>
       </c>
       <c r="K8" s="44">
-        <v>16.914606314645273</v>
+        <v>17.906605391184314</v>
       </c>
       <c r="L8" s="17">
-        <v>173189</v>
+        <v>175716</v>
       </c>
       <c r="M8" s="18">
-        <v>281420</v>
+        <v>283439</v>
       </c>
       <c r="N8" s="17">
-        <v>56637</v>
+        <v>59439</v>
       </c>
       <c r="O8" s="18">
-        <v>130005</v>
+        <v>135245</v>
       </c>
       <c r="P8" s="17">
-        <v>56937</v>
+        <v>62264</v>
       </c>
       <c r="Q8" s="18">
-        <v>146605</v>
+        <v>157139</v>
       </c>
       <c r="R8" s="17">
-        <v>4829</v>
+        <v>5906</v>
       </c>
       <c r="S8" s="18">
-        <v>10666</v>
+        <v>13676</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1670,55 +1656,55 @@
         <v>69</v>
       </c>
       <c r="C9" s="37">
-        <v>278270</v>
+        <v>287676</v>
       </c>
       <c r="D9" s="37">
-        <v>207755</v>
+        <v>214092</v>
       </c>
       <c r="E9" s="37">
-        <v>70515</v>
+        <v>73584</v>
       </c>
       <c r="F9" s="38">
-        <v>30.498295659730889</v>
+        <v>31.42856304003805</v>
       </c>
       <c r="G9" s="64">
-        <v>14.980767987588079</v>
+        <v>15.656716659124701</v>
       </c>
       <c r="H9" s="64">
-        <v>71.752580641696298</v>
+        <v>73.358969676788718</v>
       </c>
       <c r="I9" s="64">
-        <v>10.351555045346315</v>
+        <v>10.802082201755132</v>
       </c>
       <c r="J9" s="64">
-        <v>3.5815582778460149</v>
+        <v>3.7750905035878213</v>
       </c>
       <c r="K9" s="64">
-        <v>28.350000537074234</v>
+        <v>29.483764245894069</v>
       </c>
       <c r="L9" s="42">
-        <v>56191</v>
+        <v>57092</v>
       </c>
       <c r="M9" s="42">
-        <v>110671</v>
+        <v>112169</v>
       </c>
       <c r="N9" s="42">
-        <v>17331</v>
+        <v>18069</v>
       </c>
       <c r="O9" s="42">
-        <v>52305</v>
+        <v>54147</v>
       </c>
       <c r="P9" s="42">
-        <v>17965</v>
+        <v>20410</v>
       </c>
       <c r="Q9" s="42">
-        <v>22928</v>
+        <v>24421</v>
       </c>
       <c r="R9" s="42">
-        <v>398</v>
+        <v>618</v>
       </c>
       <c r="S9" s="42">
-        <v>481</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1729,55 +1715,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>686024</v>
+        <v>706021</v>
       </c>
       <c r="D10" s="13">
-        <v>548482</v>
+        <v>563861</v>
       </c>
       <c r="E10" s="13">
-        <v>137542</v>
+        <v>142160</v>
       </c>
       <c r="F10" s="14">
-        <v>29.691763932715226</v>
+        <v>30.524297429751098</v>
       </c>
       <c r="G10" s="44">
-        <v>18.630055553589752</v>
+        <v>19.345812250097307</v>
       </c>
       <c r="H10" s="44">
-        <v>65.538929947513026</v>
+        <v>66.802624578826027</v>
       </c>
       <c r="I10" s="44">
-        <v>7.4457586481115472</v>
+        <v>7.6957514752987271</v>
       </c>
       <c r="J10" s="44">
-        <v>3.5321467747071935</v>
+        <v>3.7235058915112704</v>
       </c>
       <c r="K10" s="44">
-        <v>20.095899844082147</v>
+        <v>20.488343010066721</v>
       </c>
       <c r="L10" s="18">
-        <v>221659</v>
+        <v>225966</v>
       </c>
       <c r="M10" s="18">
-        <v>218453</v>
+        <v>218741</v>
       </c>
       <c r="N10" s="18">
-        <v>48907</v>
+        <v>51264</v>
       </c>
       <c r="O10" s="18">
-        <v>86113</v>
+        <v>87338</v>
       </c>
       <c r="P10" s="18">
-        <v>41593</v>
+        <v>47400</v>
       </c>
       <c r="Q10" s="18">
-        <v>66119</v>
+        <v>71318</v>
       </c>
       <c r="R10" s="18">
-        <v>1004</v>
+        <v>1351</v>
       </c>
       <c r="S10" s="18">
-        <v>1144</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1788,16 +1774,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2293884</v>
+        <v>2387157</v>
       </c>
       <c r="D11" s="37">
-        <v>1793604</v>
+        <v>1878104</v>
       </c>
       <c r="E11" s="37">
-        <v>500280</v>
+        <v>509053</v>
       </c>
       <c r="F11" s="38">
-        <v>28.52387374206435</v>
+        <v>29.867686161753664</v>
       </c>
       <c r="G11" s="64" t="s">
         <v>76</v>
@@ -1806,7 +1792,7 @@
         <v>76</v>
       </c>
       <c r="I11" s="64">
-        <v>7.956005648783095</v>
+        <v>8.0955235938474068</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>76</v>
@@ -1827,16 +1813,16 @@
         <v>76</v>
       </c>
       <c r="P11" s="41">
-        <v>140546</v>
+        <v>165320</v>
       </c>
       <c r="Q11" s="41">
-        <v>246780</v>
+        <v>272866</v>
       </c>
       <c r="R11" s="41">
-        <v>4547</v>
+        <v>6541</v>
       </c>
       <c r="S11" s="41">
-        <v>6844</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1847,55 +1833,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>626249</v>
+        <v>650263</v>
       </c>
       <c r="D12" s="13">
-        <v>507916</v>
+        <v>526325</v>
       </c>
       <c r="E12" s="13">
-        <v>118333</v>
+        <v>123938</v>
       </c>
       <c r="F12" s="14">
-        <v>31.584105344193098</v>
+        <v>32.728845410033216</v>
       </c>
       <c r="G12" s="44">
-        <v>17.534709847805619</v>
+        <v>18.296525826527667</v>
       </c>
       <c r="H12" s="44">
-        <v>59.220477236237478</v>
+        <v>61.133482200527801</v>
       </c>
       <c r="I12" s="44">
-        <v>7.3583859096669562</v>
+        <v>7.7069256494156591</v>
       </c>
       <c r="J12" s="44">
-        <v>3.0656457851121854</v>
+        <v>3.1975075684537093</v>
       </c>
       <c r="K12" s="44">
-        <v>15.800468747116467</v>
+        <v>16.560429623341392</v>
       </c>
       <c r="L12" s="18">
-        <v>136265</v>
+        <v>139127</v>
       </c>
       <c r="M12" s="18">
-        <v>207742</v>
+        <v>209488</v>
       </c>
       <c r="N12" s="18">
-        <v>30989</v>
+        <v>31711</v>
       </c>
       <c r="O12" s="18">
-        <v>83679</v>
+        <v>86574</v>
       </c>
       <c r="P12" s="18">
-        <v>50702</v>
+        <v>55963</v>
       </c>
       <c r="Q12" s="18">
-        <v>113156</v>
+        <v>121776</v>
       </c>
       <c r="R12" s="18">
-        <v>1699</v>
+        <v>2383</v>
       </c>
       <c r="S12" s="18">
-        <v>1939</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1906,55 +1892,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>2991036</v>
+        <v>3114281</v>
       </c>
       <c r="D13" s="37">
-        <v>2402210</v>
+        <v>2511187</v>
       </c>
       <c r="E13" s="37">
-        <v>588826</v>
+        <v>603094</v>
       </c>
       <c r="F13" s="38">
-        <v>30.051636257369641</v>
+        <v>31.414938035490358</v>
       </c>
       <c r="G13" s="64">
-        <v>16.431907114114846</v>
+        <v>17.368310708200656</v>
       </c>
       <c r="H13" s="64">
-        <v>63.779152043534523</v>
+        <v>66.241459060346386</v>
       </c>
       <c r="I13" s="64">
-        <v>7.3662106022712139</v>
+        <v>7.5447032178710796</v>
       </c>
       <c r="J13" s="64">
-        <v>2.1275962777627075</v>
+        <v>2.2214742807189931</v>
       </c>
       <c r="K13" s="64">
-        <v>19.954116837762896</v>
+        <v>20.290457884730877</v>
       </c>
       <c r="L13" s="42">
-        <v>746367</v>
+        <v>768766</v>
       </c>
       <c r="M13" s="42">
-        <v>1114148</v>
+        <v>1127351</v>
       </c>
       <c r="N13" s="42">
-        <v>115676</v>
+        <v>119304</v>
       </c>
       <c r="O13" s="42">
-        <v>454538</v>
+        <v>459732</v>
       </c>
       <c r="P13" s="42">
-        <v>187093</v>
+        <v>217889</v>
       </c>
       <c r="Q13" s="42">
-        <v>360956</v>
+        <v>404702</v>
       </c>
       <c r="R13" s="42">
-        <v>5188</v>
+        <v>6893</v>
       </c>
       <c r="S13" s="42">
-        <v>6967</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1965,55 +1951,55 @@
         <v>68</v>
       </c>
       <c r="C14" s="13">
-        <v>6980081</v>
+        <v>7220703</v>
       </c>
       <c r="D14" s="13">
-        <v>5565356</v>
+        <v>5778601</v>
       </c>
       <c r="E14" s="13">
-        <v>1414725</v>
+        <v>1442102</v>
       </c>
       <c r="F14" s="14">
-        <v>31.009569670981374</v>
+        <v>32.197748052470068</v>
       </c>
       <c r="G14" s="44">
-        <v>17.12014246615524</v>
+        <v>18.020232830243145</v>
       </c>
       <c r="H14" s="44">
-        <v>66.789108677544604</v>
+        <v>68.720349499623367</v>
       </c>
       <c r="I14" s="44">
-        <v>7.8826967138812183</v>
+        <v>8.0352384360787656</v>
       </c>
       <c r="J14" s="44">
-        <v>3.2255616659480548</v>
+        <v>3.31007011145523</v>
       </c>
       <c r="K14" s="44">
-        <v>19.869573160296834</v>
+        <v>20.196237926382988</v>
       </c>
       <c r="L14" s="18">
-        <v>1703868</v>
+        <v>1740076</v>
       </c>
       <c r="M14" s="18">
-        <v>2488973</v>
+        <v>2512192</v>
       </c>
       <c r="N14" s="18">
-        <v>405130</v>
+        <v>412042</v>
       </c>
       <c r="O14" s="18">
-        <v>981033</v>
+        <v>991308</v>
       </c>
       <c r="P14" s="18">
-        <v>509373</v>
+        <v>589526</v>
       </c>
       <c r="Q14" s="18">
-        <v>863519</v>
+        <v>937239</v>
       </c>
       <c r="R14" s="18">
-        <v>11861</v>
+        <v>15874</v>
       </c>
       <c r="S14" s="18">
-        <v>16324</v>
+        <v>22446</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2024,55 +2010,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1564649</v>
+        <v>1624562</v>
       </c>
       <c r="D15" s="37">
-        <v>1178372</v>
+        <v>1219816</v>
       </c>
       <c r="E15" s="37">
-        <v>386277</v>
+        <v>404746</v>
       </c>
       <c r="F15" s="38">
-        <v>28.783583783006094</v>
+        <v>29.795918467047215</v>
       </c>
       <c r="G15" s="64">
-        <v>15.736775401335299</v>
+        <v>16.416850284123853</v>
       </c>
       <c r="H15" s="64">
-        <v>60.338883897791618</v>
+        <v>62.155736163633705</v>
       </c>
       <c r="I15" s="64">
-        <v>9.4354214059297448</v>
+        <v>9.8865556902545073</v>
       </c>
       <c r="J15" s="64">
-        <v>4.0018941590320463</v>
+        <v>4.2635835500847676</v>
       </c>
       <c r="K15" s="64">
-        <v>22.591897708041703</v>
+        <v>23.501744562605769</v>
       </c>
       <c r="L15" s="42">
-        <v>373102</v>
+        <v>379420</v>
       </c>
       <c r="M15" s="42">
-        <v>539292</v>
+        <v>541903</v>
       </c>
       <c r="N15" s="42">
-        <v>113073</v>
+        <v>119711</v>
       </c>
       <c r="O15" s="42">
-        <v>264938</v>
+        <v>273897</v>
       </c>
       <c r="P15" s="42">
-        <v>82844</v>
+        <v>96230</v>
       </c>
       <c r="Q15" s="42">
-        <v>182708</v>
+        <v>201837</v>
       </c>
       <c r="R15" s="42">
-        <v>2875</v>
+        <v>3819</v>
       </c>
       <c r="S15" s="42">
-        <v>5391</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2083,55 +2069,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>415091</v>
+        <v>429273</v>
       </c>
       <c r="D16" s="13">
-        <v>326484</v>
+        <v>338858</v>
       </c>
       <c r="E16" s="13">
-        <v>88607</v>
+        <v>90415</v>
       </c>
       <c r="F16" s="14">
-        <v>33.082206980130451</v>
+        <v>34.336048605362116</v>
       </c>
       <c r="G16" s="44">
-        <v>18.611947379256637</v>
+        <v>19.521681142642315</v>
       </c>
       <c r="H16" s="44">
-        <v>63.720185355406677</v>
+        <v>65.702616392013411</v>
       </c>
       <c r="I16" s="44">
-        <v>8.9784342077664423</v>
+        <v>9.1616365399483417</v>
       </c>
       <c r="J16" s="44">
-        <v>2.8979301990434219</v>
+        <v>2.9772969360262325</v>
       </c>
       <c r="K16" s="44">
-        <v>21.852859141894175</v>
+        <v>22.255915547679741</v>
       </c>
       <c r="L16" s="18">
-        <v>96983</v>
+        <v>99520</v>
       </c>
       <c r="M16" s="18">
-        <v>157261</v>
+        <v>159399</v>
       </c>
       <c r="N16" s="18">
-        <v>18876</v>
+        <v>19064</v>
       </c>
       <c r="O16" s="18">
-        <v>68712</v>
+        <v>69489</v>
       </c>
       <c r="P16" s="18">
-        <v>27774</v>
+        <v>31335</v>
       </c>
       <c r="Q16" s="18">
-        <v>44465</v>
+        <v>48603</v>
       </c>
       <c r="R16" s="18">
-        <v>549</v>
+        <v>893</v>
       </c>
       <c r="S16" s="18">
-        <v>470</v>
+        <v>969</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2142,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1526747</v>
+        <v>1576455</v>
       </c>
       <c r="D17" s="37">
-        <v>1087074</v>
+        <v>1120049</v>
       </c>
       <c r="E17" s="37">
-        <v>439673</v>
+        <v>456406</v>
       </c>
       <c r="F17" s="38">
-        <v>26.696506433862126</v>
+        <v>27.506310825887514</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>76</v>
@@ -2160,7 +2146,7 @@
         <v>76</v>
       </c>
       <c r="I17" s="64">
-        <v>10.797547428505753</v>
+        <v>11.208478645844973</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>76</v>
@@ -2181,16 +2167,16 @@
         <v>76</v>
       </c>
       <c r="P17" s="41">
-        <v>60492</v>
+        <v>67085</v>
       </c>
       <c r="Q17" s="41">
-        <v>193912</v>
+        <v>208817</v>
       </c>
       <c r="R17" s="41">
-        <v>5544</v>
+        <v>7598</v>
       </c>
       <c r="S17" s="41">
-        <v>17909</v>
+        <v>25259</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2201,16 +2187,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>824888</v>
+        <v>852137</v>
       </c>
       <c r="D18" s="13">
-        <v>650209</v>
+        <v>672155</v>
       </c>
       <c r="E18" s="13">
-        <v>174679</v>
+        <v>179982</v>
       </c>
       <c r="F18" s="14">
-        <v>29.625220181320973</v>
+        <v>30.625137257367701</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>76</v>
@@ -2219,7 +2205,7 @@
         <v>76</v>
       </c>
       <c r="I18" s="44">
-        <v>7.9588314465855836</v>
+        <v>8.2004499763530045</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>76</v>
@@ -2240,16 +2226,16 @@
         <v>76</v>
       </c>
       <c r="P18" s="17">
-        <v>37106</v>
+        <v>42191</v>
       </c>
       <c r="Q18" s="18">
-        <v>116314</v>
+        <v>128444</v>
       </c>
       <c r="R18" s="17">
-        <v>1128</v>
+        <v>1636</v>
       </c>
       <c r="S18" s="18">
-        <v>2084</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2260,55 +2246,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1080877</v>
+        <v>1125562</v>
       </c>
       <c r="D19" s="37">
-        <v>805809</v>
+        <v>838040</v>
       </c>
       <c r="E19" s="37">
-        <v>275068</v>
+        <v>287522</v>
       </c>
       <c r="F19" s="38">
-        <v>27.750412997159213</v>
+        <v>28.860382681428611</v>
       </c>
       <c r="G19" s="64">
-        <v>15.025772664379911</v>
+        <v>15.640457338359878</v>
       </c>
       <c r="H19" s="64">
-        <v>57.637533026032187</v>
+        <v>59.909424196678884</v>
       </c>
       <c r="I19" s="64">
-        <v>9.4727790361023398</v>
+        <v>9.9016693109275415</v>
       </c>
       <c r="J19" s="64">
-        <v>3.8044262795742427</v>
+        <v>4.1115967660682671</v>
       </c>
       <c r="K19" s="64">
-        <v>22.786030521762296</v>
+        <v>23.500811307329215</v>
       </c>
       <c r="L19" s="42">
-        <v>247120</v>
+        <v>249569</v>
       </c>
       <c r="M19" s="42">
-        <v>356758</v>
+        <v>358326</v>
       </c>
       <c r="N19" s="42">
-        <v>74886</v>
+        <v>80355</v>
       </c>
       <c r="O19" s="42">
-        <v>193397</v>
+        <v>197766</v>
       </c>
       <c r="P19" s="42">
-        <v>58903</v>
+        <v>68973</v>
       </c>
       <c r="Q19" s="42">
-        <v>143028</v>
+        <v>161160</v>
       </c>
       <c r="R19" s="42">
-        <v>2597</v>
+        <v>3384</v>
       </c>
       <c r="S19" s="42">
-        <v>4185</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2319,55 +2305,55 @@
         <v>71</v>
       </c>
       <c r="C20" s="13">
-        <v>843985</v>
+        <v>870902</v>
       </c>
       <c r="D20" s="13">
-        <v>583871</v>
+        <v>601410</v>
       </c>
       <c r="E20" s="13">
-        <v>260114</v>
+        <v>269492</v>
       </c>
       <c r="F20" s="14">
-        <v>27.368380099541668</v>
+        <v>28.190503511332732</v>
       </c>
       <c r="G20" s="44">
-        <v>14.733178323527611</v>
+        <v>15.204195243926605</v>
       </c>
       <c r="H20" s="44">
-        <v>51.635690582321182</v>
+        <v>53.132153066029986</v>
       </c>
       <c r="I20" s="44">
-        <v>12.192588467678958</v>
+        <v>12.632173013877521</v>
       </c>
       <c r="J20" s="44">
-        <v>5.7510681278075335</v>
+        <v>5.9997633510629953</v>
       </c>
       <c r="K20" s="44">
-        <v>24.564244800508174</v>
+        <v>25.370453524921423</v>
       </c>
       <c r="L20" s="18">
-        <v>176967</v>
+        <v>179811</v>
       </c>
       <c r="M20" s="18">
-        <v>278964</v>
+        <v>280389</v>
       </c>
       <c r="N20" s="18">
-        <v>78770</v>
+        <v>81519</v>
       </c>
       <c r="O20" s="18">
-        <v>173959</v>
+        <v>177653</v>
       </c>
       <c r="P20" s="18">
-        <v>29728</v>
+        <v>33492</v>
       </c>
       <c r="Q20" s="18">
-        <v>98212</v>
+        <v>107718</v>
       </c>
       <c r="R20" s="18">
-        <v>1913</v>
+        <v>2653</v>
       </c>
       <c r="S20" s="18">
-        <v>5472</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2376,13 +2362,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>65593</v>
+        <v>69666</v>
       </c>
       <c r="D21" s="37">
-        <v>61692</v>
+        <v>64470</v>
       </c>
       <c r="E21" s="37">
-        <v>3901</v>
+        <v>5196</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>76</v>
@@ -2403,16 +2389,16 @@
         <v>76</v>
       </c>
       <c r="L21" s="41">
-        <v>56306</v>
+        <v>58924</v>
       </c>
       <c r="M21" s="41">
-        <v>5386</v>
+        <v>5546</v>
       </c>
       <c r="N21" s="41">
-        <v>3635</v>
+        <v>4856</v>
       </c>
       <c r="O21" s="41">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>76</v>
@@ -2433,16 +2419,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>31468712</v>
+        <v>32596999</v>
       </c>
       <c r="D22" s="21">
-        <v>24537128</v>
+        <v>25451513</v>
       </c>
       <c r="E22" s="21">
-        <v>6931584</v>
+        <v>7145486</v>
       </c>
       <c r="F22" s="22">
-        <v>29.503544994102267</v>
+        <v>30.603005329860888</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>76</v>
@@ -2451,7 +2437,7 @@
         <v>76</v>
       </c>
       <c r="I22" s="22">
-        <v>8.3345654970051655</v>
+        <v>8.5917621534895119</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>76</v>
@@ -2472,16 +2458,16 @@
         <v>76</v>
       </c>
       <c r="P22" s="25">
-        <v>2008961</v>
+        <v>2314572</v>
       </c>
       <c r="Q22" s="25">
-        <v>3777063</v>
+        <v>4128615</v>
       </c>
       <c r="R22" s="25">
-        <v>68492</v>
+        <v>92927</v>
       </c>
       <c r="S22" s="25">
-        <v>111316</v>
+        <v>155693</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2509,27 +2495,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2580,27 +2566,27 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2658,7 +2644,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,118 +2654,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="80" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="80" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="80" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="82"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="83" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2792,7 +2778,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2794,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="83"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2807,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="83"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2823,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="83"/>
+      <c r="X4" s="82"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2847,70 +2833,70 @@
         <v>70</v>
       </c>
       <c r="C5" s="45">
-        <v>2508706</v>
+        <v>2543412</v>
       </c>
       <c r="D5" s="45">
-        <v>1555154</v>
+        <v>1579276</v>
       </c>
       <c r="E5" s="45">
-        <v>194717</v>
+        <v>201012</v>
       </c>
       <c r="F5" s="45">
-        <v>758835</v>
+        <v>763124</v>
       </c>
       <c r="G5" s="45">
-        <v>35997</v>
+        <v>33679</v>
       </c>
       <c r="H5" s="45">
-        <v>856864</v>
+        <v>873635</v>
       </c>
       <c r="I5" s="45">
-        <v>790789</v>
+        <v>803195</v>
       </c>
       <c r="J5" s="45">
-        <v>53146</v>
+        <v>54636</v>
       </c>
       <c r="K5" s="45">
-        <v>12929</v>
+        <v>15804</v>
       </c>
       <c r="L5" s="45">
         <v>0</v>
       </c>
       <c r="M5" s="45">
-        <v>12780</v>
+        <v>16339</v>
       </c>
       <c r="N5" s="45">
-        <v>713439</v>
+        <v>787280</v>
       </c>
       <c r="O5" s="45">
-        <v>634387</v>
+        <v>692455</v>
       </c>
       <c r="P5" s="45">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="45">
-        <v>78885</v>
+        <v>94657</v>
       </c>
       <c r="R5" s="45">
-        <v>50827</v>
+        <v>73841</v>
       </c>
       <c r="S5" s="45">
-        <v>26622</v>
+        <v>36409</v>
       </c>
       <c r="T5" s="45">
-        <v>26186</v>
+        <v>35680</v>
       </c>
       <c r="U5" s="45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V5" s="45">
-        <v>430</v>
+        <v>705</v>
       </c>
       <c r="W5" s="45">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>5013</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2921,70 +2907,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>2994232</v>
+        <v>3026136</v>
       </c>
       <c r="D6" s="46">
-        <v>2038676</v>
+        <v>2064436</v>
       </c>
       <c r="E6" s="46">
-        <v>248860</v>
+        <v>254338</v>
       </c>
       <c r="F6" s="46">
-        <v>706696</v>
+        <v>707362</v>
       </c>
       <c r="G6" s="46">
-        <v>32999</v>
+        <v>31904</v>
       </c>
       <c r="H6" s="46">
-        <v>998338</v>
+        <v>1026778</v>
       </c>
       <c r="I6" s="46">
-        <v>904347</v>
+        <v>926531</v>
       </c>
       <c r="J6" s="46">
-        <v>70148</v>
+        <v>73568</v>
       </c>
       <c r="K6" s="46">
-        <v>23842</v>
+        <v>26678</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>17786</v>
+        <v>28440</v>
       </c>
       <c r="N6" s="46">
-        <v>945879</v>
+        <v>1057779</v>
       </c>
       <c r="O6" s="46">
-        <v>770931</v>
+        <v>850354</v>
       </c>
       <c r="P6" s="46">
         <v>332</v>
       </c>
       <c r="Q6" s="46">
-        <v>174616</v>
+        <v>207093</v>
       </c>
       <c r="R6" s="46">
-        <v>76768</v>
+        <v>111900</v>
       </c>
       <c r="S6" s="46">
-        <v>20725</v>
+        <v>29517</v>
       </c>
       <c r="T6" s="46">
-        <v>17956</v>
+        <v>25715</v>
       </c>
       <c r="U6" s="46">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="V6" s="46">
-        <v>2262</v>
+        <v>3275</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>4554</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2995,70 +2981,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>754607</v>
+        <v>761038</v>
       </c>
       <c r="D7" s="45">
-        <v>508873</v>
+        <v>514193</v>
       </c>
       <c r="E7" s="45">
-        <v>60022</v>
+        <v>61115</v>
       </c>
       <c r="F7" s="45">
-        <v>185712</v>
+        <v>185730</v>
       </c>
       <c r="G7" s="45">
-        <v>6857</v>
+        <v>6431</v>
       </c>
       <c r="H7" s="45">
-        <v>359708</v>
+        <v>365139</v>
       </c>
       <c r="I7" s="45">
-        <v>311716</v>
+        <v>316167</v>
       </c>
       <c r="J7" s="45">
-        <v>45543</v>
+        <v>46333</v>
       </c>
       <c r="K7" s="45">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L7" s="45">
-        <v>2449</v>
+        <v>2569</v>
       </c>
       <c r="M7" s="45">
-        <v>5068</v>
+        <v>5431</v>
       </c>
       <c r="N7" s="45">
-        <v>235894</v>
+        <v>262956</v>
       </c>
       <c r="O7" s="45">
-        <v>186202</v>
+        <v>205885</v>
       </c>
       <c r="P7" s="45">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="45">
-        <v>49624</v>
+        <v>56998</v>
       </c>
       <c r="R7" s="45">
-        <v>19054</v>
+        <v>27062</v>
       </c>
       <c r="S7" s="45">
-        <v>8464</v>
+        <v>11866</v>
       </c>
       <c r="T7" s="45">
-        <v>7527</v>
+        <v>10595</v>
       </c>
       <c r="U7" s="45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V7" s="45">
-        <v>918</v>
+        <v>1250</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>1849</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3069,70 +3055,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>454609</v>
+        <v>459155</v>
       </c>
       <c r="D8" s="46">
-        <v>301316</v>
+        <v>303872</v>
       </c>
       <c r="E8" s="46">
-        <v>47298</v>
+        <v>49208</v>
       </c>
       <c r="F8" s="46">
-        <v>105995</v>
+        <v>106075</v>
       </c>
       <c r="G8" s="46">
-        <v>1967</v>
+        <v>3656</v>
       </c>
       <c r="H8" s="46">
-        <v>186642</v>
+        <v>194684</v>
       </c>
       <c r="I8" s="46">
-        <v>163550</v>
+        <v>170197</v>
       </c>
       <c r="J8" s="46">
-        <v>17609</v>
+        <v>18489</v>
       </c>
       <c r="K8" s="46">
-        <v>5483</v>
+        <v>5998</v>
       </c>
       <c r="L8" s="46">
         <v>0</v>
       </c>
       <c r="M8" s="46">
-        <v>5877</v>
+        <v>7577</v>
       </c>
       <c r="N8" s="46">
-        <v>210928</v>
+        <v>226789</v>
       </c>
       <c r="O8" s="46">
-        <v>154165</v>
+        <v>165833</v>
       </c>
       <c r="P8" s="46">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="46">
-        <v>56320</v>
+        <v>60479</v>
       </c>
       <c r="R8" s="46">
-        <v>11888</v>
+        <v>15861</v>
       </c>
       <c r="S8" s="46">
-        <v>15681</v>
+        <v>19768</v>
       </c>
       <c r="T8" s="46">
-        <v>15189</v>
+        <v>19144</v>
       </c>
       <c r="U8" s="46">
         <v>11</v>
       </c>
       <c r="V8" s="46">
-        <v>481</v>
+        <v>613</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>4299</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3143,70 +3129,70 @@
         <v>69</v>
       </c>
       <c r="C9" s="45">
-        <v>166862</v>
+        <v>169261</v>
       </c>
       <c r="D9" s="45">
-        <v>104538</v>
+        <v>105289</v>
       </c>
       <c r="E9" s="45">
-        <v>11644</v>
+        <v>11992</v>
       </c>
       <c r="F9" s="45">
-        <v>50680</v>
+        <v>51980</v>
       </c>
       <c r="G9" s="45">
-        <v>2515</v>
+        <v>2395</v>
       </c>
       <c r="H9" s="45">
-        <v>69636</v>
+        <v>72216</v>
       </c>
       <c r="I9" s="45">
-        <v>64864</v>
+        <v>66863</v>
       </c>
       <c r="J9" s="45">
-        <v>4071</v>
+        <v>4474</v>
       </c>
       <c r="K9" s="45">
-        <v>701</v>
+        <v>879</v>
       </c>
       <c r="L9" s="45">
         <v>0</v>
       </c>
       <c r="M9" s="45">
-        <v>2450</v>
+        <v>2564</v>
       </c>
       <c r="N9" s="45">
-        <v>40893</v>
+        <v>44831</v>
       </c>
       <c r="O9" s="45">
-        <v>36001</v>
+        <v>39232</v>
       </c>
       <c r="P9" s="45">
         <v>0</v>
       </c>
       <c r="Q9" s="45">
-        <v>4892</v>
+        <v>5599</v>
       </c>
       <c r="R9" s="45">
-        <v>2538</v>
+        <v>3938</v>
       </c>
       <c r="S9" s="45">
-        <v>879</v>
+        <v>1368</v>
       </c>
       <c r="T9" s="45">
-        <v>827</v>
+        <v>1299</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>280</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3217,70 +3203,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>439734</v>
+        <v>444119</v>
       </c>
       <c r="D10" s="46">
-        <v>280396</v>
+        <v>282048</v>
       </c>
       <c r="E10" s="46">
-        <v>39172</v>
+        <v>41893</v>
       </c>
       <c r="F10" s="46">
-        <v>120166</v>
+        <v>120178</v>
       </c>
       <c r="G10" s="46">
-        <v>6107</v>
+        <v>4283</v>
       </c>
       <c r="H10" s="46">
-        <v>135398</v>
+        <v>139190</v>
       </c>
       <c r="I10" s="46">
-        <v>127856</v>
+        <v>131086</v>
       </c>
       <c r="J10" s="46">
-        <v>6993</v>
+        <v>7256</v>
       </c>
       <c r="K10" s="46">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="L10" s="46">
-        <v>378</v>
+        <v>588</v>
       </c>
       <c r="M10" s="46">
-        <v>2211</v>
+        <v>3639</v>
       </c>
       <c r="N10" s="46">
-        <v>108748</v>
+        <v>119742</v>
       </c>
       <c r="O10" s="46">
-        <v>90889</v>
+        <v>99774</v>
       </c>
       <c r="P10" s="46">
-        <v>183</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="46">
-        <v>17676</v>
+        <v>19564</v>
       </c>
       <c r="R10" s="46">
-        <v>7176</v>
+        <v>10994</v>
       </c>
       <c r="S10" s="46">
-        <v>2144</v>
+        <v>2970</v>
       </c>
       <c r="T10" s="46">
-        <v>1998</v>
+        <v>2767</v>
       </c>
       <c r="U10" s="46">
         <v>2</v>
       </c>
       <c r="V10" s="46">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>488</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3291,70 +3277,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1405928</v>
+        <v>1439568</v>
       </c>
       <c r="D11" s="45">
-        <v>842099</v>
+        <v>862548</v>
       </c>
       <c r="E11" s="45">
-        <v>114333</v>
+        <v>122282</v>
       </c>
       <c r="F11" s="45">
-        <v>449496</v>
+        <v>454738</v>
       </c>
       <c r="G11" s="45">
-        <v>26312</v>
+        <v>28537</v>
       </c>
       <c r="H11" s="45">
-        <v>488875</v>
+        <v>492871</v>
       </c>
       <c r="I11" s="45">
-        <v>462286</v>
+        <v>465071</v>
       </c>
       <c r="J11" s="45">
-        <v>22976</v>
+        <v>23480</v>
       </c>
       <c r="K11" s="45">
-        <v>3613</v>
+        <v>4320</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>2936</v>
+        <v>3497</v>
       </c>
       <c r="N11" s="45">
-        <v>387676</v>
+        <v>438536</v>
       </c>
       <c r="O11" s="45">
-        <v>334027</v>
+        <v>371192</v>
       </c>
       <c r="P11" s="45">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="45">
-        <v>53566</v>
+        <v>67255</v>
       </c>
       <c r="R11" s="45">
-        <v>30889</v>
+        <v>50860</v>
       </c>
       <c r="S11" s="45">
-        <v>11405</v>
+        <v>16182</v>
       </c>
       <c r="T11" s="45">
-        <v>10943</v>
+        <v>15541</v>
       </c>
       <c r="U11" s="45">
         <v>87</v>
       </c>
       <c r="V11" s="45">
-        <v>333</v>
+        <v>512</v>
       </c>
       <c r="W11" s="45">
         <v>42</v>
       </c>
       <c r="X11" s="45">
-        <v>2400</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3365,70 +3351,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>343980</v>
+        <v>348508</v>
       </c>
       <c r="D12" s="46">
-        <v>247848</v>
+        <v>251446</v>
       </c>
       <c r="E12" s="46">
-        <v>31847</v>
+        <v>32766</v>
       </c>
       <c r="F12" s="46">
-        <v>64285</v>
+        <v>64296</v>
       </c>
       <c r="G12" s="46">
-        <v>5508</v>
+        <v>4329</v>
       </c>
       <c r="H12" s="46">
-        <v>114695</v>
+        <v>118393</v>
       </c>
       <c r="I12" s="46">
-        <v>106406</v>
+        <v>109021</v>
       </c>
       <c r="J12" s="46">
-        <v>7966</v>
+        <v>8918</v>
       </c>
       <c r="K12" s="46">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="L12" s="46">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="M12" s="46">
-        <v>2839</v>
+        <v>3675</v>
       </c>
       <c r="N12" s="46">
-        <v>163936</v>
+        <v>177817</v>
       </c>
       <c r="O12" s="46">
-        <v>121472</v>
+        <v>133081</v>
       </c>
       <c r="P12" s="46">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="46">
-        <v>42395</v>
+        <v>44662</v>
       </c>
       <c r="R12" s="46">
-        <v>8578</v>
+        <v>13881</v>
       </c>
       <c r="S12" s="46">
-        <v>3638</v>
+        <v>5545</v>
       </c>
       <c r="T12" s="46">
-        <v>3222</v>
+        <v>5029</v>
       </c>
       <c r="U12" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="46">
-        <v>411</v>
+        <v>510</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>795</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3439,70 +3425,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>1854057</v>
+        <v>1888505</v>
       </c>
       <c r="D13" s="45">
-        <v>1078870</v>
+        <v>1098638</v>
       </c>
       <c r="E13" s="45">
-        <v>172339</v>
+        <v>177245</v>
       </c>
       <c r="F13" s="45">
-        <v>602848</v>
+        <v>612622</v>
       </c>
       <c r="G13" s="45">
-        <v>32949</v>
+        <v>32981</v>
       </c>
       <c r="H13" s="45">
-        <v>576672</v>
+        <v>586648</v>
       </c>
       <c r="I13" s="45">
-        <v>536119</v>
+        <v>541604</v>
       </c>
       <c r="J13" s="45">
-        <v>30812</v>
+        <v>33043</v>
       </c>
       <c r="K13" s="45">
-        <v>3280</v>
+        <v>4384</v>
       </c>
       <c r="L13" s="45">
-        <v>6461</v>
+        <v>7617</v>
       </c>
       <c r="M13" s="45">
-        <v>9217</v>
+        <v>9467</v>
       </c>
       <c r="N13" s="45">
-        <v>548153</v>
+        <v>622682</v>
       </c>
       <c r="O13" s="45">
-        <v>475490</v>
+        <v>525402</v>
       </c>
       <c r="P13" s="45">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="45">
-        <v>72288</v>
+        <v>96884</v>
       </c>
       <c r="R13" s="45">
-        <v>44084</v>
+        <v>74529</v>
       </c>
       <c r="S13" s="45">
-        <v>12154</v>
+        <v>16446</v>
       </c>
       <c r="T13" s="45">
-        <v>10910</v>
+        <v>14656</v>
       </c>
       <c r="U13" s="45">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="V13" s="45">
-        <v>838</v>
+        <v>1362</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>2356</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3513,70 +3499,70 @@
         <v>68</v>
       </c>
       <c r="C14" s="46">
-        <v>4192464</v>
+        <v>4251836</v>
       </c>
       <c r="D14" s="46">
-        <v>2802740</v>
+        <v>2851835</v>
       </c>
       <c r="E14" s="46">
-        <v>255250</v>
+        <v>264035</v>
       </c>
       <c r="F14" s="46">
-        <v>1134474</v>
+        <v>1135966</v>
       </c>
       <c r="G14" s="46">
-        <v>40655</v>
+        <v>45141</v>
       </c>
       <c r="H14" s="46">
-        <v>1386540</v>
+        <v>1403782</v>
       </c>
       <c r="I14" s="46">
-        <v>1309992</v>
+        <v>1322615</v>
       </c>
       <c r="J14" s="46">
-        <v>66966</v>
+        <v>70638</v>
       </c>
       <c r="K14" s="46">
-        <v>9205</v>
+        <v>10096</v>
       </c>
       <c r="L14" s="46">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="M14" s="46">
-        <v>9665</v>
+        <v>12097</v>
       </c>
       <c r="N14" s="46">
-        <v>1372892</v>
+        <v>1526765</v>
       </c>
       <c r="O14" s="46">
-        <v>1092487</v>
+        <v>1206819</v>
       </c>
       <c r="P14" s="46">
-        <v>3520</v>
+        <v>3651</v>
       </c>
       <c r="Q14" s="46">
-        <v>276885</v>
+        <v>316295</v>
       </c>
       <c r="R14" s="46">
-        <v>99684</v>
+        <v>153873</v>
       </c>
       <c r="S14" s="46">
-        <v>28185</v>
+        <v>38320</v>
       </c>
       <c r="T14" s="46">
-        <v>25506</v>
+        <v>34785</v>
       </c>
       <c r="U14" s="46">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="V14" s="46">
-        <v>2028</v>
+        <v>2783</v>
       </c>
       <c r="W14" s="46">
         <v>3</v>
       </c>
       <c r="X14" s="46">
-        <v>5726</v>
+        <v>10135</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3587,70 +3573,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>912394</v>
+        <v>921323</v>
       </c>
       <c r="D15" s="45">
-        <v>601874</v>
+        <v>607887</v>
       </c>
       <c r="E15" s="45">
-        <v>48879</v>
+        <v>51470</v>
       </c>
       <c r="F15" s="45">
-        <v>261641</v>
+        <v>261966</v>
       </c>
       <c r="G15" s="45">
-        <v>6782</v>
+        <v>6538</v>
       </c>
       <c r="H15" s="45">
-        <v>378011</v>
+        <v>393608</v>
       </c>
       <c r="I15" s="45">
-        <v>342513</v>
+        <v>355475</v>
       </c>
       <c r="J15" s="45">
-        <v>24762</v>
+        <v>25755</v>
       </c>
       <c r="K15" s="45">
-        <v>10736</v>
+        <v>12378</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>14689</v>
+        <v>14579</v>
       </c>
       <c r="N15" s="45">
-        <v>265978</v>
+        <v>298493</v>
       </c>
       <c r="O15" s="45">
-        <v>235921</v>
+        <v>260026</v>
       </c>
       <c r="P15" s="45">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q15" s="45">
-        <v>29925</v>
+        <v>38324</v>
       </c>
       <c r="R15" s="45">
-        <v>20158</v>
+        <v>32515</v>
       </c>
       <c r="S15" s="45">
-        <v>8266</v>
+        <v>11138</v>
       </c>
       <c r="T15" s="45">
-        <v>8036</v>
+        <v>10824</v>
       </c>
       <c r="U15" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="45">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>1702</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3661,70 +3647,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>254244</v>
+        <v>258919</v>
       </c>
       <c r="D16" s="46">
-        <v>192805</v>
+        <v>195805</v>
       </c>
       <c r="E16" s="46">
-        <v>20168</v>
+        <v>21251</v>
       </c>
       <c r="F16" s="46">
-        <v>41271</v>
+        <v>41863</v>
       </c>
       <c r="G16" s="46">
-        <v>4986</v>
+        <v>4541</v>
       </c>
       <c r="H16" s="46">
-        <v>87588</v>
+        <v>88553</v>
       </c>
       <c r="I16" s="46">
-        <v>79643</v>
+        <v>80398</v>
       </c>
       <c r="J16" s="46">
-        <v>6970</v>
+        <v>6983</v>
       </c>
       <c r="K16" s="46">
-        <v>975</v>
+        <v>1172</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>482</v>
+        <v>959</v>
       </c>
       <c r="N16" s="46">
-        <v>72240</v>
+        <v>79939</v>
       </c>
       <c r="O16" s="46">
-        <v>63542</v>
+        <v>69512</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>8619</v>
+        <v>10348</v>
       </c>
       <c r="R16" s="46">
-        <v>5751</v>
+        <v>7699</v>
       </c>
       <c r="S16" s="46">
-        <v>1019</v>
+        <v>1862</v>
       </c>
       <c r="T16" s="46">
-        <v>902</v>
+        <v>1684</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>320</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3735,70 +3721,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>828732</v>
+        <v>840209</v>
       </c>
       <c r="D17" s="45">
-        <v>588912</v>
+        <v>597709</v>
       </c>
       <c r="E17" s="45">
-        <v>63370</v>
+        <v>65673</v>
       </c>
       <c r="F17" s="45">
-        <v>176450</v>
+        <v>176827</v>
       </c>
       <c r="G17" s="45">
-        <v>10567</v>
+        <v>11477</v>
       </c>
       <c r="H17" s="45">
-        <v>416218</v>
+        <v>423547</v>
       </c>
       <c r="I17" s="45">
-        <v>387449</v>
+        <v>393829</v>
       </c>
       <c r="J17" s="45">
-        <v>27957</v>
+        <v>28772</v>
       </c>
       <c r="K17" s="45">
-        <v>812</v>
+        <v>946</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>7973</v>
+        <v>7329</v>
       </c>
       <c r="N17" s="45">
-        <v>258342</v>
+        <v>279840</v>
       </c>
       <c r="O17" s="45">
-        <v>192189</v>
+        <v>207465</v>
       </c>
       <c r="P17" s="45">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="45">
-        <v>66066</v>
+        <v>72277</v>
       </c>
       <c r="R17" s="45">
-        <v>14198</v>
+        <v>21498</v>
       </c>
       <c r="S17" s="45">
-        <v>23455</v>
+        <v>32859</v>
       </c>
       <c r="T17" s="45">
-        <v>23048</v>
+        <v>32351</v>
       </c>
       <c r="U17" s="45">
         <v>27</v>
       </c>
       <c r="V17" s="45">
-        <v>342</v>
+        <v>443</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>4111</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3809,70 +3795,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>496306</v>
+        <v>501037</v>
       </c>
       <c r="D18" s="47">
-        <v>324037</v>
+        <v>328188</v>
       </c>
       <c r="E18" s="47">
-        <v>43819</v>
+        <v>44340</v>
       </c>
       <c r="F18" s="47">
-        <v>128450</v>
+        <v>128509</v>
       </c>
       <c r="G18" s="47">
-        <v>7162</v>
+        <v>4731</v>
       </c>
       <c r="H18" s="47">
-        <v>171467</v>
+        <v>175120</v>
       </c>
       <c r="I18" s="47">
-        <v>152421</v>
+        <v>155233</v>
       </c>
       <c r="J18" s="47">
-        <v>17222</v>
+        <v>17809</v>
       </c>
       <c r="K18" s="47">
-        <v>1824</v>
+        <v>2078</v>
       </c>
       <c r="L18" s="47">
         <v>0</v>
       </c>
       <c r="M18" s="47">
-        <v>5776</v>
+        <v>3653</v>
       </c>
       <c r="N18" s="46">
-        <v>153903</v>
+        <v>171118</v>
       </c>
       <c r="O18" s="46">
-        <v>134255</v>
+        <v>147501</v>
       </c>
       <c r="P18" s="46">
         <v>0</v>
       </c>
       <c r="Q18" s="46">
-        <v>19648</v>
+        <v>23617</v>
       </c>
       <c r="R18" s="46">
-        <v>12003</v>
+        <v>17215</v>
       </c>
       <c r="S18" s="46">
-        <v>3212</v>
+        <v>4862</v>
       </c>
       <c r="T18" s="46">
-        <v>3028</v>
+        <v>4582</v>
       </c>
       <c r="U18" s="46">
         <v>0</v>
       </c>
       <c r="V18" s="46">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>788</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3883,70 +3869,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>603878</v>
+        <v>607895</v>
       </c>
       <c r="D19" s="45">
-        <v>413378</v>
+        <v>416547</v>
       </c>
       <c r="E19" s="45">
-        <v>45802</v>
+        <v>46637</v>
       </c>
       <c r="F19" s="45">
-        <v>144698</v>
+        <v>144711</v>
       </c>
       <c r="G19" s="45">
-        <v>5006</v>
+        <v>4022</v>
       </c>
       <c r="H19" s="45">
-        <v>268283</v>
+        <v>278121</v>
       </c>
       <c r="I19" s="45">
-        <v>243488</v>
+        <v>251476</v>
       </c>
       <c r="J19" s="45">
-        <v>21155</v>
+        <v>22547</v>
       </c>
       <c r="K19" s="45">
-        <v>3640</v>
+        <v>4098</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>8414</v>
+        <v>9848</v>
       </c>
       <c r="N19" s="45">
-        <v>201931</v>
+        <v>230145</v>
       </c>
       <c r="O19" s="45">
-        <v>175685</v>
+        <v>195897</v>
       </c>
       <c r="P19" s="45">
-        <v>958</v>
+        <v>1239</v>
       </c>
       <c r="Q19" s="45">
-        <v>25288</v>
+        <v>33009</v>
       </c>
       <c r="R19" s="45">
-        <v>15896</v>
+        <v>28214</v>
       </c>
       <c r="S19" s="45">
-        <v>6785</v>
+        <v>9401</v>
       </c>
       <c r="T19" s="45">
-        <v>6115</v>
+        <v>8599</v>
       </c>
       <c r="U19" s="45">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="V19" s="45">
-        <v>328</v>
+        <v>455</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>1046</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3957,70 +3943,70 @@
         <v>71</v>
       </c>
       <c r="C20" s="47">
-        <v>455931</v>
+        <v>460200</v>
       </c>
       <c r="D20" s="47">
-        <v>320961</v>
+        <v>324495</v>
       </c>
       <c r="E20" s="47">
-        <v>35240</v>
+        <v>35976</v>
       </c>
       <c r="F20" s="47">
-        <v>99730</v>
+        <v>99729</v>
       </c>
       <c r="G20" s="47">
-        <v>4525</v>
+        <v>3780</v>
       </c>
       <c r="H20" s="47">
-        <v>252729</v>
+        <v>259172</v>
       </c>
       <c r="I20" s="47">
-        <v>232435</v>
+        <v>238875</v>
       </c>
       <c r="J20" s="47">
-        <v>19848</v>
+        <v>19852</v>
       </c>
       <c r="K20" s="47">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L20" s="47">
         <v>0</v>
       </c>
       <c r="M20" s="47">
-        <v>4694</v>
+        <v>5388</v>
       </c>
       <c r="N20" s="47">
-        <v>127940</v>
+        <v>141210</v>
       </c>
       <c r="O20" s="46">
-        <v>113537</v>
+        <v>123884</v>
       </c>
       <c r="P20" s="46">
         <v>53</v>
       </c>
       <c r="Q20" s="46">
-        <v>14350</v>
+        <v>17273</v>
       </c>
       <c r="R20" s="46">
-        <v>10350</v>
+        <v>13270</v>
       </c>
       <c r="S20" s="46">
-        <v>7385</v>
+        <v>10320</v>
       </c>
       <c r="T20" s="46">
-        <v>6927</v>
+        <v>9599</v>
       </c>
       <c r="U20" s="46">
         <v>1</v>
       </c>
       <c r="V20" s="46">
-        <v>447</v>
+        <v>710</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>1683</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4029,37 +4015,37 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>61692</v>
+        <v>64470</v>
       </c>
       <c r="D21" s="45">
         <v>1244</v>
       </c>
       <c r="E21" s="45">
-        <v>43312</v>
+        <v>45957</v>
       </c>
       <c r="F21" s="45">
-        <v>17136</v>
+        <v>17269</v>
       </c>
       <c r="G21" s="45">
-        <v>1587</v>
+        <v>2614</v>
       </c>
       <c r="H21" s="45">
-        <v>3901</v>
+        <v>5196</v>
       </c>
       <c r="I21" s="55">
         <v>2</v>
       </c>
       <c r="J21" s="55">
-        <v>3853</v>
+        <v>5141</v>
       </c>
       <c r="K21" s="55">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L21" s="55">
         <v>0</v>
       </c>
       <c r="M21" s="55">
-        <v>700</v>
+        <v>1280</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>76</v>
@@ -4099,70 +4085,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>18728356</v>
+        <v>18985591</v>
       </c>
       <c r="D22" s="57">
-        <v>12203721</v>
+        <v>12385456</v>
       </c>
       <c r="E22" s="57">
-        <v>1476072</v>
+        <v>1527190</v>
       </c>
       <c r="F22" s="57">
-        <v>5048563</v>
+        <v>5072945</v>
       </c>
       <c r="G22" s="57">
-        <v>232481</v>
+        <v>231039</v>
       </c>
       <c r="H22" s="57">
-        <v>6751565</v>
+        <v>6896653</v>
       </c>
       <c r="I22" s="57">
-        <v>6215876</v>
+        <v>6327638</v>
       </c>
       <c r="J22" s="57">
-        <v>447997</v>
+        <v>467694</v>
       </c>
       <c r="K22" s="57">
-        <v>77999</v>
+        <v>90005</v>
       </c>
       <c r="L22" s="57">
-        <v>9693</v>
+        <v>11316</v>
       </c>
       <c r="M22" s="57">
-        <v>113557</v>
+        <v>135762</v>
       </c>
       <c r="N22" s="57">
-        <v>5808772</v>
+        <v>6465922</v>
       </c>
       <c r="O22" s="57">
-        <v>4811180</v>
+        <v>5294312</v>
       </c>
       <c r="P22" s="57">
-        <v>6549</v>
+        <v>7276</v>
       </c>
       <c r="Q22" s="57">
-        <v>991043</v>
+        <v>1164334</v>
       </c>
       <c r="R22" s="57">
-        <v>429842</v>
+        <v>657150</v>
       </c>
       <c r="S22" s="57">
-        <v>180019</v>
+        <v>248833</v>
       </c>
       <c r="T22" s="57">
-        <v>168320</v>
+        <v>232850</v>
       </c>
       <c r="U22" s="57">
-        <v>2074</v>
+        <v>2228</v>
       </c>
       <c r="V22" s="57">
-        <v>9527</v>
+        <v>13640</v>
       </c>
       <c r="W22" s="57">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="X22" s="57">
-        <v>37410</v>
+        <v>68814</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4177,29 +4163,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4209,12 +4195,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4226,6 +4206,12 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4233,334 +4219,327 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="86">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="69">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
-        <v>24465</v>
-      </c>
-      <c r="C2" s="87"/>
+        <v>24464</v>
+      </c>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
       <c r="D2" s="45">
-        <v>24465</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+        <v>24464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="70">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18340</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
       <c r="D3" s="46">
         <v>18340</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>48962</v>
-      </c>
-      <c r="C4" s="87"/>
+        <v>48961</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
       <c r="D4" s="45">
-        <v>48962</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+        <v>48961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="70">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
-        <v>62537</v>
-      </c>
-      <c r="C5" s="89"/>
+        <v>62536</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
       <c r="D5" s="46">
-        <v>62537</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="86">
+        <v>62536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>49903</v>
-      </c>
-      <c r="C6" s="87"/>
+        <v>49901</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
       <c r="D6" s="45">
-        <v>49903</v>
-      </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+        <v>49901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>19273</v>
-      </c>
-      <c r="C7" s="89"/>
+        <v>19274</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="46">
-        <v>19273</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="86">
+        <v>19274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
         <v>52819</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
       <c r="D8" s="45">
         <v>52819</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="70">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
-        <v>24208</v>
-      </c>
-      <c r="C9" s="89"/>
+        <v>24207</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
       <c r="D9" s="46">
-        <v>24208</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+        <v>24207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48389</v>
-      </c>
-      <c r="C10" s="87"/>
+        <v>48387</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
       <c r="D10" s="45">
-        <v>48389</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="88">
+        <v>48387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="70">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>54035</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
       <c r="D11" s="46">
         <v>54035</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62854</v>
-      </c>
-      <c r="C12" s="87"/>
+        <v>62862</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
       <c r="D12" s="45">
-        <v>62854</v>
-      </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+        <v>62862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="70">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55858</v>
-      </c>
-      <c r="C13" s="89"/>
+        <v>55857</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
       <c r="D13" s="46">
-        <v>55858</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
+        <v>55857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>63165</v>
-      </c>
-      <c r="C14" s="87"/>
+        <v>63169</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <v>63165</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+        <v>63169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61319</v>
-      </c>
-      <c r="C15" s="91"/>
+        <v>61317</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
-        <v>61319</v>
-      </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
+        <v>61317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35353</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="45">
         <v>35353</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="90">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67538</v>
-      </c>
-      <c r="C17" s="91"/>
+        <v>67633</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
       <c r="D17" s="47">
-        <v>67538</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="86">
+        <v>67633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
         <v>82737</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
       <c r="D18" s="45">
         <v>82737</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="70">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111384</v>
-      </c>
-      <c r="C19" s="89"/>
+        <v>111383</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
       <c r="D19" s="46">
-        <v>111384</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="86">
+        <v>111383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82524</v>
-      </c>
-      <c r="C20" s="87"/>
+        <v>82525</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
       <c r="D20" s="45">
-        <v>82524</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+        <v>82525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="70">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90904</v>
+        <v>90938</v>
       </c>
       <c r="C21" s="46">
         <v>602</v>
       </c>
       <c r="D21" s="46">
-        <v>91506</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="86">
+        <v>91540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56555</v>
+        <v>56554</v>
       </c>
       <c r="C22" s="45">
         <v>899</v>
       </c>
       <c r="D22" s="45">
-        <v>57454</v>
-      </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="88">
+        <v>57453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="70">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4572,59 +4551,51 @@
       <c r="D23" s="46">
         <v>48519</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="86">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66537</v>
+        <v>66535</v>
       </c>
       <c r="C24" s="45">
         <v>15729</v>
       </c>
       <c r="D24" s="45">
-        <v>82266</v>
-      </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="88">
+        <v>82264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="70">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>81777</v>
+        <v>81773</v>
       </c>
       <c r="C25" s="46">
         <v>33444</v>
       </c>
       <c r="D25" s="46">
-        <v>115221</v>
-      </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="86">
+        <v>115217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80683</v>
+        <v>80682</v>
       </c>
       <c r="C26" s="45">
         <v>51534</v>
       </c>
       <c r="D26" s="45">
-        <v>132217</v>
-      </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="88">
+        <v>132216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="70">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
@@ -4636,11 +4607,9 @@
       <c r="D27" s="46">
         <v>104947</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="86">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
@@ -4652,11 +4621,9 @@
       <c r="D28" s="45">
         <v>102305</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="88">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="70">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
@@ -4668,11 +4635,9 @@
       <c r="D29" s="46">
         <v>85549</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="86">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4684,91 +4649,79 @@
       <c r="D30" s="45">
         <v>50030</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="71">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
-        <v>56057</v>
+        <v>56058</v>
       </c>
       <c r="C31" s="47">
-        <v>38070</v>
+        <v>38069</v>
       </c>
       <c r="D31" s="47">
         <v>94127</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="86">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="69">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50426</v>
+        <v>50425</v>
       </c>
       <c r="C32" s="45">
         <v>48648</v>
       </c>
       <c r="D32" s="45">
-        <v>99074</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+        <v>99073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="71">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51382</v>
+        <v>51383</v>
       </c>
       <c r="C33" s="47">
         <v>59681</v>
       </c>
       <c r="D33" s="47">
-        <v>111063</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="86">
+        <v>111064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="C34" s="45">
-        <v>46413</v>
+        <v>46412</v>
       </c>
       <c r="D34" s="45">
         <v>91543</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="88">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="70">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
         <v>51005</v>
       </c>
       <c r="C35" s="46">
-        <v>57333</v>
+        <v>57336</v>
       </c>
       <c r="D35" s="46">
-        <v>108338</v>
-      </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="86">
+        <v>108341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
@@ -4780,11 +4733,9 @@
       <c r="D36" s="45">
         <v>87731</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="88">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="70">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
@@ -4796,11 +4747,9 @@
       <c r="D37" s="46">
         <v>58123</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="86">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
@@ -4812,11 +4761,9 @@
       <c r="D38" s="45">
         <v>121842</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="88">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="70">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
@@ -4828,27 +4775,23 @@
       <c r="D39" s="46">
         <v>130942</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="86">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
         <v>64579</v>
       </c>
       <c r="C40" s="45">
-        <v>95144</v>
+        <v>95143</v>
       </c>
       <c r="D40" s="45">
-        <v>159723</v>
-      </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
+        <v>159722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="70">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
@@ -4860,347 +4803,303 @@
       <c r="D41" s="46">
         <v>132182</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="86">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="69">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67612</v>
+        <v>67611</v>
       </c>
       <c r="C42" s="45">
         <v>77524</v>
       </c>
       <c r="D42" s="45">
-        <v>145136</v>
-      </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="88">
+        <v>145135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="70">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47111</v>
+        <v>47116</v>
       </c>
       <c r="C43" s="46">
-        <v>53023</v>
+        <v>53022</v>
       </c>
       <c r="D43" s="46">
-        <v>100134</v>
-      </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="86">
+        <v>100138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
-        <v>28183</v>
+        <v>28182</v>
       </c>
       <c r="C44" s="45">
         <v>26072</v>
       </c>
       <c r="D44" s="45">
-        <v>54255</v>
-      </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="88">
+        <v>54254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="70">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53441</v>
+        <v>53440</v>
       </c>
       <c r="C45" s="46">
         <v>56699</v>
       </c>
       <c r="D45" s="46">
-        <v>110140</v>
-      </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="86">
+        <v>110139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="69">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59234</v>
+        <v>59235</v>
       </c>
       <c r="C46" s="45">
         <v>74192</v>
       </c>
       <c r="D46" s="45">
-        <v>133426</v>
-      </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="90">
+        <v>133427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="71">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>74317</v>
+        <v>74316</v>
       </c>
       <c r="C47" s="47">
         <v>75600</v>
       </c>
       <c r="D47" s="47">
-        <v>149917</v>
-      </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="86">
+        <v>149916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="69">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>74534</v>
+        <v>74536</v>
       </c>
       <c r="C48" s="45">
-        <v>68276</v>
+        <v>68275</v>
       </c>
       <c r="D48" s="45">
-        <v>142810</v>
-      </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="90">
+        <v>142811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="71">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>80756</v>
+        <v>80755</v>
       </c>
       <c r="C49" s="47">
-        <v>74965</v>
+        <v>74964</v>
       </c>
       <c r="D49" s="47">
-        <v>155721</v>
-      </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="86">
+        <v>155719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="69">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62178</v>
+        <v>62177</v>
       </c>
       <c r="C50" s="45">
-        <v>46112</v>
+        <v>46110</v>
       </c>
       <c r="D50" s="45">
-        <v>108290</v>
-      </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="88">
+        <v>108287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="70">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
         <v>40023</v>
       </c>
       <c r="C51" s="46">
-        <v>25064</v>
+        <v>25063</v>
       </c>
       <c r="D51" s="46">
-        <v>65087</v>
-      </c>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="86">
+        <v>65086</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="69">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71149</v>
+        <v>71144</v>
       </c>
       <c r="C52" s="45">
         <v>55810</v>
       </c>
       <c r="D52" s="45">
-        <v>126959</v>
-      </c>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="88">
+        <v>126954</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="70">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81624</v>
+        <v>81631</v>
       </c>
       <c r="C53" s="46">
-        <v>53738</v>
+        <v>53739</v>
       </c>
       <c r="D53" s="46">
-        <v>135362</v>
-      </c>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="86">
+        <v>135370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="69">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>94370</v>
+        <v>94366</v>
       </c>
       <c r="C54" s="45">
-        <v>55724</v>
+        <v>55750</v>
       </c>
       <c r="D54" s="45">
-        <v>150094</v>
-      </c>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="88">
+        <v>150116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="70">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>92149</v>
+        <v>92152</v>
       </c>
       <c r="C55" s="46">
         <v>51162</v>
       </c>
       <c r="D55" s="46">
-        <v>143311</v>
-      </c>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="86">
+        <v>143314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="69">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99359</v>
+        <v>99362</v>
       </c>
       <c r="C56" s="45">
-        <v>53869</v>
+        <v>53868</v>
       </c>
       <c r="D56" s="45">
-        <v>153228</v>
-      </c>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="88">
+        <v>153230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="70">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76428</v>
+        <v>76422</v>
       </c>
       <c r="C57" s="46">
-        <v>37820</v>
+        <v>37822</v>
       </c>
       <c r="D57" s="46">
-        <v>114248</v>
-      </c>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="86">
+        <v>114244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="69">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>56917</v>
+        <v>56946</v>
       </c>
       <c r="C58" s="45">
         <v>28992</v>
       </c>
       <c r="D58" s="45">
-        <v>85909</v>
-      </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="88">
+        <v>85938</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="70">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100001</v>
+        <v>100003</v>
       </c>
       <c r="C59" s="46">
         <v>60398</v>
       </c>
       <c r="D59" s="46">
-        <v>160399</v>
-      </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="86">
+        <v>160401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="69">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107176</v>
+        <v>107152</v>
       </c>
       <c r="C60" s="45">
-        <v>59695</v>
+        <v>59693</v>
       </c>
       <c r="D60" s="45">
-        <v>166871</v>
-      </c>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="88">
+        <v>166845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="70">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116118</v>
+        <v>116149</v>
       </c>
       <c r="C61" s="46">
-        <v>59281</v>
+        <v>59279</v>
       </c>
       <c r="D61" s="46">
-        <v>175399</v>
-      </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="86">
+        <v>175428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="69">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130232</v>
+        <v>130242</v>
       </c>
       <c r="C62" s="45">
-        <v>58426</v>
+        <v>58427</v>
       </c>
       <c r="D62" s="45">
-        <v>188658</v>
-      </c>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="90">
+        <v>188669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="71">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
@@ -5212,587 +5111,513 @@
       <c r="D63" s="47">
         <v>209118</v>
       </c>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="86">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="69">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108521</v>
+        <v>108522</v>
       </c>
       <c r="C64" s="45">
-        <v>40160</v>
+        <v>40159</v>
       </c>
       <c r="D64" s="45">
         <v>148681</v>
       </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="71">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83830</v>
+        <v>83831</v>
       </c>
       <c r="C65" s="47">
         <v>24292</v>
       </c>
       <c r="D65" s="47">
-        <v>108122</v>
-      </c>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="86">
+        <v>108123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="69">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146270</v>
+        <v>146272</v>
       </c>
       <c r="C66" s="45">
-        <v>49299</v>
+        <v>49298</v>
       </c>
       <c r="D66" s="45">
-        <v>195569</v>
-      </c>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="88">
+        <v>195570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="70">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166112</v>
+        <v>166113</v>
       </c>
       <c r="C67" s="46">
         <v>53622</v>
       </c>
       <c r="D67" s="46">
-        <v>219734</v>
-      </c>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="86">
+        <v>219735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="69">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174436</v>
+        <v>174622</v>
       </c>
       <c r="C68" s="45">
-        <v>68951</v>
+        <v>68950</v>
       </c>
       <c r="D68" s="45">
-        <v>243387</v>
-      </c>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="88">
+        <v>243572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="70">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180065</v>
+        <v>180071</v>
       </c>
       <c r="C69" s="46">
-        <v>62636</v>
+        <v>62650</v>
       </c>
       <c r="D69" s="46">
-        <v>242701</v>
-      </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="86">
+        <v>242721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="69">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201250</v>
+        <v>201258</v>
       </c>
       <c r="C70" s="45">
-        <v>67375</v>
+        <v>67396</v>
       </c>
       <c r="D70" s="45">
-        <v>268625</v>
-      </c>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="88">
+        <v>268654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="70">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153074</v>
+        <v>153075</v>
       </c>
       <c r="C71" s="46">
-        <v>49295</v>
+        <v>49301</v>
       </c>
       <c r="D71" s="46">
-        <v>202369</v>
-      </c>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="86">
+        <v>202376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="69">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115881</v>
+        <v>115880</v>
       </c>
       <c r="C72" s="45">
-        <v>34464</v>
+        <v>34462</v>
       </c>
       <c r="D72" s="45">
-        <v>150345</v>
-      </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="88">
+        <v>150342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="70">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186361</v>
+        <v>186362</v>
       </c>
       <c r="C73" s="46">
         <v>52478</v>
       </c>
       <c r="D73" s="46">
-        <v>238839</v>
-      </c>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="86">
+        <v>238840</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="69">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195333</v>
+        <v>195334</v>
       </c>
       <c r="C74" s="45">
-        <v>54773</v>
+        <v>54772</v>
       </c>
       <c r="D74" s="45">
         <v>250106</v>
       </c>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="88">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="70">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217643</v>
+        <v>217648</v>
       </c>
       <c r="C75" s="46">
-        <v>65656</v>
+        <v>65653</v>
       </c>
       <c r="D75" s="46">
-        <v>283299</v>
-      </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="86">
+        <v>283301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="69">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220532</v>
+        <v>220527</v>
       </c>
       <c r="C76" s="45">
-        <v>60915</v>
+        <v>60912</v>
       </c>
       <c r="D76" s="45">
-        <v>281447</v>
-      </c>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="88">
+        <v>281439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="70">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>251880</v>
+        <v>251888</v>
       </c>
       <c r="C77" s="46">
-        <v>71591</v>
+        <v>71590</v>
       </c>
       <c r="D77" s="46">
-        <v>323471</v>
-      </c>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="86">
+        <v>323478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="69">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
         <v>196981</v>
       </c>
       <c r="C78" s="45">
-        <v>49456</v>
+        <v>49455</v>
       </c>
       <c r="D78" s="45">
-        <v>246437</v>
-      </c>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
+        <v>246436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="71">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135197</v>
+        <v>135198</v>
       </c>
       <c r="C79" s="47">
-        <v>35998</v>
+        <v>35997</v>
       </c>
       <c r="D79" s="47">
         <v>171195</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="86">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="69">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189278</v>
+        <v>189287</v>
       </c>
       <c r="C80" s="45">
-        <v>58864</v>
+        <v>58863</v>
       </c>
       <c r="D80" s="45">
-        <v>248142</v>
-      </c>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="90">
+        <v>248150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="71">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112069</v>
+        <v>112076</v>
       </c>
       <c r="C81" s="47">
-        <v>67038</v>
+        <v>67029</v>
       </c>
       <c r="D81" s="47">
-        <v>179107</v>
-      </c>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="86">
+        <v>179105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="69">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125600</v>
+        <v>125602</v>
       </c>
       <c r="C82" s="45">
-        <v>79422</v>
+        <v>79424</v>
       </c>
       <c r="D82" s="45">
-        <v>205022</v>
-      </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="88">
+        <v>205026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="70">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119267</v>
+        <v>119262</v>
       </c>
       <c r="C83" s="46">
-        <v>75451</v>
+        <v>75449</v>
       </c>
       <c r="D83" s="46">
-        <v>194718</v>
-      </c>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="86">
+        <v>194711</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="69">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>160784</v>
+        <v>160791</v>
       </c>
       <c r="C84" s="45">
-        <v>82770</v>
+        <v>82769</v>
       </c>
       <c r="D84" s="45">
-        <v>243554</v>
-      </c>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="88">
+        <v>243560</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="70">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166293</v>
+        <v>166282</v>
       </c>
       <c r="C85" s="46">
-        <v>53886</v>
+        <v>53899</v>
       </c>
       <c r="D85" s="46">
-        <v>220179</v>
-      </c>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="86">
+        <v>220181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="69">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127286</v>
+        <v>127287</v>
       </c>
       <c r="C86" s="45">
         <v>38780</v>
       </c>
       <c r="D86" s="45">
-        <v>166066</v>
-      </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="88">
+        <v>166067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="70">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189894</v>
+        <v>189896</v>
       </c>
       <c r="C87" s="46">
         <v>76141</v>
       </c>
       <c r="D87" s="46">
-        <v>266035</v>
-      </c>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="86">
+        <v>266037</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="69">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>213835</v>
+        <v>213852</v>
       </c>
       <c r="C88" s="45">
-        <v>83739</v>
+        <v>83737</v>
       </c>
       <c r="D88" s="45">
-        <v>297574</v>
-      </c>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="88">
+        <v>297589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="70">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245695</v>
+        <v>245696</v>
       </c>
       <c r="C89" s="46">
-        <v>88007</v>
+        <v>88252</v>
       </c>
       <c r="D89" s="46">
-        <v>333702</v>
-      </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="86">
+        <v>333948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="69">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257103</v>
+        <v>257135</v>
       </c>
       <c r="C90" s="45">
-        <v>80046</v>
+        <v>80044</v>
       </c>
       <c r="D90" s="45">
-        <v>337149</v>
-      </c>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="88">
+        <v>337179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="70">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285361</v>
+        <v>285540</v>
       </c>
       <c r="C91" s="46">
         <v>88943</v>
       </c>
       <c r="D91" s="46">
-        <v>374304</v>
-      </c>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="86">
+        <v>374483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="69">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223468</v>
+        <v>223479</v>
       </c>
       <c r="C92" s="45">
         <v>63196</v>
       </c>
       <c r="D92" s="45">
-        <v>286664</v>
-      </c>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="88">
+        <v>286675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="70">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144032</v>
+        <v>144036</v>
       </c>
       <c r="C93" s="46">
-        <v>52752</v>
+        <v>52749</v>
       </c>
       <c r="D93" s="46">
-        <v>196784</v>
-      </c>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="86">
+        <v>196785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="69">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219180</v>
+        <v>219318</v>
       </c>
       <c r="C94" s="45">
-        <v>89009</v>
+        <v>89017</v>
       </c>
       <c r="D94" s="45">
-        <v>308189</v>
-      </c>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+        <v>308335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="71">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234272</v>
+        <v>234554</v>
       </c>
       <c r="C95" s="47">
-        <v>93347</v>
+        <v>93348</v>
       </c>
       <c r="D95" s="47">
-        <v>327619</v>
-      </c>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="86">
+        <v>327902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="69">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>237521</v>
+        <v>237907</v>
       </c>
       <c r="C96" s="45">
-        <v>103029</v>
+        <v>103025</v>
       </c>
       <c r="D96" s="45">
-        <v>340550</v>
-      </c>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="90">
+        <v>340932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="71">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>230200</v>
+        <v>230510</v>
       </c>
       <c r="C97" s="47">
-        <v>92420</v>
+        <v>92418</v>
       </c>
       <c r="D97" s="47">
-        <v>322620</v>
-      </c>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="86">
+        <v>322928</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="69">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158031</v>
+        <v>158033</v>
       </c>
       <c r="C98" s="45">
         <v>71624</v>
       </c>
       <c r="D98" s="45">
-        <v>229655</v>
-      </c>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="88">
+        <v>229657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="70">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165687</v>
+        <v>165688</v>
       </c>
       <c r="C99" s="46">
-        <v>66033</v>
+        <v>66041</v>
       </c>
       <c r="D99" s="46">
-        <v>231720</v>
-      </c>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="86">
+        <v>231729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="69">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
@@ -5804,538 +5629,474 @@
       <c r="D100" s="45">
         <v>196071</v>
       </c>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="88">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="70">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176093</v>
+        <v>176096</v>
       </c>
       <c r="C101" s="46">
-        <v>73426</v>
+        <v>73427</v>
       </c>
       <c r="D101" s="46">
-        <v>249519</v>
-      </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="86">
+        <v>249523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="69">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>278914</v>
+        <v>278962</v>
       </c>
       <c r="C102" s="45">
-        <v>99092</v>
+        <v>99101</v>
       </c>
       <c r="D102" s="45">
-        <v>378006</v>
-      </c>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="88">
+        <v>378063</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="70">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>579882</v>
+        <v>580113</v>
       </c>
       <c r="C103" s="46">
-        <v>97094</v>
+        <v>97098</v>
       </c>
       <c r="D103" s="46">
-        <v>676976</v>
-      </c>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="86">
+        <v>677211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="69">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642612</v>
+        <v>642766</v>
       </c>
       <c r="C104" s="45">
-        <v>89732</v>
+        <v>89737</v>
       </c>
       <c r="D104" s="45">
-        <v>732344</v>
-      </c>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="88">
+        <v>732503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="70">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>533949</v>
+        <v>534072</v>
       </c>
       <c r="C105" s="46">
-        <v>88310</v>
+        <v>88327</v>
       </c>
       <c r="D105" s="46">
-        <v>622259</v>
-      </c>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="86">
+        <v>622399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="69">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302923</v>
+        <v>302927</v>
       </c>
       <c r="C106" s="45">
-        <v>65474</v>
+        <v>65478</v>
       </c>
       <c r="D106" s="45">
-        <v>368397</v>
-      </c>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="88">
+        <v>368405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="70">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210459</v>
+        <v>210475</v>
       </c>
       <c r="C107" s="46">
-        <v>50099</v>
+        <v>50101</v>
       </c>
       <c r="D107" s="46">
-        <v>260558</v>
-      </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="86">
+        <v>260576</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="69">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338278</v>
+        <v>338351</v>
       </c>
       <c r="C108" s="45">
-        <v>76755</v>
+        <v>76759</v>
       </c>
       <c r="D108" s="45">
-        <v>415033</v>
-      </c>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="88">
+        <v>415110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="70">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497286</v>
+        <v>497443</v>
       </c>
       <c r="C109" s="46">
-        <v>73346</v>
+        <v>73350</v>
       </c>
       <c r="D109" s="46">
-        <v>570632</v>
-      </c>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="86">
+        <v>570793</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="69">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>689879</v>
+        <v>690214</v>
       </c>
       <c r="C110" s="45">
-        <v>82923</v>
+        <v>83243</v>
       </c>
       <c r="D110" s="45">
-        <v>772802</v>
-      </c>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="90">
+        <v>773457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="71">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608131</v>
+        <v>608331</v>
       </c>
       <c r="C111" s="47">
-        <v>69441</v>
+        <v>69489</v>
       </c>
       <c r="D111" s="47">
-        <v>677572</v>
-      </c>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="86">
+        <v>677820</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="69">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517242</v>
+        <v>517592</v>
       </c>
       <c r="C112" s="45">
-        <v>74716</v>
+        <v>74774</v>
       </c>
       <c r="D112" s="45">
-        <v>591958</v>
-      </c>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="90">
+        <v>592366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="71">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305520</v>
+        <v>305640</v>
       </c>
       <c r="C113" s="47">
-        <v>55605</v>
+        <v>55738</v>
       </c>
       <c r="D113" s="47">
-        <v>361125</v>
-      </c>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="86">
+        <v>361378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="69">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226872</v>
+        <v>226882</v>
       </c>
       <c r="C114" s="45">
-        <v>38744</v>
+        <v>38766</v>
       </c>
       <c r="D114" s="45">
-        <v>265616</v>
-      </c>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="88">
+        <v>265648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="70">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>337475</v>
+        <v>337793</v>
       </c>
       <c r="C115" s="46">
-        <v>60494</v>
+        <v>60504</v>
       </c>
       <c r="D115" s="46">
-        <v>397969</v>
-      </c>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="86">
+        <v>398297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="69">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>492914</v>
+        <v>493278</v>
       </c>
       <c r="C116" s="45">
-        <v>61220</v>
+        <v>61227</v>
       </c>
       <c r="D116" s="45">
-        <v>554134</v>
-      </c>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="88">
+        <v>554505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="70">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>640758</v>
+        <v>641073</v>
       </c>
       <c r="C117" s="46">
-        <v>71281</v>
+        <v>71359</v>
       </c>
       <c r="D117" s="46">
-        <v>712039</v>
-      </c>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="86">
+        <v>712432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="69">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>566913</v>
+        <v>567402</v>
       </c>
       <c r="C118" s="45">
-        <v>65197</v>
+        <v>65580</v>
       </c>
       <c r="D118" s="45">
-        <v>632110</v>
-      </c>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="88">
+        <v>632982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="70">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>481903</v>
+        <v>482639</v>
       </c>
       <c r="C119" s="46">
-        <v>66835</v>
+        <v>66928</v>
       </c>
       <c r="D119" s="46">
-        <v>548738</v>
-      </c>
-      <c r="E119" s="85"/>
-      <c r="F119" s="85"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="86">
+        <v>549567</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="69">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>307672</v>
+        <v>308593</v>
       </c>
       <c r="C120" s="45">
-        <v>58852</v>
+        <v>59016</v>
       </c>
       <c r="D120" s="45">
-        <v>366524</v>
-      </c>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="88">
+        <v>367609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="70">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235104</v>
+        <v>235354</v>
       </c>
       <c r="C121" s="46">
-        <v>47034</v>
+        <v>47266</v>
       </c>
       <c r="D121" s="46">
-        <v>282138</v>
-      </c>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="86">
+        <v>282620</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="69">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>352845</v>
+        <v>353738</v>
       </c>
       <c r="C122" s="45">
-        <v>72283</v>
+        <v>72458</v>
       </c>
       <c r="D122" s="45">
-        <v>425128</v>
-      </c>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="88">
+        <v>426196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="70">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>692282</v>
+        <v>692661</v>
       </c>
       <c r="C123" s="46">
-        <v>88966</v>
+        <v>89186</v>
       </c>
       <c r="D123" s="46">
-        <v>781248</v>
-      </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="86">
+        <v>781847</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="69">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>990515</v>
+        <v>991303</v>
       </c>
       <c r="C124" s="45">
-        <v>124912</v>
+        <v>125305</v>
       </c>
       <c r="D124" s="45">
-        <v>1115427</v>
-      </c>
-      <c r="E124" s="85"/>
-      <c r="F124" s="85"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="88">
+        <v>1116608</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="70">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>805181</v>
+        <v>806028</v>
       </c>
       <c r="C125" s="46">
-        <v>130099</v>
+        <v>130297</v>
       </c>
       <c r="D125" s="46">
-        <v>935280</v>
-      </c>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="86">
+        <v>936325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="69">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>656854</v>
+        <v>659742</v>
       </c>
       <c r="C126" s="45">
-        <v>134991</v>
+        <v>135574</v>
       </c>
       <c r="D126" s="45">
-        <v>791845</v>
-      </c>
-      <c r="E126" s="85"/>
-      <c r="F126" s="85"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="88">
+        <v>795316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="70">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>254591</v>
+        <v>257084</v>
       </c>
       <c r="C127" s="46">
-        <v>75125</v>
+        <v>75233</v>
       </c>
       <c r="D127" s="46">
-        <v>329716</v>
-      </c>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="86">
+        <v>332317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="69">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>192348</v>
+        <v>194674</v>
       </c>
       <c r="C128" s="45">
-        <v>66892</v>
+        <v>67132</v>
       </c>
       <c r="D128" s="45">
-        <v>259240</v>
-      </c>
-      <c r="E128" s="85"/>
-      <c r="F128" s="85"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="88">
+        <v>261806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="70">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>323870</v>
+        <v>327686</v>
       </c>
       <c r="C129" s="46">
-        <v>110728</v>
+        <v>112515</v>
       </c>
       <c r="D129" s="46">
-        <v>434598</v>
-      </c>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="86">
+        <v>440201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="69">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>662323</v>
+        <v>667108</v>
       </c>
       <c r="C130" s="45">
-        <v>150967</v>
+        <v>154696</v>
       </c>
       <c r="D130" s="45">
-        <v>813290</v>
-      </c>
-      <c r="E130" s="85"/>
-      <c r="F130" s="85"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="88"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="85"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="86" t="s">
+        <v>821804</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="70">
+        <v>44321</v>
+      </c>
+      <c r="B131" s="46">
+        <v>888189</v>
+      </c>
+      <c r="C131" s="46">
+        <v>204576</v>
+      </c>
+      <c r="D131" s="46">
+        <v>1092765</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="69"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="45">
-        <v>24537128</v>
-      </c>
-      <c r="C132" s="45">
-        <v>6931584</v>
-      </c>
-      <c r="D132" s="45">
-        <v>31468712</v>
-      </c>
-      <c r="E132" s="85"/>
-      <c r="F132" s="85"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="85"/>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
-      <c r="F133" s="85"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="85" t="s">
+      <c r="B133" s="46">
+        <v>25451513</v>
+      </c>
+      <c r="C133" s="46">
+        <v>7145486</v>
+      </c>
+      <c r="D133" s="46">
+        <v>32596999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="66"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B134" s="85"/>
-      <c r="C134" s="85"/>
-      <c r="D134" s="85"/>
-      <c r="E134" s="85"/>
-      <c r="F134" s="85"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="85"/>
-      <c r="B135" s="85"/>
-      <c r="C135" s="85"/>
-      <c r="D135" s="85"/>
-      <c r="E135" s="85"/>
-      <c r="F135" s="85"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A852F2-33FF-45D1-82FA-7421DF84BAE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49AE828-362D-4359-93A8-1CB1151080A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_05.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_05.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_06.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_06.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_05.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_05.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_06.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_06.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -245,18 +245,6 @@
     <t>Thüringen</t>
   </si>
   <si>
-    <t>Datenstand: 06.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 05.05.21 (Impfquote_bis_einschl_05.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.05.21 durchgeführt und bis zum 06.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 05.05.21 (Impfstoff_bis_einschl_05.05.21)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -273,6 +261,18 @@
   </si>
   <si>
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1.902 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+  </si>
+  <si>
+    <t>Datenstand: 07.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 06.05.21 (Impfquote_bis_einschl_06.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 06.05.21 durchgeführt und bis zum 07.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 06.05.21 (Impfstoff_bis_einschl_06.05.21)</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +362,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -554,7 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -707,73 +714,82 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{B797BBD4-588A-432F-99CA-840AA723A419}"/>
@@ -1124,9 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1146,7 +1160,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1158,12 +1172,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1181,7 +1195,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1262,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,102 +1287,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="77" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78" t="s">
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1420,55 +1434,55 @@
         <v>70</v>
       </c>
       <c r="C5" s="32">
-        <v>4240736</v>
+        <v>4351257</v>
       </c>
       <c r="D5" s="32">
-        <v>3330692</v>
+        <v>3419328</v>
       </c>
       <c r="E5" s="32">
-        <v>910044</v>
+        <v>931929</v>
       </c>
       <c r="F5" s="33">
-        <v>30.005169185886555</v>
+        <v>30.803663365462526</v>
       </c>
       <c r="G5" s="33">
-        <v>16.967648785988544</v>
+        <v>17.551681336069333</v>
       </c>
       <c r="H5" s="33">
-        <v>65.228514331820591</v>
+        <v>66.632008760196328</v>
       </c>
       <c r="I5" s="33">
-        <v>8.1983035917463845</v>
+        <v>8.395458755788308</v>
       </c>
       <c r="J5" s="33">
-        <v>3.346666689666542</v>
+        <v>3.4865387890023469</v>
       </c>
       <c r="K5" s="33">
-        <v>21.391780212357023</v>
+        <v>21.722934665769561</v>
       </c>
       <c r="L5" s="32">
-        <v>1124877</v>
+        <v>1145450</v>
       </c>
       <c r="M5" s="32">
-        <v>1418535</v>
+        <v>1426428</v>
       </c>
       <c r="N5" s="32">
-        <v>258961</v>
+        <v>267251</v>
       </c>
       <c r="O5" s="32">
-        <v>614674</v>
+        <v>618428</v>
       </c>
       <c r="P5" s="34">
-        <v>252215</v>
+        <v>279042</v>
       </c>
       <c r="Q5" s="34">
-        <v>528150</v>
+        <v>562143</v>
       </c>
       <c r="R5" s="34">
-        <v>12654</v>
+        <v>15716</v>
       </c>
       <c r="S5" s="34">
-        <v>23744</v>
+        <v>29873</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1479,55 +1493,55 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5140210</v>
+        <v>5302233</v>
       </c>
       <c r="D6" s="13">
-        <v>4083915</v>
+        <v>4210935</v>
       </c>
       <c r="E6" s="13">
-        <v>1056295</v>
+        <v>1091298</v>
       </c>
       <c r="F6" s="14">
-        <v>31.116166365847942</v>
+        <v>32.083957187104019</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I6" s="14">
-        <v>8.0481231738205494</v>
+        <v>8.3148180416872357</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P6" s="17">
-        <v>399991</v>
+        <v>448603</v>
       </c>
       <c r="Q6" s="18">
-        <v>657467</v>
+        <v>700388</v>
       </c>
       <c r="R6" s="17">
-        <v>13668</v>
+        <v>17355</v>
       </c>
       <c r="S6" s="18">
-        <v>15850</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1538,55 +1552,55 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1400999</v>
+        <v>1438736</v>
       </c>
       <c r="D7" s="37">
-        <v>1023994</v>
+        <v>1052506</v>
       </c>
       <c r="E7" s="37">
-        <v>377005</v>
+        <v>386230</v>
       </c>
       <c r="F7" s="38">
-        <v>27.905614157385862</v>
+        <v>28.682615654323719</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7" s="38">
-        <v>10.274040732079735</v>
+        <v>10.525437996713986</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P7" s="41">
-        <v>164288</v>
+        <v>181102</v>
       </c>
       <c r="Q7" s="41">
-        <v>96958</v>
+        <v>102604</v>
       </c>
       <c r="R7" s="41">
-        <v>7056</v>
+        <v>8861</v>
       </c>
       <c r="S7" s="41">
-        <v>4809</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1597,55 +1611,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>900396</v>
+        <v>931234</v>
       </c>
       <c r="D8" s="13">
-        <v>685944</v>
+        <v>705923</v>
       </c>
       <c r="E8" s="13">
-        <v>214452</v>
+        <v>225311</v>
       </c>
       <c r="F8" s="14">
-        <v>27.199567943604269</v>
+        <v>27.99179029403706</v>
       </c>
       <c r="G8" s="44">
-        <v>14.079665656750318</v>
+        <v>14.576340978997646</v>
       </c>
       <c r="H8" s="44">
-        <v>52.976117471929427</v>
+        <v>54.369004417702548</v>
       </c>
       <c r="I8" s="44">
-        <v>8.503612167526537</v>
+        <v>8.9342014114000872</v>
       </c>
       <c r="J8" s="63">
-        <v>3.8660213141455144</v>
+        <v>4.0738025805817992</v>
       </c>
       <c r="K8" s="44">
-        <v>17.906605391184314</v>
+        <v>18.790025659709446</v>
       </c>
       <c r="L8" s="17">
-        <v>175716</v>
+        <v>178062</v>
       </c>
       <c r="M8" s="18">
-        <v>283439</v>
+        <v>284761</v>
       </c>
       <c r="N8" s="17">
-        <v>59439</v>
+        <v>61805</v>
       </c>
       <c r="O8" s="18">
-        <v>135245</v>
+        <v>140272</v>
       </c>
       <c r="P8" s="17">
-        <v>62264</v>
+        <v>68313</v>
       </c>
       <c r="Q8" s="18">
-        <v>157139</v>
+        <v>167401</v>
       </c>
       <c r="R8" s="17">
-        <v>5906</v>
+        <v>7052</v>
       </c>
       <c r="S8" s="18">
-        <v>13676</v>
+        <v>15996</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1656,55 +1670,55 @@
         <v>69</v>
       </c>
       <c r="C9" s="37">
-        <v>287676</v>
+        <v>297650</v>
       </c>
       <c r="D9" s="37">
-        <v>214092</v>
+        <v>220042</v>
       </c>
       <c r="E9" s="37">
-        <v>73584</v>
+        <v>77608</v>
       </c>
       <c r="F9" s="38">
-        <v>31.42856304003805</v>
+        <v>32.302019078041461</v>
       </c>
       <c r="G9" s="64">
-        <v>15.656716659124701</v>
+        <v>16.537510504880728</v>
       </c>
       <c r="H9" s="64">
-        <v>73.358969676788718</v>
+        <v>74.955691375661942</v>
       </c>
       <c r="I9" s="64">
-        <v>10.802082201755132</v>
+        <v>11.392802722246852</v>
       </c>
       <c r="J9" s="64">
-        <v>3.7750905035878213</v>
+        <v>3.9496331372422264</v>
       </c>
       <c r="K9" s="64">
-        <v>29.483764245894069</v>
+        <v>30.438145160424074</v>
       </c>
       <c r="L9" s="42">
-        <v>57092</v>
+        <v>59299</v>
       </c>
       <c r="M9" s="42">
-        <v>112169</v>
+        <v>113591</v>
       </c>
       <c r="N9" s="42">
-        <v>18069</v>
+        <v>18706</v>
       </c>
       <c r="O9" s="42">
-        <v>54147</v>
+        <v>55667</v>
       </c>
       <c r="P9" s="42">
-        <v>20410</v>
+        <v>22563</v>
       </c>
       <c r="Q9" s="42">
-        <v>24421</v>
+        <v>25972</v>
       </c>
       <c r="R9" s="42">
-        <v>618</v>
+        <v>845</v>
       </c>
       <c r="S9" s="42">
-        <v>750</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1715,55 +1729,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>706021</v>
+        <v>724866</v>
       </c>
       <c r="D10" s="13">
-        <v>563861</v>
+        <v>578853</v>
       </c>
       <c r="E10" s="13">
-        <v>142160</v>
+        <v>146013</v>
       </c>
       <c r="F10" s="14">
-        <v>30.524297429751098</v>
+        <v>31.33588089990922</v>
       </c>
       <c r="G10" s="44">
-        <v>19.345812250097307</v>
+        <v>20.047415165776158</v>
       </c>
       <c r="H10" s="44">
-        <v>66.802624578826027</v>
+        <v>67.997918024518484</v>
       </c>
       <c r="I10" s="44">
-        <v>7.6957514752987271</v>
+        <v>7.9043314586578015</v>
       </c>
       <c r="J10" s="44">
-        <v>3.7235058915112704</v>
+        <v>3.9033296769399524</v>
       </c>
       <c r="K10" s="44">
-        <v>20.488343010066721</v>
+        <v>20.76471143681642</v>
       </c>
       <c r="L10" s="18">
-        <v>225966</v>
+        <v>230378</v>
       </c>
       <c r="M10" s="18">
-        <v>218741</v>
+        <v>218977</v>
       </c>
       <c r="N10" s="18">
-        <v>51264</v>
+        <v>53199</v>
       </c>
       <c r="O10" s="18">
-        <v>87338</v>
+        <v>87848</v>
       </c>
       <c r="P10" s="18">
-        <v>47400</v>
+        <v>52902</v>
       </c>
       <c r="Q10" s="18">
-        <v>71318</v>
+        <v>76272</v>
       </c>
       <c r="R10" s="18">
-        <v>1351</v>
+        <v>1957</v>
       </c>
       <c r="S10" s="18">
-        <v>1623</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1774,55 +1788,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2387157</v>
+        <v>2456386</v>
       </c>
       <c r="D11" s="37">
-        <v>1878104</v>
+        <v>1939791</v>
       </c>
       <c r="E11" s="37">
-        <v>509053</v>
+        <v>516595</v>
       </c>
       <c r="F11" s="38">
-        <v>29.867686161753664</v>
+        <v>30.848701034337981</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11" s="64">
-        <v>8.0955235938474068</v>
+        <v>8.2154648159692627</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P11" s="41">
-        <v>165320</v>
+        <v>181815</v>
       </c>
       <c r="Q11" s="41">
-        <v>272866</v>
+        <v>289380</v>
       </c>
       <c r="R11" s="41">
-        <v>6541</v>
+        <v>8009</v>
       </c>
       <c r="S11" s="41">
-        <v>9627</v>
+        <v>11531</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1833,55 +1847,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>650263</v>
+        <v>675210</v>
       </c>
       <c r="D12" s="13">
-        <v>526325</v>
+        <v>544496</v>
       </c>
       <c r="E12" s="13">
-        <v>123938</v>
+        <v>130714</v>
       </c>
       <c r="F12" s="14">
-        <v>32.728845410033216</v>
+        <v>33.858785750974107</v>
       </c>
       <c r="G12" s="44">
-        <v>18.296525826527667</v>
+        <v>19.151470362047814</v>
       </c>
       <c r="H12" s="44">
-        <v>61.133482200527801</v>
+        <v>62.807684499972318</v>
       </c>
       <c r="I12" s="44">
-        <v>7.7069256494156591</v>
+        <v>8.1282825230173028</v>
       </c>
       <c r="J12" s="44">
-        <v>3.1975075684537093</v>
+        <v>3.3974572996657502</v>
       </c>
       <c r="K12" s="44">
-        <v>16.560429623341392</v>
+        <v>17.414324468968573</v>
       </c>
       <c r="L12" s="18">
-        <v>139127</v>
+        <v>143031</v>
       </c>
       <c r="M12" s="18">
-        <v>209488</v>
+        <v>211752</v>
       </c>
       <c r="N12" s="18">
-        <v>31711</v>
+        <v>32784</v>
       </c>
       <c r="O12" s="18">
-        <v>86574</v>
+        <v>89644</v>
       </c>
       <c r="P12" s="18">
-        <v>55963</v>
+        <v>61175</v>
       </c>
       <c r="Q12" s="18">
-        <v>121776</v>
+        <v>128584</v>
       </c>
       <c r="R12" s="18">
-        <v>2383</v>
+        <v>3442</v>
       </c>
       <c r="S12" s="18">
-        <v>3162</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1892,55 +1906,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3114281</v>
+        <v>3214526</v>
       </c>
       <c r="D13" s="37">
-        <v>2511187</v>
+        <v>2597471</v>
       </c>
       <c r="E13" s="37">
-        <v>603094</v>
+        <v>617055</v>
       </c>
       <c r="F13" s="38">
-        <v>31.414938035490358</v>
+        <v>32.494350486038343</v>
       </c>
       <c r="G13" s="64">
-        <v>17.368310708200656</v>
+        <v>18.180294702643671</v>
       </c>
       <c r="H13" s="64">
-        <v>66.241459060346386</v>
+        <v>68.021096223632426</v>
       </c>
       <c r="I13" s="64">
-        <v>7.5447032178710796</v>
+        <v>7.7193552648566204</v>
       </c>
       <c r="J13" s="64">
-        <v>2.2214742807189931</v>
+        <v>2.3160388094797595</v>
       </c>
       <c r="K13" s="64">
-        <v>20.290457884730877</v>
+        <v>20.618454180180048</v>
       </c>
       <c r="L13" s="42">
-        <v>768766</v>
+        <v>793879</v>
       </c>
       <c r="M13" s="42">
-        <v>1127351</v>
+        <v>1139425</v>
       </c>
       <c r="N13" s="42">
-        <v>119304</v>
+        <v>122866</v>
       </c>
       <c r="O13" s="42">
-        <v>459732</v>
+        <v>465303</v>
       </c>
       <c r="P13" s="42">
-        <v>217889</v>
+        <v>238903</v>
       </c>
       <c r="Q13" s="42">
-        <v>404702</v>
+        <v>433788</v>
       </c>
       <c r="R13" s="42">
-        <v>6893</v>
+        <v>8703</v>
       </c>
       <c r="S13" s="42">
-        <v>9552</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1951,55 +1965,55 @@
         <v>68</v>
       </c>
       <c r="C14" s="13">
-        <v>7220703</v>
+        <v>7422015</v>
       </c>
       <c r="D14" s="13">
-        <v>5778601</v>
+        <v>5950399</v>
       </c>
       <c r="E14" s="13">
-        <v>1442102</v>
+        <v>1471616</v>
       </c>
       <c r="F14" s="14">
-        <v>32.197748052470068</v>
+        <v>33.15498817337793</v>
       </c>
       <c r="G14" s="44">
-        <v>18.020232830243145</v>
+        <v>18.787422544238723</v>
       </c>
       <c r="H14" s="44">
-        <v>68.720349499623367</v>
+        <v>70.178756171657085</v>
       </c>
       <c r="I14" s="44">
-        <v>8.0352384360787656</v>
+        <v>8.1996872942056047</v>
       </c>
       <c r="J14" s="44">
-        <v>3.31007011145523</v>
+        <v>3.4217991720415584</v>
       </c>
       <c r="K14" s="44">
-        <v>20.196237926382988</v>
+        <v>20.48475162660008</v>
       </c>
       <c r="L14" s="18">
-        <v>1740076</v>
+        <v>1776975</v>
       </c>
       <c r="M14" s="18">
-        <v>2512192</v>
+        <v>2528842</v>
       </c>
       <c r="N14" s="18">
-        <v>412042</v>
+        <v>422306</v>
       </c>
       <c r="O14" s="18">
-        <v>991308</v>
+        <v>1000687</v>
       </c>
       <c r="P14" s="18">
-        <v>589526</v>
+        <v>651807</v>
       </c>
       <c r="Q14" s="18">
-        <v>937239</v>
+        <v>993794</v>
       </c>
       <c r="R14" s="18">
-        <v>15874</v>
+        <v>20054</v>
       </c>
       <c r="S14" s="18">
-        <v>22446</v>
+        <v>27549</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2010,55 +2024,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1624562</v>
+        <v>1673533</v>
       </c>
       <c r="D15" s="37">
-        <v>1219816</v>
+        <v>1250393</v>
       </c>
       <c r="E15" s="37">
-        <v>404746</v>
+        <v>423140</v>
       </c>
       <c r="F15" s="38">
-        <v>29.795918467047215</v>
+        <v>30.542809636671898</v>
       </c>
       <c r="G15" s="64">
-        <v>16.416850284123853</v>
+        <v>16.909131448010029</v>
       </c>
       <c r="H15" s="64">
-        <v>62.155736163633705</v>
+        <v>63.519127509767458</v>
       </c>
       <c r="I15" s="64">
-        <v>9.8865556902545073</v>
+        <v>10.335857981979544</v>
       </c>
       <c r="J15" s="64">
-        <v>4.2635835500847676</v>
+        <v>4.5619619180154958</v>
       </c>
       <c r="K15" s="64">
-        <v>23.501744562605769</v>
+        <v>24.316486638948668</v>
       </c>
       <c r="L15" s="42">
-        <v>379420</v>
+        <v>384414</v>
       </c>
       <c r="M15" s="42">
-        <v>541903</v>
+        <v>543892</v>
       </c>
       <c r="N15" s="42">
-        <v>119711</v>
+        <v>127343</v>
       </c>
       <c r="O15" s="42">
-        <v>273897</v>
+        <v>281670</v>
       </c>
       <c r="P15" s="42">
-        <v>96230</v>
+        <v>105499</v>
       </c>
       <c r="Q15" s="42">
-        <v>201837</v>
+        <v>216162</v>
       </c>
       <c r="R15" s="42">
-        <v>3819</v>
+        <v>4832</v>
       </c>
       <c r="S15" s="42">
-        <v>7319</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2069,55 +2083,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>429273</v>
+        <v>441483</v>
       </c>
       <c r="D16" s="13">
-        <v>338858</v>
+        <v>349253</v>
       </c>
       <c r="E16" s="13">
-        <v>90415</v>
+        <v>92230</v>
       </c>
       <c r="F16" s="14">
-        <v>34.336048605362116</v>
+        <v>35.389360686684498</v>
       </c>
       <c r="G16" s="44">
-        <v>19.521681142642315</v>
+        <v>20.382631216190813</v>
       </c>
       <c r="H16" s="44">
-        <v>65.702616392013411</v>
+        <v>67.163222050596843</v>
       </c>
       <c r="I16" s="44">
-        <v>9.1616365399483417</v>
+        <v>9.3455481731951071</v>
       </c>
       <c r="J16" s="44">
-        <v>2.9772969360262325</v>
+        <v>3.0442812685549585</v>
       </c>
       <c r="K16" s="44">
-        <v>22.255915547679741</v>
+        <v>22.687400696820088</v>
       </c>
       <c r="L16" s="18">
-        <v>99520</v>
+        <v>102343</v>
       </c>
       <c r="M16" s="18">
-        <v>159399</v>
+        <v>161034</v>
       </c>
       <c r="N16" s="18">
-        <v>19064</v>
+        <v>19260</v>
       </c>
       <c r="O16" s="18">
-        <v>69489</v>
+        <v>70424</v>
       </c>
       <c r="P16" s="18">
-        <v>31335</v>
+        <v>34283</v>
       </c>
       <c r="Q16" s="18">
-        <v>48603</v>
+        <v>51592</v>
       </c>
       <c r="R16" s="18">
-        <v>893</v>
+        <v>1146</v>
       </c>
       <c r="S16" s="18">
-        <v>969</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2128,55 +2142,55 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1576455</v>
+        <v>1623337</v>
       </c>
       <c r="D17" s="37">
-        <v>1120049</v>
+        <v>1146450</v>
       </c>
       <c r="E17" s="37">
-        <v>456406</v>
+        <v>476887</v>
       </c>
       <c r="F17" s="38">
-        <v>27.506310825887514</v>
+        <v>28.154670060273023</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I17" s="64">
-        <v>11.208478645844973</v>
+        <v>11.711453740706897</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P17" s="41">
-        <v>67085</v>
+        <v>73479</v>
       </c>
       <c r="Q17" s="41">
-        <v>208817</v>
+        <v>220795</v>
       </c>
       <c r="R17" s="41">
-        <v>7598</v>
+        <v>9806</v>
       </c>
       <c r="S17" s="41">
-        <v>25259</v>
+        <v>31892</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2187,55 +2201,55 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>852137</v>
+        <v>879953</v>
       </c>
       <c r="D18" s="13">
-        <v>672155</v>
+        <v>691935</v>
       </c>
       <c r="E18" s="13">
-        <v>179982</v>
+        <v>188018</v>
       </c>
       <c r="F18" s="14">
-        <v>30.625137257367701</v>
+        <v>31.526365716503964</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I18" s="44">
-        <v>8.2004499763530045</v>
+        <v>8.5665911238564938</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P18" s="17">
-        <v>42191</v>
+        <v>46543</v>
       </c>
       <c r="Q18" s="18">
-        <v>128444</v>
+        <v>137470</v>
       </c>
       <c r="R18" s="17">
-        <v>1636</v>
+        <v>2236</v>
       </c>
       <c r="S18" s="18">
-        <v>3226</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2246,55 +2260,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1125562</v>
+        <v>1160028</v>
       </c>
       <c r="D19" s="37">
-        <v>838040</v>
+        <v>860859</v>
       </c>
       <c r="E19" s="37">
-        <v>287522</v>
+        <v>299169</v>
       </c>
       <c r="F19" s="38">
-        <v>28.860382681428611</v>
+        <v>29.646222345892742</v>
       </c>
       <c r="G19" s="64">
-        <v>15.640457338359878</v>
+        <v>16.086875826723638</v>
       </c>
       <c r="H19" s="64">
-        <v>59.909424196678884</v>
+        <v>61.492482577362509</v>
       </c>
       <c r="I19" s="64">
-        <v>9.9016693109275415</v>
+        <v>10.30276815715278</v>
       </c>
       <c r="J19" s="64">
-        <v>4.1115967660682671</v>
+        <v>4.4218114613478781</v>
       </c>
       <c r="K19" s="64">
-        <v>23.500811307329215</v>
+        <v>24.115375167652882</v>
       </c>
       <c r="L19" s="42">
-        <v>249569</v>
+        <v>252052</v>
       </c>
       <c r="M19" s="42">
-        <v>358326</v>
+        <v>359943</v>
       </c>
       <c r="N19" s="42">
-        <v>80355</v>
+        <v>86170</v>
       </c>
       <c r="O19" s="42">
-        <v>197766</v>
+        <v>201866</v>
       </c>
       <c r="P19" s="42">
-        <v>68973</v>
+        <v>75582</v>
       </c>
       <c r="Q19" s="42">
-        <v>161160</v>
+        <v>173270</v>
       </c>
       <c r="R19" s="42">
-        <v>3384</v>
+        <v>3887</v>
       </c>
       <c r="S19" s="42">
-        <v>6014</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2305,55 +2319,55 @@
         <v>71</v>
       </c>
       <c r="C20" s="13">
-        <v>870902</v>
+        <v>897030</v>
       </c>
       <c r="D20" s="13">
-        <v>601410</v>
+        <v>617759</v>
       </c>
       <c r="E20" s="13">
-        <v>269492</v>
+        <v>279271</v>
       </c>
       <c r="F20" s="14">
-        <v>28.190503511332732</v>
+        <v>28.956846841019267</v>
       </c>
       <c r="G20" s="44">
-        <v>15.204195243926605</v>
+        <v>15.646486404803689</v>
       </c>
       <c r="H20" s="44">
-        <v>53.132153066029986</v>
+        <v>54.520874631736895</v>
       </c>
       <c r="I20" s="44">
-        <v>12.632173013877521</v>
+        <v>13.090554041524754</v>
       </c>
       <c r="J20" s="44">
-        <v>5.9997633510629953</v>
+        <v>6.263926290984104</v>
       </c>
       <c r="K20" s="44">
-        <v>25.370453524921423</v>
+        <v>26.201851993823038</v>
       </c>
       <c r="L20" s="18">
-        <v>179811</v>
+        <v>182458</v>
       </c>
       <c r="M20" s="18">
-        <v>280389</v>
+        <v>281684</v>
       </c>
       <c r="N20" s="18">
-        <v>81519</v>
+        <v>84487</v>
       </c>
       <c r="O20" s="18">
-        <v>177653</v>
+        <v>181658</v>
       </c>
       <c r="P20" s="18">
-        <v>33492</v>
+        <v>37050</v>
       </c>
       <c r="Q20" s="18">
-        <v>107718</v>
+        <v>116567</v>
       </c>
       <c r="R20" s="18">
-        <v>2653</v>
+        <v>3391</v>
       </c>
       <c r="S20" s="18">
-        <v>7667</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2362,55 +2376,55 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>69666</v>
+        <v>75968</v>
       </c>
       <c r="D21" s="37">
-        <v>64470</v>
+        <v>68944</v>
       </c>
       <c r="E21" s="37">
-        <v>5196</v>
+        <v>7024</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L21" s="41">
-        <v>58924</v>
+        <v>63159</v>
       </c>
       <c r="M21" s="41">
-        <v>5546</v>
+        <v>6034</v>
       </c>
       <c r="N21" s="41">
-        <v>4856</v>
+        <v>6347</v>
       </c>
       <c r="O21" s="41">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2419,55 +2433,55 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>32596999</v>
+        <v>33565445</v>
       </c>
       <c r="D22" s="21">
-        <v>25451513</v>
+        <v>26205337</v>
       </c>
       <c r="E22" s="21">
-        <v>7145486</v>
+        <v>7360108</v>
       </c>
       <c r="F22" s="22">
-        <v>30.603005329860888</v>
+        <v>31.509406449895561</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I22" s="22">
-        <v>8.5917621534895119</v>
+        <v>8.8498245409752947</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P22" s="25">
-        <v>2314572</v>
+        <v>2558661</v>
       </c>
       <c r="Q22" s="25">
-        <v>4128615</v>
+        <v>4396182</v>
       </c>
       <c r="R22" s="25">
-        <v>92927</v>
+        <v>117292</v>
       </c>
       <c r="S22" s="25">
-        <v>155693</v>
+        <v>194783</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2495,27 +2509,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2566,27 +2580,27 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2644,7 +2658,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,118 +2668,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="76"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="79" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="S3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82" t="s">
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2778,7 +2792,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2794,7 +2808,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="82"/>
+      <c r="M4" s="77"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2807,7 +2821,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="82"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2837,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="82"/>
+      <c r="X4" s="77"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2833,70 +2847,70 @@
         <v>70</v>
       </c>
       <c r="C5" s="45">
-        <v>2543412</v>
+        <v>2571228</v>
       </c>
       <c r="D5" s="45">
-        <v>1579276</v>
+        <v>1594204</v>
       </c>
       <c r="E5" s="45">
-        <v>201012</v>
+        <v>211658</v>
       </c>
       <c r="F5" s="45">
-        <v>763124</v>
+        <v>765366</v>
       </c>
       <c r="G5" s="45">
-        <v>33679</v>
+        <v>27194</v>
       </c>
       <c r="H5" s="45">
-        <v>873635</v>
+        <v>886329</v>
       </c>
       <c r="I5" s="45">
-        <v>803195</v>
+        <v>812000</v>
       </c>
       <c r="J5" s="45">
-        <v>54636</v>
+        <v>55656</v>
       </c>
       <c r="K5" s="45">
-        <v>15804</v>
+        <v>18023</v>
       </c>
       <c r="L5" s="45">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="M5" s="45">
-        <v>16339</v>
+        <v>11972</v>
       </c>
       <c r="N5" s="45">
-        <v>787280</v>
+        <v>848100</v>
       </c>
       <c r="O5" s="45">
-        <v>692455</v>
+        <v>737886</v>
       </c>
       <c r="P5" s="45">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="45">
-        <v>94657</v>
+        <v>110035</v>
       </c>
       <c r="R5" s="45">
-        <v>73841</v>
+        <v>60820</v>
       </c>
       <c r="S5" s="45">
-        <v>36409</v>
+        <v>45600</v>
       </c>
       <c r="T5" s="45">
-        <v>35680</v>
+        <v>44575</v>
       </c>
       <c r="U5" s="45">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V5" s="45">
-        <v>705</v>
+        <v>994</v>
       </c>
       <c r="W5" s="45">
         <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>9787</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2907,70 +2921,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3026136</v>
+        <v>3061623</v>
       </c>
       <c r="D6" s="46">
-        <v>2064436</v>
+        <v>2090797</v>
       </c>
       <c r="E6" s="46">
-        <v>254338</v>
+        <v>262576</v>
       </c>
       <c r="F6" s="46">
-        <v>707362</v>
+        <v>708250</v>
       </c>
       <c r="G6" s="46">
-        <v>31904</v>
+        <v>35487</v>
       </c>
       <c r="H6" s="46">
-        <v>1026778</v>
+        <v>1053650</v>
       </c>
       <c r="I6" s="46">
-        <v>926531</v>
+        <v>946820</v>
       </c>
       <c r="J6" s="46">
-        <v>73568</v>
+        <v>77626</v>
       </c>
       <c r="K6" s="46">
-        <v>26678</v>
+        <v>29203</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>28440</v>
+        <v>26872</v>
       </c>
       <c r="N6" s="46">
-        <v>1057779</v>
+        <v>1149312</v>
       </c>
       <c r="O6" s="46">
-        <v>850354</v>
+        <v>908010</v>
       </c>
       <c r="P6" s="46">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="46">
-        <v>207093</v>
+        <v>240949</v>
       </c>
       <c r="R6" s="46">
-        <v>111900</v>
+        <v>91533</v>
       </c>
       <c r="S6" s="46">
-        <v>29517</v>
+        <v>37648</v>
       </c>
       <c r="T6" s="46">
-        <v>25715</v>
+        <v>32786</v>
       </c>
       <c r="U6" s="46">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="V6" s="46">
-        <v>3275</v>
+        <v>4293</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>8792</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2981,70 +2995,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>761038</v>
+        <v>767090</v>
       </c>
       <c r="D7" s="45">
-        <v>514193</v>
+        <v>519140</v>
       </c>
       <c r="E7" s="45">
-        <v>61115</v>
+        <v>62210</v>
       </c>
       <c r="F7" s="45">
-        <v>185730</v>
+        <v>185740</v>
       </c>
       <c r="G7" s="45">
-        <v>6431</v>
+        <v>6052</v>
       </c>
       <c r="H7" s="45">
-        <v>365139</v>
+        <v>371438</v>
       </c>
       <c r="I7" s="45">
-        <v>316167</v>
+        <v>321568</v>
       </c>
       <c r="J7" s="45">
-        <v>46333</v>
+        <v>47062</v>
       </c>
       <c r="K7" s="45">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="L7" s="45">
-        <v>2569</v>
+        <v>2693</v>
       </c>
       <c r="M7" s="45">
-        <v>5431</v>
+        <v>6299</v>
       </c>
       <c r="N7" s="45">
-        <v>262956</v>
+        <v>285416</v>
       </c>
       <c r="O7" s="45">
-        <v>205885</v>
+        <v>221367</v>
       </c>
       <c r="P7" s="45">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="45">
-        <v>56998</v>
+        <v>63950</v>
       </c>
       <c r="R7" s="45">
-        <v>27062</v>
+        <v>22460</v>
       </c>
       <c r="S7" s="45">
-        <v>11866</v>
+        <v>14792</v>
       </c>
       <c r="T7" s="45">
-        <v>10595</v>
+        <v>13110</v>
       </c>
       <c r="U7" s="45">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="V7" s="45">
-        <v>1250</v>
+        <v>1643</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>3402</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3055,70 +3069,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>459155</v>
+        <v>462823</v>
       </c>
       <c r="D8" s="46">
-        <v>303872</v>
+        <v>306488</v>
       </c>
       <c r="E8" s="46">
-        <v>49208</v>
+        <v>50049</v>
       </c>
       <c r="F8" s="46">
-        <v>106075</v>
+        <v>106286</v>
       </c>
       <c r="G8" s="46">
-        <v>3656</v>
+        <v>2744</v>
       </c>
       <c r="H8" s="46">
-        <v>194684</v>
+        <v>202077</v>
       </c>
       <c r="I8" s="46">
-        <v>170197</v>
+        <v>176370</v>
       </c>
       <c r="J8" s="46">
-        <v>18489</v>
+        <v>19218</v>
       </c>
       <c r="K8" s="46">
-        <v>5998</v>
+        <v>6489</v>
       </c>
       <c r="L8" s="46">
         <v>0</v>
       </c>
       <c r="M8" s="46">
-        <v>7577</v>
+        <v>6560</v>
       </c>
       <c r="N8" s="46">
-        <v>226789</v>
+        <v>243100</v>
       </c>
       <c r="O8" s="46">
-        <v>165833</v>
+        <v>177404</v>
       </c>
       <c r="P8" s="46">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="46">
-        <v>60479</v>
+        <v>65208</v>
       </c>
       <c r="R8" s="46">
-        <v>15861</v>
+        <v>16311</v>
       </c>
       <c r="S8" s="46">
-        <v>19768</v>
+        <v>23234</v>
       </c>
       <c r="T8" s="46">
-        <v>19144</v>
+        <v>22388</v>
       </c>
       <c r="U8" s="46">
         <v>11</v>
       </c>
       <c r="V8" s="46">
-        <v>613</v>
+        <v>835</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>4087</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3129,70 +3143,70 @@
         <v>69</v>
       </c>
       <c r="C9" s="45">
-        <v>169261</v>
+        <v>171507</v>
       </c>
       <c r="D9" s="45">
-        <v>105289</v>
+        <v>105865</v>
       </c>
       <c r="E9" s="45">
-        <v>11992</v>
+        <v>12419</v>
       </c>
       <c r="F9" s="45">
-        <v>51980</v>
+        <v>53223</v>
       </c>
       <c r="G9" s="45">
-        <v>2395</v>
+        <v>2245</v>
       </c>
       <c r="H9" s="45">
-        <v>72216</v>
+        <v>75756</v>
       </c>
       <c r="I9" s="45">
-        <v>66863</v>
+        <v>68664</v>
       </c>
       <c r="J9" s="45">
-        <v>4474</v>
+        <v>4731</v>
       </c>
       <c r="K9" s="45">
-        <v>879</v>
+        <v>976</v>
       </c>
       <c r="L9" s="45">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="M9" s="45">
-        <v>2564</v>
+        <v>2393</v>
       </c>
       <c r="N9" s="45">
-        <v>44831</v>
+        <v>48535</v>
       </c>
       <c r="O9" s="45">
-        <v>39232</v>
+        <v>42038</v>
       </c>
       <c r="P9" s="45">
         <v>0</v>
       </c>
       <c r="Q9" s="45">
-        <v>5599</v>
+        <v>6497</v>
       </c>
       <c r="R9" s="45">
-        <v>3938</v>
+        <v>3704</v>
       </c>
       <c r="S9" s="45">
-        <v>1368</v>
+        <v>1852</v>
       </c>
       <c r="T9" s="45">
-        <v>1299</v>
+        <v>1769</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3203,70 +3217,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>444119</v>
+        <v>448655</v>
       </c>
       <c r="D10" s="46">
-        <v>282048</v>
+        <v>283981</v>
       </c>
       <c r="E10" s="46">
-        <v>41893</v>
+        <v>44482</v>
       </c>
       <c r="F10" s="46">
-        <v>120178</v>
+        <v>120192</v>
       </c>
       <c r="G10" s="46">
-        <v>4283</v>
+        <v>4467</v>
       </c>
       <c r="H10" s="46">
-        <v>139190</v>
+        <v>141747</v>
       </c>
       <c r="I10" s="46">
-        <v>131086</v>
+        <v>133196</v>
       </c>
       <c r="J10" s="46">
-        <v>7256</v>
+        <v>7460</v>
       </c>
       <c r="K10" s="46">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="L10" s="46">
-        <v>588</v>
+        <v>700</v>
       </c>
       <c r="M10" s="46">
-        <v>3639</v>
+        <v>2371</v>
       </c>
       <c r="N10" s="46">
-        <v>119742</v>
+        <v>130198</v>
       </c>
       <c r="O10" s="46">
-        <v>99774</v>
+        <v>107912</v>
       </c>
       <c r="P10" s="46">
-        <v>404</v>
+        <v>676</v>
       </c>
       <c r="Q10" s="46">
-        <v>19564</v>
+        <v>21610</v>
       </c>
       <c r="R10" s="46">
-        <v>10994</v>
+        <v>10456</v>
       </c>
       <c r="S10" s="46">
-        <v>2970</v>
+        <v>4266</v>
       </c>
       <c r="T10" s="46">
-        <v>2767</v>
+        <v>3961</v>
       </c>
       <c r="U10" s="46">
         <v>2</v>
       </c>
       <c r="V10" s="46">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>826</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3277,70 +3291,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1439568</v>
+        <v>1468246</v>
       </c>
       <c r="D11" s="45">
-        <v>862548</v>
+        <v>882014</v>
       </c>
       <c r="E11" s="45">
-        <v>122282</v>
+        <v>130138</v>
       </c>
       <c r="F11" s="45">
-        <v>454738</v>
+        <v>456094</v>
       </c>
       <c r="G11" s="45">
-        <v>28537</v>
+        <v>28678</v>
       </c>
       <c r="H11" s="45">
-        <v>492871</v>
+        <v>497041</v>
       </c>
       <c r="I11" s="45">
-        <v>465071</v>
+        <v>467688</v>
       </c>
       <c r="J11" s="45">
-        <v>23480</v>
+        <v>24166</v>
       </c>
       <c r="K11" s="45">
-        <v>4320</v>
+        <v>5187</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>3497</v>
+        <v>4170</v>
       </c>
       <c r="N11" s="45">
-        <v>438536</v>
+        <v>471545</v>
       </c>
       <c r="O11" s="45">
-        <v>371192</v>
+        <v>393182</v>
       </c>
       <c r="P11" s="45">
         <v>89</v>
       </c>
       <c r="Q11" s="45">
-        <v>67255</v>
+        <v>78274</v>
       </c>
       <c r="R11" s="45">
-        <v>50860</v>
+        <v>33009</v>
       </c>
       <c r="S11" s="45">
-        <v>16182</v>
+        <v>19554</v>
       </c>
       <c r="T11" s="45">
-        <v>15541</v>
+        <v>18687</v>
       </c>
       <c r="U11" s="45">
         <v>87</v>
       </c>
       <c r="V11" s="45">
-        <v>512</v>
+        <v>738</v>
       </c>
       <c r="W11" s="45">
         <v>42</v>
       </c>
       <c r="X11" s="45">
-        <v>4777</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3351,70 +3365,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>348508</v>
+        <v>354659</v>
       </c>
       <c r="D12" s="46">
-        <v>251446</v>
+        <v>255989</v>
       </c>
       <c r="E12" s="46">
-        <v>32766</v>
+        <v>34328</v>
       </c>
       <c r="F12" s="46">
-        <v>64296</v>
+        <v>64342</v>
       </c>
       <c r="G12" s="46">
-        <v>4329</v>
+        <v>6036</v>
       </c>
       <c r="H12" s="46">
-        <v>118393</v>
+        <v>122553</v>
       </c>
       <c r="I12" s="46">
-        <v>109021</v>
+        <v>113052</v>
       </c>
       <c r="J12" s="46">
-        <v>8918</v>
+        <v>8932</v>
       </c>
       <c r="K12" s="46">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="L12" s="46">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M12" s="46">
-        <v>3675</v>
+        <v>3998</v>
       </c>
       <c r="N12" s="46">
-        <v>177817</v>
+        <v>189837</v>
       </c>
       <c r="O12" s="46">
-        <v>133081</v>
+        <v>142414</v>
       </c>
       <c r="P12" s="46">
         <v>74</v>
       </c>
       <c r="Q12" s="46">
-        <v>44662</v>
+        <v>47349</v>
       </c>
       <c r="R12" s="46">
-        <v>13881</v>
+        <v>12020</v>
       </c>
       <c r="S12" s="46">
-        <v>5545</v>
+        <v>8161</v>
       </c>
       <c r="T12" s="46">
-        <v>5029</v>
+        <v>7460</v>
       </c>
       <c r="U12" s="46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V12" s="46">
-        <v>510</v>
+        <v>686</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>1907</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3425,70 +3439,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>1888505</v>
+        <v>1924689</v>
       </c>
       <c r="D13" s="45">
-        <v>1098638</v>
+        <v>1122806</v>
       </c>
       <c r="E13" s="45">
-        <v>177245</v>
+        <v>182370</v>
       </c>
       <c r="F13" s="45">
-        <v>612622</v>
+        <v>619513</v>
       </c>
       <c r="G13" s="45">
-        <v>32981</v>
+        <v>34353</v>
       </c>
       <c r="H13" s="45">
-        <v>586648</v>
+        <v>596784</v>
       </c>
       <c r="I13" s="45">
-        <v>541604</v>
+        <v>547789</v>
       </c>
       <c r="J13" s="45">
-        <v>33043</v>
+        <v>34650</v>
       </c>
       <c r="K13" s="45">
-        <v>4384</v>
+        <v>5725</v>
       </c>
       <c r="L13" s="45">
-        <v>7617</v>
+        <v>8620</v>
       </c>
       <c r="M13" s="45">
-        <v>9467</v>
+        <v>9641</v>
       </c>
       <c r="N13" s="45">
-        <v>622682</v>
+        <v>672782</v>
       </c>
       <c r="O13" s="45">
-        <v>525402</v>
+        <v>557518</v>
       </c>
       <c r="P13" s="45">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="45">
-        <v>96884</v>
+        <v>114848</v>
       </c>
       <c r="R13" s="45">
-        <v>74529</v>
+        <v>50100</v>
       </c>
       <c r="S13" s="45">
-        <v>16446</v>
+        <v>20271</v>
       </c>
       <c r="T13" s="45">
-        <v>14656</v>
+        <v>17938</v>
       </c>
       <c r="U13" s="45">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="V13" s="45">
-        <v>1362</v>
+        <v>1890</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>4292</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3499,70 +3513,70 @@
         <v>68</v>
       </c>
       <c r="C14" s="46">
-        <v>4251836</v>
+        <v>4304798</v>
       </c>
       <c r="D14" s="46">
-        <v>2851835</v>
+        <v>2888195</v>
       </c>
       <c r="E14" s="46">
-        <v>264035</v>
+        <v>278855</v>
       </c>
       <c r="F14" s="46">
-        <v>1135966</v>
+        <v>1137748</v>
       </c>
       <c r="G14" s="46">
-        <v>45141</v>
+        <v>39329</v>
       </c>
       <c r="H14" s="46">
-        <v>1403782</v>
+        <v>1424013</v>
       </c>
       <c r="I14" s="46">
-        <v>1322615</v>
+        <v>1336582</v>
       </c>
       <c r="J14" s="46">
-        <v>70638</v>
+        <v>74381</v>
       </c>
       <c r="K14" s="46">
-        <v>10096</v>
+        <v>12029</v>
       </c>
       <c r="L14" s="46">
-        <v>433</v>
+        <v>1021</v>
       </c>
       <c r="M14" s="46">
-        <v>12097</v>
+        <v>11127</v>
       </c>
       <c r="N14" s="46">
-        <v>1526765</v>
+        <v>1645601</v>
       </c>
       <c r="O14" s="46">
-        <v>1206819</v>
+        <v>1284768</v>
       </c>
       <c r="P14" s="46">
-        <v>3651</v>
+        <v>3837</v>
       </c>
       <c r="Q14" s="46">
-        <v>316295</v>
+        <v>356996</v>
       </c>
       <c r="R14" s="46">
-        <v>153873</v>
+        <v>118836</v>
       </c>
       <c r="S14" s="46">
-        <v>38320</v>
+        <v>47603</v>
       </c>
       <c r="T14" s="46">
-        <v>34785</v>
+        <v>43015</v>
       </c>
       <c r="U14" s="46">
-        <v>749</v>
+        <v>827</v>
       </c>
       <c r="V14" s="46">
-        <v>2783</v>
+        <v>3753</v>
       </c>
       <c r="W14" s="46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X14" s="46">
-        <v>10135</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3573,70 +3587,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>921323</v>
+        <v>928306</v>
       </c>
       <c r="D15" s="45">
-        <v>607887</v>
+        <v>612137</v>
       </c>
       <c r="E15" s="45">
-        <v>51470</v>
+        <v>53751</v>
       </c>
       <c r="F15" s="45">
-        <v>261966</v>
+        <v>262418</v>
       </c>
       <c r="G15" s="45">
-        <v>6538</v>
+        <v>5378</v>
       </c>
       <c r="H15" s="45">
-        <v>393608</v>
+        <v>409013</v>
       </c>
       <c r="I15" s="45">
-        <v>355475</v>
+        <v>367087</v>
       </c>
       <c r="J15" s="45">
-        <v>25755</v>
+        <v>26804</v>
       </c>
       <c r="K15" s="45">
-        <v>12378</v>
+        <v>15122</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>14579</v>
+        <v>14166</v>
       </c>
       <c r="N15" s="45">
-        <v>298493</v>
+        <v>322087</v>
       </c>
       <c r="O15" s="45">
-        <v>260026</v>
+        <v>275817</v>
       </c>
       <c r="P15" s="45">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="45">
-        <v>38324</v>
+        <v>46114</v>
       </c>
       <c r="R15" s="45">
-        <v>32515</v>
+        <v>23594</v>
       </c>
       <c r="S15" s="45">
-        <v>11138</v>
+        <v>14127</v>
       </c>
       <c r="T15" s="45">
-        <v>10824</v>
+        <v>13744</v>
       </c>
       <c r="U15" s="45">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V15" s="45">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>2872</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3647,70 +3661,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>258919</v>
+        <v>263377</v>
       </c>
       <c r="D16" s="46">
-        <v>195805</v>
+        <v>199108</v>
       </c>
       <c r="E16" s="46">
-        <v>21251</v>
+        <v>22325</v>
       </c>
       <c r="F16" s="46">
-        <v>41863</v>
+        <v>41944</v>
       </c>
       <c r="G16" s="46">
-        <v>4541</v>
+        <v>4379</v>
       </c>
       <c r="H16" s="46">
-        <v>88553</v>
+        <v>89684</v>
       </c>
       <c r="I16" s="46">
-        <v>80398</v>
+        <v>81282</v>
       </c>
       <c r="J16" s="46">
-        <v>6983</v>
+        <v>7000</v>
       </c>
       <c r="K16" s="46">
-        <v>1172</v>
+        <v>1402</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>959</v>
+        <v>1110</v>
       </c>
       <c r="N16" s="46">
-        <v>79939</v>
+        <v>85876</v>
       </c>
       <c r="O16" s="46">
-        <v>69512</v>
+        <v>73809</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>10348</v>
+        <v>11988</v>
       </c>
       <c r="R16" s="46">
-        <v>7699</v>
+        <v>5937</v>
       </c>
       <c r="S16" s="46">
-        <v>1862</v>
+        <v>2546</v>
       </c>
       <c r="T16" s="46">
-        <v>1684</v>
+        <v>2309</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>843</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3721,70 +3735,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>840209</v>
+        <v>848238</v>
       </c>
       <c r="D17" s="45">
-        <v>597709</v>
+        <v>603486</v>
       </c>
       <c r="E17" s="45">
-        <v>65673</v>
+        <v>67383</v>
       </c>
       <c r="F17" s="45">
-        <v>176827</v>
+        <v>177369</v>
       </c>
       <c r="G17" s="45">
-        <v>11477</v>
+        <v>8029</v>
       </c>
       <c r="H17" s="45">
-        <v>423547</v>
+        <v>435187</v>
       </c>
       <c r="I17" s="45">
-        <v>393829</v>
+        <v>403754</v>
       </c>
       <c r="J17" s="45">
-        <v>28772</v>
+        <v>30170</v>
       </c>
       <c r="K17" s="45">
-        <v>946</v>
+        <v>1263</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>7329</v>
+        <v>11640</v>
       </c>
       <c r="N17" s="45">
-        <v>279840</v>
+        <v>298212</v>
       </c>
       <c r="O17" s="45">
-        <v>207465</v>
+        <v>220131</v>
       </c>
       <c r="P17" s="45">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="45">
-        <v>72277</v>
+        <v>77940</v>
       </c>
       <c r="R17" s="45">
-        <v>21498</v>
+        <v>18372</v>
       </c>
       <c r="S17" s="45">
-        <v>32859</v>
+        <v>41700</v>
       </c>
       <c r="T17" s="45">
-        <v>32351</v>
+        <v>41087</v>
       </c>
       <c r="U17" s="45">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V17" s="45">
-        <v>443</v>
+        <v>546</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>9404</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3795,70 +3809,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>501037</v>
+        <v>507439</v>
       </c>
       <c r="D18" s="47">
-        <v>328188</v>
+        <v>333443</v>
       </c>
       <c r="E18" s="47">
-        <v>44340</v>
+        <v>45400</v>
       </c>
       <c r="F18" s="47">
-        <v>128509</v>
+        <v>128596</v>
       </c>
       <c r="G18" s="47">
-        <v>4731</v>
+        <v>6402</v>
       </c>
       <c r="H18" s="47">
-        <v>175120</v>
+        <v>181343</v>
       </c>
       <c r="I18" s="47">
-        <v>155233</v>
+        <v>160320</v>
       </c>
       <c r="J18" s="47">
-        <v>17809</v>
+        <v>18730</v>
       </c>
       <c r="K18" s="47">
-        <v>2078</v>
+        <v>2293</v>
       </c>
       <c r="L18" s="47">
         <v>0</v>
       </c>
       <c r="M18" s="47">
-        <v>3653</v>
+        <v>6223</v>
       </c>
       <c r="N18" s="46">
-        <v>171118</v>
+        <v>184496</v>
       </c>
       <c r="O18" s="46">
-        <v>147501</v>
+        <v>157416</v>
       </c>
       <c r="P18" s="46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="46">
-        <v>23617</v>
+        <v>27074</v>
       </c>
       <c r="R18" s="46">
-        <v>17215</v>
+        <v>13378</v>
       </c>
       <c r="S18" s="46">
-        <v>4862</v>
+        <v>6675</v>
       </c>
       <c r="T18" s="46">
-        <v>4582</v>
+        <v>6244</v>
       </c>
       <c r="U18" s="46">
         <v>0</v>
       </c>
       <c r="V18" s="46">
-        <v>280</v>
+        <v>431</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>1650</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3869,70 +3883,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>607895</v>
+        <v>611995</v>
       </c>
       <c r="D19" s="45">
-        <v>416547</v>
+        <v>419759</v>
       </c>
       <c r="E19" s="45">
-        <v>46637</v>
+        <v>47496</v>
       </c>
       <c r="F19" s="45">
-        <v>144711</v>
+        <v>144740</v>
       </c>
       <c r="G19" s="45">
-        <v>4022</v>
+        <v>4100</v>
       </c>
       <c r="H19" s="45">
-        <v>278121</v>
+        <v>288036</v>
       </c>
       <c r="I19" s="45">
-        <v>251476</v>
+        <v>259741</v>
       </c>
       <c r="J19" s="45">
-        <v>22547</v>
+        <v>23802</v>
       </c>
       <c r="K19" s="45">
-        <v>4098</v>
+        <v>4493</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>9848</v>
+        <v>9925</v>
       </c>
       <c r="N19" s="45">
-        <v>230145</v>
+        <v>248864</v>
       </c>
       <c r="O19" s="45">
-        <v>195897</v>
+        <v>207983</v>
       </c>
       <c r="P19" s="45">
-        <v>1239</v>
+        <v>1392</v>
       </c>
       <c r="Q19" s="45">
-        <v>33009</v>
+        <v>39489</v>
       </c>
       <c r="R19" s="45">
-        <v>28214</v>
+        <v>18719</v>
       </c>
       <c r="S19" s="45">
-        <v>9401</v>
+        <v>11133</v>
       </c>
       <c r="T19" s="45">
-        <v>8599</v>
+        <v>10243</v>
       </c>
       <c r="U19" s="45">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="V19" s="45">
-        <v>455</v>
+        <v>541</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>2616</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3943,70 +3957,70 @@
         <v>71</v>
       </c>
       <c r="C20" s="47">
-        <v>460200</v>
+        <v>464142</v>
       </c>
       <c r="D20" s="47">
-        <v>324495</v>
+        <v>327721</v>
       </c>
       <c r="E20" s="47">
-        <v>35976</v>
+        <v>36694</v>
       </c>
       <c r="F20" s="47">
-        <v>99729</v>
+        <v>99727</v>
       </c>
       <c r="G20" s="47">
-        <v>3780</v>
+        <v>3572</v>
       </c>
       <c r="H20" s="47">
-        <v>259172</v>
+        <v>266145</v>
       </c>
       <c r="I20" s="47">
-        <v>238875</v>
+        <v>245824</v>
       </c>
       <c r="J20" s="47">
-        <v>19852</v>
+        <v>19853</v>
       </c>
       <c r="K20" s="47">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="L20" s="47">
         <v>0</v>
       </c>
       <c r="M20" s="47">
-        <v>5388</v>
+        <v>5654</v>
       </c>
       <c r="N20" s="47">
-        <v>141210</v>
+        <v>153617</v>
       </c>
       <c r="O20" s="46">
-        <v>123884</v>
+        <v>132502</v>
       </c>
       <c r="P20" s="46">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="46">
-        <v>17273</v>
+        <v>21055</v>
       </c>
       <c r="R20" s="46">
-        <v>13270</v>
+        <v>12407</v>
       </c>
       <c r="S20" s="46">
-        <v>10320</v>
+        <v>13126</v>
       </c>
       <c r="T20" s="46">
-        <v>9599</v>
+        <v>12132</v>
       </c>
       <c r="U20" s="46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" s="46">
-        <v>710</v>
+        <v>981</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>2935</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4015,68 +4029,68 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>64470</v>
+        <v>68944</v>
       </c>
       <c r="D21" s="45">
         <v>1244</v>
       </c>
       <c r="E21" s="45">
-        <v>45957</v>
+        <v>50086</v>
       </c>
       <c r="F21" s="45">
-        <v>17269</v>
+        <v>17614</v>
       </c>
       <c r="G21" s="45">
-        <v>2614</v>
+        <v>3265</v>
       </c>
       <c r="H21" s="45">
-        <v>5196</v>
+        <v>7024</v>
       </c>
       <c r="I21" s="55">
         <v>2</v>
       </c>
       <c r="J21" s="55">
-        <v>5141</v>
+        <v>6711</v>
       </c>
       <c r="K21" s="55">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L21" s="55">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="M21" s="55">
-        <v>1280</v>
+        <v>1553</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4085,70 +4099,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>18985591</v>
+        <v>19227759</v>
       </c>
       <c r="D22" s="57">
-        <v>12385456</v>
+        <v>12546377</v>
       </c>
       <c r="E22" s="57">
-        <v>1527190</v>
+        <v>1592220</v>
       </c>
       <c r="F22" s="57">
-        <v>5072945</v>
+        <v>5089162</v>
       </c>
       <c r="G22" s="57">
-        <v>231039</v>
+        <v>221710</v>
       </c>
       <c r="H22" s="57">
-        <v>6896653</v>
+        <v>7047820</v>
       </c>
       <c r="I22" s="57">
-        <v>6327638</v>
+        <v>6441739</v>
       </c>
       <c r="J22" s="57">
-        <v>467694</v>
+        <v>486952</v>
       </c>
       <c r="K22" s="57">
-        <v>90005</v>
+        <v>103685</v>
       </c>
       <c r="L22" s="57">
-        <v>11316</v>
+        <v>15444</v>
       </c>
       <c r="M22" s="57">
-        <v>135762</v>
+        <v>135674</v>
       </c>
       <c r="N22" s="57">
-        <v>6465922</v>
+        <v>6977578</v>
       </c>
       <c r="O22" s="57">
-        <v>5294312</v>
+        <v>5640157</v>
       </c>
       <c r="P22" s="57">
-        <v>7276</v>
+        <v>8045</v>
       </c>
       <c r="Q22" s="57">
-        <v>1164334</v>
+        <v>1329376</v>
       </c>
       <c r="R22" s="57">
-        <v>657150</v>
+        <v>511656</v>
       </c>
       <c r="S22" s="57">
-        <v>248833</v>
+        <v>312288</v>
       </c>
       <c r="T22" s="57">
-        <v>232850</v>
+        <v>291448</v>
       </c>
       <c r="U22" s="57">
-        <v>2228</v>
+        <v>2421</v>
       </c>
       <c r="V22" s="57">
-        <v>13640</v>
+        <v>18299</v>
       </c>
       <c r="W22" s="57">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="X22" s="57">
-        <v>68814</v>
+        <v>63455</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4163,29 +4177,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4219,327 +4233,288 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>80</v>
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
+      <c r="A2" s="85">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
-        <v>24464</v>
-      </c>
-      <c r="C2" s="45">
-        <v>0</v>
-      </c>
+        <v>24463</v>
+      </c>
+      <c r="C2" s="86"/>
       <c r="D2" s="45">
-        <v>24464</v>
+        <v>24463</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+      <c r="A3" s="87">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18340</v>
       </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
+      <c r="C3" s="88"/>
       <c r="D3" s="46">
         <v>18340</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+      <c r="A4" s="85">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
         <v>48961</v>
       </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
+      <c r="C4" s="86"/>
       <c r="D4" s="45">
         <v>48961</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+      <c r="A5" s="87">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62536</v>
       </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
+      <c r="C5" s="88"/>
       <c r="D5" s="46">
         <v>62536</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="A6" s="85">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>49901</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
+        <v>49908</v>
+      </c>
+      <c r="C6" s="86"/>
       <c r="D6" s="45">
-        <v>49901</v>
+        <v>49908</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="87">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>19274</v>
       </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+      <c r="C7" s="88"/>
       <c r="D7" s="46">
         <v>19274</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="85">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
         <v>52819</v>
       </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
+      <c r="C8" s="86"/>
       <c r="D8" s="45">
         <v>52819</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="87">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>24207</v>
       </c>
-      <c r="C9" s="46">
-        <v>0</v>
-      </c>
+      <c r="C9" s="88"/>
       <c r="D9" s="46">
         <v>24207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="85">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48387</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
+        <v>48386</v>
+      </c>
+      <c r="C10" s="86"/>
       <c r="D10" s="45">
-        <v>48387</v>
+        <v>48386</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="87">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
-        <v>54035</v>
-      </c>
-      <c r="C11" s="46">
-        <v>0</v>
-      </c>
+        <v>54032</v>
+      </c>
+      <c r="C11" s="88"/>
       <c r="D11" s="46">
-        <v>54035</v>
+        <v>54032</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="85">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62862</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
+        <v>62859</v>
+      </c>
+      <c r="C12" s="86"/>
       <c r="D12" s="45">
-        <v>62862</v>
+        <v>62859</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="87">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
         <v>55857</v>
       </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
+      <c r="C13" s="88"/>
       <c r="D13" s="46">
         <v>55857</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="85">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>63169</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
+        <v>63170</v>
+      </c>
+      <c r="C14" s="86"/>
       <c r="D14" s="45">
-        <v>63169</v>
+        <v>63170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="89">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61317</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
+        <v>61328</v>
+      </c>
+      <c r="C15" s="90"/>
       <c r="D15" s="47">
-        <v>61317</v>
+        <v>61328</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="85">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35353</v>
       </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
+      <c r="C16" s="86"/>
       <c r="D16" s="45">
         <v>35353</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="89">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67633</v>
-      </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
+        <v>67632</v>
+      </c>
+      <c r="C17" s="90"/>
       <c r="D17" s="47">
-        <v>67633</v>
+        <v>67632</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="85">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82737</v>
-      </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
+        <v>82736</v>
+      </c>
+      <c r="C18" s="86"/>
       <c r="D18" s="45">
-        <v>82737</v>
+        <v>82736</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="87">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
         <v>111383</v>
       </c>
-      <c r="C19" s="46">
-        <v>0</v>
-      </c>
+      <c r="C19" s="88"/>
       <c r="D19" s="46">
         <v>111383</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="85">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
         <v>82525</v>
       </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
+      <c r="C20" s="86"/>
       <c r="D20" s="45">
         <v>82525</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="87">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90938</v>
+        <v>91060</v>
       </c>
       <c r="C21" s="46">
         <v>602</v>
       </c>
       <c r="D21" s="46">
-        <v>91540</v>
+        <v>91662</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="A22" s="85">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56554</v>
+        <v>56592</v>
       </c>
       <c r="C22" s="45">
         <v>899</v>
       </c>
       <c r="D22" s="45">
-        <v>57453</v>
+        <v>57491</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="87">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4553,63 +4528,63 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="85">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66535</v>
+        <v>66536</v>
       </c>
       <c r="C24" s="45">
         <v>15729</v>
       </c>
       <c r="D24" s="45">
-        <v>82264</v>
+        <v>82265</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="87">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>81773</v>
+        <v>81772</v>
       </c>
       <c r="C25" s="46">
-        <v>33444</v>
+        <v>33443</v>
       </c>
       <c r="D25" s="46">
-        <v>115217</v>
+        <v>115215</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="85">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80682</v>
+        <v>80679</v>
       </c>
       <c r="C26" s="45">
         <v>51534</v>
       </c>
       <c r="D26" s="45">
-        <v>132216</v>
+        <v>132213</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="87">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>64215</v>
+        <v>64216</v>
       </c>
       <c r="C27" s="46">
         <v>40732</v>
       </c>
       <c r="D27" s="46">
-        <v>104947</v>
+        <v>104948</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+      <c r="A28" s="85">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
@@ -4623,21 +4598,21 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="87">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40613</v>
+        <v>40614</v>
       </c>
       <c r="C29" s="46">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="D29" s="46">
-        <v>85549</v>
+        <v>85551</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="69">
+      <c r="A30" s="85">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4651,105 +4626,105 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="A31" s="89">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
-        <v>56058</v>
+        <v>56059</v>
       </c>
       <c r="C31" s="47">
-        <v>38069</v>
+        <v>38067</v>
       </c>
       <c r="D31" s="47">
-        <v>94127</v>
+        <v>94126</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+      <c r="A32" s="85">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50425</v>
+        <v>50424</v>
       </c>
       <c r="C32" s="45">
         <v>48648</v>
       </c>
       <c r="D32" s="45">
-        <v>99073</v>
+        <v>99072</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="89">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51383</v>
+        <v>51385</v>
       </c>
       <c r="C33" s="47">
-        <v>59681</v>
+        <v>59674</v>
       </c>
       <c r="D33" s="47">
-        <v>111064</v>
+        <v>111059</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+      <c r="A34" s="85">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="C34" s="45">
-        <v>46412</v>
+        <v>46413</v>
       </c>
       <c r="D34" s="45">
-        <v>91543</v>
+        <v>91545</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="87">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51005</v>
+        <v>51004</v>
       </c>
       <c r="C35" s="46">
         <v>57336</v>
       </c>
       <c r="D35" s="46">
-        <v>108341</v>
+        <v>108340</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="69">
+      <c r="A36" s="85">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>35446</v>
+        <v>35448</v>
       </c>
       <c r="C36" s="45">
-        <v>52285</v>
+        <v>52294</v>
       </c>
       <c r="D36" s="45">
-        <v>87731</v>
+        <v>87742</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="87">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
-        <v>26695</v>
+        <v>26696</v>
       </c>
       <c r="C37" s="46">
         <v>31428</v>
       </c>
       <c r="D37" s="46">
-        <v>58123</v>
+        <v>58124</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="69">
+      <c r="A38" s="85">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
@@ -4763,175 +4738,175 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="87">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
         <v>63919</v>
       </c>
       <c r="C39" s="46">
-        <v>67023</v>
+        <v>67024</v>
       </c>
       <c r="D39" s="46">
-        <v>130942</v>
+        <v>130943</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+      <c r="A40" s="85">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
         <v>64579</v>
       </c>
       <c r="C40" s="45">
-        <v>95143</v>
+        <v>95167</v>
       </c>
       <c r="D40" s="45">
-        <v>159722</v>
+        <v>159746</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="87">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61667</v>
+        <v>61666</v>
       </c>
       <c r="C41" s="46">
-        <v>70515</v>
+        <v>70516</v>
       </c>
       <c r="D41" s="46">
         <v>132182</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+      <c r="A42" s="85">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67611</v>
+        <v>67606</v>
       </c>
       <c r="C42" s="45">
-        <v>77524</v>
+        <v>77620</v>
       </c>
       <c r="D42" s="45">
-        <v>145135</v>
+        <v>145226</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="87">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47116</v>
+        <v>47113</v>
       </c>
       <c r="C43" s="46">
-        <v>53022</v>
+        <v>53030</v>
       </c>
       <c r="D43" s="46">
-        <v>100138</v>
+        <v>100143</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+      <c r="A44" s="85">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
-        <v>28182</v>
+        <v>28183</v>
       </c>
       <c r="C44" s="45">
         <v>26072</v>
       </c>
       <c r="D44" s="45">
-        <v>54254</v>
+        <v>54255</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="87">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
         <v>53440</v>
       </c>
       <c r="C45" s="46">
-        <v>56699</v>
+        <v>56700</v>
       </c>
       <c r="D45" s="46">
-        <v>110139</v>
+        <v>110140</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+      <c r="A46" s="85">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59235</v>
+        <v>59234</v>
       </c>
       <c r="C46" s="45">
-        <v>74192</v>
+        <v>74190</v>
       </c>
       <c r="D46" s="45">
-        <v>133427</v>
+        <v>133424</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="89">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>74316</v>
+        <v>74306</v>
       </c>
       <c r="C47" s="47">
-        <v>75600</v>
+        <v>75601</v>
       </c>
       <c r="D47" s="47">
-        <v>149916</v>
+        <v>149907</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+      <c r="A48" s="85">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>74536</v>
+        <v>74554</v>
       </c>
       <c r="C48" s="45">
-        <v>68275</v>
+        <v>68388</v>
       </c>
       <c r="D48" s="45">
-        <v>142811</v>
+        <v>142942</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
+      <c r="A49" s="89">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>80755</v>
+        <v>80790</v>
       </c>
       <c r="C49" s="47">
-        <v>74964</v>
+        <v>74963</v>
       </c>
       <c r="D49" s="47">
-        <v>155719</v>
+        <v>155753</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+      <c r="A50" s="85">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62177</v>
+        <v>62176</v>
       </c>
       <c r="C50" s="45">
         <v>46110</v>
       </c>
       <c r="D50" s="45">
-        <v>108287</v>
+        <v>108286</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="87">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
@@ -4945,91 +4920,91 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+      <c r="A52" s="85">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71144</v>
+        <v>71141</v>
       </c>
       <c r="C52" s="45">
         <v>55810</v>
       </c>
       <c r="D52" s="45">
-        <v>126954</v>
+        <v>126951</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="87">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81631</v>
+        <v>81634</v>
       </c>
       <c r="C53" s="46">
         <v>53739</v>
       </c>
       <c r="D53" s="46">
-        <v>135370</v>
+        <v>135373</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
+      <c r="A54" s="85">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>94366</v>
+        <v>94363</v>
       </c>
       <c r="C54" s="45">
         <v>55750</v>
       </c>
       <c r="D54" s="45">
-        <v>150116</v>
+        <v>150113</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="87">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>92152</v>
+        <v>92147</v>
       </c>
       <c r="C55" s="46">
         <v>51162</v>
       </c>
       <c r="D55" s="46">
-        <v>143314</v>
+        <v>143309</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+      <c r="A56" s="85">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99362</v>
+        <v>99363</v>
       </c>
       <c r="C56" s="45">
         <v>53868</v>
       </c>
       <c r="D56" s="45">
-        <v>153230</v>
+        <v>153231</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="87">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76422</v>
+        <v>76421</v>
       </c>
       <c r="C57" s="46">
-        <v>37822</v>
+        <v>37823</v>
       </c>
       <c r="D57" s="46">
         <v>114244</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
+      <c r="A58" s="85">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
@@ -5043,329 +5018,329 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="87">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100003</v>
+        <v>100005</v>
       </c>
       <c r="C59" s="46">
-        <v>60398</v>
+        <v>60442</v>
       </c>
       <c r="D59" s="46">
-        <v>160401</v>
+        <v>160447</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+      <c r="A60" s="85">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107152</v>
+        <v>107151</v>
       </c>
       <c r="C60" s="45">
-        <v>59693</v>
+        <v>59694</v>
       </c>
       <c r="D60" s="45">
         <v>166845</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
+      <c r="A61" s="87">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
         <v>116149</v>
       </c>
       <c r="C61" s="46">
-        <v>59279</v>
+        <v>59280</v>
       </c>
       <c r="D61" s="46">
-        <v>175428</v>
+        <v>175429</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+      <c r="A62" s="85">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130242</v>
+        <v>130292</v>
       </c>
       <c r="C62" s="45">
-        <v>58427</v>
+        <v>58426</v>
       </c>
       <c r="D62" s="45">
-        <v>188669</v>
+        <v>188718</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="71">
+      <c r="A63" s="89">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144033</v>
+        <v>144037</v>
       </c>
       <c r="C63" s="47">
         <v>65085</v>
       </c>
       <c r="D63" s="47">
-        <v>209118</v>
+        <v>209122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+      <c r="A64" s="85">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
         <v>108522</v>
       </c>
       <c r="C64" s="45">
-        <v>40159</v>
+        <v>40156</v>
       </c>
       <c r="D64" s="45">
-        <v>148681</v>
+        <v>148678</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="71">
+      <c r="A65" s="89">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83831</v>
+        <v>83832</v>
       </c>
       <c r="C65" s="47">
-        <v>24292</v>
+        <v>24291</v>
       </c>
       <c r="D65" s="47">
         <v>108123</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="69">
+      <c r="A66" s="85">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146272</v>
+        <v>146248</v>
       </c>
       <c r="C66" s="45">
-        <v>49298</v>
+        <v>49299</v>
       </c>
       <c r="D66" s="45">
-        <v>195570</v>
+        <v>195547</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
+      <c r="A67" s="87">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166113</v>
+        <v>166120</v>
       </c>
       <c r="C67" s="46">
         <v>53622</v>
       </c>
       <c r="D67" s="46">
-        <v>219735</v>
+        <v>219742</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="69">
+      <c r="A68" s="85">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174622</v>
+        <v>174633</v>
       </c>
       <c r="C68" s="45">
-        <v>68950</v>
+        <v>68952</v>
       </c>
       <c r="D68" s="45">
-        <v>243572</v>
+        <v>243585</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="70">
+      <c r="A69" s="87">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180071</v>
+        <v>180349</v>
       </c>
       <c r="C69" s="46">
-        <v>62650</v>
+        <v>62654</v>
       </c>
       <c r="D69" s="46">
-        <v>242721</v>
+        <v>243003</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
+      <c r="A70" s="85">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201258</v>
+        <v>201260</v>
       </c>
       <c r="C70" s="45">
         <v>67396</v>
       </c>
       <c r="D70" s="45">
-        <v>268654</v>
+        <v>268656</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="70">
+      <c r="A71" s="87">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153075</v>
+        <v>153079</v>
       </c>
       <c r="C71" s="46">
-        <v>49301</v>
+        <v>49300</v>
       </c>
       <c r="D71" s="46">
-        <v>202376</v>
+        <v>202379</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
+      <c r="A72" s="85">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
         <v>115880</v>
       </c>
       <c r="C72" s="45">
-        <v>34462</v>
+        <v>34463</v>
       </c>
       <c r="D72" s="45">
-        <v>150342</v>
+        <v>150343</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="70">
+      <c r="A73" s="87">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186362</v>
+        <v>186365</v>
       </c>
       <c r="C73" s="46">
-        <v>52478</v>
+        <v>52476</v>
       </c>
       <c r="D73" s="46">
-        <v>238840</v>
+        <v>238841</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
+      <c r="A74" s="85">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195334</v>
+        <v>195336</v>
       </c>
       <c r="C74" s="45">
-        <v>54772</v>
+        <v>54773</v>
       </c>
       <c r="D74" s="45">
-        <v>250106</v>
+        <v>250109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="70">
+      <c r="A75" s="87">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217648</v>
+        <v>217650</v>
       </c>
       <c r="C75" s="46">
-        <v>65653</v>
+        <v>65652</v>
       </c>
       <c r="D75" s="46">
-        <v>283301</v>
+        <v>283302</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="69">
+      <c r="A76" s="85">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220527</v>
+        <v>220525</v>
       </c>
       <c r="C76" s="45">
-        <v>60912</v>
+        <v>60914</v>
       </c>
       <c r="D76" s="45">
         <v>281439</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="70">
+      <c r="A77" s="87">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>251888</v>
+        <v>251911</v>
       </c>
       <c r="C77" s="46">
-        <v>71590</v>
+        <v>71588</v>
       </c>
       <c r="D77" s="46">
-        <v>323478</v>
+        <v>323499</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+      <c r="A78" s="85">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>196981</v>
+        <v>196994</v>
       </c>
       <c r="C78" s="45">
-        <v>49455</v>
+        <v>49454</v>
       </c>
       <c r="D78" s="45">
-        <v>246436</v>
+        <v>246448</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="71">
+      <c r="A79" s="89">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135198</v>
+        <v>135197</v>
       </c>
       <c r="C79" s="47">
         <v>35997</v>
       </c>
       <c r="D79" s="47">
-        <v>171195</v>
+        <v>171194</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="69">
+      <c r="A80" s="85">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189287</v>
+        <v>189293</v>
       </c>
       <c r="C80" s="45">
-        <v>58863</v>
+        <v>58861</v>
       </c>
       <c r="D80" s="45">
-        <v>248150</v>
+        <v>248154</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="71">
+      <c r="A81" s="89">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112076</v>
+        <v>112078</v>
       </c>
       <c r="C81" s="47">
-        <v>67029</v>
+        <v>67025</v>
       </c>
       <c r="D81" s="47">
-        <v>179105</v>
+        <v>179103</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="69">
+      <c r="A82" s="85">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
@@ -5379,724 +5354,744 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="70">
+      <c r="A83" s="87">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119262</v>
+        <v>119283</v>
       </c>
       <c r="C83" s="46">
-        <v>75449</v>
+        <v>75466</v>
       </c>
       <c r="D83" s="46">
-        <v>194711</v>
+        <v>194749</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="69">
+      <c r="A84" s="85">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>160791</v>
+        <v>160787</v>
       </c>
       <c r="C84" s="45">
-        <v>82769</v>
+        <v>82772</v>
       </c>
       <c r="D84" s="45">
-        <v>243560</v>
+        <v>243559</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="70">
+      <c r="A85" s="87">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166282</v>
+        <v>166281</v>
       </c>
       <c r="C85" s="46">
-        <v>53899</v>
+        <v>53898</v>
       </c>
       <c r="D85" s="46">
-        <v>220181</v>
+        <v>220179</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
+      <c r="A86" s="85">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127287</v>
+        <v>127293</v>
       </c>
       <c r="C86" s="45">
         <v>38780</v>
       </c>
       <c r="D86" s="45">
-        <v>166067</v>
+        <v>166073</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="70">
+      <c r="A87" s="87">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189896</v>
+        <v>189899</v>
       </c>
       <c r="C87" s="46">
-        <v>76141</v>
+        <v>76150</v>
       </c>
       <c r="D87" s="46">
-        <v>266037</v>
+        <v>266049</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="69">
+      <c r="A88" s="85">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>213852</v>
+        <v>213862</v>
       </c>
       <c r="C88" s="45">
-        <v>83737</v>
+        <v>83736</v>
       </c>
       <c r="D88" s="45">
-        <v>297589</v>
+        <v>297598</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="70">
+      <c r="A89" s="87">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245696</v>
+        <v>245716</v>
       </c>
       <c r="C89" s="46">
-        <v>88252</v>
+        <v>88251</v>
       </c>
       <c r="D89" s="46">
-        <v>333948</v>
+        <v>333967</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="69">
+      <c r="A90" s="85">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
         <v>257135</v>
       </c>
       <c r="C90" s="45">
-        <v>80044</v>
+        <v>80041</v>
       </c>
       <c r="D90" s="45">
-        <v>337179</v>
+        <v>337176</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="70">
+      <c r="A91" s="87">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285540</v>
+        <v>285577</v>
       </c>
       <c r="C91" s="46">
         <v>88943</v>
       </c>
       <c r="D91" s="46">
-        <v>374483</v>
+        <v>374520</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+      <c r="A92" s="85">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223479</v>
+        <v>223496</v>
       </c>
       <c r="C92" s="45">
-        <v>63196</v>
+        <v>63195</v>
       </c>
       <c r="D92" s="45">
-        <v>286675</v>
+        <v>286691</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="70">
+      <c r="A93" s="87">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144036</v>
+        <v>144122</v>
       </c>
       <c r="C93" s="46">
-        <v>52749</v>
+        <v>52757</v>
       </c>
       <c r="D93" s="46">
-        <v>196785</v>
+        <v>196879</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="69">
+      <c r="A94" s="85">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219318</v>
+        <v>219343</v>
       </c>
       <c r="C94" s="45">
-        <v>89017</v>
+        <v>89014</v>
       </c>
       <c r="D94" s="45">
-        <v>308335</v>
+        <v>308357</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="71">
+      <c r="A95" s="89">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234554</v>
+        <v>234594</v>
       </c>
       <c r="C95" s="47">
-        <v>93348</v>
+        <v>93349</v>
       </c>
       <c r="D95" s="47">
-        <v>327902</v>
+        <v>327943</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="69">
+      <c r="A96" s="85">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>237907</v>
+        <v>237999</v>
       </c>
       <c r="C96" s="45">
-        <v>103025</v>
+        <v>103059</v>
       </c>
       <c r="D96" s="45">
-        <v>340932</v>
+        <v>341058</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="71">
+      <c r="A97" s="89">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>230510</v>
+        <v>230728</v>
       </c>
       <c r="C97" s="47">
-        <v>92418</v>
+        <v>92411</v>
       </c>
       <c r="D97" s="47">
-        <v>322928</v>
+        <v>323139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="69">
+      <c r="A98" s="85">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158033</v>
+        <v>158035</v>
       </c>
       <c r="C98" s="45">
         <v>71624</v>
       </c>
       <c r="D98" s="45">
-        <v>229657</v>
+        <v>229659</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="70">
+      <c r="A99" s="87">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165688</v>
+        <v>165695</v>
       </c>
       <c r="C99" s="46">
-        <v>66041</v>
+        <v>66039</v>
       </c>
       <c r="D99" s="46">
-        <v>231729</v>
+        <v>231734</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
+      <c r="A100" s="85">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142488</v>
+        <v>142487</v>
       </c>
       <c r="C100" s="45">
         <v>53583</v>
       </c>
       <c r="D100" s="45">
-        <v>196071</v>
+        <v>196070</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="70">
+      <c r="A101" s="87">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176096</v>
+        <v>176116</v>
       </c>
       <c r="C101" s="46">
-        <v>73427</v>
+        <v>73426</v>
       </c>
       <c r="D101" s="46">
-        <v>249523</v>
+        <v>249542</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="69">
+      <c r="A102" s="85">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>278962</v>
+        <v>278983</v>
       </c>
       <c r="C102" s="45">
         <v>99101</v>
       </c>
       <c r="D102" s="45">
-        <v>378063</v>
+        <v>378084</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="70">
+      <c r="A103" s="87">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580113</v>
+        <v>580223</v>
       </c>
       <c r="C103" s="46">
-        <v>97098</v>
+        <v>97096</v>
       </c>
       <c r="D103" s="46">
-        <v>677211</v>
+        <v>677319</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="69">
+      <c r="A104" s="85">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642766</v>
+        <v>642823</v>
       </c>
       <c r="C104" s="45">
-        <v>89737</v>
+        <v>89734</v>
       </c>
       <c r="D104" s="45">
-        <v>732503</v>
+        <v>732557</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="70">
+      <c r="A105" s="87">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534072</v>
+        <v>534461</v>
       </c>
       <c r="C105" s="46">
         <v>88327</v>
       </c>
       <c r="D105" s="46">
-        <v>622399</v>
+        <v>622788</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
+      <c r="A106" s="85">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302927</v>
+        <v>302933</v>
       </c>
       <c r="C106" s="45">
-        <v>65478</v>
+        <v>65474</v>
       </c>
       <c r="D106" s="45">
-        <v>368405</v>
+        <v>368407</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="70">
+      <c r="A107" s="87">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210475</v>
+        <v>210479</v>
       </c>
       <c r="C107" s="46">
-        <v>50101</v>
+        <v>50100</v>
       </c>
       <c r="D107" s="46">
-        <v>260576</v>
+        <v>260579</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="69">
+      <c r="A108" s="85">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338351</v>
+        <v>338513</v>
       </c>
       <c r="C108" s="45">
-        <v>76759</v>
+        <v>76761</v>
       </c>
       <c r="D108" s="45">
-        <v>415110</v>
+        <v>415274</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="70">
+      <c r="A109" s="87">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497443</v>
+        <v>497534</v>
       </c>
       <c r="C109" s="46">
         <v>73350</v>
       </c>
       <c r="D109" s="46">
-        <v>570793</v>
+        <v>570884</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="69">
+      <c r="A110" s="85">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690214</v>
+        <v>690254</v>
       </c>
       <c r="C110" s="45">
-        <v>83243</v>
+        <v>83349</v>
       </c>
       <c r="D110" s="45">
-        <v>773457</v>
+        <v>773603</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="71">
+      <c r="A111" s="89">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608331</v>
+        <v>608383</v>
       </c>
       <c r="C111" s="47">
-        <v>69489</v>
+        <v>70692</v>
       </c>
       <c r="D111" s="47">
-        <v>677820</v>
+        <v>679075</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="69">
+      <c r="A112" s="85">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517592</v>
+        <v>517691</v>
       </c>
       <c r="C112" s="45">
-        <v>74774</v>
+        <v>74818</v>
       </c>
       <c r="D112" s="45">
-        <v>592366</v>
+        <v>592509</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="71">
+      <c r="A113" s="89">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305640</v>
+        <v>305644</v>
       </c>
       <c r="C113" s="47">
-        <v>55738</v>
+        <v>55757</v>
       </c>
       <c r="D113" s="47">
-        <v>361378</v>
+        <v>361401</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="69">
+      <c r="A114" s="85">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226882</v>
+        <v>226885</v>
       </c>
       <c r="C114" s="45">
-        <v>38766</v>
+        <v>38943</v>
       </c>
       <c r="D114" s="45">
-        <v>265648</v>
+        <v>265828</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="70">
+      <c r="A115" s="87">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>337793</v>
+        <v>337842</v>
       </c>
       <c r="C115" s="46">
-        <v>60504</v>
+        <v>60506</v>
       </c>
       <c r="D115" s="46">
-        <v>398297</v>
+        <v>398348</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="69">
+      <c r="A116" s="85">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493278</v>
+        <v>493286</v>
       </c>
       <c r="C116" s="45">
-        <v>61227</v>
+        <v>61239</v>
       </c>
       <c r="D116" s="45">
-        <v>554505</v>
+        <v>554525</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="70">
+      <c r="A117" s="87">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641073</v>
+        <v>641103</v>
       </c>
       <c r="C117" s="46">
-        <v>71359</v>
+        <v>71383</v>
       </c>
       <c r="D117" s="46">
-        <v>712432</v>
+        <v>712486</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="69">
+      <c r="A118" s="85">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567402</v>
+        <v>567422</v>
       </c>
       <c r="C118" s="45">
-        <v>65580</v>
+        <v>65616</v>
       </c>
       <c r="D118" s="45">
-        <v>632982</v>
+        <v>633038</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="70">
+      <c r="A119" s="87">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>482639</v>
+        <v>482795</v>
       </c>
       <c r="C119" s="46">
-        <v>66928</v>
+        <v>67048</v>
       </c>
       <c r="D119" s="46">
-        <v>549567</v>
+        <v>549843</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="69">
+      <c r="A120" s="85">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>308593</v>
+        <v>308678</v>
       </c>
       <c r="C120" s="45">
-        <v>59016</v>
+        <v>59271</v>
       </c>
       <c r="D120" s="45">
-        <v>367609</v>
+        <v>367949</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="70">
+      <c r="A121" s="87">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235354</v>
+        <v>235456</v>
       </c>
       <c r="C121" s="46">
-        <v>47266</v>
+        <v>47498</v>
       </c>
       <c r="D121" s="46">
-        <v>282620</v>
+        <v>282954</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="69">
+      <c r="A122" s="85">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>353738</v>
+        <v>354020</v>
       </c>
       <c r="C122" s="45">
-        <v>72458</v>
+        <v>72697</v>
       </c>
       <c r="D122" s="45">
-        <v>426196</v>
+        <v>426717</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="70">
+      <c r="A123" s="87">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>692661</v>
+        <v>693047</v>
       </c>
       <c r="C123" s="46">
-        <v>89186</v>
+        <v>89669</v>
       </c>
       <c r="D123" s="46">
-        <v>781847</v>
+        <v>782716</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="69">
+      <c r="A124" s="85">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>991303</v>
+        <v>991678</v>
       </c>
       <c r="C124" s="45">
-        <v>125305</v>
+        <v>125345</v>
       </c>
       <c r="D124" s="45">
-        <v>1116608</v>
+        <v>1117023</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="70">
+      <c r="A125" s="87">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>806028</v>
+        <v>806498</v>
       </c>
       <c r="C125" s="46">
-        <v>130297</v>
+        <v>130315</v>
       </c>
       <c r="D125" s="46">
-        <v>936325</v>
+        <v>936813</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="69">
+      <c r="A126" s="85">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>659742</v>
+        <v>660166</v>
       </c>
       <c r="C126" s="45">
-        <v>135574</v>
+        <v>135736</v>
       </c>
       <c r="D126" s="45">
-        <v>795316</v>
+        <v>795902</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="70">
+      <c r="A127" s="87">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>257084</v>
+        <v>257345</v>
       </c>
       <c r="C127" s="46">
-        <v>75233</v>
+        <v>75551</v>
       </c>
       <c r="D127" s="46">
-        <v>332317</v>
+        <v>332896</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="69">
+      <c r="A128" s="85">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>194674</v>
+        <v>194687</v>
       </c>
       <c r="C128" s="45">
-        <v>67132</v>
+        <v>67314</v>
       </c>
       <c r="D128" s="45">
-        <v>261806</v>
+        <v>262001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="70">
+      <c r="A129" s="87">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>327686</v>
+        <v>331530</v>
       </c>
       <c r="C129" s="46">
-        <v>112515</v>
+        <v>113853</v>
       </c>
       <c r="D129" s="46">
-        <v>440201</v>
+        <v>445383</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="69">
+      <c r="A130" s="85">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>667108</v>
+        <v>674004</v>
       </c>
       <c r="C130" s="45">
-        <v>154696</v>
+        <v>157357</v>
       </c>
       <c r="D130" s="45">
-        <v>821804</v>
+        <v>831361</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="70">
+      <c r="A131" s="87">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>888189</v>
+        <v>893030</v>
       </c>
       <c r="C131" s="46">
-        <v>204576</v>
+        <v>212071</v>
       </c>
       <c r="D131" s="46">
-        <v>1092765</v>
+        <v>1105101</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="69"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
+      <c r="A132" s="85">
+        <v>44322</v>
+      </c>
+      <c r="B132" s="45">
+        <v>733366</v>
+      </c>
+      <c r="C132" s="45">
+        <v>199129</v>
+      </c>
+      <c r="D132" s="45">
+        <v>932495</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="70" t="s">
+      <c r="A133" s="87"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B133" s="46">
-        <v>25451513</v>
-      </c>
-      <c r="C133" s="46">
-        <v>7145486</v>
-      </c>
-      <c r="D133" s="46">
-        <v>32596999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="66"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
+      <c r="B134" s="46">
+        <v>26205337</v>
+      </c>
+      <c r="C134" s="46">
+        <v>7360108</v>
+      </c>
+      <c r="D134" s="46">
+        <v>33565445</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
+      <c r="A135" s="91"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="91"/>
+      <c r="D135" s="91"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" s="91"/>
+      <c r="C136" s="91"/>
+      <c r="D136" s="91"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="91"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="91"/>
+      <c r="D137" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -2,25 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49AE828-362D-4359-93A8-1CB1151080A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C2639-9720-4540-A5D9-E45A72CACEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_06.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_06.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_07.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_07.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_06.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_06.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_07.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_07.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -245,6 +240,18 @@
     <t>Thüringen</t>
   </si>
   <si>
+    <t>Datenstand: 08.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 07.05.21 (Impfquote_bis_einschl_07.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.05.21 durchgeführt und bis zum 08.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 07.05.21 (Impfstoff_bis_einschl_07.05.21)</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -261,18 +268,6 @@
   </si>
   <si>
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1.902 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
-  </si>
-  <si>
-    <t>Datenstand: 07.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 06.05.21 (Impfquote_bis_einschl_06.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 06.05.21 durchgeführt und bis zum 07.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 06.05.21 (Impfstoff_bis_einschl_06.05.21)</t>
   </si>
 </sst>
 </file>
@@ -717,6 +712,28 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,6 +755,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,46 +785,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{B797BBD4-588A-432F-99CA-840AA723A419}"/>
@@ -1142,111 +1137,111 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="214.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1265,124 +1260,124 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.44140625" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="4"/>
-    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="12" max="14" width="11.44140625" style="4"/>
+    <col min="15" max="15" width="12.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="4"/>
+    <col min="20" max="20" width="18.44140625" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="73"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="S2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -1434,58 +1429,58 @@
         <v>70</v>
       </c>
       <c r="C5" s="32">
-        <v>4351257</v>
+        <v>4448148</v>
       </c>
       <c r="D5" s="32">
-        <v>3419328</v>
+        <v>3493821</v>
       </c>
       <c r="E5" s="32">
-        <v>931929</v>
+        <v>954327</v>
       </c>
       <c r="F5" s="33">
-        <v>30.803663365462526</v>
+        <v>31.474747653101321</v>
       </c>
       <c r="G5" s="33">
-        <v>17.551681336069333</v>
+        <v>18.089767527938072</v>
       </c>
       <c r="H5" s="33">
-        <v>66.632008760196328</v>
+        <v>67.681329094413371</v>
       </c>
       <c r="I5" s="33">
-        <v>8.395458755788308</v>
+        <v>8.5972353774109287</v>
       </c>
       <c r="J5" s="33">
-        <v>3.4865387890023469</v>
+        <v>3.6372290440126438</v>
       </c>
       <c r="K5" s="33">
-        <v>21.722934665769561</v>
+        <v>22.047086055257861</v>
       </c>
       <c r="L5" s="32">
-        <v>1145450</v>
+        <v>1166901</v>
       </c>
       <c r="M5" s="32">
-        <v>1426428</v>
+        <v>1433026</v>
       </c>
       <c r="N5" s="32">
-        <v>267251</v>
+        <v>276048</v>
       </c>
       <c r="O5" s="32">
-        <v>618428</v>
+        <v>623264</v>
       </c>
       <c r="P5" s="34">
-        <v>279042</v>
+        <v>301262</v>
       </c>
       <c r="Q5" s="34">
-        <v>562143</v>
+        <v>586861</v>
       </c>
       <c r="R5" s="34">
-        <v>15716</v>
+        <v>19149</v>
       </c>
       <c r="S5" s="34">
-        <v>29873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1493,58 +1488,58 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5302233</v>
+        <v>5440625</v>
       </c>
       <c r="D6" s="13">
-        <v>4210935</v>
+        <v>4314480</v>
       </c>
       <c r="E6" s="13">
-        <v>1091298</v>
+        <v>1126145</v>
       </c>
       <c r="F6" s="14">
-        <v>32.083957187104019</v>
+        <v>32.872887281474668</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I6" s="14">
-        <v>8.3148180416872357</v>
+        <v>8.5803243143081644</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P6" s="17">
-        <v>448603</v>
+        <v>487106</v>
       </c>
       <c r="Q6" s="18">
-        <v>700388</v>
+        <v>728045</v>
       </c>
       <c r="R6" s="17">
-        <v>17355</v>
+        <v>20367</v>
       </c>
       <c r="S6" s="18">
-        <v>20294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>23138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1552,58 +1547,58 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1438736</v>
+        <v>1470476</v>
       </c>
       <c r="D7" s="37">
-        <v>1052506</v>
+        <v>1075691</v>
       </c>
       <c r="E7" s="37">
-        <v>386230</v>
+        <v>394785</v>
       </c>
       <c r="F7" s="38">
-        <v>28.682615654323719</v>
+        <v>29.314447153569802</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I7" s="38">
-        <v>10.525437996713986</v>
+        <v>10.758576598225748</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P7" s="41">
-        <v>181102</v>
+        <v>194631</v>
       </c>
       <c r="Q7" s="41">
-        <v>102604</v>
+        <v>106689</v>
       </c>
       <c r="R7" s="41">
-        <v>8861</v>
+        <v>10532</v>
       </c>
       <c r="S7" s="41">
-        <v>5930</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1611,58 +1606,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>931234</v>
+        <v>957176</v>
       </c>
       <c r="D8" s="13">
-        <v>705923</v>
+        <v>721688</v>
       </c>
       <c r="E8" s="13">
-        <v>225311</v>
+        <v>235488</v>
       </c>
       <c r="F8" s="14">
-        <v>27.99179029403706</v>
+        <v>28.616915943697851</v>
       </c>
       <c r="G8" s="44">
-        <v>14.576340978997646</v>
+        <v>15.002434566945858</v>
       </c>
       <c r="H8" s="44">
-        <v>54.369004417702548</v>
+        <v>55.398759580306233</v>
       </c>
       <c r="I8" s="44">
-        <v>8.9342014114000872</v>
+        <v>9.33774747778752</v>
       </c>
       <c r="J8" s="63">
-        <v>4.0738025805817992</v>
+        <v>4.3691454285459033</v>
       </c>
       <c r="K8" s="44">
-        <v>18.790025659709446</v>
+        <v>19.413361806712885</v>
       </c>
       <c r="L8" s="17">
-        <v>178062</v>
+        <v>180859</v>
       </c>
       <c r="M8" s="18">
-        <v>284761</v>
+        <v>286640</v>
       </c>
       <c r="N8" s="17">
-        <v>61805</v>
+        <v>65761</v>
       </c>
       <c r="O8" s="18">
-        <v>140272</v>
+        <v>143903</v>
       </c>
       <c r="P8" s="17">
-        <v>68313</v>
+        <v>72718</v>
       </c>
       <c r="Q8" s="18">
-        <v>167401</v>
+        <v>174086</v>
       </c>
       <c r="R8" s="17">
-        <v>7052</v>
+        <v>8088</v>
       </c>
       <c r="S8" s="18">
-        <v>15996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>17549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1670,58 +1665,58 @@
         <v>69</v>
       </c>
       <c r="C9" s="37">
-        <v>297650</v>
+        <v>305628</v>
       </c>
       <c r="D9" s="37">
-        <v>220042</v>
+        <v>225540</v>
       </c>
       <c r="E9" s="37">
-        <v>77608</v>
+        <v>80088</v>
       </c>
       <c r="F9" s="38">
-        <v>32.302019078041461</v>
+        <v>33.109121817023443</v>
       </c>
       <c r="G9" s="64">
-        <v>16.537510504880728</v>
+        <v>17.21749951515935</v>
       </c>
       <c r="H9" s="64">
-        <v>74.955691375661942</v>
+        <v>76.180757704329892</v>
       </c>
       <c r="I9" s="64">
-        <v>11.392802722246852</v>
+        <v>11.756865070860039</v>
       </c>
       <c r="J9" s="64">
-        <v>3.9496331372422264</v>
+        <v>4.1213475337772314</v>
       </c>
       <c r="K9" s="64">
-        <v>30.438145160424074</v>
+        <v>31.233552101571476</v>
       </c>
       <c r="L9" s="42">
-        <v>59299</v>
+        <v>60629</v>
       </c>
       <c r="M9" s="42">
-        <v>113591</v>
+        <v>114835</v>
       </c>
       <c r="N9" s="42">
-        <v>18706</v>
+        <v>19355</v>
       </c>
       <c r="O9" s="42">
-        <v>55667</v>
+        <v>56973</v>
       </c>
       <c r="P9" s="42">
-        <v>22563</v>
+        <v>24599</v>
       </c>
       <c r="Q9" s="42">
-        <v>25972</v>
+        <v>27009</v>
       </c>
       <c r="R9" s="42">
-        <v>845</v>
+        <v>1046</v>
       </c>
       <c r="S9" s="42">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1729,58 +1724,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>724866</v>
+        <v>744969</v>
       </c>
       <c r="D10" s="13">
-        <v>578853</v>
+        <v>594505</v>
       </c>
       <c r="E10" s="13">
-        <v>146013</v>
+        <v>150464</v>
       </c>
       <c r="F10" s="14">
-        <v>31.33588089990922</v>
+        <v>32.183193098075904</v>
       </c>
       <c r="G10" s="44">
-        <v>20.047415165776158</v>
+        <v>20.870882134390147</v>
       </c>
       <c r="H10" s="44">
-        <v>67.997918024518484</v>
+        <v>68.953001245960991</v>
       </c>
       <c r="I10" s="44">
-        <v>7.9043314586578015</v>
+        <v>8.1452838349700887</v>
       </c>
       <c r="J10" s="44">
-        <v>3.9033296769399524</v>
+        <v>4.1079933477230099</v>
       </c>
       <c r="K10" s="44">
-        <v>20.76471143681642</v>
+        <v>21.093589864648564</v>
       </c>
       <c r="L10" s="18">
-        <v>230378</v>
+        <v>236749</v>
       </c>
       <c r="M10" s="18">
-        <v>218977</v>
+        <v>219632</v>
       </c>
       <c r="N10" s="18">
-        <v>53199</v>
+        <v>55595</v>
       </c>
       <c r="O10" s="18">
-        <v>87848</v>
+        <v>88705</v>
       </c>
       <c r="P10" s="18">
-        <v>52902</v>
+        <v>58167</v>
       </c>
       <c r="Q10" s="18">
-        <v>76272</v>
+        <v>79764</v>
       </c>
       <c r="R10" s="18">
-        <v>1957</v>
+        <v>2453</v>
       </c>
       <c r="S10" s="18">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1788,58 +1783,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2456386</v>
+        <v>2521956</v>
       </c>
       <c r="D11" s="37">
-        <v>1939791</v>
+        <v>1996242</v>
       </c>
       <c r="E11" s="37">
-        <v>516595</v>
+        <v>525714</v>
       </c>
       <c r="F11" s="38">
-        <v>30.848701034337981</v>
+        <v>31.746447246218239</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="64">
-        <v>8.2154648159692627</v>
+        <v>8.3604852355567996</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" s="41">
-        <v>181815</v>
+        <v>198141</v>
       </c>
       <c r="Q11" s="41">
-        <v>289380</v>
+        <v>303291</v>
       </c>
       <c r="R11" s="41">
-        <v>8009</v>
+        <v>9441</v>
       </c>
       <c r="S11" s="41">
-        <v>11531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>13084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1847,58 +1842,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>675210</v>
+        <v>695092</v>
       </c>
       <c r="D12" s="13">
-        <v>544496</v>
+        <v>558995</v>
       </c>
       <c r="E12" s="13">
-        <v>130714</v>
+        <v>136097</v>
       </c>
       <c r="F12" s="14">
-        <v>33.858785750974107</v>
+        <v>34.760387479184004</v>
       </c>
       <c r="G12" s="44">
-        <v>19.151470362047814</v>
+        <v>19.948080595122427</v>
       </c>
       <c r="H12" s="44">
-        <v>62.807684499972318</v>
+        <v>63.923081181833282</v>
       </c>
       <c r="I12" s="44">
-        <v>8.1282825230173028</v>
+        <v>8.4630174773557982</v>
       </c>
       <c r="J12" s="44">
-        <v>3.3974572996657502</v>
+        <v>3.5922488530088121</v>
       </c>
       <c r="K12" s="44">
-        <v>17.414324468968573</v>
+        <v>18.017236606566151</v>
       </c>
       <c r="L12" s="18">
-        <v>143031</v>
+        <v>147486</v>
       </c>
       <c r="M12" s="18">
-        <v>211752</v>
+        <v>213831</v>
       </c>
       <c r="N12" s="18">
-        <v>32784</v>
+        <v>34059</v>
       </c>
       <c r="O12" s="18">
-        <v>89644</v>
+        <v>91912</v>
       </c>
       <c r="P12" s="18">
-        <v>61175</v>
+        <v>65214</v>
       </c>
       <c r="Q12" s="18">
-        <v>128584</v>
+        <v>132549</v>
       </c>
       <c r="R12" s="18">
-        <v>3442</v>
+        <v>4244</v>
       </c>
       <c r="S12" s="18">
-        <v>4719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1906,58 +1901,58 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3214526</v>
+        <v>3307993</v>
       </c>
       <c r="D13" s="37">
-        <v>2597471</v>
+        <v>2673321</v>
       </c>
       <c r="E13" s="37">
-        <v>617055</v>
+        <v>634672</v>
       </c>
       <c r="F13" s="38">
-        <v>32.494350486038343</v>
+        <v>33.443233643681303</v>
       </c>
       <c r="G13" s="64">
-        <v>18.180294702643671</v>
+        <v>18.885937610295212</v>
       </c>
       <c r="H13" s="64">
-        <v>68.021096223632426</v>
+        <v>69.60275091435561</v>
       </c>
       <c r="I13" s="64">
-        <v>7.7193552648566204</v>
+        <v>7.9397438553404172</v>
       </c>
       <c r="J13" s="64">
-        <v>2.3160388094797595</v>
+        <v>2.4589946058435319</v>
       </c>
       <c r="K13" s="64">
-        <v>20.618454180180048</v>
+        <v>20.993578865035968</v>
       </c>
       <c r="L13" s="42">
-        <v>793879</v>
+        <v>815795</v>
       </c>
       <c r="M13" s="42">
-        <v>1139425</v>
+        <v>1152565</v>
       </c>
       <c r="N13" s="42">
-        <v>122866</v>
+        <v>128532</v>
       </c>
       <c r="O13" s="42">
-        <v>465303</v>
+        <v>472152</v>
       </c>
       <c r="P13" s="42">
-        <v>238903</v>
+        <v>257073</v>
       </c>
       <c r="Q13" s="42">
-        <v>433788</v>
+        <v>457229</v>
       </c>
       <c r="R13" s="42">
-        <v>8703</v>
+        <v>11158</v>
       </c>
       <c r="S13" s="42">
-        <v>11567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>13394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1965,58 +1960,58 @@
         <v>68</v>
       </c>
       <c r="C14" s="13">
-        <v>7422015</v>
+        <v>7607616</v>
       </c>
       <c r="D14" s="13">
-        <v>5950399</v>
+        <v>6102844</v>
       </c>
       <c r="E14" s="13">
-        <v>1471616</v>
+        <v>1504772</v>
       </c>
       <c r="F14" s="14">
-        <v>33.15498817337793</v>
+        <v>34.004395443729138</v>
       </c>
       <c r="G14" s="44">
-        <v>18.787422544238723</v>
+        <v>19.482898043287197</v>
       </c>
       <c r="H14" s="44">
-        <v>70.178756171657085</v>
+        <v>71.432840477344541</v>
       </c>
       <c r="I14" s="44">
-        <v>8.1996872942056047</v>
+        <v>8.3844289876410389</v>
       </c>
       <c r="J14" s="44">
-        <v>3.4217991720415584</v>
+        <v>3.5434913335718909</v>
       </c>
       <c r="K14" s="44">
-        <v>20.48475162660008</v>
+        <v>20.823648640437462</v>
       </c>
       <c r="L14" s="18">
-        <v>1776975</v>
+        <v>1812779</v>
       </c>
       <c r="M14" s="18">
-        <v>2528842</v>
+        <v>2547528</v>
       </c>
       <c r="N14" s="18">
-        <v>422306</v>
+        <v>433983</v>
       </c>
       <c r="O14" s="18">
-        <v>1000687</v>
+        <v>1013752</v>
       </c>
       <c r="P14" s="18">
-        <v>651807</v>
+        <v>705912</v>
       </c>
       <c r="Q14" s="18">
-        <v>993794</v>
+        <v>1038057</v>
       </c>
       <c r="R14" s="18">
-        <v>20054</v>
+        <v>24109</v>
       </c>
       <c r="S14" s="18">
-        <v>27549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2024,58 +2019,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1673533</v>
+        <v>1717481</v>
       </c>
       <c r="D15" s="37">
-        <v>1250393</v>
+        <v>1275397</v>
       </c>
       <c r="E15" s="37">
-        <v>423140</v>
+        <v>442084</v>
       </c>
       <c r="F15" s="38">
-        <v>30.542809636671898</v>
+        <v>31.15357154285287</v>
       </c>
       <c r="G15" s="64">
-        <v>16.909131448010029</v>
+        <v>17.336214608770565</v>
       </c>
       <c r="H15" s="64">
-        <v>63.519127509767458</v>
+        <v>64.57464011867205</v>
       </c>
       <c r="I15" s="64">
-        <v>10.335857981979544</v>
+        <v>10.798594886102578</v>
       </c>
       <c r="J15" s="64">
-        <v>4.5619619180154958</v>
+        <v>4.889228972349696</v>
       </c>
       <c r="K15" s="64">
-        <v>24.316486638948668</v>
+        <v>25.107243591082884</v>
       </c>
       <c r="L15" s="42">
-        <v>384414</v>
+        <v>388323</v>
       </c>
       <c r="M15" s="42">
-        <v>543892</v>
+        <v>545720</v>
       </c>
       <c r="N15" s="42">
-        <v>127343</v>
+        <v>135934</v>
       </c>
       <c r="O15" s="42">
-        <v>281670</v>
+        <v>289705</v>
       </c>
       <c r="P15" s="42">
-        <v>105499</v>
+        <v>113964</v>
       </c>
       <c r="Q15" s="42">
-        <v>216162</v>
+        <v>226964</v>
       </c>
       <c r="R15" s="42">
-        <v>4832</v>
+        <v>5723</v>
       </c>
       <c r="S15" s="42">
-        <v>9295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>10722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2083,58 +2078,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>441483</v>
+        <v>452759</v>
       </c>
       <c r="D16" s="13">
-        <v>349253</v>
+        <v>358234</v>
       </c>
       <c r="E16" s="13">
-        <v>92230</v>
+        <v>94525</v>
       </c>
       <c r="F16" s="14">
-        <v>35.389360686684498</v>
+        <v>36.299393952904438</v>
       </c>
       <c r="G16" s="44">
-        <v>20.382631216190813</v>
+        <v>21.115430862919325</v>
       </c>
       <c r="H16" s="44">
-        <v>67.163222050596843</v>
+        <v>68.448517125159128</v>
       </c>
       <c r="I16" s="44">
-        <v>9.3455481731951071</v>
+        <v>9.5780975937468025</v>
       </c>
       <c r="J16" s="44">
-        <v>3.0442812685549585</v>
+        <v>3.1607952189000246</v>
       </c>
       <c r="K16" s="44">
-        <v>22.687400696820088</v>
+        <v>23.165635335032743</v>
       </c>
       <c r="L16" s="18">
-        <v>102343</v>
+        <v>104809</v>
       </c>
       <c r="M16" s="18">
-        <v>161034</v>
+        <v>162872</v>
       </c>
       <c r="N16" s="18">
-        <v>19260</v>
+        <v>19586</v>
       </c>
       <c r="O16" s="18">
-        <v>70424</v>
+        <v>71487</v>
       </c>
       <c r="P16" s="18">
-        <v>34283</v>
+        <v>36729</v>
       </c>
       <c r="Q16" s="18">
-        <v>51592</v>
+        <v>53823</v>
       </c>
       <c r="R16" s="18">
-        <v>1146</v>
+        <v>1601</v>
       </c>
       <c r="S16" s="18">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2142,58 +2137,58 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1623337</v>
+        <v>1659351</v>
       </c>
       <c r="D17" s="37">
-        <v>1146450</v>
+        <v>1164389</v>
       </c>
       <c r="E17" s="37">
-        <v>476887</v>
+        <v>494962</v>
       </c>
       <c r="F17" s="38">
-        <v>28.154670060273023</v>
+        <v>28.59521838441384</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I17" s="64">
-        <v>11.711453740706897</v>
+        <v>12.155341970755686</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P17" s="41">
-        <v>73479</v>
+        <v>77745</v>
       </c>
       <c r="Q17" s="41">
-        <v>220795</v>
+        <v>228135</v>
       </c>
       <c r="R17" s="41">
-        <v>9806</v>
+        <v>11693</v>
       </c>
       <c r="S17" s="41">
-        <v>31892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>35464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2201,58 +2196,58 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>879953</v>
+        <v>898806</v>
       </c>
       <c r="D18" s="13">
-        <v>691935</v>
+        <v>705309</v>
       </c>
       <c r="E18" s="13">
-        <v>188018</v>
+        <v>193497</v>
       </c>
       <c r="F18" s="14">
-        <v>31.526365716503964</v>
+        <v>32.135720085183863</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I18" s="44">
-        <v>8.5665911238564938</v>
+        <v>8.8162286732805342</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P18" s="17">
-        <v>46543</v>
+        <v>49176</v>
       </c>
       <c r="Q18" s="18">
-        <v>137470</v>
+        <v>141861</v>
       </c>
       <c r="R18" s="17">
-        <v>2236</v>
+        <v>2714</v>
       </c>
       <c r="S18" s="18">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2260,58 +2255,58 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1160028</v>
+        <v>1187025</v>
       </c>
       <c r="D19" s="37">
-        <v>860859</v>
+        <v>878663</v>
       </c>
       <c r="E19" s="37">
-        <v>299169</v>
+        <v>308362</v>
       </c>
       <c r="F19" s="38">
-        <v>29.646222345892742</v>
+        <v>30.259355672774696</v>
       </c>
       <c r="G19" s="64">
-        <v>16.086875826723638</v>
+        <v>16.455470590488126</v>
       </c>
       <c r="H19" s="64">
-        <v>61.492482577362509</v>
+        <v>62.679978180618811</v>
       </c>
       <c r="I19" s="64">
-        <v>10.30276815715278</v>
+        <v>10.6193562651075</v>
       </c>
       <c r="J19" s="64">
-        <v>4.4218114613478781</v>
+        <v>4.6567065392550724</v>
       </c>
       <c r="K19" s="64">
-        <v>24.115375167652882</v>
+        <v>24.623840557063101</v>
       </c>
       <c r="L19" s="42">
-        <v>252052</v>
+        <v>254699</v>
       </c>
       <c r="M19" s="42">
-        <v>359943</v>
+        <v>361384</v>
       </c>
       <c r="N19" s="42">
-        <v>86170</v>
+        <v>90433</v>
       </c>
       <c r="O19" s="42">
-        <v>201866</v>
+        <v>205501</v>
       </c>
       <c r="P19" s="42">
-        <v>75582</v>
+        <v>80442</v>
       </c>
       <c r="Q19" s="42">
-        <v>173270</v>
+        <v>182126</v>
       </c>
       <c r="R19" s="42">
-        <v>3887</v>
+        <v>4408</v>
       </c>
       <c r="S19" s="42">
-        <v>7243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2319,173 +2314,173 @@
         <v>71</v>
       </c>
       <c r="C20" s="13">
-        <v>897030</v>
+        <v>915165</v>
       </c>
       <c r="D20" s="13">
-        <v>617759</v>
+        <v>627072</v>
       </c>
       <c r="E20" s="13">
-        <v>279271</v>
+        <v>288093</v>
       </c>
       <c r="F20" s="14">
-        <v>28.956846841019267</v>
+        <v>29.39338457601044</v>
       </c>
       <c r="G20" s="44">
-        <v>15.646486404803689</v>
+        <v>15.996684063689928</v>
       </c>
       <c r="H20" s="44">
-        <v>54.520874631736895</v>
+        <v>55.131315233224178</v>
       </c>
       <c r="I20" s="44">
-        <v>13.090554041524754</v>
+        <v>13.504076633395487</v>
       </c>
       <c r="J20" s="44">
-        <v>6.263926290984104</v>
+        <v>6.5554606742213748</v>
       </c>
       <c r="K20" s="44">
-        <v>26.201851993823038</v>
+        <v>26.84158936335659</v>
       </c>
       <c r="L20" s="18">
-        <v>182458</v>
+        <v>185488</v>
       </c>
       <c r="M20" s="18">
-        <v>281684</v>
+        <v>282879</v>
       </c>
       <c r="N20" s="18">
-        <v>84487</v>
+        <v>87899</v>
       </c>
       <c r="O20" s="18">
-        <v>181658</v>
+        <v>185268</v>
       </c>
       <c r="P20" s="18">
-        <v>37050</v>
+        <v>38933</v>
       </c>
       <c r="Q20" s="18">
-        <v>116567</v>
+        <v>119831</v>
       </c>
       <c r="R20" s="18">
-        <v>3391</v>
+        <v>4069</v>
       </c>
       <c r="S20" s="18">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>75968</v>
+        <v>78574</v>
       </c>
       <c r="D21" s="37">
-        <v>68944</v>
+        <v>70421</v>
       </c>
       <c r="E21" s="37">
-        <v>7024</v>
+        <v>8153</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L21" s="41">
-        <v>63159</v>
+        <v>64655</v>
       </c>
       <c r="M21" s="41">
-        <v>6034</v>
+        <v>6138</v>
       </c>
       <c r="N21" s="41">
-        <v>6347</v>
+        <v>7303</v>
       </c>
       <c r="O21" s="41">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>33565445</v>
+        <v>34408840</v>
       </c>
       <c r="D22" s="21">
-        <v>26205337</v>
+        <v>26836612</v>
       </c>
       <c r="E22" s="21">
-        <v>7360108</v>
+        <v>7572228</v>
       </c>
       <c r="F22" s="22">
-        <v>31.509406449895561</v>
+        <v>32.268454141465327</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I22" s="22">
-        <v>8.8498245409752947</v>
+        <v>9.1048785132310925</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P22" s="25">
-        <v>2558661</v>
+        <v>2761812</v>
       </c>
       <c r="Q22" s="25">
-        <v>4396182</v>
+        <v>4586320</v>
       </c>
       <c r="R22" s="25">
-        <v>117292</v>
+        <v>140795</v>
       </c>
       <c r="S22" s="25">
-        <v>194783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>221998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2508,30 +2503,30 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2550,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2579,35 +2574,35 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -2661,125 +2656,125 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="74" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="76"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="77" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="83"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="74" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="77" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="74" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="77" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="90"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77" t="s">
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2792,7 +2787,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="77"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2803,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="77"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2816,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="77"/>
+      <c r="R4" s="91"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2837,9 +2832,9 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="77"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="91"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -2847,73 +2842,73 @@
         <v>70</v>
       </c>
       <c r="C5" s="45">
-        <v>2571228</v>
+        <v>2598783</v>
       </c>
       <c r="D5" s="45">
-        <v>1594204</v>
+        <v>1613785</v>
       </c>
       <c r="E5" s="45">
-        <v>211658</v>
+        <v>217335</v>
       </c>
       <c r="F5" s="45">
-        <v>765366</v>
+        <v>767663</v>
       </c>
       <c r="G5" s="45">
-        <v>27194</v>
+        <v>27302</v>
       </c>
       <c r="H5" s="45">
-        <v>886329</v>
+        <v>900456</v>
       </c>
       <c r="I5" s="45">
-        <v>812000</v>
+        <v>822245</v>
       </c>
       <c r="J5" s="45">
-        <v>55656</v>
+        <v>56783</v>
       </c>
       <c r="K5" s="45">
-        <v>18023</v>
+        <v>20284</v>
       </c>
       <c r="L5" s="45">
-        <v>650</v>
+        <v>1144</v>
       </c>
       <c r="M5" s="45">
-        <v>11972</v>
+        <v>14033</v>
       </c>
       <c r="N5" s="45">
-        <v>848100</v>
+        <v>895038</v>
       </c>
       <c r="O5" s="45">
-        <v>737886</v>
+        <v>770165</v>
       </c>
       <c r="P5" s="45">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="45">
-        <v>110035</v>
+        <v>124649</v>
       </c>
       <c r="R5" s="45">
-        <v>60820</v>
+        <v>46938</v>
       </c>
       <c r="S5" s="45">
-        <v>45600</v>
+        <v>53871</v>
       </c>
       <c r="T5" s="45">
-        <v>44575</v>
+        <v>52418</v>
       </c>
       <c r="U5" s="45">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="V5" s="45">
-        <v>994</v>
+        <v>1397</v>
       </c>
       <c r="W5" s="45">
         <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>9191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2921,73 +2916,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3061623</v>
+        <v>3099008</v>
       </c>
       <c r="D6" s="46">
-        <v>2090797</v>
+        <v>2118165</v>
       </c>
       <c r="E6" s="46">
-        <v>262576</v>
+        <v>269272</v>
       </c>
       <c r="F6" s="46">
-        <v>708250</v>
+        <v>711571</v>
       </c>
       <c r="G6" s="46">
-        <v>35487</v>
+        <v>37385</v>
       </c>
       <c r="H6" s="46">
-        <v>1053650</v>
+        <v>1082641</v>
       </c>
       <c r="I6" s="46">
-        <v>946820</v>
+        <v>967099</v>
       </c>
       <c r="J6" s="46">
-        <v>77626</v>
+        <v>82301</v>
       </c>
       <c r="K6" s="46">
-        <v>29203</v>
+        <v>33240</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>26872</v>
+        <v>28991</v>
       </c>
       <c r="N6" s="46">
-        <v>1149312</v>
+        <v>1215472</v>
       </c>
       <c r="O6" s="46">
-        <v>908010</v>
+        <v>942697</v>
       </c>
       <c r="P6" s="46">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="46">
-        <v>240949</v>
+        <v>272404</v>
       </c>
       <c r="R6" s="46">
-        <v>91533</v>
+        <v>66160</v>
       </c>
       <c r="S6" s="46">
-        <v>37648</v>
+        <v>43504</v>
       </c>
       <c r="T6" s="46">
-        <v>32786</v>
+        <v>37353</v>
       </c>
       <c r="U6" s="46">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="V6" s="46">
-        <v>4293</v>
+        <v>5554</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>8131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2995,73 +2990,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>767090</v>
+        <v>772661</v>
       </c>
       <c r="D7" s="45">
-        <v>519140</v>
+        <v>523621</v>
       </c>
       <c r="E7" s="45">
-        <v>62210</v>
+        <v>63297</v>
       </c>
       <c r="F7" s="45">
-        <v>185740</v>
+        <v>185743</v>
       </c>
       <c r="G7" s="45">
-        <v>6052</v>
+        <v>5571</v>
       </c>
       <c r="H7" s="45">
-        <v>371438</v>
+        <v>377399</v>
       </c>
       <c r="I7" s="45">
-        <v>321568</v>
+        <v>326655</v>
       </c>
       <c r="J7" s="45">
-        <v>47062</v>
+        <v>47759</v>
       </c>
       <c r="K7" s="45">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="L7" s="45">
-        <v>2693</v>
+        <v>2829</v>
       </c>
       <c r="M7" s="45">
-        <v>6299</v>
+        <v>5961</v>
       </c>
       <c r="N7" s="45">
-        <v>285416</v>
+        <v>303030</v>
       </c>
       <c r="O7" s="45">
-        <v>221367</v>
+        <v>231952</v>
       </c>
       <c r="P7" s="45">
         <v>99</v>
       </c>
       <c r="Q7" s="45">
-        <v>63950</v>
+        <v>70979</v>
       </c>
       <c r="R7" s="45">
-        <v>22460</v>
+        <v>17614</v>
       </c>
       <c r="S7" s="45">
-        <v>14792</v>
+        <v>17386</v>
       </c>
       <c r="T7" s="45">
-        <v>13110</v>
+        <v>15107</v>
       </c>
       <c r="U7" s="45">
         <v>39</v>
       </c>
       <c r="V7" s="45">
-        <v>1643</v>
+        <v>2240</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3069,73 +3064,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>462823</v>
+        <v>467498</v>
       </c>
       <c r="D8" s="46">
-        <v>306488</v>
+        <v>309526</v>
       </c>
       <c r="E8" s="46">
-        <v>50049</v>
+        <v>51590</v>
       </c>
       <c r="F8" s="46">
-        <v>106286</v>
+        <v>106382</v>
       </c>
       <c r="G8" s="46">
-        <v>2744</v>
+        <v>3784</v>
       </c>
       <c r="H8" s="46">
-        <v>202077</v>
+        <v>209665</v>
       </c>
       <c r="I8" s="46">
-        <v>176370</v>
+        <v>182018</v>
       </c>
       <c r="J8" s="46">
-        <v>19218</v>
+        <v>20399</v>
       </c>
       <c r="K8" s="46">
-        <v>6489</v>
+        <v>7247</v>
       </c>
       <c r="L8" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="46">
-        <v>6560</v>
+        <v>6974</v>
       </c>
       <c r="N8" s="46">
-        <v>243100</v>
+        <v>254190</v>
       </c>
       <c r="O8" s="46">
-        <v>177404</v>
+        <v>184270</v>
       </c>
       <c r="P8" s="46">
         <v>488</v>
       </c>
       <c r="Q8" s="46">
-        <v>65208</v>
+        <v>69432</v>
       </c>
       <c r="R8" s="46">
-        <v>16311</v>
+        <v>11090</v>
       </c>
       <c r="S8" s="46">
-        <v>23234</v>
+        <v>25823</v>
       </c>
       <c r="T8" s="46">
-        <v>22388</v>
+        <v>24694</v>
       </c>
       <c r="U8" s="46">
         <v>11</v>
       </c>
       <c r="V8" s="46">
-        <v>835</v>
+        <v>1118</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
@@ -3143,73 +3138,73 @@
         <v>69</v>
       </c>
       <c r="C9" s="45">
-        <v>171507</v>
+        <v>173932</v>
       </c>
       <c r="D9" s="45">
-        <v>105865</v>
+        <v>106502</v>
       </c>
       <c r="E9" s="45">
-        <v>12419</v>
+        <v>12817</v>
       </c>
       <c r="F9" s="45">
-        <v>53223</v>
+        <v>54613</v>
       </c>
       <c r="G9" s="45">
-        <v>2245</v>
+        <v>2409</v>
       </c>
       <c r="H9" s="45">
-        <v>75756</v>
+        <v>77860</v>
       </c>
       <c r="I9" s="45">
-        <v>68664</v>
+        <v>70217</v>
       </c>
       <c r="J9" s="45">
-        <v>4731</v>
+        <v>5003</v>
       </c>
       <c r="K9" s="45">
-        <v>976</v>
+        <v>1106</v>
       </c>
       <c r="L9" s="45">
-        <v>1385</v>
+        <v>1534</v>
       </c>
       <c r="M9" s="45">
-        <v>2393</v>
+        <v>2104</v>
       </c>
       <c r="N9" s="45">
-        <v>48535</v>
+        <v>51608</v>
       </c>
       <c r="O9" s="45">
-        <v>42038</v>
+        <v>44008</v>
       </c>
       <c r="P9" s="45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>6497</v>
+        <v>7586</v>
       </c>
       <c r="R9" s="45">
-        <v>3704</v>
+        <v>3073</v>
       </c>
       <c r="S9" s="45">
-        <v>1852</v>
+        <v>2228</v>
       </c>
       <c r="T9" s="45">
-        <v>1769</v>
+        <v>2104</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3217,73 +3212,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>448655</v>
+        <v>455550</v>
       </c>
       <c r="D10" s="46">
-        <v>283981</v>
+        <v>288307</v>
       </c>
       <c r="E10" s="46">
-        <v>44482</v>
+        <v>47026</v>
       </c>
       <c r="F10" s="46">
-        <v>120192</v>
+        <v>120217</v>
       </c>
       <c r="G10" s="46">
-        <v>4467</v>
+        <v>6686</v>
       </c>
       <c r="H10" s="46">
-        <v>141747</v>
+        <v>145131</v>
       </c>
       <c r="I10" s="46">
-        <v>133196</v>
+        <v>135696</v>
       </c>
       <c r="J10" s="46">
-        <v>7460</v>
+        <v>7976</v>
       </c>
       <c r="K10" s="46">
-        <v>391</v>
+        <v>628</v>
       </c>
       <c r="L10" s="46">
-        <v>700</v>
+        <v>831</v>
       </c>
       <c r="M10" s="46">
-        <v>2371</v>
+        <v>2851</v>
       </c>
       <c r="N10" s="46">
-        <v>130198</v>
+        <v>138955</v>
       </c>
       <c r="O10" s="46">
-        <v>107912</v>
+        <v>113893</v>
       </c>
       <c r="P10" s="46">
-        <v>676</v>
+        <v>1483</v>
       </c>
       <c r="Q10" s="46">
-        <v>21610</v>
+        <v>23579</v>
       </c>
       <c r="R10" s="46">
-        <v>10456</v>
+        <v>8757</v>
       </c>
       <c r="S10" s="46">
-        <v>4266</v>
+        <v>5333</v>
       </c>
       <c r="T10" s="46">
-        <v>3961</v>
+        <v>4882</v>
       </c>
       <c r="U10" s="46">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V10" s="46">
-        <v>303</v>
+        <v>442</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3291,73 +3286,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1468246</v>
+        <v>1494460</v>
       </c>
       <c r="D11" s="45">
-        <v>882014</v>
+        <v>900585</v>
       </c>
       <c r="E11" s="45">
-        <v>130138</v>
+        <v>136228</v>
       </c>
       <c r="F11" s="45">
-        <v>456094</v>
+        <v>457647</v>
       </c>
       <c r="G11" s="45">
-        <v>28678</v>
+        <v>26214</v>
       </c>
       <c r="H11" s="45">
-        <v>497041</v>
+        <v>503175</v>
       </c>
       <c r="I11" s="45">
-        <v>467688</v>
+        <v>471031</v>
       </c>
       <c r="J11" s="45">
-        <v>24166</v>
+        <v>24430</v>
       </c>
       <c r="K11" s="45">
-        <v>5187</v>
+        <v>7714</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>4170</v>
+        <v>6134</v>
       </c>
       <c r="N11" s="45">
-        <v>471545</v>
+        <v>501782</v>
       </c>
       <c r="O11" s="45">
-        <v>393182</v>
+        <v>411215</v>
       </c>
       <c r="P11" s="45">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="45">
-        <v>78274</v>
+        <v>90456</v>
       </c>
       <c r="R11" s="45">
-        <v>33009</v>
+        <v>30237</v>
       </c>
       <c r="S11" s="45">
-        <v>19554</v>
+        <v>22539</v>
       </c>
       <c r="T11" s="45">
-        <v>18687</v>
+        <v>21241</v>
       </c>
       <c r="U11" s="45">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V11" s="45">
-        <v>738</v>
+        <v>1167</v>
       </c>
       <c r="W11" s="45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3365,73 +3360,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>354659</v>
+        <v>361154</v>
       </c>
       <c r="D12" s="46">
-        <v>255989</v>
+        <v>259787</v>
       </c>
       <c r="E12" s="46">
-        <v>34328</v>
+        <v>36018</v>
       </c>
       <c r="F12" s="46">
-        <v>64342</v>
+        <v>65349</v>
       </c>
       <c r="G12" s="46">
-        <v>6036</v>
+        <v>6452</v>
       </c>
       <c r="H12" s="46">
-        <v>122553</v>
+        <v>126135</v>
       </c>
       <c r="I12" s="46">
-        <v>113052</v>
+        <v>116200</v>
       </c>
       <c r="J12" s="46">
-        <v>8932</v>
+        <v>9000</v>
       </c>
       <c r="K12" s="46">
-        <v>444</v>
+        <v>771</v>
       </c>
       <c r="L12" s="46">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="M12" s="46">
-        <v>3998</v>
+        <v>3556</v>
       </c>
       <c r="N12" s="46">
-        <v>189837</v>
+        <v>197841</v>
       </c>
       <c r="O12" s="46">
-        <v>142414</v>
+        <v>147552</v>
       </c>
       <c r="P12" s="46">
         <v>74</v>
       </c>
       <c r="Q12" s="46">
-        <v>47349</v>
+        <v>50215</v>
       </c>
       <c r="R12" s="46">
-        <v>12020</v>
+        <v>8004</v>
       </c>
       <c r="S12" s="46">
-        <v>8161</v>
+        <v>9962</v>
       </c>
       <c r="T12" s="46">
-        <v>7460</v>
+        <v>9043</v>
       </c>
       <c r="U12" s="46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V12" s="46">
-        <v>686</v>
+        <v>898</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3439,73 +3434,73 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>1924689</v>
+        <v>1958928</v>
       </c>
       <c r="D13" s="45">
-        <v>1122806</v>
+        <v>1144001</v>
       </c>
       <c r="E13" s="45">
-        <v>182370</v>
+        <v>186747</v>
       </c>
       <c r="F13" s="45">
-        <v>619513</v>
+        <v>628180</v>
       </c>
       <c r="G13" s="45">
-        <v>34353</v>
+        <v>32608</v>
       </c>
       <c r="H13" s="45">
-        <v>596784</v>
+        <v>610116</v>
       </c>
       <c r="I13" s="45">
-        <v>547789</v>
+        <v>556350</v>
       </c>
       <c r="J13" s="45">
-        <v>34650</v>
+        <v>36696</v>
       </c>
       <c r="K13" s="45">
-        <v>5725</v>
+        <v>7633</v>
       </c>
       <c r="L13" s="45">
-        <v>8620</v>
+        <v>9437</v>
       </c>
       <c r="M13" s="45">
-        <v>9641</v>
+        <v>12536</v>
       </c>
       <c r="N13" s="45">
-        <v>672782</v>
+        <v>714393</v>
       </c>
       <c r="O13" s="45">
-        <v>557518</v>
+        <v>580798</v>
       </c>
       <c r="P13" s="45">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="45">
-        <v>114848</v>
+        <v>133159</v>
       </c>
       <c r="R13" s="45">
-        <v>50100</v>
+        <v>41611</v>
       </c>
       <c r="S13" s="45">
-        <v>20271</v>
+        <v>24556</v>
       </c>
       <c r="T13" s="45">
-        <v>17938</v>
+        <v>21244</v>
       </c>
       <c r="U13" s="45">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="V13" s="45">
-        <v>1890</v>
+        <v>2852</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
@@ -3513,73 +3508,73 @@
         <v>68</v>
       </c>
       <c r="C14" s="46">
-        <v>4304798</v>
+        <v>4358875</v>
       </c>
       <c r="D14" s="46">
-        <v>2888195</v>
+        <v>2928675</v>
       </c>
       <c r="E14" s="46">
-        <v>278855</v>
+        <v>291658</v>
       </c>
       <c r="F14" s="46">
-        <v>1137748</v>
+        <v>1138542</v>
       </c>
       <c r="G14" s="46">
-        <v>39329</v>
+        <v>45164</v>
       </c>
       <c r="H14" s="46">
-        <v>1424013</v>
+        <v>1449168</v>
       </c>
       <c r="I14" s="46">
-        <v>1336582</v>
+        <v>1354598</v>
       </c>
       <c r="J14" s="46">
-        <v>74381</v>
+        <v>79146</v>
       </c>
       <c r="K14" s="46">
-        <v>12029</v>
+        <v>13990</v>
       </c>
       <c r="L14" s="46">
-        <v>1021</v>
+        <v>1434</v>
       </c>
       <c r="M14" s="46">
-        <v>11127</v>
+        <v>15330</v>
       </c>
       <c r="N14" s="46">
-        <v>1645601</v>
+        <v>1743969</v>
       </c>
       <c r="O14" s="46">
-        <v>1284768</v>
+        <v>1340294</v>
       </c>
       <c r="P14" s="46">
-        <v>3837</v>
+        <v>4038</v>
       </c>
       <c r="Q14" s="46">
-        <v>356996</v>
+        <v>399637</v>
       </c>
       <c r="R14" s="46">
-        <v>118836</v>
+        <v>98368</v>
       </c>
       <c r="S14" s="46">
-        <v>47603</v>
+        <v>55604</v>
       </c>
       <c r="T14" s="46">
-        <v>43015</v>
+        <v>49391</v>
       </c>
       <c r="U14" s="46">
-        <v>827</v>
+        <v>883</v>
       </c>
       <c r="V14" s="46">
-        <v>3753</v>
+        <v>5316</v>
       </c>
       <c r="W14" s="46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X14" s="46">
-        <v>9283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3587,73 +3582,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>928306</v>
+        <v>934043</v>
       </c>
       <c r="D15" s="45">
-        <v>612137</v>
+        <v>616093</v>
       </c>
       <c r="E15" s="45">
-        <v>53751</v>
+        <v>55245</v>
       </c>
       <c r="F15" s="45">
-        <v>262418</v>
+        <v>262705</v>
       </c>
       <c r="G15" s="45">
-        <v>5378</v>
+        <v>4577</v>
       </c>
       <c r="H15" s="45">
-        <v>409013</v>
+        <v>425639</v>
       </c>
       <c r="I15" s="45">
-        <v>367087</v>
+        <v>379020</v>
       </c>
       <c r="J15" s="45">
-        <v>26804</v>
+        <v>28398</v>
       </c>
       <c r="K15" s="45">
-        <v>15122</v>
+        <v>18221</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>14166</v>
+        <v>14424</v>
       </c>
       <c r="N15" s="45">
-        <v>322087</v>
+        <v>341354</v>
       </c>
       <c r="O15" s="45">
-        <v>275817</v>
+        <v>287759</v>
       </c>
       <c r="P15" s="45">
         <v>156</v>
       </c>
       <c r="Q15" s="45">
-        <v>46114</v>
+        <v>53439</v>
       </c>
       <c r="R15" s="45">
-        <v>23594</v>
+        <v>19267</v>
       </c>
       <c r="S15" s="45">
-        <v>14127</v>
+        <v>16445</v>
       </c>
       <c r="T15" s="45">
-        <v>13744</v>
+        <v>15955</v>
       </c>
       <c r="U15" s="45">
         <v>20</v>
       </c>
       <c r="V15" s="45">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3661,73 +3656,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>263377</v>
+        <v>267681</v>
       </c>
       <c r="D16" s="46">
-        <v>199108</v>
+        <v>202350</v>
       </c>
       <c r="E16" s="46">
-        <v>22325</v>
+        <v>23346</v>
       </c>
       <c r="F16" s="46">
-        <v>41944</v>
+        <v>41985</v>
       </c>
       <c r="G16" s="46">
-        <v>4379</v>
+        <v>4205</v>
       </c>
       <c r="H16" s="46">
-        <v>89684</v>
+        <v>91073</v>
       </c>
       <c r="I16" s="46">
-        <v>81282</v>
+        <v>82389</v>
       </c>
       <c r="J16" s="46">
-        <v>7000</v>
+        <v>7018</v>
       </c>
       <c r="K16" s="46">
-        <v>1402</v>
+        <v>1666</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>1110</v>
+        <v>1325</v>
       </c>
       <c r="N16" s="46">
-        <v>85876</v>
+        <v>90553</v>
       </c>
       <c r="O16" s="46">
-        <v>73809</v>
+        <v>77042</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>11988</v>
+        <v>13432</v>
       </c>
       <c r="R16" s="46">
-        <v>5937</v>
+        <v>4677</v>
       </c>
       <c r="S16" s="46">
-        <v>2546</v>
+        <v>3452</v>
       </c>
       <c r="T16" s="46">
-        <v>2309</v>
+        <v>3097</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3735,73 +3730,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>848238</v>
+        <v>854571</v>
       </c>
       <c r="D17" s="45">
-        <v>603486</v>
+        <v>607929</v>
       </c>
       <c r="E17" s="45">
-        <v>67383</v>
+        <v>68749</v>
       </c>
       <c r="F17" s="45">
-        <v>177369</v>
+        <v>177893</v>
       </c>
       <c r="G17" s="45">
-        <v>8029</v>
+        <v>6333</v>
       </c>
       <c r="H17" s="45">
-        <v>435187</v>
+        <v>447803</v>
       </c>
       <c r="I17" s="45">
-        <v>403754</v>
+        <v>414975</v>
       </c>
       <c r="J17" s="45">
-        <v>30170</v>
+        <v>31532</v>
       </c>
       <c r="K17" s="45">
-        <v>1263</v>
+        <v>1296</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>11640</v>
+        <v>12616</v>
       </c>
       <c r="N17" s="45">
-        <v>298212</v>
+        <v>309818</v>
       </c>
       <c r="O17" s="45">
-        <v>220131</v>
+        <v>227675</v>
       </c>
       <c r="P17" s="45">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="45">
-        <v>77940</v>
+        <v>81982</v>
       </c>
       <c r="R17" s="45">
-        <v>18372</v>
+        <v>11606</v>
       </c>
       <c r="S17" s="45">
-        <v>41700</v>
+        <v>47159</v>
       </c>
       <c r="T17" s="45">
-        <v>41087</v>
+        <v>46447</v>
       </c>
       <c r="U17" s="45">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V17" s="45">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>8841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3809,73 +3804,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>507439</v>
+        <v>513789</v>
       </c>
       <c r="D18" s="47">
-        <v>333443</v>
+        <v>338296</v>
       </c>
       <c r="E18" s="47">
-        <v>45400</v>
+        <v>46552</v>
       </c>
       <c r="F18" s="47">
-        <v>128596</v>
+        <v>128941</v>
       </c>
       <c r="G18" s="47">
-        <v>6402</v>
+        <v>6350</v>
       </c>
       <c r="H18" s="47">
-        <v>181343</v>
+        <v>185639</v>
       </c>
       <c r="I18" s="47">
-        <v>160320</v>
+        <v>162696</v>
       </c>
       <c r="J18" s="47">
-        <v>18730</v>
+        <v>20108</v>
       </c>
       <c r="K18" s="47">
-        <v>2293</v>
+        <v>2835</v>
       </c>
       <c r="L18" s="47">
         <v>0</v>
       </c>
       <c r="M18" s="47">
-        <v>6223</v>
+        <v>4296</v>
       </c>
       <c r="N18" s="46">
-        <v>184496</v>
+        <v>191520</v>
       </c>
       <c r="O18" s="46">
-        <v>157416</v>
+        <v>162175</v>
       </c>
       <c r="P18" s="46">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="46">
-        <v>27074</v>
+        <v>29321</v>
       </c>
       <c r="R18" s="46">
-        <v>13378</v>
+        <v>7024</v>
       </c>
       <c r="S18" s="46">
-        <v>6675</v>
+        <v>7858</v>
       </c>
       <c r="T18" s="46">
-        <v>6244</v>
+        <v>7235</v>
       </c>
       <c r="U18" s="46">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3883,73 +3878,73 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>611995</v>
+        <v>616083</v>
       </c>
       <c r="D19" s="45">
-        <v>419759</v>
+        <v>422974</v>
       </c>
       <c r="E19" s="45">
-        <v>47496</v>
+        <v>48334</v>
       </c>
       <c r="F19" s="45">
-        <v>144740</v>
+        <v>144775</v>
       </c>
       <c r="G19" s="45">
-        <v>4100</v>
+        <v>4081</v>
       </c>
       <c r="H19" s="45">
-        <v>288036</v>
+        <v>295934</v>
       </c>
       <c r="I19" s="45">
-        <v>259741</v>
+        <v>265718</v>
       </c>
       <c r="J19" s="45">
-        <v>23802</v>
+        <v>25091</v>
       </c>
       <c r="K19" s="45">
-        <v>4493</v>
+        <v>5125</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>9925</v>
+        <v>7912</v>
       </c>
       <c r="N19" s="45">
-        <v>248864</v>
+        <v>262580</v>
       </c>
       <c r="O19" s="45">
-        <v>207983</v>
+        <v>215432</v>
       </c>
       <c r="P19" s="45">
-        <v>1392</v>
+        <v>1580</v>
       </c>
       <c r="Q19" s="45">
-        <v>39489</v>
+        <v>45568</v>
       </c>
       <c r="R19" s="45">
-        <v>18719</v>
+        <v>13716</v>
       </c>
       <c r="S19" s="45">
-        <v>11133</v>
+        <v>12428</v>
       </c>
       <c r="T19" s="45">
-        <v>10243</v>
+        <v>11364</v>
       </c>
       <c r="U19" s="45">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="V19" s="45">
-        <v>541</v>
+        <v>708</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="52">
         <v>16</v>
       </c>
@@ -3957,258 +3952,264 @@
         <v>71</v>
       </c>
       <c r="C20" s="47">
-        <v>464142</v>
+        <v>468308</v>
       </c>
       <c r="D20" s="47">
-        <v>327721</v>
+        <v>331148</v>
       </c>
       <c r="E20" s="47">
-        <v>36694</v>
+        <v>37434</v>
       </c>
       <c r="F20" s="47">
-        <v>99727</v>
+        <v>99726</v>
       </c>
       <c r="G20" s="47">
-        <v>3572</v>
+        <v>3796</v>
       </c>
       <c r="H20" s="47">
-        <v>266145</v>
+        <v>273226</v>
       </c>
       <c r="I20" s="47">
-        <v>245824</v>
+        <v>252836</v>
       </c>
       <c r="J20" s="47">
-        <v>19853</v>
+        <v>19854</v>
       </c>
       <c r="K20" s="47">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="L20" s="47">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>5654</v>
+        <v>5744</v>
       </c>
       <c r="N20" s="47">
-        <v>153617</v>
+        <v>158764</v>
       </c>
       <c r="O20" s="46">
-        <v>132502</v>
+        <v>135541</v>
       </c>
       <c r="P20" s="46">
         <v>60</v>
       </c>
       <c r="Q20" s="46">
-        <v>21055</v>
+        <v>23163</v>
       </c>
       <c r="R20" s="46">
-        <v>12407</v>
+        <v>5147</v>
       </c>
       <c r="S20" s="46">
-        <v>13126</v>
+        <v>14867</v>
       </c>
       <c r="T20" s="46">
-        <v>12132</v>
+        <v>13552</v>
       </c>
       <c r="U20" s="46">
         <v>3</v>
       </c>
       <c r="V20" s="46">
-        <v>981</v>
+        <v>1302</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>68944</v>
+        <v>70421</v>
       </c>
       <c r="D21" s="45">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E21" s="45">
-        <v>50086</v>
+        <v>51501</v>
       </c>
       <c r="F21" s="45">
-        <v>17614</v>
+        <v>17675</v>
       </c>
       <c r="G21" s="45">
-        <v>3265</v>
+        <v>1308</v>
       </c>
       <c r="H21" s="45">
-        <v>7024</v>
+        <v>8153</v>
       </c>
       <c r="I21" s="55">
         <v>2</v>
       </c>
       <c r="J21" s="55">
-        <v>6711</v>
+        <v>7716</v>
       </c>
       <c r="K21" s="55">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="55">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="M21" s="55">
-        <v>1553</v>
+        <v>1009</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>19227759</v>
+        <v>19465745</v>
       </c>
       <c r="D22" s="57">
-        <v>12546377</v>
+        <v>12712989</v>
       </c>
       <c r="E22" s="57">
-        <v>1592220</v>
+        <v>1643149</v>
       </c>
       <c r="F22" s="57">
-        <v>5089162</v>
+        <v>5109607</v>
       </c>
       <c r="G22" s="57">
-        <v>221710</v>
+        <v>224225</v>
       </c>
       <c r="H22" s="57">
-        <v>7047820</v>
+        <v>7209213</v>
       </c>
       <c r="I22" s="57">
-        <v>6441739</v>
+        <v>6559745</v>
       </c>
       <c r="J22" s="57">
-        <v>486952</v>
+        <v>509210</v>
       </c>
       <c r="K22" s="57">
-        <v>103685</v>
+        <v>122452</v>
       </c>
       <c r="L22" s="57">
-        <v>15444</v>
+        <v>17806</v>
       </c>
       <c r="M22" s="57">
-        <v>135674</v>
+        <v>145796</v>
       </c>
       <c r="N22" s="57">
-        <v>6977578</v>
+        <v>7370867</v>
       </c>
       <c r="O22" s="57">
-        <v>5640157</v>
+        <v>5872468</v>
       </c>
       <c r="P22" s="57">
-        <v>8045</v>
+        <v>9398</v>
       </c>
       <c r="Q22" s="57">
-        <v>1329376</v>
+        <v>1489001</v>
       </c>
       <c r="R22" s="57">
-        <v>511656</v>
+        <v>393289</v>
       </c>
       <c r="S22" s="57">
-        <v>312288</v>
+        <v>363015</v>
       </c>
       <c r="T22" s="57">
-        <v>291448</v>
+        <v>335127</v>
       </c>
       <c r="U22" s="57">
-        <v>2421</v>
+        <v>2595</v>
       </c>
       <c r="V22" s="57">
-        <v>18299</v>
+        <v>25166</v>
       </c>
       <c r="W22" s="57">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="X22" s="57">
-        <v>63455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4220,301 +4221,296 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>75</v>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>79</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="68">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>24463</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="45">
         <v>24463</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="87">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="70">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18340</v>
-      </c>
-      <c r="C3" s="88"/>
+        <v>18342</v>
+      </c>
+      <c r="C3" s="71"/>
       <c r="D3" s="46">
-        <v>18340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+        <v>18342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>48961</v>
-      </c>
-      <c r="C4" s="86"/>
+        <v>48960</v>
+      </c>
+      <c r="C4" s="69"/>
       <c r="D4" s="45">
-        <v>48961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="87">
+        <v>48960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="70">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62536</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="46">
         <v>62536</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>49908</v>
-      </c>
-      <c r="C6" s="86"/>
+        <v>49956</v>
+      </c>
+      <c r="C6" s="69"/>
       <c r="D6" s="45">
-        <v>49908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+        <v>49956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="70">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>19274</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="46">
         <v>19274</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
         <v>52819</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="45">
         <v>52819</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="87">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="70">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
-        <v>24207</v>
-      </c>
-      <c r="C9" s="88"/>
+        <v>24205</v>
+      </c>
+      <c r="C9" s="71"/>
       <c r="D9" s="46">
-        <v>24207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+        <v>24205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="68">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48386</v>
-      </c>
-      <c r="C10" s="86"/>
+        <v>48385</v>
+      </c>
+      <c r="C10" s="69"/>
       <c r="D10" s="45">
-        <v>48386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="87">
+        <v>48385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="70">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>54032</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="46">
         <v>54032</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="68">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62859</v>
-      </c>
-      <c r="C12" s="86"/>
+        <v>62856</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="45">
-        <v>62859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="87">
+        <v>62856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="70">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55857</v>
-      </c>
-      <c r="C13" s="88"/>
+        <v>55856</v>
+      </c>
+      <c r="C13" s="71"/>
       <c r="D13" s="46">
-        <v>55857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+        <v>55856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="68">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>63170</v>
-      </c>
-      <c r="C14" s="86"/>
+        <v>63163</v>
+      </c>
+      <c r="C14" s="69"/>
       <c r="D14" s="45">
-        <v>63170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+        <v>63163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="72">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
         <v>61328</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="47">
         <v>61328</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="68">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35353</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="45">
         <v>35353</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="72">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67632</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="47">
         <v>67632</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="68">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
         <v>82736</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="45">
         <v>82736</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="87">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="70">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
         <v>111383</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="46">
         <v>111383</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="68">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
         <v>82525</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="45">
         <v>82525</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="87">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="70">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>91060</v>
+        <v>91063</v>
       </c>
       <c r="C21" s="46">
         <v>602</v>
       </c>
       <c r="D21" s="46">
-        <v>91662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="85">
+        <v>91665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="68">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56592</v>
+        <v>56634</v>
       </c>
       <c r="C22" s="45">
         <v>899</v>
       </c>
       <c r="D22" s="45">
-        <v>57491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="87">
+        <v>57533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="70">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4527,106 +4523,106 @@
         <v>48519</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="68">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66536</v>
+        <v>66535</v>
       </c>
       <c r="C24" s="45">
-        <v>15729</v>
+        <v>15730</v>
       </c>
       <c r="D24" s="45">
         <v>82265</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="87">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="70">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>81772</v>
+        <v>81776</v>
       </c>
       <c r="C25" s="46">
-        <v>33443</v>
+        <v>33442</v>
       </c>
       <c r="D25" s="46">
-        <v>115215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+        <v>115218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="68">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80679</v>
+        <v>80693</v>
       </c>
       <c r="C26" s="45">
-        <v>51534</v>
+        <v>51649</v>
       </c>
       <c r="D26" s="45">
-        <v>132213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="87">
+        <v>132342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="70">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>64216</v>
+        <v>64215</v>
       </c>
       <c r="C27" s="46">
-        <v>40732</v>
+        <v>40731</v>
       </c>
       <c r="D27" s="46">
-        <v>104948</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+        <v>104946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="68">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>67604</v>
+        <v>67603</v>
       </c>
       <c r="C28" s="45">
         <v>34701</v>
       </c>
       <c r="D28" s="45">
-        <v>102305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="87">
+        <v>102304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="70">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40614</v>
+        <v>40612</v>
       </c>
       <c r="C29" s="46">
         <v>44937</v>
       </c>
       <c r="D29" s="46">
-        <v>85551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+        <v>85549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="68">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
         <v>25645</v>
       </c>
       <c r="C30" s="45">
-        <v>24385</v>
+        <v>24384</v>
       </c>
       <c r="D30" s="45">
-        <v>50030</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="89">
+        <v>50029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="72">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
@@ -4639,64 +4635,64 @@
         <v>94126</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="85">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="68">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
         <v>50424</v>
       </c>
       <c r="C32" s="45">
-        <v>48648</v>
+        <v>48647</v>
       </c>
       <c r="D32" s="45">
-        <v>99072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
+        <v>99071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="72">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51385</v>
+        <v>51384</v>
       </c>
       <c r="C33" s="47">
-        <v>59674</v>
+        <v>59672</v>
       </c>
       <c r="D33" s="47">
-        <v>111059</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
+        <v>111056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="68">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45132</v>
+        <v>45135</v>
       </c>
       <c r="C34" s="45">
-        <v>46413</v>
+        <v>46414</v>
       </c>
       <c r="D34" s="45">
-        <v>91545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="87">
+        <v>91549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="70">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51004</v>
+        <v>51007</v>
       </c>
       <c r="C35" s="46">
-        <v>57336</v>
+        <v>57339</v>
       </c>
       <c r="D35" s="46">
-        <v>108340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="85">
+        <v>108346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="68">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
@@ -4709,64 +4705,64 @@
         <v>87742</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="87">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="70">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
         <v>26696</v>
       </c>
       <c r="C37" s="46">
-        <v>31428</v>
+        <v>31430</v>
       </c>
       <c r="D37" s="46">
-        <v>58124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="85">
+        <v>58126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="68">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
         <v>60049</v>
       </c>
       <c r="C38" s="45">
-        <v>61793</v>
+        <v>61797</v>
       </c>
       <c r="D38" s="45">
-        <v>121842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="87">
+        <v>121846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="70">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>63919</v>
+        <v>63918</v>
       </c>
       <c r="C39" s="46">
-        <v>67024</v>
+        <v>67023</v>
       </c>
       <c r="D39" s="46">
-        <v>130943</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="85">
+        <v>130941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="68">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64579</v>
+        <v>64578</v>
       </c>
       <c r="C40" s="45">
-        <v>95167</v>
+        <v>95164</v>
       </c>
       <c r="D40" s="45">
-        <v>159746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="87">
+        <v>159742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="70">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
@@ -4779,50 +4775,50 @@
         <v>132182</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="85">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="68">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
         <v>67606</v>
       </c>
       <c r="C42" s="45">
-        <v>77620</v>
+        <v>77623</v>
       </c>
       <c r="D42" s="45">
-        <v>145226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="87">
+        <v>145229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="70">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47113</v>
+        <v>47107</v>
       </c>
       <c r="C43" s="46">
-        <v>53030</v>
+        <v>53036</v>
       </c>
       <c r="D43" s="46">
         <v>100143</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="85">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="68">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
-        <v>28183</v>
+        <v>28184</v>
       </c>
       <c r="C44" s="45">
-        <v>26072</v>
+        <v>26071</v>
       </c>
       <c r="D44" s="45">
         <v>54255</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="87">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="70">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
@@ -4835,176 +4831,176 @@
         <v>110140</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="85">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="68">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
         <v>59234</v>
       </c>
       <c r="C46" s="45">
-        <v>74190</v>
+        <v>74192</v>
       </c>
       <c r="D46" s="45">
-        <v>133424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="89">
+        <v>133426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="72">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>74306</v>
+        <v>74305</v>
       </c>
       <c r="C47" s="47">
-        <v>75601</v>
+        <v>75612</v>
       </c>
       <c r="D47" s="47">
-        <v>149907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="85">
+        <v>149917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="68">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>74554</v>
+        <v>74553</v>
       </c>
       <c r="C48" s="45">
-        <v>68388</v>
+        <v>68384</v>
       </c>
       <c r="D48" s="45">
-        <v>142942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="89">
+        <v>142937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="72">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>80790</v>
+        <v>80791</v>
       </c>
       <c r="C49" s="47">
         <v>74963</v>
       </c>
       <c r="D49" s="47">
-        <v>155753</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="85">
+        <v>155754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="68">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62176</v>
+        <v>62174</v>
       </c>
       <c r="C50" s="45">
         <v>46110</v>
       </c>
       <c r="D50" s="45">
-        <v>108286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="87">
+        <v>108284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="70">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40023</v>
+        <v>40021</v>
       </c>
       <c r="C51" s="46">
-        <v>25063</v>
+        <v>25062</v>
       </c>
       <c r="D51" s="46">
-        <v>65086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="85">
+        <v>65083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="68">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71141</v>
+        <v>71138</v>
       </c>
       <c r="C52" s="45">
-        <v>55810</v>
+        <v>55814</v>
       </c>
       <c r="D52" s="45">
-        <v>126951</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="87">
+        <v>126952</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="70">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81634</v>
+        <v>81635</v>
       </c>
       <c r="C53" s="46">
-        <v>53739</v>
+        <v>53744</v>
       </c>
       <c r="D53" s="46">
-        <v>135373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="85">
+        <v>135379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="68">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>94363</v>
+        <v>94205</v>
       </c>
       <c r="C54" s="45">
-        <v>55750</v>
+        <v>55747</v>
       </c>
       <c r="D54" s="45">
-        <v>150113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="87">
+        <v>149952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="70">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
         <v>92147</v>
       </c>
       <c r="C55" s="46">
-        <v>51162</v>
+        <v>51164</v>
       </c>
       <c r="D55" s="46">
-        <v>143309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="85">
+        <v>143311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="68">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
         <v>99363</v>
       </c>
       <c r="C56" s="45">
-        <v>53868</v>
+        <v>53867</v>
       </c>
       <c r="D56" s="45">
-        <v>153231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="87">
+        <v>153230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="70">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
         <v>76421</v>
       </c>
       <c r="C57" s="46">
-        <v>37823</v>
+        <v>37822</v>
       </c>
       <c r="D57" s="46">
-        <v>114244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="85">
+        <v>114243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="68">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
@@ -5017,1081 +5013,1095 @@
         <v>85938</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="87">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="70">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100005</v>
+        <v>100019</v>
       </c>
       <c r="C59" s="46">
         <v>60442</v>
       </c>
       <c r="D59" s="46">
-        <v>160447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="85">
+        <v>160461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="68">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107151</v>
+        <v>107154</v>
       </c>
       <c r="C60" s="45">
-        <v>59694</v>
+        <v>59696</v>
       </c>
       <c r="D60" s="45">
-        <v>166845</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="87">
+        <v>166850</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="70">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116149</v>
+        <v>116153</v>
       </c>
       <c r="C61" s="46">
-        <v>59280</v>
+        <v>59282</v>
       </c>
       <c r="D61" s="46">
-        <v>175429</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="85">
+        <v>175435</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="68">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130292</v>
+        <v>130299</v>
       </c>
       <c r="C62" s="45">
         <v>58426</v>
       </c>
       <c r="D62" s="45">
-        <v>188718</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="89">
+        <v>188725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="72">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144037</v>
+        <v>144050</v>
       </c>
       <c r="C63" s="47">
-        <v>65085</v>
+        <v>65087</v>
       </c>
       <c r="D63" s="47">
-        <v>209122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="85">
+        <v>209137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="68">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108522</v>
+        <v>108523</v>
       </c>
       <c r="C64" s="45">
-        <v>40156</v>
+        <v>40155</v>
       </c>
       <c r="D64" s="45">
         <v>148678</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="89">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="72">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83832</v>
+        <v>83831</v>
       </c>
       <c r="C65" s="47">
         <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="85">
+        <v>108122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="68">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146248</v>
+        <v>146249</v>
       </c>
       <c r="C66" s="45">
-        <v>49299</v>
+        <v>49298</v>
       </c>
       <c r="D66" s="45">
         <v>195547</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="87">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="70">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166120</v>
+        <v>166124</v>
       </c>
       <c r="C67" s="46">
-        <v>53622</v>
+        <v>53620</v>
       </c>
       <c r="D67" s="46">
-        <v>219742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="85">
+        <v>219744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="68">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174633</v>
+        <v>174641</v>
       </c>
       <c r="C68" s="45">
-        <v>68952</v>
+        <v>68953</v>
       </c>
       <c r="D68" s="45">
-        <v>243585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="87">
+        <v>243594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="70">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180349</v>
+        <v>180362</v>
       </c>
       <c r="C69" s="46">
         <v>62654</v>
       </c>
       <c r="D69" s="46">
-        <v>243003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="85">
+        <v>243016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="68">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201260</v>
+        <v>201429</v>
       </c>
       <c r="C70" s="45">
-        <v>67396</v>
+        <v>67393</v>
       </c>
       <c r="D70" s="45">
-        <v>268656</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="87">
+        <v>268822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="70">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
         <v>153079</v>
       </c>
       <c r="C71" s="46">
-        <v>49300</v>
+        <v>49297</v>
       </c>
       <c r="D71" s="46">
-        <v>202379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="85">
+        <v>202376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="68">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115880</v>
+        <v>115881</v>
       </c>
       <c r="C72" s="45">
-        <v>34463</v>
+        <v>34462</v>
       </c>
       <c r="D72" s="45">
         <v>150343</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="87">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="70">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186365</v>
+        <v>186374</v>
       </c>
       <c r="C73" s="46">
-        <v>52476</v>
+        <v>52475</v>
       </c>
       <c r="D73" s="46">
-        <v>238841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="85">
+        <v>238849</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="68">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195336</v>
+        <v>195343</v>
       </c>
       <c r="C74" s="45">
-        <v>54773</v>
+        <v>54771</v>
       </c>
       <c r="D74" s="45">
-        <v>250109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="87">
+        <v>250114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="70">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217650</v>
+        <v>217656</v>
       </c>
       <c r="C75" s="46">
-        <v>65652</v>
+        <v>65649</v>
       </c>
       <c r="D75" s="46">
-        <v>283302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="85">
+        <v>283305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="68">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220525</v>
+        <v>220530</v>
       </c>
       <c r="C76" s="45">
-        <v>60914</v>
+        <v>60913</v>
       </c>
       <c r="D76" s="45">
-        <v>281439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="87">
+        <v>281443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="70">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>251911</v>
+        <v>252000</v>
       </c>
       <c r="C77" s="46">
         <v>71588</v>
       </c>
       <c r="D77" s="46">
-        <v>323499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="85">
+        <v>323588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="68">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>196994</v>
+        <v>197011</v>
       </c>
       <c r="C78" s="45">
         <v>49454</v>
       </c>
       <c r="D78" s="45">
-        <v>246448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="89">
+        <v>246465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="72">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135197</v>
+        <v>135198</v>
       </c>
       <c r="C79" s="47">
         <v>35997</v>
       </c>
       <c r="D79" s="47">
-        <v>171194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="85">
+        <v>171195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="68">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189293</v>
+        <v>189296</v>
       </c>
       <c r="C80" s="45">
-        <v>58861</v>
+        <v>58860</v>
       </c>
       <c r="D80" s="45">
-        <v>248154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="89">
+        <v>248156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="72">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112078</v>
+        <v>112089</v>
       </c>
       <c r="C81" s="47">
-        <v>67025</v>
+        <v>67024</v>
       </c>
       <c r="D81" s="47">
-        <v>179103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="85">
+        <v>179113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="68">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125602</v>
+        <v>125593</v>
       </c>
       <c r="C82" s="45">
-        <v>79424</v>
+        <v>79473</v>
       </c>
       <c r="D82" s="45">
-        <v>205026</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="87">
+        <v>205066</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="70">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119283</v>
+        <v>119282</v>
       </c>
       <c r="C83" s="46">
-        <v>75466</v>
+        <v>75472</v>
       </c>
       <c r="D83" s="46">
-        <v>194749</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="85">
+        <v>194754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="68">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>160787</v>
+        <v>160836</v>
       </c>
       <c r="C84" s="45">
-        <v>82772</v>
+        <v>82780</v>
       </c>
       <c r="D84" s="45">
-        <v>243559</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="87">
+        <v>243616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="70">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166281</v>
+        <v>166282</v>
       </c>
       <c r="C85" s="46">
-        <v>53898</v>
+        <v>53897</v>
       </c>
       <c r="D85" s="46">
         <v>220179</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="85">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="68">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127293</v>
+        <v>127294</v>
       </c>
       <c r="C86" s="45">
-        <v>38780</v>
+        <v>38779</v>
       </c>
       <c r="D86" s="45">
         <v>166073</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="70">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189899</v>
+        <v>189910</v>
       </c>
       <c r="C87" s="46">
         <v>76150</v>
       </c>
       <c r="D87" s="46">
-        <v>266049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="85">
+        <v>266060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="68">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>213862</v>
+        <v>213970</v>
       </c>
       <c r="C88" s="45">
         <v>83736</v>
       </c>
       <c r="D88" s="45">
-        <v>297598</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="87">
+        <v>297706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="70">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245716</v>
+        <v>245725</v>
       </c>
       <c r="C89" s="46">
-        <v>88251</v>
+        <v>88250</v>
       </c>
       <c r="D89" s="46">
-        <v>333967</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="85">
+        <v>333975</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="68">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257135</v>
+        <v>257092</v>
       </c>
       <c r="C90" s="45">
-        <v>80041</v>
+        <v>80123</v>
       </c>
       <c r="D90" s="45">
-        <v>337176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="87">
+        <v>337215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="70">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285577</v>
+        <v>285825</v>
       </c>
       <c r="C91" s="46">
-        <v>88943</v>
+        <v>88753</v>
       </c>
       <c r="D91" s="46">
-        <v>374520</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="85">
+        <v>374578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="68">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223496</v>
+        <v>223515</v>
       </c>
       <c r="C92" s="45">
-        <v>63195</v>
+        <v>63192</v>
       </c>
       <c r="D92" s="45">
-        <v>286691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="87">
+        <v>286707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="70">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144122</v>
+        <v>144119</v>
       </c>
       <c r="C93" s="46">
-        <v>52757</v>
+        <v>52755</v>
       </c>
       <c r="D93" s="46">
-        <v>196879</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="85">
+        <v>196874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="68">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219343</v>
+        <v>219349</v>
       </c>
       <c r="C94" s="45">
-        <v>89014</v>
+        <v>89038</v>
       </c>
       <c r="D94" s="45">
-        <v>308357</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="89">
+        <v>308387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="72">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234594</v>
+        <v>234610</v>
       </c>
       <c r="C95" s="47">
-        <v>93349</v>
+        <v>93366</v>
       </c>
       <c r="D95" s="47">
-        <v>327943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="85">
+        <v>327976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="68">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>237999</v>
+        <v>238041</v>
       </c>
       <c r="C96" s="45">
-        <v>103059</v>
+        <v>103074</v>
       </c>
       <c r="D96" s="45">
-        <v>341058</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="89">
+        <v>341115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="72">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>230728</v>
+        <v>230812</v>
       </c>
       <c r="C97" s="47">
-        <v>92411</v>
+        <v>92413</v>
       </c>
       <c r="D97" s="47">
-        <v>323139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="85">
+        <v>323225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="68">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158035</v>
+        <v>158087</v>
       </c>
       <c r="C98" s="45">
-        <v>71624</v>
+        <v>71618</v>
       </c>
       <c r="D98" s="45">
-        <v>229659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="87">
+        <v>229705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="70">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165695</v>
+        <v>165700</v>
       </c>
       <c r="C99" s="46">
-        <v>66039</v>
+        <v>66037</v>
       </c>
       <c r="D99" s="46">
-        <v>231734</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="85">
+        <v>231737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="68">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142487</v>
+        <v>142488</v>
       </c>
       <c r="C100" s="45">
-        <v>53583</v>
+        <v>53580</v>
       </c>
       <c r="D100" s="45">
-        <v>196070</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="87">
+        <v>196068</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="70">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176116</v>
+        <v>176134</v>
       </c>
       <c r="C101" s="46">
-        <v>73426</v>
+        <v>73423</v>
       </c>
       <c r="D101" s="46">
-        <v>249542</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="85">
+        <v>249557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="68">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>278983</v>
+        <v>278991</v>
       </c>
       <c r="C102" s="45">
-        <v>99101</v>
+        <v>99156</v>
       </c>
       <c r="D102" s="45">
-        <v>378084</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="87">
+        <v>378147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="70">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580223</v>
+        <v>580246</v>
       </c>
       <c r="C103" s="46">
-        <v>97096</v>
+        <v>97118</v>
       </c>
       <c r="D103" s="46">
-        <v>677319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="85">
+        <v>677364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="68">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642823</v>
+        <v>642888</v>
       </c>
       <c r="C104" s="45">
-        <v>89734</v>
+        <v>89761</v>
       </c>
       <c r="D104" s="45">
-        <v>732557</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="87">
+        <v>732649</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="70">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534461</v>
+        <v>534559</v>
       </c>
       <c r="C105" s="46">
-        <v>88327</v>
+        <v>88353</v>
       </c>
       <c r="D105" s="46">
-        <v>622788</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="85">
+        <v>622912</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="68">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302933</v>
+        <v>302935</v>
       </c>
       <c r="C106" s="45">
-        <v>65474</v>
+        <v>65475</v>
       </c>
       <c r="D106" s="45">
-        <v>368407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="87">
+        <v>368410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="70">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210479</v>
+        <v>210480</v>
       </c>
       <c r="C107" s="46">
-        <v>50100</v>
+        <v>50097</v>
       </c>
       <c r="D107" s="46">
-        <v>260579</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="85">
+        <v>260577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="68">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338513</v>
+        <v>338538</v>
       </c>
       <c r="C108" s="45">
-        <v>76761</v>
+        <v>76827</v>
       </c>
       <c r="D108" s="45">
-        <v>415274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="87">
+        <v>415365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="70">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497534</v>
+        <v>497554</v>
       </c>
       <c r="C109" s="46">
-        <v>73350</v>
+        <v>73405</v>
       </c>
       <c r="D109" s="46">
-        <v>570884</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="85">
+        <v>570959</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="68">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690254</v>
+        <v>690279</v>
       </c>
       <c r="C110" s="45">
-        <v>83349</v>
+        <v>83386</v>
       </c>
       <c r="D110" s="45">
-        <v>773603</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="89">
+        <v>773665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="72">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608383</v>
+        <v>608432</v>
       </c>
       <c r="C111" s="47">
-        <v>70692</v>
+        <v>70767</v>
       </c>
       <c r="D111" s="47">
-        <v>679075</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="85">
+        <v>679199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="68">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517691</v>
+        <v>517777</v>
       </c>
       <c r="C112" s="45">
-        <v>74818</v>
+        <v>75332</v>
       </c>
       <c r="D112" s="45">
-        <v>592509</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="89">
+        <v>593109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="72">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305644</v>
+        <v>305666</v>
       </c>
       <c r="C113" s="47">
-        <v>55757</v>
+        <v>55806</v>
       </c>
       <c r="D113" s="47">
-        <v>361401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="85">
+        <v>361472</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="68">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226885</v>
+        <v>226915</v>
       </c>
       <c r="C114" s="45">
-        <v>38943</v>
+        <v>38975</v>
       </c>
       <c r="D114" s="45">
-        <v>265828</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="87">
+        <v>265890</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="70">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>337842</v>
+        <v>338004</v>
       </c>
       <c r="C115" s="46">
-        <v>60506</v>
+        <v>60620</v>
       </c>
       <c r="D115" s="46">
-        <v>398348</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="85">
+        <v>398624</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="68">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493286</v>
+        <v>493327</v>
       </c>
       <c r="C116" s="45">
-        <v>61239</v>
+        <v>61257</v>
       </c>
       <c r="D116" s="45">
-        <v>554525</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="87">
+        <v>554584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="70">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641103</v>
+        <v>641282</v>
       </c>
       <c r="C117" s="46">
-        <v>71383</v>
+        <v>71412</v>
       </c>
       <c r="D117" s="46">
-        <v>712486</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="85">
+        <v>712694</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="68">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567422</v>
+        <v>567436</v>
       </c>
       <c r="C118" s="45">
-        <v>65616</v>
+        <v>65647</v>
       </c>
       <c r="D118" s="45">
-        <v>633038</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="87">
+        <v>633083</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="70">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>482795</v>
+        <v>482821</v>
       </c>
       <c r="C119" s="46">
-        <v>67048</v>
+        <v>67113</v>
       </c>
       <c r="D119" s="46">
-        <v>549843</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="85">
+        <v>549934</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="68">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>308678</v>
+        <v>308741</v>
       </c>
       <c r="C120" s="45">
-        <v>59271</v>
+        <v>59503</v>
       </c>
       <c r="D120" s="45">
-        <v>367949</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="87">
+        <v>368244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="70">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
         <v>235456</v>
       </c>
       <c r="C121" s="46">
-        <v>47498</v>
+        <v>47552</v>
       </c>
       <c r="D121" s="46">
-        <v>282954</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="85">
+        <v>283008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="68">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354020</v>
+        <v>354194</v>
       </c>
       <c r="C122" s="45">
-        <v>72697</v>
+        <v>72812</v>
       </c>
       <c r="D122" s="45">
-        <v>426717</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="87">
+        <v>427006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="70">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693047</v>
+        <v>693119</v>
       </c>
       <c r="C123" s="46">
-        <v>89669</v>
+        <v>89827</v>
       </c>
       <c r="D123" s="46">
-        <v>782716</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="85">
+        <v>782946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="68">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>991678</v>
+        <v>992089</v>
       </c>
       <c r="C124" s="45">
-        <v>125345</v>
+        <v>125824</v>
       </c>
       <c r="D124" s="45">
-        <v>1117023</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="87">
+        <v>1117913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="70">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>806498</v>
+        <v>806786</v>
       </c>
       <c r="C125" s="46">
-        <v>130315</v>
+        <v>130498</v>
       </c>
       <c r="D125" s="46">
-        <v>936813</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="85">
+        <v>937284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="68">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>660166</v>
+        <v>660350</v>
       </c>
       <c r="C126" s="45">
-        <v>135736</v>
+        <v>136340</v>
       </c>
       <c r="D126" s="45">
-        <v>795902</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="87">
+        <v>796690</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="70">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>257345</v>
+        <v>257397</v>
       </c>
       <c r="C127" s="46">
-        <v>75551</v>
+        <v>75637</v>
       </c>
       <c r="D127" s="46">
-        <v>332896</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="85">
+        <v>333034</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="68">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>194687</v>
+        <v>194684</v>
       </c>
       <c r="C128" s="45">
-        <v>67314</v>
+        <v>67325</v>
       </c>
       <c r="D128" s="45">
-        <v>262001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="87">
+        <v>262009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="70">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>331530</v>
+        <v>331610</v>
       </c>
       <c r="C129" s="46">
-        <v>113853</v>
+        <v>114165</v>
       </c>
       <c r="D129" s="46">
-        <v>445383</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="85">
+        <v>445775</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="68">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>674004</v>
+        <v>674995</v>
       </c>
       <c r="C130" s="45">
-        <v>157357</v>
+        <v>158270</v>
       </c>
       <c r="D130" s="45">
-        <v>831361</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="87">
+        <v>833265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="70">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>893030</v>
+        <v>898480</v>
       </c>
       <c r="C131" s="46">
-        <v>212071</v>
+        <v>217406</v>
       </c>
       <c r="D131" s="46">
-        <v>1105101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="85">
+        <v>1115886</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="68">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>733366</v>
+        <v>737564</v>
       </c>
       <c r="C132" s="45">
-        <v>199129</v>
+        <v>204915</v>
       </c>
       <c r="D132" s="45">
-        <v>932495</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="87"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="87" t="s">
+        <v>942479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="70">
+        <v>44323</v>
+      </c>
+      <c r="B133" s="46">
+        <v>617514</v>
+      </c>
+      <c r="C133" s="46">
+        <v>196523</v>
+      </c>
+      <c r="D133" s="46">
+        <v>814037</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="68"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="46">
-        <v>26205337</v>
-      </c>
-      <c r="C134" s="46">
-        <v>7360108</v>
-      </c>
-      <c r="D134" s="46">
-        <v>33565445</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="91"/>
-      <c r="B135" s="91"/>
-      <c r="C135" s="91"/>
-      <c r="D135" s="91"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="B136" s="91"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="91"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="91"/>
-      <c r="B137" s="91"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="91"/>
+      <c r="B135" s="46">
+        <v>26836612</v>
+      </c>
+      <c r="C135" s="46">
+        <v>7572228</v>
+      </c>
+      <c r="D135" s="46">
+        <v>34408840</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="74"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="74"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="74"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -2,27 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C2639-9720-4540-A5D9-E45A72CACEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63868C3B-0D4B-4822-ADB9-EA149522E4EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_07.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_07.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_09.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_09.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_07.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_07.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_09.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_09.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Bayern</t>
   </si>
@@ -222,9 +227,6 @@
     <t>Gesamtzahl  begonnener Impfserien**</t>
   </si>
   <si>
-    <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Eine Impfquote kann aufgrund einer fehlenden Nennerpopulation nich berechnet werden, die Impfungen gehen allerdings in die Berechnung der Impfquote für Gesamtdeutschland mit ein.</t>
-  </si>
-  <si>
     <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Die Impfungen gehen in die Gesamtzahl der Impfungen für Gesamtdeutschland mit ein.</t>
   </si>
   <si>
@@ -240,16 +242,22 @@
     <t>Thüringen</t>
   </si>
   <si>
-    <t>Datenstand: 08.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 07.05.21 (Impfquote_bis_einschl_07.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.05.21 durchgeführt und bis zum 08.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 07.05.21 (Impfstoff_bis_einschl_07.05.21)</t>
+    <t>Datenstand: 10.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 09.05.21 durchgeführt und bis zum 10.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 09.05.21 (Impfquote_bis_einschl_09.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 09.05.21 (Impfstoff_bis_einschl_09.05.21)</t>
+  </si>
+  <si>
+    <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Eine Impfquote kann aufgrund einer fehlenden Nennerpopulation nicht berechnet werden, die Impfungen gehen allerdings in die Berechnung der Impfquote für Gesamtdeutschland mit ein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
     <t>-</t>
@@ -267,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1.902 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1900.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,13 +365,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -556,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -712,79 +713,70 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{B797BBD4-588A-432F-99CA-840AA723A419}"/>
@@ -1135,113 +1127,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="214.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1257,127 +1251,127 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.44140625" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="4"/>
-    <col min="15" max="15" width="12.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="4"/>
-    <col min="20" max="20" width="18.44140625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="4"/>
+    <col min="12" max="14" width="11.42578125" style="4"/>
+    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="4"/>
+    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="80" t="s">
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81" t="s">
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="S2" s="73"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1421,66 +1415,66 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>4448148</v>
+        <v>4562026</v>
       </c>
       <c r="D5" s="32">
-        <v>3493821</v>
+        <v>3567730</v>
       </c>
       <c r="E5" s="32">
-        <v>954327</v>
+        <v>994296</v>
       </c>
       <c r="F5" s="33">
-        <v>31.474747653101321</v>
+        <v>32.140570866223307</v>
       </c>
       <c r="G5" s="33">
-        <v>18.089767527938072</v>
+        <v>18.789251238235256</v>
       </c>
       <c r="H5" s="33">
-        <v>67.681329094413371</v>
+        <v>68.291131775548124</v>
       </c>
       <c r="I5" s="33">
-        <v>8.5972353774109287</v>
+        <v>8.9573036776892785</v>
       </c>
       <c r="J5" s="33">
-        <v>3.6372290440126438</v>
+        <v>3.9437968473577953</v>
       </c>
       <c r="K5" s="33">
-        <v>22.047086055257861</v>
+        <v>22.517129025253922</v>
       </c>
       <c r="L5" s="32">
-        <v>1166901</v>
+        <v>1220034</v>
       </c>
       <c r="M5" s="32">
-        <v>1433026</v>
+        <v>1447229</v>
       </c>
       <c r="N5" s="32">
-        <v>276048</v>
+        <v>300591</v>
       </c>
       <c r="O5" s="32">
-        <v>623264</v>
+        <v>636838</v>
       </c>
       <c r="P5" s="34">
-        <v>301262</v>
+        <v>304899</v>
       </c>
       <c r="Q5" s="34">
-        <v>586861</v>
+        <v>590857</v>
       </c>
       <c r="R5" s="34">
-        <v>19149</v>
+        <v>19487</v>
       </c>
       <c r="S5" s="34">
-        <v>34711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>35165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1488,58 +1482,58 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5440625</v>
+        <v>5556630</v>
       </c>
       <c r="D6" s="13">
-        <v>4314480</v>
+        <v>4381270</v>
       </c>
       <c r="E6" s="13">
-        <v>1126145</v>
+        <v>1175360</v>
       </c>
       <c r="F6" s="14">
-        <v>32.872887281474668</v>
+        <v>33.381773669064756</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>8.5803243143081644</v>
+        <v>8.9553032567433544</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>487106</v>
+        <v>495460</v>
       </c>
       <c r="Q6" s="18">
-        <v>728045</v>
+        <v>732314</v>
       </c>
       <c r="R6" s="17">
-        <v>20367</v>
+        <v>21115</v>
       </c>
       <c r="S6" s="18">
-        <v>23138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>23391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1547,58 +1541,58 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1470476</v>
+        <v>1497579</v>
       </c>
       <c r="D7" s="37">
-        <v>1075691</v>
+        <v>1090630</v>
       </c>
       <c r="E7" s="37">
-        <v>394785</v>
+        <v>406949</v>
       </c>
       <c r="F7" s="38">
-        <v>29.314447153569802</v>
+        <v>29.721560837729267</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>10.758576598225748</v>
+        <v>11.090066714974911</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>194631</v>
+        <v>197501</v>
       </c>
       <c r="Q7" s="41">
-        <v>106689</v>
+        <v>107203</v>
       </c>
       <c r="R7" s="41">
-        <v>10532</v>
+        <v>10701</v>
       </c>
       <c r="S7" s="41">
-        <v>6847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1606,117 +1600,117 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>957176</v>
+        <v>967221</v>
       </c>
       <c r="D8" s="13">
-        <v>721688</v>
+        <v>725504</v>
       </c>
       <c r="E8" s="13">
-        <v>235488</v>
+        <v>241717</v>
       </c>
       <c r="F8" s="14">
-        <v>28.616915943697851</v>
+        <v>28.768230848810795</v>
       </c>
       <c r="G8" s="44">
-        <v>15.002434566945858</v>
+        <v>15.167736633694998</v>
       </c>
       <c r="H8" s="44">
-        <v>55.398759580306233</v>
+        <v>55.52164722348477</v>
       </c>
       <c r="I8" s="44">
-        <v>9.33774747778752</v>
+        <v>9.5847444756775957</v>
       </c>
       <c r="J8" s="63">
-        <v>4.3691454285459033</v>
+        <v>4.4906075413003723</v>
       </c>
       <c r="K8" s="44">
-        <v>19.413361806712885</v>
+        <v>19.915493702910105</v>
       </c>
       <c r="L8" s="17">
-        <v>180859</v>
+        <v>183275</v>
       </c>
       <c r="M8" s="18">
-        <v>286640</v>
+        <v>287192</v>
       </c>
       <c r="N8" s="17">
-        <v>65761</v>
+        <v>67766</v>
       </c>
       <c r="O8" s="18">
-        <v>143903</v>
+        <v>148057</v>
       </c>
       <c r="P8" s="17">
-        <v>72718</v>
+        <v>73096</v>
       </c>
       <c r="Q8" s="18">
-        <v>174086</v>
+        <v>174556</v>
       </c>
       <c r="R8" s="17">
-        <v>8088</v>
+        <v>8136</v>
       </c>
       <c r="S8" s="18">
-        <v>17549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>17571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>305628</v>
+        <v>315041</v>
       </c>
       <c r="D9" s="37">
-        <v>225540</v>
+        <v>232341</v>
       </c>
       <c r="E9" s="37">
-        <v>80088</v>
+        <v>82700</v>
       </c>
       <c r="F9" s="38">
-        <v>33.109121817023443</v>
+        <v>34.107504088361459</v>
       </c>
       <c r="G9" s="64">
-        <v>17.21749951515935</v>
+        <v>18.05223349925658</v>
       </c>
       <c r="H9" s="64">
-        <v>76.180757704329892</v>
+        <v>77.614208835945306</v>
       </c>
       <c r="I9" s="64">
-        <v>11.756865070860039</v>
+        <v>12.14030493157683</v>
       </c>
       <c r="J9" s="64">
-        <v>4.1213475337772314</v>
+        <v>4.2413455944146357</v>
       </c>
       <c r="K9" s="64">
-        <v>31.233552101571476</v>
+        <v>32.317367906592047</v>
       </c>
       <c r="L9" s="42">
-        <v>60629</v>
+        <v>64502</v>
       </c>
       <c r="M9" s="42">
-        <v>114835</v>
+        <v>117315</v>
       </c>
       <c r="N9" s="42">
-        <v>19355</v>
+        <v>19942</v>
       </c>
       <c r="O9" s="42">
-        <v>56973</v>
+        <v>58989</v>
       </c>
       <c r="P9" s="42">
-        <v>24599</v>
+        <v>24858</v>
       </c>
       <c r="Q9" s="42">
-        <v>27009</v>
+        <v>27198</v>
       </c>
       <c r="R9" s="42">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="S9" s="42">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1724,58 +1718,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>744969</v>
+        <v>766005</v>
       </c>
       <c r="D10" s="13">
-        <v>594505</v>
+        <v>605130</v>
       </c>
       <c r="E10" s="13">
-        <v>150464</v>
+        <v>160875</v>
       </c>
       <c r="F10" s="14">
-        <v>32.183193098075904</v>
+        <v>32.758371484577367</v>
       </c>
       <c r="G10" s="44">
-        <v>20.870882134390147</v>
+        <v>21.518629914015783</v>
       </c>
       <c r="H10" s="44">
-        <v>68.953001245960991</v>
+        <v>69.292013182773957</v>
       </c>
       <c r="I10" s="44">
-        <v>8.1452838349700887</v>
+        <v>8.7088774520869627</v>
       </c>
       <c r="J10" s="44">
-        <v>4.1079933477230099</v>
+        <v>4.5896465093238037</v>
       </c>
       <c r="K10" s="44">
-        <v>21.093589864648564</v>
+        <v>21.92384668000912</v>
       </c>
       <c r="L10" s="18">
-        <v>236749</v>
+        <v>245246</v>
       </c>
       <c r="M10" s="18">
-        <v>219632</v>
+        <v>220834</v>
       </c>
       <c r="N10" s="18">
-        <v>55595</v>
+        <v>62376</v>
       </c>
       <c r="O10" s="18">
-        <v>88705</v>
+        <v>92262</v>
       </c>
       <c r="P10" s="18">
-        <v>58167</v>
+        <v>58823</v>
       </c>
       <c r="Q10" s="18">
-        <v>79764</v>
+        <v>80034</v>
       </c>
       <c r="R10" s="18">
-        <v>2453</v>
+        <v>2478</v>
       </c>
       <c r="S10" s="18">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1783,58 +1777,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2521956</v>
+        <v>2583102</v>
       </c>
       <c r="D11" s="37">
-        <v>1996242</v>
+        <v>2048352</v>
       </c>
       <c r="E11" s="37">
-        <v>525714</v>
+        <v>534750</v>
       </c>
       <c r="F11" s="38">
-        <v>31.746447246218239</v>
+        <v>32.575158076869251</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="64">
-        <v>8.3604852355567996</v>
+        <v>8.5041856973829848</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="41">
-        <v>198141</v>
+        <v>201280</v>
       </c>
       <c r="Q11" s="41">
-        <v>303291</v>
+        <v>305179</v>
       </c>
       <c r="R11" s="41">
-        <v>9441</v>
+        <v>9583</v>
       </c>
       <c r="S11" s="41">
-        <v>13084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1842,58 +1836,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>695092</v>
+        <v>701615</v>
       </c>
       <c r="D12" s="13">
-        <v>558995</v>
+        <v>562619</v>
       </c>
       <c r="E12" s="13">
-        <v>136097</v>
+        <v>138996</v>
       </c>
       <c r="F12" s="14">
-        <v>34.760387479184004</v>
+        <v>34.985741273447921</v>
       </c>
       <c r="G12" s="44">
-        <v>19.948080595122427</v>
+        <v>20.190702525068744</v>
       </c>
       <c r="H12" s="44">
-        <v>63.923081181833282</v>
+        <v>64.114455496705844</v>
       </c>
       <c r="I12" s="44">
-        <v>8.4630174773557982</v>
+        <v>8.6432880760233264</v>
       </c>
       <c r="J12" s="44">
-        <v>3.5922488530088121</v>
+        <v>3.625073621265948</v>
       </c>
       <c r="K12" s="44">
-        <v>18.017236606566151</v>
+        <v>18.487644638012807</v>
       </c>
       <c r="L12" s="18">
-        <v>147486</v>
+        <v>149428</v>
       </c>
       <c r="M12" s="18">
-        <v>213831</v>
+        <v>214648</v>
       </c>
       <c r="N12" s="18">
-        <v>34059</v>
+        <v>34373</v>
       </c>
       <c r="O12" s="18">
-        <v>91912</v>
+        <v>94432</v>
       </c>
       <c r="P12" s="18">
-        <v>65214</v>
+        <v>65859</v>
       </c>
       <c r="Q12" s="18">
-        <v>132549</v>
+        <v>132769</v>
       </c>
       <c r="R12" s="18">
-        <v>4244</v>
+        <v>4280</v>
       </c>
       <c r="S12" s="18">
-        <v>5718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1901,117 +1895,117 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3307993</v>
+        <v>3359857</v>
       </c>
       <c r="D13" s="37">
-        <v>2673321</v>
+        <v>2710302</v>
       </c>
       <c r="E13" s="37">
-        <v>634672</v>
+        <v>649555</v>
       </c>
       <c r="F13" s="38">
-        <v>33.443233643681303</v>
+        <v>33.90586578676362</v>
       </c>
       <c r="G13" s="64">
-        <v>18.885937610295212</v>
+        <v>19.295723102667118</v>
       </c>
       <c r="H13" s="64">
-        <v>69.60275091435561</v>
+        <v>70.226575136704767</v>
       </c>
       <c r="I13" s="64">
-        <v>7.9397438553404172</v>
+        <v>8.1259301181644137</v>
       </c>
       <c r="J13" s="64">
-        <v>2.4589946058435319</v>
+        <v>2.5463770184958854</v>
       </c>
       <c r="K13" s="64">
-        <v>20.993578865035968</v>
+        <v>21.391057107069216</v>
       </c>
       <c r="L13" s="42">
-        <v>815795</v>
+        <v>835237</v>
       </c>
       <c r="M13" s="42">
-        <v>1152565</v>
+        <v>1162693</v>
       </c>
       <c r="N13" s="42">
-        <v>128532</v>
+        <v>133331</v>
       </c>
       <c r="O13" s="42">
-        <v>472152</v>
+        <v>481260</v>
       </c>
       <c r="P13" s="42">
-        <v>257073</v>
+        <v>260910</v>
       </c>
       <c r="Q13" s="42">
-        <v>457229</v>
+        <v>461529</v>
       </c>
       <c r="R13" s="42">
-        <v>11158</v>
+        <v>11323</v>
       </c>
       <c r="S13" s="42">
-        <v>13394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>7607616</v>
+        <v>7746999</v>
       </c>
       <c r="D14" s="13">
-        <v>6102844</v>
+        <v>6210075</v>
       </c>
       <c r="E14" s="13">
-        <v>1504772</v>
+        <v>1536924</v>
       </c>
       <c r="F14" s="14">
-        <v>34.004395443729138</v>
+        <v>34.601875131531507</v>
       </c>
       <c r="G14" s="44">
-        <v>19.482898043287197</v>
+        <v>20.023396269499404</v>
       </c>
       <c r="H14" s="44">
-        <v>71.432840477344541</v>
+        <v>72.179386112494043</v>
       </c>
       <c r="I14" s="44">
-        <v>8.3844289876410389</v>
+        <v>8.5635765002280859</v>
       </c>
       <c r="J14" s="44">
-        <v>3.5434913335718909</v>
+        <v>3.622252431251896</v>
       </c>
       <c r="K14" s="44">
-        <v>20.823648640437462</v>
+        <v>21.25902900257973</v>
       </c>
       <c r="L14" s="18">
-        <v>1812779</v>
+        <v>1870839</v>
       </c>
       <c r="M14" s="18">
-        <v>2547528</v>
+        <v>2577550</v>
       </c>
       <c r="N14" s="18">
-        <v>433983</v>
+        <v>443414</v>
       </c>
       <c r="O14" s="18">
-        <v>1013752</v>
+        <v>1035220</v>
       </c>
       <c r="P14" s="18">
-        <v>705912</v>
+        <v>717726</v>
       </c>
       <c r="Q14" s="18">
-        <v>1038057</v>
+        <v>1045508</v>
       </c>
       <c r="R14" s="18">
-        <v>24109</v>
+        <v>24860</v>
       </c>
       <c r="S14" s="18">
-        <v>31495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>31881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2019,58 +2013,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1717481</v>
+        <v>1738212</v>
       </c>
       <c r="D15" s="37">
-        <v>1275397</v>
+        <v>1286872</v>
       </c>
       <c r="E15" s="37">
-        <v>442084</v>
+        <v>451340</v>
       </c>
       <c r="F15" s="38">
-        <v>31.15357154285287</v>
+        <v>31.433866410611095</v>
       </c>
       <c r="G15" s="64">
-        <v>17.336214608770565</v>
+        <v>17.61350458077235</v>
       </c>
       <c r="H15" s="64">
-        <v>64.57464011867205</v>
+        <v>64.862210893592135</v>
       </c>
       <c r="I15" s="64">
-        <v>10.798594886102578</v>
+        <v>11.024687199476881</v>
       </c>
       <c r="J15" s="64">
-        <v>4.889228972349696</v>
+        <v>5.0689462843005693</v>
       </c>
       <c r="K15" s="64">
-        <v>25.107243591082884</v>
+        <v>25.44562605770637</v>
       </c>
       <c r="L15" s="42">
-        <v>388323</v>
+        <v>395305</v>
       </c>
       <c r="M15" s="42">
-        <v>545720</v>
+        <v>547862</v>
       </c>
       <c r="N15" s="42">
-        <v>135934</v>
+        <v>141052</v>
       </c>
       <c r="O15" s="42">
-        <v>289705</v>
+        <v>293688</v>
       </c>
       <c r="P15" s="42">
-        <v>113964</v>
+        <v>115016</v>
       </c>
       <c r="Q15" s="42">
-        <v>226964</v>
+        <v>228263</v>
       </c>
       <c r="R15" s="42">
-        <v>5723</v>
+        <v>5812</v>
       </c>
       <c r="S15" s="42">
-        <v>10722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>10788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2078,58 +2072,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>452759</v>
+        <v>459265</v>
       </c>
       <c r="D16" s="13">
-        <v>358234</v>
+        <v>363731</v>
       </c>
       <c r="E16" s="13">
-        <v>94525</v>
+        <v>95534</v>
       </c>
       <c r="F16" s="14">
-        <v>36.299393952904438</v>
+        <v>36.856397946269432</v>
       </c>
       <c r="G16" s="44">
-        <v>21.115430862919325</v>
+        <v>21.620871661599327</v>
       </c>
       <c r="H16" s="44">
-        <v>68.448517125159128</v>
+        <v>69.114697344439492</v>
       </c>
       <c r="I16" s="44">
-        <v>9.5780975937468025</v>
+        <v>9.6803382758107048</v>
       </c>
       <c r="J16" s="44">
-        <v>3.1607952189000246</v>
+        <v>3.1851124710206977</v>
       </c>
       <c r="K16" s="44">
-        <v>23.165635335032743</v>
+        <v>23.432865522567685</v>
       </c>
       <c r="L16" s="18">
-        <v>104809</v>
+        <v>108119</v>
       </c>
       <c r="M16" s="18">
-        <v>162872</v>
+        <v>164835</v>
       </c>
       <c r="N16" s="18">
-        <v>19586</v>
+        <v>19733</v>
       </c>
       <c r="O16" s="18">
-        <v>71487</v>
+        <v>72332</v>
       </c>
       <c r="P16" s="18">
-        <v>36729</v>
+        <v>36807</v>
       </c>
       <c r="Q16" s="18">
-        <v>53823</v>
+        <v>53969</v>
       </c>
       <c r="R16" s="18">
-        <v>1601</v>
+        <v>1617</v>
       </c>
       <c r="S16" s="18">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2137,58 +2131,58 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1659351</v>
+        <v>1698087</v>
       </c>
       <c r="D17" s="37">
-        <v>1164389</v>
+        <v>1174652</v>
       </c>
       <c r="E17" s="37">
-        <v>494962</v>
+        <v>523435</v>
       </c>
       <c r="F17" s="38">
-        <v>28.59521838441384</v>
+        <v>28.847258489807516</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>12.155341970755686</v>
+        <v>12.854585653974452</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>77745</v>
+        <v>78160</v>
       </c>
       <c r="Q17" s="41">
-        <v>228135</v>
+        <v>228945</v>
       </c>
       <c r="R17" s="41">
-        <v>11693</v>
+        <v>11886</v>
       </c>
       <c r="S17" s="41">
-        <v>35464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>35650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2196,58 +2190,58 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>898806</v>
+        <v>910594</v>
       </c>
       <c r="D18" s="13">
-        <v>705309</v>
+        <v>708859</v>
       </c>
       <c r="E18" s="13">
-        <v>193497</v>
+        <v>201735</v>
       </c>
       <c r="F18" s="14">
-        <v>32.135720085183863</v>
+        <v>32.297467356666857</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>8.8162286732805342</v>
+        <v>9.1915734683444654</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>49176</v>
+        <v>49222</v>
       </c>
       <c r="Q18" s="18">
-        <v>141861</v>
+        <v>142113</v>
       </c>
       <c r="R18" s="17">
-        <v>2714</v>
+        <v>2740</v>
       </c>
       <c r="S18" s="18">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2255,232 +2249,232 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1187025</v>
+        <v>1210613</v>
       </c>
       <c r="D19" s="37">
-        <v>878663</v>
+        <v>889448</v>
       </c>
       <c r="E19" s="37">
-        <v>308362</v>
+        <v>321165</v>
       </c>
       <c r="F19" s="38">
-        <v>30.259355672774696</v>
+        <v>30.63076900294892</v>
       </c>
       <c r="G19" s="64">
-        <v>16.455470590488126</v>
+        <v>16.750955243256833</v>
       </c>
       <c r="H19" s="64">
-        <v>62.679978180618811</v>
+        <v>63.229729714145343</v>
       </c>
       <c r="I19" s="64">
-        <v>10.6193562651075</v>
+        <v>11.060265385758459</v>
       </c>
       <c r="J19" s="64">
-        <v>4.6567065392550724</v>
+        <v>4.949785285080333</v>
       </c>
       <c r="K19" s="64">
-        <v>24.623840557063101</v>
+        <v>25.411967676870191</v>
       </c>
       <c r="L19" s="42">
-        <v>254699</v>
+        <v>259999</v>
       </c>
       <c r="M19" s="42">
-        <v>361384</v>
+        <v>363921</v>
       </c>
       <c r="N19" s="42">
-        <v>90433</v>
+        <v>96348</v>
       </c>
       <c r="O19" s="42">
-        <v>205501</v>
+        <v>212276</v>
       </c>
       <c r="P19" s="42">
-        <v>80442</v>
+        <v>81160</v>
       </c>
       <c r="Q19" s="42">
-        <v>182126</v>
+        <v>184356</v>
       </c>
       <c r="R19" s="42">
-        <v>4408</v>
+        <v>4462</v>
       </c>
       <c r="S19" s="42">
-        <v>8017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>8076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>16</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>915165</v>
+        <v>928307</v>
       </c>
       <c r="D20" s="13">
-        <v>627072</v>
+        <v>638408</v>
       </c>
       <c r="E20" s="13">
-        <v>288093</v>
+        <v>289899</v>
       </c>
       <c r="F20" s="14">
-        <v>29.39338457601044</v>
+        <v>29.924748450579315</v>
       </c>
       <c r="G20" s="44">
-        <v>15.996684063689928</v>
+        <v>16.12791017604685</v>
       </c>
       <c r="H20" s="44">
-        <v>55.131315233224178</v>
+        <v>56.431188189295455</v>
       </c>
       <c r="I20" s="44">
-        <v>13.504076633395487</v>
+        <v>13.588731110942366</v>
       </c>
       <c r="J20" s="44">
-        <v>6.5554606742213748</v>
+        <v>6.618472017688795</v>
       </c>
       <c r="K20" s="44">
-        <v>26.84158936335659</v>
+        <v>26.967811887368988</v>
       </c>
       <c r="L20" s="18">
-        <v>185488</v>
+        <v>187053</v>
       </c>
       <c r="M20" s="18">
-        <v>282879</v>
+        <v>292135</v>
       </c>
       <c r="N20" s="18">
-        <v>87899</v>
+        <v>88688</v>
       </c>
       <c r="O20" s="18">
-        <v>185268</v>
+        <v>186079</v>
       </c>
       <c r="P20" s="18">
-        <v>38933</v>
+        <v>39209</v>
       </c>
       <c r="Q20" s="18">
-        <v>119831</v>
+        <v>120070</v>
       </c>
       <c r="R20" s="18">
-        <v>4069</v>
+        <v>4164</v>
       </c>
       <c r="S20" s="18">
-        <v>10798</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>10909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>78574</v>
+        <v>78586</v>
       </c>
       <c r="D21" s="37">
-        <v>70421</v>
+        <v>70435</v>
       </c>
       <c r="E21" s="37">
-        <v>8153</v>
+        <v>8151</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>64655</v>
+        <v>64669</v>
       </c>
       <c r="M21" s="41">
         <v>6138</v>
       </c>
       <c r="N21" s="41">
-        <v>7303</v>
+        <v>7301</v>
       </c>
       <c r="O21" s="41">
         <v>478</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>34408840</v>
+        <v>35079739</v>
       </c>
       <c r="D22" s="21">
-        <v>26836612</v>
+        <v>27266358</v>
       </c>
       <c r="E22" s="21">
-        <v>7572228</v>
+        <v>7813381</v>
       </c>
       <c r="F22" s="22">
-        <v>32.268454141465327</v>
+        <v>32.78518252332956</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>9.1048785132310925</v>
+        <v>9.3948418857155485</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>2761812</v>
+        <v>2799986</v>
       </c>
       <c r="Q22" s="25">
-        <v>4586320</v>
+        <v>4614863</v>
       </c>
       <c r="R22" s="25">
-        <v>140795</v>
+        <v>143697</v>
       </c>
       <c r="S22" s="25">
-        <v>221998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>223905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2503,30 +2497,30 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2550,7 +2544,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2574,35 +2568,35 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -2653,128 +2647,128 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="88" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="91" t="s">
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="88" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="88" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="90"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="91" t="s">
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="82"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91" t="s">
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2787,7 +2781,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2803,7 +2797,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2810,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="91"/>
+      <c r="R4" s="83"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2832,83 +2826,83 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="91"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X4" s="83"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2598783</v>
+        <v>2665059</v>
       </c>
       <c r="D5" s="45">
-        <v>1613785</v>
+        <v>1660471</v>
       </c>
       <c r="E5" s="45">
-        <v>217335</v>
+        <v>232828</v>
       </c>
       <c r="F5" s="45">
-        <v>767663</v>
+        <v>771760</v>
       </c>
       <c r="G5" s="45">
-        <v>27302</v>
+        <v>30925</v>
       </c>
       <c r="H5" s="45">
-        <v>900456</v>
+        <v>939633</v>
       </c>
       <c r="I5" s="45">
-        <v>822245</v>
+        <v>849735</v>
       </c>
       <c r="J5" s="45">
-        <v>56783</v>
+        <v>59556</v>
       </c>
       <c r="K5" s="45">
-        <v>20284</v>
+        <v>28138</v>
       </c>
       <c r="L5" s="45">
-        <v>1144</v>
+        <v>2204</v>
       </c>
       <c r="M5" s="45">
-        <v>14033</v>
+        <v>18284</v>
       </c>
       <c r="N5" s="45">
-        <v>895038</v>
+        <v>902671</v>
       </c>
       <c r="O5" s="45">
-        <v>770165</v>
+        <v>773241</v>
       </c>
       <c r="P5" s="45">
         <v>224</v>
       </c>
       <c r="Q5" s="45">
-        <v>124649</v>
+        <v>129206</v>
       </c>
       <c r="R5" s="45">
-        <v>46938</v>
+        <v>1141</v>
       </c>
       <c r="S5" s="45">
-        <v>53871</v>
+        <v>54663</v>
       </c>
       <c r="T5" s="45">
-        <v>52418</v>
+        <v>53060</v>
       </c>
       <c r="U5" s="45">
         <v>39</v>
       </c>
       <c r="V5" s="45">
-        <v>1397</v>
+        <v>1547</v>
       </c>
       <c r="W5" s="45">
         <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>8271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2916,73 +2910,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3099008</v>
+        <v>3153175</v>
       </c>
       <c r="D6" s="46">
-        <v>2118165</v>
+        <v>2156257</v>
       </c>
       <c r="E6" s="46">
-        <v>269272</v>
+        <v>281302</v>
       </c>
       <c r="F6" s="46">
-        <v>711571</v>
+        <v>715616</v>
       </c>
       <c r="G6" s="46">
-        <v>37385</v>
+        <v>23618</v>
       </c>
       <c r="H6" s="46">
-        <v>1082641</v>
+        <v>1130855</v>
       </c>
       <c r="I6" s="46">
-        <v>967099</v>
+        <v>1001390</v>
       </c>
       <c r="J6" s="46">
-        <v>82301</v>
+        <v>88667</v>
       </c>
       <c r="K6" s="46">
-        <v>33240</v>
+        <v>40797</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>28991</v>
+        <v>19630</v>
       </c>
       <c r="N6" s="46">
-        <v>1215472</v>
+        <v>1228095</v>
       </c>
       <c r="O6" s="46">
-        <v>942697</v>
+        <v>946326</v>
       </c>
       <c r="P6" s="46">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="46">
-        <v>272404</v>
+        <v>281384</v>
       </c>
       <c r="R6" s="46">
-        <v>66160</v>
+        <v>1624</v>
       </c>
       <c r="S6" s="46">
-        <v>43504</v>
+        <v>44505</v>
       </c>
       <c r="T6" s="46">
-        <v>37353</v>
+        <v>37971</v>
       </c>
       <c r="U6" s="46">
-        <v>597</v>
+        <v>693</v>
       </c>
       <c r="V6" s="46">
-        <v>5554</v>
+        <v>5841</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>5856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2990,73 +2984,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>772661</v>
+        <v>784216</v>
       </c>
       <c r="D7" s="45">
-        <v>523621</v>
+        <v>532900</v>
       </c>
       <c r="E7" s="45">
-        <v>63297</v>
+        <v>65569</v>
       </c>
       <c r="F7" s="45">
-        <v>185743</v>
+        <v>185747</v>
       </c>
       <c r="G7" s="45">
-        <v>5571</v>
+        <v>5825</v>
       </c>
       <c r="H7" s="45">
-        <v>377399</v>
+        <v>389277</v>
       </c>
       <c r="I7" s="45">
-        <v>326655</v>
+        <v>337103</v>
       </c>
       <c r="J7" s="45">
-        <v>47759</v>
+        <v>49102</v>
       </c>
       <c r="K7" s="45">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="L7" s="45">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="M7" s="45">
-        <v>5961</v>
+        <v>5898</v>
       </c>
       <c r="N7" s="45">
-        <v>303030</v>
+        <v>306414</v>
       </c>
       <c r="O7" s="45">
-        <v>231952</v>
+        <v>232828</v>
       </c>
       <c r="P7" s="45">
         <v>99</v>
       </c>
       <c r="Q7" s="45">
-        <v>70979</v>
+        <v>73487</v>
       </c>
       <c r="R7" s="45">
-        <v>17614</v>
+        <v>595</v>
       </c>
       <c r="S7" s="45">
-        <v>17386</v>
+        <v>17672</v>
       </c>
       <c r="T7" s="45">
-        <v>15107</v>
+        <v>15259</v>
       </c>
       <c r="U7" s="45">
         <v>39</v>
       </c>
       <c r="V7" s="45">
-        <v>2240</v>
+        <v>2374</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3064,147 +3058,147 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>467498</v>
+        <v>470466</v>
       </c>
       <c r="D8" s="46">
-        <v>309526</v>
+        <v>310774</v>
       </c>
       <c r="E8" s="46">
-        <v>51590</v>
+        <v>53307</v>
       </c>
       <c r="F8" s="46">
-        <v>106382</v>
+        <v>106385</v>
       </c>
       <c r="G8" s="46">
-        <v>3784</v>
+        <v>26</v>
       </c>
       <c r="H8" s="46">
-        <v>209665</v>
+        <v>215824</v>
       </c>
       <c r="I8" s="46">
-        <v>182018</v>
+        <v>186806</v>
       </c>
       <c r="J8" s="46">
-        <v>20399</v>
+        <v>21491</v>
       </c>
       <c r="K8" s="46">
-        <v>7247</v>
+        <v>7526</v>
       </c>
       <c r="L8" s="46">
         <v>1</v>
       </c>
       <c r="M8" s="46">
-        <v>6974</v>
+        <v>0</v>
       </c>
       <c r="N8" s="46">
-        <v>254190</v>
+        <v>255038</v>
       </c>
       <c r="O8" s="46">
-        <v>184270</v>
+        <v>184416</v>
       </c>
       <c r="P8" s="46">
         <v>488</v>
       </c>
       <c r="Q8" s="46">
-        <v>69432</v>
+        <v>70134</v>
       </c>
       <c r="R8" s="46">
-        <v>11090</v>
+        <v>7</v>
       </c>
       <c r="S8" s="46">
-        <v>25823</v>
+        <v>25893</v>
       </c>
       <c r="T8" s="46">
-        <v>24694</v>
+        <v>24709</v>
       </c>
       <c r="U8" s="46">
         <v>11</v>
       </c>
       <c r="V8" s="46">
-        <v>1118</v>
+        <v>1173</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>173932</v>
+        <v>180285</v>
       </c>
       <c r="D9" s="45">
-        <v>106502</v>
+        <v>108797</v>
       </c>
       <c r="E9" s="45">
-        <v>12817</v>
+        <v>12878</v>
       </c>
       <c r="F9" s="45">
-        <v>54613</v>
+        <v>58610</v>
       </c>
       <c r="G9" s="45">
-        <v>2409</v>
+        <v>2709</v>
       </c>
       <c r="H9" s="45">
-        <v>77860</v>
+        <v>80463</v>
       </c>
       <c r="I9" s="45">
-        <v>70217</v>
+        <v>72657</v>
       </c>
       <c r="J9" s="45">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="K9" s="45">
-        <v>1106</v>
+        <v>1263</v>
       </c>
       <c r="L9" s="45">
         <v>1534</v>
       </c>
       <c r="M9" s="45">
-        <v>2104</v>
+        <v>1027</v>
       </c>
       <c r="N9" s="45">
-        <v>51608</v>
+        <v>52056</v>
       </c>
       <c r="O9" s="45">
-        <v>44008</v>
+        <v>44066</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>7586</v>
+        <v>7976</v>
       </c>
       <c r="R9" s="45">
-        <v>3073</v>
+        <v>0</v>
       </c>
       <c r="S9" s="45">
-        <v>2228</v>
+        <v>2237</v>
       </c>
       <c r="T9" s="45">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3212,73 +3206,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>455550</v>
+        <v>465249</v>
       </c>
       <c r="D10" s="46">
-        <v>288307</v>
+        <v>294035</v>
       </c>
       <c r="E10" s="46">
-        <v>47026</v>
+        <v>50954</v>
       </c>
       <c r="F10" s="46">
-        <v>120217</v>
+        <v>120260</v>
       </c>
       <c r="G10" s="46">
-        <v>6686</v>
+        <v>4713</v>
       </c>
       <c r="H10" s="46">
-        <v>145131</v>
+        <v>155469</v>
       </c>
       <c r="I10" s="46">
-        <v>135696</v>
+        <v>143216</v>
       </c>
       <c r="J10" s="46">
-        <v>7976</v>
+        <v>10427</v>
       </c>
       <c r="K10" s="46">
-        <v>628</v>
+        <v>995</v>
       </c>
       <c r="L10" s="46">
         <v>831</v>
       </c>
       <c r="M10" s="46">
-        <v>2851</v>
+        <v>4897</v>
       </c>
       <c r="N10" s="46">
-        <v>138955</v>
+        <v>139881</v>
       </c>
       <c r="O10" s="46">
-        <v>113893</v>
+        <v>114420</v>
       </c>
       <c r="P10" s="46">
         <v>1483</v>
       </c>
       <c r="Q10" s="46">
-        <v>23579</v>
+        <v>23978</v>
       </c>
       <c r="R10" s="46">
-        <v>8757</v>
+        <v>54</v>
       </c>
       <c r="S10" s="46">
-        <v>5333</v>
+        <v>5406</v>
       </c>
       <c r="T10" s="46">
-        <v>4882</v>
+        <v>4949</v>
       </c>
       <c r="U10" s="46">
         <v>9</v>
       </c>
       <c r="V10" s="46">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3286,73 +3280,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1494460</v>
+        <v>1541543</v>
       </c>
       <c r="D11" s="45">
-        <v>900585</v>
+        <v>935312</v>
       </c>
       <c r="E11" s="45">
-        <v>136228</v>
+        <v>146726</v>
       </c>
       <c r="F11" s="45">
-        <v>457647</v>
+        <v>459505</v>
       </c>
       <c r="G11" s="45">
-        <v>26214</v>
+        <v>22838</v>
       </c>
       <c r="H11" s="45">
-        <v>503175</v>
+        <v>511993</v>
       </c>
       <c r="I11" s="45">
-        <v>471031</v>
+        <v>476199</v>
       </c>
       <c r="J11" s="45">
-        <v>24430</v>
+        <v>25091</v>
       </c>
       <c r="K11" s="45">
-        <v>7714</v>
+        <v>10703</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>6134</v>
+        <v>4192</v>
       </c>
       <c r="N11" s="45">
-        <v>501782</v>
+        <v>506809</v>
       </c>
       <c r="O11" s="45">
-        <v>411215</v>
+        <v>412584</v>
       </c>
       <c r="P11" s="45">
         <v>111</v>
       </c>
       <c r="Q11" s="45">
-        <v>90456</v>
+        <v>94114</v>
       </c>
       <c r="R11" s="45">
-        <v>30237</v>
+        <v>517</v>
       </c>
       <c r="S11" s="45">
-        <v>22539</v>
+        <v>22757</v>
       </c>
       <c r="T11" s="45">
-        <v>21241</v>
+        <v>21345</v>
       </c>
       <c r="U11" s="45">
         <v>88</v>
       </c>
       <c r="V11" s="45">
-        <v>1167</v>
+        <v>1281</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3360,73 +3354,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>361154</v>
+        <v>363913</v>
       </c>
       <c r="D12" s="46">
-        <v>259787</v>
+        <v>261342</v>
       </c>
       <c r="E12" s="46">
-        <v>36018</v>
+        <v>37153</v>
       </c>
       <c r="F12" s="46">
-        <v>65349</v>
+        <v>65418</v>
       </c>
       <c r="G12" s="46">
-        <v>6452</v>
+        <v>8</v>
       </c>
       <c r="H12" s="46">
-        <v>126135</v>
+        <v>128969</v>
       </c>
       <c r="I12" s="46">
-        <v>116200</v>
+        <v>119001</v>
       </c>
       <c r="J12" s="46">
-        <v>9000</v>
+        <v>9005</v>
       </c>
       <c r="K12" s="46">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="L12" s="46">
         <v>164</v>
       </c>
       <c r="M12" s="46">
-        <v>3556</v>
+        <v>308</v>
       </c>
       <c r="N12" s="46">
-        <v>197841</v>
+        <v>198706</v>
       </c>
       <c r="O12" s="46">
-        <v>147552</v>
+        <v>147675</v>
       </c>
       <c r="P12" s="46">
         <v>74</v>
       </c>
       <c r="Q12" s="46">
-        <v>50215</v>
+        <v>50957</v>
       </c>
       <c r="R12" s="46">
-        <v>8004</v>
+        <v>83</v>
       </c>
       <c r="S12" s="46">
-        <v>9962</v>
+        <v>10027</v>
       </c>
       <c r="T12" s="46">
-        <v>9043</v>
+        <v>9065</v>
       </c>
       <c r="U12" s="46">
         <v>16</v>
       </c>
       <c r="V12" s="46">
-        <v>898</v>
+        <v>941</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3434,147 +3428,147 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>1958928</v>
+        <v>1987772</v>
       </c>
       <c r="D13" s="45">
-        <v>1144001</v>
+        <v>1163306</v>
       </c>
       <c r="E13" s="45">
-        <v>186747</v>
+        <v>188069</v>
       </c>
       <c r="F13" s="45">
-        <v>628180</v>
+        <v>636397</v>
       </c>
       <c r="G13" s="45">
-        <v>32608</v>
+        <v>8247</v>
       </c>
       <c r="H13" s="45">
-        <v>610116</v>
+        <v>624749</v>
       </c>
       <c r="I13" s="45">
-        <v>556350</v>
+        <v>565588</v>
       </c>
       <c r="J13" s="45">
-        <v>36696</v>
+        <v>39783</v>
       </c>
       <c r="K13" s="45">
-        <v>7633</v>
+        <v>9212</v>
       </c>
       <c r="L13" s="45">
-        <v>9437</v>
+        <v>10166</v>
       </c>
       <c r="M13" s="45">
-        <v>12536</v>
+        <v>3447</v>
       </c>
       <c r="N13" s="45">
-        <v>714393</v>
+        <v>722530</v>
       </c>
       <c r="O13" s="45">
-        <v>580798</v>
+        <v>582073</v>
       </c>
       <c r="P13" s="45">
         <v>436</v>
       </c>
       <c r="Q13" s="45">
-        <v>133159</v>
+        <v>140021</v>
       </c>
       <c r="R13" s="45">
-        <v>41611</v>
+        <v>2695</v>
       </c>
       <c r="S13" s="45">
-        <v>24556</v>
+        <v>24806</v>
       </c>
       <c r="T13" s="45">
-        <v>21244</v>
+        <v>21325</v>
       </c>
       <c r="U13" s="45">
         <v>460</v>
       </c>
       <c r="V13" s="45">
-        <v>2852</v>
+        <v>3021</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4358875</v>
+        <v>4446841</v>
       </c>
       <c r="D14" s="46">
-        <v>2928675</v>
+        <v>2992243</v>
       </c>
       <c r="E14" s="46">
-        <v>291658</v>
+        <v>314050</v>
       </c>
       <c r="F14" s="46">
-        <v>1138542</v>
+        <v>1140548</v>
       </c>
       <c r="G14" s="46">
-        <v>45164</v>
+        <v>42536</v>
       </c>
       <c r="H14" s="46">
-        <v>1449168</v>
+        <v>1480183</v>
       </c>
       <c r="I14" s="46">
-        <v>1354598</v>
+        <v>1382666</v>
       </c>
       <c r="J14" s="46">
-        <v>79146</v>
+        <v>79588</v>
       </c>
       <c r="K14" s="46">
-        <v>13990</v>
+        <v>16379</v>
       </c>
       <c r="L14" s="46">
-        <v>1434</v>
+        <v>1550</v>
       </c>
       <c r="M14" s="46">
-        <v>15330</v>
+        <v>14526</v>
       </c>
       <c r="N14" s="46">
-        <v>1743969</v>
+        <v>1763234</v>
       </c>
       <c r="O14" s="46">
-        <v>1340294</v>
+        <v>1345985</v>
       </c>
       <c r="P14" s="46">
-        <v>4038</v>
+        <v>4777</v>
       </c>
       <c r="Q14" s="46">
-        <v>399637</v>
+        <v>412472</v>
       </c>
       <c r="R14" s="46">
-        <v>98368</v>
+        <v>3003</v>
       </c>
       <c r="S14" s="46">
-        <v>55604</v>
+        <v>56741</v>
       </c>
       <c r="T14" s="46">
-        <v>49391</v>
+        <v>50002</v>
       </c>
       <c r="U14" s="46">
-        <v>883</v>
+        <v>1008</v>
       </c>
       <c r="V14" s="46">
-        <v>5316</v>
+        <v>5689</v>
       </c>
       <c r="W14" s="46">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="X14" s="46">
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3582,73 +3576,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>934043</v>
+        <v>943167</v>
       </c>
       <c r="D15" s="45">
-        <v>616093</v>
+        <v>620562</v>
       </c>
       <c r="E15" s="45">
-        <v>55245</v>
+        <v>59843</v>
       </c>
       <c r="F15" s="45">
-        <v>262705</v>
+        <v>262762</v>
       </c>
       <c r="G15" s="45">
-        <v>4577</v>
+        <v>3895</v>
       </c>
       <c r="H15" s="45">
-        <v>425639</v>
+        <v>434740</v>
       </c>
       <c r="I15" s="45">
-        <v>379020</v>
+        <v>384234</v>
       </c>
       <c r="J15" s="45">
-        <v>28398</v>
+        <v>31066</v>
       </c>
       <c r="K15" s="45">
-        <v>18221</v>
+        <v>19440</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>14424</v>
+        <v>2145</v>
       </c>
       <c r="N15" s="45">
-        <v>341354</v>
+        <v>343705</v>
       </c>
       <c r="O15" s="45">
-        <v>287759</v>
+        <v>288288</v>
       </c>
       <c r="P15" s="45">
         <v>156</v>
       </c>
       <c r="Q15" s="45">
-        <v>53439</v>
+        <v>55261</v>
       </c>
       <c r="R15" s="45">
-        <v>19267</v>
+        <v>60</v>
       </c>
       <c r="S15" s="45">
-        <v>16445</v>
+        <v>16600</v>
       </c>
       <c r="T15" s="45">
-        <v>15955</v>
+        <v>16084</v>
       </c>
       <c r="U15" s="45">
         <v>20</v>
       </c>
       <c r="V15" s="45">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3656,55 +3650,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>267681</v>
+        <v>272954</v>
       </c>
       <c r="D16" s="46">
-        <v>202350</v>
+        <v>205552</v>
       </c>
       <c r="E16" s="46">
-        <v>23346</v>
+        <v>25379</v>
       </c>
       <c r="F16" s="46">
-        <v>41985</v>
+        <v>42023</v>
       </c>
       <c r="G16" s="46">
-        <v>4205</v>
+        <v>1022</v>
       </c>
       <c r="H16" s="46">
-        <v>91073</v>
+        <v>92065</v>
       </c>
       <c r="I16" s="46">
-        <v>82389</v>
+        <v>83246</v>
       </c>
       <c r="J16" s="46">
-        <v>7018</v>
+        <v>7035</v>
       </c>
       <c r="K16" s="46">
-        <v>1666</v>
+        <v>1784</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>1325</v>
+        <v>4</v>
       </c>
       <c r="N16" s="46">
-        <v>90553</v>
+        <v>90777</v>
       </c>
       <c r="O16" s="46">
-        <v>77042</v>
+        <v>77085</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>13432</v>
+        <v>13613</v>
       </c>
       <c r="R16" s="46">
-        <v>4677</v>
+        <v>6</v>
       </c>
       <c r="S16" s="46">
-        <v>3452</v>
+        <v>3469</v>
       </c>
       <c r="T16" s="46">
         <v>3097</v>
@@ -3713,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3730,73 +3724,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>854571</v>
+        <v>863609</v>
       </c>
       <c r="D17" s="45">
-        <v>607929</v>
+        <v>612837</v>
       </c>
       <c r="E17" s="45">
-        <v>68749</v>
+        <v>71925</v>
       </c>
       <c r="F17" s="45">
-        <v>177893</v>
+        <v>178847</v>
       </c>
       <c r="G17" s="45">
-        <v>6333</v>
+        <v>4976</v>
       </c>
       <c r="H17" s="45">
-        <v>447803</v>
+        <v>475897</v>
       </c>
       <c r="I17" s="45">
-        <v>414975</v>
+        <v>440475</v>
       </c>
       <c r="J17" s="45">
-        <v>31532</v>
+        <v>34026</v>
       </c>
       <c r="K17" s="45">
-        <v>1296</v>
+        <v>1396</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>12616</v>
+        <v>13547</v>
       </c>
       <c r="N17" s="45">
-        <v>309818</v>
+        <v>311043</v>
       </c>
       <c r="O17" s="45">
-        <v>227675</v>
+        <v>227856</v>
       </c>
       <c r="P17" s="45">
         <v>161</v>
       </c>
       <c r="Q17" s="45">
-        <v>81982</v>
+        <v>83026</v>
       </c>
       <c r="R17" s="45">
-        <v>11606</v>
+        <v>159</v>
       </c>
       <c r="S17" s="45">
-        <v>47159</v>
+        <v>47538</v>
       </c>
       <c r="T17" s="45">
-        <v>46447</v>
+        <v>46803</v>
       </c>
       <c r="U17" s="45">
         <v>30</v>
       </c>
       <c r="V17" s="45">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>5459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3804,73 +3798,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>513789</v>
+        <v>517041</v>
       </c>
       <c r="D18" s="47">
-        <v>338296</v>
+        <v>340085</v>
       </c>
       <c r="E18" s="47">
-        <v>46552</v>
+        <v>47834</v>
       </c>
       <c r="F18" s="47">
-        <v>128941</v>
+        <v>129122</v>
       </c>
       <c r="G18" s="47">
-        <v>6350</v>
+        <v>854</v>
       </c>
       <c r="H18" s="47">
-        <v>185639</v>
+        <v>193839</v>
       </c>
       <c r="I18" s="47">
-        <v>162696</v>
+        <v>168400</v>
       </c>
       <c r="J18" s="47">
-        <v>20108</v>
+        <v>21748</v>
       </c>
       <c r="K18" s="47">
-        <v>2835</v>
+        <v>3691</v>
       </c>
       <c r="L18" s="47">
         <v>0</v>
       </c>
       <c r="M18" s="47">
-        <v>4296</v>
+        <v>2781</v>
       </c>
       <c r="N18" s="46">
-        <v>191520</v>
+        <v>191818</v>
       </c>
       <c r="O18" s="46">
-        <v>162175</v>
+        <v>162237</v>
       </c>
       <c r="P18" s="46">
         <v>24</v>
       </c>
       <c r="Q18" s="46">
-        <v>29321</v>
+        <v>29557</v>
       </c>
       <c r="R18" s="46">
-        <v>7024</v>
+        <v>8</v>
       </c>
       <c r="S18" s="46">
-        <v>7858</v>
+        <v>7896</v>
       </c>
       <c r="T18" s="46">
-        <v>7235</v>
+        <v>7250</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3878,174 +3872,174 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>616083</v>
+        <v>623920</v>
       </c>
       <c r="D19" s="45">
-        <v>422974</v>
+        <v>429064</v>
       </c>
       <c r="E19" s="45">
-        <v>48334</v>
+        <v>50007</v>
       </c>
       <c r="F19" s="45">
-        <v>144775</v>
+        <v>144849</v>
       </c>
       <c r="G19" s="45">
-        <v>4081</v>
+        <v>3885</v>
       </c>
       <c r="H19" s="45">
-        <v>295934</v>
+        <v>308624</v>
       </c>
       <c r="I19" s="45">
-        <v>265718</v>
+        <v>275886</v>
       </c>
       <c r="J19" s="45">
-        <v>25091</v>
+        <v>26812</v>
       </c>
       <c r="K19" s="45">
-        <v>5125</v>
+        <v>5926</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>7912</v>
+        <v>6299</v>
       </c>
       <c r="N19" s="45">
-        <v>262580</v>
+        <v>265528</v>
       </c>
       <c r="O19" s="45">
-        <v>215432</v>
+        <v>216125</v>
       </c>
       <c r="P19" s="45">
-        <v>1580</v>
+        <v>1606</v>
       </c>
       <c r="Q19" s="45">
-        <v>45568</v>
+        <v>47797</v>
       </c>
       <c r="R19" s="45">
-        <v>13716</v>
+        <v>207</v>
       </c>
       <c r="S19" s="45">
-        <v>12428</v>
+        <v>12541</v>
       </c>
       <c r="T19" s="45">
-        <v>11364</v>
+        <v>11450</v>
       </c>
       <c r="U19" s="45">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V19" s="45">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>16</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>468308</v>
+        <v>479129</v>
       </c>
       <c r="D20" s="47">
-        <v>331148</v>
+        <v>331537</v>
       </c>
       <c r="E20" s="47">
-        <v>37434</v>
+        <v>38878</v>
       </c>
       <c r="F20" s="47">
-        <v>99726</v>
+        <v>108714</v>
       </c>
       <c r="G20" s="47">
-        <v>3796</v>
+        <v>4590</v>
       </c>
       <c r="H20" s="47">
-        <v>273226</v>
+        <v>274826</v>
       </c>
       <c r="I20" s="47">
-        <v>252836</v>
+        <v>254189</v>
       </c>
       <c r="J20" s="47">
-        <v>19854</v>
+        <v>19860</v>
       </c>
       <c r="K20" s="47">
-        <v>477</v>
+        <v>718</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>5744</v>
+        <v>100</v>
       </c>
       <c r="N20" s="47">
-        <v>158764</v>
+        <v>159279</v>
       </c>
       <c r="O20" s="46">
-        <v>135541</v>
+        <v>135621</v>
       </c>
       <c r="P20" s="46">
         <v>60</v>
       </c>
       <c r="Q20" s="46">
-        <v>23163</v>
+        <v>23598</v>
       </c>
       <c r="R20" s="46">
-        <v>5147</v>
+        <v>18</v>
       </c>
       <c r="S20" s="46">
-        <v>14867</v>
+        <v>15073</v>
       </c>
       <c r="T20" s="46">
-        <v>13552</v>
+        <v>13640</v>
       </c>
       <c r="U20" s="46">
         <v>3</v>
       </c>
       <c r="V20" s="46">
-        <v>1302</v>
+        <v>1420</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>70421</v>
+        <v>70435</v>
       </c>
       <c r="D21" s="45">
         <v>1245</v>
       </c>
       <c r="E21" s="45">
-        <v>51501</v>
+        <v>51515</v>
       </c>
       <c r="F21" s="45">
         <v>17675</v>
       </c>
       <c r="G21" s="45">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="H21" s="45">
-        <v>8153</v>
+        <v>8151</v>
       </c>
       <c r="I21" s="55">
         <v>2</v>
       </c>
       <c r="J21" s="55">
-        <v>7716</v>
+        <v>7714</v>
       </c>
       <c r="K21" s="55">
         <v>63</v>
@@ -4054,150 +4048,150 @@
         <v>372</v>
       </c>
       <c r="M21" s="55">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>19465745</v>
+        <v>19828774</v>
       </c>
       <c r="D22" s="57">
-        <v>12712989</v>
+        <v>12956319</v>
       </c>
       <c r="E22" s="57">
-        <v>1643149</v>
+        <v>1728217</v>
       </c>
       <c r="F22" s="57">
-        <v>5109607</v>
+        <v>5144238</v>
       </c>
       <c r="G22" s="57">
-        <v>224225</v>
+        <v>160667</v>
       </c>
       <c r="H22" s="57">
-        <v>7209213</v>
+        <v>7445557</v>
       </c>
       <c r="I22" s="57">
-        <v>6559745</v>
+        <v>6740793</v>
       </c>
       <c r="J22" s="57">
-        <v>509210</v>
+        <v>535980</v>
       </c>
       <c r="K22" s="57">
-        <v>122452</v>
+        <v>149070</v>
       </c>
       <c r="L22" s="57">
-        <v>17806</v>
+        <v>19714</v>
       </c>
       <c r="M22" s="57">
-        <v>145796</v>
+        <v>97085</v>
       </c>
       <c r="N22" s="57">
-        <v>7370867</v>
+        <v>7437584</v>
       </c>
       <c r="O22" s="57">
-        <v>5872468</v>
+        <v>5890826</v>
       </c>
       <c r="P22" s="57">
-        <v>9398</v>
+        <v>10177</v>
       </c>
       <c r="Q22" s="57">
-        <v>1489001</v>
+        <v>1536581</v>
       </c>
       <c r="R22" s="57">
-        <v>393289</v>
+        <v>10177</v>
       </c>
       <c r="S22" s="57">
-        <v>363015</v>
+        <v>367824</v>
       </c>
       <c r="T22" s="57">
-        <v>335127</v>
+        <v>338114</v>
       </c>
       <c r="U22" s="57">
-        <v>2595</v>
+        <v>2817</v>
       </c>
       <c r="V22" s="57">
-        <v>25166</v>
+        <v>26738</v>
       </c>
       <c r="W22" s="57">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="X22" s="57">
-        <v>50727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -4223,294 +4217,330 @@
     <mergeCell ref="X3:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="84" t="s">
         <v>79</v>
       </c>
+      <c r="C1" s="84" t="s">
+        <v>80</v>
+      </c>
       <c r="D1" s="66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="68">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="85">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>24463</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
       <c r="D2" s="45">
         <v>24463</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="70">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="86">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18342</v>
-      </c>
-      <c r="C3" s="71"/>
+        <v>18341</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
       <c r="D3" s="46">
-        <v>18342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="68">
+        <v>18341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="85">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
         <v>48960</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
       <c r="D4" s="45">
         <v>48960</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="70">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="86">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62536</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
       <c r="D5" s="46">
         <v>62536</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="68">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="85">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>49956</v>
-      </c>
-      <c r="C6" s="69"/>
+        <v>49955</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
       <c r="D6" s="45">
-        <v>49956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="70">
+        <v>49955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>19274</v>
-      </c>
-      <c r="C7" s="71"/>
+        <v>19272</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="46">
-        <v>19274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="68">
+        <v>19272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="85">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
         <v>52819</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
       <c r="D8" s="45">
         <v>52819</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="70">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>24205</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
       <c r="D9" s="46">
         <v>24205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="68">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="85">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48385</v>
-      </c>
-      <c r="C10" s="69"/>
+        <v>48384</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
       <c r="D10" s="45">
-        <v>48385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="70">
+        <v>48384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>54032</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
       <c r="D11" s="46">
         <v>54032</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="85">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62856</v>
-      </c>
-      <c r="C12" s="69"/>
+        <v>62854</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
       <c r="D12" s="45">
-        <v>62856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="70">
+        <v>62854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55856</v>
-      </c>
-      <c r="C13" s="71"/>
+        <v>55854</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
       <c r="D13" s="46">
-        <v>55856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="68">
+        <v>55854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="85">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>63163</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>63160</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <v>63163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="72">
+        <v>63160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="87">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
         <v>61328</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
         <v>61328</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="68">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="85">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35353</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="45">
         <v>35353</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="72">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="87">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67632</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
       <c r="D17" s="47">
         <v>67632</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="68">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="85">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82736</v>
-      </c>
-      <c r="C18" s="69"/>
+        <v>82735</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
       <c r="D18" s="45">
-        <v>82736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="70">
+        <v>82735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="86">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111383</v>
-      </c>
-      <c r="C19" s="71"/>
+        <v>111382</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
       <c r="D19" s="46">
-        <v>111383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="68">
+        <v>111382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="85">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82525</v>
-      </c>
-      <c r="C20" s="69"/>
+        <v>82524</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
       <c r="D20" s="45">
-        <v>82525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="70">
+        <v>82524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>91063</v>
+        <v>91060</v>
       </c>
       <c r="C21" s="46">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D21" s="46">
-        <v>91665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+        <v>91661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="85">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56634</v>
+        <v>56632</v>
       </c>
       <c r="C22" s="45">
         <v>899</v>
       </c>
       <c r="D22" s="45">
-        <v>57533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="70">
+        <v>57531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4523,120 +4553,120 @@
         <v>48519</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="68">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="85">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66535</v>
+        <v>66534</v>
       </c>
       <c r="C24" s="45">
         <v>15730</v>
       </c>
       <c r="D24" s="45">
-        <v>82265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="70">
+        <v>82264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>81776</v>
+        <v>81777</v>
       </c>
       <c r="C25" s="46">
-        <v>33442</v>
+        <v>33441</v>
       </c>
       <c r="D25" s="46">
         <v>115218</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="68">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="85">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80693</v>
+        <v>80692</v>
       </c>
       <c r="C26" s="45">
-        <v>51649</v>
+        <v>51648</v>
       </c>
       <c r="D26" s="45">
-        <v>132342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="70">
+        <v>132340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="86">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>64215</v>
+        <v>64213</v>
       </c>
       <c r="C27" s="46">
         <v>40731</v>
       </c>
       <c r="D27" s="46">
-        <v>104946</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="68">
+        <v>104944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="85">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
         <v>67603</v>
       </c>
       <c r="C28" s="45">
-        <v>34701</v>
+        <v>34700</v>
       </c>
       <c r="D28" s="45">
-        <v>102304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="70">
+        <v>102303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="86">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40612</v>
+        <v>40611</v>
       </c>
       <c r="C29" s="46">
         <v>44937</v>
       </c>
       <c r="D29" s="46">
-        <v>85549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="68">
+        <v>85548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="85">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
         <v>25645</v>
       </c>
       <c r="C30" s="45">
-        <v>24384</v>
+        <v>24383</v>
       </c>
       <c r="D30" s="45">
-        <v>50029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="72">
+        <v>50028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="87">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
         <v>56059</v>
       </c>
       <c r="C31" s="47">
-        <v>38067</v>
+        <v>38066</v>
       </c>
       <c r="D31" s="47">
-        <v>94126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="68">
+        <v>94125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="85">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
@@ -4649,64 +4679,64 @@
         <v>99071</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="72">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="87">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
         <v>51384</v>
       </c>
       <c r="C33" s="47">
-        <v>59672</v>
+        <v>59670</v>
       </c>
       <c r="D33" s="47">
-        <v>111056</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="68">
+        <v>111054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="85">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45135</v>
       </c>
       <c r="C34" s="45">
-        <v>46414</v>
+        <v>46412</v>
       </c>
       <c r="D34" s="45">
-        <v>91549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="70">
+        <v>91547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="86">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51007</v>
+        <v>50965</v>
       </c>
       <c r="C35" s="46">
-        <v>57339</v>
+        <v>57338</v>
       </c>
       <c r="D35" s="46">
-        <v>108346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="68">
+        <v>108303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="85">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>35448</v>
+        <v>35447</v>
       </c>
       <c r="C36" s="45">
-        <v>52294</v>
+        <v>52291</v>
       </c>
       <c r="D36" s="45">
-        <v>87742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="70">
+        <v>87738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="86">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
@@ -4719,22 +4749,22 @@
         <v>58126</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="68">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="85">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
         <v>60049</v>
       </c>
       <c r="C38" s="45">
-        <v>61797</v>
+        <v>61798</v>
       </c>
       <c r="D38" s="45">
-        <v>121846</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="70">
+        <v>121847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="86">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
@@ -4747,36 +4777,36 @@
         <v>130941</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="68">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="85">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64578</v>
+        <v>64576</v>
       </c>
       <c r="C40" s="45">
-        <v>95164</v>
+        <v>95163</v>
       </c>
       <c r="D40" s="45">
-        <v>159742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="70">
+        <v>159739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="86">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61666</v>
+        <v>61665</v>
       </c>
       <c r="C41" s="46">
-        <v>70516</v>
+        <v>70515</v>
       </c>
       <c r="D41" s="46">
-        <v>132182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="68">
+        <v>132180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="85">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
@@ -4789,22 +4819,22 @@
         <v>145229</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="70">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="86">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
         <v>47107</v>
       </c>
       <c r="C43" s="46">
-        <v>53036</v>
+        <v>53035</v>
       </c>
       <c r="D43" s="46">
-        <v>100143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="68">
+        <v>100142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="85">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
@@ -4817,36 +4847,36 @@
         <v>54255</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="70">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="86">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53440</v>
+        <v>53437</v>
       </c>
       <c r="C45" s="46">
         <v>56700</v>
       </c>
       <c r="D45" s="46">
-        <v>110140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="68">
+        <v>110137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="85">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59234</v>
+        <v>59232</v>
       </c>
       <c r="C46" s="45">
         <v>74192</v>
       </c>
       <c r="D46" s="45">
-        <v>133426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="72">
+        <v>133424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="87">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
@@ -4859,414 +4889,414 @@
         <v>149917</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="68">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="85">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
         <v>74553</v>
       </c>
       <c r="C48" s="45">
-        <v>68384</v>
+        <v>68382</v>
       </c>
       <c r="D48" s="45">
-        <v>142937</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="72">
+        <v>142935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="87">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
         <v>80791</v>
       </c>
       <c r="C49" s="47">
-        <v>74963</v>
+        <v>74961</v>
       </c>
       <c r="D49" s="47">
-        <v>155754</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="68">
+        <v>155752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="85">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62174</v>
+        <v>62215</v>
       </c>
       <c r="C50" s="45">
-        <v>46110</v>
+        <v>46068</v>
       </c>
       <c r="D50" s="45">
-        <v>108284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="70">
+        <v>108283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="86">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
         <v>40021</v>
       </c>
       <c r="C51" s="46">
-        <v>25062</v>
+        <v>25063</v>
       </c>
       <c r="D51" s="46">
-        <v>65083</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="68">
+        <v>65084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="85">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71138</v>
+        <v>71140</v>
       </c>
       <c r="C52" s="45">
-        <v>55814</v>
+        <v>55813</v>
       </c>
       <c r="D52" s="45">
-        <v>126952</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="70">
+        <v>126953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="86">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81635</v>
+        <v>81633</v>
       </c>
       <c r="C53" s="46">
-        <v>53744</v>
+        <v>53743</v>
       </c>
       <c r="D53" s="46">
-        <v>135379</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="68">
+        <v>135376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="85">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>94205</v>
+        <v>94203</v>
       </c>
       <c r="C54" s="45">
-        <v>55747</v>
+        <v>55835</v>
       </c>
       <c r="D54" s="45">
-        <v>149952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="70">
+        <v>150038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="86">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
         <v>92147</v>
       </c>
       <c r="C55" s="46">
-        <v>51164</v>
+        <v>51163</v>
       </c>
       <c r="D55" s="46">
-        <v>143311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="68">
+        <v>143310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="85">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
         <v>99363</v>
       </c>
       <c r="C56" s="45">
-        <v>53867</v>
+        <v>53866</v>
       </c>
       <c r="D56" s="45">
-        <v>153230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="70">
+        <v>153229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="86">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76421</v>
+        <v>76426</v>
       </c>
       <c r="C57" s="46">
-        <v>37822</v>
+        <v>37821</v>
       </c>
       <c r="D57" s="46">
-        <v>114243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="68">
+        <v>114247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="85">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>56946</v>
+        <v>56943</v>
       </c>
       <c r="C58" s="45">
         <v>28992</v>
       </c>
       <c r="D58" s="45">
-        <v>85938</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="70">
+        <v>85935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="86">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100019</v>
+        <v>100017</v>
       </c>
       <c r="C59" s="46">
         <v>60442</v>
       </c>
       <c r="D59" s="46">
-        <v>160461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="68">
+        <v>160459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="85">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107154</v>
+        <v>107155</v>
       </c>
       <c r="C60" s="45">
-        <v>59696</v>
+        <v>59694</v>
       </c>
       <c r="D60" s="45">
-        <v>166850</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="70">
+        <v>166849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="86">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116153</v>
+        <v>116139</v>
       </c>
       <c r="C61" s="46">
         <v>59282</v>
       </c>
       <c r="D61" s="46">
-        <v>175435</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="68">
+        <v>175421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="85">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130299</v>
+        <v>130310</v>
       </c>
       <c r="C62" s="45">
-        <v>58426</v>
+        <v>58427</v>
       </c>
       <c r="D62" s="45">
-        <v>188725</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="72">
+        <v>188737</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="87">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144050</v>
+        <v>144061</v>
       </c>
       <c r="C63" s="47">
-        <v>65087</v>
+        <v>65086</v>
       </c>
       <c r="D63" s="47">
-        <v>209137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="68">
+        <v>209147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="85">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108523</v>
+        <v>108537</v>
       </c>
       <c r="C64" s="45">
-        <v>40155</v>
+        <v>40154</v>
       </c>
       <c r="D64" s="45">
-        <v>148678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="72">
+        <v>148691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="87">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83831</v>
+        <v>83829</v>
       </c>
       <c r="C65" s="47">
         <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="68">
+        <v>108120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="85">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146249</v>
+        <v>146245</v>
       </c>
       <c r="C66" s="45">
         <v>49298</v>
       </c>
       <c r="D66" s="45">
-        <v>195547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="70">
+        <v>195543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="86">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166124</v>
+        <v>166120</v>
       </c>
       <c r="C67" s="46">
-        <v>53620</v>
+        <v>53621</v>
       </c>
       <c r="D67" s="46">
-        <v>219744</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="68">
+        <v>219741</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="85">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174641</v>
+        <v>174648</v>
       </c>
       <c r="C68" s="45">
-        <v>68953</v>
+        <v>68950</v>
       </c>
       <c r="D68" s="45">
-        <v>243594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="70">
+        <v>243598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="86">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180362</v>
+        <v>180361</v>
       </c>
       <c r="C69" s="46">
         <v>62654</v>
       </c>
       <c r="D69" s="46">
-        <v>243016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="68">
+        <v>243015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="85">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201429</v>
+        <v>201433</v>
       </c>
       <c r="C70" s="45">
         <v>67393</v>
       </c>
       <c r="D70" s="45">
-        <v>268822</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="70">
+        <v>268826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="86">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153079</v>
+        <v>153124</v>
       </c>
       <c r="C71" s="46">
         <v>49297</v>
       </c>
       <c r="D71" s="46">
-        <v>202376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="68">
+        <v>202421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="85">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115881</v>
+        <v>115886</v>
       </c>
       <c r="C72" s="45">
-        <v>34462</v>
+        <v>34461</v>
       </c>
       <c r="D72" s="45">
-        <v>150343</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="70">
+        <v>150347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="86">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186374</v>
+        <v>186378</v>
       </c>
       <c r="C73" s="46">
-        <v>52475</v>
+        <v>52474</v>
       </c>
       <c r="D73" s="46">
-        <v>238849</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="68">
+        <v>238852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="85">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195343</v>
+        <v>195344</v>
       </c>
       <c r="C74" s="45">
-        <v>54771</v>
+        <v>54770</v>
       </c>
       <c r="D74" s="45">
         <v>250114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="70">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="86">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217656</v>
+        <v>217654</v>
       </c>
       <c r="C75" s="46">
-        <v>65649</v>
+        <v>65645</v>
       </c>
       <c r="D75" s="46">
-        <v>283305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="68">
+        <v>283299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="85">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220530</v>
+        <v>220528</v>
       </c>
       <c r="C76" s="45">
-        <v>60913</v>
+        <v>60912</v>
       </c>
       <c r="D76" s="45">
-        <v>281443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="70">
+        <v>281440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="86">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
@@ -5279,829 +5309,851 @@
         <v>323588</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="68">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="85">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197011</v>
+        <v>197021</v>
       </c>
       <c r="C78" s="45">
         <v>49454</v>
       </c>
       <c r="D78" s="45">
-        <v>246465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="72">
+        <v>246475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="87">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135198</v>
+        <v>135196</v>
       </c>
       <c r="C79" s="47">
         <v>35997</v>
       </c>
       <c r="D79" s="47">
-        <v>171195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="68">
+        <v>171193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="85">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189296</v>
+        <v>189298</v>
       </c>
       <c r="C80" s="45">
-        <v>58860</v>
+        <v>58858</v>
       </c>
       <c r="D80" s="45">
         <v>248156</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="72">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="87">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
         <v>112089</v>
       </c>
       <c r="C81" s="47">
-        <v>67024</v>
+        <v>67021</v>
       </c>
       <c r="D81" s="47">
-        <v>179113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="68">
+        <v>179110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="85">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125593</v>
+        <v>125596</v>
       </c>
       <c r="C82" s="45">
         <v>79473</v>
       </c>
       <c r="D82" s="45">
-        <v>205066</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="70">
+        <v>205069</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="86">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119282</v>
+        <v>119283</v>
       </c>
       <c r="C83" s="46">
-        <v>75472</v>
+        <v>75484</v>
       </c>
       <c r="D83" s="46">
-        <v>194754</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="68">
+        <v>194767</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="85">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
         <v>160836</v>
       </c>
       <c r="C84" s="45">
-        <v>82780</v>
+        <v>82778</v>
       </c>
       <c r="D84" s="45">
-        <v>243616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="70">
+        <v>243614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="86">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166282</v>
+        <v>166281</v>
       </c>
       <c r="C85" s="46">
-        <v>53897</v>
+        <v>53895</v>
       </c>
       <c r="D85" s="46">
-        <v>220179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="68">
+        <v>220176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="85">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127294</v>
+        <v>127296</v>
       </c>
       <c r="C86" s="45">
-        <v>38779</v>
+        <v>38778</v>
       </c>
       <c r="D86" s="45">
-        <v>166073</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="70">
+        <v>166074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="86">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189910</v>
+        <v>189908</v>
       </c>
       <c r="C87" s="46">
-        <v>76150</v>
+        <v>76151</v>
       </c>
       <c r="D87" s="46">
-        <v>266060</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="68">
+        <v>266059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="85">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>213970</v>
+        <v>213967</v>
       </c>
       <c r="C88" s="45">
-        <v>83736</v>
+        <v>83735</v>
       </c>
       <c r="D88" s="45">
-        <v>297706</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="70">
+        <v>297702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="86">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245725</v>
+        <v>245728</v>
       </c>
       <c r="C89" s="46">
-        <v>88250</v>
+        <v>88247</v>
       </c>
       <c r="D89" s="46">
         <v>333975</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="68">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="85">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257092</v>
+        <v>257096</v>
       </c>
       <c r="C90" s="45">
-        <v>80123</v>
+        <v>80125</v>
       </c>
       <c r="D90" s="45">
-        <v>337215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="70">
+        <v>337221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="86">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285825</v>
+        <v>285832</v>
       </c>
       <c r="C91" s="46">
         <v>88753</v>
       </c>
       <c r="D91" s="46">
-        <v>374578</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="68">
+        <v>374585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="85">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223515</v>
+        <v>223529</v>
       </c>
       <c r="C92" s="45">
-        <v>63192</v>
+        <v>63185</v>
       </c>
       <c r="D92" s="45">
-        <v>286707</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="70">
+        <v>286714</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="86">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144119</v>
+        <v>144137</v>
       </c>
       <c r="C93" s="46">
-        <v>52755</v>
+        <v>52747</v>
       </c>
       <c r="D93" s="46">
-        <v>196874</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="68">
+        <v>196884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="85">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219349</v>
+        <v>219347</v>
       </c>
       <c r="C94" s="45">
-        <v>89038</v>
+        <v>89033</v>
       </c>
       <c r="D94" s="45">
-        <v>308387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="72">
+        <v>308380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="87">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234610</v>
+        <v>234609</v>
       </c>
       <c r="C95" s="47">
-        <v>93366</v>
+        <v>93362</v>
       </c>
       <c r="D95" s="47">
-        <v>327976</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="68">
+        <v>327971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="85">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238041</v>
+        <v>238100</v>
       </c>
       <c r="C96" s="45">
         <v>103074</v>
       </c>
       <c r="D96" s="45">
-        <v>341115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="72">
+        <v>341174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="87">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>230812</v>
+        <v>230925</v>
       </c>
       <c r="C97" s="47">
-        <v>92413</v>
+        <v>92421</v>
       </c>
       <c r="D97" s="47">
-        <v>323225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="68">
+        <v>323346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="85">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158087</v>
+        <v>158220</v>
       </c>
       <c r="C98" s="45">
-        <v>71618</v>
+        <v>71614</v>
       </c>
       <c r="D98" s="45">
-        <v>229705</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="70">
+        <v>229834</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="86">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165700</v>
+        <v>165784</v>
       </c>
       <c r="C99" s="46">
-        <v>66037</v>
+        <v>66036</v>
       </c>
       <c r="D99" s="46">
-        <v>231737</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="68">
+        <v>231820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="85">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142488</v>
+        <v>142496</v>
       </c>
       <c r="C100" s="45">
-        <v>53580</v>
+        <v>53571</v>
       </c>
       <c r="D100" s="45">
-        <v>196068</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="70">
+        <v>196067</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="86">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176134</v>
+        <v>176140</v>
       </c>
       <c r="C101" s="46">
-        <v>73423</v>
+        <v>73419</v>
       </c>
       <c r="D101" s="46">
-        <v>249557</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="68">
+        <v>249559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="85">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>278991</v>
+        <v>278992</v>
       </c>
       <c r="C102" s="45">
-        <v>99156</v>
+        <v>99154</v>
       </c>
       <c r="D102" s="45">
-        <v>378147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="70">
+        <v>378146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="86">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580246</v>
+        <v>580266</v>
       </c>
       <c r="C103" s="46">
-        <v>97118</v>
+        <v>97115</v>
       </c>
       <c r="D103" s="46">
-        <v>677364</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="68">
+        <v>677381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="85">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642888</v>
+        <v>642901</v>
       </c>
       <c r="C104" s="45">
-        <v>89761</v>
+        <v>89759</v>
       </c>
       <c r="D104" s="45">
-        <v>732649</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="70">
+        <v>732660</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="86">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534559</v>
+        <v>534568</v>
       </c>
       <c r="C105" s="46">
-        <v>88353</v>
+        <v>88350</v>
       </c>
       <c r="D105" s="46">
-        <v>622912</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="68">
+        <v>622918</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="85">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302935</v>
+        <v>302946</v>
       </c>
       <c r="C106" s="45">
-        <v>65475</v>
+        <v>65472</v>
       </c>
       <c r="D106" s="45">
-        <v>368410</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="70">
+        <v>368418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="86">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210480</v>
+        <v>210486</v>
       </c>
       <c r="C107" s="46">
-        <v>50097</v>
+        <v>50096</v>
       </c>
       <c r="D107" s="46">
-        <v>260577</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="68">
+        <v>260582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="85">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338538</v>
+        <v>338550</v>
       </c>
       <c r="C108" s="45">
-        <v>76827</v>
+        <v>76825</v>
       </c>
       <c r="D108" s="45">
-        <v>415365</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="70">
+        <v>415375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="86">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497554</v>
+        <v>497556</v>
       </c>
       <c r="C109" s="46">
-        <v>73405</v>
+        <v>73403</v>
       </c>
       <c r="D109" s="46">
         <v>570959</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="68">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="85">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690279</v>
+        <v>690286</v>
       </c>
       <c r="C110" s="45">
         <v>83386</v>
       </c>
       <c r="D110" s="45">
-        <v>773665</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="72">
+        <v>773672</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="87">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608432</v>
+        <v>608437</v>
       </c>
       <c r="C111" s="47">
-        <v>70767</v>
+        <v>70774</v>
       </c>
       <c r="D111" s="47">
-        <v>679199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="68">
+        <v>679211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="85">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517777</v>
+        <v>517782</v>
       </c>
       <c r="C112" s="45">
-        <v>75332</v>
+        <v>75352</v>
       </c>
       <c r="D112" s="45">
-        <v>593109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="72">
+        <v>593134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="87">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305666</v>
+        <v>305698</v>
       </c>
       <c r="C113" s="47">
-        <v>55806</v>
+        <v>56281</v>
       </c>
       <c r="D113" s="47">
-        <v>361472</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="68">
+        <v>361979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="85">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226915</v>
+        <v>226951</v>
       </c>
       <c r="C114" s="45">
-        <v>38975</v>
+        <v>39225</v>
       </c>
       <c r="D114" s="45">
-        <v>265890</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="70">
+        <v>266176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="86">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338004</v>
+        <v>338041</v>
       </c>
       <c r="C115" s="46">
-        <v>60620</v>
+        <v>60615</v>
       </c>
       <c r="D115" s="46">
-        <v>398624</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="68">
+        <v>398656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="85">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493327</v>
+        <v>493424</v>
       </c>
       <c r="C116" s="45">
-        <v>61257</v>
+        <v>61263</v>
       </c>
       <c r="D116" s="45">
-        <v>554584</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="70">
+        <v>554687</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="86">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641282</v>
+        <v>641288</v>
       </c>
       <c r="C117" s="46">
-        <v>71412</v>
+        <v>71407</v>
       </c>
       <c r="D117" s="46">
-        <v>712694</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="68">
+        <v>712695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="85">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567436</v>
+        <v>567440</v>
       </c>
       <c r="C118" s="45">
-        <v>65647</v>
+        <v>65644</v>
       </c>
       <c r="D118" s="45">
-        <v>633083</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="70">
+        <v>633084</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="86">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>482821</v>
+        <v>482841</v>
       </c>
       <c r="C119" s="46">
-        <v>67113</v>
+        <v>67114</v>
       </c>
       <c r="D119" s="46">
-        <v>549934</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="68">
+        <v>549955</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="85">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>308741</v>
+        <v>308746</v>
       </c>
       <c r="C120" s="45">
         <v>59503</v>
       </c>
       <c r="D120" s="45">
-        <v>368244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="70">
+        <v>368249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="86">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235456</v>
+        <v>235461</v>
       </c>
       <c r="C121" s="46">
-        <v>47552</v>
+        <v>47554</v>
       </c>
       <c r="D121" s="46">
-        <v>283008</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="68">
+        <v>283015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="85">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354194</v>
+        <v>354197</v>
       </c>
       <c r="C122" s="45">
         <v>72812</v>
       </c>
       <c r="D122" s="45">
-        <v>427006</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="70">
+        <v>427009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="86">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693119</v>
+        <v>693113</v>
       </c>
       <c r="C123" s="46">
-        <v>89827</v>
+        <v>89829</v>
       </c>
       <c r="D123" s="46">
-        <v>782946</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="68">
+        <v>782942</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="85">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>992089</v>
+        <v>992136</v>
       </c>
       <c r="C124" s="45">
         <v>125824</v>
       </c>
       <c r="D124" s="45">
-        <v>1117913</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="70">
+        <v>1117960</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="86">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>806786</v>
+        <v>806808</v>
       </c>
       <c r="C125" s="46">
-        <v>130498</v>
+        <v>130503</v>
       </c>
       <c r="D125" s="46">
-        <v>937284</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="68">
+        <v>937311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="85">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>660350</v>
+        <v>660353</v>
       </c>
       <c r="C126" s="45">
-        <v>136340</v>
+        <v>136351</v>
       </c>
       <c r="D126" s="45">
-        <v>796690</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="70">
+        <v>796704</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="86">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>257397</v>
+        <v>257461</v>
       </c>
       <c r="C127" s="46">
-        <v>75637</v>
+        <v>75651</v>
       </c>
       <c r="D127" s="46">
-        <v>333034</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="68">
+        <v>333112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="85">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>194684</v>
+        <v>194726</v>
       </c>
       <c r="C128" s="45">
-        <v>67325</v>
+        <v>67326</v>
       </c>
       <c r="D128" s="45">
-        <v>262009</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="70">
+        <v>262052</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="86">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>331610</v>
+        <v>331642</v>
       </c>
       <c r="C129" s="46">
-        <v>114165</v>
+        <v>114182</v>
       </c>
       <c r="D129" s="46">
-        <v>445775</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="68">
+        <v>445824</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="85">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>674995</v>
+        <v>675031</v>
       </c>
       <c r="C130" s="45">
-        <v>158270</v>
+        <v>158317</v>
       </c>
       <c r="D130" s="45">
-        <v>833265</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="70">
+        <v>833348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="86">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>898480</v>
+        <v>898486</v>
       </c>
       <c r="C131" s="46">
-        <v>217406</v>
+        <v>217486</v>
       </c>
       <c r="D131" s="46">
-        <v>1115886</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="68">
+        <v>1115972</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="85">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>737564</v>
+        <v>737613</v>
       </c>
       <c r="C132" s="45">
-        <v>204915</v>
+        <v>205026</v>
       </c>
       <c r="D132" s="45">
-        <v>942479</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="70">
+        <v>942639</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="86">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>617514</v>
+        <v>619589</v>
       </c>
       <c r="C133" s="46">
-        <v>196523</v>
+        <v>198839</v>
       </c>
       <c r="D133" s="46">
-        <v>814037</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="68"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="70" t="s">
+        <v>818428</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="85">
+        <v>44324</v>
+      </c>
+      <c r="B134" s="45">
+        <v>255702</v>
+      </c>
+      <c r="C134" s="45">
+        <v>139902</v>
+      </c>
+      <c r="D134" s="45">
+        <v>395604</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="86">
+        <v>44325</v>
+      </c>
+      <c r="B135" s="46">
+        <v>170844</v>
+      </c>
+      <c r="C135" s="46">
+        <v>97943</v>
+      </c>
+      <c r="D135" s="46">
+        <v>268787</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="85"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="46">
-        <v>26836612</v>
-      </c>
-      <c r="C135" s="46">
-        <v>7572228</v>
-      </c>
-      <c r="D135" s="46">
-        <v>34408840</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="74"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="74"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
+      <c r="B137" s="46">
+        <v>27266358</v>
+      </c>
+      <c r="C137" s="46">
+        <v>7813381</v>
+      </c>
+      <c r="D137" s="46">
+        <v>35079739</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="88"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="88"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" s="88"/>
+      <c r="C139" s="88"/>
+      <c r="D139" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,29 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63868C3B-0D4B-4822-ADB9-EA149522E4EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF22DE-585C-44AE-BA7C-521C7EEFCBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_09.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_09.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_10.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_10.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_09.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_09.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_10.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_10.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>Bayern</t>
   </si>
@@ -242,24 +242,21 @@
     <t>Thüringen</t>
   </si>
   <si>
-    <t>Datenstand: 10.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 09.05.21 durchgeführt und bis zum 10.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 09.05.21 (Impfquote_bis_einschl_09.05.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 09.05.21 (Impfstoff_bis_einschl_09.05.21)</t>
-  </si>
-  <si>
     <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Eine Impfquote kann aufgrund einer fehlenden Nennerpopulation nicht berechnet werden, die Impfungen gehen allerdings in die Berechnung der Impfquote für Gesamtdeutschland mit ein.</t>
   </si>
   <si>
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 10.05.21 (Impfquote_bis_einschl_10.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.05.21 durchgeführt und bis zum 11.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 10.05.21 (Impfstoff_bis_einschl_10.05.21)</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -275,7 +272,10 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1900.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2307.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+  </si>
+  <si>
+    <t>Datenstand: 11.05.2021, 11:00 Uhr</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +371,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,7 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -713,6 +720,28 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,6 +763,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,31 +793,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{B797BBD4-588A-432F-99CA-840AA723A419}"/>
@@ -1127,9 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1149,7 +1163,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1166,7 +1180,7 @@
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,7 +1198,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1265,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,102 +1290,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="73"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1423,55 +1437,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>4562026</v>
+        <v>4634755</v>
       </c>
       <c r="D5" s="32">
-        <v>3567730</v>
+        <v>3614700</v>
       </c>
       <c r="E5" s="32">
-        <v>994296</v>
+        <v>1020055</v>
       </c>
       <c r="F5" s="33">
-        <v>32.140570866223307</v>
+        <v>32.563708999878742</v>
       </c>
       <c r="G5" s="33">
-        <v>18.789251238235256</v>
+        <v>19.21538553664336</v>
       </c>
       <c r="H5" s="33">
-        <v>68.291131775548124</v>
+        <v>68.761509820373092</v>
       </c>
       <c r="I5" s="33">
-        <v>8.9573036776892785</v>
+        <v>9.1893585038513059</v>
       </c>
       <c r="J5" s="33">
-        <v>3.9437968473577953</v>
+        <v>4.1136591413538666</v>
       </c>
       <c r="K5" s="33">
-        <v>22.517129025253922</v>
+        <v>22.862926248689856</v>
       </c>
       <c r="L5" s="32">
-        <v>1220034</v>
+        <v>1246017</v>
       </c>
       <c r="M5" s="32">
-        <v>1447229</v>
+        <v>1454695</v>
       </c>
       <c r="N5" s="32">
-        <v>300591</v>
+        <v>313536</v>
       </c>
       <c r="O5" s="32">
-        <v>636838</v>
+        <v>645781</v>
       </c>
       <c r="P5" s="34">
-        <v>304899</v>
+        <v>313501</v>
       </c>
       <c r="Q5" s="34">
-        <v>590857</v>
+        <v>597429</v>
       </c>
       <c r="R5" s="34">
-        <v>19487</v>
+        <v>20328</v>
       </c>
       <c r="S5" s="34">
-        <v>35165</v>
+        <v>36542</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1482,55 +1496,55 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5556630</v>
+        <v>5649046</v>
       </c>
       <c r="D6" s="13">
-        <v>4381270</v>
+        <v>4446626</v>
       </c>
       <c r="E6" s="13">
-        <v>1175360</v>
+        <v>1202420</v>
       </c>
       <c r="F6" s="14">
-        <v>33.381773669064756</v>
+        <v>33.879734123434247</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="14">
-        <v>8.9553032567433544</v>
+        <v>9.1614788166802885</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="17">
-        <v>495460</v>
+        <v>514093</v>
       </c>
       <c r="Q6" s="18">
-        <v>732314</v>
+        <v>742183</v>
       </c>
       <c r="R6" s="17">
-        <v>21115</v>
+        <v>22543</v>
       </c>
       <c r="S6" s="18">
-        <v>23391</v>
+        <v>24873</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1541,55 +1555,55 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1497579</v>
+        <v>1522301</v>
       </c>
       <c r="D7" s="37">
-        <v>1090630</v>
+        <v>1108113</v>
       </c>
       <c r="E7" s="37">
-        <v>406949</v>
+        <v>414188</v>
       </c>
       <c r="F7" s="38">
-        <v>29.721560837729267</v>
+        <v>30.198002938282176</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="38">
-        <v>11.090066714974911</v>
+        <v>11.287342031905787</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="41">
-        <v>197501</v>
+        <v>205576</v>
       </c>
       <c r="Q7" s="41">
-        <v>107203</v>
+        <v>109092</v>
       </c>
       <c r="R7" s="41">
-        <v>10701</v>
+        <v>11496</v>
       </c>
       <c r="S7" s="41">
-        <v>6964</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1600,55 +1614,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>967221</v>
+        <v>986534</v>
       </c>
       <c r="D8" s="13">
-        <v>725504</v>
+        <v>735705</v>
       </c>
       <c r="E8" s="13">
-        <v>241717</v>
+        <v>250829</v>
       </c>
       <c r="F8" s="14">
-        <v>28.768230848810795</v>
+        <v>29.172728581268121</v>
       </c>
       <c r="G8" s="44">
-        <v>15.167736633694998</v>
+        <v>15.502008887500526</v>
       </c>
       <c r="H8" s="44">
-        <v>55.52164722348477</v>
+        <v>56.122858785023574</v>
       </c>
       <c r="I8" s="44">
-        <v>9.5847444756775957</v>
+        <v>9.9460603602135382</v>
       </c>
       <c r="J8" s="63">
-        <v>4.4906075413003723</v>
+        <v>4.7263138526563404</v>
       </c>
       <c r="K8" s="44">
-        <v>19.915493702910105</v>
+        <v>20.478107482198126</v>
       </c>
       <c r="L8" s="17">
-        <v>183275</v>
+        <v>185533</v>
       </c>
       <c r="M8" s="18">
-        <v>287192</v>
+        <v>288785</v>
       </c>
       <c r="N8" s="17">
-        <v>67766</v>
+        <v>71079</v>
       </c>
       <c r="O8" s="18">
-        <v>148057</v>
+        <v>152237</v>
       </c>
       <c r="P8" s="17">
-        <v>73096</v>
+        <v>76488</v>
       </c>
       <c r="Q8" s="18">
-        <v>174556</v>
+        <v>177963</v>
       </c>
       <c r="R8" s="17">
-        <v>8136</v>
+        <v>8807</v>
       </c>
       <c r="S8" s="18">
-        <v>17571</v>
+        <v>18070</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1659,55 +1673,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>315041</v>
+        <v>320235</v>
       </c>
       <c r="D9" s="37">
-        <v>232341</v>
+        <v>235218</v>
       </c>
       <c r="E9" s="37">
-        <v>82700</v>
+        <v>85017</v>
       </c>
       <c r="F9" s="38">
-        <v>34.107504088361459</v>
+        <v>34.529845772619581</v>
       </c>
       <c r="G9" s="64">
-        <v>18.05223349925658</v>
+        <v>18.444752408041889</v>
       </c>
       <c r="H9" s="64">
-        <v>77.614208835945306</v>
+        <v>78.127114729797952</v>
       </c>
       <c r="I9" s="64">
-        <v>12.14030493157683</v>
+        <v>12.480438988728746</v>
       </c>
       <c r="J9" s="64">
-        <v>4.2413455944146357</v>
+        <v>4.3779090438942401</v>
       </c>
       <c r="K9" s="64">
-        <v>32.317367906592047</v>
+        <v>33.187428166321148</v>
       </c>
       <c r="L9" s="42">
-        <v>64502</v>
+        <v>65914</v>
       </c>
       <c r="M9" s="42">
-        <v>117315</v>
+        <v>118005</v>
       </c>
       <c r="N9" s="42">
-        <v>19942</v>
+        <v>20589</v>
       </c>
       <c r="O9" s="42">
-        <v>58989</v>
+        <v>60545</v>
       </c>
       <c r="P9" s="42">
-        <v>24858</v>
+        <v>25389</v>
       </c>
       <c r="Q9" s="42">
-        <v>27198</v>
+        <v>27463</v>
       </c>
       <c r="R9" s="42">
-        <v>1053</v>
+        <v>1082</v>
       </c>
       <c r="S9" s="42">
-        <v>1184</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1718,55 +1732,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>766005</v>
+        <v>777189</v>
       </c>
       <c r="D10" s="13">
-        <v>605130</v>
+        <v>612767</v>
       </c>
       <c r="E10" s="13">
-        <v>160875</v>
+        <v>164422</v>
       </c>
       <c r="F10" s="14">
-        <v>32.758371484577367</v>
+        <v>33.171796175185534</v>
       </c>
       <c r="G10" s="44">
-        <v>21.518629914015783</v>
+        <v>21.978627790948657</v>
       </c>
       <c r="H10" s="44">
-        <v>69.292013182773957</v>
+        <v>69.553872267119303</v>
       </c>
       <c r="I10" s="44">
-        <v>8.7088774520869627</v>
+        <v>8.9008922979147957</v>
       </c>
       <c r="J10" s="44">
-        <v>4.5896465093238037</v>
+        <v>4.7329535402144298</v>
       </c>
       <c r="K10" s="44">
-        <v>21.92384668000912</v>
+        <v>22.274373967936654</v>
       </c>
       <c r="L10" s="18">
-        <v>245246</v>
+        <v>249926</v>
       </c>
       <c r="M10" s="18">
-        <v>220834</v>
+        <v>221214</v>
       </c>
       <c r="N10" s="18">
-        <v>62376</v>
+        <v>64243</v>
       </c>
       <c r="O10" s="18">
-        <v>92262</v>
+        <v>93696</v>
       </c>
       <c r="P10" s="18">
-        <v>58823</v>
+        <v>60643</v>
       </c>
       <c r="Q10" s="18">
-        <v>80034</v>
+        <v>80791</v>
       </c>
       <c r="R10" s="18">
-        <v>2478</v>
+        <v>2636</v>
       </c>
       <c r="S10" s="18">
-        <v>2932</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1777,55 +1791,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2583102</v>
+        <v>2636773</v>
       </c>
       <c r="D11" s="37">
-        <v>2048352</v>
+        <v>2085444</v>
       </c>
       <c r="E11" s="37">
-        <v>534750</v>
+        <v>551329</v>
       </c>
       <c r="F11" s="38">
-        <v>32.575158076869251</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>77</v>
+        <v>33.16503606824341</v>
+      </c>
+      <c r="G11" s="64">
+        <v>20.532611919859928</v>
+      </c>
+      <c r="H11" s="64">
+        <v>66.783811114916901</v>
       </c>
       <c r="I11" s="64">
-        <v>8.5041856973829848</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>77</v>
+        <v>8.7678432844365837</v>
+      </c>
+      <c r="J11" s="64">
+        <v>3.446321430040189</v>
+      </c>
+      <c r="K11" s="64">
+        <v>22.937826647187251</v>
+      </c>
+      <c r="L11" s="41">
+        <v>730981</v>
+      </c>
+      <c r="M11" s="41">
+        <v>837337</v>
+      </c>
+      <c r="N11" s="41">
+        <v>147501</v>
+      </c>
+      <c r="O11" s="41">
+        <v>379971</v>
       </c>
       <c r="P11" s="41">
-        <v>201280</v>
+        <v>207646</v>
       </c>
       <c r="Q11" s="41">
-        <v>305179</v>
+        <v>309130</v>
       </c>
       <c r="R11" s="41">
-        <v>9583</v>
+        <v>10044</v>
       </c>
       <c r="S11" s="41">
-        <v>13160</v>
+        <v>13799</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1836,55 +1850,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>701615</v>
+        <v>714098</v>
       </c>
       <c r="D12" s="13">
-        <v>562619</v>
+        <v>571124</v>
       </c>
       <c r="E12" s="13">
-        <v>138996</v>
+        <v>142974</v>
       </c>
       <c r="F12" s="14">
-        <v>34.985741273447921</v>
+        <v>35.514613795582214</v>
       </c>
       <c r="G12" s="44">
-        <v>20.190702525068744</v>
+        <v>20.6707882070924</v>
       </c>
       <c r="H12" s="44">
-        <v>64.114455496705844</v>
+        <v>64.745234096739068</v>
       </c>
       <c r="I12" s="44">
-        <v>8.6432880760233264</v>
+        <v>8.890654906481906</v>
       </c>
       <c r="J12" s="44">
-        <v>3.625073621265948</v>
+        <v>3.7475568993911477</v>
       </c>
       <c r="K12" s="44">
-        <v>18.487644638012807</v>
+        <v>18.974846365364385</v>
       </c>
       <c r="L12" s="18">
-        <v>149428</v>
+        <v>152076</v>
       </c>
       <c r="M12" s="18">
-        <v>214648</v>
+        <v>216309</v>
       </c>
       <c r="N12" s="18">
-        <v>34373</v>
+        <v>35345</v>
       </c>
       <c r="O12" s="18">
-        <v>94432</v>
+        <v>96838</v>
       </c>
       <c r="P12" s="18">
-        <v>65859</v>
+        <v>68330</v>
       </c>
       <c r="Q12" s="18">
-        <v>132769</v>
+        <v>134526</v>
       </c>
       <c r="R12" s="18">
-        <v>4280</v>
+        <v>4614</v>
       </c>
       <c r="S12" s="18">
-        <v>5747</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1895,55 +1909,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3359857</v>
+        <v>3418090</v>
       </c>
       <c r="D13" s="37">
-        <v>2710302</v>
+        <v>2753570</v>
       </c>
       <c r="E13" s="37">
-        <v>649555</v>
+        <v>664520</v>
       </c>
       <c r="F13" s="38">
-        <v>33.90586578676362</v>
+        <v>34.447148271468905</v>
       </c>
       <c r="G13" s="64">
-        <v>19.295723102667118</v>
+        <v>19.789458378668975</v>
       </c>
       <c r="H13" s="64">
-        <v>70.226575136704767</v>
+        <v>70.917070897095385</v>
       </c>
       <c r="I13" s="64">
-        <v>8.1259301181644137</v>
+        <v>8.3131422006182945</v>
       </c>
       <c r="J13" s="64">
-        <v>2.5463770184958854</v>
+        <v>2.6518555472253178</v>
       </c>
       <c r="K13" s="64">
-        <v>21.391057107069216</v>
+        <v>21.746595406235908</v>
       </c>
       <c r="L13" s="42">
-        <v>835237</v>
+        <v>855148</v>
       </c>
       <c r="M13" s="42">
-        <v>1162693</v>
+        <v>1171107</v>
       </c>
       <c r="N13" s="42">
-        <v>133331</v>
+        <v>138527</v>
       </c>
       <c r="O13" s="42">
-        <v>481260</v>
+        <v>488845</v>
       </c>
       <c r="P13" s="42">
-        <v>260910</v>
+        <v>269047</v>
       </c>
       <c r="Q13" s="42">
-        <v>461529</v>
+        <v>469085</v>
       </c>
       <c r="R13" s="42">
-        <v>11323</v>
+        <v>12119</v>
       </c>
       <c r="S13" s="42">
-        <v>13479</v>
+        <v>14117</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1954,55 +1968,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>7746999</v>
+        <v>7905775</v>
       </c>
       <c r="D14" s="13">
-        <v>6210075</v>
+        <v>6324384</v>
       </c>
       <c r="E14" s="13">
-        <v>1536924</v>
+        <v>1581391</v>
       </c>
       <c r="F14" s="14">
-        <v>34.601875131531507</v>
+        <v>35.238792679936353</v>
       </c>
       <c r="G14" s="44">
-        <v>20.023396269499404</v>
+        <v>20.655697354409934</v>
       </c>
       <c r="H14" s="44">
-        <v>72.179386112494043</v>
+        <v>72.853434761378537</v>
       </c>
       <c r="I14" s="44">
-        <v>8.5635765002280859</v>
+        <v>8.811341878500297</v>
       </c>
       <c r="J14" s="44">
-        <v>3.622252431251896</v>
+        <v>3.8113889073247509</v>
       </c>
       <c r="K14" s="44">
-        <v>21.25902900257973</v>
+        <v>21.632550847999578</v>
       </c>
       <c r="L14" s="18">
-        <v>1870839</v>
+        <v>1923580</v>
       </c>
       <c r="M14" s="18">
-        <v>2577550</v>
+        <v>2594399</v>
       </c>
       <c r="N14" s="18">
-        <v>443414</v>
+        <v>465894</v>
       </c>
       <c r="O14" s="18">
-        <v>1035220</v>
+        <v>1051870</v>
       </c>
       <c r="P14" s="18">
-        <v>717726</v>
+        <v>746727</v>
       </c>
       <c r="Q14" s="18">
-        <v>1045508</v>
+        <v>1062493</v>
       </c>
       <c r="R14" s="18">
-        <v>24860</v>
+        <v>26831</v>
       </c>
       <c r="S14" s="18">
-        <v>31881</v>
+        <v>33980</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2013,55 +2027,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1738212</v>
+        <v>1770698</v>
       </c>
       <c r="D15" s="37">
-        <v>1286872</v>
+        <v>1306234</v>
       </c>
       <c r="E15" s="37">
-        <v>451340</v>
+        <v>464464</v>
       </c>
       <c r="F15" s="38">
-        <v>31.433866410611095</v>
+        <v>31.906813620156608</v>
       </c>
       <c r="G15" s="64">
-        <v>17.61350458077235</v>
+        <v>18.016358520678363</v>
       </c>
       <c r="H15" s="64">
-        <v>64.862210893592135</v>
+        <v>65.504878507406559</v>
       </c>
       <c r="I15" s="64">
-        <v>11.024687199476881</v>
+        <v>11.345261477861101</v>
       </c>
       <c r="J15" s="64">
-        <v>5.0689462843005693</v>
+        <v>5.334570335150179</v>
       </c>
       <c r="K15" s="64">
-        <v>25.44562605770637</v>
+        <v>25.89925412113741</v>
       </c>
       <c r="L15" s="42">
-        <v>395305</v>
+        <v>403243</v>
       </c>
       <c r="M15" s="42">
-        <v>547862</v>
+        <v>551966</v>
       </c>
       <c r="N15" s="42">
-        <v>141052</v>
+        <v>148415</v>
       </c>
       <c r="O15" s="42">
-        <v>293688</v>
+        <v>298306</v>
       </c>
       <c r="P15" s="42">
-        <v>115016</v>
+        <v>118750</v>
       </c>
       <c r="Q15" s="42">
-        <v>228263</v>
+        <v>231849</v>
       </c>
       <c r="R15" s="42">
-        <v>5812</v>
+        <v>6145</v>
       </c>
       <c r="S15" s="42">
-        <v>10788</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2072,55 +2086,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>459265</v>
+        <v>467350</v>
       </c>
       <c r="D16" s="13">
-        <v>363731</v>
+        <v>369963</v>
       </c>
       <c r="E16" s="13">
-        <v>95534</v>
+        <v>97387</v>
       </c>
       <c r="F16" s="14">
-        <v>36.856397946269432</v>
+        <v>37.4878785514451</v>
       </c>
       <c r="G16" s="44">
-        <v>21.620871661599327</v>
+        <v>22.165249900791579</v>
       </c>
       <c r="H16" s="44">
-        <v>69.114697344439492</v>
+        <v>69.930602278721722</v>
       </c>
       <c r="I16" s="44">
-        <v>9.6803382758107048</v>
+        <v>9.8681004005524446</v>
       </c>
       <c r="J16" s="44">
-        <v>3.1851124710206977</v>
+        <v>3.2588101553618798</v>
       </c>
       <c r="K16" s="44">
-        <v>23.432865522567685</v>
+        <v>23.862139547224881</v>
       </c>
       <c r="L16" s="18">
-        <v>108119</v>
+        <v>110447</v>
       </c>
       <c r="M16" s="18">
-        <v>164835</v>
+        <v>166547</v>
       </c>
       <c r="N16" s="18">
-        <v>19733</v>
+        <v>20091</v>
       </c>
       <c r="O16" s="18">
-        <v>72332</v>
+        <v>73593</v>
       </c>
       <c r="P16" s="18">
-        <v>36807</v>
+        <v>38128</v>
       </c>
       <c r="Q16" s="18">
-        <v>53969</v>
+        <v>54840</v>
       </c>
       <c r="R16" s="18">
-        <v>1617</v>
+        <v>1753</v>
       </c>
       <c r="S16" s="18">
-        <v>1852</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2131,55 +2145,55 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1698087</v>
+        <v>1724511</v>
       </c>
       <c r="D17" s="37">
-        <v>1174652</v>
+        <v>1186266</v>
       </c>
       <c r="E17" s="37">
-        <v>523435</v>
+        <v>538245</v>
       </c>
       <c r="F17" s="38">
-        <v>28.847258489807516</v>
+        <v>29.132476631095848</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="64">
-        <v>12.854585653974452</v>
+        <v>13.21829158410018</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17" s="41">
-        <v>78160</v>
+        <v>80805</v>
       </c>
       <c r="Q17" s="41">
-        <v>228945</v>
+        <v>232681</v>
       </c>
       <c r="R17" s="41">
-        <v>11886</v>
+        <v>12280</v>
       </c>
       <c r="S17" s="41">
-        <v>35650</v>
+        <v>36601</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2190,55 +2204,55 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>910594</v>
+        <v>926344</v>
       </c>
       <c r="D18" s="13">
-        <v>708859</v>
+        <v>717365</v>
       </c>
       <c r="E18" s="13">
-        <v>201735</v>
+        <v>208979</v>
       </c>
       <c r="F18" s="14">
-        <v>32.297467356666857</v>
+        <v>32.685022931662459</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="44">
-        <v>9.1915734683444654</v>
+        <v>9.5216290273931534</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="17">
-        <v>49222</v>
+        <v>50669</v>
       </c>
       <c r="Q18" s="18">
-        <v>142113</v>
+        <v>144161</v>
       </c>
       <c r="R18" s="17">
-        <v>2740</v>
+        <v>2902</v>
       </c>
       <c r="S18" s="18">
-        <v>5156</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2249,55 +2263,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1210613</v>
+        <v>1231524</v>
       </c>
       <c r="D19" s="37">
-        <v>889448</v>
+        <v>900719</v>
       </c>
       <c r="E19" s="37">
-        <v>321165</v>
+        <v>330805</v>
       </c>
       <c r="F19" s="38">
-        <v>30.63076900294892</v>
+        <v>31.018919178599702</v>
       </c>
       <c r="G19" s="64">
-        <v>16.750955243256833</v>
+        <v>17.051742711329464</v>
       </c>
       <c r="H19" s="64">
-        <v>63.229729714145343</v>
+        <v>63.82307388028633</v>
       </c>
       <c r="I19" s="64">
-        <v>11.060265385758459</v>
+        <v>11.392247258997173</v>
       </c>
       <c r="J19" s="64">
-        <v>4.949785285080333</v>
+        <v>5.2644680932549166</v>
       </c>
       <c r="K19" s="64">
-        <v>25.411967676870191</v>
+        <v>25.784580893741229</v>
       </c>
       <c r="L19" s="42">
-        <v>259999</v>
+        <v>263601</v>
       </c>
       <c r="M19" s="42">
-        <v>363921</v>
+        <v>365662</v>
       </c>
       <c r="N19" s="42">
-        <v>96348</v>
+        <v>102570</v>
       </c>
       <c r="O19" s="42">
-        <v>212276</v>
+        <v>215216</v>
       </c>
       <c r="P19" s="42">
-        <v>81160</v>
+        <v>83684</v>
       </c>
       <c r="Q19" s="42">
-        <v>184356</v>
+        <v>187760</v>
       </c>
       <c r="R19" s="42">
-        <v>4462</v>
+        <v>4649</v>
       </c>
       <c r="S19" s="42">
-        <v>8076</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2308,55 +2322,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>928307</v>
+        <v>942876</v>
       </c>
       <c r="D20" s="13">
-        <v>638408</v>
+        <v>646522</v>
       </c>
       <c r="E20" s="13">
-        <v>289899</v>
+        <v>296354</v>
       </c>
       <c r="F20" s="14">
-        <v>29.924748450579315</v>
+        <v>30.305084237298779</v>
       </c>
       <c r="G20" s="44">
-        <v>16.12791017604685</v>
+        <v>16.438048587163077</v>
       </c>
       <c r="H20" s="44">
-        <v>56.431188189295455</v>
+        <v>56.946345844239765</v>
       </c>
       <c r="I20" s="44">
-        <v>13.588731110942366</v>
+        <v>13.891302900845515</v>
       </c>
       <c r="J20" s="44">
-        <v>6.618472017688795</v>
+        <v>6.8249695991651702</v>
       </c>
       <c r="K20" s="44">
-        <v>26.967811887368988</v>
+        <v>27.454904881334404</v>
       </c>
       <c r="L20" s="18">
-        <v>187053</v>
+        <v>189586</v>
       </c>
       <c r="M20" s="18">
-        <v>292135</v>
+        <v>293709</v>
       </c>
       <c r="N20" s="18">
-        <v>88688</v>
+        <v>91181</v>
       </c>
       <c r="O20" s="18">
-        <v>186079</v>
+        <v>189210</v>
       </c>
       <c r="P20" s="18">
-        <v>39209</v>
+        <v>41027</v>
       </c>
       <c r="Q20" s="18">
-        <v>120070</v>
+        <v>122259</v>
       </c>
       <c r="R20" s="18">
-        <v>4164</v>
+        <v>4568</v>
       </c>
       <c r="S20" s="18">
-        <v>10909</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2365,55 +2379,55 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>78586</v>
+        <v>81656</v>
       </c>
       <c r="D21" s="37">
-        <v>70435</v>
+        <v>72145</v>
       </c>
       <c r="E21" s="37">
-        <v>8151</v>
+        <v>9511</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="41">
-        <v>64669</v>
+        <v>66432</v>
       </c>
       <c r="M21" s="41">
-        <v>6138</v>
+        <v>6263</v>
       </c>
       <c r="N21" s="41">
-        <v>7301</v>
+        <v>8412</v>
       </c>
       <c r="O21" s="41">
-        <v>478</v>
+        <v>549</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,55 +2436,55 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>35079739</v>
+        <v>35709755</v>
       </c>
       <c r="D22" s="21">
-        <v>27266358</v>
+        <v>27686865</v>
       </c>
       <c r="E22" s="21">
-        <v>7813381</v>
+        <v>8022890</v>
       </c>
       <c r="F22" s="22">
-        <v>32.78518252332956</v>
+        <v>33.290801893079554</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="22">
-        <v>9.3948418857155485</v>
+        <v>9.6467563806869805</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P22" s="25">
-        <v>2799986</v>
+        <v>2900503</v>
       </c>
       <c r="Q22" s="25">
-        <v>4614863</v>
+        <v>4683705</v>
       </c>
       <c r="R22" s="25">
-        <v>143697</v>
+        <v>152797</v>
       </c>
       <c r="S22" s="25">
-        <v>223905</v>
+        <v>234344</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2498,27 +2512,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2569,31 +2583,31 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
+      <c r="B29" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2647,7 +2661,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,118 +2671,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="80" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="80" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="80" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="82"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="83" t="s">
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="85" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2781,7 +2795,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +2811,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="83"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2810,7 +2824,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="83"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +2840,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="83"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2836,70 +2850,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2665059</v>
+        <v>2696855</v>
       </c>
       <c r="D5" s="45">
-        <v>1660471</v>
+        <v>1681218</v>
       </c>
       <c r="E5" s="45">
-        <v>232828</v>
+        <v>243288</v>
       </c>
       <c r="F5" s="45">
-        <v>771760</v>
+        <v>772349</v>
       </c>
       <c r="G5" s="45">
-        <v>30925</v>
+        <v>30862</v>
       </c>
       <c r="H5" s="45">
-        <v>939633</v>
+        <v>963174</v>
       </c>
       <c r="I5" s="45">
-        <v>849735</v>
+        <v>863925</v>
       </c>
       <c r="J5" s="45">
-        <v>59556</v>
+        <v>63261</v>
       </c>
       <c r="K5" s="45">
-        <v>28138</v>
+        <v>32130</v>
       </c>
       <c r="L5" s="45">
-        <v>2204</v>
+        <v>3858</v>
       </c>
       <c r="M5" s="45">
-        <v>18284</v>
+        <v>22925</v>
       </c>
       <c r="N5" s="45">
-        <v>902671</v>
+        <v>917845</v>
       </c>
       <c r="O5" s="45">
-        <v>773241</v>
+        <v>781260</v>
       </c>
       <c r="P5" s="45">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="45">
-        <v>129206</v>
+        <v>136360</v>
       </c>
       <c r="R5" s="45">
-        <v>1141</v>
+        <v>15174</v>
       </c>
       <c r="S5" s="45">
-        <v>54663</v>
+        <v>56881</v>
       </c>
       <c r="T5" s="45">
-        <v>53060</v>
+        <v>54986</v>
       </c>
       <c r="U5" s="45">
         <v>39</v>
       </c>
       <c r="V5" s="45">
-        <v>1547</v>
+        <v>1839</v>
       </c>
       <c r="W5" s="45">
         <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>190</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2910,70 +2924,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3153175</v>
+        <v>3190029</v>
       </c>
       <c r="D6" s="46">
-        <v>2156257</v>
+        <v>2181265</v>
       </c>
       <c r="E6" s="46">
-        <v>281302</v>
+        <v>291191</v>
       </c>
       <c r="F6" s="46">
-        <v>715616</v>
+        <v>717573</v>
       </c>
       <c r="G6" s="46">
-        <v>23618</v>
+        <v>36854</v>
       </c>
       <c r="H6" s="46">
-        <v>1130855</v>
+        <v>1155005</v>
       </c>
       <c r="I6" s="46">
-        <v>1001390</v>
+        <v>1018893</v>
       </c>
       <c r="J6" s="46">
-        <v>88667</v>
+        <v>91747</v>
       </c>
       <c r="K6" s="46">
-        <v>40797</v>
+        <v>44364</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>19630</v>
+        <v>24150</v>
       </c>
       <c r="N6" s="46">
-        <v>1228095</v>
+        <v>1256597</v>
       </c>
       <c r="O6" s="46">
-        <v>946326</v>
+        <v>958327</v>
       </c>
       <c r="P6" s="46">
         <v>385</v>
       </c>
       <c r="Q6" s="46">
-        <v>281384</v>
+        <v>297885</v>
       </c>
       <c r="R6" s="46">
-        <v>1624</v>
+        <v>28502</v>
       </c>
       <c r="S6" s="46">
-        <v>44505</v>
+        <v>47415</v>
       </c>
       <c r="T6" s="46">
-        <v>37971</v>
+        <v>39966</v>
       </c>
       <c r="U6" s="46">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="V6" s="46">
-        <v>5841</v>
+        <v>6753</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>152</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2984,70 +2998,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>784216</v>
+        <v>791735</v>
       </c>
       <c r="D7" s="45">
-        <v>532900</v>
+        <v>538333</v>
       </c>
       <c r="E7" s="45">
-        <v>65569</v>
+        <v>67649</v>
       </c>
       <c r="F7" s="45">
-        <v>185747</v>
+        <v>185753</v>
       </c>
       <c r="G7" s="45">
-        <v>5825</v>
+        <v>7519</v>
       </c>
       <c r="H7" s="45">
-        <v>389277</v>
+        <v>395326</v>
       </c>
       <c r="I7" s="45">
-        <v>337103</v>
+        <v>342463</v>
       </c>
       <c r="J7" s="45">
-        <v>49102</v>
+        <v>49704</v>
       </c>
       <c r="K7" s="45">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="L7" s="45">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="M7" s="45">
-        <v>5898</v>
+        <v>6049</v>
       </c>
       <c r="N7" s="45">
-        <v>306414</v>
+        <v>316378</v>
       </c>
       <c r="O7" s="45">
-        <v>232828</v>
+        <v>237001</v>
       </c>
       <c r="P7" s="45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="45">
-        <v>73487</v>
+        <v>79277</v>
       </c>
       <c r="R7" s="45">
-        <v>595</v>
+        <v>9964</v>
       </c>
       <c r="S7" s="45">
-        <v>17672</v>
+        <v>18862</v>
       </c>
       <c r="T7" s="45">
-        <v>15259</v>
+        <v>15968</v>
       </c>
       <c r="U7" s="45">
         <v>39</v>
       </c>
       <c r="V7" s="45">
-        <v>2374</v>
+        <v>2855</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>61</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3058,70 +3072,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>470466</v>
+        <v>473868</v>
       </c>
       <c r="D8" s="46">
-        <v>310774</v>
+        <v>313453</v>
       </c>
       <c r="E8" s="46">
-        <v>53307</v>
+        <v>54045</v>
       </c>
       <c r="F8" s="46">
-        <v>106385</v>
+        <v>106370</v>
       </c>
       <c r="G8" s="46">
-        <v>26</v>
+        <v>2787</v>
       </c>
       <c r="H8" s="46">
-        <v>215824</v>
+        <v>223766</v>
       </c>
       <c r="I8" s="46">
-        <v>186806</v>
+        <v>192546</v>
       </c>
       <c r="J8" s="46">
-        <v>21491</v>
+        <v>22722</v>
       </c>
       <c r="K8" s="46">
-        <v>7526</v>
+        <v>8048</v>
       </c>
       <c r="L8" s="46">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="M8" s="46">
-        <v>0</v>
+        <v>7038</v>
       </c>
       <c r="N8" s="46">
-        <v>255038</v>
+        <v>261837</v>
       </c>
       <c r="O8" s="46">
-        <v>184416</v>
+        <v>186649</v>
       </c>
       <c r="P8" s="46">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="46">
-        <v>70134</v>
+        <v>74668</v>
       </c>
       <c r="R8" s="46">
-        <v>7</v>
+        <v>6799</v>
       </c>
       <c r="S8" s="46">
-        <v>25893</v>
+        <v>27063</v>
       </c>
       <c r="T8" s="46">
-        <v>24709</v>
+        <v>25437</v>
       </c>
       <c r="U8" s="46">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="V8" s="46">
-        <v>1173</v>
+        <v>1580</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>0</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3132,70 +3146,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>180285</v>
+        <v>182366</v>
       </c>
       <c r="D9" s="45">
-        <v>108797</v>
+        <v>110274</v>
       </c>
       <c r="E9" s="45">
-        <v>12878</v>
+        <v>12876</v>
       </c>
       <c r="F9" s="45">
-        <v>58610</v>
+        <v>59216</v>
       </c>
       <c r="G9" s="45">
-        <v>2709</v>
+        <v>2078</v>
       </c>
       <c r="H9" s="45">
-        <v>80463</v>
+        <v>82687</v>
       </c>
       <c r="I9" s="45">
-        <v>72657</v>
+        <v>74781</v>
       </c>
       <c r="J9" s="45">
         <v>5009</v>
       </c>
       <c r="K9" s="45">
-        <v>1263</v>
+        <v>1342</v>
       </c>
       <c r="L9" s="45">
-        <v>1534</v>
+        <v>1555</v>
       </c>
       <c r="M9" s="45">
-        <v>1027</v>
+        <v>2224</v>
       </c>
       <c r="N9" s="45">
-        <v>52056</v>
+        <v>52852</v>
       </c>
       <c r="O9" s="45">
-        <v>44066</v>
+        <v>44322</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>7976</v>
+        <v>8516</v>
       </c>
       <c r="R9" s="45">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="S9" s="45">
-        <v>2237</v>
+        <v>2330</v>
       </c>
       <c r="T9" s="45">
-        <v>2105</v>
+        <v>2185</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3206,70 +3220,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>465249</v>
+        <v>470309</v>
       </c>
       <c r="D10" s="46">
-        <v>294035</v>
+        <v>298984</v>
       </c>
       <c r="E10" s="46">
-        <v>50954</v>
+        <v>51049</v>
       </c>
       <c r="F10" s="46">
-        <v>120260</v>
+        <v>120276</v>
       </c>
       <c r="G10" s="46">
-        <v>4713</v>
+        <v>4893</v>
       </c>
       <c r="H10" s="46">
-        <v>155469</v>
+        <v>158770</v>
       </c>
       <c r="I10" s="46">
-        <v>143216</v>
+        <v>146194</v>
       </c>
       <c r="J10" s="46">
-        <v>10427</v>
+        <v>10554</v>
       </c>
       <c r="K10" s="46">
-        <v>995</v>
+        <v>1191</v>
       </c>
       <c r="L10" s="46">
         <v>831</v>
       </c>
       <c r="M10" s="46">
-        <v>4897</v>
+        <v>2979</v>
       </c>
       <c r="N10" s="46">
-        <v>139881</v>
+        <v>142458</v>
       </c>
       <c r="O10" s="46">
-        <v>114420</v>
+        <v>115880</v>
       </c>
       <c r="P10" s="46">
-        <v>1483</v>
+        <v>1588</v>
       </c>
       <c r="Q10" s="46">
-        <v>23978</v>
+        <v>24990</v>
       </c>
       <c r="R10" s="46">
-        <v>54</v>
+        <v>2577</v>
       </c>
       <c r="S10" s="46">
-        <v>5406</v>
+        <v>5652</v>
       </c>
       <c r="T10" s="46">
-        <v>4949</v>
+        <v>5147</v>
       </c>
       <c r="U10" s="46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V10" s="46">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3280,70 +3294,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1541543</v>
+        <v>1568318</v>
       </c>
       <c r="D11" s="45">
-        <v>935312</v>
+        <v>952028</v>
       </c>
       <c r="E11" s="45">
-        <v>146726</v>
+        <v>154839</v>
       </c>
       <c r="F11" s="45">
-        <v>459505</v>
+        <v>461451</v>
       </c>
       <c r="G11" s="45">
-        <v>22838</v>
+        <v>21209</v>
       </c>
       <c r="H11" s="45">
-        <v>511993</v>
+        <v>527472</v>
       </c>
       <c r="I11" s="45">
-        <v>476199</v>
+        <v>486399</v>
       </c>
       <c r="J11" s="45">
-        <v>25091</v>
+        <v>26193</v>
       </c>
       <c r="K11" s="45">
-        <v>10703</v>
+        <v>14880</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>4192</v>
+        <v>10569</v>
       </c>
       <c r="N11" s="45">
-        <v>506809</v>
+        <v>517126</v>
       </c>
       <c r="O11" s="45">
-        <v>412584</v>
+        <v>417408</v>
       </c>
       <c r="P11" s="45">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="45">
-        <v>94114</v>
+        <v>99595</v>
       </c>
       <c r="R11" s="45">
-        <v>517</v>
+        <v>10317</v>
       </c>
       <c r="S11" s="45">
-        <v>22757</v>
+        <v>23857</v>
       </c>
       <c r="T11" s="45">
-        <v>21345</v>
+        <v>22161</v>
       </c>
       <c r="U11" s="45">
         <v>88</v>
       </c>
       <c r="V11" s="45">
-        <v>1281</v>
+        <v>1565</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>14</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3354,70 +3368,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>363913</v>
+        <v>368190</v>
       </c>
       <c r="D12" s="46">
-        <v>261342</v>
+        <v>264132</v>
       </c>
       <c r="E12" s="46">
-        <v>37153</v>
+        <v>38510</v>
       </c>
       <c r="F12" s="46">
-        <v>65418</v>
+        <v>65548</v>
       </c>
       <c r="G12" s="46">
-        <v>8</v>
+        <v>4136</v>
       </c>
       <c r="H12" s="46">
-        <v>128969</v>
+        <v>132379</v>
       </c>
       <c r="I12" s="46">
-        <v>119001</v>
+        <v>122023</v>
       </c>
       <c r="J12" s="46">
-        <v>9005</v>
+        <v>9241</v>
       </c>
       <c r="K12" s="46">
-        <v>799</v>
+        <v>919</v>
       </c>
       <c r="L12" s="46">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="M12" s="46">
-        <v>308</v>
+        <v>3312</v>
       </c>
       <c r="N12" s="46">
-        <v>198706</v>
+        <v>202934</v>
       </c>
       <c r="O12" s="46">
-        <v>147675</v>
+        <v>149260</v>
       </c>
       <c r="P12" s="46">
         <v>74</v>
       </c>
       <c r="Q12" s="46">
-        <v>50957</v>
+        <v>53600</v>
       </c>
       <c r="R12" s="46">
-        <v>83</v>
+        <v>4228</v>
       </c>
       <c r="S12" s="46">
-        <v>10027</v>
+        <v>10595</v>
       </c>
       <c r="T12" s="46">
-        <v>9065</v>
+        <v>9326</v>
       </c>
       <c r="U12" s="46">
         <v>16</v>
       </c>
       <c r="V12" s="46">
-        <v>941</v>
+        <v>1248</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>9</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3428,70 +3442,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>1987772</v>
+        <v>2015347</v>
       </c>
       <c r="D13" s="45">
-        <v>1163306</v>
+        <v>1184700</v>
       </c>
       <c r="E13" s="45">
-        <v>188069</v>
+        <v>190139</v>
       </c>
       <c r="F13" s="45">
-        <v>636397</v>
+        <v>640508</v>
       </c>
       <c r="G13" s="45">
-        <v>8247</v>
+        <v>26188</v>
       </c>
       <c r="H13" s="45">
-        <v>624749</v>
+        <v>638280</v>
       </c>
       <c r="I13" s="45">
-        <v>565588</v>
+        <v>575418</v>
       </c>
       <c r="J13" s="45">
-        <v>39783</v>
+        <v>41080</v>
       </c>
       <c r="K13" s="45">
-        <v>9212</v>
+        <v>10864</v>
       </c>
       <c r="L13" s="45">
-        <v>10166</v>
+        <v>10918</v>
       </c>
       <c r="M13" s="45">
-        <v>3447</v>
+        <v>12578</v>
       </c>
       <c r="N13" s="45">
-        <v>722530</v>
+        <v>738223</v>
       </c>
       <c r="O13" s="45">
-        <v>582073</v>
+        <v>588801</v>
       </c>
       <c r="P13" s="45">
         <v>436</v>
       </c>
       <c r="Q13" s="45">
-        <v>140021</v>
+        <v>148986</v>
       </c>
       <c r="R13" s="45">
-        <v>2695</v>
+        <v>15693</v>
       </c>
       <c r="S13" s="45">
-        <v>24806</v>
+        <v>26240</v>
       </c>
       <c r="T13" s="45">
-        <v>21325</v>
+        <v>22415</v>
       </c>
       <c r="U13" s="45">
         <v>460</v>
       </c>
       <c r="V13" s="45">
-        <v>3021</v>
+        <v>3365</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>27</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3502,70 +3516,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4446841</v>
+        <v>4515164</v>
       </c>
       <c r="D14" s="46">
-        <v>2992243</v>
+        <v>3032872</v>
       </c>
       <c r="E14" s="46">
-        <v>314050</v>
+        <v>340220</v>
       </c>
       <c r="F14" s="46">
-        <v>1140548</v>
+        <v>1142072</v>
       </c>
       <c r="G14" s="46">
-        <v>42536</v>
+        <v>40420</v>
       </c>
       <c r="H14" s="46">
-        <v>1480183</v>
+        <v>1520580</v>
       </c>
       <c r="I14" s="46">
-        <v>1382666</v>
+        <v>1410221</v>
       </c>
       <c r="J14" s="46">
-        <v>79588</v>
+        <v>88165</v>
       </c>
       <c r="K14" s="46">
-        <v>16379</v>
+        <v>19375</v>
       </c>
       <c r="L14" s="46">
-        <v>1550</v>
+        <v>2819</v>
       </c>
       <c r="M14" s="46">
-        <v>14526</v>
+        <v>17136</v>
       </c>
       <c r="N14" s="46">
-        <v>1763234</v>
+        <v>1809220</v>
       </c>
       <c r="O14" s="46">
-        <v>1345985</v>
+        <v>1363002</v>
       </c>
       <c r="P14" s="46">
-        <v>4777</v>
+        <v>4922</v>
       </c>
       <c r="Q14" s="46">
-        <v>412472</v>
+        <v>441296</v>
       </c>
       <c r="R14" s="46">
-        <v>3003</v>
+        <v>45986</v>
       </c>
       <c r="S14" s="46">
-        <v>56741</v>
+        <v>60811</v>
       </c>
       <c r="T14" s="46">
-        <v>50002</v>
+        <v>52755</v>
       </c>
       <c r="U14" s="46">
-        <v>1008</v>
+        <v>1206</v>
       </c>
       <c r="V14" s="46">
-        <v>5689</v>
+        <v>6785</v>
       </c>
       <c r="W14" s="46">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="X14" s="46">
-        <v>209</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3576,70 +3590,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>943167</v>
+        <v>955209</v>
       </c>
       <c r="D15" s="45">
-        <v>620562</v>
+        <v>629178</v>
       </c>
       <c r="E15" s="45">
-        <v>59843</v>
+        <v>62996</v>
       </c>
       <c r="F15" s="45">
-        <v>262762</v>
+        <v>263035</v>
       </c>
       <c r="G15" s="45">
-        <v>3895</v>
+        <v>10028</v>
       </c>
       <c r="H15" s="45">
-        <v>434740</v>
+        <v>446721</v>
       </c>
       <c r="I15" s="45">
-        <v>384234</v>
+        <v>392381</v>
       </c>
       <c r="J15" s="45">
-        <v>31066</v>
+        <v>33098</v>
       </c>
       <c r="K15" s="45">
-        <v>19440</v>
+        <v>21242</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>2145</v>
+        <v>10352</v>
       </c>
       <c r="N15" s="45">
-        <v>343705</v>
+        <v>351025</v>
       </c>
       <c r="O15" s="45">
-        <v>288288</v>
+        <v>292377</v>
       </c>
       <c r="P15" s="45">
         <v>156</v>
       </c>
       <c r="Q15" s="45">
-        <v>55261</v>
+        <v>58492</v>
       </c>
       <c r="R15" s="45">
-        <v>60</v>
+        <v>7320</v>
       </c>
       <c r="S15" s="45">
-        <v>16600</v>
+        <v>17743</v>
       </c>
       <c r="T15" s="45">
-        <v>16084</v>
+        <v>17179</v>
       </c>
       <c r="U15" s="45">
         <v>20</v>
       </c>
       <c r="V15" s="45">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>14</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3650,70 +3664,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>272954</v>
+        <v>276994</v>
       </c>
       <c r="D16" s="46">
-        <v>205552</v>
+        <v>208663</v>
       </c>
       <c r="E16" s="46">
-        <v>25379</v>
+        <v>26289</v>
       </c>
       <c r="F16" s="46">
-        <v>42023</v>
+        <v>42042</v>
       </c>
       <c r="G16" s="46">
-        <v>1022</v>
+        <v>3951</v>
       </c>
       <c r="H16" s="46">
-        <v>92065</v>
+        <v>93684</v>
       </c>
       <c r="I16" s="46">
-        <v>83246</v>
+        <v>84439</v>
       </c>
       <c r="J16" s="46">
-        <v>7035</v>
+        <v>7163</v>
       </c>
       <c r="K16" s="46">
-        <v>1784</v>
+        <v>2082</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>4</v>
+        <v>1485</v>
       </c>
       <c r="N16" s="46">
-        <v>90777</v>
+        <v>92969</v>
       </c>
       <c r="O16" s="46">
-        <v>77085</v>
+        <v>78193</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>13613</v>
+        <v>14697</v>
       </c>
       <c r="R16" s="46">
-        <v>6</v>
+        <v>2192</v>
       </c>
       <c r="S16" s="46">
-        <v>3469</v>
+        <v>3703</v>
       </c>
       <c r="T16" s="46">
-        <v>3097</v>
+        <v>3269</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3724,70 +3738,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>863609</v>
+        <v>868842</v>
       </c>
       <c r="D17" s="45">
-        <v>612837</v>
+        <v>615773</v>
       </c>
       <c r="E17" s="45">
-        <v>71925</v>
+        <v>73729</v>
       </c>
       <c r="F17" s="45">
-        <v>178847</v>
+        <v>179340</v>
       </c>
       <c r="G17" s="45">
-        <v>4976</v>
+        <v>5233</v>
       </c>
       <c r="H17" s="45">
-        <v>475897</v>
+        <v>489362</v>
       </c>
       <c r="I17" s="45">
-        <v>440475</v>
+        <v>452801</v>
       </c>
       <c r="J17" s="45">
-        <v>34026</v>
+        <v>35090</v>
       </c>
       <c r="K17" s="45">
-        <v>1396</v>
+        <v>1471</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>13547</v>
+        <v>13465</v>
       </c>
       <c r="N17" s="45">
-        <v>311043</v>
+        <v>317424</v>
       </c>
       <c r="O17" s="45">
-        <v>227856</v>
+        <v>230670</v>
       </c>
       <c r="P17" s="45">
         <v>161</v>
       </c>
       <c r="Q17" s="45">
-        <v>83026</v>
+        <v>86593</v>
       </c>
       <c r="R17" s="45">
-        <v>159</v>
+        <v>6381</v>
       </c>
       <c r="S17" s="45">
-        <v>47538</v>
+        <v>48883</v>
       </c>
       <c r="T17" s="45">
-        <v>46803</v>
+        <v>47947</v>
       </c>
       <c r="U17" s="45">
         <v>30</v>
       </c>
       <c r="V17" s="45">
-        <v>667</v>
+        <v>868</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>159</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3798,70 +3812,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>517041</v>
+        <v>522052</v>
       </c>
       <c r="D18" s="47">
-        <v>340085</v>
+        <v>344207</v>
       </c>
       <c r="E18" s="47">
-        <v>47834</v>
+        <v>48579</v>
       </c>
       <c r="F18" s="47">
-        <v>129122</v>
+        <v>129266</v>
       </c>
       <c r="G18" s="47">
-        <v>854</v>
+        <v>5011</v>
       </c>
       <c r="H18" s="47">
-        <v>193839</v>
+        <v>200574</v>
       </c>
       <c r="I18" s="47">
-        <v>168400</v>
+        <v>173164</v>
       </c>
       <c r="J18" s="47">
-        <v>21748</v>
+        <v>23018</v>
       </c>
       <c r="K18" s="47">
-        <v>3691</v>
+        <v>4392</v>
       </c>
       <c r="L18" s="47">
         <v>0</v>
       </c>
       <c r="M18" s="47">
-        <v>2781</v>
+        <v>6735</v>
       </c>
       <c r="N18" s="46">
-        <v>191818</v>
+        <v>195313</v>
       </c>
       <c r="O18" s="46">
-        <v>162237</v>
+        <v>164243</v>
       </c>
       <c r="P18" s="46">
         <v>24</v>
       </c>
       <c r="Q18" s="46">
-        <v>29557</v>
+        <v>31046</v>
       </c>
       <c r="R18" s="46">
-        <v>8</v>
+        <v>3495</v>
       </c>
       <c r="S18" s="46">
-        <v>7896</v>
+        <v>8405</v>
       </c>
       <c r="T18" s="46">
-        <v>7250</v>
+        <v>7665</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3872,70 +3886,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>623920</v>
+        <v>629263</v>
       </c>
       <c r="D19" s="45">
-        <v>429064</v>
+        <v>433397</v>
       </c>
       <c r="E19" s="45">
-        <v>50007</v>
+        <v>50985</v>
       </c>
       <c r="F19" s="45">
-        <v>144849</v>
+        <v>144881</v>
       </c>
       <c r="G19" s="45">
-        <v>3885</v>
+        <v>5340</v>
       </c>
       <c r="H19" s="45">
-        <v>308624</v>
+        <v>317786</v>
       </c>
       <c r="I19" s="45">
-        <v>275886</v>
+        <v>282428</v>
       </c>
       <c r="J19" s="45">
-        <v>26812</v>
+        <v>27967</v>
       </c>
       <c r="K19" s="45">
-        <v>5926</v>
+        <v>7391</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>6299</v>
+        <v>9099</v>
       </c>
       <c r="N19" s="45">
-        <v>265528</v>
+        <v>271456</v>
       </c>
       <c r="O19" s="45">
-        <v>216125</v>
+        <v>218517</v>
       </c>
       <c r="P19" s="45">
-        <v>1606</v>
+        <v>1665</v>
       </c>
       <c r="Q19" s="45">
-        <v>47797</v>
+        <v>51274</v>
       </c>
       <c r="R19" s="45">
-        <v>207</v>
+        <v>5928</v>
       </c>
       <c r="S19" s="45">
-        <v>12541</v>
+        <v>13019</v>
       </c>
       <c r="T19" s="45">
-        <v>11450</v>
+        <v>11806</v>
       </c>
       <c r="U19" s="45">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="V19" s="45">
-        <v>734</v>
+        <v>851</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3946,70 +3960,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>479129</v>
+        <v>483236</v>
       </c>
       <c r="D20" s="47">
-        <v>331537</v>
+        <v>334616</v>
       </c>
       <c r="E20" s="47">
-        <v>38878</v>
+        <v>39585</v>
       </c>
       <c r="F20" s="47">
-        <v>108714</v>
+        <v>109035</v>
       </c>
       <c r="G20" s="47">
-        <v>4590</v>
+        <v>3659</v>
       </c>
       <c r="H20" s="47">
-        <v>274826</v>
+        <v>280450</v>
       </c>
       <c r="I20" s="47">
-        <v>254189</v>
+        <v>259774</v>
       </c>
       <c r="J20" s="47">
-        <v>19860</v>
+        <v>19861</v>
       </c>
       <c r="K20" s="47">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>100</v>
+        <v>5618</v>
       </c>
       <c r="N20" s="47">
-        <v>159279</v>
+        <v>163286</v>
       </c>
       <c r="O20" s="46">
-        <v>135621</v>
+        <v>137777</v>
       </c>
       <c r="P20" s="46">
         <v>60</v>
       </c>
       <c r="Q20" s="46">
-        <v>23598</v>
+        <v>25449</v>
       </c>
       <c r="R20" s="46">
-        <v>18</v>
+        <v>4007</v>
       </c>
       <c r="S20" s="46">
-        <v>15073</v>
+        <v>15904</v>
       </c>
       <c r="T20" s="46">
-        <v>13640</v>
+        <v>13976</v>
       </c>
       <c r="U20" s="46">
         <v>3</v>
       </c>
       <c r="V20" s="46">
-        <v>1420</v>
+        <v>1915</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>0</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4018,68 +4032,68 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>70435</v>
+        <v>72145</v>
       </c>
       <c r="D21" s="45">
-        <v>1245</v>
+        <v>1354</v>
       </c>
       <c r="E21" s="45">
-        <v>51515</v>
+        <v>53061</v>
       </c>
       <c r="F21" s="45">
-        <v>17675</v>
+        <v>17730</v>
       </c>
       <c r="G21" s="45">
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="H21" s="45">
-        <v>8151</v>
+        <v>9511</v>
       </c>
       <c r="I21" s="55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J21" s="55">
-        <v>7714</v>
+        <v>8866</v>
       </c>
       <c r="K21" s="55">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="L21" s="55">
-        <v>372</v>
+        <v>550</v>
       </c>
       <c r="M21" s="55">
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4088,70 +4102,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>19828774</v>
+        <v>20079922</v>
       </c>
       <c r="D22" s="57">
-        <v>12956319</v>
+        <v>13124447</v>
       </c>
       <c r="E22" s="57">
-        <v>1728217</v>
+        <v>1799030</v>
       </c>
       <c r="F22" s="57">
-        <v>5144238</v>
+        <v>5156445</v>
       </c>
       <c r="G22" s="57">
-        <v>160667</v>
+        <v>211741</v>
       </c>
       <c r="H22" s="57">
-        <v>7445557</v>
+        <v>7635527</v>
       </c>
       <c r="I22" s="57">
-        <v>6740793</v>
+        <v>6877858</v>
       </c>
       <c r="J22" s="57">
-        <v>535980</v>
+        <v>562739</v>
       </c>
       <c r="K22" s="57">
-        <v>149070</v>
+        <v>170859</v>
       </c>
       <c r="L22" s="57">
-        <v>19714</v>
+        <v>24071</v>
       </c>
       <c r="M22" s="57">
-        <v>97085</v>
+        <v>156973</v>
       </c>
       <c r="N22" s="57">
-        <v>7437584</v>
+        <v>7606943</v>
       </c>
       <c r="O22" s="57">
-        <v>5890826</v>
+        <v>5963687</v>
       </c>
       <c r="P22" s="57">
-        <v>10177</v>
+        <v>10532</v>
       </c>
       <c r="Q22" s="57">
-        <v>1536581</v>
+        <v>1632724</v>
       </c>
       <c r="R22" s="57">
-        <v>10177</v>
+        <v>169359</v>
       </c>
       <c r="S22" s="57">
-        <v>367824</v>
+        <v>387363</v>
       </c>
       <c r="T22" s="57">
-        <v>338114</v>
+        <v>352188</v>
       </c>
       <c r="U22" s="57">
-        <v>2817</v>
+        <v>3060</v>
       </c>
       <c r="V22" s="57">
-        <v>26738</v>
+        <v>31937</v>
       </c>
       <c r="W22" s="57">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="X22" s="57">
-        <v>858</v>
+        <v>19539</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4166,29 +4180,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4198,12 +4212,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4215,6 +4223,12 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4222,1938 +4236,2062 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="C1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="69">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
-        <v>24463</v>
-      </c>
-      <c r="C2" s="45">
-        <v>0</v>
-      </c>
+        <v>23986</v>
+      </c>
+      <c r="C2" s="70"/>
       <c r="D2" s="45">
-        <v>24463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="86">
+        <v>23986</v>
+      </c>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18341</v>
-      </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
+        <v>18449</v>
+      </c>
+      <c r="C3" s="72"/>
       <c r="D3" s="46">
-        <v>18341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+        <v>18449</v>
+      </c>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>48960</v>
-      </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
+        <v>50011</v>
+      </c>
+      <c r="C4" s="70"/>
       <c r="D4" s="45">
-        <v>48960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="86">
+        <v>50011</v>
+      </c>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
-        <v>62536</v>
-      </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
+        <v>62552</v>
+      </c>
+      <c r="C5" s="72"/>
       <c r="D5" s="46">
-        <v>62536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+        <v>62552</v>
+      </c>
+      <c r="E5" s="68"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>49955</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
+        <v>49870</v>
+      </c>
+      <c r="C6" s="70"/>
       <c r="D6" s="45">
-        <v>49955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+        <v>49870</v>
+      </c>
+      <c r="E6" s="68"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>19272</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+        <v>18772</v>
+      </c>
+      <c r="C7" s="72"/>
       <c r="D7" s="46">
-        <v>19272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+        <v>18772</v>
+      </c>
+      <c r="E7" s="68"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52819</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
+        <v>52139</v>
+      </c>
+      <c r="C8" s="70"/>
       <c r="D8" s="45">
-        <v>52819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
+        <v>52139</v>
+      </c>
+      <c r="E8" s="68"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
-        <v>24205</v>
-      </c>
-      <c r="C9" s="46">
-        <v>0</v>
-      </c>
+        <v>23772</v>
+      </c>
+      <c r="C9" s="72"/>
       <c r="D9" s="46">
-        <v>24205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+        <v>23772</v>
+      </c>
+      <c r="E9" s="68"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48384</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
+        <v>48027</v>
+      </c>
+      <c r="C10" s="70"/>
       <c r="D10" s="45">
-        <v>48384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+        <v>48027</v>
+      </c>
+      <c r="E10" s="68"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
-        <v>54032</v>
-      </c>
-      <c r="C11" s="46">
-        <v>0</v>
-      </c>
+        <v>53685</v>
+      </c>
+      <c r="C11" s="72"/>
       <c r="D11" s="46">
-        <v>54032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+        <v>53685</v>
+      </c>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62854</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
+        <v>62669</v>
+      </c>
+      <c r="C12" s="70"/>
       <c r="D12" s="45">
-        <v>62854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
+        <v>62669</v>
+      </c>
+      <c r="E12" s="68"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55854</v>
-      </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
+        <v>55942</v>
+      </c>
+      <c r="C13" s="72"/>
       <c r="D13" s="46">
-        <v>55854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+        <v>55942</v>
+      </c>
+      <c r="E13" s="68"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>63160</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
+        <v>62738</v>
+      </c>
+      <c r="C14" s="70"/>
       <c r="D14" s="45">
-        <v>63160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="87">
+        <v>62738</v>
+      </c>
+      <c r="E14" s="68"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61328</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
+        <v>61039</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="47">
-        <v>61328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+        <v>61039</v>
+      </c>
+      <c r="E15" s="68"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
-        <v>35353</v>
-      </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
+        <v>35506</v>
+      </c>
+      <c r="C16" s="70"/>
       <c r="D16" s="45">
-        <v>35353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="87">
+        <v>35506</v>
+      </c>
+      <c r="E16" s="68"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67632</v>
-      </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
+        <v>67531</v>
+      </c>
+      <c r="C17" s="74"/>
       <c r="D17" s="47">
-        <v>67632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+        <v>67531</v>
+      </c>
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82735</v>
-      </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
+        <v>82590</v>
+      </c>
+      <c r="C18" s="70"/>
       <c r="D18" s="45">
-        <v>82735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
+        <v>82590</v>
+      </c>
+      <c r="E18" s="68"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111382</v>
-      </c>
-      <c r="C19" s="46">
-        <v>0</v>
-      </c>
+        <v>111511</v>
+      </c>
+      <c r="C19" s="72"/>
       <c r="D19" s="46">
-        <v>111382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+        <v>111511</v>
+      </c>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82524</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
+        <v>82881</v>
+      </c>
+      <c r="C20" s="70"/>
       <c r="D20" s="45">
-        <v>82524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="86">
+        <v>82881</v>
+      </c>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>91060</v>
+        <v>90927</v>
       </c>
       <c r="C21" s="46">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="85">
+        <v>91537</v>
+      </c>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56632</v>
+        <v>56665</v>
       </c>
       <c r="C22" s="45">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="86">
+        <v>57571</v>
+      </c>
+      <c r="E22" s="68"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="71">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
-        <v>31334</v>
+        <v>31657</v>
       </c>
       <c r="C23" s="46">
-        <v>17185</v>
+        <v>17344</v>
       </c>
       <c r="D23" s="46">
-        <v>48519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+        <v>49001</v>
+      </c>
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66534</v>
+        <v>66845</v>
       </c>
       <c r="C24" s="45">
-        <v>15730</v>
+        <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="86">
+        <v>82617</v>
+      </c>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="71">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>81777</v>
+        <v>82822</v>
       </c>
       <c r="C25" s="46">
-        <v>33441</v>
+        <v>34865</v>
       </c>
       <c r="D25" s="46">
-        <v>115218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+        <v>117687</v>
+      </c>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80692</v>
+        <v>80501</v>
       </c>
       <c r="C26" s="45">
-        <v>51648</v>
+        <v>51514</v>
       </c>
       <c r="D26" s="45">
-        <v>132340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="86">
+        <v>132015</v>
+      </c>
+      <c r="E26" s="68"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="71">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>64213</v>
+        <v>65764</v>
       </c>
       <c r="C27" s="46">
-        <v>40731</v>
+        <v>41855</v>
       </c>
       <c r="D27" s="46">
-        <v>104944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+        <v>107619</v>
+      </c>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>67603</v>
+        <v>68330</v>
       </c>
       <c r="C28" s="45">
-        <v>34700</v>
+        <v>35563</v>
       </c>
       <c r="D28" s="45">
-        <v>102303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+        <v>103893</v>
+      </c>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40611</v>
+        <v>40054</v>
       </c>
       <c r="C29" s="46">
-        <v>44937</v>
+        <v>44961</v>
       </c>
       <c r="D29" s="46">
-        <v>85548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+        <v>85015</v>
+      </c>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
-        <v>25645</v>
+        <v>26077</v>
       </c>
       <c r="C30" s="45">
-        <v>24383</v>
+        <v>23147</v>
       </c>
       <c r="D30" s="45">
-        <v>50028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="87">
+        <v>49224</v>
+      </c>
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
-        <v>56059</v>
+        <v>53104</v>
       </c>
       <c r="C31" s="47">
-        <v>38066</v>
+        <v>38599</v>
       </c>
       <c r="D31" s="47">
-        <v>94125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="85">
+        <v>91703</v>
+      </c>
+      <c r="E31" s="68"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="69">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50424</v>
+        <v>50244</v>
       </c>
       <c r="C32" s="45">
-        <v>48647</v>
+        <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>99071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="87">
+        <v>98673</v>
+      </c>
+      <c r="E32" s="68"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="73">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51384</v>
+        <v>51519</v>
       </c>
       <c r="C33" s="47">
-        <v>59670</v>
+        <v>59638</v>
       </c>
       <c r="D33" s="47">
-        <v>111054</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
+        <v>111157</v>
+      </c>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45135</v>
+        <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46412</v>
+        <v>46041</v>
       </c>
       <c r="D34" s="45">
-        <v>91547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="86">
+        <v>91168</v>
+      </c>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>50965</v>
+        <v>51469</v>
       </c>
       <c r="C35" s="46">
-        <v>57338</v>
+        <v>57648</v>
       </c>
       <c r="D35" s="46">
-        <v>108303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="85">
+        <v>109117</v>
+      </c>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>35447</v>
+        <v>36310</v>
       </c>
       <c r="C36" s="45">
-        <v>52291</v>
+        <v>52162</v>
       </c>
       <c r="D36" s="45">
-        <v>87738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
+        <v>88472</v>
+      </c>
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
-        <v>26696</v>
+        <v>25986</v>
       </c>
       <c r="C37" s="46">
-        <v>31430</v>
+        <v>30532</v>
       </c>
       <c r="D37" s="46">
-        <v>58126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="85">
+        <v>56518</v>
+      </c>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
-        <v>60049</v>
+        <v>59163</v>
       </c>
       <c r="C38" s="45">
-        <v>61798</v>
+        <v>61490</v>
       </c>
       <c r="D38" s="45">
-        <v>121847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="86">
+        <v>120653</v>
+      </c>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="71">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>63918</v>
+        <v>64222</v>
       </c>
       <c r="C39" s="46">
-        <v>67023</v>
+        <v>67429</v>
       </c>
       <c r="D39" s="46">
-        <v>130941</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="85">
+        <v>131651</v>
+      </c>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64576</v>
+        <v>64164</v>
       </c>
       <c r="C40" s="45">
-        <v>95163</v>
+        <v>95291</v>
       </c>
       <c r="D40" s="45">
-        <v>159739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="86">
+        <v>159455</v>
+      </c>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="71">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61665</v>
+        <v>61086</v>
       </c>
       <c r="C41" s="46">
-        <v>70515</v>
+        <v>70679</v>
       </c>
       <c r="D41" s="46">
-        <v>132180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="85">
+        <v>131765</v>
+      </c>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="69">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67606</v>
+        <v>67666</v>
       </c>
       <c r="C42" s="45">
-        <v>77623</v>
+        <v>77049</v>
       </c>
       <c r="D42" s="45">
-        <v>145229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="86">
+        <v>144715</v>
+      </c>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="71">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47107</v>
+        <v>47175</v>
       </c>
       <c r="C43" s="46">
-        <v>53035</v>
+        <v>52964</v>
       </c>
       <c r="D43" s="46">
-        <v>100142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="85">
+        <v>100139</v>
+      </c>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
-        <v>28184</v>
+        <v>28178</v>
       </c>
       <c r="C44" s="45">
-        <v>26071</v>
+        <v>26082</v>
       </c>
       <c r="D44" s="45">
-        <v>54255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="86">
+        <v>54260</v>
+      </c>
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="71">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53437</v>
+        <v>53181</v>
       </c>
       <c r="C45" s="46">
-        <v>56700</v>
+        <v>56748</v>
       </c>
       <c r="D45" s="46">
-        <v>110137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="85">
+        <v>109929</v>
+      </c>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="69">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59232</v>
+        <v>59669</v>
       </c>
       <c r="C46" s="45">
-        <v>74192</v>
+        <v>74218</v>
       </c>
       <c r="D46" s="45">
-        <v>133424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="87">
+        <v>133887</v>
+      </c>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="73">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>74305</v>
+        <v>75163</v>
       </c>
       <c r="C47" s="47">
-        <v>75612</v>
+        <v>76603</v>
       </c>
       <c r="D47" s="47">
-        <v>149917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="85">
+        <v>151766</v>
+      </c>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="69">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>74553</v>
+        <v>73845</v>
       </c>
       <c r="C48" s="45">
-        <v>68382</v>
+        <v>67325</v>
       </c>
       <c r="D48" s="45">
-        <v>142935</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="87">
+        <v>141170</v>
+      </c>
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="73">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>80791</v>
+        <v>81423</v>
       </c>
       <c r="C49" s="47">
-        <v>74961</v>
+        <v>75927</v>
       </c>
       <c r="D49" s="47">
-        <v>155752</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="85">
+        <v>157350</v>
+      </c>
+      <c r="E49" s="68"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="69">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62215</v>
+        <v>62181</v>
       </c>
       <c r="C50" s="45">
-        <v>46068</v>
+        <v>45591</v>
       </c>
       <c r="D50" s="45">
-        <v>108283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="86">
+        <v>107772</v>
+      </c>
+      <c r="E50" s="68"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="71">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40021</v>
+        <v>40048</v>
       </c>
       <c r="C51" s="46">
-        <v>25063</v>
+        <v>25262</v>
       </c>
       <c r="D51" s="46">
-        <v>65084</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="85">
+        <v>65310</v>
+      </c>
+      <c r="E51" s="68"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="69">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71140</v>
+        <v>71144</v>
       </c>
       <c r="C52" s="45">
-        <v>55813</v>
+        <v>55627</v>
       </c>
       <c r="D52" s="45">
-        <v>126953</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="86">
+        <v>126771</v>
+      </c>
+      <c r="E52" s="68"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="71">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81633</v>
+        <v>81988</v>
       </c>
       <c r="C53" s="46">
-        <v>53743</v>
+        <v>54456</v>
       </c>
       <c r="D53" s="46">
-        <v>135376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="85">
+        <v>136444</v>
+      </c>
+      <c r="E53" s="68"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="69">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>94203</v>
+        <v>93380</v>
       </c>
       <c r="C54" s="45">
-        <v>55835</v>
+        <v>55659</v>
       </c>
       <c r="D54" s="45">
-        <v>150038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
+        <v>149039</v>
+      </c>
+      <c r="E54" s="68"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="71">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>92147</v>
+        <v>91431</v>
       </c>
       <c r="C55" s="46">
-        <v>51163</v>
+        <v>51244</v>
       </c>
       <c r="D55" s="46">
-        <v>143310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="85">
+        <v>142675</v>
+      </c>
+      <c r="E55" s="68"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="69">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99363</v>
+        <v>99745</v>
       </c>
       <c r="C56" s="45">
-        <v>53866</v>
+        <v>54772</v>
       </c>
       <c r="D56" s="45">
-        <v>153229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
+        <v>154517</v>
+      </c>
+      <c r="E56" s="68"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="71">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76426</v>
+        <v>76311</v>
       </c>
       <c r="C57" s="46">
-        <v>37821</v>
+        <v>37111</v>
       </c>
       <c r="D57" s="46">
-        <v>114247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="85">
+        <v>113422</v>
+      </c>
+      <c r="E57" s="68"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="69">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>56943</v>
+        <v>57053</v>
       </c>
       <c r="C58" s="45">
-        <v>28992</v>
+        <v>29110</v>
       </c>
       <c r="D58" s="45">
-        <v>85935</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="86">
+        <v>86163</v>
+      </c>
+      <c r="E58" s="68"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="71">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100017</v>
+        <v>100176</v>
       </c>
       <c r="C59" s="46">
-        <v>60442</v>
+        <v>60117</v>
       </c>
       <c r="D59" s="46">
-        <v>160459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="85">
+        <v>160293</v>
+      </c>
+      <c r="E59" s="68"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="69">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107155</v>
+        <v>107365</v>
       </c>
       <c r="C60" s="45">
-        <v>59694</v>
+        <v>59703</v>
       </c>
       <c r="D60" s="45">
-        <v>166849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="86">
+        <v>167068</v>
+      </c>
+      <c r="E60" s="68"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="71">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116139</v>
+        <v>116404</v>
       </c>
       <c r="C61" s="46">
-        <v>59282</v>
+        <v>59603</v>
       </c>
       <c r="D61" s="46">
-        <v>175421</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="85">
+        <v>176007</v>
+      </c>
+      <c r="E61" s="68"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="69">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130310</v>
+        <v>130633</v>
       </c>
       <c r="C62" s="45">
-        <v>58427</v>
+        <v>58676</v>
       </c>
       <c r="D62" s="45">
-        <v>188737</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="87">
+        <v>189309</v>
+      </c>
+      <c r="E62" s="68"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="73">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144061</v>
+        <v>144334</v>
       </c>
       <c r="C63" s="47">
-        <v>65086</v>
+        <v>65427</v>
       </c>
       <c r="D63" s="47">
-        <v>209147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="85">
+        <v>209761</v>
+      </c>
+      <c r="E63" s="68"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="69">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108537</v>
+        <v>108540</v>
       </c>
       <c r="C64" s="45">
-        <v>40154</v>
+        <v>40020</v>
       </c>
       <c r="D64" s="45">
-        <v>148691</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="87">
+        <v>148560</v>
+      </c>
+      <c r="E64" s="68"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83829</v>
+        <v>83824</v>
       </c>
       <c r="C65" s="47">
-        <v>24291</v>
+        <v>24292</v>
       </c>
       <c r="D65" s="47">
-        <v>108120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="85">
+        <v>108116</v>
+      </c>
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="69">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146245</v>
+        <v>146444</v>
       </c>
       <c r="C66" s="45">
-        <v>49298</v>
+        <v>49367</v>
       </c>
       <c r="D66" s="45">
-        <v>195543</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="86">
+        <v>195811</v>
+      </c>
+      <c r="E66" s="68"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="71">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166120</v>
+        <v>166185</v>
       </c>
       <c r="C67" s="46">
-        <v>53621</v>
+        <v>53648</v>
       </c>
       <c r="D67" s="46">
-        <v>219741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="85">
+        <v>219833</v>
+      </c>
+      <c r="E67" s="68"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="69">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174648</v>
+        <v>174779</v>
       </c>
       <c r="C68" s="45">
-        <v>68950</v>
+        <v>68991</v>
       </c>
       <c r="D68" s="45">
-        <v>243598</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="86">
+        <v>243770</v>
+      </c>
+      <c r="E68" s="68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="71">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180361</v>
+        <v>180445</v>
       </c>
       <c r="C69" s="46">
-        <v>62654</v>
+        <v>62658</v>
       </c>
       <c r="D69" s="46">
-        <v>243015</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="85">
+        <v>243103</v>
+      </c>
+      <c r="E69" s="68"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="69">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201433</v>
+        <v>201684</v>
       </c>
       <c r="C70" s="45">
-        <v>67393</v>
+        <v>67428</v>
       </c>
       <c r="D70" s="45">
-        <v>268826</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="86">
+        <v>269112</v>
+      </c>
+      <c r="E70" s="68"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="71">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153124</v>
+        <v>153161</v>
       </c>
       <c r="C71" s="46">
-        <v>49297</v>
+        <v>49301</v>
       </c>
       <c r="D71" s="46">
-        <v>202421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="85">
+        <v>202462</v>
+      </c>
+      <c r="E71" s="68"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="69">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115886</v>
+        <v>115921</v>
       </c>
       <c r="C72" s="45">
-        <v>34461</v>
+        <v>34468</v>
       </c>
       <c r="D72" s="45">
-        <v>150347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="86">
+        <v>150389</v>
+      </c>
+      <c r="E72" s="68"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="71">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186378</v>
+        <v>186654</v>
       </c>
       <c r="C73" s="46">
-        <v>52474</v>
+        <v>52505</v>
       </c>
       <c r="D73" s="46">
-        <v>238852</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="85">
+        <v>239159</v>
+      </c>
+      <c r="E73" s="68"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="69">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195344</v>
+        <v>195473</v>
       </c>
       <c r="C74" s="45">
-        <v>54770</v>
+        <v>54776</v>
       </c>
       <c r="D74" s="45">
-        <v>250114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="86">
+        <v>250249</v>
+      </c>
+      <c r="E74" s="68"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="71">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217654</v>
+        <v>217499</v>
       </c>
       <c r="C75" s="46">
-        <v>65645</v>
+        <v>65695</v>
       </c>
       <c r="D75" s="46">
-        <v>283299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="85">
+        <v>283194</v>
+      </c>
+      <c r="E75" s="68"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="69">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220528</v>
+        <v>220584</v>
       </c>
       <c r="C76" s="45">
-        <v>60912</v>
+        <v>60911</v>
       </c>
       <c r="D76" s="45">
-        <v>281440</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="86">
+        <v>281495</v>
+      </c>
+      <c r="E76" s="68"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="71">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252000</v>
+        <v>252230</v>
       </c>
       <c r="C77" s="46">
-        <v>71588</v>
+        <v>71656</v>
       </c>
       <c r="D77" s="46">
-        <v>323588</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="85">
+        <v>323886</v>
+      </c>
+      <c r="E77" s="68"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="69">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197021</v>
+        <v>197077</v>
       </c>
       <c r="C78" s="45">
-        <v>49454</v>
+        <v>49453</v>
       </c>
       <c r="D78" s="45">
-        <v>246475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="87">
+        <v>246530</v>
+      </c>
+      <c r="E78" s="68"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="73">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135196</v>
+        <v>135185</v>
       </c>
       <c r="C79" s="47">
-        <v>35997</v>
+        <v>35996</v>
       </c>
       <c r="D79" s="47">
-        <v>171193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="85">
+        <v>171181</v>
+      </c>
+      <c r="E79" s="68"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="69">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189298</v>
+        <v>189401</v>
       </c>
       <c r="C80" s="45">
-        <v>58858</v>
+        <v>58866</v>
       </c>
       <c r="D80" s="45">
-        <v>248156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="87">
+        <v>248267</v>
+      </c>
+      <c r="E80" s="68"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112089</v>
+        <v>112136</v>
       </c>
       <c r="C81" s="47">
         <v>67021</v>
       </c>
       <c r="D81" s="47">
-        <v>179110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="85">
+        <v>179157</v>
+      </c>
+      <c r="E81" s="68"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="69">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125596</v>
+        <v>125748</v>
       </c>
       <c r="C82" s="45">
-        <v>79473</v>
+        <v>79463</v>
       </c>
       <c r="D82" s="45">
-        <v>205069</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="86">
+        <v>205211</v>
+      </c>
+      <c r="E82" s="68"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="71">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119283</v>
+        <v>119353</v>
       </c>
       <c r="C83" s="46">
-        <v>75484</v>
+        <v>75346</v>
       </c>
       <c r="D83" s="46">
-        <v>194767</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="85">
+        <v>194699</v>
+      </c>
+      <c r="E83" s="68"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="69">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>160836</v>
+        <v>161059</v>
       </c>
       <c r="C84" s="45">
-        <v>82778</v>
+        <v>82843</v>
       </c>
       <c r="D84" s="45">
-        <v>243614</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="86">
+        <v>243902</v>
+      </c>
+      <c r="E84" s="68"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="71">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166281</v>
+        <v>166332</v>
       </c>
       <c r="C85" s="46">
-        <v>53895</v>
+        <v>53892</v>
       </c>
       <c r="D85" s="46">
-        <v>220176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="85">
+        <v>220224</v>
+      </c>
+      <c r="E85" s="68"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="69">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127296</v>
+        <v>127330</v>
       </c>
       <c r="C86" s="45">
-        <v>38778</v>
+        <v>38773</v>
       </c>
       <c r="D86" s="45">
-        <v>166074</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="86">
+        <v>166103</v>
+      </c>
+      <c r="E86" s="68"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="71">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189908</v>
+        <v>189990</v>
       </c>
       <c r="C87" s="46">
-        <v>76151</v>
+        <v>76166</v>
       </c>
       <c r="D87" s="46">
-        <v>266059</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="85">
+        <v>266156</v>
+      </c>
+      <c r="E87" s="68"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="69">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>213967</v>
+        <v>214088</v>
       </c>
       <c r="C88" s="45">
-        <v>83735</v>
+        <v>83768</v>
       </c>
       <c r="D88" s="45">
-        <v>297702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="86">
+        <v>297856</v>
+      </c>
+      <c r="E88" s="68"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="71">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245728</v>
+        <v>245702</v>
       </c>
       <c r="C89" s="46">
-        <v>88247</v>
+        <v>88314</v>
       </c>
       <c r="D89" s="46">
-        <v>333975</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="85">
+        <v>334016</v>
+      </c>
+      <c r="E89" s="68"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="69">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257096</v>
+        <v>257180</v>
       </c>
       <c r="C90" s="45">
-        <v>80125</v>
+        <v>80160</v>
       </c>
       <c r="D90" s="45">
-        <v>337221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="86">
+        <v>337340</v>
+      </c>
+      <c r="E90" s="68"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="71">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285832</v>
+        <v>285938</v>
       </c>
       <c r="C91" s="46">
-        <v>88753</v>
+        <v>88756</v>
       </c>
       <c r="D91" s="46">
-        <v>374585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="85">
+        <v>374694</v>
+      </c>
+      <c r="E91" s="68"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="69">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223529</v>
+        <v>223584</v>
       </c>
       <c r="C92" s="45">
-        <v>63185</v>
+        <v>63178</v>
       </c>
       <c r="D92" s="45">
-        <v>286714</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="86">
+        <v>286762</v>
+      </c>
+      <c r="E92" s="68"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="71">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144137</v>
+        <v>144168</v>
       </c>
       <c r="C93" s="46">
-        <v>52747</v>
+        <v>52749</v>
       </c>
       <c r="D93" s="46">
-        <v>196884</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="85">
+        <v>196917</v>
+      </c>
+      <c r="E93" s="68"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="69">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219347</v>
+        <v>219480</v>
       </c>
       <c r="C94" s="45">
-        <v>89033</v>
+        <v>89034</v>
       </c>
       <c r="D94" s="45">
-        <v>308380</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="87">
+        <v>308514</v>
+      </c>
+      <c r="E94" s="68"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="73">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234609</v>
+        <v>234668</v>
       </c>
       <c r="C95" s="47">
-        <v>93362</v>
+        <v>93378</v>
       </c>
       <c r="D95" s="47">
-        <v>327971</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="85">
+        <v>328046</v>
+      </c>
+      <c r="E95" s="68"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="69">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238100</v>
+        <v>238176</v>
       </c>
       <c r="C96" s="45">
-        <v>103074</v>
+        <v>103113</v>
       </c>
       <c r="D96" s="45">
-        <v>341174</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="87">
+        <v>341289</v>
+      </c>
+      <c r="E96" s="68"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="73">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>230925</v>
+        <v>231047</v>
       </c>
       <c r="C97" s="47">
-        <v>92421</v>
+        <v>92445</v>
       </c>
       <c r="D97" s="47">
-        <v>323346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="85">
+        <v>323492</v>
+      </c>
+      <c r="E97" s="68"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="69">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158220</v>
+        <v>158230</v>
       </c>
       <c r="C98" s="45">
-        <v>71614</v>
+        <v>71613</v>
       </c>
       <c r="D98" s="45">
-        <v>229834</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="86">
+        <v>229843</v>
+      </c>
+      <c r="E98" s="68"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="71">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165784</v>
+        <v>165891</v>
       </c>
       <c r="C99" s="46">
-        <v>66036</v>
+        <v>66038</v>
       </c>
       <c r="D99" s="46">
-        <v>231820</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="85">
+        <v>231929</v>
+      </c>
+      <c r="E99" s="68"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="69">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142496</v>
+        <v>142475</v>
       </c>
       <c r="C100" s="45">
-        <v>53571</v>
+        <v>53569</v>
       </c>
       <c r="D100" s="45">
-        <v>196067</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="86">
+        <v>196044</v>
+      </c>
+      <c r="E100" s="68"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="71">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176140</v>
+        <v>176190</v>
       </c>
       <c r="C101" s="46">
-        <v>73419</v>
+        <v>73413</v>
       </c>
       <c r="D101" s="46">
-        <v>249559</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="85">
+        <v>249603</v>
+      </c>
+      <c r="E101" s="68"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="69">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>278992</v>
+        <v>279003</v>
       </c>
       <c r="C102" s="45">
-        <v>99154</v>
+        <v>99150</v>
       </c>
       <c r="D102" s="45">
-        <v>378146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="86">
+        <v>378153</v>
+      </c>
+      <c r="E102" s="68"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="71">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580266</v>
+        <v>580245</v>
       </c>
       <c r="C103" s="46">
-        <v>97115</v>
+        <v>97116</v>
       </c>
       <c r="D103" s="46">
-        <v>677381</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="85">
+        <v>677361</v>
+      </c>
+      <c r="E103" s="68"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="69">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642901</v>
+        <v>642886</v>
       </c>
       <c r="C104" s="45">
-        <v>89759</v>
+        <v>89768</v>
       </c>
       <c r="D104" s="45">
-        <v>732660</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="86">
+        <v>732654</v>
+      </c>
+      <c r="E104" s="68"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="71">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534568</v>
+        <v>534601</v>
       </c>
       <c r="C105" s="46">
-        <v>88350</v>
+        <v>88356</v>
       </c>
       <c r="D105" s="46">
-        <v>622918</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="85">
+        <v>622957</v>
+      </c>
+      <c r="E105" s="68"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="69">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302946</v>
+        <v>302926</v>
       </c>
       <c r="C106" s="45">
-        <v>65472</v>
+        <v>65480</v>
       </c>
       <c r="D106" s="45">
-        <v>368418</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="86">
+        <v>368406</v>
+      </c>
+      <c r="E106" s="68"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="71">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210486</v>
+        <v>210480</v>
       </c>
       <c r="C107" s="46">
-        <v>50096</v>
+        <v>50099</v>
       </c>
       <c r="D107" s="46">
-        <v>260582</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="85">
+        <v>260579</v>
+      </c>
+      <c r="E107" s="68"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="69">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338550</v>
+        <v>338566</v>
       </c>
       <c r="C108" s="45">
-        <v>76825</v>
+        <v>76836</v>
       </c>
       <c r="D108" s="45">
-        <v>415375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="86">
+        <v>415402</v>
+      </c>
+      <c r="E108" s="68"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="71">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497556</v>
+        <v>497596</v>
       </c>
       <c r="C109" s="46">
-        <v>73403</v>
+        <v>73406</v>
       </c>
       <c r="D109" s="46">
-        <v>570959</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="85">
+        <v>571002</v>
+      </c>
+      <c r="E109" s="68"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="69">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690286</v>
+        <v>690330</v>
       </c>
       <c r="C110" s="45">
-        <v>83386</v>
+        <v>83379</v>
       </c>
       <c r="D110" s="45">
-        <v>773672</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="87">
+        <v>773709</v>
+      </c>
+      <c r="E110" s="68"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="73">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608437</v>
+        <v>608448</v>
       </c>
       <c r="C111" s="47">
-        <v>70774</v>
+        <v>70788</v>
       </c>
       <c r="D111" s="47">
-        <v>679211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="85">
+        <v>679236</v>
+      </c>
+      <c r="E111" s="68"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="69">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517782</v>
+        <v>517790</v>
       </c>
       <c r="C112" s="45">
-        <v>75352</v>
+        <v>75377</v>
       </c>
       <c r="D112" s="45">
-        <v>593134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="87">
+        <v>593167</v>
+      </c>
+      <c r="E112" s="68"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="73">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305698</v>
+        <v>305728</v>
       </c>
       <c r="C113" s="47">
-        <v>56281</v>
+        <v>56364</v>
       </c>
       <c r="D113" s="47">
-        <v>361979</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="85">
+        <v>362092</v>
+      </c>
+      <c r="E113" s="68"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="69">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226951</v>
+        <v>226949</v>
       </c>
       <c r="C114" s="45">
         <v>39225</v>
       </c>
       <c r="D114" s="45">
-        <v>266176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="86">
+        <v>266174</v>
+      </c>
+      <c r="E114" s="68"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="71">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338041</v>
+        <v>338161</v>
       </c>
       <c r="C115" s="46">
-        <v>60615</v>
+        <v>60753</v>
       </c>
       <c r="D115" s="46">
-        <v>398656</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="85">
+        <v>398914</v>
+      </c>
+      <c r="E115" s="68"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="69">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493424</v>
+        <v>493384</v>
       </c>
       <c r="C116" s="45">
-        <v>61263</v>
+        <v>61315</v>
       </c>
       <c r="D116" s="45">
-        <v>554687</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="86">
+        <v>554699</v>
+      </c>
+      <c r="E116" s="68"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="71">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641288</v>
+        <v>641348</v>
       </c>
       <c r="C117" s="46">
-        <v>71407</v>
+        <v>71478</v>
       </c>
       <c r="D117" s="46">
-        <v>712695</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="85">
+        <v>712826</v>
+      </c>
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="69">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567440</v>
+        <v>567617</v>
       </c>
       <c r="C118" s="45">
-        <v>65644</v>
+        <v>65652</v>
       </c>
       <c r="D118" s="45">
-        <v>633084</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="86">
+        <v>633269</v>
+      </c>
+      <c r="E118" s="68"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="71">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>482841</v>
+        <v>483270</v>
       </c>
       <c r="C119" s="46">
-        <v>67114</v>
+        <v>67189</v>
       </c>
       <c r="D119" s="46">
-        <v>549955</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="85">
+        <v>550459</v>
+      </c>
+      <c r="E119" s="68"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="69">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>308746</v>
+        <v>309226</v>
       </c>
       <c r="C120" s="45">
-        <v>59503</v>
+        <v>59523</v>
       </c>
       <c r="D120" s="45">
-        <v>368249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="86">
+        <v>368749</v>
+      </c>
+      <c r="E120" s="68"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="71">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235461</v>
+        <v>235428</v>
       </c>
       <c r="C121" s="46">
-        <v>47554</v>
+        <v>47578</v>
       </c>
       <c r="D121" s="46">
-        <v>283015</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="85">
+        <v>283006</v>
+      </c>
+      <c r="E121" s="68"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="69">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354197</v>
+        <v>354343</v>
       </c>
       <c r="C122" s="45">
-        <v>72812</v>
+        <v>73113</v>
       </c>
       <c r="D122" s="45">
-        <v>427009</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="86">
+        <v>427456</v>
+      </c>
+      <c r="E122" s="68"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="71">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693113</v>
+        <v>693306</v>
       </c>
       <c r="C123" s="46">
-        <v>89829</v>
+        <v>90055</v>
       </c>
       <c r="D123" s="46">
-        <v>782942</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="85">
+        <v>783361</v>
+      </c>
+      <c r="E123" s="68"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="69">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>992136</v>
+        <v>993112</v>
       </c>
       <c r="C124" s="45">
-        <v>125824</v>
+        <v>126492</v>
       </c>
       <c r="D124" s="45">
-        <v>1117960</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="86">
+        <v>1119604</v>
+      </c>
+      <c r="E124" s="68"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="71">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>806808</v>
+        <v>807811</v>
       </c>
       <c r="C125" s="46">
-        <v>130503</v>
+        <v>131275</v>
       </c>
       <c r="D125" s="46">
-        <v>937311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="85">
+        <v>939086</v>
+      </c>
+      <c r="E125" s="68"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="69">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>660353</v>
+        <v>660705</v>
       </c>
       <c r="C126" s="45">
-        <v>136351</v>
+        <v>136519</v>
       </c>
       <c r="D126" s="45">
-        <v>796704</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="86">
+        <v>797224</v>
+      </c>
+      <c r="E126" s="68"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="71">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>257461</v>
+        <v>257772</v>
       </c>
       <c r="C127" s="46">
-        <v>75651</v>
+        <v>75690</v>
       </c>
       <c r="D127" s="46">
-        <v>333112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="85">
+        <v>333462</v>
+      </c>
+      <c r="E127" s="68"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="69">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>194726</v>
+        <v>195034</v>
       </c>
       <c r="C128" s="45">
-        <v>67326</v>
+        <v>67362</v>
       </c>
       <c r="D128" s="45">
-        <v>262052</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="86">
+        <v>262396</v>
+      </c>
+      <c r="E128" s="68"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="71">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>331642</v>
+        <v>332355</v>
       </c>
       <c r="C129" s="46">
-        <v>114182</v>
+        <v>114817</v>
       </c>
       <c r="D129" s="46">
-        <v>445824</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="85">
+        <v>447172</v>
+      </c>
+      <c r="E129" s="68"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="69">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>675031</v>
+        <v>676330</v>
       </c>
       <c r="C130" s="45">
-        <v>158317</v>
+        <v>159302</v>
       </c>
       <c r="D130" s="45">
-        <v>833348</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="86">
+        <v>835632</v>
+      </c>
+      <c r="E130" s="68"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="71">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>898486</v>
+        <v>903068</v>
       </c>
       <c r="C131" s="46">
-        <v>217486</v>
+        <v>221838</v>
       </c>
       <c r="D131" s="46">
-        <v>1115972</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="85">
+        <v>1124906</v>
+      </c>
+      <c r="E131" s="68"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="69">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>737613</v>
+        <v>745264</v>
       </c>
       <c r="C132" s="45">
-        <v>205026</v>
+        <v>208730</v>
       </c>
       <c r="D132" s="45">
-        <v>942639</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="86">
+        <v>953994</v>
+      </c>
+      <c r="E132" s="68"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="71">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>619589</v>
+        <v>628739</v>
       </c>
       <c r="C133" s="46">
-        <v>198839</v>
+        <v>208811</v>
       </c>
       <c r="D133" s="46">
-        <v>818428</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="85">
+        <v>837550</v>
+      </c>
+      <c r="E133" s="68"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="69">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>255702</v>
+        <v>262982</v>
       </c>
       <c r="C134" s="45">
-        <v>139902</v>
+        <v>145561</v>
       </c>
       <c r="D134" s="45">
-        <v>395604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="86">
+        <v>408543</v>
+      </c>
+      <c r="E134" s="68"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="71">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>170844</v>
+        <v>172912</v>
       </c>
       <c r="C135" s="46">
-        <v>97943</v>
+        <v>98862</v>
       </c>
       <c r="D135" s="46">
-        <v>268787</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="85"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="86" t="s">
+        <v>271774</v>
+      </c>
+      <c r="E135" s="68"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="69">
+        <v>44326</v>
+      </c>
+      <c r="B136" s="45">
+        <v>381100</v>
+      </c>
+      <c r="C136" s="45">
+        <v>176512</v>
+      </c>
+      <c r="D136" s="45">
+        <v>557612</v>
+      </c>
+      <c r="E136" s="68"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="71"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="68"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="46">
-        <v>27266358</v>
-      </c>
-      <c r="C137" s="46">
-        <v>7813381</v>
-      </c>
-      <c r="D137" s="46">
-        <v>35079739</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="88"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="88"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B139" s="88"/>
-      <c r="C139" s="88"/>
-      <c r="D139" s="88"/>
+      <c r="B138" s="46">
+        <v>27686865</v>
+      </c>
+      <c r="C138" s="46">
+        <v>8022890</v>
+      </c>
+      <c r="D138" s="46">
+        <v>35709755</v>
+      </c>
+      <c r="E138" s="68"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="68"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="68"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF22DE-585C-44AE-BA7C-521C7EEFCBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90800226-8018-4D30-95A5-B2CB4ABCC057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_10.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_10.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_11.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_11.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_10.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_10.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_11.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_11.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,13 +248,10 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 10.05.21 (Impfquote_bis_einschl_10.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.05.21 durchgeführt und bis zum 11.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 10.05.21 (Impfstoff_bis_einschl_10.05.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 11.05.21 (Impfquote_bis_einschl_11.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 11.05.21 (Impfstoff_bis_einschl_11.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +272,10 @@
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2307.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
   <si>
-    <t>Datenstand: 11.05.2021, 11:00 Uhr</t>
+    <t>Datenstand: 12.05.2021, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.05.21 durchgeführt und bis zum 12.05.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -369,15 +369,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -723,25 +723,25 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,6 +763,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,24 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1143,113 +1143,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1264,32 +1264,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.453125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="4"/>
-    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="12" max="14" width="11.453125" style="4"/>
+    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="4"/>
+    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="80" t="s">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="S2" s="81"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
       <c r="C3" s="80"/>
@@ -1380,7 +1380,7 @@
       <c r="R3" s="81"/>
       <c r="S3" s="81"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="80"/>
@@ -1429,7 +1429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -1437,58 +1437,58 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>4634755</v>
+        <v>4807333</v>
       </c>
       <c r="D5" s="32">
-        <v>3614700</v>
+        <v>3733109</v>
       </c>
       <c r="E5" s="32">
-        <v>1020055</v>
+        <v>1074224</v>
       </c>
       <c r="F5" s="33">
-        <v>32.563708999878742</v>
+        <v>33.630418884230593</v>
       </c>
       <c r="G5" s="33">
-        <v>19.21538553664336</v>
+        <v>20.192494171379792</v>
       </c>
       <c r="H5" s="33">
-        <v>68.761509820373092</v>
+        <v>70.138030725021522</v>
       </c>
       <c r="I5" s="33">
-        <v>9.1893585038513059</v>
+        <v>9.6773501913535682</v>
       </c>
       <c r="J5" s="33">
-        <v>4.1136591413538666</v>
+        <v>4.4660624106547253</v>
       </c>
       <c r="K5" s="33">
-        <v>22.862926248689856</v>
+        <v>23.653501800021981</v>
       </c>
       <c r="L5" s="32">
-        <v>1246017</v>
+        <v>1287232</v>
       </c>
       <c r="M5" s="32">
-        <v>1454695</v>
+        <v>1470013</v>
       </c>
       <c r="N5" s="32">
-        <v>313536</v>
+        <v>337395</v>
       </c>
       <c r="O5" s="32">
-        <v>645781</v>
+        <v>660280</v>
       </c>
       <c r="P5" s="34">
-        <v>313501</v>
+        <v>351588</v>
       </c>
       <c r="Q5" s="34">
-        <v>597429</v>
+        <v>623192</v>
       </c>
       <c r="R5" s="34">
-        <v>20328</v>
+        <v>25070</v>
       </c>
       <c r="S5" s="34">
-        <v>36542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1496,58 +1496,58 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5649046</v>
+        <v>5822947</v>
       </c>
       <c r="D6" s="13">
-        <v>4446626</v>
+        <v>4580940</v>
       </c>
       <c r="E6" s="13">
-        <v>1202420</v>
+        <v>1242007</v>
       </c>
       <c r="F6" s="14">
-        <v>33.879734123434247</v>
+        <v>34.903099391629716</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="14">
-        <v>9.1614788166802885</v>
+        <v>9.4631000986915019</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6" s="17">
-        <v>514093</v>
+        <v>571471</v>
       </c>
       <c r="Q6" s="18">
-        <v>742183</v>
+        <v>777667</v>
       </c>
       <c r="R6" s="17">
-        <v>22543</v>
+        <v>27945</v>
       </c>
       <c r="S6" s="18">
-        <v>24873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1555,58 +1555,58 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1522301</v>
+        <v>1568820</v>
       </c>
       <c r="D7" s="37">
-        <v>1108113</v>
+        <v>1144475</v>
       </c>
       <c r="E7" s="37">
-        <v>414188</v>
+        <v>424345</v>
       </c>
       <c r="F7" s="38">
-        <v>30.198002938282176</v>
+        <v>31.188930562849183</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="38">
-        <v>11.287342031905787</v>
+        <v>11.564137914495499</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" s="41">
-        <v>205576</v>
+        <v>226390</v>
       </c>
       <c r="Q7" s="41">
-        <v>109092</v>
+        <v>114129</v>
       </c>
       <c r="R7" s="41">
-        <v>11496</v>
+        <v>14253</v>
       </c>
       <c r="S7" s="41">
-        <v>7359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1614,58 +1614,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>986534</v>
+        <v>1027110</v>
       </c>
       <c r="D8" s="13">
-        <v>735705</v>
+        <v>759468</v>
       </c>
       <c r="E8" s="13">
-        <v>250829</v>
+        <v>267642</v>
       </c>
       <c r="F8" s="14">
-        <v>29.172728581268121</v>
+        <v>30.114996948720663</v>
       </c>
       <c r="G8" s="44">
-        <v>15.502008887500526</v>
+        <v>16.233562235873151</v>
       </c>
       <c r="H8" s="44">
-        <v>56.122858785023574</v>
+        <v>57.526687781216715</v>
       </c>
       <c r="I8" s="44">
-        <v>9.9460603602135382</v>
+        <v>10.612742094926311</v>
       </c>
       <c r="J8" s="63">
-        <v>4.7263138526563404</v>
+        <v>5.1280913527613547</v>
       </c>
       <c r="K8" s="44">
-        <v>20.478107482198126</v>
+        <v>21.649868815637273</v>
       </c>
       <c r="L8" s="17">
-        <v>185533</v>
+        <v>189485</v>
       </c>
       <c r="M8" s="18">
-        <v>288785</v>
+        <v>290824</v>
       </c>
       <c r="N8" s="17">
-        <v>71079</v>
+        <v>75922</v>
       </c>
       <c r="O8" s="18">
-        <v>152237</v>
+        <v>157817</v>
       </c>
       <c r="P8" s="17">
-        <v>76488</v>
+        <v>84901</v>
       </c>
       <c r="Q8" s="18">
-        <v>177963</v>
+        <v>187599</v>
       </c>
       <c r="R8" s="17">
-        <v>8807</v>
+        <v>10755</v>
       </c>
       <c r="S8" s="18">
-        <v>18070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1673,58 +1673,58 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>320235</v>
+        <v>329573</v>
       </c>
       <c r="D9" s="37">
-        <v>235218</v>
+        <v>241707</v>
       </c>
       <c r="E9" s="37">
-        <v>85017</v>
+        <v>87866</v>
       </c>
       <c r="F9" s="38">
-        <v>34.529845772619581</v>
+        <v>35.482426651712707</v>
       </c>
       <c r="G9" s="64">
-        <v>18.444752408041889</v>
+        <v>19.41160546900252</v>
       </c>
       <c r="H9" s="64">
-        <v>78.127114729797952</v>
+        <v>79.065920491530335</v>
       </c>
       <c r="I9" s="64">
-        <v>12.480438988728746</v>
+        <v>12.898670291631555</v>
       </c>
       <c r="J9" s="64">
-        <v>4.3779090438942401</v>
+        <v>4.5772997608119468</v>
       </c>
       <c r="K9" s="64">
-        <v>33.187428166321148</v>
+        <v>34.163292050227184</v>
       </c>
       <c r="L9" s="42">
-        <v>65914</v>
+        <v>67419</v>
       </c>
       <c r="M9" s="42">
-        <v>118005</v>
+        <v>118796</v>
       </c>
       <c r="N9" s="42">
-        <v>20589</v>
+        <v>21319</v>
       </c>
       <c r="O9" s="42">
-        <v>60545</v>
+        <v>62046</v>
       </c>
       <c r="P9" s="42">
-        <v>25389</v>
+        <v>28670</v>
       </c>
       <c r="Q9" s="42">
-        <v>27463</v>
+        <v>28420</v>
       </c>
       <c r="R9" s="42">
-        <v>1082</v>
+        <v>1339</v>
       </c>
       <c r="S9" s="42">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1732,58 +1732,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>777189</v>
+        <v>795322</v>
       </c>
       <c r="D10" s="13">
-        <v>612767</v>
+        <v>626907</v>
       </c>
       <c r="E10" s="13">
-        <v>164422</v>
+        <v>168415</v>
       </c>
       <c r="F10" s="14">
-        <v>33.171796175185534</v>
+        <v>33.937257105550785</v>
       </c>
       <c r="G10" s="44">
-        <v>21.978627790948657</v>
+        <v>22.758784190226812</v>
       </c>
       <c r="H10" s="44">
-        <v>69.553872267119303</v>
+        <v>70.274502939869137</v>
       </c>
       <c r="I10" s="44">
-        <v>8.9008922979147957</v>
+        <v>9.1170511023665952</v>
       </c>
       <c r="J10" s="44">
-        <v>4.7329535402144298</v>
+        <v>4.8918297300166307</v>
       </c>
       <c r="K10" s="44">
-        <v>22.274373967936654</v>
+        <v>22.675568800768303</v>
       </c>
       <c r="L10" s="18">
-        <v>249926</v>
+        <v>255209</v>
       </c>
       <c r="M10" s="18">
-        <v>221214</v>
+        <v>221742</v>
       </c>
       <c r="N10" s="18">
-        <v>64243</v>
+        <v>65996</v>
       </c>
       <c r="O10" s="18">
-        <v>93696</v>
+        <v>94750</v>
       </c>
       <c r="P10" s="18">
-        <v>60643</v>
+        <v>66384</v>
       </c>
       <c r="Q10" s="18">
-        <v>80791</v>
+        <v>83392</v>
       </c>
       <c r="R10" s="18">
-        <v>2636</v>
+        <v>3128</v>
       </c>
       <c r="S10" s="18">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1791,58 +1791,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2636773</v>
+        <v>2711174</v>
       </c>
       <c r="D11" s="37">
-        <v>2085444</v>
+        <v>2145081</v>
       </c>
       <c r="E11" s="37">
-        <v>551329</v>
+        <v>566093</v>
       </c>
       <c r="F11" s="38">
-        <v>33.16503606824341</v>
+        <v>34.113449574432899</v>
       </c>
       <c r="G11" s="64">
-        <v>20.532611919859928</v>
+        <v>21.379289827440022</v>
       </c>
       <c r="H11" s="64">
-        <v>66.783811114916901</v>
+        <v>68.003138609085894</v>
       </c>
       <c r="I11" s="64">
-        <v>8.7678432844365837</v>
+        <v>9.002636734901591</v>
       </c>
       <c r="J11" s="64">
-        <v>3.446321430040189</v>
+        <v>3.5936724799164197</v>
       </c>
       <c r="K11" s="64">
-        <v>22.937826647187251</v>
+        <v>23.405472410764009</v>
       </c>
       <c r="L11" s="41">
-        <v>730981</v>
+        <v>746014</v>
       </c>
       <c r="M11" s="41">
-        <v>837337</v>
+        <v>843484</v>
       </c>
       <c r="N11" s="41">
-        <v>147501</v>
+        <v>152085</v>
       </c>
       <c r="O11" s="41">
-        <v>379971</v>
+        <v>385013</v>
       </c>
       <c r="P11" s="41">
-        <v>207646</v>
+        <v>231318</v>
       </c>
       <c r="Q11" s="41">
-        <v>309130</v>
+        <v>323915</v>
       </c>
       <c r="R11" s="41">
-        <v>10044</v>
+        <v>12196</v>
       </c>
       <c r="S11" s="41">
-        <v>13799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1850,58 +1850,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>714098</v>
+        <v>738381</v>
       </c>
       <c r="D12" s="13">
-        <v>571124</v>
+        <v>588299</v>
       </c>
       <c r="E12" s="13">
-        <v>142974</v>
+        <v>150082</v>
       </c>
       <c r="F12" s="14">
-        <v>35.514613795582214</v>
+        <v>36.582619153331372</v>
       </c>
       <c r="G12" s="44">
-        <v>20.6707882070924</v>
+        <v>21.533047976681285</v>
       </c>
       <c r="H12" s="44">
-        <v>64.745234096739068</v>
+        <v>66.260542196467782</v>
       </c>
       <c r="I12" s="44">
-        <v>8.890654906481906</v>
+        <v>9.332656774480796</v>
       </c>
       <c r="J12" s="44">
-        <v>3.7475568993911477</v>
+        <v>3.9607303229582058</v>
       </c>
       <c r="K12" s="44">
-        <v>18.974846365364385</v>
+        <v>19.82468119659697</v>
       </c>
       <c r="L12" s="18">
-        <v>152076</v>
+        <v>155518</v>
       </c>
       <c r="M12" s="18">
-        <v>216309</v>
+        <v>217918</v>
       </c>
       <c r="N12" s="18">
-        <v>35345</v>
+        <v>36681</v>
       </c>
       <c r="O12" s="18">
-        <v>96838</v>
+        <v>100019</v>
       </c>
       <c r="P12" s="18">
-        <v>68330</v>
+        <v>74082</v>
       </c>
       <c r="Q12" s="18">
-        <v>134526</v>
+        <v>141128</v>
       </c>
       <c r="R12" s="18">
-        <v>4614</v>
+        <v>5551</v>
       </c>
       <c r="S12" s="18">
-        <v>5981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1909,58 +1909,58 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3418090</v>
+        <v>3523625</v>
       </c>
       <c r="D13" s="37">
-        <v>2753570</v>
+        <v>2836704</v>
       </c>
       <c r="E13" s="37">
-        <v>664520</v>
+        <v>686921</v>
       </c>
       <c r="F13" s="38">
-        <v>34.447148271468905</v>
+        <v>35.487154236234751</v>
       </c>
       <c r="G13" s="64">
-        <v>19.789458378668975</v>
+        <v>20.70039010508598</v>
       </c>
       <c r="H13" s="64">
-        <v>70.917070897095385</v>
+        <v>72.292830734281921</v>
       </c>
       <c r="I13" s="64">
-        <v>8.3131422006182945</v>
+        <v>8.5933786095089975</v>
       </c>
       <c r="J13" s="64">
-        <v>2.6518555472253178</v>
+        <v>2.8151430693371697</v>
       </c>
       <c r="K13" s="64">
-        <v>21.746595406235908</v>
+        <v>22.295360101970267</v>
       </c>
       <c r="L13" s="42">
-        <v>855148</v>
+        <v>875114</v>
       </c>
       <c r="M13" s="42">
-        <v>1171107</v>
+        <v>1180853</v>
       </c>
       <c r="N13" s="42">
-        <v>138527</v>
+        <v>145190</v>
       </c>
       <c r="O13" s="42">
-        <v>488845</v>
+        <v>498523</v>
       </c>
       <c r="P13" s="42">
-        <v>269047</v>
+        <v>300829</v>
       </c>
       <c r="Q13" s="42">
-        <v>469085</v>
+        <v>491158</v>
       </c>
       <c r="R13" s="42">
-        <v>12119</v>
+        <v>14732</v>
       </c>
       <c r="S13" s="42">
-        <v>14117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>17131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1968,58 +1968,58 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>7905775</v>
+        <v>8144001</v>
       </c>
       <c r="D14" s="13">
-        <v>6324384</v>
+        <v>6513730</v>
       </c>
       <c r="E14" s="13">
-        <v>1581391</v>
+        <v>1630271</v>
       </c>
       <c r="F14" s="14">
-        <v>35.238792679936353</v>
+        <v>36.293808384038954</v>
       </c>
       <c r="G14" s="44">
-        <v>20.655697354409934</v>
+        <v>21.689593401828105</v>
       </c>
       <c r="H14" s="44">
-        <v>72.853434761378537</v>
+        <v>73.970434218896273</v>
       </c>
       <c r="I14" s="44">
-        <v>8.811341878500297</v>
+        <v>9.0836960217963547</v>
       </c>
       <c r="J14" s="44">
-        <v>3.8113889073247509</v>
+        <v>4.005452786581869</v>
       </c>
       <c r="K14" s="44">
-        <v>21.632550847999578</v>
+        <v>22.098950118527295</v>
       </c>
       <c r="L14" s="18">
-        <v>1923580</v>
+        <v>1962845</v>
       </c>
       <c r="M14" s="18">
-        <v>2594399</v>
+        <v>2605421</v>
       </c>
       <c r="N14" s="18">
-        <v>465894</v>
+        <v>484021</v>
       </c>
       <c r="O14" s="18">
-        <v>1051870</v>
+        <v>1066118</v>
       </c>
       <c r="P14" s="18">
-        <v>746727</v>
+        <v>841121</v>
       </c>
       <c r="Q14" s="18">
-        <v>1062493</v>
+        <v>1107539</v>
       </c>
       <c r="R14" s="18">
-        <v>26831</v>
+        <v>33792</v>
       </c>
       <c r="S14" s="18">
-        <v>33980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2027,58 +2027,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1770698</v>
+        <v>1827901</v>
       </c>
       <c r="D15" s="37">
-        <v>1306234</v>
+        <v>1347509</v>
       </c>
       <c r="E15" s="37">
-        <v>464464</v>
+        <v>480392</v>
       </c>
       <c r="F15" s="38">
-        <v>31.906813620156608</v>
+        <v>32.915020214206351</v>
       </c>
       <c r="G15" s="64">
-        <v>18.016358520678363</v>
+        <v>18.826863924277816</v>
       </c>
       <c r="H15" s="64">
-        <v>65.504878507406559</v>
+        <v>66.99178906462194</v>
       </c>
       <c r="I15" s="64">
-        <v>11.345261477861101</v>
+        <v>11.734327852907116</v>
       </c>
       <c r="J15" s="64">
-        <v>5.334570335150179</v>
+        <v>5.628599868568557</v>
       </c>
       <c r="K15" s="64">
-        <v>25.89925412113741</v>
+        <v>26.518438041911292</v>
       </c>
       <c r="L15" s="42">
-        <v>403243</v>
+        <v>411459</v>
       </c>
       <c r="M15" s="42">
-        <v>551966</v>
+        <v>556630</v>
       </c>
       <c r="N15" s="42">
-        <v>148415</v>
+        <v>155004</v>
       </c>
       <c r="O15" s="42">
-        <v>298306</v>
+        <v>302195</v>
       </c>
       <c r="P15" s="42">
-        <v>118750</v>
+        <v>134017</v>
       </c>
       <c r="Q15" s="42">
-        <v>231849</v>
+        <v>244977</v>
       </c>
       <c r="R15" s="42">
-        <v>6145</v>
+        <v>8075</v>
       </c>
       <c r="S15" s="42">
-        <v>11598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>15118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2086,58 +2086,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>467350</v>
+        <v>482446</v>
       </c>
       <c r="D16" s="13">
-        <v>369963</v>
+        <v>381473</v>
       </c>
       <c r="E16" s="13">
-        <v>97387</v>
+        <v>100973</v>
       </c>
       <c r="F16" s="14">
-        <v>37.4878785514451</v>
+        <v>38.654172159527889</v>
       </c>
       <c r="G16" s="44">
-        <v>22.165249900791579</v>
+        <v>23.236551664463693</v>
       </c>
       <c r="H16" s="44">
-        <v>69.930602278721722</v>
+        <v>71.298024834086689</v>
       </c>
       <c r="I16" s="44">
-        <v>9.8681004005524446</v>
+        <v>10.231465203209689</v>
       </c>
       <c r="J16" s="44">
-        <v>3.2588101553618798</v>
+        <v>3.4730406709771358</v>
       </c>
       <c r="K16" s="44">
-        <v>23.862139547224881</v>
+        <v>24.54127063847799</v>
       </c>
       <c r="L16" s="18">
-        <v>110447</v>
+        <v>112840</v>
       </c>
       <c r="M16" s="18">
-        <v>166547</v>
+        <v>168184</v>
       </c>
       <c r="N16" s="18">
-        <v>20091</v>
+        <v>20916</v>
       </c>
       <c r="O16" s="18">
-        <v>73593</v>
+        <v>75012</v>
       </c>
       <c r="P16" s="18">
-        <v>38128</v>
+        <v>42916</v>
       </c>
       <c r="Q16" s="18">
-        <v>54840</v>
+        <v>57532</v>
       </c>
       <c r="R16" s="18">
-        <v>1753</v>
+        <v>2364</v>
       </c>
       <c r="S16" s="18">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2145,58 +2145,58 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1724511</v>
+        <v>1770726</v>
       </c>
       <c r="D17" s="37">
-        <v>1186266</v>
+        <v>1212974</v>
       </c>
       <c r="E17" s="37">
-        <v>538245</v>
+        <v>557752</v>
       </c>
       <c r="F17" s="38">
-        <v>29.132476631095848</v>
+        <v>29.788375211905976</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="64">
-        <v>13.21829158410018</v>
+        <v>13.697347058709406</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="41">
-        <v>80805</v>
+        <v>88437</v>
       </c>
       <c r="Q17" s="41">
-        <v>232681</v>
+        <v>246165</v>
       </c>
       <c r="R17" s="41">
-        <v>12280</v>
+        <v>13931</v>
       </c>
       <c r="S17" s="41">
-        <v>36601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2204,58 +2204,58 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>926344</v>
+        <v>956506</v>
       </c>
       <c r="D18" s="13">
-        <v>717365</v>
+        <v>737063</v>
       </c>
       <c r="E18" s="13">
-        <v>208979</v>
+        <v>219443</v>
       </c>
       <c r="F18" s="14">
-        <v>32.685022931662459</v>
+        <v>33.582515256640519</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="44">
-        <v>9.5216290273931534</v>
+        <v>9.9983961960686756</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P18" s="17">
-        <v>50669</v>
+        <v>56089</v>
       </c>
       <c r="Q18" s="18">
-        <v>144161</v>
+        <v>151932</v>
       </c>
       <c r="R18" s="17">
-        <v>2902</v>
+        <v>3752</v>
       </c>
       <c r="S18" s="18">
-        <v>5503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2263,58 +2263,58 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1231524</v>
+        <v>1273869</v>
       </c>
       <c r="D19" s="37">
-        <v>900719</v>
+        <v>927333</v>
       </c>
       <c r="E19" s="37">
-        <v>330805</v>
+        <v>346536</v>
       </c>
       <c r="F19" s="38">
-        <v>31.018919178599702</v>
+        <v>31.935450877186337</v>
       </c>
       <c r="G19" s="64">
-        <v>17.051742711329464</v>
+        <v>17.765462371124404</v>
       </c>
       <c r="H19" s="64">
-        <v>63.82307388028633</v>
+        <v>65.215155013325727</v>
       </c>
       <c r="I19" s="64">
-        <v>11.392247258997173</v>
+        <v>11.933990707951345</v>
       </c>
       <c r="J19" s="64">
-        <v>5.2644680932549166</v>
+        <v>5.748939191438506</v>
       </c>
       <c r="K19" s="64">
-        <v>25.784580893741229</v>
+        <v>26.460843321389564</v>
       </c>
       <c r="L19" s="42">
-        <v>263601</v>
+        <v>267311</v>
       </c>
       <c r="M19" s="42">
-        <v>365662</v>
+        <v>367373</v>
       </c>
       <c r="N19" s="42">
-        <v>102570</v>
+        <v>111459</v>
       </c>
       <c r="O19" s="42">
-        <v>215216</v>
+        <v>218689</v>
       </c>
       <c r="P19" s="42">
-        <v>83684</v>
+        <v>94510</v>
       </c>
       <c r="Q19" s="42">
-        <v>187760</v>
+        <v>198120</v>
       </c>
       <c r="R19" s="42">
-        <v>4649</v>
+        <v>5627</v>
       </c>
       <c r="S19" s="42">
-        <v>8367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2322,173 +2322,173 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>942876</v>
+        <v>972038</v>
       </c>
       <c r="D20" s="13">
-        <v>646522</v>
+        <v>665463</v>
       </c>
       <c r="E20" s="13">
-        <v>296354</v>
+        <v>306575</v>
       </c>
       <c r="F20" s="14">
-        <v>30.305084237298779</v>
+        <v>31.192925023132329</v>
       </c>
       <c r="G20" s="44">
-        <v>16.438048587163077</v>
+        <v>17.023398307247302</v>
       </c>
       <c r="H20" s="44">
-        <v>56.946345844239765</v>
+        <v>58.415154369325464</v>
       </c>
       <c r="I20" s="44">
-        <v>13.891302900845515</v>
+        <v>14.370402244703001</v>
       </c>
       <c r="J20" s="44">
-        <v>6.8249695991651702</v>
+        <v>7.1198541330166609</v>
       </c>
       <c r="K20" s="44">
-        <v>27.454904881334404</v>
+        <v>28.287809258873907</v>
       </c>
       <c r="L20" s="18">
-        <v>189586</v>
+        <v>192216</v>
       </c>
       <c r="M20" s="18">
-        <v>293709</v>
+        <v>295118</v>
       </c>
       <c r="N20" s="18">
-        <v>91181</v>
+        <v>94295</v>
       </c>
       <c r="O20" s="18">
-        <v>189210</v>
+        <v>193007</v>
       </c>
       <c r="P20" s="18">
-        <v>41027</v>
+        <v>46609</v>
       </c>
       <c r="Q20" s="18">
-        <v>122259</v>
+        <v>131579</v>
       </c>
       <c r="R20" s="18">
-        <v>4568</v>
+        <v>5591</v>
       </c>
       <c r="S20" s="18">
-        <v>11336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>81656</v>
+        <v>85412</v>
       </c>
       <c r="D21" s="37">
-        <v>72145</v>
+        <v>74269</v>
       </c>
       <c r="E21" s="37">
-        <v>9511</v>
+        <v>11143</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="41">
-        <v>66432</v>
+        <v>68674</v>
       </c>
       <c r="M21" s="41">
-        <v>6263</v>
+        <v>6440</v>
       </c>
       <c r="N21" s="41">
-        <v>8412</v>
+        <v>9697</v>
       </c>
       <c r="O21" s="41">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>35709755</v>
+        <v>36837184</v>
       </c>
       <c r="D22" s="21">
-        <v>27686865</v>
+        <v>28516504</v>
       </c>
       <c r="E22" s="21">
-        <v>8022890</v>
+        <v>8320680</v>
       </c>
       <c r="F22" s="22">
-        <v>33.290801893079554</v>
+        <v>34.288363285161054</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="22">
-        <v>9.6467563806869805</v>
+        <v>10.004820318071735</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P22" s="25">
-        <v>2900503</v>
+        <v>3239332</v>
       </c>
       <c r="Q22" s="25">
-        <v>4683705</v>
+        <v>4908444</v>
       </c>
       <c r="R22" s="25">
-        <v>152797</v>
+        <v>188101</v>
       </c>
       <c r="S22" s="25">
-        <v>234344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>289167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="78" t="s">
         <v>51</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="S26" s="78"/>
       <c r="T26" s="78"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="78" t="s">
         <v>71</v>
       </c>
@@ -2605,12 +2605,12 @@
       <c r="S29" s="78"/>
       <c r="T29" s="78"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -2664,125 +2664,125 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="85" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="83"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="82" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85" t="s">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="82" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="84"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="85" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="90"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85" t="s">
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="91"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="91"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2840,9 +2840,9 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="85"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="91"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -2850,73 +2850,73 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2696855</v>
+        <v>2751414</v>
       </c>
       <c r="D5" s="45">
-        <v>1681218</v>
+        <v>1718731</v>
       </c>
       <c r="E5" s="45">
-        <v>243288</v>
+        <v>254936</v>
       </c>
       <c r="F5" s="45">
-        <v>772349</v>
+        <v>777747</v>
       </c>
       <c r="G5" s="45">
-        <v>30862</v>
+        <v>25322</v>
       </c>
       <c r="H5" s="45">
-        <v>963174</v>
+        <v>1003506</v>
       </c>
       <c r="I5" s="45">
-        <v>863925</v>
+        <v>891946</v>
       </c>
       <c r="J5" s="45">
-        <v>63261</v>
+        <v>66408</v>
       </c>
       <c r="K5" s="45">
-        <v>32130</v>
+        <v>39318</v>
       </c>
       <c r="L5" s="45">
-        <v>3858</v>
+        <v>5834</v>
       </c>
       <c r="M5" s="45">
-        <v>22925</v>
+        <v>30019</v>
       </c>
       <c r="N5" s="45">
-        <v>917845</v>
+        <v>981695</v>
       </c>
       <c r="O5" s="45">
-        <v>781260</v>
+        <v>833417</v>
       </c>
       <c r="P5" s="45">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="45">
-        <v>136360</v>
+        <v>148046</v>
       </c>
       <c r="R5" s="45">
-        <v>15174</v>
+        <v>63850</v>
       </c>
       <c r="S5" s="45">
-        <v>56881</v>
+        <v>70718</v>
       </c>
       <c r="T5" s="45">
-        <v>54986</v>
+        <v>68360</v>
       </c>
       <c r="U5" s="45">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V5" s="45">
-        <v>1839</v>
+        <v>2301</v>
       </c>
       <c r="W5" s="45">
         <v>17</v>
       </c>
       <c r="X5" s="45">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>13837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2924,73 +2924,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3190029</v>
+        <v>3231481</v>
       </c>
       <c r="D6" s="46">
-        <v>2181265</v>
+        <v>2214893</v>
       </c>
       <c r="E6" s="46">
-        <v>291191</v>
+        <v>297803</v>
       </c>
       <c r="F6" s="46">
-        <v>717573</v>
+        <v>718785</v>
       </c>
       <c r="G6" s="46">
-        <v>36854</v>
+        <v>41452</v>
       </c>
       <c r="H6" s="46">
-        <v>1155005</v>
+        <v>1181873</v>
       </c>
       <c r="I6" s="46">
-        <v>1018893</v>
+        <v>1040730</v>
       </c>
       <c r="J6" s="46">
-        <v>91747</v>
+        <v>94424</v>
       </c>
       <c r="K6" s="46">
-        <v>44364</v>
+        <v>46718</v>
       </c>
       <c r="L6" s="46">
         <v>1</v>
       </c>
       <c r="M6" s="46">
-        <v>24150</v>
+        <v>26868</v>
       </c>
       <c r="N6" s="46">
-        <v>1256597</v>
+        <v>1349459</v>
       </c>
       <c r="O6" s="46">
-        <v>958327</v>
+        <v>1027736</v>
       </c>
       <c r="P6" s="46">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q6" s="46">
-        <v>297885</v>
+        <v>321296</v>
       </c>
       <c r="R6" s="46">
-        <v>28502</v>
+        <v>92862</v>
       </c>
       <c r="S6" s="46">
-        <v>47415</v>
+        <v>60134</v>
       </c>
       <c r="T6" s="46">
-        <v>39966</v>
+        <v>51091</v>
       </c>
       <c r="U6" s="46">
         <v>696</v>
       </c>
       <c r="V6" s="46">
-        <v>6753</v>
+        <v>8347</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>12719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2998,73 +2998,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>791735</v>
+        <v>802246</v>
       </c>
       <c r="D7" s="45">
-        <v>538333</v>
+        <v>544758</v>
       </c>
       <c r="E7" s="45">
-        <v>67649</v>
+        <v>71734</v>
       </c>
       <c r="F7" s="45">
-        <v>185753</v>
+        <v>185754</v>
       </c>
       <c r="G7" s="45">
-        <v>7519</v>
+        <v>10511</v>
       </c>
       <c r="H7" s="45">
-        <v>395326</v>
+        <v>401134</v>
       </c>
       <c r="I7" s="45">
-        <v>342463</v>
+        <v>347523</v>
       </c>
       <c r="J7" s="45">
-        <v>49704</v>
+        <v>50339</v>
       </c>
       <c r="K7" s="45">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="L7" s="45">
-        <v>2834</v>
+        <v>2839</v>
       </c>
       <c r="M7" s="45">
-        <v>6049</v>
+        <v>5808</v>
       </c>
       <c r="N7" s="45">
-        <v>316378</v>
+        <v>342229</v>
       </c>
       <c r="O7" s="45">
-        <v>237001</v>
+        <v>255990</v>
       </c>
       <c r="P7" s="45">
         <v>100</v>
       </c>
       <c r="Q7" s="45">
-        <v>79277</v>
+        <v>86139</v>
       </c>
       <c r="R7" s="45">
-        <v>9964</v>
+        <v>25851</v>
       </c>
       <c r="S7" s="45">
-        <v>18862</v>
+        <v>23211</v>
       </c>
       <c r="T7" s="45">
-        <v>15968</v>
+        <v>19468</v>
       </c>
       <c r="U7" s="45">
         <v>39</v>
       </c>
       <c r="V7" s="45">
-        <v>2855</v>
+        <v>3704</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3072,73 +3072,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>473868</v>
+        <v>479582</v>
       </c>
       <c r="D8" s="46">
-        <v>313453</v>
+        <v>318126</v>
       </c>
       <c r="E8" s="46">
-        <v>54045</v>
+        <v>54924</v>
       </c>
       <c r="F8" s="46">
-        <v>106370</v>
+        <v>106532</v>
       </c>
       <c r="G8" s="46">
-        <v>2787</v>
+        <v>4405</v>
       </c>
       <c r="H8" s="46">
-        <v>223766</v>
+        <v>234466</v>
       </c>
       <c r="I8" s="46">
-        <v>192546</v>
+        <v>200856</v>
       </c>
       <c r="J8" s="46">
-        <v>22722</v>
+        <v>23982</v>
       </c>
       <c r="K8" s="46">
-        <v>8048</v>
+        <v>8901</v>
       </c>
       <c r="L8" s="46">
-        <v>450</v>
+        <v>727</v>
       </c>
       <c r="M8" s="46">
-        <v>7038</v>
+        <v>9495</v>
       </c>
       <c r="N8" s="46">
-        <v>261837</v>
+        <v>279886</v>
       </c>
       <c r="O8" s="46">
-        <v>186649</v>
+        <v>199288</v>
       </c>
       <c r="P8" s="46">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="Q8" s="46">
-        <v>74668</v>
+        <v>80043</v>
       </c>
       <c r="R8" s="46">
-        <v>6799</v>
+        <v>18049</v>
       </c>
       <c r="S8" s="46">
-        <v>27063</v>
+        <v>33176</v>
       </c>
       <c r="T8" s="46">
-        <v>25437</v>
+        <v>31067</v>
       </c>
       <c r="U8" s="46">
         <v>46</v>
       </c>
       <c r="V8" s="46">
-        <v>1580</v>
+        <v>2063</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
@@ -3146,73 +3146,73 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>182366</v>
+        <v>184617</v>
       </c>
       <c r="D9" s="45">
-        <v>110274</v>
+        <v>111834</v>
       </c>
       <c r="E9" s="45">
-        <v>12876</v>
+        <v>12879</v>
       </c>
       <c r="F9" s="45">
-        <v>59216</v>
+        <v>59904</v>
       </c>
       <c r="G9" s="45">
-        <v>2078</v>
+        <v>2219</v>
       </c>
       <c r="H9" s="45">
-        <v>82687</v>
+        <v>84963</v>
       </c>
       <c r="I9" s="45">
-        <v>74781</v>
+        <v>76790</v>
       </c>
       <c r="J9" s="45">
-        <v>5009</v>
+        <v>5101</v>
       </c>
       <c r="K9" s="45">
-        <v>1342</v>
+        <v>1472</v>
       </c>
       <c r="L9" s="45">
-        <v>1555</v>
+        <v>1600</v>
       </c>
       <c r="M9" s="45">
-        <v>2224</v>
+        <v>2280</v>
       </c>
       <c r="N9" s="45">
-        <v>52852</v>
+        <v>57090</v>
       </c>
       <c r="O9" s="45">
-        <v>44322</v>
+        <v>47883</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>8516</v>
+        <v>9193</v>
       </c>
       <c r="R9" s="45">
-        <v>796</v>
+        <v>4238</v>
       </c>
       <c r="S9" s="45">
-        <v>2330</v>
+        <v>2903</v>
       </c>
       <c r="T9" s="45">
-        <v>2185</v>
+        <v>2741</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3220,73 +3220,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>470309</v>
+        <v>476114</v>
       </c>
       <c r="D10" s="46">
-        <v>298984</v>
+        <v>304658</v>
       </c>
       <c r="E10" s="46">
-        <v>51049</v>
+        <v>51180</v>
       </c>
       <c r="F10" s="46">
         <v>120276</v>
       </c>
       <c r="G10" s="46">
-        <v>4893</v>
+        <v>5809</v>
       </c>
       <c r="H10" s="46">
-        <v>158770</v>
+        <v>161583</v>
       </c>
       <c r="I10" s="46">
-        <v>146194</v>
+        <v>148713</v>
       </c>
       <c r="J10" s="46">
-        <v>10554</v>
+        <v>10626</v>
       </c>
       <c r="K10" s="46">
-        <v>1191</v>
+        <v>1407</v>
       </c>
       <c r="L10" s="46">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="M10" s="46">
-        <v>2979</v>
+        <v>2814</v>
       </c>
       <c r="N10" s="46">
-        <v>142458</v>
+        <v>150793</v>
       </c>
       <c r="O10" s="46">
-        <v>115880</v>
+        <v>122647</v>
       </c>
       <c r="P10" s="46">
-        <v>1588</v>
+        <v>1661</v>
       </c>
       <c r="Q10" s="46">
-        <v>24990</v>
+        <v>26485</v>
       </c>
       <c r="R10" s="46">
-        <v>2577</v>
+        <v>8335</v>
       </c>
       <c r="S10" s="46">
-        <v>5652</v>
+        <v>6832</v>
       </c>
       <c r="T10" s="46">
-        <v>5147</v>
+        <v>6229</v>
       </c>
       <c r="U10" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V10" s="46">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3294,73 +3294,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1568318</v>
+        <v>1589498</v>
       </c>
       <c r="D11" s="45">
-        <v>952028</v>
+        <v>966347</v>
       </c>
       <c r="E11" s="45">
-        <v>154839</v>
+        <v>160832</v>
       </c>
       <c r="F11" s="45">
-        <v>461451</v>
+        <v>462319</v>
       </c>
       <c r="G11" s="45">
-        <v>21209</v>
+        <v>19620</v>
       </c>
       <c r="H11" s="45">
-        <v>527472</v>
+        <v>537098</v>
       </c>
       <c r="I11" s="45">
-        <v>486399</v>
+        <v>492318</v>
       </c>
       <c r="J11" s="45">
-        <v>26193</v>
+        <v>27084</v>
       </c>
       <c r="K11" s="45">
-        <v>14880</v>
+        <v>17696</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>10569</v>
+        <v>9491</v>
       </c>
       <c r="N11" s="45">
-        <v>517126</v>
+        <v>555583</v>
       </c>
       <c r="O11" s="45">
-        <v>417408</v>
+        <v>447454</v>
       </c>
       <c r="P11" s="45">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="45">
-        <v>99595</v>
+        <v>107991</v>
       </c>
       <c r="R11" s="45">
-        <v>10317</v>
+        <v>38457</v>
       </c>
       <c r="S11" s="45">
-        <v>23857</v>
+        <v>28995</v>
       </c>
       <c r="T11" s="45">
-        <v>22161</v>
+        <v>26851</v>
       </c>
       <c r="U11" s="45">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="V11" s="45">
-        <v>1565</v>
+        <v>1997</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3368,73 +3368,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>368190</v>
+        <v>373011</v>
       </c>
       <c r="D12" s="46">
-        <v>264132</v>
+        <v>268027</v>
       </c>
       <c r="E12" s="46">
-        <v>38510</v>
+        <v>39345</v>
       </c>
       <c r="F12" s="46">
-        <v>65548</v>
+        <v>65639</v>
       </c>
       <c r="G12" s="46">
-        <v>4136</v>
+        <v>4705</v>
       </c>
       <c r="H12" s="46">
-        <v>132379</v>
+        <v>137126</v>
       </c>
       <c r="I12" s="46">
-        <v>122023</v>
+        <v>126340</v>
       </c>
       <c r="J12" s="46">
-        <v>9241</v>
+        <v>9357</v>
       </c>
       <c r="K12" s="46">
-        <v>919</v>
+        <v>1003</v>
       </c>
       <c r="L12" s="46">
-        <v>196</v>
+        <v>426</v>
       </c>
       <c r="M12" s="46">
-        <v>3312</v>
+        <v>4578</v>
       </c>
       <c r="N12" s="46">
-        <v>202934</v>
+        <v>215288</v>
       </c>
       <c r="O12" s="46">
-        <v>149260</v>
+        <v>159273</v>
       </c>
       <c r="P12" s="46">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="46">
-        <v>53600</v>
+        <v>55924</v>
       </c>
       <c r="R12" s="46">
-        <v>4228</v>
+        <v>12354</v>
       </c>
       <c r="S12" s="46">
-        <v>10595</v>
+        <v>12956</v>
       </c>
       <c r="T12" s="46">
-        <v>9326</v>
+        <v>11388</v>
       </c>
       <c r="U12" s="46">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="V12" s="46">
-        <v>1248</v>
+        <v>1529</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3442,73 +3442,73 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2015347</v>
+        <v>2044626</v>
       </c>
       <c r="D13" s="45">
-        <v>1184700</v>
+        <v>1205085</v>
       </c>
       <c r="E13" s="45">
-        <v>190139</v>
+        <v>192258</v>
       </c>
       <c r="F13" s="45">
-        <v>640508</v>
+        <v>647283</v>
       </c>
       <c r="G13" s="45">
-        <v>26188</v>
+        <v>25621</v>
       </c>
       <c r="H13" s="45">
-        <v>638280</v>
+        <v>655054</v>
       </c>
       <c r="I13" s="45">
-        <v>575418</v>
+        <v>587656</v>
       </c>
       <c r="J13" s="45">
-        <v>41080</v>
+        <v>43138</v>
       </c>
       <c r="K13" s="45">
-        <v>10864</v>
+        <v>12909</v>
       </c>
       <c r="L13" s="45">
-        <v>10918</v>
+        <v>11351</v>
       </c>
       <c r="M13" s="45">
-        <v>12578</v>
+        <v>15329</v>
       </c>
       <c r="N13" s="45">
-        <v>738223</v>
+        <v>792078</v>
       </c>
       <c r="O13" s="45">
-        <v>588801</v>
+        <v>628333</v>
       </c>
       <c r="P13" s="45">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="45">
-        <v>148986</v>
+        <v>163253</v>
       </c>
       <c r="R13" s="45">
-        <v>15693</v>
+        <v>53855</v>
       </c>
       <c r="S13" s="45">
-        <v>26240</v>
+        <v>31867</v>
       </c>
       <c r="T13" s="45">
-        <v>22415</v>
+        <v>27227</v>
       </c>
       <c r="U13" s="45">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="V13" s="45">
-        <v>3365</v>
+        <v>4178</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
@@ -3516,73 +3516,73 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4515164</v>
+        <v>4565070</v>
       </c>
       <c r="D14" s="46">
-        <v>3032872</v>
+        <v>3066015</v>
       </c>
       <c r="E14" s="46">
-        <v>340220</v>
+        <v>355962</v>
       </c>
       <c r="F14" s="46">
-        <v>1142072</v>
+        <v>1143093</v>
       </c>
       <c r="G14" s="46">
-        <v>40420</v>
+        <v>41147</v>
       </c>
       <c r="H14" s="46">
-        <v>1520580</v>
+        <v>1553336</v>
       </c>
       <c r="I14" s="46">
-        <v>1410221</v>
+        <v>1432729</v>
       </c>
       <c r="J14" s="46">
-        <v>88165</v>
+        <v>96305</v>
       </c>
       <c r="K14" s="46">
-        <v>19375</v>
+        <v>21100</v>
       </c>
       <c r="L14" s="46">
-        <v>2819</v>
+        <v>3202</v>
       </c>
       <c r="M14" s="46">
-        <v>17136</v>
+        <v>18959</v>
       </c>
       <c r="N14" s="46">
-        <v>1809220</v>
+        <v>1948660</v>
       </c>
       <c r="O14" s="46">
-        <v>1363002</v>
+        <v>1463469</v>
       </c>
       <c r="P14" s="46">
-        <v>4922</v>
+        <v>4989</v>
       </c>
       <c r="Q14" s="46">
-        <v>441296</v>
+        <v>480202</v>
       </c>
       <c r="R14" s="46">
-        <v>45986</v>
+        <v>139440</v>
       </c>
       <c r="S14" s="46">
-        <v>60811</v>
+        <v>76935</v>
       </c>
       <c r="T14" s="46">
-        <v>52755</v>
+        <v>67191</v>
       </c>
       <c r="U14" s="46">
-        <v>1206</v>
+        <v>1307</v>
       </c>
       <c r="V14" s="46">
-        <v>6785</v>
+        <v>8366</v>
       </c>
       <c r="W14" s="46">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="X14" s="46">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3590,73 +3590,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>955209</v>
+        <v>968089</v>
       </c>
       <c r="D15" s="45">
-        <v>629178</v>
+        <v>637729</v>
       </c>
       <c r="E15" s="45">
-        <v>62996</v>
+        <v>67018</v>
       </c>
       <c r="F15" s="45">
-        <v>263035</v>
+        <v>263342</v>
       </c>
       <c r="G15" s="45">
-        <v>10028</v>
+        <v>10977</v>
       </c>
       <c r="H15" s="45">
-        <v>446721</v>
+        <v>457199</v>
       </c>
       <c r="I15" s="45">
-        <v>392381</v>
+        <v>400685</v>
       </c>
       <c r="J15" s="45">
-        <v>33098</v>
+        <v>33887</v>
       </c>
       <c r="K15" s="45">
-        <v>21242</v>
+        <v>22627</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>10352</v>
+        <v>9496</v>
       </c>
       <c r="N15" s="45">
-        <v>351025</v>
+        <v>379420</v>
       </c>
       <c r="O15" s="45">
-        <v>292377</v>
+        <v>313818</v>
       </c>
       <c r="P15" s="45">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>58492</v>
+        <v>65399</v>
       </c>
       <c r="R15" s="45">
-        <v>7320</v>
+        <v>28395</v>
       </c>
       <c r="S15" s="45">
-        <v>17743</v>
+        <v>23193</v>
       </c>
       <c r="T15" s="45">
-        <v>17179</v>
+        <v>22476</v>
       </c>
       <c r="U15" s="45">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="V15" s="45">
-        <v>544</v>
+        <v>671</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3664,73 +3664,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>276994</v>
+        <v>281024</v>
       </c>
       <c r="D16" s="46">
-        <v>208663</v>
+        <v>211884</v>
       </c>
       <c r="E16" s="46">
-        <v>26289</v>
+        <v>27098</v>
       </c>
       <c r="F16" s="46">
         <v>42042</v>
       </c>
       <c r="G16" s="46">
-        <v>3951</v>
+        <v>3793</v>
       </c>
       <c r="H16" s="46">
-        <v>93684</v>
+        <v>95928</v>
       </c>
       <c r="I16" s="46">
-        <v>84439</v>
+        <v>86130</v>
       </c>
       <c r="J16" s="46">
-        <v>7163</v>
+        <v>7387</v>
       </c>
       <c r="K16" s="46">
-        <v>2082</v>
+        <v>2411</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>1485</v>
+        <v>1876</v>
       </c>
       <c r="N16" s="46">
-        <v>92969</v>
+        <v>100449</v>
       </c>
       <c r="O16" s="46">
-        <v>78193</v>
+        <v>83978</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>14697</v>
+        <v>16392</v>
       </c>
       <c r="R16" s="46">
-        <v>2192</v>
+        <v>7480</v>
       </c>
       <c r="S16" s="46">
-        <v>3703</v>
+        <v>5045</v>
       </c>
       <c r="T16" s="46">
-        <v>3269</v>
+        <v>4501</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>434</v>
+        <v>544</v>
       </c>
       <c r="W16" s="46">
         <v>0</v>
       </c>
       <c r="X16" s="46">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3738,73 +3738,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>868842</v>
+        <v>874434</v>
       </c>
       <c r="D17" s="45">
-        <v>615773</v>
+        <v>619173</v>
       </c>
       <c r="E17" s="45">
-        <v>73729</v>
+        <v>75514</v>
       </c>
       <c r="F17" s="45">
-        <v>179340</v>
+        <v>179747</v>
       </c>
       <c r="G17" s="45">
-        <v>5233</v>
+        <v>5592</v>
       </c>
       <c r="H17" s="45">
-        <v>489362</v>
+        <v>503027</v>
       </c>
       <c r="I17" s="45">
-        <v>452801</v>
+        <v>464643</v>
       </c>
       <c r="J17" s="45">
-        <v>35090</v>
+        <v>36791</v>
       </c>
       <c r="K17" s="45">
-        <v>1471</v>
+        <v>1593</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>13465</v>
+        <v>13665</v>
       </c>
       <c r="N17" s="45">
-        <v>317424</v>
+        <v>338540</v>
       </c>
       <c r="O17" s="45">
-        <v>230670</v>
+        <v>247149</v>
       </c>
       <c r="P17" s="45">
         <v>161</v>
       </c>
       <c r="Q17" s="45">
-        <v>86593</v>
+        <v>91230</v>
       </c>
       <c r="R17" s="45">
-        <v>6381</v>
+        <v>21116</v>
       </c>
       <c r="S17" s="45">
-        <v>48883</v>
+        <v>54725</v>
       </c>
       <c r="T17" s="45">
-        <v>47947</v>
+        <v>53580</v>
       </c>
       <c r="U17" s="45">
         <v>30</v>
       </c>
       <c r="V17" s="45">
-        <v>868</v>
+        <v>1077</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3812,73 +3812,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>522052</v>
+        <v>528559</v>
       </c>
       <c r="D18" s="47">
-        <v>344207</v>
+        <v>348576</v>
       </c>
       <c r="E18" s="47">
-        <v>48579</v>
+        <v>50458</v>
       </c>
       <c r="F18" s="47">
-        <v>129266</v>
+        <v>129525</v>
       </c>
       <c r="G18" s="47">
-        <v>5011</v>
+        <v>6507</v>
       </c>
       <c r="H18" s="47">
-        <v>200574</v>
+        <v>208245</v>
       </c>
       <c r="I18" s="47">
-        <v>173164</v>
+        <v>177112</v>
       </c>
       <c r="J18" s="47">
-        <v>23018</v>
+        <v>25973</v>
       </c>
       <c r="K18" s="47">
-        <v>4392</v>
+        <v>5130</v>
       </c>
       <c r="L18" s="47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M18" s="47">
-        <v>6735</v>
+        <v>7671</v>
       </c>
       <c r="N18" s="46">
-        <v>195313</v>
+        <v>208504</v>
       </c>
       <c r="O18" s="46">
-        <v>164243</v>
+        <v>175038</v>
       </c>
       <c r="P18" s="46">
         <v>24</v>
       </c>
       <c r="Q18" s="46">
-        <v>31046</v>
+        <v>33442</v>
       </c>
       <c r="R18" s="46">
-        <v>3495</v>
+        <v>13191</v>
       </c>
       <c r="S18" s="46">
-        <v>8405</v>
+        <v>11198</v>
       </c>
       <c r="T18" s="46">
-        <v>7665</v>
+        <v>10257</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>714</v>
+        <v>915</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3886,73 +3886,73 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>629263</v>
+        <v>634684</v>
       </c>
       <c r="D19" s="45">
-        <v>433397</v>
+        <v>437874</v>
       </c>
       <c r="E19" s="45">
-        <v>50985</v>
+        <v>51922</v>
       </c>
       <c r="F19" s="45">
-        <v>144881</v>
+        <v>144888</v>
       </c>
       <c r="G19" s="45">
-        <v>5340</v>
+        <v>5288</v>
       </c>
       <c r="H19" s="45">
-        <v>317786</v>
+        <v>330148</v>
       </c>
       <c r="I19" s="45">
-        <v>282428</v>
+        <v>292082</v>
       </c>
       <c r="J19" s="45">
-        <v>27967</v>
+        <v>29324</v>
       </c>
       <c r="K19" s="45">
-        <v>7391</v>
+        <v>8742</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>9099</v>
+        <v>9995</v>
       </c>
       <c r="N19" s="45">
-        <v>271456</v>
+        <v>292649</v>
       </c>
       <c r="O19" s="45">
-        <v>218517</v>
+        <v>233187</v>
       </c>
       <c r="P19" s="45">
-        <v>1665</v>
+        <v>2006</v>
       </c>
       <c r="Q19" s="45">
-        <v>51274</v>
+        <v>57456</v>
       </c>
       <c r="R19" s="45">
-        <v>5928</v>
+        <v>21193</v>
       </c>
       <c r="S19" s="45">
-        <v>13019</v>
+        <v>16388</v>
       </c>
       <c r="T19" s="45">
-        <v>11806</v>
+        <v>15041</v>
       </c>
       <c r="U19" s="45">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="V19" s="45">
-        <v>851</v>
+        <v>979</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="52">
         <v>16</v>
       </c>
@@ -3960,226 +3960,226 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>483236</v>
+        <v>487275</v>
       </c>
       <c r="D20" s="47">
-        <v>334616</v>
+        <v>337968</v>
       </c>
       <c r="E20" s="47">
-        <v>39585</v>
+        <v>40273</v>
       </c>
       <c r="F20" s="47">
-        <v>109035</v>
+        <v>109034</v>
       </c>
       <c r="G20" s="47">
-        <v>3659</v>
+        <v>3699</v>
       </c>
       <c r="H20" s="47">
-        <v>280450</v>
+        <v>287361</v>
       </c>
       <c r="I20" s="47">
-        <v>259774</v>
+        <v>266682</v>
       </c>
       <c r="J20" s="47">
-        <v>19861</v>
+        <v>19865</v>
       </c>
       <c r="K20" s="47">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>5618</v>
+        <v>5575</v>
       </c>
       <c r="N20" s="47">
-        <v>163286</v>
+        <v>178188</v>
       </c>
       <c r="O20" s="46">
-        <v>137777</v>
+        <v>149873</v>
       </c>
       <c r="P20" s="46">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="46">
-        <v>25449</v>
+        <v>28227</v>
       </c>
       <c r="R20" s="46">
-        <v>4007</v>
+        <v>14902</v>
       </c>
       <c r="S20" s="46">
-        <v>15904</v>
+        <v>19214</v>
       </c>
       <c r="T20" s="46">
-        <v>13976</v>
+        <v>16660</v>
       </c>
       <c r="U20" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>1915</v>
+        <v>2540</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>72145</v>
+        <v>74269</v>
       </c>
       <c r="D21" s="45">
-        <v>1354</v>
+        <v>1383</v>
       </c>
       <c r="E21" s="45">
-        <v>53061</v>
+        <v>55054</v>
       </c>
       <c r="F21" s="45">
-        <v>17730</v>
+        <v>17832</v>
       </c>
       <c r="G21" s="45">
-        <v>1573</v>
+        <v>2066</v>
       </c>
       <c r="H21" s="45">
-        <v>9511</v>
+        <v>11143</v>
       </c>
       <c r="I21" s="55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="55">
-        <v>8866</v>
+        <v>10188</v>
       </c>
       <c r="K21" s="55">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L21" s="55">
-        <v>550</v>
+        <v>846</v>
       </c>
       <c r="M21" s="55">
-        <v>1259</v>
+        <v>1518</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>20079922</v>
+        <v>20345993</v>
       </c>
       <c r="D22" s="57">
-        <v>13124447</v>
+        <v>13313061</v>
       </c>
       <c r="E22" s="57">
-        <v>1799030</v>
+        <v>1859190</v>
       </c>
       <c r="F22" s="57">
-        <v>5156445</v>
+        <v>5173742</v>
       </c>
       <c r="G22" s="57">
-        <v>211741</v>
+        <v>218733</v>
       </c>
       <c r="H22" s="57">
-        <v>7635527</v>
+        <v>7843190</v>
       </c>
       <c r="I22" s="57">
-        <v>6877858</v>
+        <v>7032945</v>
       </c>
       <c r="J22" s="57">
-        <v>562739</v>
+        <v>590179</v>
       </c>
       <c r="K22" s="57">
-        <v>170859</v>
+        <v>192314</v>
       </c>
       <c r="L22" s="57">
-        <v>24071</v>
+        <v>27752</v>
       </c>
       <c r="M22" s="57">
-        <v>156973</v>
+        <v>175437</v>
       </c>
       <c r="N22" s="57">
-        <v>7606943</v>
+        <v>8170511</v>
       </c>
       <c r="O22" s="57">
-        <v>5963687</v>
+        <v>6388533</v>
       </c>
       <c r="P22" s="57">
-        <v>10532</v>
+        <v>11260</v>
       </c>
       <c r="Q22" s="57">
-        <v>1632724</v>
+        <v>1770718</v>
       </c>
       <c r="R22" s="57">
-        <v>169359</v>
+        <v>563568</v>
       </c>
       <c r="S22" s="57">
-        <v>387363</v>
+        <v>477490</v>
       </c>
       <c r="T22" s="57">
-        <v>352188</v>
+        <v>434128</v>
       </c>
       <c r="U22" s="57">
-        <v>3060</v>
+        <v>3232</v>
       </c>
       <c r="V22" s="57">
-        <v>31937</v>
+        <v>39946</v>
       </c>
       <c r="W22" s="57">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X22" s="57">
-        <v>19539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="78" t="s">
         <v>66</v>
       </c>
@@ -4205,13 +4205,19 @@
       <c r="V27" s="78"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4223,12 +4229,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4236,295 +4236,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="68">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>23986</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="45">
         <v>23986</v>
       </c>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="70">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18449</v>
-      </c>
-      <c r="C3" s="72"/>
+        <v>18448</v>
+      </c>
+      <c r="C3" s="71"/>
       <c r="D3" s="46">
-        <v>18449</v>
-      </c>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+        <v>18448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="68">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50011</v>
-      </c>
-      <c r="C4" s="70"/>
+        <v>50010</v>
+      </c>
+      <c r="C4" s="69"/>
       <c r="D4" s="45">
-        <v>50011</v>
-      </c>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="70">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62552</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="46">
         <v>62552</v>
       </c>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="68">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>49870</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="45">
         <v>49870</v>
       </c>
-      <c r="E6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="70">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>18772</v>
-      </c>
-      <c r="C7" s="72"/>
+        <v>18771</v>
+      </c>
+      <c r="C7" s="71"/>
       <c r="D7" s="46">
-        <v>18772</v>
-      </c>
-      <c r="E7" s="68"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+        <v>18771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="68">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52139</v>
-      </c>
-      <c r="C8" s="70"/>
+        <v>52138</v>
+      </c>
+      <c r="C8" s="69"/>
       <c r="D8" s="45">
-        <v>52139</v>
-      </c>
-      <c r="E8" s="68"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+        <v>52138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="70">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23772</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="46">
         <v>23772</v>
       </c>
-      <c r="E9" s="68"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="68">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48027</v>
-      </c>
-      <c r="C10" s="70"/>
+        <v>48026</v>
+      </c>
+      <c r="C10" s="69"/>
       <c r="D10" s="45">
-        <v>48027</v>
-      </c>
-      <c r="E10" s="68"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+        <v>48026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="70">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53685</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="46">
         <v>53685</v>
       </c>
-      <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="68">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62669</v>
-      </c>
-      <c r="C12" s="70"/>
+        <v>62668</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="45">
-        <v>62669</v>
-      </c>
-      <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+        <v>62668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="70">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55942</v>
-      </c>
-      <c r="C13" s="72"/>
+        <v>55941</v>
+      </c>
+      <c r="C13" s="71"/>
       <c r="D13" s="46">
-        <v>55942</v>
-      </c>
-      <c r="E13" s="68"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+        <v>55941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="68">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62738</v>
-      </c>
-      <c r="C14" s="70"/>
+        <v>62737</v>
+      </c>
+      <c r="C14" s="69"/>
       <c r="D14" s="45">
-        <v>62738</v>
-      </c>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+        <v>62737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="72">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61039</v>
-      </c>
-      <c r="C15" s="74"/>
+        <v>61038</v>
+      </c>
+      <c r="C15" s="73"/>
       <c r="D15" s="47">
-        <v>61039</v>
-      </c>
-      <c r="E15" s="68"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+        <v>61038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="68">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35506</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="45">
         <v>35506</v>
       </c>
-      <c r="E16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="72">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67531</v>
-      </c>
-      <c r="C17" s="74"/>
+        <v>67529</v>
+      </c>
+      <c r="C17" s="73"/>
       <c r="D17" s="47">
-        <v>67531</v>
-      </c>
-      <c r="E17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+        <v>67529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="68">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82590</v>
-      </c>
-      <c r="C18" s="70"/>
+        <v>82589</v>
+      </c>
+      <c r="C18" s="69"/>
       <c r="D18" s="45">
-        <v>82590</v>
-      </c>
-      <c r="E18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+        <v>82589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="70">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111511</v>
-      </c>
-      <c r="C19" s="72"/>
+        <v>111513</v>
+      </c>
+      <c r="C19" s="71"/>
       <c r="D19" s="46">
-        <v>111511</v>
-      </c>
-      <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+        <v>111513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="68">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82881</v>
-      </c>
-      <c r="C20" s="70"/>
+        <v>82888</v>
+      </c>
+      <c r="C20" s="69"/>
       <c r="D20" s="45">
-        <v>82881</v>
-      </c>
-      <c r="E20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+        <v>82888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="70">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90927</v>
+        <v>90925</v>
       </c>
       <c r="C21" s="46">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D21" s="46">
-        <v>91537</v>
-      </c>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+        <v>91534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="68">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
@@ -4536,115 +4515,107 @@
       <c r="D22" s="45">
         <v>57571</v>
       </c>
-      <c r="E22" s="68"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="70">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
         <v>31657</v>
       </c>
       <c r="C23" s="46">
-        <v>17344</v>
+        <v>17343</v>
       </c>
       <c r="D23" s="46">
-        <v>49001</v>
-      </c>
-      <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="68">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66845</v>
+        <v>66856</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82617</v>
-      </c>
-      <c r="E24" s="68"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+        <v>82628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="70">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82822</v>
+        <v>82830</v>
       </c>
       <c r="C25" s="46">
-        <v>34865</v>
+        <v>34882</v>
       </c>
       <c r="D25" s="46">
-        <v>117687</v>
-      </c>
-      <c r="E25" s="68"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+        <v>117712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="68">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80501</v>
+        <v>80512</v>
       </c>
       <c r="C26" s="45">
-        <v>51514</v>
+        <v>51513</v>
       </c>
       <c r="D26" s="45">
-        <v>132015</v>
-      </c>
-      <c r="E26" s="68"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+        <v>132025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="70">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65764</v>
+        <v>65873</v>
       </c>
       <c r="C27" s="46">
         <v>41855</v>
       </c>
       <c r="D27" s="46">
-        <v>107619</v>
-      </c>
-      <c r="E27" s="68"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+        <v>107728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="68">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
         <v>68330</v>
       </c>
       <c r="C28" s="45">
-        <v>35563</v>
+        <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>103893</v>
-      </c>
-      <c r="E28" s="68"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+        <v>103892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="70">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
         <v>40054</v>
       </c>
       <c r="C29" s="46">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="D29" s="46">
-        <v>85015</v>
-      </c>
-      <c r="E29" s="68"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69">
+        <v>85013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="68">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4656,10 +4627,9 @@
       <c r="D30" s="45">
         <v>49224</v>
       </c>
-      <c r="E30" s="68"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="73">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="72">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
@@ -4671,190 +4641,177 @@
       <c r="D31" s="47">
         <v>91703</v>
       </c>
-      <c r="E31" s="68"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="68">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50244</v>
+        <v>50241</v>
       </c>
       <c r="C32" s="45">
-        <v>48429</v>
+        <v>48430</v>
       </c>
       <c r="D32" s="45">
-        <v>98673</v>
-      </c>
-      <c r="E32" s="68"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
+        <v>98671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="72">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51519</v>
+        <v>51517</v>
       </c>
       <c r="C33" s="47">
-        <v>59638</v>
+        <v>59637</v>
       </c>
       <c r="D33" s="47">
-        <v>111157</v>
-      </c>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+        <v>111154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="68">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46041</v>
+        <v>46044</v>
       </c>
       <c r="D34" s="45">
-        <v>91168</v>
-      </c>
-      <c r="E34" s="68"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+        <v>91171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="70">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51469</v>
+        <v>51468</v>
       </c>
       <c r="C35" s="46">
-        <v>57648</v>
+        <v>57653</v>
       </c>
       <c r="D35" s="46">
-        <v>109117</v>
-      </c>
-      <c r="E35" s="68"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69">
+        <v>109121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="68">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36310</v>
+        <v>36311</v>
       </c>
       <c r="C36" s="45">
-        <v>52162</v>
+        <v>52161</v>
       </c>
       <c r="D36" s="45">
         <v>88472</v>
       </c>
-      <c r="E36" s="68"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="70">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
         <v>25986</v>
       </c>
       <c r="C37" s="46">
-        <v>30532</v>
+        <v>30531</v>
       </c>
       <c r="D37" s="46">
-        <v>56518</v>
-      </c>
-      <c r="E37" s="68"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69">
+        <v>56517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="68">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
-        <v>59163</v>
+        <v>59161</v>
       </c>
       <c r="C38" s="45">
         <v>61490</v>
       </c>
       <c r="D38" s="45">
-        <v>120653</v>
-      </c>
-      <c r="E38" s="68"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+        <v>120651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="70">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
         <v>64222</v>
       </c>
       <c r="C39" s="46">
-        <v>67429</v>
+        <v>67457</v>
       </c>
       <c r="D39" s="46">
-        <v>131651</v>
-      </c>
-      <c r="E39" s="68"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+        <v>131679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="68">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64164</v>
+        <v>64162</v>
       </c>
       <c r="C40" s="45">
-        <v>95291</v>
+        <v>95304</v>
       </c>
       <c r="D40" s="45">
-        <v>159455</v>
-      </c>
-      <c r="E40" s="68"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+        <v>159466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="70">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
         <v>61086</v>
       </c>
       <c r="C41" s="46">
-        <v>70679</v>
+        <v>70688</v>
       </c>
       <c r="D41" s="46">
-        <v>131765</v>
-      </c>
-      <c r="E41" s="68"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+        <v>131774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="68">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67666</v>
+        <v>67663</v>
       </c>
       <c r="C42" s="45">
-        <v>77049</v>
+        <v>77047</v>
       </c>
       <c r="D42" s="45">
-        <v>144715</v>
-      </c>
-      <c r="E42" s="68"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+        <v>144710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="70">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47175</v>
+        <v>47174</v>
       </c>
       <c r="C43" s="46">
         <v>52964</v>
       </c>
       <c r="D43" s="46">
-        <v>100139</v>
-      </c>
-      <c r="E43" s="68"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+        <v>100138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="68">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
@@ -4866,205 +4823,191 @@
       <c r="D44" s="45">
         <v>54260</v>
       </c>
-      <c r="E44" s="68"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="70">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53181</v>
+        <v>53179</v>
       </c>
       <c r="C45" s="46">
-        <v>56748</v>
+        <v>56778</v>
       </c>
       <c r="D45" s="46">
-        <v>109929</v>
-      </c>
-      <c r="E45" s="68"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+        <v>109957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="68">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59669</v>
+        <v>59710</v>
       </c>
       <c r="C46" s="45">
-        <v>74218</v>
+        <v>74234</v>
       </c>
       <c r="D46" s="45">
-        <v>133887</v>
-      </c>
-      <c r="E46" s="68"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="73">
+        <v>133944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="72">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
         <v>75163</v>
       </c>
       <c r="C47" s="47">
-        <v>76603</v>
+        <v>76614</v>
       </c>
       <c r="D47" s="47">
-        <v>151766</v>
-      </c>
-      <c r="E47" s="68"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+        <v>151777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="68">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73845</v>
+        <v>73843</v>
       </c>
       <c r="C48" s="45">
         <v>67325</v>
       </c>
       <c r="D48" s="45">
-        <v>141170</v>
-      </c>
-      <c r="E48" s="68"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
+        <v>141168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="72">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81423</v>
+        <v>81414</v>
       </c>
       <c r="C49" s="47">
-        <v>75927</v>
+        <v>75926</v>
       </c>
       <c r="D49" s="47">
-        <v>157350</v>
-      </c>
-      <c r="E49" s="68"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+        <v>157340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="68">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
         <v>62181</v>
       </c>
       <c r="C50" s="45">
-        <v>45591</v>
+        <v>45590</v>
       </c>
       <c r="D50" s="45">
-        <v>107772</v>
-      </c>
-      <c r="E50" s="68"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="71">
+        <v>107771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="70">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40048</v>
+        <v>40049</v>
       </c>
       <c r="C51" s="46">
-        <v>25262</v>
+        <v>25263</v>
       </c>
       <c r="D51" s="46">
-        <v>65310</v>
-      </c>
-      <c r="E51" s="68"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+        <v>65312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="68">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71144</v>
+        <v>71142</v>
       </c>
       <c r="C52" s="45">
         <v>55627</v>
       </c>
       <c r="D52" s="45">
-        <v>126771</v>
-      </c>
-      <c r="E52" s="68"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="71">
+        <v>126769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="70">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81988</v>
+        <v>81954</v>
       </c>
       <c r="C53" s="46">
-        <v>54456</v>
+        <v>54654</v>
       </c>
       <c r="D53" s="46">
-        <v>136444</v>
-      </c>
-      <c r="E53" s="68"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
+        <v>136608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="68">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93380</v>
+        <v>93381</v>
       </c>
       <c r="C54" s="45">
-        <v>55659</v>
+        <v>55657</v>
       </c>
       <c r="D54" s="45">
-        <v>149039</v>
-      </c>
-      <c r="E54" s="68"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="71">
+        <v>149038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="70">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91431</v>
+        <v>91442</v>
       </c>
       <c r="C55" s="46">
         <v>51244</v>
       </c>
       <c r="D55" s="46">
-        <v>142675</v>
-      </c>
-      <c r="E55" s="68"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+        <v>142686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="68">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
         <v>99745</v>
       </c>
       <c r="C56" s="45">
-        <v>54772</v>
+        <v>54770</v>
       </c>
       <c r="D56" s="45">
-        <v>154517</v>
-      </c>
-      <c r="E56" s="68"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="71">
+        <v>154515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="70">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
         <v>76311</v>
       </c>
       <c r="C57" s="46">
-        <v>37111</v>
+        <v>37110</v>
       </c>
       <c r="D57" s="46">
-        <v>113422</v>
-      </c>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
+        <v>113421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="68">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
@@ -5076,835 +5019,779 @@
       <c r="D58" s="45">
         <v>86163</v>
       </c>
-      <c r="E58" s="68"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="71">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="70">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100176</v>
+        <v>100181</v>
       </c>
       <c r="C59" s="46">
         <v>60117</v>
       </c>
       <c r="D59" s="46">
-        <v>160293</v>
-      </c>
-      <c r="E59" s="68"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+        <v>160298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="68">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107365</v>
+        <v>107386</v>
       </c>
       <c r="C60" s="45">
-        <v>59703</v>
+        <v>59780</v>
       </c>
       <c r="D60" s="45">
-        <v>167068</v>
-      </c>
-      <c r="E60" s="68"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="71">
+        <v>167166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="70">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116404</v>
+        <v>116413</v>
       </c>
       <c r="C61" s="46">
-        <v>59603</v>
+        <v>59600</v>
       </c>
       <c r="D61" s="46">
-        <v>176007</v>
-      </c>
-      <c r="E61" s="68"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+        <v>176013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="68">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130633</v>
+        <v>130632</v>
       </c>
       <c r="C62" s="45">
         <v>58676</v>
       </c>
       <c r="D62" s="45">
-        <v>189309</v>
-      </c>
-      <c r="E62" s="68"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
+        <v>189308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="72">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144334</v>
+        <v>144377</v>
       </c>
       <c r="C63" s="47">
         <v>65427</v>
       </c>
       <c r="D63" s="47">
-        <v>209761</v>
-      </c>
-      <c r="E63" s="68"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+        <v>209804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="68">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108540</v>
+        <v>108539</v>
       </c>
       <c r="C64" s="45">
-        <v>40020</v>
+        <v>40019</v>
       </c>
       <c r="D64" s="45">
-        <v>148560</v>
-      </c>
-      <c r="E64" s="68"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="73">
+        <v>148558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="72">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
         <v>83824</v>
       </c>
       <c r="C65" s="47">
-        <v>24292</v>
+        <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108116</v>
-      </c>
-      <c r="E65" s="68"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="69">
+        <v>108115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="68">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146444</v>
+        <v>146439</v>
       </c>
       <c r="C66" s="45">
-        <v>49367</v>
+        <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195811</v>
-      </c>
-      <c r="E66" s="68"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="71">
+        <v>195807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="70">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166185</v>
+        <v>166187</v>
       </c>
       <c r="C67" s="46">
-        <v>53648</v>
+        <v>53687</v>
       </c>
       <c r="D67" s="46">
-        <v>219833</v>
-      </c>
-      <c r="E67" s="68"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="69">
+        <v>219874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="68">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174779</v>
+        <v>174783</v>
       </c>
       <c r="C68" s="45">
-        <v>68991</v>
+        <v>68989</v>
       </c>
       <c r="D68" s="45">
-        <v>243770</v>
-      </c>
-      <c r="E68" s="68"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+        <v>243772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="70">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180445</v>
+        <v>180457</v>
       </c>
       <c r="C69" s="46">
-        <v>62658</v>
+        <v>62680</v>
       </c>
       <c r="D69" s="46">
-        <v>243103</v>
-      </c>
-      <c r="E69" s="68"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
+        <v>243137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="68">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201684</v>
+        <v>201690</v>
       </c>
       <c r="C70" s="45">
-        <v>67428</v>
+        <v>67425</v>
       </c>
       <c r="D70" s="45">
-        <v>269112</v>
-      </c>
-      <c r="E70" s="68"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
+        <v>269115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="70">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153161</v>
+        <v>153162</v>
       </c>
       <c r="C71" s="46">
         <v>49301</v>
       </c>
       <c r="D71" s="46">
-        <v>202462</v>
-      </c>
-      <c r="E71" s="68"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
+        <v>202463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="68">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115921</v>
+        <v>115924</v>
       </c>
       <c r="C72" s="45">
-        <v>34468</v>
+        <v>34463</v>
       </c>
       <c r="D72" s="45">
-        <v>150389</v>
-      </c>
-      <c r="E72" s="68"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="71">
+        <v>150387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="70">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186654</v>
+        <v>186682</v>
       </c>
       <c r="C73" s="46">
         <v>52505</v>
       </c>
       <c r="D73" s="46">
-        <v>239159</v>
-      </c>
-      <c r="E73" s="68"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
+        <v>239187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="68">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195473</v>
+        <v>195668</v>
       </c>
       <c r="C74" s="45">
-        <v>54776</v>
+        <v>54773</v>
       </c>
       <c r="D74" s="45">
-        <v>250249</v>
-      </c>
-      <c r="E74" s="68"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="71">
+        <v>250441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="70">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217499</v>
+        <v>217545</v>
       </c>
       <c r="C75" s="46">
         <v>65695</v>
       </c>
       <c r="D75" s="46">
-        <v>283194</v>
-      </c>
-      <c r="E75" s="68"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="69">
+        <v>283240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="68">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220584</v>
+        <v>220589</v>
       </c>
       <c r="C76" s="45">
-        <v>60911</v>
+        <v>60909</v>
       </c>
       <c r="D76" s="45">
-        <v>281495</v>
-      </c>
-      <c r="E76" s="68"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="71">
+        <v>281498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="70">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252230</v>
+        <v>252303</v>
       </c>
       <c r="C77" s="46">
-        <v>71656</v>
+        <v>71658</v>
       </c>
       <c r="D77" s="46">
-        <v>323886</v>
-      </c>
-      <c r="E77" s="68"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+        <v>323961</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="68">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197077</v>
+        <v>197074</v>
       </c>
       <c r="C78" s="45">
-        <v>49453</v>
+        <v>49451</v>
       </c>
       <c r="D78" s="45">
-        <v>246530</v>
-      </c>
-      <c r="E78" s="68"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="73">
+        <v>246525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="72">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
         <v>135185</v>
       </c>
       <c r="C79" s="47">
-        <v>35996</v>
+        <v>35995</v>
       </c>
       <c r="D79" s="47">
-        <v>171181</v>
-      </c>
-      <c r="E79" s="68"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="69">
+        <v>171180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="68">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189401</v>
+        <v>189396</v>
       </c>
       <c r="C80" s="45">
-        <v>58866</v>
+        <v>58865</v>
       </c>
       <c r="D80" s="45">
-        <v>248267</v>
-      </c>
-      <c r="E80" s="68"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="73">
+        <v>248261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="72">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
         <v>112136</v>
       </c>
       <c r="C81" s="47">
-        <v>67021</v>
+        <v>67022</v>
       </c>
       <c r="D81" s="47">
-        <v>179157</v>
-      </c>
-      <c r="E81" s="68"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="69">
+        <v>179158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="68">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125748</v>
+        <v>125749</v>
       </c>
       <c r="C82" s="45">
-        <v>79463</v>
+        <v>79464</v>
       </c>
       <c r="D82" s="45">
-        <v>205211</v>
-      </c>
-      <c r="E82" s="68"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="71">
+        <v>205213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="70">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119353</v>
+        <v>119355</v>
       </c>
       <c r="C83" s="46">
-        <v>75346</v>
+        <v>75344</v>
       </c>
       <c r="D83" s="46">
         <v>194699</v>
       </c>
-      <c r="E83" s="68"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="69">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="68">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161059</v>
+        <v>161060</v>
       </c>
       <c r="C84" s="45">
-        <v>82843</v>
+        <v>82842</v>
       </c>
       <c r="D84" s="45">
         <v>243902</v>
       </c>
-      <c r="E84" s="68"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="71">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="70">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166332</v>
+        <v>166331</v>
       </c>
       <c r="C85" s="46">
-        <v>53892</v>
+        <v>53891</v>
       </c>
       <c r="D85" s="46">
-        <v>220224</v>
-      </c>
-      <c r="E85" s="68"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
+        <v>220222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="68">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127330</v>
+        <v>127329</v>
       </c>
       <c r="C86" s="45">
-        <v>38773</v>
+        <v>38772</v>
       </c>
       <c r="D86" s="45">
-        <v>166103</v>
-      </c>
-      <c r="E86" s="68"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+        <v>166101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="70">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189990</v>
+        <v>189997</v>
       </c>
       <c r="C87" s="46">
         <v>76166</v>
       </c>
       <c r="D87" s="46">
-        <v>266156</v>
-      </c>
-      <c r="E87" s="68"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="69">
+        <v>266163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="68">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214088</v>
+        <v>214092</v>
       </c>
       <c r="C88" s="45">
-        <v>83768</v>
+        <v>83767</v>
       </c>
       <c r="D88" s="45">
-        <v>297856</v>
-      </c>
-      <c r="E88" s="68"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="71">
+        <v>297859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="70">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245702</v>
+        <v>245700</v>
       </c>
       <c r="C89" s="46">
-        <v>88314</v>
+        <v>88312</v>
       </c>
       <c r="D89" s="46">
-        <v>334016</v>
-      </c>
-      <c r="E89" s="68"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="69">
+        <v>334012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="68">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257180</v>
+        <v>257324</v>
       </c>
       <c r="C90" s="45">
-        <v>80160</v>
+        <v>80157</v>
       </c>
       <c r="D90" s="45">
-        <v>337340</v>
-      </c>
-      <c r="E90" s="68"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="71">
+        <v>337481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="70">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285938</v>
+        <v>285968</v>
       </c>
       <c r="C91" s="46">
-        <v>88756</v>
+        <v>88753</v>
       </c>
       <c r="D91" s="46">
-        <v>374694</v>
-      </c>
-      <c r="E91" s="68"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+        <v>374721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="68">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223584</v>
+        <v>223591</v>
       </c>
       <c r="C92" s="45">
-        <v>63178</v>
+        <v>63179</v>
       </c>
       <c r="D92" s="45">
-        <v>286762</v>
-      </c>
-      <c r="E92" s="68"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="71">
+        <v>286770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="70">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144168</v>
+        <v>144171</v>
       </c>
       <c r="C93" s="46">
-        <v>52749</v>
+        <v>52748</v>
       </c>
       <c r="D93" s="46">
-        <v>196917</v>
-      </c>
-      <c r="E93" s="68"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="69">
+        <v>196919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="68">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219480</v>
+        <v>219674</v>
       </c>
       <c r="C94" s="45">
-        <v>89034</v>
+        <v>89033</v>
       </c>
       <c r="D94" s="45">
-        <v>308514</v>
-      </c>
-      <c r="E94" s="68"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="73">
+        <v>308707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="72">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>234668</v>
+        <v>235049</v>
       </c>
       <c r="C95" s="47">
-        <v>93378</v>
+        <v>93353</v>
       </c>
       <c r="D95" s="47">
-        <v>328046</v>
-      </c>
-      <c r="E95" s="68"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="69">
+        <v>328402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="68">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238176</v>
+        <v>238214</v>
       </c>
       <c r="C96" s="45">
-        <v>103113</v>
+        <v>103105</v>
       </c>
       <c r="D96" s="45">
-        <v>341289</v>
-      </c>
-      <c r="E96" s="68"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="73">
+        <v>341319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="72">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231047</v>
+        <v>231116</v>
       </c>
       <c r="C97" s="47">
-        <v>92445</v>
+        <v>92431</v>
       </c>
       <c r="D97" s="47">
-        <v>323492</v>
-      </c>
-      <c r="E97" s="68"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="69">
+        <v>323547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="68">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158230</v>
+        <v>158253</v>
       </c>
       <c r="C98" s="45">
-        <v>71613</v>
+        <v>71609</v>
       </c>
       <c r="D98" s="45">
-        <v>229843</v>
-      </c>
-      <c r="E98" s="68"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="71">
+        <v>229862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="70">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165891</v>
+        <v>165894</v>
       </c>
       <c r="C99" s="46">
-        <v>66038</v>
+        <v>66035</v>
       </c>
       <c r="D99" s="46">
         <v>231929</v>
       </c>
-      <c r="E99" s="68"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="68">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
         <v>142475</v>
       </c>
       <c r="C100" s="45">
-        <v>53569</v>
+        <v>53568</v>
       </c>
       <c r="D100" s="45">
-        <v>196044</v>
-      </c>
-      <c r="E100" s="68"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="71">
+        <v>196043</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="70">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176190</v>
+        <v>176196</v>
       </c>
       <c r="C101" s="46">
-        <v>73413</v>
+        <v>73409</v>
       </c>
       <c r="D101" s="46">
-        <v>249603</v>
-      </c>
-      <c r="E101" s="68"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="69">
+        <v>249605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="68">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279003</v>
+        <v>279204</v>
       </c>
       <c r="C102" s="45">
-        <v>99150</v>
+        <v>99141</v>
       </c>
       <c r="D102" s="45">
-        <v>378153</v>
-      </c>
-      <c r="E102" s="68"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="71">
+        <v>378345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="70">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580245</v>
+        <v>580270</v>
       </c>
       <c r="C103" s="46">
-        <v>97116</v>
+        <v>97115</v>
       </c>
       <c r="D103" s="46">
-        <v>677361</v>
-      </c>
-      <c r="E103" s="68"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="69">
+        <v>677385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="68">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642886</v>
+        <v>642893</v>
       </c>
       <c r="C104" s="45">
-        <v>89768</v>
+        <v>89764</v>
       </c>
       <c r="D104" s="45">
-        <v>732654</v>
-      </c>
-      <c r="E104" s="68"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="71">
+        <v>732657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="70">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534601</v>
+        <v>534632</v>
       </c>
       <c r="C105" s="46">
-        <v>88356</v>
+        <v>88355</v>
       </c>
       <c r="D105" s="46">
-        <v>622957</v>
-      </c>
-      <c r="E105" s="68"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
+        <v>622987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="68">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302926</v>
+        <v>302930</v>
       </c>
       <c r="C106" s="45">
-        <v>65480</v>
+        <v>65478</v>
       </c>
       <c r="D106" s="45">
-        <v>368406</v>
-      </c>
-      <c r="E106" s="68"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="71">
+        <v>368408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="70">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210480</v>
+        <v>210481</v>
       </c>
       <c r="C107" s="46">
-        <v>50099</v>
+        <v>50096</v>
       </c>
       <c r="D107" s="46">
-        <v>260579</v>
-      </c>
-      <c r="E107" s="68"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="69">
+        <v>260577</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="68">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338566</v>
+        <v>338579</v>
       </c>
       <c r="C108" s="45">
         <v>76836</v>
       </c>
       <c r="D108" s="45">
-        <v>415402</v>
-      </c>
-      <c r="E108" s="68"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="71">
+        <v>415415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="70">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497596</v>
+        <v>497631</v>
       </c>
       <c r="C109" s="46">
-        <v>73406</v>
+        <v>73405</v>
       </c>
       <c r="D109" s="46">
-        <v>571002</v>
-      </c>
-      <c r="E109" s="68"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="69">
+        <v>571036</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="68">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690330</v>
+        <v>690325</v>
       </c>
       <c r="C110" s="45">
-        <v>83379</v>
+        <v>83386</v>
       </c>
       <c r="D110" s="45">
-        <v>773709</v>
-      </c>
-      <c r="E110" s="68"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="73">
+        <v>773711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="72">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608448</v>
+        <v>608470</v>
       </c>
       <c r="C111" s="47">
-        <v>70788</v>
+        <v>70792</v>
       </c>
       <c r="D111" s="47">
-        <v>679236</v>
-      </c>
-      <c r="E111" s="68"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="69">
+        <v>679262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="68">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517790</v>
+        <v>517818</v>
       </c>
       <c r="C112" s="45">
-        <v>75377</v>
+        <v>75370</v>
       </c>
       <c r="D112" s="45">
-        <v>593167</v>
-      </c>
-      <c r="E112" s="68"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="73">
+        <v>593188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="72">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305728</v>
+        <v>305729</v>
       </c>
       <c r="C113" s="47">
-        <v>56364</v>
+        <v>56370</v>
       </c>
       <c r="D113" s="47">
-        <v>362092</v>
-      </c>
-      <c r="E113" s="68"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="69">
+        <v>362099</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="68">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
@@ -5916,382 +5803,374 @@
       <c r="D114" s="45">
         <v>266174</v>
       </c>
-      <c r="E114" s="68"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="71">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="70">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338161</v>
+        <v>338181</v>
       </c>
       <c r="C115" s="46">
-        <v>60753</v>
+        <v>60762</v>
       </c>
       <c r="D115" s="46">
-        <v>398914</v>
-      </c>
-      <c r="E115" s="68"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="69">
+        <v>398943</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="68">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493384</v>
+        <v>493516</v>
       </c>
       <c r="C116" s="45">
-        <v>61315</v>
+        <v>61576</v>
       </c>
       <c r="D116" s="45">
-        <v>554699</v>
-      </c>
-      <c r="E116" s="68"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="71">
+        <v>555092</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="70">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641348</v>
+        <v>641511</v>
       </c>
       <c r="C117" s="46">
-        <v>71478</v>
+        <v>71480</v>
       </c>
       <c r="D117" s="46">
-        <v>712826</v>
-      </c>
-      <c r="E117" s="68"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="69">
+        <v>712991</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="68">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567617</v>
+        <v>567793</v>
       </c>
       <c r="C118" s="45">
-        <v>65652</v>
+        <v>65653</v>
       </c>
       <c r="D118" s="45">
-        <v>633269</v>
-      </c>
-      <c r="E118" s="68"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="71">
+        <v>633446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="70">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483270</v>
+        <v>483320</v>
       </c>
       <c r="C119" s="46">
-        <v>67189</v>
+        <v>67195</v>
       </c>
       <c r="D119" s="46">
-        <v>550459</v>
-      </c>
-      <c r="E119" s="68"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="69">
+        <v>550515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="68">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309226</v>
+        <v>309260</v>
       </c>
       <c r="C120" s="45">
-        <v>59523</v>
+        <v>59528</v>
       </c>
       <c r="D120" s="45">
-        <v>368749</v>
-      </c>
-      <c r="E120" s="68"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="71">
+        <v>368788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="70">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235428</v>
+        <v>235431</v>
       </c>
       <c r="C121" s="46">
-        <v>47578</v>
+        <v>47579</v>
       </c>
       <c r="D121" s="46">
-        <v>283006</v>
-      </c>
-      <c r="E121" s="68"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="69">
+        <v>283010</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="68">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354343</v>
+        <v>354367</v>
       </c>
       <c r="C122" s="45">
-        <v>73113</v>
+        <v>73172</v>
       </c>
       <c r="D122" s="45">
-        <v>427456</v>
-      </c>
-      <c r="E122" s="68"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="71">
+        <v>427539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="70">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693306</v>
+        <v>693401</v>
       </c>
       <c r="C123" s="46">
-        <v>90055</v>
+        <v>90165</v>
       </c>
       <c r="D123" s="46">
-        <v>783361</v>
-      </c>
-      <c r="E123" s="68"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="69">
+        <v>783566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="68">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993112</v>
+        <v>993196</v>
       </c>
       <c r="C124" s="45">
-        <v>126492</v>
+        <v>126656</v>
       </c>
       <c r="D124" s="45">
-        <v>1119604</v>
-      </c>
-      <c r="E124" s="68"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="71">
+        <v>1119852</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="70">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>807811</v>
+        <v>807994</v>
       </c>
       <c r="C125" s="46">
-        <v>131275</v>
+        <v>131586</v>
       </c>
       <c r="D125" s="46">
-        <v>939086</v>
-      </c>
-      <c r="E125" s="68"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="69">
+        <v>939580</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="68">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>660705</v>
+        <v>661620</v>
       </c>
       <c r="C126" s="45">
-        <v>136519</v>
+        <v>137030</v>
       </c>
       <c r="D126" s="45">
-        <v>797224</v>
-      </c>
-      <c r="E126" s="68"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="71">
+        <v>798650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="70">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>257772</v>
+        <v>258086</v>
       </c>
       <c r="C127" s="46">
-        <v>75690</v>
+        <v>75769</v>
       </c>
       <c r="D127" s="46">
-        <v>333462</v>
-      </c>
-      <c r="E127" s="68"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="69">
+        <v>333855</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="68">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195034</v>
+        <v>195051</v>
       </c>
       <c r="C128" s="45">
-        <v>67362</v>
+        <v>67376</v>
       </c>
       <c r="D128" s="45">
-        <v>262396</v>
-      </c>
-      <c r="E128" s="68"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="71">
+        <v>262427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="70">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332355</v>
+        <v>332387</v>
       </c>
       <c r="C129" s="46">
-        <v>114817</v>
+        <v>114977</v>
       </c>
       <c r="D129" s="46">
-        <v>447172</v>
-      </c>
-      <c r="E129" s="68"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="69">
+        <v>447364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="68">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>676330</v>
+        <v>677011</v>
       </c>
       <c r="C130" s="45">
-        <v>159302</v>
+        <v>159940</v>
       </c>
       <c r="D130" s="45">
-        <v>835632</v>
-      </c>
-      <c r="E130" s="68"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="71">
+        <v>836951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="70">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>903068</v>
+        <v>906680</v>
       </c>
       <c r="C131" s="46">
-        <v>221838</v>
+        <v>223305</v>
       </c>
       <c r="D131" s="46">
-        <v>1124906</v>
-      </c>
-      <c r="E131" s="68"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="69">
+        <v>1129985</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="68">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>745264</v>
+        <v>758999</v>
       </c>
       <c r="C132" s="45">
-        <v>208730</v>
+        <v>214340</v>
       </c>
       <c r="D132" s="45">
-        <v>953994</v>
-      </c>
-      <c r="E132" s="68"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="71">
+        <v>973339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="70">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>628739</v>
+        <v>642326</v>
       </c>
       <c r="C133" s="46">
-        <v>208811</v>
+        <v>222064</v>
       </c>
       <c r="D133" s="46">
-        <v>837550</v>
-      </c>
-      <c r="E133" s="68"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="69">
+        <v>864390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="68">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>262982</v>
+        <v>266787</v>
       </c>
       <c r="C134" s="45">
-        <v>145561</v>
+        <v>148585</v>
       </c>
       <c r="D134" s="45">
-        <v>408543</v>
-      </c>
-      <c r="E134" s="68"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="71">
+        <v>415372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="70">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>172912</v>
+        <v>177042</v>
       </c>
       <c r="C135" s="46">
-        <v>98862</v>
+        <v>99570</v>
       </c>
       <c r="D135" s="46">
-        <v>271774</v>
-      </c>
-      <c r="E135" s="68"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="69">
+        <v>276612</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="68">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>381100</v>
+        <v>384810</v>
       </c>
       <c r="C136" s="45">
-        <v>176512</v>
+        <v>181997</v>
       </c>
       <c r="D136" s="45">
-        <v>557612</v>
-      </c>
-      <c r="E136" s="68"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="71"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="68"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="71" t="s">
+        <v>566807</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="70">
+        <v>44327</v>
+      </c>
+      <c r="B137" s="46">
+        <v>782301</v>
+      </c>
+      <c r="C137" s="46">
+        <v>265564</v>
+      </c>
+      <c r="D137" s="46">
+        <v>1047865</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="68"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="46">
-        <v>27686865</v>
-      </c>
-      <c r="C138" s="46">
-        <v>8022890</v>
-      </c>
-      <c r="D138" s="46">
-        <v>35709755</v>
-      </c>
-      <c r="E138" s="68"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="68"/>
-      <c r="B139" s="68"/>
-      <c r="C139" s="68"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B140" s="68"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="68"/>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
+      <c r="B139" s="46">
+        <v>28516504</v>
+      </c>
+      <c r="C139" s="46">
+        <v>8320680</v>
+      </c>
+      <c r="D139" s="46">
+        <v>36837184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="74"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141" s="74"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="74"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="74"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90800226-8018-4D30-95A5-B2CB4ABCC057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B95AE0A-271D-4977-8B8C-8897DDF4983E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_11.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_11.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_13.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_13.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_11.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_11.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_13.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_13.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 11.05.21 (Impfquote_bis_einschl_11.05.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 11.05.21 (Impfstoff_bis_einschl_11.05.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 13.05.21 (Impfquote_bis_einschl_13.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 13.05.21 (Impfstoff_bis_einschl_13.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -272,10 +272,10 @@
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2307.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
   <si>
-    <t>Datenstand: 12.05.2021, 14:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.05.21 durchgeführt und bis zum 12.05.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 14.05.2021, 08:15 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 13.05.21 durchgeführt und bis zum 14.05.21, 08:15 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,13 +365,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -564,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -717,31 +710,22 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,6 +747,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,18 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1145,111 +1129,111 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1265,127 +1249,127 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.453125" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" style="4"/>
-    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" style="4"/>
-    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.453125" style="4"/>
+    <col min="12" max="14" width="11.42578125" style="4"/>
+    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="4"/>
+    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="80" t="s">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="S2" s="78"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -1437,58 +1421,58 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>4807333</v>
+        <v>5057324</v>
       </c>
       <c r="D5" s="32">
-        <v>3733109</v>
+        <v>3905381</v>
       </c>
       <c r="E5" s="32">
-        <v>1074224</v>
+        <v>1151943</v>
       </c>
       <c r="F5" s="33">
-        <v>33.630418884230593</v>
+        <v>35.182363797176933</v>
       </c>
       <c r="G5" s="33">
-        <v>20.192494171379792</v>
+        <v>21.720515535635474</v>
       </c>
       <c r="H5" s="33">
-        <v>70.138030725021522</v>
+        <v>71.835452793317799</v>
       </c>
       <c r="I5" s="33">
-        <v>9.6773501913535682</v>
+        <v>10.377496510484223</v>
       </c>
       <c r="J5" s="33">
-        <v>4.4660624106547253</v>
+        <v>4.9804053383039353</v>
       </c>
       <c r="K5" s="33">
-        <v>23.653501800021981</v>
+        <v>24.778951135367549</v>
       </c>
       <c r="L5" s="32">
-        <v>1287232</v>
+        <v>1345217</v>
       </c>
       <c r="M5" s="32">
-        <v>1470013</v>
+        <v>1479891</v>
       </c>
       <c r="N5" s="32">
-        <v>337395</v>
+        <v>370088</v>
       </c>
       <c r="O5" s="32">
-        <v>660280</v>
+        <v>678021</v>
       </c>
       <c r="P5" s="34">
-        <v>351588</v>
+        <v>417617</v>
       </c>
       <c r="Q5" s="34">
-        <v>623192</v>
+        <v>663972</v>
       </c>
       <c r="R5" s="34">
-        <v>25070</v>
+        <v>34121</v>
       </c>
       <c r="S5" s="34">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>61484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1496,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>5822947</v>
+        <v>6113702</v>
       </c>
       <c r="D6" s="13">
-        <v>4580940</v>
+        <v>4808145</v>
       </c>
       <c r="E6" s="13">
-        <v>1242007</v>
+        <v>1305557</v>
       </c>
       <c r="F6" s="14">
-        <v>34.903099391629716</v>
+        <v>36.634219794270919</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>75</v>
@@ -1514,7 +1498,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="14">
-        <v>9.4631000986915019</v>
+        <v>9.9473002773312711</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>75</v>
@@ -1535,19 +1519,19 @@
         <v>75</v>
       </c>
       <c r="P6" s="17">
-        <v>571471</v>
+        <v>663286</v>
       </c>
       <c r="Q6" s="18">
-        <v>777667</v>
+        <v>827254</v>
       </c>
       <c r="R6" s="17">
-        <v>27945</v>
+        <v>37593</v>
       </c>
       <c r="S6" s="18">
-        <v>32190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1555,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1568820</v>
+        <v>1644387</v>
       </c>
       <c r="D7" s="37">
-        <v>1144475</v>
+        <v>1202006</v>
       </c>
       <c r="E7" s="37">
-        <v>424345</v>
+        <v>442381</v>
       </c>
       <c r="F7" s="38">
-        <v>31.188930562849183</v>
+        <v>32.756750186878783</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>75</v>
@@ -1573,7 +1557,7 @@
         <v>75</v>
       </c>
       <c r="I7" s="38">
-        <v>11.564137914495499</v>
+        <v>12.055650225058463</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>75</v>
@@ -1594,19 +1578,19 @@
         <v>75</v>
       </c>
       <c r="P7" s="41">
-        <v>226390</v>
+        <v>257285</v>
       </c>
       <c r="Q7" s="41">
-        <v>114129</v>
+        <v>121627</v>
       </c>
       <c r="R7" s="41">
-        <v>14253</v>
+        <v>18487</v>
       </c>
       <c r="S7" s="41">
-        <v>8951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>11408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1614,58 +1598,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1027110</v>
+        <v>1080622</v>
       </c>
       <c r="D8" s="13">
-        <v>759468</v>
+        <v>793152</v>
       </c>
       <c r="E8" s="13">
-        <v>267642</v>
+        <v>287470</v>
       </c>
       <c r="F8" s="14">
-        <v>30.114996948720663</v>
+        <v>31.450660277815118</v>
       </c>
       <c r="G8" s="44">
-        <v>16.233562235873151</v>
+        <v>17.300630265897308</v>
       </c>
       <c r="H8" s="44">
-        <v>57.526687781216715</v>
+        <v>59.410403845830118</v>
       </c>
       <c r="I8" s="44">
-        <v>10.612742094926311</v>
+        <v>11.398976879669359</v>
       </c>
       <c r="J8" s="63">
-        <v>5.1280913527613547</v>
+        <v>5.61541888454828</v>
       </c>
       <c r="K8" s="44">
-        <v>21.649868815637273</v>
+        <v>23.041433095975009</v>
       </c>
       <c r="L8" s="17">
-        <v>189485</v>
+        <v>195778</v>
       </c>
       <c r="M8" s="18">
-        <v>290824</v>
+        <v>294800</v>
       </c>
       <c r="N8" s="17">
-        <v>75922</v>
+        <v>81460</v>
       </c>
       <c r="O8" s="18">
-        <v>157817</v>
+        <v>164300</v>
       </c>
       <c r="P8" s="17">
-        <v>84901</v>
+        <v>96644</v>
       </c>
       <c r="Q8" s="18">
-        <v>187599</v>
+        <v>199289</v>
       </c>
       <c r="R8" s="17">
-        <v>10755</v>
+        <v>13454</v>
       </c>
       <c r="S8" s="18">
-        <v>22235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>27325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1673,58 +1657,58 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>329573</v>
+        <v>344690</v>
       </c>
       <c r="D9" s="37">
-        <v>241707</v>
+        <v>251505</v>
       </c>
       <c r="E9" s="37">
-        <v>87866</v>
+        <v>93185</v>
       </c>
       <c r="F9" s="38">
-        <v>35.482426651712707</v>
+        <v>36.920766527403032</v>
       </c>
       <c r="G9" s="64">
-        <v>19.41160546900252</v>
+        <v>20.875218178292069</v>
       </c>
       <c r="H9" s="64">
-        <v>79.065920491530335</v>
+        <v>80.439756383127275</v>
       </c>
       <c r="I9" s="64">
-        <v>12.898670291631555</v>
+        <v>13.679495949806372</v>
       </c>
       <c r="J9" s="64">
-        <v>4.5772997608119468</v>
+        <v>4.9781013640183591</v>
       </c>
       <c r="K9" s="64">
-        <v>34.163292050227184</v>
+        <v>35.951749250781447</v>
       </c>
       <c r="L9" s="42">
-        <v>67419</v>
+        <v>70979</v>
       </c>
       <c r="M9" s="42">
-        <v>118796</v>
+        <v>119990</v>
       </c>
       <c r="N9" s="42">
-        <v>21319</v>
+        <v>22946</v>
       </c>
       <c r="O9" s="42">
-        <v>62046</v>
+        <v>64879</v>
       </c>
       <c r="P9" s="42">
-        <v>28670</v>
+        <v>32355</v>
       </c>
       <c r="Q9" s="42">
-        <v>28420</v>
+        <v>29784</v>
       </c>
       <c r="R9" s="42">
-        <v>1339</v>
+        <v>1696</v>
       </c>
       <c r="S9" s="42">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1732,58 +1716,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>795322</v>
+        <v>828054</v>
       </c>
       <c r="D10" s="13">
-        <v>626907</v>
+        <v>649674</v>
       </c>
       <c r="E10" s="13">
-        <v>168415</v>
+        <v>178380</v>
       </c>
       <c r="F10" s="14">
-        <v>33.937257105550785</v>
+        <v>35.169735818537042</v>
       </c>
       <c r="G10" s="44">
-        <v>22.758784190226812</v>
+        <v>24.00743073493507</v>
       </c>
       <c r="H10" s="44">
-        <v>70.274502939869137</v>
+        <v>71.508257658284265</v>
       </c>
       <c r="I10" s="44">
-        <v>9.1170511023665952</v>
+        <v>9.6565007608595028</v>
       </c>
       <c r="J10" s="44">
-        <v>4.8918297300166307</v>
+        <v>5.4475071653515439</v>
       </c>
       <c r="K10" s="44">
-        <v>22.675568800768303</v>
+        <v>23.109697537787625</v>
       </c>
       <c r="L10" s="18">
-        <v>255209</v>
+        <v>264309</v>
       </c>
       <c r="M10" s="18">
-        <v>221742</v>
+        <v>223075</v>
       </c>
       <c r="N10" s="18">
-        <v>65996</v>
+        <v>72923</v>
       </c>
       <c r="O10" s="18">
-        <v>94750</v>
+        <v>95502</v>
       </c>
       <c r="P10" s="18">
-        <v>66384</v>
+        <v>74928</v>
       </c>
       <c r="Q10" s="18">
-        <v>83392</v>
+        <v>87416</v>
       </c>
       <c r="R10" s="18">
-        <v>3128</v>
+        <v>4053</v>
       </c>
       <c r="S10" s="18">
-        <v>3708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1791,58 +1775,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2711174</v>
+        <v>2855678</v>
       </c>
       <c r="D11" s="37">
-        <v>2145081</v>
+        <v>2254357</v>
       </c>
       <c r="E11" s="37">
-        <v>566093</v>
+        <v>601321</v>
       </c>
       <c r="F11" s="38">
-        <v>34.113449574432899</v>
+        <v>35.851277337438454</v>
       </c>
       <c r="G11" s="64">
-        <v>21.379289827440022</v>
+        <v>22.971298045498575</v>
       </c>
       <c r="H11" s="64">
-        <v>68.003138609085894</v>
+        <v>70.128922970098159</v>
       </c>
       <c r="I11" s="64">
-        <v>9.002636734901591</v>
+        <v>9.5628713375147907</v>
       </c>
       <c r="J11" s="64">
-        <v>3.5936724799164197</v>
+        <v>4.0241317969390531</v>
       </c>
       <c r="K11" s="64">
-        <v>23.405472410764009</v>
+        <v>24.310997248183124</v>
       </c>
       <c r="L11" s="41">
-        <v>746014</v>
+        <v>777238</v>
       </c>
       <c r="M11" s="41">
-        <v>843484</v>
+        <v>855920</v>
       </c>
       <c r="N11" s="41">
-        <v>152085</v>
+        <v>166673</v>
       </c>
       <c r="O11" s="41">
-        <v>385013</v>
+        <v>394640</v>
       </c>
       <c r="P11" s="41">
-        <v>231318</v>
+        <v>272871</v>
       </c>
       <c r="Q11" s="41">
-        <v>323915</v>
+        <v>347972</v>
       </c>
       <c r="R11" s="41">
-        <v>12196</v>
+        <v>17286</v>
       </c>
       <c r="S11" s="41">
-        <v>16785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>22703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1850,58 +1834,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>738381</v>
+        <v>777963</v>
       </c>
       <c r="D12" s="13">
-        <v>588299</v>
+        <v>614887</v>
       </c>
       <c r="E12" s="13">
-        <v>150082</v>
+        <v>163076</v>
       </c>
       <c r="F12" s="14">
-        <v>36.582619153331372</v>
+        <v>38.235959849216918</v>
       </c>
       <c r="G12" s="44">
-        <v>21.533047976681285</v>
+        <v>22.962988667014297</v>
       </c>
       <c r="H12" s="44">
-        <v>66.260542196467782</v>
+        <v>68.425452599331948</v>
       </c>
       <c r="I12" s="44">
-        <v>9.332656774480796</v>
+        <v>10.140672007004374</v>
       </c>
       <c r="J12" s="44">
-        <v>3.9607303229582058</v>
+        <v>4.3675698792423665</v>
       </c>
       <c r="K12" s="44">
-        <v>19.82468119659697</v>
+        <v>21.350139332312178</v>
       </c>
       <c r="L12" s="18">
-        <v>155518</v>
+        <v>161547</v>
       </c>
       <c r="M12" s="18">
-        <v>217918</v>
+        <v>220758</v>
       </c>
       <c r="N12" s="18">
-        <v>36681</v>
+        <v>39037</v>
       </c>
       <c r="O12" s="18">
-        <v>100019</v>
+        <v>104359</v>
       </c>
       <c r="P12" s="18">
-        <v>74082</v>
+        <v>83300</v>
       </c>
       <c r="Q12" s="18">
-        <v>141128</v>
+        <v>150019</v>
       </c>
       <c r="R12" s="18">
-        <v>5551</v>
+        <v>7533</v>
       </c>
       <c r="S12" s="18">
-        <v>7405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>11331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1909,58 +1893,58 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3523625</v>
+        <v>3697162</v>
       </c>
       <c r="D13" s="37">
-        <v>2836704</v>
+        <v>2960248</v>
       </c>
       <c r="E13" s="37">
-        <v>686921</v>
+        <v>736914</v>
       </c>
       <c r="F13" s="38">
-        <v>35.487154236234751</v>
+        <v>37.032689118605767</v>
       </c>
       <c r="G13" s="64">
-        <v>20.70039010508598</v>
+        <v>22.100902746226442</v>
       </c>
       <c r="H13" s="64">
-        <v>72.292830734281921</v>
+        <v>74.228251004937235</v>
       </c>
       <c r="I13" s="64">
-        <v>8.5933786095089975</v>
+        <v>9.2187908138602737</v>
       </c>
       <c r="J13" s="64">
-        <v>2.8151430693371697</v>
+        <v>3.1900565714866116</v>
       </c>
       <c r="K13" s="64">
-        <v>22.295360101970267</v>
+        <v>23.502365715437055</v>
       </c>
       <c r="L13" s="42">
-        <v>875114</v>
+        <v>900577</v>
       </c>
       <c r="M13" s="42">
-        <v>1180853</v>
+        <v>1188590</v>
       </c>
       <c r="N13" s="42">
-        <v>145190</v>
+        <v>160873</v>
       </c>
       <c r="O13" s="42">
-        <v>498523</v>
+        <v>520213</v>
       </c>
       <c r="P13" s="42">
-        <v>300829</v>
+        <v>354926</v>
       </c>
       <c r="Q13" s="42">
-        <v>491158</v>
+        <v>528184</v>
       </c>
       <c r="R13" s="42">
-        <v>14732</v>
+        <v>20347</v>
       </c>
       <c r="S13" s="42">
-        <v>17131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>23357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1968,58 +1952,58 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>8144001</v>
+        <v>8534207</v>
       </c>
       <c r="D14" s="13">
-        <v>6513730</v>
+        <v>6800267</v>
       </c>
       <c r="E14" s="13">
-        <v>1630271</v>
+        <v>1733940</v>
       </c>
       <c r="F14" s="14">
-        <v>36.293808384038954</v>
+        <v>37.890361967460038</v>
       </c>
       <c r="G14" s="44">
-        <v>21.689593401828105</v>
+        <v>23.320061059575785</v>
       </c>
       <c r="H14" s="44">
-        <v>73.970434218896273</v>
+        <v>75.497851487363633</v>
       </c>
       <c r="I14" s="44">
-        <v>9.0836960217963547</v>
+        <v>9.6613286257521427</v>
       </c>
       <c r="J14" s="44">
-        <v>4.005452786581869</v>
+        <v>4.3905405616558921</v>
       </c>
       <c r="K14" s="44">
-        <v>22.098950118527295</v>
+        <v>23.154270359371086</v>
       </c>
       <c r="L14" s="18">
-        <v>1962845</v>
+        <v>2029409</v>
       </c>
       <c r="M14" s="18">
-        <v>2605421</v>
+        <v>2620300</v>
       </c>
       <c r="N14" s="18">
-        <v>484021</v>
+        <v>521555</v>
       </c>
       <c r="O14" s="18">
-        <v>1066118</v>
+        <v>1103430</v>
       </c>
       <c r="P14" s="18">
-        <v>841121</v>
+        <v>985339</v>
       </c>
       <c r="Q14" s="18">
-        <v>1107539</v>
+        <v>1169329</v>
       </c>
       <c r="R14" s="18">
-        <v>33792</v>
+        <v>46041</v>
       </c>
       <c r="S14" s="18">
-        <v>43143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+        <v>58803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2027,58 +2011,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1827901</v>
+        <v>1916498</v>
       </c>
       <c r="D15" s="37">
-        <v>1347509</v>
+        <v>1409704</v>
       </c>
       <c r="E15" s="37">
-        <v>480392</v>
+        <v>506794</v>
       </c>
       <c r="F15" s="38">
-        <v>32.915020214206351</v>
+        <v>34.434230610739924</v>
       </c>
       <c r="G15" s="64">
-        <v>18.826863924277816</v>
+        <v>20.058826615419449</v>
       </c>
       <c r="H15" s="64">
-        <v>66.99178906462194</v>
+        <v>69.2070283935399</v>
       </c>
       <c r="I15" s="64">
-        <v>11.734327852907116</v>
+        <v>12.379238101146999</v>
       </c>
       <c r="J15" s="64">
-        <v>5.628599868568557</v>
+        <v>6.1346178271842193</v>
       </c>
       <c r="K15" s="64">
-        <v>26.518438041911292</v>
+        <v>27.500073125378684</v>
       </c>
       <c r="L15" s="42">
-        <v>411459</v>
+        <v>423361</v>
       </c>
       <c r="M15" s="42">
-        <v>556630</v>
+        <v>563441</v>
       </c>
       <c r="N15" s="42">
-        <v>155004</v>
+        <v>166654</v>
       </c>
       <c r="O15" s="42">
-        <v>302195</v>
+        <v>308262</v>
       </c>
       <c r="P15" s="42">
-        <v>134017</v>
+        <v>157809</v>
       </c>
       <c r="Q15" s="42">
-        <v>244977</v>
+        <v>264673</v>
       </c>
       <c r="R15" s="42">
-        <v>8075</v>
+        <v>11086</v>
       </c>
       <c r="S15" s="42">
-        <v>15118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <v>20797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2086,58 +2070,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>482446</v>
+        <v>506473</v>
       </c>
       <c r="D16" s="13">
-        <v>381473</v>
+        <v>398362</v>
       </c>
       <c r="E16" s="13">
-        <v>100973</v>
+        <v>108111</v>
       </c>
       <c r="F16" s="14">
-        <v>38.654172159527889</v>
+        <v>40.365512971596544</v>
       </c>
       <c r="G16" s="44">
-        <v>23.236551664463693</v>
+        <v>24.873714393127916</v>
       </c>
       <c r="H16" s="44">
-        <v>71.298024834086689</v>
+        <v>73.16642502234815</v>
       </c>
       <c r="I16" s="44">
-        <v>10.231465203209689</v>
+        <v>10.954749631923413</v>
       </c>
       <c r="J16" s="44">
-        <v>3.4730406709771358</v>
+        <v>3.890909524903551</v>
       </c>
       <c r="K16" s="44">
-        <v>24.54127063847799</v>
+        <v>25.911220193252284</v>
       </c>
       <c r="L16" s="18">
-        <v>112840</v>
+        <v>117706</v>
       </c>
       <c r="M16" s="18">
-        <v>168184</v>
+        <v>170552</v>
       </c>
       <c r="N16" s="18">
-        <v>20916</v>
+        <v>22729</v>
       </c>
       <c r="O16" s="18">
-        <v>75012</v>
+        <v>78283</v>
       </c>
       <c r="P16" s="18">
-        <v>42916</v>
+        <v>49024</v>
       </c>
       <c r="Q16" s="18">
-        <v>57532</v>
+        <v>61079</v>
       </c>
       <c r="R16" s="18">
-        <v>2364</v>
+        <v>3352</v>
       </c>
       <c r="S16" s="18">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2145,16 +2129,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1770726</v>
+        <v>1850993</v>
       </c>
       <c r="D17" s="37">
-        <v>1212974</v>
+        <v>1265287</v>
       </c>
       <c r="E17" s="37">
-        <v>557752</v>
+        <v>585706</v>
       </c>
       <c r="F17" s="38">
-        <v>29.788375211905976</v>
+        <v>31.073084754287294</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>75</v>
@@ -2163,7 +2147,7 @@
         <v>75</v>
       </c>
       <c r="I17" s="64">
-        <v>13.697347058709406</v>
+        <v>14.38384507158818</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>75</v>
@@ -2184,19 +2168,19 @@
         <v>75</v>
       </c>
       <c r="P17" s="41">
-        <v>88437</v>
+        <v>100217</v>
       </c>
       <c r="Q17" s="41">
-        <v>246165</v>
+        <v>266486</v>
       </c>
       <c r="R17" s="41">
-        <v>13931</v>
+        <v>17033</v>
       </c>
       <c r="S17" s="41">
-        <v>40792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+        <v>48397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2204,16 +2188,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>956506</v>
+        <v>984076</v>
       </c>
       <c r="D18" s="13">
-        <v>737063</v>
+        <v>758213</v>
       </c>
       <c r="E18" s="13">
-        <v>219443</v>
+        <v>225863</v>
       </c>
       <c r="F18" s="14">
-        <v>33.582515256640519</v>
+        <v>34.54616449378571</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>75</v>
@@ -2222,7 +2206,7 @@
         <v>75</v>
       </c>
       <c r="I18" s="44">
-        <v>9.9983961960686756</v>
+        <v>10.290908163088634</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>75</v>
@@ -2243,19 +2227,19 @@
         <v>75</v>
       </c>
       <c r="P18" s="17">
-        <v>56089</v>
+        <v>64420</v>
       </c>
       <c r="Q18" s="18">
-        <v>151932</v>
+        <v>162644</v>
       </c>
       <c r="R18" s="17">
-        <v>3752</v>
+        <v>5099</v>
       </c>
       <c r="S18" s="18">
-        <v>7446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+        <v>10721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2263,58 +2247,58 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1273869</v>
+        <v>1346925</v>
       </c>
       <c r="D19" s="37">
-        <v>927333</v>
+        <v>976447</v>
       </c>
       <c r="E19" s="37">
-        <v>346536</v>
+        <v>370478</v>
       </c>
       <c r="F19" s="38">
-        <v>31.935450877186337</v>
+        <v>33.626836533021006</v>
       </c>
       <c r="G19" s="64">
-        <v>17.765462371124404</v>
+        <v>19.191821487596812</v>
       </c>
       <c r="H19" s="64">
-        <v>65.215155013325727</v>
+        <v>67.528562976938574</v>
       </c>
       <c r="I19" s="64">
-        <v>11.933990707951345</v>
+        <v>12.758504194370564</v>
       </c>
       <c r="J19" s="64">
-        <v>5.748939191438506</v>
+        <v>6.4152772144900405</v>
       </c>
       <c r="K19" s="64">
-        <v>26.460843321389564</v>
+        <v>27.656642283239098</v>
       </c>
       <c r="L19" s="42">
-        <v>267311</v>
+        <v>274924</v>
       </c>
       <c r="M19" s="42">
-        <v>367373</v>
+        <v>371037</v>
       </c>
       <c r="N19" s="42">
-        <v>111459</v>
+        <v>122486</v>
       </c>
       <c r="O19" s="42">
-        <v>218689</v>
+        <v>224096</v>
       </c>
       <c r="P19" s="42">
-        <v>94510</v>
+        <v>115947</v>
       </c>
       <c r="Q19" s="42">
-        <v>198120</v>
+        <v>214516</v>
       </c>
       <c r="R19" s="42">
-        <v>5627</v>
+        <v>8171</v>
       </c>
       <c r="S19" s="42">
-        <v>10758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2322,70 +2306,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>972038</v>
+        <v>1017391</v>
       </c>
       <c r="D20" s="13">
-        <v>665463</v>
+        <v>699934</v>
       </c>
       <c r="E20" s="13">
-        <v>306575</v>
+        <v>317457</v>
       </c>
       <c r="F20" s="14">
-        <v>31.192925023132329</v>
+        <v>32.808719317439291</v>
       </c>
       <c r="G20" s="44">
-        <v>17.023398307247302</v>
+        <v>18.287117886810528</v>
       </c>
       <c r="H20" s="44">
-        <v>58.415154369325464</v>
+        <v>60.707147316197009</v>
       </c>
       <c r="I20" s="44">
-        <v>14.370402244703001</v>
+        <v>14.880485314838721</v>
       </c>
       <c r="J20" s="44">
-        <v>7.1198541330166609</v>
+        <v>7.4187303356850922</v>
       </c>
       <c r="K20" s="44">
-        <v>28.287809258873907</v>
+        <v>29.203538611497475</v>
       </c>
       <c r="L20" s="18">
-        <v>192216</v>
+        <v>202261</v>
       </c>
       <c r="M20" s="18">
-        <v>295118</v>
+        <v>300240</v>
       </c>
       <c r="N20" s="18">
-        <v>94295</v>
+        <v>96844</v>
       </c>
       <c r="O20" s="18">
-        <v>193007</v>
+        <v>196433</v>
       </c>
       <c r="P20" s="18">
-        <v>46609</v>
+        <v>54293</v>
       </c>
       <c r="Q20" s="18">
-        <v>131579</v>
+        <v>143199</v>
       </c>
       <c r="R20" s="18">
-        <v>5591</v>
+        <v>7235</v>
       </c>
       <c r="S20" s="18">
-        <v>13623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+        <v>16886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>85412</v>
+        <v>90026</v>
       </c>
       <c r="D21" s="37">
-        <v>74269</v>
+        <v>76232</v>
       </c>
       <c r="E21" s="37">
-        <v>11143</v>
+        <v>13794</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>75</v>
@@ -2406,16 +2390,16 @@
         <v>75</v>
       </c>
       <c r="L21" s="41">
-        <v>68674</v>
+        <v>71416</v>
       </c>
       <c r="M21" s="41">
-        <v>6440</v>
+        <v>6537</v>
       </c>
       <c r="N21" s="41">
-        <v>9697</v>
+        <v>11307</v>
       </c>
       <c r="O21" s="41">
-        <v>601</v>
+        <v>766</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>75</v>
@@ -2430,22 +2414,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>36837184</v>
+        <v>38646171</v>
       </c>
       <c r="D22" s="21">
-        <v>28516504</v>
+        <v>29823801</v>
       </c>
       <c r="E22" s="21">
-        <v>8320680</v>
+        <v>8822370</v>
       </c>
       <c r="F22" s="22">
-        <v>34.288363285161054</v>
+        <v>35.860262647635544</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>75</v>
@@ -2454,7 +2438,7 @@
         <v>75</v>
       </c>
       <c r="I22" s="22">
-        <v>10.004820318071735</v>
+        <v>10.608054465445917</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>75</v>
@@ -2475,20 +2459,20 @@
         <v>75</v>
       </c>
       <c r="P22" s="25">
-        <v>3239332</v>
+        <v>3780261</v>
       </c>
       <c r="Q22" s="25">
-        <v>4908444</v>
+        <v>5237443</v>
       </c>
       <c r="R22" s="25">
-        <v>188101</v>
+        <v>252587</v>
       </c>
       <c r="S22" s="25">
-        <v>289167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+        <v>384228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2511,30 +2495,30 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="78" t="s">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2558,7 +2542,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2582,35 +2566,35 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="78" t="s">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -2661,128 +2645,128 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="88" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="91" t="s">
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="81"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="84"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="88" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="88" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="90"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="91" t="s">
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="84"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2795,7 +2779,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2795,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2808,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="91"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2840,9 +2824,9 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="91"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X4" s="82"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -2850,73 +2834,73 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2751414</v>
+        <v>2816877</v>
       </c>
       <c r="D5" s="45">
-        <v>1718731</v>
+        <v>1764509</v>
       </c>
       <c r="E5" s="45">
-        <v>254936</v>
+        <v>273888</v>
       </c>
       <c r="F5" s="45">
-        <v>777747</v>
+        <v>778480</v>
       </c>
       <c r="G5" s="45">
-        <v>25322</v>
+        <v>32605</v>
       </c>
       <c r="H5" s="45">
-        <v>1003506</v>
+        <v>1056340</v>
       </c>
       <c r="I5" s="45">
-        <v>891946</v>
+        <v>928429</v>
       </c>
       <c r="J5" s="45">
-        <v>66408</v>
+        <v>71528</v>
       </c>
       <c r="K5" s="45">
-        <v>39318</v>
+        <v>48148</v>
       </c>
       <c r="L5" s="45">
-        <v>5834</v>
+        <v>8235</v>
       </c>
       <c r="M5" s="45">
-        <v>30019</v>
+        <v>23093</v>
       </c>
       <c r="N5" s="45">
-        <v>981695</v>
+        <v>1088504</v>
       </c>
       <c r="O5" s="45">
-        <v>833417</v>
+        <v>921260</v>
       </c>
       <c r="P5" s="45">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="45">
-        <v>148046</v>
+        <v>166928</v>
       </c>
       <c r="R5" s="45">
-        <v>63850</v>
+        <v>8893</v>
       </c>
       <c r="S5" s="45">
-        <v>70718</v>
+        <v>95603</v>
       </c>
       <c r="T5" s="45">
-        <v>68360</v>
+        <v>92420</v>
       </c>
       <c r="U5" s="45">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5" s="45">
-        <v>2301</v>
+        <v>3111</v>
       </c>
       <c r="W5" s="45">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="X5" s="45">
-        <v>13837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2924,73 +2908,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3231481</v>
+        <v>3317284</v>
       </c>
       <c r="D6" s="46">
-        <v>2214893</v>
+        <v>2287231</v>
       </c>
       <c r="E6" s="46">
-        <v>297803</v>
+        <v>307662</v>
       </c>
       <c r="F6" s="46">
-        <v>718785</v>
+        <v>722391</v>
       </c>
       <c r="G6" s="46">
-        <v>41452</v>
+        <v>41590</v>
       </c>
       <c r="H6" s="46">
-        <v>1181873</v>
+        <v>1223318</v>
       </c>
       <c r="I6" s="46">
-        <v>1040730</v>
+        <v>1076626</v>
       </c>
       <c r="J6" s="46">
-        <v>94424</v>
+        <v>97123</v>
       </c>
       <c r="K6" s="46">
-        <v>46718</v>
+        <v>49351</v>
       </c>
       <c r="L6" s="46">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="M6" s="46">
-        <v>26868</v>
+        <v>18183</v>
       </c>
       <c r="N6" s="46">
-        <v>1349459</v>
+        <v>1490861</v>
       </c>
       <c r="O6" s="46">
-        <v>1027736</v>
+        <v>1134950</v>
       </c>
       <c r="P6" s="46">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q6" s="46">
-        <v>321296</v>
+        <v>355480</v>
       </c>
       <c r="R6" s="46">
-        <v>92862</v>
+        <v>11088</v>
       </c>
       <c r="S6" s="46">
-        <v>60134</v>
+        <v>82239</v>
       </c>
       <c r="T6" s="46">
-        <v>51091</v>
+        <v>70931</v>
       </c>
       <c r="U6" s="46">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="V6" s="46">
-        <v>8347</v>
+        <v>10560</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>12719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2998,73 +2982,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>802246</v>
+        <v>821384</v>
       </c>
       <c r="D7" s="45">
-        <v>544758</v>
+        <v>556090</v>
       </c>
       <c r="E7" s="45">
-        <v>71734</v>
+        <v>79540</v>
       </c>
       <c r="F7" s="45">
         <v>185754</v>
       </c>
       <c r="G7" s="45">
-        <v>10511</v>
+        <v>9005</v>
       </c>
       <c r="H7" s="45">
-        <v>401134</v>
+        <v>412479</v>
       </c>
       <c r="I7" s="45">
-        <v>347523</v>
+        <v>357954</v>
       </c>
       <c r="J7" s="45">
-        <v>50339</v>
+        <v>50971</v>
       </c>
       <c r="K7" s="45">
-        <v>433</v>
+        <v>680</v>
       </c>
       <c r="L7" s="45">
-        <v>2839</v>
+        <v>2874</v>
       </c>
       <c r="M7" s="45">
-        <v>5808</v>
+        <v>5764</v>
       </c>
       <c r="N7" s="45">
-        <v>342229</v>
+        <v>380622</v>
       </c>
       <c r="O7" s="45">
-        <v>255990</v>
+        <v>284100</v>
       </c>
       <c r="P7" s="45">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="45">
-        <v>86139</v>
+        <v>96401</v>
       </c>
       <c r="R7" s="45">
-        <v>25851</v>
+        <v>2605</v>
       </c>
       <c r="S7" s="45">
-        <v>23211</v>
+        <v>29902</v>
       </c>
       <c r="T7" s="45">
-        <v>19468</v>
+        <v>25174</v>
       </c>
       <c r="U7" s="45">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="V7" s="45">
-        <v>3704</v>
+        <v>4672</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3072,73 +3056,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>479582</v>
+        <v>489833</v>
       </c>
       <c r="D8" s="46">
-        <v>318126</v>
+        <v>323514</v>
       </c>
       <c r="E8" s="46">
-        <v>54924</v>
+        <v>59712</v>
       </c>
       <c r="F8" s="46">
-        <v>106532</v>
+        <v>106607</v>
       </c>
       <c r="G8" s="46">
-        <v>4405</v>
+        <v>5816</v>
       </c>
       <c r="H8" s="46">
-        <v>234466</v>
+        <v>246505</v>
       </c>
       <c r="I8" s="46">
-        <v>200856</v>
+        <v>210251</v>
       </c>
       <c r="J8" s="46">
-        <v>23982</v>
+        <v>25266</v>
       </c>
       <c r="K8" s="46">
-        <v>8901</v>
+        <v>10243</v>
       </c>
       <c r="L8" s="46">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="M8" s="46">
-        <v>9495</v>
+        <v>90</v>
       </c>
       <c r="N8" s="46">
-        <v>279886</v>
+        <v>303319</v>
       </c>
       <c r="O8" s="46">
-        <v>199288</v>
+        <v>216754</v>
       </c>
       <c r="P8" s="46">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q8" s="46">
-        <v>80043</v>
+        <v>86001</v>
       </c>
       <c r="R8" s="46">
-        <v>18049</v>
+        <v>860</v>
       </c>
       <c r="S8" s="46">
-        <v>33176</v>
+        <v>40965</v>
       </c>
       <c r="T8" s="46">
-        <v>31067</v>
+        <v>38269</v>
       </c>
       <c r="U8" s="46">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="V8" s="46">
-        <v>2063</v>
+        <v>2638</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>6113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
@@ -3146,73 +3130,73 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>184617</v>
+        <v>189366</v>
       </c>
       <c r="D9" s="45">
-        <v>111834</v>
+        <v>115359</v>
       </c>
       <c r="E9" s="45">
-        <v>12879</v>
+        <v>13253</v>
       </c>
       <c r="F9" s="45">
-        <v>59904</v>
+        <v>60754</v>
       </c>
       <c r="G9" s="45">
-        <v>2219</v>
+        <v>2312</v>
       </c>
       <c r="H9" s="45">
-        <v>84963</v>
+        <v>89428</v>
       </c>
       <c r="I9" s="45">
-        <v>76790</v>
+        <v>80784</v>
       </c>
       <c r="J9" s="45">
-        <v>5101</v>
+        <v>5342</v>
       </c>
       <c r="K9" s="45">
-        <v>1472</v>
+        <v>1697</v>
       </c>
       <c r="L9" s="45">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="M9" s="45">
-        <v>2280</v>
+        <v>1762</v>
       </c>
       <c r="N9" s="45">
-        <v>57090</v>
+        <v>62139</v>
       </c>
       <c r="O9" s="45">
-        <v>47883</v>
+        <v>51930</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>9193</v>
+        <v>10195</v>
       </c>
       <c r="R9" s="45">
-        <v>4238</v>
+        <v>406</v>
       </c>
       <c r="S9" s="45">
-        <v>2903</v>
+        <v>3757</v>
       </c>
       <c r="T9" s="45">
-        <v>2741</v>
+        <v>3555</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3220,73 +3204,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>476114</v>
+        <v>486317</v>
       </c>
       <c r="D10" s="46">
-        <v>304658</v>
+        <v>313541</v>
       </c>
       <c r="E10" s="46">
-        <v>51180</v>
+        <v>52476</v>
       </c>
       <c r="F10" s="46">
-        <v>120276</v>
+        <v>120300</v>
       </c>
       <c r="G10" s="46">
-        <v>5809</v>
+        <v>4795</v>
       </c>
       <c r="H10" s="46">
-        <v>161583</v>
+        <v>169492</v>
       </c>
       <c r="I10" s="46">
-        <v>148713</v>
+        <v>155120</v>
       </c>
       <c r="J10" s="46">
-        <v>10626</v>
+        <v>11430</v>
       </c>
       <c r="K10" s="46">
-        <v>1407</v>
+        <v>1874</v>
       </c>
       <c r="L10" s="46">
-        <v>837</v>
+        <v>1068</v>
       </c>
       <c r="M10" s="46">
-        <v>2814</v>
+        <v>3404</v>
       </c>
       <c r="N10" s="46">
-        <v>150793</v>
+        <v>163357</v>
       </c>
       <c r="O10" s="46">
-        <v>122647</v>
+        <v>133167</v>
       </c>
       <c r="P10" s="46">
-        <v>1661</v>
+        <v>1936</v>
       </c>
       <c r="Q10" s="46">
-        <v>26485</v>
+        <v>28254</v>
       </c>
       <c r="R10" s="46">
-        <v>8335</v>
+        <v>949</v>
       </c>
       <c r="S10" s="46">
-        <v>6832</v>
+        <v>8888</v>
       </c>
       <c r="T10" s="46">
-        <v>6229</v>
+        <v>8189</v>
       </c>
       <c r="U10" s="46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V10" s="46">
-        <v>591</v>
+        <v>684</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3294,73 +3278,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1589498</v>
+        <v>1633158</v>
       </c>
       <c r="D11" s="45">
-        <v>966347</v>
+        <v>999063</v>
       </c>
       <c r="E11" s="45">
-        <v>160832</v>
+        <v>169594</v>
       </c>
       <c r="F11" s="45">
-        <v>462319</v>
+        <v>464501</v>
       </c>
       <c r="G11" s="45">
-        <v>19620</v>
+        <v>19737</v>
       </c>
       <c r="H11" s="45">
-        <v>537098</v>
+        <v>561313</v>
       </c>
       <c r="I11" s="45">
-        <v>492318</v>
+        <v>506687</v>
       </c>
       <c r="J11" s="45">
-        <v>27084</v>
+        <v>30165</v>
       </c>
       <c r="K11" s="45">
-        <v>17696</v>
+        <v>24461</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>9491</v>
+        <v>11007</v>
       </c>
       <c r="N11" s="45">
-        <v>555583</v>
+        <v>621199</v>
       </c>
       <c r="O11" s="45">
-        <v>447454</v>
+        <v>497342</v>
       </c>
       <c r="P11" s="45">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="45">
-        <v>107991</v>
+        <v>123713</v>
       </c>
       <c r="R11" s="45">
-        <v>38457</v>
+        <v>4258</v>
       </c>
       <c r="S11" s="45">
-        <v>28995</v>
+        <v>40008</v>
       </c>
       <c r="T11" s="45">
-        <v>26851</v>
+        <v>36825</v>
       </c>
       <c r="U11" s="45">
         <v>104</v>
       </c>
       <c r="V11" s="45">
-        <v>1997</v>
+        <v>3036</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>5138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3368,73 +3352,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>373011</v>
+        <v>381490</v>
       </c>
       <c r="D12" s="46">
-        <v>268027</v>
+        <v>273117</v>
       </c>
       <c r="E12" s="46">
-        <v>39345</v>
+        <v>42670</v>
       </c>
       <c r="F12" s="46">
-        <v>65639</v>
+        <v>65703</v>
       </c>
       <c r="G12" s="46">
-        <v>4705</v>
+        <v>2947</v>
       </c>
       <c r="H12" s="46">
-        <v>137126</v>
+        <v>144212</v>
       </c>
       <c r="I12" s="46">
-        <v>126340</v>
+        <v>131100</v>
       </c>
       <c r="J12" s="46">
-        <v>9357</v>
+        <v>11158</v>
       </c>
       <c r="K12" s="46">
-        <v>1003</v>
+        <v>1138</v>
       </c>
       <c r="L12" s="46">
-        <v>426</v>
+        <v>816</v>
       </c>
       <c r="M12" s="46">
-        <v>4578</v>
+        <v>2068</v>
       </c>
       <c r="N12" s="46">
-        <v>215288</v>
+        <v>233397</v>
       </c>
       <c r="O12" s="46">
-        <v>159273</v>
+        <v>175218</v>
       </c>
       <c r="P12" s="46">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="46">
-        <v>55924</v>
+        <v>58082</v>
       </c>
       <c r="R12" s="46">
-        <v>12354</v>
+        <v>757</v>
       </c>
       <c r="S12" s="46">
-        <v>12956</v>
+        <v>18864</v>
       </c>
       <c r="T12" s="46">
-        <v>11388</v>
+        <v>17019</v>
       </c>
       <c r="U12" s="46">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="V12" s="46">
-        <v>1529</v>
+        <v>1794</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3442,73 +3426,73 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2044626</v>
+        <v>2077047</v>
       </c>
       <c r="D13" s="45">
-        <v>1205085</v>
+        <v>1230792</v>
       </c>
       <c r="E13" s="45">
-        <v>192258</v>
+        <v>195567</v>
       </c>
       <c r="F13" s="45">
-        <v>647283</v>
+        <v>650688</v>
       </c>
       <c r="G13" s="45">
-        <v>25621</v>
+        <v>13455</v>
       </c>
       <c r="H13" s="45">
-        <v>655054</v>
+        <v>693206</v>
       </c>
       <c r="I13" s="45">
-        <v>587656</v>
+        <v>612295</v>
       </c>
       <c r="J13" s="45">
-        <v>43138</v>
+        <v>53341</v>
       </c>
       <c r="K13" s="45">
-        <v>12909</v>
+        <v>15439</v>
       </c>
       <c r="L13" s="45">
-        <v>11351</v>
+        <v>12131</v>
       </c>
       <c r="M13" s="45">
-        <v>15329</v>
+        <v>14740</v>
       </c>
       <c r="N13" s="45">
-        <v>792078</v>
+        <v>883201</v>
       </c>
       <c r="O13" s="45">
-        <v>628333</v>
+        <v>692528</v>
       </c>
       <c r="P13" s="45">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="45">
-        <v>163253</v>
+        <v>190146</v>
       </c>
       <c r="R13" s="45">
-        <v>53855</v>
+        <v>6248</v>
       </c>
       <c r="S13" s="45">
-        <v>31867</v>
+        <v>43708</v>
       </c>
       <c r="T13" s="45">
-        <v>27227</v>
+        <v>37358</v>
       </c>
       <c r="U13" s="45">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="V13" s="45">
-        <v>4178</v>
+        <v>5878</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>5627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
@@ -3516,73 +3500,73 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4565070</v>
+        <v>4645599</v>
       </c>
       <c r="D14" s="46">
-        <v>3066015</v>
+        <v>3121297</v>
       </c>
       <c r="E14" s="46">
-        <v>355962</v>
+        <v>380445</v>
       </c>
       <c r="F14" s="46">
-        <v>1143093</v>
+        <v>1143857</v>
       </c>
       <c r="G14" s="46">
-        <v>41147</v>
+        <v>30676</v>
       </c>
       <c r="H14" s="46">
-        <v>1553336</v>
+        <v>1629096</v>
       </c>
       <c r="I14" s="46">
-        <v>1432729</v>
+        <v>1496368</v>
       </c>
       <c r="J14" s="46">
-        <v>96305</v>
+        <v>103387</v>
       </c>
       <c r="K14" s="46">
-        <v>21100</v>
+        <v>25223</v>
       </c>
       <c r="L14" s="46">
-        <v>3202</v>
+        <v>4118</v>
       </c>
       <c r="M14" s="46">
-        <v>18959</v>
+        <v>30519</v>
       </c>
       <c r="N14" s="46">
-        <v>1948660</v>
+        <v>2154668</v>
       </c>
       <c r="O14" s="46">
-        <v>1463469</v>
+        <v>1613608</v>
       </c>
       <c r="P14" s="46">
-        <v>4989</v>
+        <v>5417</v>
       </c>
       <c r="Q14" s="46">
-        <v>480202</v>
+        <v>535643</v>
       </c>
       <c r="R14" s="46">
-        <v>139440</v>
+        <v>17944</v>
       </c>
       <c r="S14" s="46">
-        <v>76935</v>
+        <v>104844</v>
       </c>
       <c r="T14" s="46">
-        <v>67191</v>
+        <v>91876</v>
       </c>
       <c r="U14" s="46">
-        <v>1307</v>
+        <v>1435</v>
       </c>
       <c r="V14" s="46">
-        <v>8366</v>
+        <v>11361</v>
       </c>
       <c r="W14" s="46">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="X14" s="46">
-        <v>16124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3590,73 +3574,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>968089</v>
+        <v>986802</v>
       </c>
       <c r="D15" s="45">
-        <v>637729</v>
+        <v>648515</v>
       </c>
       <c r="E15" s="45">
-        <v>67018</v>
+        <v>74612</v>
       </c>
       <c r="F15" s="45">
-        <v>263342</v>
+        <v>263675</v>
       </c>
       <c r="G15" s="45">
-        <v>10977</v>
+        <v>7107</v>
       </c>
       <c r="H15" s="45">
-        <v>457199</v>
+        <v>474916</v>
       </c>
       <c r="I15" s="45">
-        <v>400685</v>
+        <v>413331</v>
       </c>
       <c r="J15" s="45">
-        <v>33887</v>
+        <v>35398</v>
       </c>
       <c r="K15" s="45">
-        <v>22627</v>
+        <v>26187</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>9496</v>
+        <v>6999</v>
       </c>
       <c r="N15" s="45">
-        <v>379420</v>
+        <v>422902</v>
       </c>
       <c r="O15" s="45">
-        <v>313818</v>
+        <v>346260</v>
       </c>
       <c r="P15" s="45">
         <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>65399</v>
+        <v>76439</v>
       </c>
       <c r="R15" s="45">
-        <v>28395</v>
+        <v>2006</v>
       </c>
       <c r="S15" s="45">
-        <v>23193</v>
+        <v>31878</v>
       </c>
       <c r="T15" s="45">
-        <v>22476</v>
+        <v>30985</v>
       </c>
       <c r="U15" s="45">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="V15" s="45">
-        <v>671</v>
+        <v>827</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>5450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3664,73 +3648,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>281024</v>
+        <v>288258</v>
       </c>
       <c r="D16" s="46">
-        <v>211884</v>
+        <v>217555</v>
       </c>
       <c r="E16" s="46">
-        <v>27098</v>
+        <v>28651</v>
       </c>
       <c r="F16" s="46">
-        <v>42042</v>
+        <v>42052</v>
       </c>
       <c r="G16" s="46">
-        <v>3793</v>
+        <v>3087</v>
       </c>
       <c r="H16" s="46">
-        <v>95928</v>
+        <v>101012</v>
       </c>
       <c r="I16" s="46">
-        <v>86130</v>
+        <v>90095</v>
       </c>
       <c r="J16" s="46">
-        <v>7387</v>
+        <v>7923</v>
       </c>
       <c r="K16" s="46">
-        <v>2411</v>
+        <v>2994</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>1876</v>
+        <v>2467</v>
       </c>
       <c r="N16" s="46">
-        <v>100449</v>
+        <v>110104</v>
       </c>
       <c r="O16" s="46">
-        <v>83978</v>
+        <v>91603</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>16392</v>
+        <v>18422</v>
       </c>
       <c r="R16" s="46">
-        <v>7480</v>
+        <v>463</v>
       </c>
       <c r="S16" s="46">
-        <v>5045</v>
+        <v>7099</v>
       </c>
       <c r="T16" s="46">
-        <v>4501</v>
+        <v>6410</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>544</v>
+        <v>683</v>
       </c>
       <c r="W16" s="46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3738,73 +3722,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>874434</v>
+        <v>894646</v>
       </c>
       <c r="D17" s="45">
-        <v>619173</v>
+        <v>633613</v>
       </c>
       <c r="E17" s="45">
-        <v>75514</v>
+        <v>80516</v>
       </c>
       <c r="F17" s="45">
-        <v>179747</v>
+        <v>180517</v>
       </c>
       <c r="G17" s="45">
-        <v>5592</v>
+        <v>10177</v>
       </c>
       <c r="H17" s="45">
-        <v>503027</v>
+        <v>520274</v>
       </c>
       <c r="I17" s="45">
-        <v>464643</v>
+        <v>478496</v>
       </c>
       <c r="J17" s="45">
-        <v>36791</v>
+        <v>39927</v>
       </c>
       <c r="K17" s="45">
-        <v>1593</v>
+        <v>1851</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>13665</v>
+        <v>7161</v>
       </c>
       <c r="N17" s="45">
-        <v>338540</v>
+        <v>370641</v>
       </c>
       <c r="O17" s="45">
-        <v>247149</v>
+        <v>273381</v>
       </c>
       <c r="P17" s="45">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="45">
-        <v>91230</v>
+        <v>97086</v>
       </c>
       <c r="R17" s="45">
-        <v>21116</v>
+        <v>1617</v>
       </c>
       <c r="S17" s="45">
-        <v>54725</v>
+        <v>65432</v>
       </c>
       <c r="T17" s="45">
-        <v>53580</v>
+        <v>63982</v>
       </c>
       <c r="U17" s="45">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V17" s="45">
-        <v>1077</v>
+        <v>1377</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>5842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3812,73 +3796,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>528559</v>
+        <v>530666</v>
       </c>
       <c r="D18" s="47">
-        <v>348576</v>
+        <v>349293</v>
       </c>
       <c r="E18" s="47">
-        <v>50458</v>
+        <v>51848</v>
       </c>
       <c r="F18" s="47">
         <v>129525</v>
       </c>
       <c r="G18" s="47">
-        <v>6507</v>
+        <v>2107</v>
       </c>
       <c r="H18" s="47">
-        <v>208245</v>
+        <v>210043</v>
       </c>
       <c r="I18" s="47">
-        <v>177112</v>
+        <v>178160</v>
       </c>
       <c r="J18" s="47">
-        <v>25973</v>
+        <v>26696</v>
       </c>
       <c r="K18" s="47">
-        <v>5130</v>
+        <v>5157</v>
       </c>
       <c r="L18" s="47">
         <v>30</v>
       </c>
       <c r="M18" s="47">
-        <v>7671</v>
+        <v>1798</v>
       </c>
       <c r="N18" s="46">
-        <v>208504</v>
+        <v>227547</v>
       </c>
       <c r="O18" s="46">
-        <v>175038</v>
+        <v>190482</v>
       </c>
       <c r="P18" s="46">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="46">
-        <v>33442</v>
+        <v>37029</v>
       </c>
       <c r="R18" s="46">
-        <v>13191</v>
+        <v>598</v>
       </c>
       <c r="S18" s="46">
-        <v>11198</v>
+        <v>15820</v>
       </c>
       <c r="T18" s="46">
-        <v>10257</v>
+        <v>14583</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>915</v>
+        <v>1211</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3886,73 +3870,73 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>634684</v>
+        <v>645961</v>
       </c>
       <c r="D19" s="45">
-        <v>437874</v>
+        <v>446953</v>
       </c>
       <c r="E19" s="45">
-        <v>51922</v>
+        <v>53887</v>
       </c>
       <c r="F19" s="45">
-        <v>144888</v>
+        <v>145121</v>
       </c>
       <c r="G19" s="45">
-        <v>5288</v>
+        <v>5301</v>
       </c>
       <c r="H19" s="45">
-        <v>330148</v>
+        <v>346582</v>
       </c>
       <c r="I19" s="45">
-        <v>292082</v>
+        <v>303623</v>
       </c>
       <c r="J19" s="45">
-        <v>29324</v>
+        <v>31639</v>
       </c>
       <c r="K19" s="45">
-        <v>8742</v>
+        <v>11320</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>9995</v>
+        <v>6082</v>
       </c>
       <c r="N19" s="45">
-        <v>292649</v>
+        <v>330486</v>
       </c>
       <c r="O19" s="45">
-        <v>233187</v>
+        <v>260523</v>
       </c>
       <c r="P19" s="45">
-        <v>2006</v>
+        <v>2119</v>
       </c>
       <c r="Q19" s="45">
-        <v>57456</v>
+        <v>67844</v>
       </c>
       <c r="R19" s="45">
-        <v>21193</v>
+        <v>3851</v>
       </c>
       <c r="S19" s="45">
-        <v>16388</v>
+        <v>23896</v>
       </c>
       <c r="T19" s="45">
-        <v>15041</v>
+        <v>22271</v>
       </c>
       <c r="U19" s="45">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="V19" s="45">
-        <v>979</v>
+        <v>1246</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>3369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>16</v>
       </c>
@@ -3960,109 +3944,109 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>487275</v>
+        <v>502442</v>
       </c>
       <c r="D20" s="47">
-        <v>337968</v>
+        <v>346471</v>
       </c>
       <c r="E20" s="47">
-        <v>40273</v>
+        <v>46937</v>
       </c>
       <c r="F20" s="47">
         <v>109034</v>
       </c>
       <c r="G20" s="47">
-        <v>3699</v>
+        <v>6879</v>
       </c>
       <c r="H20" s="47">
-        <v>287361</v>
+        <v>293336</v>
       </c>
       <c r="I20" s="47">
-        <v>266682</v>
+        <v>272602</v>
       </c>
       <c r="J20" s="47">
-        <v>19865</v>
+        <v>19891</v>
       </c>
       <c r="K20" s="47">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>5575</v>
+        <v>2048</v>
       </c>
       <c r="N20" s="47">
-        <v>178188</v>
+        <v>197492</v>
       </c>
       <c r="O20" s="46">
-        <v>149873</v>
+        <v>166195</v>
       </c>
       <c r="P20" s="46">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="46">
-        <v>28227</v>
+        <v>31203</v>
       </c>
       <c r="R20" s="46">
-        <v>14902</v>
+        <v>323</v>
       </c>
       <c r="S20" s="46">
-        <v>19214</v>
+        <v>24121</v>
       </c>
       <c r="T20" s="46">
-        <v>16660</v>
+        <v>20751</v>
       </c>
       <c r="U20" s="46">
         <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>2540</v>
+        <v>3356</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>74269</v>
+        <v>76232</v>
       </c>
       <c r="D21" s="45">
-        <v>1383</v>
+        <v>1502</v>
       </c>
       <c r="E21" s="45">
-        <v>55054</v>
+        <v>56868</v>
       </c>
       <c r="F21" s="45">
-        <v>17832</v>
+        <v>17862</v>
       </c>
       <c r="G21" s="45">
-        <v>2066</v>
+        <v>0</v>
       </c>
       <c r="H21" s="45">
-        <v>11143</v>
+        <v>13794</v>
       </c>
       <c r="I21" s="55">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J21" s="55">
-        <v>10188</v>
+        <v>11872</v>
       </c>
       <c r="K21" s="55">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="L21" s="55">
-        <v>846</v>
+        <v>1723</v>
       </c>
       <c r="M21" s="55">
-        <v>1518</v>
+        <v>0</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>75</v>
@@ -4096,128 +4080,122 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>20345993</v>
+        <v>20783362</v>
       </c>
       <c r="D22" s="57">
-        <v>13313061</v>
+        <v>13628415</v>
       </c>
       <c r="E22" s="57">
-        <v>1859190</v>
+        <v>1968126</v>
       </c>
       <c r="F22" s="57">
-        <v>5173742</v>
+        <v>5186821</v>
       </c>
       <c r="G22" s="57">
-        <v>218733</v>
+        <v>197596</v>
       </c>
       <c r="H22" s="57">
-        <v>7843190</v>
+        <v>8185346</v>
       </c>
       <c r="I22" s="57">
-        <v>7032945</v>
+        <v>7291939</v>
       </c>
       <c r="J22" s="57">
-        <v>590179</v>
+        <v>633057</v>
       </c>
       <c r="K22" s="57">
-        <v>192314</v>
+        <v>226728</v>
       </c>
       <c r="L22" s="57">
-        <v>27752</v>
+        <v>33622</v>
       </c>
       <c r="M22" s="57">
-        <v>175437</v>
+        <v>137185</v>
       </c>
       <c r="N22" s="57">
-        <v>8170511</v>
+        <v>9040439</v>
       </c>
       <c r="O22" s="57">
-        <v>6388533</v>
+        <v>7049301</v>
       </c>
       <c r="P22" s="57">
-        <v>11260</v>
+        <v>12272</v>
       </c>
       <c r="Q22" s="57">
-        <v>1770718</v>
+        <v>1978866</v>
       </c>
       <c r="R22" s="57">
-        <v>563568</v>
+        <v>62866</v>
       </c>
       <c r="S22" s="57">
-        <v>477490</v>
+        <v>637024</v>
       </c>
       <c r="T22" s="57">
-        <v>434128</v>
+        <v>580598</v>
       </c>
       <c r="U22" s="57">
-        <v>3232</v>
+        <v>3505</v>
       </c>
       <c r="V22" s="57">
-        <v>39946</v>
+        <v>52618</v>
       </c>
       <c r="W22" s="57">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="X22" s="57">
-        <v>90127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:V27"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4229,6 +4207,12 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4240,270 +4224,307 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="68">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="67">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
-        <v>23986</v>
-      </c>
-      <c r="C2" s="69"/>
+        <v>23987</v>
+      </c>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
       <c r="D2" s="45">
-        <v>23986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="70">
+        <v>23987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18448</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
       <c r="D3" s="46">
         <v>18448</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="68">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="67">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50010</v>
-      </c>
-      <c r="C4" s="69"/>
+        <v>50009</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
       <c r="D4" s="45">
-        <v>50010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="70">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
-        <v>62552</v>
-      </c>
-      <c r="C5" s="71"/>
+        <v>62551</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
       <c r="D5" s="46">
-        <v>62552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="68">
+        <v>62551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="67">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>49870</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
       <c r="D6" s="45">
         <v>49870</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="70">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="68">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>18771</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="46">
         <v>18771</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="68">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52138</v>
-      </c>
-      <c r="C8" s="69"/>
+        <v>52134</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
       <c r="D8" s="45">
-        <v>52138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="70">
+        <v>52134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23772</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
       <c r="D9" s="46">
         <v>23772</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="68">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
         <v>48026</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
       <c r="D10" s="45">
         <v>48026</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="70">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="68">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
-        <v>53685</v>
-      </c>
-      <c r="C11" s="71"/>
+        <v>53686</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
       <c r="D11" s="46">
-        <v>53685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="68">
+        <v>53686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62668</v>
-      </c>
-      <c r="C12" s="69"/>
+        <v>62666</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
       <c r="D12" s="45">
-        <v>62668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="70">
+        <v>62666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55941</v>
-      </c>
-      <c r="C13" s="71"/>
+        <v>55938</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
       <c r="D13" s="46">
-        <v>55941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="68">
+        <v>55938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62737</v>
-      </c>
-      <c r="C14" s="69"/>
+        <v>62735</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <v>62737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="72">
+        <v>62735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
         <v>61038</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
         <v>61038</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="68">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
-        <v>35506</v>
-      </c>
-      <c r="C16" s="69"/>
+        <v>35505</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="45">
-        <v>35506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="72">
+        <v>35505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="69">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67529</v>
-      </c>
-      <c r="C17" s="73"/>
+        <v>67528</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
       <c r="D17" s="47">
-        <v>67529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="68">
+        <v>67528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="67">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82589</v>
-      </c>
-      <c r="C18" s="69"/>
+        <v>82591</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
       <c r="D18" s="45">
-        <v>82589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="70">
+        <v>82591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="68">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111513</v>
-      </c>
-      <c r="C19" s="71"/>
+        <v>111515</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
       <c r="D19" s="46">
-        <v>111513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="68">
+        <v>111515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82888</v>
-      </c>
-      <c r="C20" s="69"/>
+        <v>82914</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
       <c r="D20" s="45">
-        <v>82888</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="70">
+        <v>82914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="68">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90925</v>
+        <v>90926</v>
       </c>
       <c r="C21" s="46">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="68">
+        <v>91536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="67">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
@@ -4516,106 +4537,106 @@
         <v>57571</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="70">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="68">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
         <v>31657</v>
       </c>
       <c r="C23" s="46">
-        <v>17343</v>
+        <v>17342</v>
       </c>
       <c r="D23" s="46">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="68">
+        <v>48999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="67">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66856</v>
+        <v>66857</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="70">
+        <v>82629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="68">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82830</v>
+        <v>82828</v>
       </c>
       <c r="C25" s="46">
-        <v>34882</v>
+        <v>34881</v>
       </c>
       <c r="D25" s="46">
-        <v>117712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="68">
+        <v>117709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="67">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80512</v>
+        <v>80507</v>
       </c>
       <c r="C26" s="45">
-        <v>51513</v>
+        <v>51511</v>
       </c>
       <c r="D26" s="45">
-        <v>132025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="70">
+        <v>132018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="68">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65873</v>
+        <v>65871</v>
       </c>
       <c r="C27" s="46">
         <v>41855</v>
       </c>
       <c r="D27" s="46">
-        <v>107728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="68">
+        <v>107726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="67">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68330</v>
+        <v>68481</v>
       </c>
       <c r="C28" s="45">
         <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>103892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="70">
+        <v>104043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="68">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40054</v>
+        <v>40052</v>
       </c>
       <c r="C29" s="46">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="68">
+        <v>85012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="67">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4628,106 +4649,106 @@
         <v>49224</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="72">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
         <v>53104</v>
       </c>
       <c r="C31" s="47">
-        <v>38599</v>
+        <v>38600</v>
       </c>
       <c r="D31" s="47">
-        <v>91703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="68">
+        <v>91704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="67">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50241</v>
+        <v>50240</v>
       </c>
       <c r="C32" s="45">
-        <v>48430</v>
+        <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>98671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="72">
+        <v>98669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="69">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51517</v>
+        <v>51515</v>
       </c>
       <c r="C33" s="47">
-        <v>59637</v>
+        <v>59635</v>
       </c>
       <c r="D33" s="47">
-        <v>111154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="68">
+        <v>111150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="67">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46044</v>
+        <v>46040</v>
       </c>
       <c r="D34" s="45">
-        <v>91171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="70">
+        <v>91167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="68">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51468</v>
+        <v>51466</v>
       </c>
       <c r="C35" s="46">
-        <v>57653</v>
+        <v>57654</v>
       </c>
       <c r="D35" s="46">
-        <v>109121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="68">
+        <v>109120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="67">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
         <v>36311</v>
       </c>
       <c r="C36" s="45">
-        <v>52161</v>
+        <v>52160</v>
       </c>
       <c r="D36" s="45">
-        <v>88472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="70">
+        <v>88471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="68">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
         <v>25986</v>
       </c>
       <c r="C37" s="46">
-        <v>30531</v>
+        <v>30530</v>
       </c>
       <c r="D37" s="46">
-        <v>56517</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="68">
+        <v>56516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="67">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
@@ -4740,22 +4761,22 @@
         <v>120651</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="70">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="68">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64222</v>
+        <v>64219</v>
       </c>
       <c r="C39" s="46">
-        <v>67457</v>
+        <v>67469</v>
       </c>
       <c r="D39" s="46">
-        <v>131679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="68">
+        <v>131688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="67">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
@@ -4768,1409 +4789,1425 @@
         <v>159466</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="70">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="68">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61086</v>
+        <v>61087</v>
       </c>
       <c r="C41" s="46">
-        <v>70688</v>
+        <v>70690</v>
       </c>
       <c r="D41" s="46">
-        <v>131774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="68">
+        <v>131777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="67">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67663</v>
+        <v>67661</v>
       </c>
       <c r="C42" s="45">
-        <v>77047</v>
+        <v>77044</v>
       </c>
       <c r="D42" s="45">
-        <v>144710</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="70">
+        <v>144705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="68">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47174</v>
+        <v>47173</v>
       </c>
       <c r="C43" s="46">
-        <v>52964</v>
+        <v>52963</v>
       </c>
       <c r="D43" s="46">
-        <v>100138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="68">
+        <v>100136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="67">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
         <v>28178</v>
       </c>
       <c r="C44" s="45">
-        <v>26082</v>
+        <v>26080</v>
       </c>
       <c r="D44" s="45">
-        <v>54260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="70">
+        <v>54258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="68">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53179</v>
+        <v>53170</v>
       </c>
       <c r="C45" s="46">
         <v>56778</v>
       </c>
       <c r="D45" s="46">
-        <v>109957</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="68">
+        <v>109948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="67">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59710</v>
+        <v>59700</v>
       </c>
       <c r="C46" s="45">
         <v>74234</v>
       </c>
       <c r="D46" s="45">
-        <v>133944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="72">
+        <v>133934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="69">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75163</v>
+        <v>75154</v>
       </c>
       <c r="C47" s="47">
-        <v>76614</v>
+        <v>76613</v>
       </c>
       <c r="D47" s="47">
-        <v>151777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="68">
+        <v>151767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="67">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73843</v>
+        <v>73838</v>
       </c>
       <c r="C48" s="45">
-        <v>67325</v>
+        <v>67321</v>
       </c>
       <c r="D48" s="45">
-        <v>141168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="72">
+        <v>141159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="69">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81414</v>
+        <v>81403</v>
       </c>
       <c r="C49" s="47">
-        <v>75926</v>
+        <v>76075</v>
       </c>
       <c r="D49" s="47">
-        <v>157340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="68">
+        <v>157478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="67">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62181</v>
+        <v>62164</v>
       </c>
       <c r="C50" s="45">
-        <v>45590</v>
+        <v>45591</v>
       </c>
       <c r="D50" s="45">
-        <v>107771</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="70">
+        <v>107755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="68">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40049</v>
+        <v>40028</v>
       </c>
       <c r="C51" s="46">
-        <v>25263</v>
+        <v>25262</v>
       </c>
       <c r="D51" s="46">
-        <v>65312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="68">
+        <v>65290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="67">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71142</v>
+        <v>71137</v>
       </c>
       <c r="C52" s="45">
-        <v>55627</v>
+        <v>55624</v>
       </c>
       <c r="D52" s="45">
-        <v>126769</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="70">
+        <v>126761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="68">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81954</v>
+        <v>81981</v>
       </c>
       <c r="C53" s="46">
-        <v>54654</v>
+        <v>54622</v>
       </c>
       <c r="D53" s="46">
-        <v>136608</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="68">
+        <v>136603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="67">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93381</v>
+        <v>93519</v>
       </c>
       <c r="C54" s="45">
-        <v>55657</v>
+        <v>55655</v>
       </c>
       <c r="D54" s="45">
-        <v>149038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="70">
+        <v>149174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="68">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91442</v>
+        <v>91446</v>
       </c>
       <c r="C55" s="46">
-        <v>51244</v>
+        <v>51242</v>
       </c>
       <c r="D55" s="46">
-        <v>142686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="68">
+        <v>142688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="67">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99745</v>
+        <v>99746</v>
       </c>
       <c r="C56" s="45">
-        <v>54770</v>
+        <v>54766</v>
       </c>
       <c r="D56" s="45">
-        <v>154515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="70">
+        <v>154512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="68">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76311</v>
+        <v>76302</v>
       </c>
       <c r="C57" s="46">
-        <v>37110</v>
+        <v>37109</v>
       </c>
       <c r="D57" s="46">
-        <v>113421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="68">
+        <v>113411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="67">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>57053</v>
+        <v>57043</v>
       </c>
       <c r="C58" s="45">
         <v>29110</v>
       </c>
       <c r="D58" s="45">
-        <v>86163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="70">
+        <v>86153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="68">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100181</v>
+        <v>100195</v>
       </c>
       <c r="C59" s="46">
-        <v>60117</v>
+        <v>60118</v>
       </c>
       <c r="D59" s="46">
-        <v>160298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="68">
+        <v>160313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="67">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107386</v>
+        <v>107395</v>
       </c>
       <c r="C60" s="45">
-        <v>59780</v>
+        <v>59775</v>
       </c>
       <c r="D60" s="45">
-        <v>167166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="70">
+        <v>167170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="68">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116413</v>
+        <v>116408</v>
       </c>
       <c r="C61" s="46">
-        <v>59600</v>
+        <v>59599</v>
       </c>
       <c r="D61" s="46">
-        <v>176013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="68">
+        <v>176007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="67">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130632</v>
+        <v>130646</v>
       </c>
       <c r="C62" s="45">
-        <v>58676</v>
+        <v>58675</v>
       </c>
       <c r="D62" s="45">
-        <v>189308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="72">
+        <v>189321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="69">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
         <v>144377</v>
       </c>
       <c r="C63" s="47">
-        <v>65427</v>
+        <v>65425</v>
       </c>
       <c r="D63" s="47">
-        <v>209804</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="68">
+        <v>209802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="67">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108539</v>
+        <v>108533</v>
       </c>
       <c r="C64" s="45">
-        <v>40019</v>
+        <v>40017</v>
       </c>
       <c r="D64" s="45">
-        <v>148558</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="72">
+        <v>148550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="69">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83824</v>
+        <v>83811</v>
       </c>
       <c r="C65" s="47">
         <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="68">
+        <v>108102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="67">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146439</v>
+        <v>146429</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195807</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="70">
+        <v>195797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="68">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166187</v>
+        <v>166230</v>
       </c>
       <c r="C67" s="46">
         <v>53687</v>
       </c>
       <c r="D67" s="46">
-        <v>219874</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="68">
+        <v>219917</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="67">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174783</v>
+        <v>174771</v>
       </c>
       <c r="C68" s="45">
-        <v>68989</v>
+        <v>68994</v>
       </c>
       <c r="D68" s="45">
-        <v>243772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="70">
+        <v>243765</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="68">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180457</v>
+        <v>180453</v>
       </c>
       <c r="C69" s="46">
         <v>62680</v>
       </c>
       <c r="D69" s="46">
-        <v>243137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="68">
+        <v>243133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="67">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201690</v>
+        <v>201726</v>
       </c>
       <c r="C70" s="45">
-        <v>67425</v>
+        <v>67427</v>
       </c>
       <c r="D70" s="45">
-        <v>269115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="70">
+        <v>269153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="68">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153162</v>
+        <v>153188</v>
       </c>
       <c r="C71" s="46">
-        <v>49301</v>
+        <v>49297</v>
       </c>
       <c r="D71" s="46">
-        <v>202463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="68">
+        <v>202485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="67">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115924</v>
+        <v>115929</v>
       </c>
       <c r="C72" s="45">
-        <v>34463</v>
+        <v>34461</v>
       </c>
       <c r="D72" s="45">
-        <v>150387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="70">
+        <v>150390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="68">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186682</v>
+        <v>186700</v>
       </c>
       <c r="C73" s="46">
-        <v>52505</v>
+        <v>52504</v>
       </c>
       <c r="D73" s="46">
-        <v>239187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="68">
+        <v>239204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="67">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195668</v>
+        <v>195677</v>
       </c>
       <c r="C74" s="45">
-        <v>54773</v>
+        <v>54771</v>
       </c>
       <c r="D74" s="45">
-        <v>250441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="70">
+        <v>250448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="68">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217545</v>
+        <v>217996</v>
       </c>
       <c r="C75" s="46">
-        <v>65695</v>
+        <v>65693</v>
       </c>
       <c r="D75" s="46">
-        <v>283240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="68">
+        <v>283689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="67">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220589</v>
+        <v>220618</v>
       </c>
       <c r="C76" s="45">
-        <v>60909</v>
+        <v>60908</v>
       </c>
       <c r="D76" s="45">
-        <v>281498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="70">
+        <v>281526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="68">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252303</v>
+        <v>252338</v>
       </c>
       <c r="C77" s="46">
-        <v>71658</v>
+        <v>71655</v>
       </c>
       <c r="D77" s="46">
-        <v>323961</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="68">
+        <v>323993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="67">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197074</v>
+        <v>197083</v>
       </c>
       <c r="C78" s="45">
-        <v>49451</v>
+        <v>49437</v>
       </c>
       <c r="D78" s="45">
-        <v>246525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="72">
+        <v>246520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="69">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135185</v>
+        <v>135207</v>
       </c>
       <c r="C79" s="47">
-        <v>35995</v>
+        <v>35993</v>
       </c>
       <c r="D79" s="47">
-        <v>171180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="68">
+        <v>171200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="67">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189396</v>
+        <v>189417</v>
       </c>
       <c r="C80" s="45">
-        <v>58865</v>
+        <v>58863</v>
       </c>
       <c r="D80" s="45">
-        <v>248261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="72">
+        <v>248280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="69">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112136</v>
+        <v>112137</v>
       </c>
       <c r="C81" s="47">
         <v>67022</v>
       </c>
       <c r="D81" s="47">
-        <v>179158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="68">
+        <v>179159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="67">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125749</v>
+        <v>125754</v>
       </c>
       <c r="C82" s="45">
-        <v>79464</v>
+        <v>79465</v>
       </c>
       <c r="D82" s="45">
-        <v>205213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="70">
+        <v>205219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="68">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119355</v>
+        <v>119360</v>
       </c>
       <c r="C83" s="46">
-        <v>75344</v>
+        <v>75345</v>
       </c>
       <c r="D83" s="46">
-        <v>194699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="68">
+        <v>194705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="67">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161060</v>
+        <v>161069</v>
       </c>
       <c r="C84" s="45">
         <v>82842</v>
       </c>
       <c r="D84" s="45">
-        <v>243902</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="70">
+        <v>243911</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="68">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166331</v>
+        <v>166342</v>
       </c>
       <c r="C85" s="46">
-        <v>53891</v>
+        <v>53890</v>
       </c>
       <c r="D85" s="46">
-        <v>220222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="68">
+        <v>220232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="67">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127329</v>
+        <v>127335</v>
       </c>
       <c r="C86" s="45">
-        <v>38772</v>
+        <v>38765</v>
       </c>
       <c r="D86" s="45">
-        <v>166101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="70">
+        <v>166100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="68">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>189997</v>
+        <v>190026</v>
       </c>
       <c r="C87" s="46">
-        <v>76166</v>
+        <v>76164</v>
       </c>
       <c r="D87" s="46">
-        <v>266163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="68">
+        <v>266190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="67">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214092</v>
+        <v>214124</v>
       </c>
       <c r="C88" s="45">
-        <v>83767</v>
+        <v>83763</v>
       </c>
       <c r="D88" s="45">
-        <v>297859</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="70">
+        <v>297887</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="68">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245700</v>
+        <v>245742</v>
       </c>
       <c r="C89" s="46">
         <v>88312</v>
       </c>
       <c r="D89" s="46">
-        <v>334012</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="68">
+        <v>334054</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="67">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257324</v>
+        <v>257335</v>
       </c>
       <c r="C90" s="45">
-        <v>80157</v>
+        <v>80155</v>
       </c>
       <c r="D90" s="45">
-        <v>337481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="70">
+        <v>337490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="68">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285968</v>
+        <v>285973</v>
       </c>
       <c r="C91" s="46">
-        <v>88753</v>
+        <v>88752</v>
       </c>
       <c r="D91" s="46">
-        <v>374721</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="68">
+        <v>374725</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="67">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223591</v>
+        <v>223594</v>
       </c>
       <c r="C92" s="45">
-        <v>63179</v>
+        <v>63176</v>
       </c>
       <c r="D92" s="45">
         <v>286770</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="70">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="68">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144171</v>
+        <v>144178</v>
       </c>
       <c r="C93" s="46">
-        <v>52748</v>
+        <v>52747</v>
       </c>
       <c r="D93" s="46">
-        <v>196919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="68">
+        <v>196925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="67">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219674</v>
+        <v>219748</v>
       </c>
       <c r="C94" s="45">
-        <v>89033</v>
+        <v>89032</v>
       </c>
       <c r="D94" s="45">
-        <v>308707</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="72">
+        <v>308780</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="69">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235049</v>
+        <v>235079</v>
       </c>
       <c r="C95" s="47">
-        <v>93353</v>
+        <v>93384</v>
       </c>
       <c r="D95" s="47">
-        <v>328402</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="68">
+        <v>328463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="67">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238214</v>
+        <v>238380</v>
       </c>
       <c r="C96" s="45">
-        <v>103105</v>
+        <v>103089</v>
       </c>
       <c r="D96" s="45">
-        <v>341319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="72">
+        <v>341469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="69">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231116</v>
+        <v>231261</v>
       </c>
       <c r="C97" s="47">
-        <v>92431</v>
+        <v>92417</v>
       </c>
       <c r="D97" s="47">
-        <v>323547</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="68">
+        <v>323678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="67">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158253</v>
+        <v>158276</v>
       </c>
       <c r="C98" s="45">
-        <v>71609</v>
+        <v>71603</v>
       </c>
       <c r="D98" s="45">
-        <v>229862</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="70">
+        <v>229879</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="68">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165894</v>
+        <v>165905</v>
       </c>
       <c r="C99" s="46">
-        <v>66035</v>
+        <v>66034</v>
       </c>
       <c r="D99" s="46">
-        <v>231929</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="68">
+        <v>231939</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="67">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142475</v>
+        <v>142482</v>
       </c>
       <c r="C100" s="45">
-        <v>53568</v>
+        <v>53571</v>
       </c>
       <c r="D100" s="45">
-        <v>196043</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="70">
+        <v>196053</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="68">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176196</v>
+        <v>176231</v>
       </c>
       <c r="C101" s="46">
-        <v>73409</v>
+        <v>73402</v>
       </c>
       <c r="D101" s="46">
-        <v>249605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="68">
+        <v>249633</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="67">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279204</v>
+        <v>279294</v>
       </c>
       <c r="C102" s="45">
-        <v>99141</v>
+        <v>99152</v>
       </c>
       <c r="D102" s="45">
-        <v>378345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="70">
+        <v>378446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="68">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580270</v>
+        <v>580456</v>
       </c>
       <c r="C103" s="46">
-        <v>97115</v>
+        <v>97103</v>
       </c>
       <c r="D103" s="46">
-        <v>677385</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="68">
+        <v>677559</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="67">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642893</v>
+        <v>642941</v>
       </c>
       <c r="C104" s="45">
-        <v>89764</v>
+        <v>89758</v>
       </c>
       <c r="D104" s="45">
-        <v>732657</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="70">
+        <v>732699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="68">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534632</v>
+        <v>534650</v>
       </c>
       <c r="C105" s="46">
-        <v>88355</v>
+        <v>88352</v>
       </c>
       <c r="D105" s="46">
-        <v>622987</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="68">
+        <v>623002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="67">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302930</v>
+        <v>302932</v>
       </c>
       <c r="C106" s="45">
-        <v>65478</v>
+        <v>65475</v>
       </c>
       <c r="D106" s="45">
-        <v>368408</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="70">
+        <v>368407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="68">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210481</v>
+        <v>210488</v>
       </c>
       <c r="C107" s="46">
-        <v>50096</v>
+        <v>50091</v>
       </c>
       <c r="D107" s="46">
-        <v>260577</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="68">
+        <v>260579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="67">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338579</v>
+        <v>338629</v>
       </c>
       <c r="C108" s="45">
-        <v>76836</v>
+        <v>76838</v>
       </c>
       <c r="D108" s="45">
-        <v>415415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="70">
+        <v>415467</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="68">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497631</v>
+        <v>497646</v>
       </c>
       <c r="C109" s="46">
-        <v>73405</v>
+        <v>73403</v>
       </c>
       <c r="D109" s="46">
-        <v>571036</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="68">
+        <v>571049</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="67">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690325</v>
+        <v>690378</v>
       </c>
       <c r="C110" s="45">
-        <v>83386</v>
+        <v>83392</v>
       </c>
       <c r="D110" s="45">
-        <v>773711</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="72">
+        <v>773770</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="69">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608470</v>
+        <v>608483</v>
       </c>
       <c r="C111" s="47">
-        <v>70792</v>
+        <v>70788</v>
       </c>
       <c r="D111" s="47">
-        <v>679262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="68">
+        <v>679271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="67">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517818</v>
+        <v>517902</v>
       </c>
       <c r="C112" s="45">
-        <v>75370</v>
+        <v>75371</v>
       </c>
       <c r="D112" s="45">
-        <v>593188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="72">
+        <v>593273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="69">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305729</v>
+        <v>305736</v>
       </c>
       <c r="C113" s="47">
-        <v>56370</v>
+        <v>56362</v>
       </c>
       <c r="D113" s="47">
-        <v>362099</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="68">
+        <v>362098</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="67">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226949</v>
+        <v>226953</v>
       </c>
       <c r="C114" s="45">
-        <v>39225</v>
+        <v>39224</v>
       </c>
       <c r="D114" s="45">
-        <v>266174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="70">
+        <v>266177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="68">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338181</v>
+        <v>338203</v>
       </c>
       <c r="C115" s="46">
-        <v>60762</v>
+        <v>60772</v>
       </c>
       <c r="D115" s="46">
-        <v>398943</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="68">
+        <v>398975</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="67">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493516</v>
+        <v>493632</v>
       </c>
       <c r="C116" s="45">
         <v>61576</v>
       </c>
       <c r="D116" s="45">
-        <v>555092</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="70">
+        <v>555208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="68">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641511</v>
+        <v>641598</v>
       </c>
       <c r="C117" s="46">
-        <v>71480</v>
+        <v>71660</v>
       </c>
       <c r="D117" s="46">
-        <v>712991</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="68">
+        <v>713258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="67">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567793</v>
+        <v>567846</v>
       </c>
       <c r="C118" s="45">
-        <v>65653</v>
+        <v>66122</v>
       </c>
       <c r="D118" s="45">
-        <v>633446</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="70">
+        <v>633968</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="68">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483320</v>
+        <v>483341</v>
       </c>
       <c r="C119" s="46">
-        <v>67195</v>
+        <v>67243</v>
       </c>
       <c r="D119" s="46">
-        <v>550515</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="68">
+        <v>550584</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="67">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309260</v>
+        <v>309266</v>
       </c>
       <c r="C120" s="45">
-        <v>59528</v>
+        <v>59524</v>
       </c>
       <c r="D120" s="45">
-        <v>368788</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="70">
+        <v>368790</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="68">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235431</v>
+        <v>235444</v>
       </c>
       <c r="C121" s="46">
-        <v>47579</v>
+        <v>47572</v>
       </c>
       <c r="D121" s="46">
-        <v>283010</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="68">
+        <v>283016</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="67">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354367</v>
+        <v>354388</v>
       </c>
       <c r="C122" s="45">
-        <v>73172</v>
+        <v>73175</v>
       </c>
       <c r="D122" s="45">
-        <v>427539</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="70">
+        <v>427563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="68">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693401</v>
+        <v>693406</v>
       </c>
       <c r="C123" s="46">
-        <v>90165</v>
+        <v>90186</v>
       </c>
       <c r="D123" s="46">
-        <v>783566</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="68">
+        <v>783592</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="67">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993196</v>
+        <v>993247</v>
       </c>
       <c r="C124" s="45">
-        <v>126656</v>
+        <v>126768</v>
       </c>
       <c r="D124" s="45">
-        <v>1119852</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="70">
+        <v>1120015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="68">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>807994</v>
+        <v>808113</v>
       </c>
       <c r="C125" s="46">
-        <v>131586</v>
+        <v>131617</v>
       </c>
       <c r="D125" s="46">
-        <v>939580</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="68">
+        <v>939730</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="67">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>661620</v>
+        <v>661866</v>
       </c>
       <c r="C126" s="45">
-        <v>137030</v>
+        <v>137253</v>
       </c>
       <c r="D126" s="45">
-        <v>798650</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="70">
+        <v>799119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="68">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>258086</v>
+        <v>258760</v>
       </c>
       <c r="C127" s="46">
-        <v>75769</v>
+        <v>75934</v>
       </c>
       <c r="D127" s="46">
-        <v>333855</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="68">
+        <v>334694</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="67">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195051</v>
+        <v>195221</v>
       </c>
       <c r="C128" s="45">
-        <v>67376</v>
+        <v>67642</v>
       </c>
       <c r="D128" s="45">
-        <v>262427</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="70">
+        <v>262863</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="68">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332387</v>
+        <v>332742</v>
       </c>
       <c r="C129" s="46">
-        <v>114977</v>
+        <v>115302</v>
       </c>
       <c r="D129" s="46">
-        <v>447364</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="68">
+        <v>448044</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="67">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677011</v>
+        <v>677319</v>
       </c>
       <c r="C130" s="45">
-        <v>159940</v>
+        <v>160490</v>
       </c>
       <c r="D130" s="45">
-        <v>836951</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="70">
+        <v>837809</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="68">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>906680</v>
+        <v>907164</v>
       </c>
       <c r="C131" s="46">
-        <v>223305</v>
+        <v>223929</v>
       </c>
       <c r="D131" s="46">
-        <v>1129985</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="68">
+        <v>1131093</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="67">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>758999</v>
+        <v>759647</v>
       </c>
       <c r="C132" s="45">
-        <v>214340</v>
+        <v>215279</v>
       </c>
       <c r="D132" s="45">
-        <v>973339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="70">
+        <v>974926</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="68">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>642326</v>
+        <v>644118</v>
       </c>
       <c r="C133" s="46">
-        <v>222064</v>
+        <v>224905</v>
       </c>
       <c r="D133" s="46">
-        <v>864390</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="68">
+        <v>869023</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="67">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>266787</v>
+        <v>268036</v>
       </c>
       <c r="C134" s="45">
-        <v>148585</v>
+        <v>150221</v>
       </c>
       <c r="D134" s="45">
-        <v>415372</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="70">
+        <v>418257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="68">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>177042</v>
+        <v>181092</v>
       </c>
       <c r="C135" s="46">
-        <v>99570</v>
+        <v>101304</v>
       </c>
       <c r="D135" s="46">
-        <v>276612</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="68">
+        <v>282396</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="67">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>384810</v>
+        <v>388689</v>
       </c>
       <c r="C136" s="45">
-        <v>181997</v>
+        <v>187957</v>
       </c>
       <c r="D136" s="45">
-        <v>566807</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="70">
+        <v>576646</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="68">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>782301</v>
+        <v>788857</v>
       </c>
       <c r="C137" s="46">
-        <v>265564</v>
+        <v>273640</v>
       </c>
       <c r="D137" s="46">
-        <v>1047865</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="68"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="70" t="s">
+        <v>1062497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="67">
+        <v>44328</v>
+      </c>
+      <c r="B138" s="45">
+        <v>1023772</v>
+      </c>
+      <c r="C138" s="45">
+        <v>329681</v>
+      </c>
+      <c r="D138" s="45">
+        <v>1353453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="68">
+        <v>44329</v>
+      </c>
+      <c r="B139" s="46">
+        <v>260462</v>
+      </c>
+      <c r="C139" s="46">
+        <v>147798</v>
+      </c>
+      <c r="D139" s="46">
+        <v>408260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="68"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="46">
-        <v>28516504</v>
-      </c>
-      <c r="C139" s="46">
-        <v>8320680</v>
-      </c>
-      <c r="D139" s="46">
-        <v>36837184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="74"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="74" t="s">
+      <c r="B141" s="45">
+        <v>29823801</v>
+      </c>
+      <c r="C141" s="45">
+        <v>8822370</v>
+      </c>
+      <c r="D141" s="45">
+        <v>38646171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="70"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B141" s="74"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="74"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="74"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -2,25 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-14\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B95AE0A-271D-4977-8B8C-8897DDF4983E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0DA05-C94E-4C3C-A8BA-50FFB24C68BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_13.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_13.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_14.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_14.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_13.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_13.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_14.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_14.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,10 +243,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 13.05.21 (Impfquote_bis_einschl_13.05.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 13.05.21 (Impfstoff_bis_einschl_13.05.21)</t>
+    <t>Datenstand: 15.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 14.05.21 (Impfquote_bis_einschl_14.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 14.05.21 durchgeführt und bis zum 15.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 14.05.21 (Impfstoff_bis_einschl_14.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -270,12 +271,6 @@
   </si>
   <si>
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2307.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
-  </si>
-  <si>
-    <t>Datenstand: 14.05.2021, 08:15 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 13.05.21 durchgeführt und bis zum 14.05.21, 08:15 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -287,7 +282,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +366,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,7 +558,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -710,21 +711,30 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,7 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1147,7 +1159,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1159,12 +1171,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1194,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +1261,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,102 +1286,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="77" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1421,55 +1433,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5057324</v>
+        <v>5161523</v>
       </c>
       <c r="D5" s="32">
-        <v>3905381</v>
+        <v>3974084</v>
       </c>
       <c r="E5" s="32">
-        <v>1151943</v>
+        <v>1187439</v>
       </c>
       <c r="F5" s="33">
-        <v>35.182363797176933</v>
+        <v>35.801287774109639</v>
       </c>
       <c r="G5" s="33">
-        <v>21.720515535635474</v>
+        <v>22.36836041856159</v>
       </c>
       <c r="H5" s="33">
-        <v>71.835452793317799</v>
+        <v>72.443814652688246</v>
       </c>
       <c r="I5" s="33">
-        <v>10.377496510484223</v>
+        <v>10.697268943787041</v>
       </c>
       <c r="J5" s="33">
-        <v>4.9804053383039353</v>
+        <v>5.2186265476554539</v>
       </c>
       <c r="K5" s="33">
-        <v>24.778951135367549</v>
+        <v>25.252411868618502</v>
       </c>
       <c r="L5" s="32">
-        <v>1345217</v>
+        <v>1373446</v>
       </c>
       <c r="M5" s="32">
-        <v>1479891</v>
+        <v>1484431</v>
       </c>
       <c r="N5" s="32">
-        <v>370088</v>
+        <v>385687</v>
       </c>
       <c r="O5" s="32">
-        <v>678021</v>
+        <v>686556</v>
       </c>
       <c r="P5" s="34">
-        <v>417617</v>
+        <v>441967</v>
       </c>
       <c r="Q5" s="34">
-        <v>663972</v>
+        <v>677588</v>
       </c>
       <c r="R5" s="34">
-        <v>34121</v>
+        <v>37856</v>
       </c>
       <c r="S5" s="34">
-        <v>61484</v>
+        <v>67079</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1480,55 +1492,55 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6113702</v>
+        <v>6246422</v>
       </c>
       <c r="D6" s="13">
-        <v>4808145</v>
+        <v>4909550</v>
       </c>
       <c r="E6" s="13">
-        <v>1305557</v>
+        <v>1336872</v>
       </c>
       <c r="F6" s="14">
-        <v>36.634219794270919</v>
+        <v>37.4068448000139</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>9.9473002773312711</v>
+        <v>10.185895534516234</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>663286</v>
+        <v>701655</v>
       </c>
       <c r="Q6" s="18">
-        <v>827254</v>
+        <v>845387</v>
       </c>
       <c r="R6" s="17">
-        <v>37593</v>
+        <v>41800</v>
       </c>
       <c r="S6" s="18">
-        <v>44647</v>
+        <v>49221</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1539,55 +1551,55 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1644387</v>
+        <v>1672408</v>
       </c>
       <c r="D7" s="37">
-        <v>1202006</v>
+        <v>1221514</v>
       </c>
       <c r="E7" s="37">
-        <v>442381</v>
+        <v>450894</v>
       </c>
       <c r="F7" s="38">
-        <v>32.756750186878783</v>
+        <v>33.288377052839209</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>12.055650225058463</v>
+        <v>12.287644253658069</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>257285</v>
+        <v>266681</v>
       </c>
       <c r="Q7" s="41">
-        <v>121627</v>
+        <v>123450</v>
       </c>
       <c r="R7" s="41">
-        <v>18487</v>
+        <v>19775</v>
       </c>
       <c r="S7" s="41">
-        <v>11408</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,55 +1610,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1080622</v>
+        <v>1102159</v>
       </c>
       <c r="D8" s="13">
-        <v>793152</v>
+        <v>805519</v>
       </c>
       <c r="E8" s="13">
-        <v>287470</v>
+        <v>296640</v>
       </c>
       <c r="F8" s="14">
-        <v>31.450660277815118</v>
+        <v>31.94104587308026</v>
       </c>
       <c r="G8" s="44">
-        <v>17.300630265897308</v>
+        <v>17.661466810314991</v>
       </c>
       <c r="H8" s="44">
-        <v>59.410403845830118</v>
+        <v>60.171417440425948</v>
       </c>
       <c r="I8" s="44">
-        <v>11.398976879669359</v>
+        <v>11.762592623874209</v>
       </c>
       <c r="J8" s="63">
-        <v>5.61541888454828</v>
+        <v>5.8757370999012561</v>
       </c>
       <c r="K8" s="44">
-        <v>23.041433095975009</v>
+        <v>23.607654144632264</v>
       </c>
       <c r="L8" s="17">
-        <v>195778</v>
+        <v>198263</v>
       </c>
       <c r="M8" s="18">
-        <v>294800</v>
+        <v>297507</v>
       </c>
       <c r="N8" s="17">
-        <v>81460</v>
+        <v>85243</v>
       </c>
       <c r="O8" s="18">
-        <v>164300</v>
+        <v>168081</v>
       </c>
       <c r="P8" s="17">
-        <v>96644</v>
+        <v>100258</v>
       </c>
       <c r="Q8" s="18">
-        <v>199289</v>
+        <v>202911</v>
       </c>
       <c r="R8" s="17">
-        <v>13454</v>
+        <v>14071</v>
       </c>
       <c r="S8" s="18">
-        <v>27325</v>
+        <v>28253</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1657,55 +1669,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>344690</v>
+        <v>352129</v>
       </c>
       <c r="D9" s="37">
-        <v>251505</v>
+        <v>256004</v>
       </c>
       <c r="E9" s="37">
-        <v>93185</v>
+        <v>96125</v>
       </c>
       <c r="F9" s="38">
-        <v>36.920766527403032</v>
+        <v>37.581216731600904</v>
       </c>
       <c r="G9" s="64">
-        <v>20.875218178292069</v>
+        <v>21.554197103885191</v>
       </c>
       <c r="H9" s="64">
-        <v>80.439756383127275</v>
+        <v>81.050946861875246</v>
       </c>
       <c r="I9" s="64">
-        <v>13.679495949806372</v>
+        <v>14.111085992113939</v>
       </c>
       <c r="J9" s="64">
-        <v>4.9781013640183591</v>
+        <v>5.2257741289029669</v>
       </c>
       <c r="K9" s="64">
-        <v>35.951749250781447</v>
+        <v>36.872294488544206</v>
       </c>
       <c r="L9" s="42">
-        <v>70979</v>
+        <v>72486</v>
       </c>
       <c r="M9" s="42">
-        <v>119990</v>
+        <v>120518</v>
       </c>
       <c r="N9" s="42">
-        <v>22946</v>
+        <v>23859</v>
       </c>
       <c r="O9" s="42">
-        <v>64879</v>
+        <v>66346</v>
       </c>
       <c r="P9" s="42">
-        <v>32355</v>
+        <v>34209</v>
       </c>
       <c r="Q9" s="42">
-        <v>29784</v>
+        <v>30394</v>
       </c>
       <c r="R9" s="42">
-        <v>1696</v>
+        <v>2009</v>
       </c>
       <c r="S9" s="42">
-        <v>2061</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,55 +1728,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>828054</v>
+        <v>841256</v>
       </c>
       <c r="D10" s="13">
-        <v>649674</v>
+        <v>658609</v>
       </c>
       <c r="E10" s="13">
-        <v>178380</v>
+        <v>182647</v>
       </c>
       <c r="F10" s="14">
-        <v>35.169735818537042</v>
+        <v>35.653427007562037</v>
       </c>
       <c r="G10" s="44">
-        <v>24.00743073493507</v>
+        <v>24.521000672304588</v>
       </c>
       <c r="H10" s="44">
-        <v>71.508257658284265</v>
+        <v>71.895864376800716</v>
       </c>
       <c r="I10" s="44">
-        <v>9.6565007608595028</v>
+        <v>9.887492400878493</v>
       </c>
       <c r="J10" s="44">
-        <v>5.4475071653515439</v>
+        <v>5.6990906195817557</v>
       </c>
       <c r="K10" s="44">
-        <v>23.109697537787625</v>
+        <v>23.272524602547655</v>
       </c>
       <c r="L10" s="18">
-        <v>264309</v>
+        <v>268370</v>
       </c>
       <c r="M10" s="18">
-        <v>223075</v>
+        <v>223572</v>
       </c>
       <c r="N10" s="18">
-        <v>72923</v>
+        <v>76199</v>
       </c>
       <c r="O10" s="18">
-        <v>95502</v>
+        <v>95859</v>
       </c>
       <c r="P10" s="18">
-        <v>74928</v>
+        <v>78124</v>
       </c>
       <c r="Q10" s="18">
-        <v>87416</v>
+        <v>88602</v>
       </c>
       <c r="R10" s="18">
-        <v>4053</v>
+        <v>4332</v>
       </c>
       <c r="S10" s="18">
-        <v>4841</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1775,55 +1787,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2855678</v>
+        <v>2909100</v>
       </c>
       <c r="D11" s="37">
-        <v>2254357</v>
+        <v>2293772</v>
       </c>
       <c r="E11" s="37">
-        <v>601321</v>
+        <v>615328</v>
       </c>
       <c r="F11" s="38">
-        <v>35.851277337438454</v>
+        <v>36.478098243024895</v>
       </c>
       <c r="G11" s="64">
-        <v>22.971298045498575</v>
+        <v>23.565296027734199</v>
       </c>
       <c r="H11" s="64">
-        <v>70.128922970098159</v>
+        <v>70.843148768206603</v>
       </c>
       <c r="I11" s="64">
-        <v>9.5628713375147907</v>
+        <v>9.7856261370720468</v>
       </c>
       <c r="J11" s="64">
-        <v>4.0241317969390531</v>
+        <v>4.2123675131185312</v>
       </c>
       <c r="K11" s="64">
-        <v>24.310997248183124</v>
+        <v>24.625673682518155</v>
       </c>
       <c r="L11" s="41">
-        <v>777238</v>
+        <v>790697</v>
       </c>
       <c r="M11" s="41">
-        <v>855920</v>
+        <v>862173</v>
       </c>
       <c r="N11" s="41">
-        <v>166673</v>
+        <v>173718</v>
       </c>
       <c r="O11" s="41">
-        <v>394640</v>
+        <v>398431</v>
       </c>
       <c r="P11" s="41">
-        <v>272871</v>
+        <v>286566</v>
       </c>
       <c r="Q11" s="41">
-        <v>347972</v>
+        <v>353980</v>
       </c>
       <c r="R11" s="41">
-        <v>17286</v>
+        <v>18846</v>
       </c>
       <c r="S11" s="41">
-        <v>22703</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1834,55 +1846,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>777963</v>
+        <v>791149</v>
       </c>
       <c r="D12" s="13">
-        <v>614887</v>
+        <v>624563</v>
       </c>
       <c r="E12" s="13">
-        <v>163076</v>
+        <v>166586</v>
       </c>
       <c r="F12" s="14">
-        <v>38.235959849216918</v>
+        <v>38.837649505204155</v>
       </c>
       <c r="G12" s="44">
-        <v>22.962988667014297</v>
+        <v>23.540329448131239</v>
       </c>
       <c r="H12" s="44">
-        <v>68.425452599331948</v>
+        <v>69.075977633011604</v>
       </c>
       <c r="I12" s="44">
-        <v>10.140672007004374</v>
+        <v>10.358936857409004</v>
       </c>
       <c r="J12" s="44">
-        <v>4.3675698792423665</v>
+        <v>4.5078723172785828</v>
       </c>
       <c r="K12" s="44">
-        <v>21.350139332312178</v>
+        <v>21.720892464982374</v>
       </c>
       <c r="L12" s="18">
-        <v>161547</v>
+        <v>164524</v>
       </c>
       <c r="M12" s="18">
-        <v>220758</v>
+        <v>222124</v>
       </c>
       <c r="N12" s="18">
-        <v>39037</v>
+        <v>39925</v>
       </c>
       <c r="O12" s="18">
-        <v>104359</v>
+        <v>105660</v>
       </c>
       <c r="P12" s="18">
-        <v>83300</v>
+        <v>86479</v>
       </c>
       <c r="Q12" s="18">
-        <v>150019</v>
+        <v>152178</v>
       </c>
       <c r="R12" s="18">
-        <v>7533</v>
+        <v>8141</v>
       </c>
       <c r="S12" s="18">
-        <v>11331</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1893,55 +1905,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3697162</v>
+        <v>3770567</v>
       </c>
       <c r="D13" s="37">
-        <v>2960248</v>
+        <v>3017154</v>
       </c>
       <c r="E13" s="37">
-        <v>736914</v>
+        <v>753413</v>
       </c>
       <c r="F13" s="38">
-        <v>37.032689118605767</v>
+        <v>37.744582921754485</v>
       </c>
       <c r="G13" s="64">
-        <v>22.100902746226442</v>
+        <v>22.813710166760639</v>
       </c>
       <c r="H13" s="64">
-        <v>74.228251004937235</v>
+        <v>75.005480296658078</v>
       </c>
       <c r="I13" s="64">
-        <v>9.2187908138602737</v>
+        <v>9.4251932293902829</v>
       </c>
       <c r="J13" s="64">
-        <v>3.1900565714866116</v>
+        <v>3.3200211872425194</v>
       </c>
       <c r="K13" s="64">
-        <v>23.502365715437055</v>
+        <v>23.828935188087673</v>
       </c>
       <c r="L13" s="42">
-        <v>900577</v>
+        <v>922124</v>
       </c>
       <c r="M13" s="42">
-        <v>1188590</v>
+        <v>1196002</v>
       </c>
       <c r="N13" s="42">
-        <v>160873</v>
+        <v>166434</v>
       </c>
       <c r="O13" s="42">
-        <v>520213</v>
+        <v>526003</v>
       </c>
       <c r="P13" s="42">
-        <v>354926</v>
+        <v>373872</v>
       </c>
       <c r="Q13" s="42">
-        <v>528184</v>
+        <v>538748</v>
       </c>
       <c r="R13" s="42">
-        <v>20347</v>
+        <v>22169</v>
       </c>
       <c r="S13" s="42">
-        <v>23357</v>
+        <v>25120</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1952,55 +1964,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>8534207</v>
+        <v>8714530</v>
       </c>
       <c r="D14" s="13">
-        <v>6800267</v>
+        <v>6927138</v>
       </c>
       <c r="E14" s="13">
-        <v>1733940</v>
+        <v>1787392</v>
       </c>
       <c r="F14" s="14">
-        <v>37.890361967460038</v>
+        <v>38.597273639189048</v>
       </c>
       <c r="G14" s="44">
-        <v>23.320061059575785</v>
+        <v>24.052588774091483</v>
       </c>
       <c r="H14" s="44">
-        <v>75.497851487363633</v>
+        <v>76.143291817403224</v>
       </c>
       <c r="I14" s="44">
-        <v>9.6613286257521427</v>
+        <v>9.9591574651028143</v>
       </c>
       <c r="J14" s="44">
-        <v>4.3905405616558921</v>
+        <v>4.587605747719123</v>
       </c>
       <c r="K14" s="44">
-        <v>23.154270359371086</v>
+        <v>23.707112175489325</v>
       </c>
       <c r="L14" s="18">
-        <v>2029409</v>
+        <v>2059753</v>
       </c>
       <c r="M14" s="18">
-        <v>2620300</v>
+        <v>2627675</v>
       </c>
       <c r="N14" s="18">
-        <v>521555</v>
+        <v>540864</v>
       </c>
       <c r="O14" s="18">
-        <v>1103430</v>
+        <v>1124702</v>
       </c>
       <c r="P14" s="18">
-        <v>985339</v>
+        <v>1049694</v>
       </c>
       <c r="Q14" s="18">
-        <v>1169329</v>
+        <v>1194352</v>
       </c>
       <c r="R14" s="18">
-        <v>46041</v>
+        <v>52208</v>
       </c>
       <c r="S14" s="18">
-        <v>58803</v>
+        <v>65281</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2011,55 +2023,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1916498</v>
+        <v>1952233</v>
       </c>
       <c r="D15" s="37">
-        <v>1409704</v>
+        <v>1430386</v>
       </c>
       <c r="E15" s="37">
-        <v>506794</v>
+        <v>521847</v>
       </c>
       <c r="F15" s="38">
-        <v>34.434230610739924</v>
+        <v>34.93942089004063</v>
       </c>
       <c r="G15" s="64">
-        <v>20.058826615419449</v>
+        <v>20.499957201946071</v>
       </c>
       <c r="H15" s="64">
-        <v>69.2070283935399</v>
+        <v>69.867329670100077</v>
       </c>
       <c r="I15" s="64">
-        <v>12.379238101146999</v>
+        <v>12.746931229196198</v>
       </c>
       <c r="J15" s="64">
-        <v>6.1346178271842193</v>
+        <v>6.4624371144723689</v>
       </c>
       <c r="K15" s="64">
-        <v>27.500073125378684</v>
+        <v>27.964314815201725</v>
       </c>
       <c r="L15" s="42">
-        <v>423361</v>
+        <v>428004</v>
       </c>
       <c r="M15" s="42">
-        <v>563441</v>
+        <v>565631</v>
       </c>
       <c r="N15" s="42">
-        <v>166654</v>
+        <v>175039</v>
       </c>
       <c r="O15" s="42">
-        <v>308262</v>
+        <v>311972</v>
       </c>
       <c r="P15" s="42">
-        <v>157809</v>
+        <v>165947</v>
       </c>
       <c r="Q15" s="42">
-        <v>264673</v>
+        <v>270384</v>
       </c>
       <c r="R15" s="42">
-        <v>11086</v>
+        <v>12199</v>
       </c>
       <c r="S15" s="42">
-        <v>20797</v>
+        <v>22642</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2070,55 +2082,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>506473</v>
+        <v>516287</v>
       </c>
       <c r="D16" s="13">
-        <v>398362</v>
+        <v>404975</v>
       </c>
       <c r="E16" s="13">
-        <v>108111</v>
+        <v>111312</v>
       </c>
       <c r="F16" s="14">
-        <v>40.365512971596544</v>
+        <v>41.035599820445498</v>
       </c>
       <c r="G16" s="44">
-        <v>24.873714393127916</v>
+        <v>25.509990959352891</v>
       </c>
       <c r="H16" s="44">
-        <v>73.16642502234815</v>
+        <v>73.908099348981779</v>
       </c>
       <c r="I16" s="44">
-        <v>10.954749631923413</v>
+        <v>11.279102876013161</v>
       </c>
       <c r="J16" s="44">
-        <v>3.890909524903551</v>
+        <v>4.0571022786607909</v>
       </c>
       <c r="K16" s="44">
-        <v>25.911220193252284</v>
+        <v>26.570451164157038</v>
       </c>
       <c r="L16" s="18">
-        <v>117706</v>
+        <v>119805</v>
       </c>
       <c r="M16" s="18">
-        <v>170552</v>
+        <v>171746</v>
       </c>
       <c r="N16" s="18">
-        <v>22729</v>
+        <v>23507</v>
       </c>
       <c r="O16" s="18">
-        <v>78283</v>
+        <v>80032</v>
       </c>
       <c r="P16" s="18">
-        <v>49024</v>
+        <v>51190</v>
       </c>
       <c r="Q16" s="18">
-        <v>61079</v>
+        <v>62233</v>
       </c>
       <c r="R16" s="18">
-        <v>3352</v>
+        <v>3688</v>
       </c>
       <c r="S16" s="18">
-        <v>3747</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2129,55 +2141,55 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1850993</v>
+        <v>1875928</v>
       </c>
       <c r="D17" s="37">
-        <v>1265287</v>
+        <v>1280419</v>
       </c>
       <c r="E17" s="37">
-        <v>585706</v>
+        <v>595509</v>
       </c>
       <c r="F17" s="38">
-        <v>31.073084754287294</v>
+        <v>31.444698402812794</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>14.38384507158818</v>
+        <v>14.624588436410772</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>100217</v>
+        <v>102296</v>
       </c>
       <c r="Q17" s="41">
-        <v>266486</v>
+        <v>269173</v>
       </c>
       <c r="R17" s="41">
-        <v>17033</v>
+        <v>17432</v>
       </c>
       <c r="S17" s="41">
-        <v>48397</v>
+        <v>49239</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2188,55 +2200,55 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>984076</v>
+        <v>1017150</v>
       </c>
       <c r="D18" s="13">
-        <v>758213</v>
+        <v>773738</v>
       </c>
       <c r="E18" s="13">
-        <v>225863</v>
+        <v>243412</v>
       </c>
       <c r="F18" s="14">
-        <v>34.54616449378571</v>
+        <v>35.253524040200801</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>10.290908163088634</v>
+        <v>11.090486435554874</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>64420</v>
+        <v>66688</v>
       </c>
       <c r="Q18" s="18">
-        <v>162644</v>
+        <v>164811</v>
       </c>
       <c r="R18" s="17">
-        <v>5099</v>
+        <v>5475</v>
       </c>
       <c r="S18" s="18">
-        <v>10721</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2247,55 +2259,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1346925</v>
+        <v>1370446</v>
       </c>
       <c r="D19" s="37">
-        <v>976447</v>
+        <v>989653</v>
       </c>
       <c r="E19" s="37">
-        <v>370478</v>
+        <v>380793</v>
       </c>
       <c r="F19" s="38">
-        <v>33.626836533021006</v>
+        <v>34.081624148995118</v>
       </c>
       <c r="G19" s="64">
-        <v>19.191821487596812</v>
+        <v>19.597683258913882</v>
       </c>
       <c r="H19" s="64">
-        <v>67.528562976938574</v>
+        <v>68.098265635973846</v>
       </c>
       <c r="I19" s="64">
-        <v>12.758504194370564</v>
+        <v>13.113731686326721</v>
       </c>
       <c r="J19" s="64">
-        <v>6.4152772144900405</v>
+        <v>6.7457702682929943</v>
       </c>
       <c r="K19" s="64">
-        <v>27.656642283239098</v>
+        <v>28.069965022101929</v>
       </c>
       <c r="L19" s="42">
-        <v>274924</v>
+        <v>278708</v>
       </c>
       <c r="M19" s="42">
-        <v>371037</v>
+        <v>372606</v>
       </c>
       <c r="N19" s="42">
-        <v>122486</v>
+        <v>128782</v>
       </c>
       <c r="O19" s="42">
-        <v>224096</v>
+        <v>226837</v>
       </c>
       <c r="P19" s="42">
-        <v>115947</v>
+        <v>120429</v>
       </c>
       <c r="Q19" s="42">
-        <v>214516</v>
+        <v>217887</v>
       </c>
       <c r="R19" s="42">
-        <v>8171</v>
+        <v>8606</v>
       </c>
       <c r="S19" s="42">
-        <v>15720</v>
+        <v>16563</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2306,55 +2318,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1017391</v>
+        <v>1030445</v>
       </c>
       <c r="D20" s="13">
-        <v>699934</v>
+        <v>709837</v>
       </c>
       <c r="E20" s="13">
-        <v>317457</v>
+        <v>320608</v>
       </c>
       <c r="F20" s="14">
-        <v>32.808719317439291</v>
+        <v>33.272912723389851</v>
       </c>
       <c r="G20" s="44">
-        <v>18.287117886810528</v>
+        <v>18.759204004214062</v>
       </c>
       <c r="H20" s="44">
-        <v>60.707147316197009</v>
+        <v>61.156181891859326</v>
       </c>
       <c r="I20" s="44">
-        <v>14.880485314838721</v>
+        <v>15.028185347369288</v>
       </c>
       <c r="J20" s="44">
-        <v>7.4187303356850922</v>
+        <v>7.5170964601025574</v>
       </c>
       <c r="K20" s="44">
-        <v>29.203538611497475</v>
+        <v>29.445989902198079</v>
       </c>
       <c r="L20" s="18">
-        <v>202261</v>
+        <v>208115</v>
       </c>
       <c r="M20" s="18">
-        <v>300240</v>
+        <v>302410</v>
       </c>
       <c r="N20" s="18">
-        <v>96844</v>
+        <v>97987</v>
       </c>
       <c r="O20" s="18">
-        <v>196433</v>
+        <v>197861</v>
       </c>
       <c r="P20" s="18">
-        <v>54293</v>
+        <v>55062</v>
       </c>
       <c r="Q20" s="18">
-        <v>143199</v>
+        <v>144309</v>
       </c>
       <c r="R20" s="18">
-        <v>7235</v>
+        <v>7472</v>
       </c>
       <c r="S20" s="18">
-        <v>16886</v>
+        <v>17229</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2363,55 +2375,55 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>90026</v>
+        <v>90610</v>
       </c>
       <c r="D21" s="37">
-        <v>76232</v>
+        <v>76493</v>
       </c>
       <c r="E21" s="37">
-        <v>13794</v>
+        <v>14117</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>71416</v>
+        <v>71743</v>
       </c>
       <c r="M21" s="41">
-        <v>6537</v>
+        <v>6556</v>
       </c>
       <c r="N21" s="41">
-        <v>11307</v>
+        <v>11532</v>
       </c>
       <c r="O21" s="41">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2420,55 +2432,55 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>38646171</v>
+        <v>39414342</v>
       </c>
       <c r="D22" s="21">
-        <v>29823801</v>
+        <v>30353408</v>
       </c>
       <c r="E22" s="21">
-        <v>8822370</v>
+        <v>9060934</v>
       </c>
       <c r="F22" s="22">
-        <v>35.860262647635544</v>
+        <v>36.497064312186154</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>10.608054465445917</v>
+        <v>10.894904813537714</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>3780261</v>
+        <v>3981117</v>
       </c>
       <c r="Q22" s="25">
-        <v>5237443</v>
+        <v>5336387</v>
       </c>
       <c r="R22" s="25">
-        <v>252587</v>
+        <v>276079</v>
       </c>
       <c r="S22" s="25">
-        <v>384228</v>
+        <v>412287</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2496,27 +2508,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2567,27 +2579,27 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2645,7 +2657,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,118 +2667,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="84"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="79" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="S3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82" t="s">
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="85" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2791,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2795,7 +2807,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="82"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2820,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="82"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2836,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="82"/>
+      <c r="X4" s="85"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2834,70 +2846,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2816877</v>
+        <v>2847614</v>
       </c>
       <c r="D5" s="45">
-        <v>1764509</v>
+        <v>1788599</v>
       </c>
       <c r="E5" s="45">
-        <v>273888</v>
+        <v>280380</v>
       </c>
       <c r="F5" s="45">
-        <v>778480</v>
+        <v>778635</v>
       </c>
       <c r="G5" s="45">
-        <v>32605</v>
+        <v>30254</v>
       </c>
       <c r="H5" s="45">
-        <v>1056340</v>
+        <v>1082506</v>
       </c>
       <c r="I5" s="45">
-        <v>928429</v>
+        <v>945658</v>
       </c>
       <c r="J5" s="45">
-        <v>71528</v>
+        <v>74469</v>
       </c>
       <c r="K5" s="45">
-        <v>48148</v>
+        <v>52110</v>
       </c>
       <c r="L5" s="45">
-        <v>8235</v>
+        <v>10269</v>
       </c>
       <c r="M5" s="45">
-        <v>23093</v>
+        <v>25655</v>
       </c>
       <c r="N5" s="45">
-        <v>1088504</v>
+        <v>1126470</v>
       </c>
       <c r="O5" s="45">
-        <v>921260</v>
+        <v>949629</v>
       </c>
       <c r="P5" s="45">
         <v>316</v>
       </c>
       <c r="Q5" s="45">
-        <v>166928</v>
+        <v>176525</v>
       </c>
       <c r="R5" s="45">
-        <v>8893</v>
+        <v>37966</v>
       </c>
       <c r="S5" s="45">
-        <v>95603</v>
+        <v>104933</v>
       </c>
       <c r="T5" s="45">
-        <v>92420</v>
+        <v>101288</v>
       </c>
       <c r="U5" s="45">
         <v>43</v>
       </c>
       <c r="V5" s="45">
-        <v>3111</v>
+        <v>3573</v>
       </c>
       <c r="W5" s="45">
         <v>29</v>
       </c>
       <c r="X5" s="45">
-        <v>2349</v>
+        <v>9330</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2908,70 +2920,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3317284</v>
+        <v>3362201</v>
       </c>
       <c r="D6" s="46">
-        <v>2287231</v>
+        <v>2324285</v>
       </c>
       <c r="E6" s="46">
-        <v>307662</v>
+        <v>314856</v>
       </c>
       <c r="F6" s="46">
-        <v>722391</v>
+        <v>723060</v>
       </c>
       <c r="G6" s="46">
-        <v>41590</v>
+        <v>44917</v>
       </c>
       <c r="H6" s="46">
-        <v>1223318</v>
+        <v>1245852</v>
       </c>
       <c r="I6" s="46">
-        <v>1076626</v>
+        <v>1096022</v>
       </c>
       <c r="J6" s="46">
-        <v>97123</v>
+        <v>98476</v>
       </c>
       <c r="K6" s="46">
-        <v>49351</v>
+        <v>51136</v>
       </c>
       <c r="L6" s="46">
         <v>218</v>
       </c>
       <c r="M6" s="46">
-        <v>18183</v>
+        <v>22534</v>
       </c>
       <c r="N6" s="46">
-        <v>1490861</v>
+        <v>1547349</v>
       </c>
       <c r="O6" s="46">
-        <v>1134950</v>
+        <v>1171183</v>
       </c>
       <c r="P6" s="46">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q6" s="46">
-        <v>355480</v>
+        <v>375732</v>
       </c>
       <c r="R6" s="46">
-        <v>11088</v>
+        <v>56488</v>
       </c>
       <c r="S6" s="46">
-        <v>82239</v>
+        <v>91020</v>
       </c>
       <c r="T6" s="46">
-        <v>70931</v>
+        <v>78240</v>
       </c>
       <c r="U6" s="46">
         <v>748</v>
       </c>
       <c r="V6" s="46">
-        <v>10560</v>
+        <v>12032</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>1712</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2982,70 +2994,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>821384</v>
+        <v>829673</v>
       </c>
       <c r="D7" s="45">
-        <v>556090</v>
+        <v>560283</v>
       </c>
       <c r="E7" s="45">
-        <v>79540</v>
+        <v>83631</v>
       </c>
       <c r="F7" s="45">
-        <v>185754</v>
+        <v>185759</v>
       </c>
       <c r="G7" s="45">
-        <v>9005</v>
+        <v>8289</v>
       </c>
       <c r="H7" s="45">
-        <v>412479</v>
+        <v>419089</v>
       </c>
       <c r="I7" s="45">
-        <v>357954</v>
+        <v>363599</v>
       </c>
       <c r="J7" s="45">
-        <v>50971</v>
+        <v>51422</v>
       </c>
       <c r="K7" s="45">
-        <v>680</v>
+        <v>929</v>
       </c>
       <c r="L7" s="45">
-        <v>2874</v>
+        <v>3139</v>
       </c>
       <c r="M7" s="45">
-        <v>5764</v>
+        <v>6610</v>
       </c>
       <c r="N7" s="45">
-        <v>380622</v>
+        <v>391841</v>
       </c>
       <c r="O7" s="45">
-        <v>284100</v>
+        <v>291883</v>
       </c>
       <c r="P7" s="45">
         <v>121</v>
       </c>
       <c r="Q7" s="45">
-        <v>96401</v>
+        <v>99837</v>
       </c>
       <c r="R7" s="45">
-        <v>2605</v>
+        <v>11219</v>
       </c>
       <c r="S7" s="45">
-        <v>29902</v>
+        <v>31805</v>
       </c>
       <c r="T7" s="45">
-        <v>25174</v>
+        <v>26746</v>
       </c>
       <c r="U7" s="45">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="V7" s="45">
-        <v>4672</v>
+        <v>4968</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>327</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3056,70 +3068,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>489833</v>
+        <v>494964</v>
       </c>
       <c r="D8" s="46">
-        <v>323514</v>
+        <v>326267</v>
       </c>
       <c r="E8" s="46">
-        <v>59712</v>
+        <v>62004</v>
       </c>
       <c r="F8" s="46">
-        <v>106607</v>
+        <v>106693</v>
       </c>
       <c r="G8" s="46">
-        <v>5816</v>
+        <v>4870</v>
       </c>
       <c r="H8" s="46">
-        <v>246505</v>
+        <v>254130</v>
       </c>
       <c r="I8" s="46">
-        <v>210251</v>
+        <v>215201</v>
       </c>
       <c r="J8" s="46">
-        <v>25266</v>
+        <v>26283</v>
       </c>
       <c r="K8" s="46">
-        <v>10243</v>
+        <v>11840</v>
       </c>
       <c r="L8" s="46">
-        <v>745</v>
+        <v>806</v>
       </c>
       <c r="M8" s="46">
-        <v>90</v>
+        <v>6706</v>
       </c>
       <c r="N8" s="46">
-        <v>303319</v>
+        <v>310555</v>
       </c>
       <c r="O8" s="46">
-        <v>216754</v>
+        <v>221912</v>
       </c>
       <c r="P8" s="46">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="Q8" s="46">
-        <v>86001</v>
+        <v>88067</v>
       </c>
       <c r="R8" s="46">
-        <v>860</v>
+        <v>7236</v>
       </c>
       <c r="S8" s="46">
-        <v>40965</v>
+        <v>42510</v>
       </c>
       <c r="T8" s="46">
-        <v>38269</v>
+        <v>39575</v>
       </c>
       <c r="U8" s="46">
         <v>58</v>
       </c>
       <c r="V8" s="46">
-        <v>2638</v>
+        <v>2877</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>215</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3130,70 +3142,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>189366</v>
+        <v>191401</v>
       </c>
       <c r="D9" s="45">
-        <v>115359</v>
+        <v>116902</v>
       </c>
       <c r="E9" s="45">
-        <v>13253</v>
+        <v>13349</v>
       </c>
       <c r="F9" s="45">
-        <v>60754</v>
+        <v>61150</v>
       </c>
       <c r="G9" s="45">
-        <v>2312</v>
+        <v>2034</v>
       </c>
       <c r="H9" s="45">
-        <v>89428</v>
+        <v>91808</v>
       </c>
       <c r="I9" s="45">
-        <v>80784</v>
+        <v>82776</v>
       </c>
       <c r="J9" s="45">
-        <v>5342</v>
+        <v>5506</v>
       </c>
       <c r="K9" s="45">
-        <v>1697</v>
+        <v>1921</v>
       </c>
       <c r="L9" s="45">
         <v>1605</v>
       </c>
       <c r="M9" s="45">
-        <v>1762</v>
+        <v>2386</v>
       </c>
       <c r="N9" s="45">
-        <v>62139</v>
+        <v>64603</v>
       </c>
       <c r="O9" s="45">
-        <v>51930</v>
+        <v>53239</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>10195</v>
+        <v>11350</v>
       </c>
       <c r="R9" s="45">
-        <v>406</v>
+        <v>2464</v>
       </c>
       <c r="S9" s="45">
-        <v>3757</v>
+        <v>4317</v>
       </c>
       <c r="T9" s="45">
-        <v>3555</v>
+        <v>4104</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>14</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3204,70 +3216,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>486317</v>
+        <v>490870</v>
       </c>
       <c r="D10" s="46">
-        <v>313541</v>
+        <v>317946</v>
       </c>
       <c r="E10" s="46">
-        <v>52476</v>
+        <v>52617</v>
       </c>
       <c r="F10" s="46">
-        <v>120300</v>
+        <v>120307</v>
       </c>
       <c r="G10" s="46">
-        <v>4795</v>
+        <v>4464</v>
       </c>
       <c r="H10" s="46">
-        <v>169492</v>
+        <v>173130</v>
       </c>
       <c r="I10" s="46">
-        <v>155120</v>
+        <v>157835</v>
       </c>
       <c r="J10" s="46">
-        <v>11430</v>
+        <v>12197</v>
       </c>
       <c r="K10" s="46">
-        <v>1874</v>
+        <v>2025</v>
       </c>
       <c r="L10" s="46">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="M10" s="46">
-        <v>3404</v>
+        <v>3290</v>
       </c>
       <c r="N10" s="46">
-        <v>163357</v>
+        <v>167739</v>
       </c>
       <c r="O10" s="46">
-        <v>133167</v>
+        <v>136556</v>
       </c>
       <c r="P10" s="46">
-        <v>1936</v>
+        <v>2122</v>
       </c>
       <c r="Q10" s="46">
-        <v>28254</v>
+        <v>29061</v>
       </c>
       <c r="R10" s="46">
-        <v>949</v>
+        <v>4382</v>
       </c>
       <c r="S10" s="46">
-        <v>8888</v>
+        <v>9517</v>
       </c>
       <c r="T10" s="46">
-        <v>8189</v>
+        <v>8778</v>
       </c>
       <c r="U10" s="46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V10" s="46">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>136</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3278,70 +3290,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1633158</v>
+        <v>1652870</v>
       </c>
       <c r="D11" s="45">
-        <v>999063</v>
+        <v>1013740</v>
       </c>
       <c r="E11" s="45">
-        <v>169594</v>
+        <v>173770</v>
       </c>
       <c r="F11" s="45">
-        <v>464501</v>
+        <v>465360</v>
       </c>
       <c r="G11" s="45">
-        <v>19737</v>
+        <v>19112</v>
       </c>
       <c r="H11" s="45">
-        <v>561313</v>
+        <v>572149</v>
       </c>
       <c r="I11" s="45">
-        <v>506687</v>
+        <v>512884</v>
       </c>
       <c r="J11" s="45">
-        <v>30165</v>
+        <v>31417</v>
       </c>
       <c r="K11" s="45">
-        <v>24461</v>
+        <v>27848</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>11007</v>
+        <v>10718</v>
       </c>
       <c r="N11" s="45">
-        <v>621199</v>
+        <v>640902</v>
       </c>
       <c r="O11" s="45">
-        <v>497342</v>
+        <v>509480</v>
       </c>
       <c r="P11" s="45">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="45">
-        <v>123713</v>
+        <v>131266</v>
       </c>
       <c r="R11" s="45">
-        <v>4258</v>
+        <v>19703</v>
       </c>
       <c r="S11" s="45">
-        <v>40008</v>
+        <v>43179</v>
       </c>
       <c r="T11" s="45">
-        <v>36825</v>
+        <v>39562</v>
       </c>
       <c r="U11" s="45">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="V11" s="45">
-        <v>3036</v>
+        <v>3448</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>755</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3352,70 +3364,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>381490</v>
+        <v>385828</v>
       </c>
       <c r="D12" s="46">
-        <v>273117</v>
+        <v>276642</v>
       </c>
       <c r="E12" s="46">
-        <v>42670</v>
+        <v>43439</v>
       </c>
       <c r="F12" s="46">
-        <v>65703</v>
+        <v>65747</v>
       </c>
       <c r="G12" s="46">
-        <v>2947</v>
+        <v>4316</v>
       </c>
       <c r="H12" s="46">
-        <v>144212</v>
+        <v>146406</v>
       </c>
       <c r="I12" s="46">
-        <v>131100</v>
+        <v>132600</v>
       </c>
       <c r="J12" s="46">
-        <v>11158</v>
+        <v>11775</v>
       </c>
       <c r="K12" s="46">
-        <v>1138</v>
+        <v>1210</v>
       </c>
       <c r="L12" s="46">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="M12" s="46">
-        <v>2068</v>
+        <v>2182</v>
       </c>
       <c r="N12" s="46">
-        <v>233397</v>
+        <v>238735</v>
       </c>
       <c r="O12" s="46">
-        <v>175218</v>
+        <v>179643</v>
       </c>
       <c r="P12" s="46">
         <v>97</v>
       </c>
       <c r="Q12" s="46">
-        <v>58082</v>
+        <v>58995</v>
       </c>
       <c r="R12" s="46">
-        <v>757</v>
+        <v>5338</v>
       </c>
       <c r="S12" s="46">
-        <v>18864</v>
+        <v>20180</v>
       </c>
       <c r="T12" s="46">
-        <v>17019</v>
+        <v>18194</v>
       </c>
       <c r="U12" s="46">
         <v>46</v>
       </c>
       <c r="V12" s="46">
-        <v>1794</v>
+        <v>1935</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>377</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3426,70 +3438,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2077047</v>
+        <v>2104443</v>
       </c>
       <c r="D13" s="45">
-        <v>1230792</v>
+        <v>1252424</v>
       </c>
       <c r="E13" s="45">
-        <v>195567</v>
+        <v>198955</v>
       </c>
       <c r="F13" s="45">
-        <v>650688</v>
+        <v>653064</v>
       </c>
       <c r="G13" s="45">
-        <v>13455</v>
+        <v>26512</v>
       </c>
       <c r="H13" s="45">
-        <v>693206</v>
+        <v>706120</v>
       </c>
       <c r="I13" s="45">
-        <v>612295</v>
+        <v>620984</v>
       </c>
       <c r="J13" s="45">
-        <v>53341</v>
+        <v>54566</v>
       </c>
       <c r="K13" s="45">
-        <v>15439</v>
+        <v>16875</v>
       </c>
       <c r="L13" s="45">
-        <v>12131</v>
+        <v>13695</v>
       </c>
       <c r="M13" s="45">
-        <v>14740</v>
+        <v>11773</v>
       </c>
       <c r="N13" s="45">
-        <v>883201</v>
+        <v>912711</v>
       </c>
       <c r="O13" s="45">
-        <v>692528</v>
+        <v>709739</v>
       </c>
       <c r="P13" s="45">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="Q13" s="45">
-        <v>190146</v>
+        <v>202404</v>
       </c>
       <c r="R13" s="45">
-        <v>6248</v>
+        <v>29510</v>
       </c>
       <c r="S13" s="45">
-        <v>43708</v>
+        <v>47293</v>
       </c>
       <c r="T13" s="45">
-        <v>37358</v>
+        <v>40269</v>
       </c>
       <c r="U13" s="45">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="V13" s="45">
-        <v>5878</v>
+        <v>6549</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>595</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3500,70 +3512,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4645599</v>
+        <v>4683092</v>
       </c>
       <c r="D14" s="46">
-        <v>3121297</v>
+        <v>3149785</v>
       </c>
       <c r="E14" s="46">
-        <v>380445</v>
+        <v>387833</v>
       </c>
       <c r="F14" s="46">
-        <v>1143857</v>
+        <v>1145474</v>
       </c>
       <c r="G14" s="46">
-        <v>30676</v>
+        <v>29055</v>
       </c>
       <c r="H14" s="46">
-        <v>1629096</v>
+        <v>1669903</v>
       </c>
       <c r="I14" s="46">
-        <v>1496368</v>
+        <v>1533809</v>
       </c>
       <c r="J14" s="46">
-        <v>103387</v>
+        <v>104819</v>
       </c>
       <c r="K14" s="46">
-        <v>25223</v>
+        <v>26930</v>
       </c>
       <c r="L14" s="46">
-        <v>4118</v>
+        <v>4345</v>
       </c>
       <c r="M14" s="46">
-        <v>30519</v>
+        <v>26831</v>
       </c>
       <c r="N14" s="46">
-        <v>2154668</v>
+        <v>2244046</v>
       </c>
       <c r="O14" s="46">
-        <v>1613608</v>
+        <v>1666408</v>
       </c>
       <c r="P14" s="46">
-        <v>5417</v>
+        <v>6026</v>
       </c>
       <c r="Q14" s="46">
-        <v>535643</v>
+        <v>571612</v>
       </c>
       <c r="R14" s="46">
-        <v>17944</v>
+        <v>89378</v>
       </c>
       <c r="S14" s="46">
-        <v>104844</v>
+        <v>117489</v>
       </c>
       <c r="T14" s="46">
-        <v>91876</v>
+        <v>102334</v>
       </c>
       <c r="U14" s="46">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="V14" s="46">
-        <v>11361</v>
+        <v>13472</v>
       </c>
       <c r="W14" s="46">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="X14" s="46">
-        <v>2266</v>
+        <v>12645</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3574,70 +3586,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>986802</v>
+        <v>993635</v>
       </c>
       <c r="D15" s="45">
-        <v>648515</v>
+        <v>652331</v>
       </c>
       <c r="E15" s="45">
-        <v>74612</v>
+        <v>77415</v>
       </c>
       <c r="F15" s="45">
-        <v>263675</v>
+        <v>263889</v>
       </c>
       <c r="G15" s="45">
-        <v>7107</v>
+        <v>5975</v>
       </c>
       <c r="H15" s="45">
-        <v>474916</v>
+        <v>487011</v>
       </c>
       <c r="I15" s="45">
-        <v>413331</v>
+        <v>421936</v>
       </c>
       <c r="J15" s="45">
-        <v>35398</v>
+        <v>36425</v>
       </c>
       <c r="K15" s="45">
-        <v>26187</v>
+        <v>28650</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>6999</v>
+        <v>11752</v>
       </c>
       <c r="N15" s="45">
-        <v>422902</v>
+        <v>436751</v>
       </c>
       <c r="O15" s="45">
-        <v>346260</v>
+        <v>355519</v>
       </c>
       <c r="P15" s="45">
         <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>76439</v>
+        <v>81029</v>
       </c>
       <c r="R15" s="45">
-        <v>2006</v>
+        <v>13849</v>
       </c>
       <c r="S15" s="45">
-        <v>31878</v>
+        <v>34836</v>
       </c>
       <c r="T15" s="45">
-        <v>30985</v>
+        <v>33877</v>
       </c>
       <c r="U15" s="45">
         <v>66</v>
       </c>
       <c r="V15" s="45">
-        <v>827</v>
+        <v>893</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>342</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3648,70 +3660,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>288258</v>
+        <v>291551</v>
       </c>
       <c r="D16" s="46">
-        <v>217555</v>
+        <v>220312</v>
       </c>
       <c r="E16" s="46">
-        <v>28651</v>
+        <v>29179</v>
       </c>
       <c r="F16" s="46">
-        <v>42052</v>
+        <v>42060</v>
       </c>
       <c r="G16" s="46">
-        <v>3087</v>
+        <v>3163</v>
       </c>
       <c r="H16" s="46">
-        <v>101012</v>
+        <v>103539</v>
       </c>
       <c r="I16" s="46">
-        <v>90095</v>
+        <v>92345</v>
       </c>
       <c r="J16" s="46">
-        <v>7923</v>
+        <v>7936</v>
       </c>
       <c r="K16" s="46">
-        <v>2994</v>
+        <v>3258</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>2467</v>
+        <v>2428</v>
       </c>
       <c r="N16" s="46">
-        <v>110104</v>
+        <v>113424</v>
       </c>
       <c r="O16" s="46">
-        <v>91603</v>
+        <v>93866</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>18422</v>
+        <v>19479</v>
       </c>
       <c r="R16" s="46">
-        <v>463</v>
+        <v>3320</v>
       </c>
       <c r="S16" s="46">
-        <v>7099</v>
+        <v>7773</v>
       </c>
       <c r="T16" s="46">
-        <v>6410</v>
+        <v>7033</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>58</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3722,70 +3734,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>894646</v>
+        <v>905012</v>
       </c>
       <c r="D17" s="45">
-        <v>633613</v>
+        <v>641223</v>
       </c>
       <c r="E17" s="45">
-        <v>80516</v>
+        <v>82846</v>
       </c>
       <c r="F17" s="45">
-        <v>180517</v>
+        <v>180943</v>
       </c>
       <c r="G17" s="45">
-        <v>10177</v>
+        <v>10366</v>
       </c>
       <c r="H17" s="45">
-        <v>520274</v>
+        <v>528836</v>
       </c>
       <c r="I17" s="45">
-        <v>478496</v>
+        <v>485143</v>
       </c>
       <c r="J17" s="45">
-        <v>39927</v>
+        <v>41517</v>
       </c>
       <c r="K17" s="45">
-        <v>1851</v>
+        <v>2176</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>7161</v>
+        <v>8562</v>
       </c>
       <c r="N17" s="45">
-        <v>370641</v>
+        <v>375407</v>
       </c>
       <c r="O17" s="45">
-        <v>273381</v>
+        <v>276672</v>
       </c>
       <c r="P17" s="45">
         <v>174</v>
       </c>
       <c r="Q17" s="45">
-        <v>97086</v>
+        <v>98561</v>
       </c>
       <c r="R17" s="45">
-        <v>1617</v>
+        <v>4766</v>
       </c>
       <c r="S17" s="45">
-        <v>65432</v>
+        <v>66673</v>
       </c>
       <c r="T17" s="45">
-        <v>63982</v>
+        <v>65121</v>
       </c>
       <c r="U17" s="45">
         <v>35</v>
       </c>
       <c r="V17" s="45">
-        <v>1377</v>
+        <v>1479</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>593</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3796,70 +3808,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>530666</v>
+        <v>541756</v>
       </c>
       <c r="D18" s="47">
-        <v>349293</v>
+        <v>357726</v>
       </c>
       <c r="E18" s="47">
-        <v>51848</v>
+        <v>53946</v>
       </c>
       <c r="F18" s="47">
-        <v>129525</v>
+        <v>130084</v>
       </c>
       <c r="G18" s="47">
-        <v>2107</v>
+        <v>3933</v>
       </c>
       <c r="H18" s="47">
-        <v>210043</v>
+        <v>226237</v>
       </c>
       <c r="I18" s="47">
-        <v>178160</v>
+        <v>189888</v>
       </c>
       <c r="J18" s="47">
-        <v>26696</v>
+        <v>28117</v>
       </c>
       <c r="K18" s="47">
-        <v>5157</v>
+        <v>6993</v>
       </c>
       <c r="L18" s="47">
-        <v>30</v>
+        <v>1239</v>
       </c>
       <c r="M18" s="47">
-        <v>1798</v>
+        <v>7314</v>
       </c>
       <c r="N18" s="46">
-        <v>227547</v>
+        <v>231982</v>
       </c>
       <c r="O18" s="46">
-        <v>190482</v>
+        <v>193927</v>
       </c>
       <c r="P18" s="46">
         <v>36</v>
       </c>
       <c r="Q18" s="46">
-        <v>37029</v>
+        <v>38019</v>
       </c>
       <c r="R18" s="46">
-        <v>598</v>
+        <v>4435</v>
       </c>
       <c r="S18" s="46">
-        <v>15820</v>
+        <v>17175</v>
       </c>
       <c r="T18" s="46">
-        <v>14583</v>
+        <v>15852</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
       </c>
       <c r="V18" s="46">
-        <v>1211</v>
+        <v>1297</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>185</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3870,70 +3882,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>645961</v>
+        <v>651314</v>
       </c>
       <c r="D19" s="45">
-        <v>446953</v>
+        <v>451147</v>
       </c>
       <c r="E19" s="45">
-        <v>53887</v>
+        <v>55010</v>
       </c>
       <c r="F19" s="45">
-        <v>145121</v>
+        <v>145157</v>
       </c>
       <c r="G19" s="45">
-        <v>5301</v>
+        <v>5355</v>
       </c>
       <c r="H19" s="45">
-        <v>346582</v>
+        <v>355619</v>
       </c>
       <c r="I19" s="45">
-        <v>303623</v>
+        <v>309918</v>
       </c>
       <c r="J19" s="45">
-        <v>31639</v>
+        <v>32819</v>
       </c>
       <c r="K19" s="45">
-        <v>11320</v>
+        <v>12882</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>6082</v>
+        <v>9053</v>
       </c>
       <c r="N19" s="45">
-        <v>330486</v>
+        <v>338339</v>
       </c>
       <c r="O19" s="45">
-        <v>260523</v>
+        <v>264681</v>
       </c>
       <c r="P19" s="45">
-        <v>2119</v>
+        <v>2354</v>
       </c>
       <c r="Q19" s="45">
-        <v>67844</v>
+        <v>71304</v>
       </c>
       <c r="R19" s="45">
-        <v>3851</v>
+        <v>7853</v>
       </c>
       <c r="S19" s="45">
-        <v>23896</v>
+        <v>25174</v>
       </c>
       <c r="T19" s="45">
-        <v>22271</v>
+        <v>23426</v>
       </c>
       <c r="U19" s="45">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="V19" s="45">
-        <v>1246</v>
+        <v>1362</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>598</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3944,70 +3956,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>502442</v>
+        <v>510466</v>
       </c>
       <c r="D20" s="47">
-        <v>346471</v>
+        <v>350883</v>
       </c>
       <c r="E20" s="47">
-        <v>46937</v>
+        <v>50546</v>
       </c>
       <c r="F20" s="47">
-        <v>109034</v>
+        <v>109037</v>
       </c>
       <c r="G20" s="47">
-        <v>6879</v>
+        <v>7147</v>
       </c>
       <c r="H20" s="47">
-        <v>293336</v>
+        <v>295907</v>
       </c>
       <c r="I20" s="47">
-        <v>272602</v>
+        <v>275153</v>
       </c>
       <c r="J20" s="47">
-        <v>19891</v>
+        <v>19899</v>
       </c>
       <c r="K20" s="47">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="N20" s="47">
-        <v>197492</v>
+        <v>199371</v>
       </c>
       <c r="O20" s="46">
-        <v>166195</v>
+        <v>167568</v>
       </c>
       <c r="P20" s="46">
         <v>94</v>
       </c>
       <c r="Q20" s="46">
-        <v>31203</v>
+        <v>31709</v>
       </c>
       <c r="R20" s="46">
-        <v>323</v>
+        <v>1879</v>
       </c>
       <c r="S20" s="46">
-        <v>24121</v>
+        <v>24701</v>
       </c>
       <c r="T20" s="46">
-        <v>20751</v>
+        <v>21199</v>
       </c>
       <c r="U20" s="46">
         <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>3356</v>
+        <v>3488</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>91</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4016,68 +4028,68 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>76232</v>
+        <v>76493</v>
       </c>
       <c r="D21" s="45">
-        <v>1502</v>
+        <v>1611</v>
       </c>
       <c r="E21" s="45">
-        <v>56868</v>
+        <v>57018</v>
       </c>
       <c r="F21" s="45">
-        <v>17862</v>
+        <v>17864</v>
       </c>
       <c r="G21" s="45">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="H21" s="45">
-        <v>13794</v>
+        <v>14117</v>
       </c>
       <c r="I21" s="55">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="55">
-        <v>11872</v>
+        <v>12088</v>
       </c>
       <c r="K21" s="55">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L21" s="55">
-        <v>1723</v>
+        <v>1808</v>
       </c>
       <c r="M21" s="55">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4086,70 +4098,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>20783362</v>
+        <v>21013183</v>
       </c>
       <c r="D22" s="57">
-        <v>13628415</v>
+        <v>13802106</v>
       </c>
       <c r="E22" s="57">
-        <v>1968126</v>
+        <v>2016794</v>
       </c>
       <c r="F22" s="57">
-        <v>5186821</v>
+        <v>5194283</v>
       </c>
       <c r="G22" s="57">
-        <v>197596</v>
+        <v>209899</v>
       </c>
       <c r="H22" s="57">
-        <v>8185346</v>
+        <v>8372359</v>
       </c>
       <c r="I22" s="57">
-        <v>7291939</v>
+        <v>7435772</v>
       </c>
       <c r="J22" s="57">
-        <v>633057</v>
+        <v>649731</v>
       </c>
       <c r="K22" s="57">
-        <v>226728</v>
+        <v>247779</v>
       </c>
       <c r="L22" s="57">
-        <v>33622</v>
+        <v>39077</v>
       </c>
       <c r="M22" s="57">
-        <v>137185</v>
+        <v>160043</v>
       </c>
       <c r="N22" s="57">
-        <v>9040439</v>
+        <v>9340225</v>
       </c>
       <c r="O22" s="57">
-        <v>7049301</v>
+        <v>7241905</v>
       </c>
       <c r="P22" s="57">
-        <v>12272</v>
+        <v>13370</v>
       </c>
       <c r="Q22" s="57">
-        <v>1978866</v>
+        <v>2084950</v>
       </c>
       <c r="R22" s="57">
-        <v>62866</v>
+        <v>299786</v>
       </c>
       <c r="S22" s="57">
-        <v>637024</v>
+        <v>688575</v>
       </c>
       <c r="T22" s="57">
-        <v>580598</v>
+        <v>625598</v>
       </c>
       <c r="U22" s="57">
-        <v>3505</v>
+        <v>3596</v>
       </c>
       <c r="V22" s="57">
-        <v>52618</v>
+        <v>59025</v>
       </c>
       <c r="W22" s="57">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="X22" s="57">
-        <v>10613</v>
+        <v>51551</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4164,29 +4176,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4215,330 +4227,316 @@
     <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="67" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+      <c r="C1" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="69">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>23987</v>
       </c>
-      <c r="C2" s="45">
-        <v>0</v>
-      </c>
+      <c r="C2" s="70"/>
       <c r="D2" s="45">
         <v>23987</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18448</v>
-      </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
+        <v>18523</v>
+      </c>
+      <c r="C3" s="72"/>
       <c r="D3" s="46">
-        <v>18448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
+        <v>18523</v>
+      </c>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50009</v>
-      </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
+        <v>50008</v>
+      </c>
+      <c r="C4" s="70"/>
       <c r="D4" s="45">
-        <v>50009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="68">
+        <v>50008</v>
+      </c>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
-        <v>62551</v>
-      </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
+        <v>62547</v>
+      </c>
+      <c r="C5" s="72"/>
       <c r="D5" s="46">
-        <v>62551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
+        <v>62547</v>
+      </c>
+      <c r="E5" s="68"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>49870</v>
       </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
+      <c r="C6" s="70"/>
       <c r="D6" s="45">
         <v>49870</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
+      <c r="E6" s="68"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>18771</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+        <v>18770</v>
+      </c>
+      <c r="C7" s="72"/>
       <c r="D7" s="46">
-        <v>18771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
+        <v>18770</v>
+      </c>
+      <c r="E7" s="68"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
         <v>52134</v>
       </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
+      <c r="C8" s="70"/>
       <c r="D8" s="45">
         <v>52134</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="E8" s="68"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23772</v>
       </c>
-      <c r="C9" s="46">
-        <v>0</v>
-      </c>
+      <c r="C9" s="72"/>
       <c r="D9" s="46">
         <v>23772</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="E9" s="68"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48026</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
+        <v>48025</v>
+      </c>
+      <c r="C10" s="70"/>
       <c r="D10" s="45">
-        <v>48026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="68">
+        <v>48025</v>
+      </c>
+      <c r="E10" s="68"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53686</v>
       </c>
-      <c r="C11" s="46">
-        <v>0</v>
-      </c>
+      <c r="C11" s="72"/>
       <c r="D11" s="46">
         <v>53686</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62666</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
+        <v>62665</v>
+      </c>
+      <c r="C12" s="70"/>
       <c r="D12" s="45">
-        <v>62666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
+        <v>62665</v>
+      </c>
+      <c r="E12" s="68"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
         <v>55938</v>
       </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
+      <c r="C13" s="72"/>
       <c r="D13" s="46">
         <v>55938</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="E13" s="68"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62735</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
+        <v>62736</v>
+      </c>
+      <c r="C14" s="70"/>
       <c r="D14" s="45">
-        <v>62735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+        <v>62736</v>
+      </c>
+      <c r="E14" s="68"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61038</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
+        <v>61044</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="47">
-        <v>61038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+        <v>61044</v>
+      </c>
+      <c r="E15" s="68"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35505</v>
       </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
+      <c r="C16" s="70"/>
       <c r="D16" s="45">
         <v>35505</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="E16" s="68"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67528</v>
       </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
+      <c r="C17" s="74"/>
       <c r="D17" s="47">
         <v>67528</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82591</v>
-      </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
+        <v>82600</v>
+      </c>
+      <c r="C18" s="70"/>
       <c r="D18" s="45">
-        <v>82591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="68">
+        <v>82600</v>
+      </c>
+      <c r="E18" s="68"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111515</v>
-      </c>
-      <c r="C19" s="46">
-        <v>0</v>
-      </c>
+        <v>111516</v>
+      </c>
+      <c r="C19" s="72"/>
       <c r="D19" s="46">
-        <v>111515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+        <v>111516</v>
+      </c>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82914</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
+        <v>82913</v>
+      </c>
+      <c r="C20" s="70"/>
       <c r="D20" s="45">
-        <v>82914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="68">
+        <v>82913</v>
+      </c>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90926</v>
+        <v>90912</v>
       </c>
       <c r="C21" s="46">
         <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+        <v>91522</v>
+      </c>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56665</v>
+        <v>56663</v>
       </c>
       <c r="C22" s="45">
         <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
+        <v>57569</v>
+      </c>
+      <c r="E22" s="68"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="71">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4550,93 +4548,100 @@
       <c r="D23" s="46">
         <v>48999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66857</v>
+        <v>66856</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="68">
+        <v>82628</v>
+      </c>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="71">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82828</v>
+        <v>82794</v>
       </c>
       <c r="C25" s="46">
         <v>34881</v>
       </c>
       <c r="D25" s="46">
-        <v>117709</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+        <v>117675</v>
+      </c>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80507</v>
+        <v>80505</v>
       </c>
       <c r="C26" s="45">
         <v>51511</v>
       </c>
       <c r="D26" s="45">
-        <v>132018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="68">
+        <v>132016</v>
+      </c>
+      <c r="E26" s="68"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="71">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65871</v>
+        <v>65870</v>
       </c>
       <c r="C27" s="46">
-        <v>41855</v>
+        <v>41854</v>
       </c>
       <c r="D27" s="46">
-        <v>107726</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+        <v>107724</v>
+      </c>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
         <v>68481</v>
       </c>
       <c r="C28" s="45">
-        <v>35562</v>
+        <v>35561</v>
       </c>
       <c r="D28" s="45">
-        <v>104043</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
+        <v>104042</v>
+      </c>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40052</v>
+        <v>40051</v>
       </c>
       <c r="C29" s="46">
         <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
+        <v>85011</v>
+      </c>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4648,23 +4653,25 @@
       <c r="D30" s="45">
         <v>49224</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
         <v>53104</v>
       </c>
       <c r="C31" s="47">
-        <v>38600</v>
+        <v>38601</v>
       </c>
       <c r="D31" s="47">
-        <v>91704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+        <v>91705</v>
+      </c>
+      <c r="E31" s="68"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="69">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
@@ -4676,51 +4683,55 @@
       <c r="D32" s="45">
         <v>98669</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="69">
+      <c r="E32" s="68"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="73">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
         <v>51515</v>
       </c>
       <c r="C33" s="47">
-        <v>59635</v>
+        <v>59631</v>
       </c>
       <c r="D33" s="47">
-        <v>111150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+        <v>111146</v>
+      </c>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46040</v>
+        <v>46038</v>
       </c>
       <c r="D34" s="45">
-        <v>91167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="68">
+        <v>91165</v>
+      </c>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
         <v>51466</v>
       </c>
       <c r="C35" s="46">
-        <v>57654</v>
+        <v>57653</v>
       </c>
       <c r="D35" s="46">
-        <v>109120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+        <v>109119</v>
+      </c>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
@@ -4732,107 +4743,115 @@
       <c r="D36" s="45">
         <v>88471</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="68">
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
-        <v>25986</v>
+        <v>25985</v>
       </c>
       <c r="C37" s="46">
         <v>30530</v>
       </c>
       <c r="D37" s="46">
-        <v>56516</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+        <v>56515</v>
+      </c>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
         <v>59161</v>
       </c>
       <c r="C38" s="45">
-        <v>61490</v>
+        <v>61489</v>
       </c>
       <c r="D38" s="45">
-        <v>120651</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="68">
+        <v>120650</v>
+      </c>
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="71">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
         <v>64219</v>
       </c>
       <c r="C39" s="46">
-        <v>67469</v>
+        <v>67478</v>
       </c>
       <c r="D39" s="46">
-        <v>131688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
+        <v>131697</v>
+      </c>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64162</v>
+        <v>64161</v>
       </c>
       <c r="C40" s="45">
-        <v>95304</v>
+        <v>95303</v>
       </c>
       <c r="D40" s="45">
-        <v>159466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="68">
+        <v>159464</v>
+      </c>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="71">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
         <v>61087</v>
       </c>
       <c r="C41" s="46">
-        <v>70690</v>
+        <v>70691</v>
       </c>
       <c r="D41" s="46">
-        <v>131777</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+        <v>131778</v>
+      </c>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="69">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67661</v>
+        <v>67662</v>
       </c>
       <c r="C42" s="45">
-        <v>77044</v>
+        <v>77045</v>
       </c>
       <c r="D42" s="45">
-        <v>144705</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="68">
+        <v>144707</v>
+      </c>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="71">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47173</v>
+        <v>47172</v>
       </c>
       <c r="C43" s="46">
-        <v>52963</v>
+        <v>52970</v>
       </c>
       <c r="D43" s="46">
-        <v>100136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="67">
+        <v>100142</v>
+      </c>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
@@ -4844,79 +4863,85 @@
       <c r="D44" s="45">
         <v>54258</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="68">
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="71">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53170</v>
+        <v>53169</v>
       </c>
       <c r="C45" s="46">
-        <v>56778</v>
+        <v>56780</v>
       </c>
       <c r="D45" s="46">
-        <v>109948</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="67">
+        <v>109949</v>
+      </c>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="69">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59700</v>
+        <v>59699</v>
       </c>
       <c r="C46" s="45">
-        <v>74234</v>
+        <v>74236</v>
       </c>
       <c r="D46" s="45">
-        <v>133934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+        <v>133935</v>
+      </c>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="73">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75154</v>
+        <v>75153</v>
       </c>
       <c r="C47" s="47">
         <v>76613</v>
       </c>
       <c r="D47" s="47">
-        <v>151767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="67">
+        <v>151766</v>
+      </c>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="69">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
         <v>73838</v>
       </c>
       <c r="C48" s="45">
-        <v>67321</v>
+        <v>67320</v>
       </c>
       <c r="D48" s="45">
-        <v>141159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="69">
+        <v>141158</v>
+      </c>
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="73">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81403</v>
+        <v>81422</v>
       </c>
       <c r="C49" s="47">
         <v>76075</v>
       </c>
       <c r="D49" s="47">
-        <v>157478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="67">
+        <v>157497</v>
+      </c>
+      <c r="E49" s="68"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="69">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
@@ -4928,149 +4953,160 @@
       <c r="D50" s="45">
         <v>107755</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="68">
+      <c r="E50" s="68"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="71">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40028</v>
+        <v>40027</v>
       </c>
       <c r="C51" s="46">
         <v>25262</v>
       </c>
       <c r="D51" s="46">
-        <v>65290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
+        <v>65289</v>
+      </c>
+      <c r="E51" s="68"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="69">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71137</v>
+        <v>71149</v>
       </c>
       <c r="C52" s="45">
-        <v>55624</v>
+        <v>55610</v>
       </c>
       <c r="D52" s="45">
-        <v>126761</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="68">
+        <v>126759</v>
+      </c>
+      <c r="E52" s="68"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="71">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81981</v>
+        <v>81984</v>
       </c>
       <c r="C53" s="46">
         <v>54622</v>
       </c>
       <c r="D53" s="46">
-        <v>136603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="67">
+        <v>136606</v>
+      </c>
+      <c r="E53" s="68"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="69">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93519</v>
+        <v>93524</v>
       </c>
       <c r="C54" s="45">
-        <v>55655</v>
+        <v>55670</v>
       </c>
       <c r="D54" s="45">
-        <v>149174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="68">
+        <v>149194</v>
+      </c>
+      <c r="E54" s="68"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="71">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91446</v>
+        <v>91457</v>
       </c>
       <c r="C55" s="46">
         <v>51242</v>
       </c>
       <c r="D55" s="46">
-        <v>142688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="67">
+        <v>142699</v>
+      </c>
+      <c r="E55" s="68"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="69">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99746</v>
+        <v>99789</v>
       </c>
       <c r="C56" s="45">
-        <v>54766</v>
+        <v>54733</v>
       </c>
       <c r="D56" s="45">
-        <v>154512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="68">
+        <v>154522</v>
+      </c>
+      <c r="E56" s="68"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="71">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76302</v>
+        <v>76299</v>
       </c>
       <c r="C57" s="46">
-        <v>37109</v>
+        <v>37108</v>
       </c>
       <c r="D57" s="46">
-        <v>113411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="67">
+        <v>113407</v>
+      </c>
+      <c r="E57" s="68"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="69">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>57043</v>
+        <v>57045</v>
       </c>
       <c r="C58" s="45">
         <v>29110</v>
       </c>
       <c r="D58" s="45">
-        <v>86153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="68">
+        <v>86155</v>
+      </c>
+      <c r="E58" s="68"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="71">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100195</v>
+        <v>100215</v>
       </c>
       <c r="C59" s="46">
         <v>60118</v>
       </c>
       <c r="D59" s="46">
-        <v>160313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="67">
+        <v>160333</v>
+      </c>
+      <c r="E59" s="68"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="69">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107395</v>
+        <v>107410</v>
       </c>
       <c r="C60" s="45">
         <v>59775</v>
       </c>
       <c r="D60" s="45">
-        <v>167170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="68">
+        <v>167185</v>
+      </c>
+      <c r="E60" s="68"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="71">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
@@ -5082,37 +5118,40 @@
       <c r="D61" s="46">
         <v>176007</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
+      <c r="E61" s="68"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="69">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130646</v>
+        <v>130650</v>
       </c>
       <c r="C62" s="45">
         <v>58675</v>
       </c>
       <c r="D62" s="45">
-        <v>189321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="69">
+        <v>189325</v>
+      </c>
+      <c r="E62" s="68"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="73">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144377</v>
+        <v>144376</v>
       </c>
       <c r="C63" s="47">
         <v>65425</v>
       </c>
       <c r="D63" s="47">
-        <v>209802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="67">
+        <v>209801</v>
+      </c>
+      <c r="E63" s="68"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="69">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
@@ -5124,9 +5163,10 @@
       <c r="D64" s="45">
         <v>148550</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="69">
+      <c r="E64" s="68"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
@@ -5138,191 +5178,205 @@
       <c r="D65" s="47">
         <v>108102</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="67">
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="69">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146429</v>
+        <v>146432</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195797</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="68">
+        <v>195800</v>
+      </c>
+      <c r="E66" s="68"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="71">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166230</v>
+        <v>166241</v>
       </c>
       <c r="C67" s="46">
-        <v>53687</v>
+        <v>53686</v>
       </c>
       <c r="D67" s="46">
-        <v>219917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="67">
+        <v>219927</v>
+      </c>
+      <c r="E67" s="68"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="69">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174771</v>
+        <v>174770</v>
       </c>
       <c r="C68" s="45">
         <v>68994</v>
       </c>
       <c r="D68" s="45">
-        <v>243765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="68">
+        <v>243764</v>
+      </c>
+      <c r="E68" s="68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="71">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
         <v>180453</v>
       </c>
       <c r="C69" s="46">
-        <v>62680</v>
+        <v>62679</v>
       </c>
       <c r="D69" s="46">
-        <v>243133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="67">
+        <v>243132</v>
+      </c>
+      <c r="E69" s="68"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="69">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201726</v>
+        <v>201730</v>
       </c>
       <c r="C70" s="45">
         <v>67427</v>
       </c>
       <c r="D70" s="45">
-        <v>269153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="68">
+        <v>269157</v>
+      </c>
+      <c r="E70" s="68"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="71">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153188</v>
+        <v>153189</v>
       </c>
       <c r="C71" s="46">
-        <v>49297</v>
+        <v>49296</v>
       </c>
       <c r="D71" s="46">
         <v>202485</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
+      <c r="E71" s="68"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="69">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115929</v>
+        <v>115932</v>
       </c>
       <c r="C72" s="45">
         <v>34461</v>
       </c>
       <c r="D72" s="45">
-        <v>150390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="68">
+        <v>150393</v>
+      </c>
+      <c r="E72" s="68"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="71">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186700</v>
+        <v>186702</v>
       </c>
       <c r="C73" s="46">
-        <v>52504</v>
+        <v>52502</v>
       </c>
       <c r="D73" s="46">
         <v>239204</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="67">
+      <c r="E73" s="68"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="69">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195677</v>
+        <v>195686</v>
       </c>
       <c r="C74" s="45">
         <v>54771</v>
       </c>
       <c r="D74" s="45">
-        <v>250448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="68">
+        <v>250457</v>
+      </c>
+      <c r="E74" s="68"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="71">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>217996</v>
+        <v>218064</v>
       </c>
       <c r="C75" s="46">
-        <v>65693</v>
+        <v>65691</v>
       </c>
       <c r="D75" s="46">
-        <v>283689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="67">
+        <v>283755</v>
+      </c>
+      <c r="E75" s="68"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="69">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220618</v>
+        <v>220693</v>
       </c>
       <c r="C76" s="45">
-        <v>60908</v>
+        <v>60907</v>
       </c>
       <c r="D76" s="45">
-        <v>281526</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="68">
+        <v>281600</v>
+      </c>
+      <c r="E76" s="68"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="71">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252338</v>
+        <v>252347</v>
       </c>
       <c r="C77" s="46">
-        <v>71655</v>
+        <v>71653</v>
       </c>
       <c r="D77" s="46">
-        <v>323993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="67">
+        <v>324000</v>
+      </c>
+      <c r="E77" s="68"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="69">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
         <v>197083</v>
       </c>
       <c r="C78" s="45">
-        <v>49437</v>
+        <v>49438</v>
       </c>
       <c r="D78" s="45">
-        <v>246520</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="69">
+        <v>246521</v>
+      </c>
+      <c r="E78" s="68"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="73">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
@@ -5334,880 +5388,967 @@
       <c r="D79" s="47">
         <v>171200</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="67">
+      <c r="E79" s="68"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="69">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189417</v>
+        <v>189421</v>
       </c>
       <c r="C80" s="45">
         <v>58863</v>
       </c>
       <c r="D80" s="45">
-        <v>248280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="69">
+        <v>248284</v>
+      </c>
+      <c r="E80" s="68"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112137</v>
+        <v>112136</v>
       </c>
       <c r="C81" s="47">
-        <v>67022</v>
+        <v>67021</v>
       </c>
       <c r="D81" s="47">
-        <v>179159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
+        <v>179157</v>
+      </c>
+      <c r="E81" s="68"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="69">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125754</v>
+        <v>125752</v>
       </c>
       <c r="C82" s="45">
-        <v>79465</v>
+        <v>79464</v>
       </c>
       <c r="D82" s="45">
-        <v>205219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="68">
+        <v>205216</v>
+      </c>
+      <c r="E82" s="68"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="71">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
         <v>119360</v>
       </c>
       <c r="C83" s="46">
-        <v>75345</v>
+        <v>75347</v>
       </c>
       <c r="D83" s="46">
-        <v>194705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="67">
+        <v>194707</v>
+      </c>
+      <c r="E83" s="68"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="69">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161069</v>
+        <v>161068</v>
       </c>
       <c r="C84" s="45">
-        <v>82842</v>
+        <v>82843</v>
       </c>
       <c r="D84" s="45">
         <v>243911</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="68">
+      <c r="E84" s="68"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="71">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166342</v>
+        <v>166340</v>
       </c>
       <c r="C85" s="46">
-        <v>53890</v>
+        <v>53888</v>
       </c>
       <c r="D85" s="46">
-        <v>220232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="67">
+        <v>220228</v>
+      </c>
+      <c r="E85" s="68"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="69">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127335</v>
+        <v>127336</v>
       </c>
       <c r="C86" s="45">
         <v>38765</v>
       </c>
       <c r="D86" s="45">
-        <v>166100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="68">
+        <v>166101</v>
+      </c>
+      <c r="E86" s="68"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="71">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190026</v>
+        <v>190053</v>
       </c>
       <c r="C87" s="46">
-        <v>76164</v>
+        <v>76163</v>
       </c>
       <c r="D87" s="46">
-        <v>266190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="67">
+        <v>266216</v>
+      </c>
+      <c r="E87" s="68"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="69">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214124</v>
+        <v>214123</v>
       </c>
       <c r="C88" s="45">
-        <v>83763</v>
+        <v>83762</v>
       </c>
       <c r="D88" s="45">
-        <v>297887</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="68">
+        <v>297885</v>
+      </c>
+      <c r="E88" s="68"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="71">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245742</v>
+        <v>245746</v>
       </c>
       <c r="C89" s="46">
         <v>88312</v>
       </c>
       <c r="D89" s="46">
-        <v>334054</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="67">
+        <v>334058</v>
+      </c>
+      <c r="E89" s="68"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="69">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257335</v>
+        <v>257437</v>
       </c>
       <c r="C90" s="45">
         <v>80155</v>
       </c>
       <c r="D90" s="45">
-        <v>337490</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="68">
+        <v>337592</v>
+      </c>
+      <c r="E90" s="68"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="71">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
         <v>285973</v>
       </c>
       <c r="C91" s="46">
-        <v>88752</v>
+        <v>88751</v>
       </c>
       <c r="D91" s="46">
-        <v>374725</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
+        <v>374724</v>
+      </c>
+      <c r="E91" s="68"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="69">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223594</v>
+        <v>223611</v>
       </c>
       <c r="C92" s="45">
-        <v>63176</v>
+        <v>63158</v>
       </c>
       <c r="D92" s="45">
-        <v>286770</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="68">
+        <v>286769</v>
+      </c>
+      <c r="E92" s="68"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="71">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144178</v>
+        <v>144182</v>
       </c>
       <c r="C93" s="46">
-        <v>52747</v>
+        <v>52745</v>
       </c>
       <c r="D93" s="46">
-        <v>196925</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="67">
+        <v>196927</v>
+      </c>
+      <c r="E93" s="68"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="69">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219748</v>
+        <v>219752</v>
       </c>
       <c r="C94" s="45">
-        <v>89032</v>
+        <v>89031</v>
       </c>
       <c r="D94" s="45">
-        <v>308780</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="69">
+        <v>308783</v>
+      </c>
+      <c r="E94" s="68"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="73">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235079</v>
+        <v>235124</v>
       </c>
       <c r="C95" s="47">
-        <v>93384</v>
+        <v>93351</v>
       </c>
       <c r="D95" s="47">
-        <v>328463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="67">
+        <v>328475</v>
+      </c>
+      <c r="E95" s="68"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="69">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238380</v>
+        <v>238412</v>
       </c>
       <c r="C96" s="45">
-        <v>103089</v>
+        <v>103081</v>
       </c>
       <c r="D96" s="45">
-        <v>341469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="69">
+        <v>341493</v>
+      </c>
+      <c r="E96" s="68"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="73">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231261</v>
+        <v>231309</v>
       </c>
       <c r="C97" s="47">
-        <v>92417</v>
+        <v>92409</v>
       </c>
       <c r="D97" s="47">
-        <v>323678</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="67">
+        <v>323718</v>
+      </c>
+      <c r="E97" s="68"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="69">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158276</v>
+        <v>158364</v>
       </c>
       <c r="C98" s="45">
-        <v>71603</v>
+        <v>71588</v>
       </c>
       <c r="D98" s="45">
-        <v>229879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="68">
+        <v>229952</v>
+      </c>
+      <c r="E98" s="68"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="71">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165905</v>
+        <v>165926</v>
       </c>
       <c r="C99" s="46">
-        <v>66034</v>
+        <v>66036</v>
       </c>
       <c r="D99" s="46">
-        <v>231939</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="67">
+        <v>231962</v>
+      </c>
+      <c r="E99" s="68"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="69">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142482</v>
+        <v>142494</v>
       </c>
       <c r="C100" s="45">
-        <v>53571</v>
+        <v>53564</v>
       </c>
       <c r="D100" s="45">
-        <v>196053</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="68">
+        <v>196058</v>
+      </c>
+      <c r="E100" s="68"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="71">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176231</v>
+        <v>176238</v>
       </c>
       <c r="C101" s="46">
-        <v>73402</v>
+        <v>73404</v>
       </c>
       <c r="D101" s="46">
-        <v>249633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
+        <v>249642</v>
+      </c>
+      <c r="E101" s="68"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="69">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279294</v>
+        <v>279296</v>
       </c>
       <c r="C102" s="45">
-        <v>99152</v>
+        <v>99151</v>
       </c>
       <c r="D102" s="45">
-        <v>378446</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="68">
+        <v>378447</v>
+      </c>
+      <c r="E102" s="68"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="71">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580456</v>
+        <v>580469</v>
       </c>
       <c r="C103" s="46">
-        <v>97103</v>
+        <v>97102</v>
       </c>
       <c r="D103" s="46">
-        <v>677559</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="67">
+        <v>677571</v>
+      </c>
+      <c r="E103" s="68"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="69">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>642941</v>
+        <v>643041</v>
       </c>
       <c r="C104" s="45">
-        <v>89758</v>
+        <v>89753</v>
       </c>
       <c r="D104" s="45">
-        <v>732699</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="68">
+        <v>732794</v>
+      </c>
+      <c r="E104" s="68"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="71">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534650</v>
+        <v>534704</v>
       </c>
       <c r="C105" s="46">
-        <v>88352</v>
+        <v>88334</v>
       </c>
       <c r="D105" s="46">
-        <v>623002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="67">
+        <v>623038</v>
+      </c>
+      <c r="E105" s="68"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="69">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302932</v>
+        <v>302935</v>
       </c>
       <c r="C106" s="45">
-        <v>65475</v>
+        <v>65470</v>
       </c>
       <c r="D106" s="45">
-        <v>368407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="68">
+        <v>368405</v>
+      </c>
+      <c r="E106" s="68"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="71">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210488</v>
+        <v>210490</v>
       </c>
       <c r="C107" s="46">
-        <v>50091</v>
+        <v>50092</v>
       </c>
       <c r="D107" s="46">
-        <v>260579</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="67">
+        <v>260582</v>
+      </c>
+      <c r="E107" s="68"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="69">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338629</v>
+        <v>338643</v>
       </c>
       <c r="C108" s="45">
         <v>76838</v>
       </c>
       <c r="D108" s="45">
-        <v>415467</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="68">
+        <v>415481</v>
+      </c>
+      <c r="E108" s="68"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="71">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497646</v>
+        <v>497654</v>
       </c>
       <c r="C109" s="46">
-        <v>73403</v>
+        <v>73400</v>
       </c>
       <c r="D109" s="46">
-        <v>571049</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="67">
+        <v>571054</v>
+      </c>
+      <c r="E109" s="68"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="69">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690378</v>
+        <v>690382</v>
       </c>
       <c r="C110" s="45">
-        <v>83392</v>
+        <v>83391</v>
       </c>
       <c r="D110" s="45">
-        <v>773770</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="69">
+        <v>773773</v>
+      </c>
+      <c r="E110" s="68"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="73">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608483</v>
+        <v>608490</v>
       </c>
       <c r="C111" s="47">
-        <v>70788</v>
+        <v>70785</v>
       </c>
       <c r="D111" s="47">
-        <v>679271</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
+        <v>679275</v>
+      </c>
+      <c r="E111" s="68"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="69">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517902</v>
+        <v>517943</v>
       </c>
       <c r="C112" s="45">
-        <v>75371</v>
+        <v>75369</v>
       </c>
       <c r="D112" s="45">
-        <v>593273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="69">
+        <v>593312</v>
+      </c>
+      <c r="E112" s="68"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="73">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305736</v>
+        <v>305755</v>
       </c>
       <c r="C113" s="47">
-        <v>56362</v>
+        <v>56365</v>
       </c>
       <c r="D113" s="47">
-        <v>362098</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="67">
+        <v>362120</v>
+      </c>
+      <c r="E113" s="68"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="69">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226953</v>
+        <v>226952</v>
       </c>
       <c r="C114" s="45">
         <v>39224</v>
       </c>
       <c r="D114" s="45">
-        <v>266177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="68">
+        <v>266176</v>
+      </c>
+      <c r="E114" s="68"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="71">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338203</v>
+        <v>338215</v>
       </c>
       <c r="C115" s="46">
-        <v>60772</v>
+        <v>60789</v>
       </c>
       <c r="D115" s="46">
-        <v>398975</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="67">
+        <v>399004</v>
+      </c>
+      <c r="E115" s="68"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="69">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493632</v>
+        <v>493635</v>
       </c>
       <c r="C116" s="45">
-        <v>61576</v>
+        <v>61566</v>
       </c>
       <c r="D116" s="45">
-        <v>555208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="68">
+        <v>555201</v>
+      </c>
+      <c r="E116" s="68"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="71">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641598</v>
+        <v>641701</v>
       </c>
       <c r="C117" s="46">
-        <v>71660</v>
+        <v>71653</v>
       </c>
       <c r="D117" s="46">
-        <v>713258</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="67">
+        <v>713354</v>
+      </c>
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="69">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567846</v>
+        <v>567853</v>
       </c>
       <c r="C118" s="45">
-        <v>66122</v>
+        <v>66119</v>
       </c>
       <c r="D118" s="45">
-        <v>633968</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="68">
+        <v>633972</v>
+      </c>
+      <c r="E118" s="68"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="71">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483341</v>
+        <v>483366</v>
       </c>
       <c r="C119" s="46">
-        <v>67243</v>
+        <v>67550</v>
       </c>
       <c r="D119" s="46">
-        <v>550584</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="67">
+        <v>550916</v>
+      </c>
+      <c r="E119" s="68"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="69">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309266</v>
+        <v>309311</v>
       </c>
       <c r="C120" s="45">
-        <v>59524</v>
+        <v>59550</v>
       </c>
       <c r="D120" s="45">
-        <v>368790</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="68">
+        <v>368861</v>
+      </c>
+      <c r="E120" s="68"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="71">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
         <v>235444</v>
       </c>
       <c r="C121" s="46">
-        <v>47572</v>
+        <v>47587</v>
       </c>
       <c r="D121" s="46">
-        <v>283016</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
+        <v>283031</v>
+      </c>
+      <c r="E121" s="68"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="69">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354388</v>
+        <v>354399</v>
       </c>
       <c r="C122" s="45">
         <v>73175</v>
       </c>
       <c r="D122" s="45">
-        <v>427563</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="68">
+        <v>427574</v>
+      </c>
+      <c r="E122" s="68"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="71">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693406</v>
+        <v>693414</v>
       </c>
       <c r="C123" s="46">
-        <v>90186</v>
+        <v>90187</v>
       </c>
       <c r="D123" s="46">
-        <v>783592</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="67">
+        <v>783601</v>
+      </c>
+      <c r="E123" s="68"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="69">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993247</v>
+        <v>993264</v>
       </c>
       <c r="C124" s="45">
-        <v>126768</v>
+        <v>126775</v>
       </c>
       <c r="D124" s="45">
-        <v>1120015</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="68">
+        <v>1120039</v>
+      </c>
+      <c r="E124" s="68"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="71">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808113</v>
+        <v>808131</v>
       </c>
       <c r="C125" s="46">
         <v>131617</v>
       </c>
       <c r="D125" s="46">
-        <v>939730</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="67">
+        <v>939748</v>
+      </c>
+      <c r="E125" s="68"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="69">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>661866</v>
+        <v>661897</v>
       </c>
       <c r="C126" s="45">
-        <v>137253</v>
+        <v>137266</v>
       </c>
       <c r="D126" s="45">
-        <v>799119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="68">
+        <v>799163</v>
+      </c>
+      <c r="E126" s="68"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="71">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>258760</v>
+        <v>259018</v>
       </c>
       <c r="C127" s="46">
         <v>75934</v>
       </c>
       <c r="D127" s="46">
-        <v>334694</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="67">
+        <v>334952</v>
+      </c>
+      <c r="E127" s="68"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="69">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195221</v>
+        <v>195292</v>
       </c>
       <c r="C128" s="45">
-        <v>67642</v>
+        <v>67769</v>
       </c>
       <c r="D128" s="45">
-        <v>262863</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="68">
+        <v>263061</v>
+      </c>
+      <c r="E128" s="68"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="71">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332742</v>
+        <v>332879</v>
       </c>
       <c r="C129" s="46">
-        <v>115302</v>
+        <v>115530</v>
       </c>
       <c r="D129" s="46">
-        <v>448044</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="67">
+        <v>448409</v>
+      </c>
+      <c r="E129" s="68"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="69">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677319</v>
+        <v>677337</v>
       </c>
       <c r="C130" s="45">
-        <v>160490</v>
+        <v>160512</v>
       </c>
       <c r="D130" s="45">
-        <v>837809</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="68">
+        <v>837849</v>
+      </c>
+      <c r="E130" s="68"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="71">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907164</v>
+        <v>907226</v>
       </c>
       <c r="C131" s="46">
-        <v>223929</v>
+        <v>224031</v>
       </c>
       <c r="D131" s="46">
-        <v>1131093</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
+        <v>1131257</v>
+      </c>
+      <c r="E131" s="68"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="69">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>759647</v>
+        <v>759732</v>
       </c>
       <c r="C132" s="45">
-        <v>215279</v>
+        <v>215354</v>
       </c>
       <c r="D132" s="45">
-        <v>974926</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="68">
+        <v>975086</v>
+      </c>
+      <c r="E132" s="68"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="71">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644118</v>
+        <v>644261</v>
       </c>
       <c r="C133" s="46">
-        <v>224905</v>
+        <v>225357</v>
       </c>
       <c r="D133" s="46">
-        <v>869023</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="67">
+        <v>869618</v>
+      </c>
+      <c r="E133" s="68"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="69">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268036</v>
+        <v>268087</v>
       </c>
       <c r="C134" s="45">
-        <v>150221</v>
+        <v>150488</v>
       </c>
       <c r="D134" s="45">
-        <v>418257</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="68">
+        <v>418575</v>
+      </c>
+      <c r="E134" s="68"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="71">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181092</v>
+        <v>181112</v>
       </c>
       <c r="C135" s="46">
-        <v>101304</v>
+        <v>101376</v>
       </c>
       <c r="D135" s="46">
-        <v>282396</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="67">
+        <v>282488</v>
+      </c>
+      <c r="E135" s="68"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="69">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>388689</v>
+        <v>389626</v>
       </c>
       <c r="C136" s="45">
-        <v>187957</v>
+        <v>188672</v>
       </c>
       <c r="D136" s="45">
-        <v>576646</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="68">
+        <v>578298</v>
+      </c>
+      <c r="E136" s="68"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="71">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>788857</v>
+        <v>791193</v>
       </c>
       <c r="C137" s="46">
-        <v>273640</v>
+        <v>277501</v>
       </c>
       <c r="D137" s="46">
-        <v>1062497</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="67">
+        <v>1068694</v>
+      </c>
+      <c r="E137" s="68"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="69">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1023772</v>
+        <v>1035986</v>
       </c>
       <c r="C138" s="45">
-        <v>329681</v>
+        <v>347479</v>
       </c>
       <c r="D138" s="45">
-        <v>1353453</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="68">
+        <v>1383465</v>
+      </c>
+      <c r="E138" s="68"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="71">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>260462</v>
+        <v>262761</v>
       </c>
       <c r="C139" s="46">
-        <v>147798</v>
+        <v>150841</v>
       </c>
       <c r="D139" s="46">
-        <v>408260</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="68"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+        <v>413602</v>
+      </c>
+      <c r="E139" s="68"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="69">
+        <v>44330</v>
+      </c>
+      <c r="B140" s="45">
+        <v>509685</v>
+      </c>
+      <c r="C140" s="45">
+        <v>211594</v>
+      </c>
+      <c r="D140" s="45">
+        <v>721279</v>
+      </c>
+      <c r="E140" s="68"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="71"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="68"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="45">
-        <v>29823801</v>
-      </c>
-      <c r="C141" s="45">
-        <v>8822370</v>
-      </c>
-      <c r="D141" s="45">
-        <v>38646171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
+      <c r="B142" s="45">
+        <v>30353408</v>
+      </c>
+      <c r="C142" s="45">
+        <v>9060934</v>
+      </c>
+      <c r="D142" s="45">
+        <v>39414342</v>
+      </c>
+      <c r="E142" s="68"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="68"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -2,20 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0DA05-C94E-4C3C-A8BA-50FFB24C68BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-17\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F8425-B156-46BA-B5FA-629CD5652167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_14.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_14.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_16.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_16.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_14.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_14.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_16.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_16.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -243,16 +248,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Datenstand: 15.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 14.05.21 (Impfquote_bis_einschl_14.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 14.05.21 durchgeführt und bis zum 15.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 14.05.21 (Impfstoff_bis_einschl_14.05.21)</t>
+    <t>Datenstand: 17.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 16.05.21 (Impfquote_bis_einschl_16.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 16.05.21 durchgeführt und bis zum 17.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 16.05.21 (Impfstoff_bis_einschl_16.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -270,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2307.000 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.308 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,12 +371,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -558,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -717,25 +716,16 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,9 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1261,7 +1249,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,102 +1274,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="80" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="81"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1433,55 +1421,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5161523</v>
+        <v>5268410</v>
       </c>
       <c r="D5" s="32">
-        <v>3974084</v>
+        <v>4028069</v>
       </c>
       <c r="E5" s="32">
-        <v>1187439</v>
+        <v>1240341</v>
       </c>
       <c r="F5" s="33">
-        <v>35.801287774109639</v>
+        <v>36.287621862791539</v>
       </c>
       <c r="G5" s="33">
-        <v>22.36836041856159</v>
+        <v>22.964233797347607</v>
       </c>
       <c r="H5" s="33">
-        <v>72.443814652688246</v>
+        <v>72.741495130692584</v>
       </c>
       <c r="I5" s="33">
-        <v>10.697268943787041</v>
+        <v>11.173846622020804</v>
       </c>
       <c r="J5" s="33">
-        <v>5.2186265476554539</v>
+        <v>5.6068356943937561</v>
       </c>
       <c r="K5" s="33">
-        <v>25.252411868618502</v>
+        <v>25.860070070848224</v>
       </c>
       <c r="L5" s="32">
-        <v>1373446</v>
+        <v>1416794</v>
       </c>
       <c r="M5" s="32">
-        <v>1484431</v>
+        <v>1491608</v>
       </c>
       <c r="N5" s="32">
-        <v>385687</v>
+        <v>416748</v>
       </c>
       <c r="O5" s="32">
-        <v>686556</v>
+        <v>703522</v>
       </c>
       <c r="P5" s="34">
-        <v>441967</v>
+        <v>446980</v>
       </c>
       <c r="Q5" s="34">
-        <v>677588</v>
+        <v>679295</v>
       </c>
       <c r="R5" s="34">
-        <v>37856</v>
+        <v>38302</v>
       </c>
       <c r="S5" s="34">
-        <v>67079</v>
+        <v>68248</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1492,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6246422</v>
+        <v>6368489</v>
       </c>
       <c r="D6" s="13">
-        <v>4909550</v>
+        <v>4990668</v>
       </c>
       <c r="E6" s="13">
-        <v>1336872</v>
+        <v>1377821</v>
       </c>
       <c r="F6" s="14">
-        <v>37.4068448000139</v>
+        <v>38.024899089406517</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>77</v>
@@ -1510,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>10.185895534516234</v>
+        <v>10.497894167326933</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>77</v>
@@ -1531,16 +1519,16 @@
         <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>701655</v>
+        <v>708809</v>
       </c>
       <c r="Q6" s="18">
-        <v>845387</v>
+        <v>847550</v>
       </c>
       <c r="R6" s="17">
-        <v>41800</v>
+        <v>42490</v>
       </c>
       <c r="S6" s="18">
-        <v>49221</v>
+        <v>49908</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1551,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1672408</v>
+        <v>1703655</v>
       </c>
       <c r="D7" s="37">
-        <v>1221514</v>
+        <v>1239382</v>
       </c>
       <c r="E7" s="37">
-        <v>450894</v>
+        <v>464273</v>
       </c>
       <c r="F7" s="38">
-        <v>33.288377052839209</v>
+        <v>33.775311071753549</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>77</v>
@@ -1569,7 +1557,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>12.287644253658069</v>
+        <v>12.652245229651744</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>77</v>
@@ -1590,16 +1578,16 @@
         <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>266681</v>
+        <v>268180</v>
       </c>
       <c r="Q7" s="41">
-        <v>123450</v>
+        <v>123572</v>
       </c>
       <c r="R7" s="41">
-        <v>19775</v>
+        <v>19856</v>
       </c>
       <c r="S7" s="41">
-        <v>12023</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1610,55 +1598,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1102159</v>
+        <v>1114386</v>
       </c>
       <c r="D8" s="13">
-        <v>805519</v>
+        <v>812627</v>
       </c>
       <c r="E8" s="13">
-        <v>296640</v>
+        <v>301759</v>
       </c>
       <c r="F8" s="14">
-        <v>31.94104587308026</v>
+        <v>32.222897640780161</v>
       </c>
       <c r="G8" s="44">
-        <v>17.661466810314991</v>
+        <v>17.933440182128091</v>
       </c>
       <c r="H8" s="44">
-        <v>60.171417440425948</v>
+        <v>60.473345886630739</v>
       </c>
       <c r="I8" s="44">
-        <v>11.762592623874209</v>
+        <v>11.965575066031747</v>
       </c>
       <c r="J8" s="63">
-        <v>5.8757370999012561</v>
+        <v>6.0084402265005128</v>
       </c>
       <c r="K8" s="44">
-        <v>23.607654144632264</v>
+        <v>23.953471034829388</v>
       </c>
       <c r="L8" s="17">
-        <v>198263</v>
+        <v>202318</v>
       </c>
       <c r="M8" s="18">
-        <v>297507</v>
+        <v>299691</v>
       </c>
       <c r="N8" s="17">
-        <v>85243</v>
+        <v>87447</v>
       </c>
       <c r="O8" s="18">
-        <v>168081</v>
+        <v>170886</v>
       </c>
       <c r="P8" s="17">
-        <v>100258</v>
+        <v>100800</v>
       </c>
       <c r="Q8" s="18">
-        <v>202911</v>
+        <v>203238</v>
       </c>
       <c r="R8" s="17">
-        <v>14071</v>
+        <v>14110</v>
       </c>
       <c r="S8" s="18">
-        <v>28253</v>
+        <v>28324</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1669,55 +1657,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>352129</v>
+        <v>357057</v>
       </c>
       <c r="D9" s="37">
-        <v>256004</v>
+        <v>257581</v>
       </c>
       <c r="E9" s="37">
-        <v>96125</v>
+        <v>99476</v>
       </c>
       <c r="F9" s="38">
-        <v>37.581216731600904</v>
+        <v>37.812719281505345</v>
       </c>
       <c r="G9" s="64">
-        <v>21.554197103885191</v>
+        <v>21.745103109444695</v>
       </c>
       <c r="H9" s="64">
-        <v>81.050946861875246</v>
+        <v>81.390377778016472</v>
       </c>
       <c r="I9" s="64">
-        <v>14.111085992113939</v>
+        <v>14.603010560744096</v>
       </c>
       <c r="J9" s="64">
-        <v>5.2257741289029669</v>
+        <v>5.4869820285732755</v>
       </c>
       <c r="K9" s="64">
-        <v>36.872294488544206</v>
+        <v>37.977593262940808</v>
       </c>
       <c r="L9" s="42">
-        <v>72486</v>
+        <v>73112</v>
       </c>
       <c r="M9" s="42">
-        <v>120518</v>
+        <v>121124</v>
       </c>
       <c r="N9" s="42">
-        <v>23859</v>
+        <v>25150</v>
       </c>
       <c r="O9" s="42">
-        <v>66346</v>
+        <v>68401</v>
       </c>
       <c r="P9" s="42">
-        <v>34209</v>
+        <v>34528</v>
       </c>
       <c r="Q9" s="42">
-        <v>30394</v>
+        <v>30420</v>
       </c>
       <c r="R9" s="42">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="S9" s="42">
-        <v>2308</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1728,55 +1716,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>841256</v>
+        <v>854467</v>
       </c>
       <c r="D10" s="13">
-        <v>658609</v>
+        <v>665343</v>
       </c>
       <c r="E10" s="13">
-        <v>182647</v>
+        <v>189124</v>
       </c>
       <c r="F10" s="14">
-        <v>35.653427007562037</v>
+        <v>36.017968302122121</v>
       </c>
       <c r="G10" s="44">
-        <v>24.521000672304588</v>
+        <v>24.957432504157673</v>
       </c>
       <c r="H10" s="44">
-        <v>71.895864376800716</v>
+        <v>72.034509204220143</v>
       </c>
       <c r="I10" s="44">
-        <v>9.887492400878493</v>
+        <v>10.23812114528979</v>
       </c>
       <c r="J10" s="44">
-        <v>5.6990906195817557</v>
+        <v>6.1009164573086583</v>
       </c>
       <c r="K10" s="44">
-        <v>23.272524602547655</v>
+        <v>23.448479167578299</v>
       </c>
       <c r="L10" s="18">
-        <v>268370</v>
+        <v>274020</v>
       </c>
       <c r="M10" s="18">
-        <v>223572</v>
+        <v>224047</v>
       </c>
       <c r="N10" s="18">
-        <v>76199</v>
+        <v>81811</v>
       </c>
       <c r="O10" s="18">
-        <v>95859</v>
+        <v>96604</v>
       </c>
       <c r="P10" s="18">
-        <v>78124</v>
+        <v>78641</v>
       </c>
       <c r="Q10" s="18">
-        <v>88602</v>
+        <v>88729</v>
       </c>
       <c r="R10" s="18">
-        <v>4332</v>
+        <v>4398</v>
       </c>
       <c r="S10" s="18">
-        <v>5191</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1787,55 +1775,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2909100</v>
+        <v>2967320</v>
       </c>
       <c r="D11" s="37">
-        <v>2293772</v>
+        <v>2328258</v>
       </c>
       <c r="E11" s="37">
-        <v>615328</v>
+        <v>639062</v>
       </c>
       <c r="F11" s="38">
-        <v>36.478098243024895</v>
+        <v>37.026532741313723</v>
       </c>
       <c r="G11" s="64">
-        <v>23.565296027734199</v>
+        <v>24.140284499527059</v>
       </c>
       <c r="H11" s="64">
-        <v>70.843148768206603</v>
+        <v>71.320872099932203</v>
       </c>
       <c r="I11" s="64">
-        <v>9.7856261370720468</v>
+        <v>10.16307044439638</v>
       </c>
       <c r="J11" s="64">
-        <v>4.2123675131185312</v>
+        <v>4.5586293552341566</v>
       </c>
       <c r="K11" s="64">
-        <v>24.625673682518155</v>
+        <v>25.086154469896616</v>
       </c>
       <c r="L11" s="41">
-        <v>790697</v>
+        <v>815336</v>
       </c>
       <c r="M11" s="41">
-        <v>862173</v>
+        <v>869675</v>
       </c>
       <c r="N11" s="41">
-        <v>173718</v>
+        <v>189134</v>
       </c>
       <c r="O11" s="41">
-        <v>398431</v>
+        <v>406211</v>
       </c>
       <c r="P11" s="41">
-        <v>286566</v>
+        <v>288212</v>
       </c>
       <c r="Q11" s="41">
-        <v>353980</v>
+        <v>354679</v>
       </c>
       <c r="R11" s="41">
-        <v>18846</v>
+        <v>19259</v>
       </c>
       <c r="S11" s="41">
-        <v>24314</v>
+        <v>24439</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1846,55 +1834,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>791149</v>
+        <v>794509</v>
       </c>
       <c r="D12" s="13">
-        <v>624563</v>
+        <v>626394</v>
       </c>
       <c r="E12" s="13">
-        <v>166586</v>
+        <v>168115</v>
       </c>
       <c r="F12" s="14">
-        <v>38.837649505204155</v>
+        <v>38.951507892979329</v>
       </c>
       <c r="G12" s="44">
-        <v>23.540329448131239</v>
+        <v>23.664407072143216</v>
       </c>
       <c r="H12" s="44">
-        <v>69.075977633011604</v>
+        <v>69.189842582169163</v>
       </c>
       <c r="I12" s="44">
-        <v>10.358936857409004</v>
+        <v>10.454015762328856</v>
       </c>
       <c r="J12" s="44">
-        <v>4.5078723172785828</v>
+        <v>4.5805557327050987</v>
       </c>
       <c r="K12" s="44">
-        <v>21.720892464982374</v>
+        <v>21.839924705187592</v>
       </c>
       <c r="L12" s="18">
-        <v>164524</v>
+        <v>165724</v>
       </c>
       <c r="M12" s="18">
-        <v>222124</v>
+        <v>222649</v>
       </c>
       <c r="N12" s="18">
-        <v>39925</v>
+        <v>40672</v>
       </c>
       <c r="O12" s="18">
-        <v>105660</v>
+        <v>106290</v>
       </c>
       <c r="P12" s="18">
-        <v>86479</v>
+        <v>86602</v>
       </c>
       <c r="Q12" s="18">
-        <v>152178</v>
+        <v>152270</v>
       </c>
       <c r="R12" s="18">
-        <v>8141</v>
+        <v>8169</v>
       </c>
       <c r="S12" s="18">
-        <v>12039</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1905,55 +1893,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3770567</v>
+        <v>3817325</v>
       </c>
       <c r="D13" s="37">
-        <v>3017154</v>
+        <v>3049767</v>
       </c>
       <c r="E13" s="37">
-        <v>753413</v>
+        <v>767558</v>
       </c>
       <c r="F13" s="38">
-        <v>37.744582921754485</v>
+        <v>38.152571404552241</v>
       </c>
       <c r="G13" s="64">
-        <v>22.813710166760639</v>
+        <v>23.304400084706721</v>
       </c>
       <c r="H13" s="64">
-        <v>75.005480296658078</v>
+        <v>75.22581632639826</v>
       </c>
       <c r="I13" s="64">
-        <v>9.4251932293902829</v>
+        <v>9.6021471155453195</v>
       </c>
       <c r="J13" s="64">
-        <v>3.3200211872425194</v>
+        <v>3.4424164159233848</v>
       </c>
       <c r="K13" s="64">
-        <v>23.828935188087673</v>
+        <v>24.124417218551635</v>
       </c>
       <c r="L13" s="42">
-        <v>922124</v>
+        <v>945558</v>
       </c>
       <c r="M13" s="42">
-        <v>1196002</v>
+        <v>1199145</v>
       </c>
       <c r="N13" s="42">
-        <v>166434</v>
+        <v>173121</v>
       </c>
       <c r="O13" s="42">
-        <v>526003</v>
+        <v>532572</v>
       </c>
       <c r="P13" s="42">
-        <v>373872</v>
+        <v>378313</v>
       </c>
       <c r="Q13" s="42">
-        <v>538748</v>
+        <v>540701</v>
       </c>
       <c r="R13" s="42">
-        <v>22169</v>
+        <v>22435</v>
       </c>
       <c r="S13" s="42">
-        <v>25120</v>
+        <v>25385</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1964,55 +1952,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>8714530</v>
+        <v>8869664</v>
       </c>
       <c r="D14" s="13">
-        <v>6927138</v>
+        <v>7015861</v>
       </c>
       <c r="E14" s="13">
-        <v>1787392</v>
+        <v>1853803</v>
       </c>
       <c r="F14" s="14">
-        <v>38.597273639189048</v>
+        <v>39.091628726252381</v>
       </c>
       <c r="G14" s="44">
-        <v>24.052588774091483</v>
+        <v>24.623664747222669</v>
       </c>
       <c r="H14" s="44">
-        <v>76.143291817403224</v>
+        <v>76.449735522467392</v>
       </c>
       <c r="I14" s="44">
-        <v>9.9591574651028143</v>
+        <v>10.329192469407939</v>
       </c>
       <c r="J14" s="44">
-        <v>4.587605747719123</v>
+        <v>4.7761388683000279</v>
       </c>
       <c r="K14" s="44">
-        <v>23.707112175489325</v>
+        <v>24.534920577051309</v>
       </c>
       <c r="L14" s="18">
-        <v>2059753</v>
+        <v>2118227</v>
       </c>
       <c r="M14" s="18">
-        <v>2627675</v>
+        <v>2639510</v>
       </c>
       <c r="N14" s="18">
-        <v>540864</v>
+        <v>564400</v>
       </c>
       <c r="O14" s="18">
-        <v>1124702</v>
+        <v>1165431</v>
       </c>
       <c r="P14" s="18">
-        <v>1049694</v>
+        <v>1065047</v>
       </c>
       <c r="Q14" s="18">
-        <v>1194352</v>
+        <v>1197899</v>
       </c>
       <c r="R14" s="18">
-        <v>52208</v>
+        <v>53045</v>
       </c>
       <c r="S14" s="18">
-        <v>65281</v>
+        <v>66104</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2023,55 +2011,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1952233</v>
+        <v>1970369</v>
       </c>
       <c r="D15" s="37">
-        <v>1430386</v>
+        <v>1443859</v>
       </c>
       <c r="E15" s="37">
-        <v>521847</v>
+        <v>526510</v>
       </c>
       <c r="F15" s="38">
-        <v>34.93942089004063</v>
+        <v>35.268520040655581</v>
       </c>
       <c r="G15" s="64">
-        <v>20.499957201946071</v>
+        <v>20.808862510561454</v>
       </c>
       <c r="H15" s="64">
-        <v>69.867329670100077</v>
+        <v>70.245325199005492</v>
       </c>
       <c r="I15" s="64">
-        <v>12.746931229196198</v>
+        <v>12.86083231576322</v>
       </c>
       <c r="J15" s="64">
-        <v>6.4624371144723689</v>
+        <v>6.5377133690075819</v>
       </c>
       <c r="K15" s="64">
-        <v>27.964314815201725</v>
+        <v>28.171740175083048</v>
       </c>
       <c r="L15" s="42">
-        <v>428004</v>
+        <v>434348</v>
       </c>
       <c r="M15" s="42">
-        <v>565631</v>
+        <v>569260</v>
       </c>
       <c r="N15" s="42">
-        <v>175039</v>
+        <v>177071</v>
       </c>
       <c r="O15" s="42">
-        <v>311972</v>
+        <v>314200</v>
       </c>
       <c r="P15" s="42">
-        <v>165947</v>
+        <v>168553</v>
       </c>
       <c r="Q15" s="42">
-        <v>270384</v>
+        <v>271278</v>
       </c>
       <c r="R15" s="42">
-        <v>12199</v>
+        <v>12348</v>
       </c>
       <c r="S15" s="42">
-        <v>22642</v>
+        <v>22896</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2082,55 +2070,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>516287</v>
+        <v>523240</v>
       </c>
       <c r="D16" s="13">
-        <v>404975</v>
+        <v>408966</v>
       </c>
       <c r="E16" s="13">
-        <v>111312</v>
+        <v>114274</v>
       </c>
       <c r="F16" s="14">
-        <v>41.035599820445498</v>
+        <v>41.440002756141283</v>
       </c>
       <c r="G16" s="44">
-        <v>25.509990959352891</v>
+        <v>25.903244189966973</v>
       </c>
       <c r="H16" s="44">
-        <v>73.908099348981779</v>
+        <v>74.336109873934319</v>
       </c>
       <c r="I16" s="44">
-        <v>11.279102876013161</v>
+        <v>11.579238555173998</v>
       </c>
       <c r="J16" s="44">
-        <v>4.0571022786607909</v>
+        <v>4.1912201293140745</v>
       </c>
       <c r="K16" s="44">
-        <v>26.570451164157038</v>
+        <v>27.22210113683386</v>
       </c>
       <c r="L16" s="18">
-        <v>119805</v>
+        <v>122197</v>
       </c>
       <c r="M16" s="18">
-        <v>171746</v>
+        <v>173001</v>
       </c>
       <c r="N16" s="18">
-        <v>23507</v>
+        <v>24348</v>
       </c>
       <c r="O16" s="18">
-        <v>80032</v>
+        <v>82082</v>
       </c>
       <c r="P16" s="18">
-        <v>51190</v>
+        <v>51434</v>
       </c>
       <c r="Q16" s="18">
-        <v>62233</v>
+        <v>62333</v>
       </c>
       <c r="R16" s="18">
-        <v>3688</v>
+        <v>3746</v>
       </c>
       <c r="S16" s="18">
-        <v>4085</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2141,16 +2129,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1875928</v>
+        <v>1912294</v>
       </c>
       <c r="D17" s="37">
-        <v>1280419</v>
+        <v>1302149</v>
       </c>
       <c r="E17" s="37">
-        <v>595509</v>
+        <v>610145</v>
       </c>
       <c r="F17" s="38">
-        <v>31.444698402812794</v>
+        <v>31.978346604138391</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>77</v>
@@ -2159,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>14.624588436410772</v>
+        <v>14.984021251624826</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>77</v>
@@ -2180,16 +2168,16 @@
         <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>102296</v>
+        <v>102525</v>
       </c>
       <c r="Q17" s="41">
-        <v>269173</v>
+        <v>269655</v>
       </c>
       <c r="R17" s="41">
-        <v>17432</v>
+        <v>17491</v>
       </c>
       <c r="S17" s="41">
-        <v>49239</v>
+        <v>49304</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2200,16 +2188,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1017150</v>
+        <v>1024732</v>
       </c>
       <c r="D18" s="13">
-        <v>773738</v>
+        <v>776296</v>
       </c>
       <c r="E18" s="13">
-        <v>243412</v>
+        <v>248436</v>
       </c>
       <c r="F18" s="14">
-        <v>35.253524040200801</v>
+        <v>35.37007320089193</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>77</v>
@@ -2218,7 +2206,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>11.090486435554874</v>
+        <v>11.319392996662083</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>77</v>
@@ -2239,16 +2227,16 @@
         <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>66688</v>
+        <v>66757</v>
       </c>
       <c r="Q18" s="18">
-        <v>164811</v>
+        <v>164856</v>
       </c>
       <c r="R18" s="17">
-        <v>5475</v>
+        <v>5505</v>
       </c>
       <c r="S18" s="18">
-        <v>11700</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2259,55 +2247,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1370446</v>
+        <v>1396932</v>
       </c>
       <c r="D19" s="37">
-        <v>989653</v>
+        <v>1002124</v>
       </c>
       <c r="E19" s="37">
-        <v>380793</v>
+        <v>394808</v>
       </c>
       <c r="F19" s="38">
-        <v>34.081624148995118</v>
+        <v>34.511099869032464</v>
       </c>
       <c r="G19" s="64">
-        <v>19.597683258913882</v>
+        <v>20.021466581952556</v>
       </c>
       <c r="H19" s="64">
-        <v>68.098265635973846</v>
+        <v>68.541111427612591</v>
       </c>
       <c r="I19" s="64">
-        <v>13.113731686326721</v>
+        <v>13.596379606808107</v>
       </c>
       <c r="J19" s="64">
-        <v>6.7457702682929943</v>
+        <v>7.2094720065362106</v>
       </c>
       <c r="K19" s="64">
-        <v>28.069965022101929</v>
+        <v>28.597112968346906</v>
       </c>
       <c r="L19" s="42">
-        <v>278708</v>
+        <v>286137</v>
       </c>
       <c r="M19" s="42">
-        <v>372606</v>
+        <v>375344</v>
       </c>
       <c r="N19" s="42">
-        <v>128782</v>
+        <v>138154</v>
       </c>
       <c r="O19" s="42">
-        <v>226837</v>
+        <v>231298</v>
       </c>
       <c r="P19" s="42">
-        <v>120429</v>
+        <v>121631</v>
       </c>
       <c r="Q19" s="42">
-        <v>217887</v>
+        <v>218989</v>
       </c>
       <c r="R19" s="42">
-        <v>8606</v>
+        <v>8678</v>
       </c>
       <c r="S19" s="42">
-        <v>16563</v>
+        <v>16673</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2318,55 +2306,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1030445</v>
+        <v>1041879</v>
       </c>
       <c r="D20" s="13">
-        <v>709837</v>
+        <v>719375</v>
       </c>
       <c r="E20" s="13">
-        <v>320608</v>
+        <v>322504</v>
       </c>
       <c r="F20" s="14">
-        <v>33.272912723389851</v>
+        <v>33.719997112560456</v>
       </c>
       <c r="G20" s="44">
-        <v>18.759204004214062</v>
+        <v>19.297295216697723</v>
       </c>
       <c r="H20" s="44">
-        <v>61.156181891859326</v>
+        <v>61.42847755374725</v>
       </c>
       <c r="I20" s="44">
-        <v>15.028185347369288</v>
+        <v>15.117058486587936</v>
       </c>
       <c r="J20" s="44">
-        <v>7.5170964601025574</v>
+        <v>7.6022758214640591</v>
       </c>
       <c r="K20" s="44">
-        <v>29.445989902198079</v>
+        <v>29.541957352667374</v>
       </c>
       <c r="L20" s="18">
-        <v>208115</v>
+        <v>214203</v>
       </c>
       <c r="M20" s="18">
-        <v>302410</v>
+        <v>303917</v>
       </c>
       <c r="N20" s="18">
-        <v>97987</v>
+        <v>98974</v>
       </c>
       <c r="O20" s="18">
-        <v>197861</v>
+        <v>198334</v>
       </c>
       <c r="P20" s="18">
-        <v>55062</v>
+        <v>56523</v>
       </c>
       <c r="Q20" s="18">
-        <v>144309</v>
+        <v>144791</v>
       </c>
       <c r="R20" s="18">
-        <v>7472</v>
+        <v>7680</v>
       </c>
       <c r="S20" s="18">
-        <v>17229</v>
+        <v>17457</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2375,13 +2363,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>90610</v>
+        <v>90664</v>
       </c>
       <c r="D21" s="37">
-        <v>76493</v>
+        <v>76513</v>
       </c>
       <c r="E21" s="37">
-        <v>14117</v>
+        <v>14151</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>77</v>
@@ -2402,7 +2390,7 @@
         <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>71743</v>
+        <v>71796</v>
       </c>
       <c r="M21" s="41">
         <v>6556</v>
@@ -2411,7 +2399,7 @@
         <v>11532</v>
       </c>
       <c r="O21" s="41">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>77</v>
@@ -2432,16 +2420,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>39414342</v>
+        <v>40075392</v>
       </c>
       <c r="D22" s="21">
-        <v>30353408</v>
+        <v>30743232</v>
       </c>
       <c r="E22" s="21">
-        <v>9060934</v>
+        <v>9332160</v>
       </c>
       <c r="F22" s="22">
-        <v>36.497064312186154</v>
+        <v>36.965790314829214</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>77</v>
@@ -2450,7 +2438,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>10.894904813537714</v>
+        <v>11.22102808658623</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>77</v>
@@ -2471,16 +2459,16 @@
         <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>3981117</v>
+        <v>4023535</v>
       </c>
       <c r="Q22" s="25">
-        <v>5336387</v>
+        <v>5350255</v>
       </c>
       <c r="R22" s="25">
-        <v>276079</v>
+        <v>279523</v>
       </c>
       <c r="S22" s="25">
-        <v>412287</v>
+        <v>416228</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2508,27 +2496,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2579,27 +2567,27 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2657,7 +2645,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,118 +2655,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="85" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="82" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="82" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="84"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2791,7 +2779,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2807,7 +2795,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +2808,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2824,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="85"/>
+      <c r="X4" s="82"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2846,70 +2834,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2847614</v>
+        <v>2894879</v>
       </c>
       <c r="D5" s="45">
-        <v>1788599</v>
+        <v>1823941</v>
       </c>
       <c r="E5" s="45">
-        <v>280380</v>
+        <v>291098</v>
       </c>
       <c r="F5" s="45">
-        <v>778635</v>
+        <v>779840</v>
       </c>
       <c r="G5" s="45">
-        <v>30254</v>
+        <v>22088</v>
       </c>
       <c r="H5" s="45">
-        <v>1082506</v>
+        <v>1133793</v>
       </c>
       <c r="I5" s="45">
-        <v>945658</v>
+        <v>974533</v>
       </c>
       <c r="J5" s="45">
-        <v>74469</v>
+        <v>81924</v>
       </c>
       <c r="K5" s="45">
-        <v>52110</v>
+        <v>63805</v>
       </c>
       <c r="L5" s="45">
-        <v>10269</v>
+        <v>13531</v>
       </c>
       <c r="M5" s="45">
-        <v>25655</v>
+        <v>24285</v>
       </c>
       <c r="N5" s="45">
-        <v>1126470</v>
+        <v>1133190</v>
       </c>
       <c r="O5" s="45">
-        <v>949629</v>
+        <v>952156</v>
       </c>
       <c r="P5" s="45">
         <v>316</v>
       </c>
       <c r="Q5" s="45">
-        <v>176525</v>
+        <v>180718</v>
       </c>
       <c r="R5" s="45">
-        <v>37966</v>
+        <v>2639</v>
       </c>
       <c r="S5" s="45">
-        <v>104933</v>
+        <v>106548</v>
       </c>
       <c r="T5" s="45">
-        <v>101288</v>
+        <v>102826</v>
       </c>
       <c r="U5" s="45">
         <v>43</v>
       </c>
       <c r="V5" s="45">
-        <v>3573</v>
+        <v>3650</v>
       </c>
       <c r="W5" s="45">
         <v>29</v>
       </c>
       <c r="X5" s="45">
-        <v>9330</v>
+        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2920,70 +2908,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3362201</v>
+        <v>3434002</v>
       </c>
       <c r="D6" s="46">
-        <v>2324285</v>
+        <v>2379736</v>
       </c>
       <c r="E6" s="46">
-        <v>314856</v>
+        <v>329488</v>
       </c>
       <c r="F6" s="46">
-        <v>723060</v>
+        <v>724778</v>
       </c>
       <c r="G6" s="46">
-        <v>44917</v>
+        <v>32251</v>
       </c>
       <c r="H6" s="46">
-        <v>1245852</v>
+        <v>1285424</v>
       </c>
       <c r="I6" s="46">
-        <v>1096022</v>
+        <v>1127925</v>
       </c>
       <c r="J6" s="46">
-        <v>98476</v>
+        <v>100937</v>
       </c>
       <c r="K6" s="46">
-        <v>51136</v>
+        <v>53874</v>
       </c>
       <c r="L6" s="46">
-        <v>218</v>
+        <v>2688</v>
       </c>
       <c r="M6" s="46">
-        <v>22534</v>
+        <v>17424</v>
       </c>
       <c r="N6" s="46">
-        <v>1547349</v>
+        <v>1556666</v>
       </c>
       <c r="O6" s="46">
-        <v>1171183</v>
+        <v>1174360</v>
       </c>
       <c r="P6" s="46">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="46">
-        <v>375732</v>
+        <v>381870</v>
       </c>
       <c r="R6" s="46">
-        <v>56488</v>
+        <v>2099</v>
       </c>
       <c r="S6" s="46">
-        <v>91020</v>
+        <v>92397</v>
       </c>
       <c r="T6" s="46">
-        <v>78240</v>
+        <v>79320</v>
       </c>
       <c r="U6" s="46">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="V6" s="46">
-        <v>12032</v>
+        <v>12307</v>
       </c>
       <c r="W6" s="46">
         <v>0</v>
       </c>
       <c r="X6" s="46">
-        <v>8781</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2994,70 +2982,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>829673</v>
+        <v>845920</v>
       </c>
       <c r="D7" s="45">
-        <v>560283</v>
+        <v>568808</v>
       </c>
       <c r="E7" s="45">
-        <v>83631</v>
+        <v>91351</v>
       </c>
       <c r="F7" s="45">
-        <v>185759</v>
+        <v>185761</v>
       </c>
       <c r="G7" s="45">
-        <v>8289</v>
+        <v>8331</v>
       </c>
       <c r="H7" s="45">
-        <v>419089</v>
+        <v>432370</v>
       </c>
       <c r="I7" s="45">
-        <v>363599</v>
+        <v>374695</v>
       </c>
       <c r="J7" s="45">
-        <v>51422</v>
+        <v>52526</v>
       </c>
       <c r="K7" s="45">
-        <v>929</v>
+        <v>1421</v>
       </c>
       <c r="L7" s="45">
-        <v>3139</v>
+        <v>3728</v>
       </c>
       <c r="M7" s="45">
-        <v>6610</v>
+        <v>6482</v>
       </c>
       <c r="N7" s="45">
-        <v>391841</v>
+        <v>393462</v>
       </c>
       <c r="O7" s="45">
-        <v>291883</v>
+        <v>292215</v>
       </c>
       <c r="P7" s="45">
         <v>121</v>
       </c>
       <c r="Q7" s="45">
-        <v>99837</v>
+        <v>101126</v>
       </c>
       <c r="R7" s="45">
-        <v>11219</v>
+        <v>132</v>
       </c>
       <c r="S7" s="45">
-        <v>31805</v>
+        <v>31903</v>
       </c>
       <c r="T7" s="45">
-        <v>26746</v>
+        <v>26788</v>
       </c>
       <c r="U7" s="45">
         <v>91</v>
       </c>
       <c r="V7" s="45">
-        <v>4968</v>
+        <v>5024</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>1903</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3068,70 +3056,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>494964</v>
+        <v>501203</v>
       </c>
       <c r="D8" s="46">
-        <v>326267</v>
+        <v>329635</v>
       </c>
       <c r="E8" s="46">
-        <v>62004</v>
+        <v>64874</v>
       </c>
       <c r="F8" s="46">
-        <v>106693</v>
+        <v>106694</v>
       </c>
       <c r="G8" s="46">
-        <v>4870</v>
+        <v>0</v>
       </c>
       <c r="H8" s="46">
-        <v>254130</v>
+        <v>259139</v>
       </c>
       <c r="I8" s="46">
-        <v>215201</v>
+        <v>218237</v>
       </c>
       <c r="J8" s="46">
-        <v>26283</v>
+        <v>27073</v>
       </c>
       <c r="K8" s="46">
-        <v>11840</v>
+        <v>13023</v>
       </c>
       <c r="L8" s="46">
         <v>806</v>
       </c>
       <c r="M8" s="46">
-        <v>6706</v>
+        <v>0</v>
       </c>
       <c r="N8" s="46">
-        <v>310555</v>
+        <v>311424</v>
       </c>
       <c r="O8" s="46">
-        <v>221912</v>
+        <v>222237</v>
       </c>
       <c r="P8" s="46">
         <v>576</v>
       </c>
       <c r="Q8" s="46">
-        <v>88067</v>
+        <v>88611</v>
       </c>
       <c r="R8" s="46">
-        <v>7236</v>
+        <v>358</v>
       </c>
       <c r="S8" s="46">
-        <v>42510</v>
+        <v>42620</v>
       </c>
       <c r="T8" s="46">
-        <v>39575</v>
+        <v>39639</v>
       </c>
       <c r="U8" s="46">
         <v>58</v>
       </c>
       <c r="V8" s="46">
-        <v>2877</v>
+        <v>2923</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>1545</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3142,70 +3130,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>191401</v>
+        <v>192633</v>
       </c>
       <c r="D9" s="45">
-        <v>116902</v>
+        <v>117456</v>
       </c>
       <c r="E9" s="45">
-        <v>13349</v>
+        <v>13512</v>
       </c>
       <c r="F9" s="45">
-        <v>61150</v>
+        <v>61665</v>
       </c>
       <c r="G9" s="45">
-        <v>2034</v>
+        <v>602</v>
       </c>
       <c r="H9" s="45">
-        <v>91808</v>
+        <v>95154</v>
       </c>
       <c r="I9" s="45">
-        <v>82776</v>
+        <v>85455</v>
       </c>
       <c r="J9" s="45">
-        <v>5506</v>
+        <v>5864</v>
       </c>
       <c r="K9" s="45">
-        <v>1921</v>
+        <v>2230</v>
       </c>
       <c r="L9" s="45">
         <v>1605</v>
       </c>
       <c r="M9" s="45">
-        <v>2386</v>
+        <v>948</v>
       </c>
       <c r="N9" s="45">
-        <v>64603</v>
+        <v>64948</v>
       </c>
       <c r="O9" s="45">
-        <v>53239</v>
+        <v>53343</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>11350</v>
+        <v>11591</v>
       </c>
       <c r="R9" s="45">
-        <v>2464</v>
+        <v>225</v>
       </c>
       <c r="S9" s="45">
-        <v>4317</v>
+        <v>4322</v>
       </c>
       <c r="T9" s="45">
-        <v>4104</v>
+        <v>4107</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>560</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3216,70 +3204,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>490870</v>
+        <v>496960</v>
       </c>
       <c r="D10" s="46">
-        <v>317946</v>
+        <v>322080</v>
       </c>
       <c r="E10" s="46">
-        <v>52617</v>
+        <v>54440</v>
       </c>
       <c r="F10" s="46">
-        <v>120307</v>
+        <v>120440</v>
       </c>
       <c r="G10" s="46">
-        <v>4464</v>
+        <v>3211</v>
       </c>
       <c r="H10" s="46">
-        <v>173130</v>
+        <v>179522</v>
       </c>
       <c r="I10" s="46">
-        <v>157835</v>
+        <v>163115</v>
       </c>
       <c r="J10" s="46">
-        <v>12197</v>
+        <v>13011</v>
       </c>
       <c r="K10" s="46">
-        <v>2025</v>
+        <v>2288</v>
       </c>
       <c r="L10" s="46">
-        <v>1073</v>
+        <v>1108</v>
       </c>
       <c r="M10" s="46">
-        <v>3290</v>
+        <v>3093</v>
       </c>
       <c r="N10" s="46">
-        <v>167739</v>
+        <v>168383</v>
       </c>
       <c r="O10" s="46">
-        <v>136556</v>
+        <v>136874</v>
       </c>
       <c r="P10" s="46">
         <v>2122</v>
       </c>
       <c r="Q10" s="46">
-        <v>29061</v>
+        <v>29387</v>
       </c>
       <c r="R10" s="46">
-        <v>4382</v>
+        <v>204</v>
       </c>
       <c r="S10" s="46">
-        <v>9517</v>
+        <v>9602</v>
       </c>
       <c r="T10" s="46">
-        <v>8778</v>
+        <v>8845</v>
       </c>
       <c r="U10" s="46">
         <v>16</v>
       </c>
       <c r="V10" s="46">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>629</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3290,70 +3278,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1652870</v>
+        <v>1685011</v>
       </c>
       <c r="D11" s="45">
-        <v>1013740</v>
+        <v>1040225</v>
       </c>
       <c r="E11" s="45">
-        <v>173770</v>
+        <v>178812</v>
       </c>
       <c r="F11" s="45">
-        <v>465360</v>
+        <v>465974</v>
       </c>
       <c r="G11" s="45">
-        <v>19112</v>
+        <v>15104</v>
       </c>
       <c r="H11" s="45">
-        <v>572149</v>
+        <v>595345</v>
       </c>
       <c r="I11" s="45">
-        <v>512884</v>
+        <v>525737</v>
       </c>
       <c r="J11" s="45">
-        <v>31417</v>
+        <v>33669</v>
       </c>
       <c r="K11" s="45">
-        <v>27848</v>
+        <v>35939</v>
       </c>
       <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="45">
-        <v>10718</v>
+        <v>10378</v>
       </c>
       <c r="N11" s="45">
-        <v>640902</v>
+        <v>643247</v>
       </c>
       <c r="O11" s="45">
-        <v>509480</v>
+        <v>510158</v>
       </c>
       <c r="P11" s="45">
         <v>156</v>
       </c>
       <c r="Q11" s="45">
-        <v>131266</v>
+        <v>132933</v>
       </c>
       <c r="R11" s="45">
-        <v>19703</v>
+        <v>718</v>
       </c>
       <c r="S11" s="45">
-        <v>43179</v>
+        <v>43717</v>
       </c>
       <c r="T11" s="45">
-        <v>39562</v>
+        <v>40015</v>
       </c>
       <c r="U11" s="45">
         <v>126</v>
       </c>
       <c r="V11" s="45">
-        <v>3448</v>
+        <v>3533</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>3171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3364,70 +3352,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>385828</v>
+        <v>387444</v>
       </c>
       <c r="D12" s="46">
-        <v>276642</v>
+        <v>277900</v>
       </c>
       <c r="E12" s="46">
-        <v>43439</v>
+        <v>43797</v>
       </c>
       <c r="F12" s="46">
         <v>65747</v>
       </c>
       <c r="G12" s="46">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="H12" s="46">
-        <v>146406</v>
+        <v>147892</v>
       </c>
       <c r="I12" s="46">
-        <v>132600</v>
+        <v>133710</v>
       </c>
       <c r="J12" s="46">
-        <v>11775</v>
+        <v>12041</v>
       </c>
       <c r="K12" s="46">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="L12" s="46">
-        <v>821</v>
+        <v>930</v>
       </c>
       <c r="M12" s="46">
-        <v>2182</v>
+        <v>0</v>
       </c>
       <c r="N12" s="46">
-        <v>238735</v>
+        <v>238950</v>
       </c>
       <c r="O12" s="46">
-        <v>179643</v>
+        <v>179750</v>
       </c>
       <c r="P12" s="46">
         <v>97</v>
       </c>
       <c r="Q12" s="46">
-        <v>58995</v>
+        <v>59103</v>
       </c>
       <c r="R12" s="46">
-        <v>5338</v>
+        <v>31</v>
       </c>
       <c r="S12" s="46">
-        <v>20180</v>
+        <v>20223</v>
       </c>
       <c r="T12" s="46">
-        <v>18194</v>
+        <v>18224</v>
       </c>
       <c r="U12" s="46">
         <v>46</v>
       </c>
       <c r="V12" s="46">
-        <v>1935</v>
+        <v>1948</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>1316</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3438,70 +3426,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2104443</v>
+        <v>2130662</v>
       </c>
       <c r="D13" s="45">
-        <v>1252424</v>
+        <v>1276207</v>
       </c>
       <c r="E13" s="45">
-        <v>198955</v>
+        <v>200256</v>
       </c>
       <c r="F13" s="45">
-        <v>653064</v>
+        <v>654199</v>
       </c>
       <c r="G13" s="45">
-        <v>26512</v>
+        <v>3831</v>
       </c>
       <c r="H13" s="45">
-        <v>706120</v>
+        <v>719734</v>
       </c>
       <c r="I13" s="45">
-        <v>620984</v>
+        <v>629765</v>
       </c>
       <c r="J13" s="45">
-        <v>54566</v>
+        <v>57611</v>
       </c>
       <c r="K13" s="45">
-        <v>16875</v>
+        <v>18305</v>
       </c>
       <c r="L13" s="45">
-        <v>13695</v>
+        <v>14053</v>
       </c>
       <c r="M13" s="45">
-        <v>11773</v>
+        <v>2386</v>
       </c>
       <c r="N13" s="45">
-        <v>912711</v>
+        <v>919105</v>
       </c>
       <c r="O13" s="45">
-        <v>709739</v>
+        <v>711517</v>
       </c>
       <c r="P13" s="45">
         <v>568</v>
       </c>
       <c r="Q13" s="45">
-        <v>202404</v>
+        <v>207020</v>
       </c>
       <c r="R13" s="45">
-        <v>29510</v>
+        <v>1441</v>
       </c>
       <c r="S13" s="45">
-        <v>47293</v>
+        <v>47824</v>
       </c>
       <c r="T13" s="45">
-        <v>40269</v>
+        <v>40625</v>
       </c>
       <c r="U13" s="45">
         <v>475</v>
       </c>
       <c r="V13" s="45">
-        <v>6549</v>
+        <v>6724</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
       </c>
       <c r="X13" s="45">
-        <v>3585</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3512,70 +3500,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4683092</v>
+        <v>4752915</v>
       </c>
       <c r="D14" s="46">
-        <v>3149785</v>
+        <v>3202152</v>
       </c>
       <c r="E14" s="46">
-        <v>387833</v>
+        <v>405138</v>
       </c>
       <c r="F14" s="46">
-        <v>1145474</v>
+        <v>1145625</v>
       </c>
       <c r="G14" s="46">
-        <v>29055</v>
+        <v>32169</v>
       </c>
       <c r="H14" s="46">
-        <v>1669903</v>
+        <v>1734654</v>
       </c>
       <c r="I14" s="46">
-        <v>1533809</v>
+        <v>1594497</v>
       </c>
       <c r="J14" s="46">
-        <v>104819</v>
+        <v>105598</v>
       </c>
       <c r="K14" s="46">
-        <v>26930</v>
+        <v>29728</v>
       </c>
       <c r="L14" s="46">
-        <v>4345</v>
+        <v>4831</v>
       </c>
       <c r="M14" s="46">
-        <v>26831</v>
+        <v>28839</v>
       </c>
       <c r="N14" s="46">
-        <v>2244046</v>
+        <v>2262946</v>
       </c>
       <c r="O14" s="46">
-        <v>1666408</v>
+        <v>1671941</v>
       </c>
       <c r="P14" s="46">
-        <v>6026</v>
+        <v>6286</v>
       </c>
       <c r="Q14" s="46">
-        <v>571612</v>
+        <v>584719</v>
       </c>
       <c r="R14" s="46">
-        <v>89378</v>
+        <v>3697</v>
       </c>
       <c r="S14" s="46">
-        <v>117489</v>
+        <v>119149</v>
       </c>
       <c r="T14" s="46">
-        <v>102334</v>
+        <v>103497</v>
       </c>
       <c r="U14" s="46">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="V14" s="46">
-        <v>13472</v>
+        <v>13956</v>
       </c>
       <c r="W14" s="46">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X14" s="46">
-        <v>12645</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3586,70 +3574,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>993635</v>
+        <v>1003608</v>
       </c>
       <c r="D15" s="45">
-        <v>652331</v>
+        <v>656724</v>
       </c>
       <c r="E15" s="45">
-        <v>77415</v>
+        <v>82982</v>
       </c>
       <c r="F15" s="45">
-        <v>263889</v>
+        <v>263902</v>
       </c>
       <c r="G15" s="45">
-        <v>5975</v>
+        <v>4060</v>
       </c>
       <c r="H15" s="45">
-        <v>487011</v>
+        <v>491271</v>
       </c>
       <c r="I15" s="45">
-        <v>421936</v>
+        <v>423875</v>
       </c>
       <c r="J15" s="45">
-        <v>36425</v>
+        <v>38318</v>
       </c>
       <c r="K15" s="45">
-        <v>28650</v>
+        <v>29078</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>11752</v>
+        <v>760</v>
       </c>
       <c r="N15" s="45">
-        <v>436751</v>
+        <v>440251</v>
       </c>
       <c r="O15" s="45">
-        <v>355519</v>
+        <v>356064</v>
       </c>
       <c r="P15" s="45">
         <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>81029</v>
+        <v>83984</v>
       </c>
       <c r="R15" s="45">
-        <v>13849</v>
+        <v>1720</v>
       </c>
       <c r="S15" s="45">
-        <v>34836</v>
+        <v>35239</v>
       </c>
       <c r="T15" s="45">
-        <v>33877</v>
+        <v>34256</v>
       </c>
       <c r="U15" s="45">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="V15" s="45">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>2958</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3660,70 +3648,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>291551</v>
+        <v>295198</v>
       </c>
       <c r="D16" s="46">
-        <v>220312</v>
+        <v>223943</v>
       </c>
       <c r="E16" s="46">
-        <v>29179</v>
+        <v>29189</v>
       </c>
       <c r="F16" s="46">
-        <v>42060</v>
+        <v>42066</v>
       </c>
       <c r="G16" s="46">
-        <v>3163</v>
+        <v>286</v>
       </c>
       <c r="H16" s="46">
-        <v>103539</v>
+        <v>106430</v>
       </c>
       <c r="I16" s="46">
-        <v>92345</v>
+        <v>94148</v>
       </c>
       <c r="J16" s="46">
-        <v>7936</v>
+        <v>8830</v>
       </c>
       <c r="K16" s="46">
-        <v>3258</v>
+        <v>3452</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>2428</v>
+        <v>749</v>
       </c>
       <c r="N16" s="46">
-        <v>113424</v>
+        <v>113768</v>
       </c>
       <c r="O16" s="46">
-        <v>93866</v>
+        <v>94035</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>19479</v>
+        <v>19654</v>
       </c>
       <c r="R16" s="46">
-        <v>3320</v>
+        <v>121</v>
       </c>
       <c r="S16" s="46">
-        <v>7773</v>
+        <v>7844</v>
       </c>
       <c r="T16" s="46">
-        <v>7033</v>
+        <v>7076</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>674</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3734,70 +3722,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>905012</v>
+        <v>926031</v>
       </c>
       <c r="D17" s="45">
-        <v>641223</v>
+        <v>655678</v>
       </c>
       <c r="E17" s="45">
-        <v>82846</v>
+        <v>88856</v>
       </c>
       <c r="F17" s="45">
-        <v>180943</v>
+        <v>181497</v>
       </c>
       <c r="G17" s="45">
-        <v>10366</v>
+        <v>10817</v>
       </c>
       <c r="H17" s="45">
-        <v>528836</v>
+        <v>543348</v>
       </c>
       <c r="I17" s="45">
-        <v>485143</v>
+        <v>497454</v>
       </c>
       <c r="J17" s="45">
-        <v>41517</v>
+        <v>42922</v>
       </c>
       <c r="K17" s="45">
-        <v>2176</v>
+        <v>2972</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="45">
-        <v>8562</v>
+        <v>7507</v>
       </c>
       <c r="N17" s="45">
-        <v>375407</v>
+        <v>376118</v>
       </c>
       <c r="O17" s="45">
-        <v>276672</v>
+        <v>277098</v>
       </c>
       <c r="P17" s="45">
         <v>174</v>
       </c>
       <c r="Q17" s="45">
-        <v>98561</v>
+        <v>98846</v>
       </c>
       <c r="R17" s="45">
-        <v>4766</v>
+        <v>105</v>
       </c>
       <c r="S17" s="45">
-        <v>66673</v>
+        <v>66797</v>
       </c>
       <c r="T17" s="45">
-        <v>65121</v>
+        <v>65236</v>
       </c>
       <c r="U17" s="45">
         <v>35</v>
       </c>
       <c r="V17" s="45">
-        <v>1479</v>
+        <v>1488</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>1241</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3808,58 +3796,58 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>541756</v>
+        <v>544200</v>
       </c>
       <c r="D18" s="47">
-        <v>357726</v>
+        <v>360161</v>
       </c>
       <c r="E18" s="47">
-        <v>53946</v>
+        <v>53861</v>
       </c>
       <c r="F18" s="47">
-        <v>130084</v>
+        <v>130178</v>
       </c>
       <c r="G18" s="47">
-        <v>3933</v>
+        <v>613</v>
       </c>
       <c r="H18" s="47">
-        <v>226237</v>
+        <v>231154</v>
       </c>
       <c r="I18" s="47">
-        <v>189888</v>
+        <v>193976</v>
       </c>
       <c r="J18" s="47">
-        <v>28117</v>
+        <v>28124</v>
       </c>
       <c r="K18" s="47">
-        <v>6993</v>
+        <v>6853</v>
       </c>
       <c r="L18" s="47">
-        <v>1239</v>
+        <v>2201</v>
       </c>
       <c r="M18" s="47">
-        <v>7314</v>
+        <v>1567</v>
       </c>
       <c r="N18" s="46">
-        <v>231982</v>
+        <v>232096</v>
       </c>
       <c r="O18" s="46">
-        <v>193927</v>
+        <v>193993</v>
       </c>
       <c r="P18" s="46">
         <v>36</v>
       </c>
       <c r="Q18" s="46">
-        <v>38019</v>
+        <v>38067</v>
       </c>
       <c r="R18" s="46">
-        <v>4435</v>
+        <v>96</v>
       </c>
       <c r="S18" s="46">
-        <v>17175</v>
+        <v>17282</v>
       </c>
       <c r="T18" s="46">
-        <v>15852</v>
+        <v>15959</v>
       </c>
       <c r="U18" s="46">
         <v>26</v>
@@ -3871,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>1355</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3882,70 +3870,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>651314</v>
+        <v>661481</v>
       </c>
       <c r="D19" s="45">
-        <v>451147</v>
+        <v>458939</v>
       </c>
       <c r="E19" s="45">
-        <v>55010</v>
+        <v>57305</v>
       </c>
       <c r="F19" s="45">
-        <v>145157</v>
+        <v>145237</v>
       </c>
       <c r="G19" s="45">
-        <v>5355</v>
+        <v>5123</v>
       </c>
       <c r="H19" s="45">
-        <v>355619</v>
+        <v>369452</v>
       </c>
       <c r="I19" s="45">
-        <v>309918</v>
+        <v>319322</v>
       </c>
       <c r="J19" s="45">
-        <v>32819</v>
+        <v>34727</v>
       </c>
       <c r="K19" s="45">
-        <v>12882</v>
+        <v>15403</v>
       </c>
       <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="45">
-        <v>9053</v>
+        <v>6658</v>
       </c>
       <c r="N19" s="45">
-        <v>338339</v>
+        <v>340643</v>
       </c>
       <c r="O19" s="45">
-        <v>264681</v>
+        <v>265090</v>
       </c>
       <c r="P19" s="45">
-        <v>2354</v>
+        <v>2401</v>
       </c>
       <c r="Q19" s="45">
-        <v>71304</v>
+        <v>73152</v>
       </c>
       <c r="R19" s="45">
-        <v>7853</v>
+        <v>250</v>
       </c>
       <c r="S19" s="45">
-        <v>25174</v>
+        <v>25356</v>
       </c>
       <c r="T19" s="45">
-        <v>23426</v>
+        <v>23570</v>
       </c>
       <c r="U19" s="45">
         <v>386</v>
       </c>
       <c r="V19" s="45">
-        <v>1362</v>
+        <v>1400</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>1278</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3956,70 +3944,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>510466</v>
+        <v>518061</v>
       </c>
       <c r="D20" s="47">
-        <v>350883</v>
+        <v>351277</v>
       </c>
       <c r="E20" s="47">
-        <v>50546</v>
+        <v>57728</v>
       </c>
       <c r="F20" s="47">
-        <v>109037</v>
+        <v>109056</v>
       </c>
       <c r="G20" s="47">
-        <v>7147</v>
+        <v>2970</v>
       </c>
       <c r="H20" s="47">
-        <v>295907</v>
+        <v>297367</v>
       </c>
       <c r="I20" s="47">
-        <v>275153</v>
+        <v>276476</v>
       </c>
       <c r="J20" s="47">
-        <v>19899</v>
+        <v>19937</v>
       </c>
       <c r="K20" s="47">
-        <v>796</v>
+        <v>895</v>
       </c>
       <c r="L20" s="47">
         <v>59</v>
       </c>
       <c r="M20" s="47">
-        <v>2044</v>
+        <v>213</v>
       </c>
       <c r="N20" s="47">
-        <v>199371</v>
+        <v>201314</v>
       </c>
       <c r="O20" s="46">
-        <v>167568</v>
+        <v>168664</v>
       </c>
       <c r="P20" s="46">
         <v>94</v>
       </c>
       <c r="Q20" s="46">
-        <v>31709</v>
+        <v>32556</v>
       </c>
       <c r="R20" s="46">
-        <v>1879</v>
+        <v>310</v>
       </c>
       <c r="S20" s="46">
-        <v>24701</v>
+        <v>25137</v>
       </c>
       <c r="T20" s="46">
-        <v>21199</v>
+        <v>21416</v>
       </c>
       <c r="U20" s="46">
         <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>3488</v>
+        <v>3707</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>580</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4028,37 +4016,37 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>76493</v>
+        <v>76513</v>
       </c>
       <c r="D21" s="45">
         <v>1611</v>
       </c>
       <c r="E21" s="45">
-        <v>57018</v>
+        <v>57032</v>
       </c>
       <c r="F21" s="45">
-        <v>17864</v>
+        <v>17870</v>
       </c>
       <c r="G21" s="45">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="H21" s="45">
-        <v>14117</v>
+        <v>14151</v>
       </c>
       <c r="I21" s="55">
         <v>21</v>
       </c>
       <c r="J21" s="55">
-        <v>12088</v>
+        <v>12089</v>
       </c>
       <c r="K21" s="55">
         <v>200</v>
       </c>
       <c r="L21" s="55">
-        <v>1808</v>
+        <v>1841</v>
       </c>
       <c r="M21" s="55">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>77</v>
@@ -4098,70 +4086,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>21013183</v>
+        <v>21346721</v>
       </c>
       <c r="D22" s="57">
-        <v>13802106</v>
+        <v>14046473</v>
       </c>
       <c r="E22" s="57">
-        <v>2016794</v>
+        <v>2099719</v>
       </c>
       <c r="F22" s="57">
-        <v>5194283</v>
+        <v>5200529</v>
       </c>
       <c r="G22" s="57">
-        <v>209899</v>
+        <v>141456</v>
       </c>
       <c r="H22" s="57">
-        <v>8372359</v>
+        <v>8636200</v>
       </c>
       <c r="I22" s="57">
-        <v>7435772</v>
+        <v>7632941</v>
       </c>
       <c r="J22" s="57">
-        <v>649731</v>
+        <v>675201</v>
       </c>
       <c r="K22" s="57">
-        <v>247779</v>
+        <v>280677</v>
       </c>
       <c r="L22" s="57">
-        <v>39077</v>
+        <v>47381</v>
       </c>
       <c r="M22" s="57">
-        <v>160043</v>
+        <v>111289</v>
       </c>
       <c r="N22" s="57">
-        <v>9340225</v>
+        <v>9396511</v>
       </c>
       <c r="O22" s="57">
-        <v>7241905</v>
+        <v>7259495</v>
       </c>
       <c r="P22" s="57">
-        <v>13370</v>
+        <v>13679</v>
       </c>
       <c r="Q22" s="57">
-        <v>2084950</v>
+        <v>2123337</v>
       </c>
       <c r="R22" s="57">
-        <v>299786</v>
+        <v>14146</v>
       </c>
       <c r="S22" s="57">
-        <v>688575</v>
+        <v>695960</v>
       </c>
       <c r="T22" s="57">
-        <v>625598</v>
+        <v>631399</v>
       </c>
       <c r="U22" s="57">
-        <v>3596</v>
+        <v>3633</v>
       </c>
       <c r="V22" s="57">
-        <v>59025</v>
+        <v>60571</v>
       </c>
       <c r="W22" s="57">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="X22" s="57">
-        <v>51551</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4176,29 +4164,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4227,23 +4215,21 @@
     <mergeCell ref="S3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>78</v>
       </c>
@@ -4256,272 +4242,289 @@
       <c r="D1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="69">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="68">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>23987</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
       <c r="D2" s="45">
         <v>23987</v>
       </c>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18523</v>
-      </c>
-      <c r="C3" s="72"/>
+        <v>18522</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
       <c r="D3" s="46">
-        <v>18523</v>
-      </c>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="68">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50008</v>
-      </c>
-      <c r="C4" s="70"/>
+        <v>50005</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
       <c r="D4" s="45">
-        <v>50008</v>
-      </c>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62547</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
       <c r="D5" s="46">
         <v>62547</v>
       </c>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>49870</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
       <c r="D6" s="45">
         <v>49870</v>
       </c>
-      <c r="E6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>18770</v>
-      </c>
-      <c r="C7" s="72"/>
+        <v>18771</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="46">
-        <v>18770</v>
-      </c>
-      <c r="E7" s="68"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+        <v>18771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="68">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52134</v>
-      </c>
-      <c r="C8" s="70"/>
+        <v>52132</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
       <c r="D8" s="45">
-        <v>52134</v>
-      </c>
-      <c r="E8" s="68"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+        <v>52132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23772</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
       <c r="D9" s="46">
         <v>23772</v>
       </c>
-      <c r="E9" s="68"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
         <v>48025</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
       <c r="D10" s="45">
         <v>48025</v>
       </c>
-      <c r="E10" s="68"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53686</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
       <c r="D11" s="46">
         <v>53686</v>
       </c>
-      <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62665</v>
-      </c>
-      <c r="C12" s="70"/>
+        <v>62664</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
       <c r="D12" s="45">
-        <v>62665</v>
-      </c>
-      <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+        <v>62664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
         <v>55938</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
       <c r="D13" s="46">
         <v>55938</v>
       </c>
-      <c r="E13" s="68"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62736</v>
-      </c>
-      <c r="C14" s="70"/>
+        <v>62733</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <v>62736</v>
-      </c>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+        <v>62733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="70">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61044</v>
-      </c>
-      <c r="C15" s="74"/>
+        <v>61043</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
-        <v>61044</v>
-      </c>
-      <c r="E15" s="68"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+        <v>61043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="68">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
-        <v>35505</v>
-      </c>
-      <c r="C16" s="70"/>
+        <v>35504</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="45">
-        <v>35505</v>
-      </c>
-      <c r="E16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
+        <v>35504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="70">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67528</v>
-      </c>
-      <c r="C17" s="74"/>
+        <v>67526</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
       <c r="D17" s="47">
-        <v>67528</v>
-      </c>
-      <c r="E17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+        <v>67526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="68">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
         <v>82600</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
       <c r="D18" s="45">
         <v>82600</v>
       </c>
-      <c r="E18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111516</v>
-      </c>
-      <c r="C19" s="72"/>
+        <v>111515</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
       <c r="D19" s="46">
-        <v>111516</v>
-      </c>
-      <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+        <v>111515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="68">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82913</v>
-      </c>
-      <c r="C20" s="70"/>
+        <v>82911</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
       <c r="D20" s="45">
-        <v>82913</v>
-      </c>
-      <c r="E20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+        <v>82911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="69">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90912</v>
+        <v>90910</v>
       </c>
       <c r="C21" s="46">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D21" s="46">
-        <v>91522</v>
-      </c>
-      <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+        <v>91521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="68">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
@@ -4533,115 +4536,107 @@
       <c r="D22" s="45">
         <v>57569</v>
       </c>
-      <c r="E22" s="68"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="69">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
-        <v>31657</v>
+        <v>31660</v>
       </c>
       <c r="C23" s="46">
         <v>17342</v>
       </c>
       <c r="D23" s="46">
-        <v>48999</v>
-      </c>
-      <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+        <v>49002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="68">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66856</v>
+        <v>66855</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82628</v>
-      </c>
-      <c r="E24" s="68"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+        <v>82627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
         <v>82794</v>
       </c>
       <c r="C25" s="46">
-        <v>34881</v>
+        <v>34882</v>
       </c>
       <c r="D25" s="46">
-        <v>117675</v>
-      </c>
-      <c r="E25" s="68"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+        <v>117676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="68">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80505</v>
+        <v>80503</v>
       </c>
       <c r="C26" s="45">
-        <v>51511</v>
+        <v>51510</v>
       </c>
       <c r="D26" s="45">
-        <v>132016</v>
-      </c>
-      <c r="E26" s="68"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+        <v>132013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="69">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65870</v>
+        <v>65868</v>
       </c>
       <c r="C27" s="46">
-        <v>41854</v>
+        <v>41853</v>
       </c>
       <c r="D27" s="46">
-        <v>107724</v>
-      </c>
-      <c r="E27" s="68"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+        <v>107721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="68">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68481</v>
+        <v>68478</v>
       </c>
       <c r="C28" s="45">
-        <v>35561</v>
+        <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>104042</v>
-      </c>
-      <c r="E28" s="68"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+        <v>104040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40051</v>
+        <v>40050</v>
       </c>
       <c r="C29" s="46">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="D29" s="46">
         <v>85011</v>
       </c>
-      <c r="E29" s="68"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="69">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="68">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4653,55 +4648,51 @@
       <c r="D30" s="45">
         <v>49224</v>
       </c>
-      <c r="E30" s="68"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="73">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="70">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
         <v>53104</v>
       </c>
       <c r="C31" s="47">
-        <v>38601</v>
+        <v>38600</v>
       </c>
       <c r="D31" s="47">
-        <v>91705</v>
-      </c>
-      <c r="E31" s="68"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+        <v>91704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="68">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50240</v>
+        <v>50234</v>
       </c>
       <c r="C32" s="45">
         <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>98669</v>
-      </c>
-      <c r="E32" s="68"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
+        <v>98663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="70">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51515</v>
+        <v>51514</v>
       </c>
       <c r="C33" s="47">
-        <v>59631</v>
+        <v>59632</v>
       </c>
       <c r="D33" s="47">
         <v>111146</v>
       </c>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="68">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
@@ -4713,55 +4704,51 @@
       <c r="D34" s="45">
         <v>91165</v>
       </c>
-      <c r="E34" s="68"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="69">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51466</v>
+        <v>51462</v>
       </c>
       <c r="C35" s="46">
-        <v>57653</v>
+        <v>57651</v>
       </c>
       <c r="D35" s="46">
-        <v>109119</v>
-      </c>
-      <c r="E35" s="68"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69">
+        <v>109113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="68">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36311</v>
+        <v>36312</v>
       </c>
       <c r="C36" s="45">
-        <v>52160</v>
+        <v>52159</v>
       </c>
       <c r="D36" s="45">
         <v>88471</v>
       </c>
-      <c r="E36" s="68"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="69">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
-        <v>25985</v>
+        <v>25984</v>
       </c>
       <c r="C37" s="46">
         <v>30530</v>
       </c>
       <c r="D37" s="46">
-        <v>56515</v>
-      </c>
-      <c r="E37" s="68"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69">
+        <v>56514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="68">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
@@ -4773,70 +4760,65 @@
       <c r="D38" s="45">
         <v>120650</v>
       </c>
-      <c r="E38" s="68"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="69">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64219</v>
+        <v>64214</v>
       </c>
       <c r="C39" s="46">
-        <v>67478</v>
+        <v>67477</v>
       </c>
       <c r="D39" s="46">
-        <v>131697</v>
-      </c>
-      <c r="E39" s="68"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+        <v>131691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="68">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
         <v>64161</v>
       </c>
       <c r="C40" s="45">
-        <v>95303</v>
+        <v>95302</v>
       </c>
       <c r="D40" s="45">
-        <v>159464</v>
-      </c>
-      <c r="E40" s="68"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+        <v>159463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61087</v>
+        <v>61086</v>
       </c>
       <c r="C41" s="46">
         <v>70691</v>
       </c>
       <c r="D41" s="46">
-        <v>131778</v>
-      </c>
-      <c r="E41" s="68"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+        <v>131777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="68">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67662</v>
+        <v>67661</v>
       </c>
       <c r="C42" s="45">
-        <v>77045</v>
+        <v>77047</v>
       </c>
       <c r="D42" s="45">
-        <v>144707</v>
-      </c>
-      <c r="E42" s="68"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+        <v>144708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="69">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
@@ -4848,190 +4830,177 @@
       <c r="D43" s="46">
         <v>100142</v>
       </c>
-      <c r="E43" s="68"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="68">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
-        <v>28178</v>
+        <v>28179</v>
       </c>
       <c r="C44" s="45">
         <v>26080</v>
       </c>
       <c r="D44" s="45">
-        <v>54258</v>
-      </c>
-      <c r="E44" s="68"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+        <v>54259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="69">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53169</v>
+        <v>53168</v>
       </c>
       <c r="C45" s="46">
         <v>56780</v>
       </c>
       <c r="D45" s="46">
-        <v>109949</v>
-      </c>
-      <c r="E45" s="68"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+        <v>109948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="68">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59699</v>
+        <v>59698</v>
       </c>
       <c r="C46" s="45">
-        <v>74236</v>
+        <v>74238</v>
       </c>
       <c r="D46" s="45">
-        <v>133935</v>
-      </c>
-      <c r="E46" s="68"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="73">
+        <v>133936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="70">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
         <v>75153</v>
       </c>
       <c r="C47" s="47">
-        <v>76613</v>
+        <v>76612</v>
       </c>
       <c r="D47" s="47">
-        <v>151766</v>
-      </c>
-      <c r="E47" s="68"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+        <v>151765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="68">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73838</v>
+        <v>73837</v>
       </c>
       <c r="C48" s="45">
         <v>67320</v>
       </c>
       <c r="D48" s="45">
-        <v>141158</v>
-      </c>
-      <c r="E48" s="68"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
+        <v>141157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="70">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
         <v>81422</v>
       </c>
       <c r="C49" s="47">
-        <v>76075</v>
+        <v>76073</v>
       </c>
       <c r="D49" s="47">
-        <v>157497</v>
-      </c>
-      <c r="E49" s="68"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+        <v>157495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="68">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62164</v>
+        <v>62176</v>
       </c>
       <c r="C50" s="45">
-        <v>45591</v>
+        <v>45579</v>
       </c>
       <c r="D50" s="45">
         <v>107755</v>
       </c>
-      <c r="E50" s="68"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="71">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="69">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40027</v>
+        <v>40026</v>
       </c>
       <c r="C51" s="46">
         <v>25262</v>
       </c>
       <c r="D51" s="46">
-        <v>65289</v>
-      </c>
-      <c r="E51" s="68"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+        <v>65288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="68">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
         <v>71149</v>
       </c>
       <c r="C52" s="45">
-        <v>55610</v>
+        <v>55609</v>
       </c>
       <c r="D52" s="45">
-        <v>126759</v>
-      </c>
-      <c r="E52" s="68"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="71">
+        <v>126758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="69">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81984</v>
+        <v>81985</v>
       </c>
       <c r="C53" s="46">
-        <v>54622</v>
+        <v>54620</v>
       </c>
       <c r="D53" s="46">
-        <v>136606</v>
-      </c>
-      <c r="E53" s="68"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
+        <v>136605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="68">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93524</v>
+        <v>93523</v>
       </c>
       <c r="C54" s="45">
-        <v>55670</v>
+        <v>55669</v>
       </c>
       <c r="D54" s="45">
-        <v>149194</v>
-      </c>
-      <c r="E54" s="68"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="71">
+        <v>149192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="69">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91457</v>
+        <v>91456</v>
       </c>
       <c r="C55" s="46">
-        <v>51242</v>
+        <v>51238</v>
       </c>
       <c r="D55" s="46">
-        <v>142699</v>
-      </c>
-      <c r="E55" s="68"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+        <v>142694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="68">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
@@ -5043,190 +5012,177 @@
       <c r="D56" s="45">
         <v>154522</v>
       </c>
-      <c r="E56" s="68"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="71">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="69">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76299</v>
+        <v>76300</v>
       </c>
       <c r="C57" s="46">
-        <v>37108</v>
+        <v>37100</v>
       </c>
       <c r="D57" s="46">
-        <v>113407</v>
-      </c>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
+        <v>113400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="68">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>57045</v>
+        <v>57044</v>
       </c>
       <c r="C58" s="45">
-        <v>29110</v>
+        <v>29109</v>
       </c>
       <c r="D58" s="45">
-        <v>86155</v>
-      </c>
-      <c r="E58" s="68"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="71">
+        <v>86153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="69">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100215</v>
+        <v>100217</v>
       </c>
       <c r="C59" s="46">
-        <v>60118</v>
+        <v>60114</v>
       </c>
       <c r="D59" s="46">
-        <v>160333</v>
-      </c>
-      <c r="E59" s="68"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+        <v>160331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="68">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
         <v>107410</v>
       </c>
       <c r="C60" s="45">
-        <v>59775</v>
+        <v>59773</v>
       </c>
       <c r="D60" s="45">
-        <v>167185</v>
-      </c>
-      <c r="E60" s="68"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="71">
+        <v>167183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="69">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116408</v>
+        <v>116344</v>
       </c>
       <c r="C61" s="46">
-        <v>59599</v>
+        <v>59598</v>
       </c>
       <c r="D61" s="46">
-        <v>176007</v>
-      </c>
-      <c r="E61" s="68"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+        <v>175942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="68">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130650</v>
+        <v>130653</v>
       </c>
       <c r="C62" s="45">
         <v>58675</v>
       </c>
       <c r="D62" s="45">
-        <v>189325</v>
-      </c>
-      <c r="E62" s="68"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
+        <v>189328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="70">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144376</v>
+        <v>144375</v>
       </c>
       <c r="C63" s="47">
         <v>65425</v>
       </c>
       <c r="D63" s="47">
-        <v>209801</v>
-      </c>
-      <c r="E63" s="68"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+        <v>209800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="68">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108533</v>
+        <v>108608</v>
       </c>
       <c r="C64" s="45">
-        <v>40017</v>
+        <v>40016</v>
       </c>
       <c r="D64" s="45">
-        <v>148550</v>
-      </c>
-      <c r="E64" s="68"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="73">
+        <v>148624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="70">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83811</v>
+        <v>83809</v>
       </c>
       <c r="C65" s="47">
         <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108102</v>
-      </c>
-      <c r="E65" s="68"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="69">
+        <v>108100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="68">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146432</v>
+        <v>146430</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195800</v>
-      </c>
-      <c r="E66" s="68"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="71">
+        <v>195798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="69">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166241</v>
+        <v>166244</v>
       </c>
       <c r="C67" s="46">
-        <v>53686</v>
+        <v>53687</v>
       </c>
       <c r="D67" s="46">
-        <v>219927</v>
-      </c>
-      <c r="E67" s="68"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="69">
+        <v>219931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="68">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174770</v>
+        <v>174769</v>
       </c>
       <c r="C68" s="45">
-        <v>68994</v>
+        <v>68993</v>
       </c>
       <c r="D68" s="45">
-        <v>243764</v>
-      </c>
-      <c r="E68" s="68"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+        <v>243762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="69">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
@@ -5238,160 +5194,149 @@
       <c r="D69" s="46">
         <v>243132</v>
       </c>
-      <c r="E69" s="68"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="68">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201730</v>
+        <v>201728</v>
       </c>
       <c r="C70" s="45">
-        <v>67427</v>
+        <v>67424</v>
       </c>
       <c r="D70" s="45">
-        <v>269157</v>
-      </c>
-      <c r="E70" s="68"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
+        <v>269152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="69">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153189</v>
+        <v>153198</v>
       </c>
       <c r="C71" s="46">
-        <v>49296</v>
+        <v>49291</v>
       </c>
       <c r="D71" s="46">
-        <v>202485</v>
-      </c>
-      <c r="E71" s="68"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
+        <v>202489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="68">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115932</v>
+        <v>115929</v>
       </c>
       <c r="C72" s="45">
-        <v>34461</v>
+        <v>34458</v>
       </c>
       <c r="D72" s="45">
-        <v>150393</v>
-      </c>
-      <c r="E72" s="68"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="71">
+        <v>150387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="69">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186702</v>
+        <v>186699</v>
       </c>
       <c r="C73" s="46">
         <v>52502</v>
       </c>
       <c r="D73" s="46">
-        <v>239204</v>
-      </c>
-      <c r="E73" s="68"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
+        <v>239201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="68">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195686</v>
+        <v>195695</v>
       </c>
       <c r="C74" s="45">
-        <v>54771</v>
+        <v>54766</v>
       </c>
       <c r="D74" s="45">
-        <v>250457</v>
-      </c>
-      <c r="E74" s="68"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="71">
+        <v>250461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="69">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218064</v>
+        <v>218062</v>
       </c>
       <c r="C75" s="46">
-        <v>65691</v>
+        <v>65687</v>
       </c>
       <c r="D75" s="46">
-        <v>283755</v>
-      </c>
-      <c r="E75" s="68"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="69">
+        <v>283749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="68">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220693</v>
+        <v>220704</v>
       </c>
       <c r="C76" s="45">
-        <v>60907</v>
+        <v>60906</v>
       </c>
       <c r="D76" s="45">
-        <v>281600</v>
-      </c>
-      <c r="E76" s="68"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="71">
+        <v>281610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="69">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
         <v>252347</v>
       </c>
       <c r="C77" s="46">
-        <v>71653</v>
+        <v>71651</v>
       </c>
       <c r="D77" s="46">
-        <v>324000</v>
-      </c>
-      <c r="E77" s="68"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="69">
+        <v>323998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="68">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
         <v>197083</v>
       </c>
       <c r="C78" s="45">
-        <v>49438</v>
+        <v>49436</v>
       </c>
       <c r="D78" s="45">
-        <v>246521</v>
-      </c>
-      <c r="E78" s="68"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="73">
+        <v>246519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="70">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135207</v>
+        <v>135211</v>
       </c>
       <c r="C79" s="47">
-        <v>35993</v>
+        <v>35994</v>
       </c>
       <c r="D79" s="47">
-        <v>171200</v>
-      </c>
-      <c r="E79" s="68"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="69">
+        <v>171205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="68">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
@@ -5403,85 +5348,79 @@
       <c r="D80" s="45">
         <v>248284</v>
       </c>
-      <c r="E80" s="68"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="73">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="70">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112136</v>
+        <v>112135</v>
       </c>
       <c r="C81" s="47">
         <v>67021</v>
       </c>
       <c r="D81" s="47">
-        <v>179157</v>
-      </c>
-      <c r="E81" s="68"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="69">
+        <v>179156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="68">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125752</v>
+        <v>125749</v>
       </c>
       <c r="C82" s="45">
-        <v>79464</v>
+        <v>79463</v>
       </c>
       <c r="D82" s="45">
-        <v>205216</v>
-      </c>
-      <c r="E82" s="68"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="71">
+        <v>205212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="69">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119360</v>
+        <v>119361</v>
       </c>
       <c r="C83" s="46">
-        <v>75347</v>
+        <v>75344</v>
       </c>
       <c r="D83" s="46">
-        <v>194707</v>
-      </c>
-      <c r="E83" s="68"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="69">
+        <v>194705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="68">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
         <v>161068</v>
       </c>
       <c r="C84" s="45">
-        <v>82843</v>
+        <v>82840</v>
       </c>
       <c r="D84" s="45">
-        <v>243911</v>
-      </c>
-      <c r="E84" s="68"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="71">
+        <v>243908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="69">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166340</v>
+        <v>166339</v>
       </c>
       <c r="C85" s="46">
         <v>53888</v>
       </c>
       <c r="D85" s="46">
-        <v>220228</v>
-      </c>
-      <c r="E85" s="68"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="69">
+        <v>220227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="68">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
@@ -5493,25 +5432,23 @@
       <c r="D86" s="45">
         <v>166101</v>
       </c>
-      <c r="E86" s="68"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="69">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190053</v>
+        <v>190051</v>
       </c>
       <c r="C87" s="46">
-        <v>76163</v>
+        <v>76161</v>
       </c>
       <c r="D87" s="46">
-        <v>266216</v>
-      </c>
-      <c r="E87" s="68"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="69">
+        <v>266212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="68">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
@@ -5523,832 +5460,796 @@
       <c r="D88" s="45">
         <v>297885</v>
       </c>
-      <c r="E88" s="68"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="71">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="69">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245746</v>
+        <v>245756</v>
       </c>
       <c r="C89" s="46">
-        <v>88312</v>
+        <v>88308</v>
       </c>
       <c r="D89" s="46">
-        <v>334058</v>
-      </c>
-      <c r="E89" s="68"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="69">
+        <v>334064</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="68">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257437</v>
+        <v>257438</v>
       </c>
       <c r="C90" s="45">
-        <v>80155</v>
+        <v>80154</v>
       </c>
       <c r="D90" s="45">
         <v>337592</v>
       </c>
-      <c r="E90" s="68"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="71">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="69">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285973</v>
+        <v>285974</v>
       </c>
       <c r="C91" s="46">
-        <v>88751</v>
+        <v>88749</v>
       </c>
       <c r="D91" s="46">
-        <v>374724</v>
-      </c>
-      <c r="E91" s="68"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="69">
+        <v>374723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="68">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223611</v>
+        <v>223619</v>
       </c>
       <c r="C92" s="45">
-        <v>63158</v>
+        <v>63156</v>
       </c>
       <c r="D92" s="45">
-        <v>286769</v>
-      </c>
-      <c r="E92" s="68"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="71">
+        <v>286775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="69">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144182</v>
+        <v>144183</v>
       </c>
       <c r="C93" s="46">
-        <v>52745</v>
+        <v>52743</v>
       </c>
       <c r="D93" s="46">
-        <v>196927</v>
-      </c>
-      <c r="E93" s="68"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="69">
+        <v>196926</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="68">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219752</v>
+        <v>219749</v>
       </c>
       <c r="C94" s="45">
-        <v>89031</v>
+        <v>89030</v>
       </c>
       <c r="D94" s="45">
-        <v>308783</v>
-      </c>
-      <c r="E94" s="68"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="73">
+        <v>308779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="70">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235124</v>
+        <v>235114</v>
       </c>
       <c r="C95" s="47">
-        <v>93351</v>
+        <v>93352</v>
       </c>
       <c r="D95" s="47">
-        <v>328475</v>
-      </c>
-      <c r="E95" s="68"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="69">
+        <v>328466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="68">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238412</v>
+        <v>238441</v>
       </c>
       <c r="C96" s="45">
-        <v>103081</v>
+        <v>103075</v>
       </c>
       <c r="D96" s="45">
-        <v>341493</v>
-      </c>
-      <c r="E96" s="68"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="73">
+        <v>341516</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="70">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231309</v>
+        <v>231317</v>
       </c>
       <c r="C97" s="47">
-        <v>92409</v>
+        <v>92404</v>
       </c>
       <c r="D97" s="47">
-        <v>323718</v>
-      </c>
-      <c r="E97" s="68"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="69">
+        <v>323721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="68">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158364</v>
+        <v>158374</v>
       </c>
       <c r="C98" s="45">
-        <v>71588</v>
+        <v>71582</v>
       </c>
       <c r="D98" s="45">
-        <v>229952</v>
-      </c>
-      <c r="E98" s="68"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="71">
+        <v>229956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="69">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165926</v>
+        <v>165986</v>
       </c>
       <c r="C99" s="46">
-        <v>66036</v>
+        <v>66022</v>
       </c>
       <c r="D99" s="46">
-        <v>231962</v>
-      </c>
-      <c r="E99" s="68"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="69">
+        <v>232008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="68">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142494</v>
+        <v>142569</v>
       </c>
       <c r="C100" s="45">
-        <v>53564</v>
+        <v>53542</v>
       </c>
       <c r="D100" s="45">
-        <v>196058</v>
-      </c>
-      <c r="E100" s="68"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="71">
+        <v>196111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="69">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176238</v>
+        <v>176250</v>
       </c>
       <c r="C101" s="46">
-        <v>73404</v>
+        <v>73397</v>
       </c>
       <c r="D101" s="46">
-        <v>249642</v>
-      </c>
-      <c r="E101" s="68"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="69">
+        <v>249647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="68">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279296</v>
+        <v>279309</v>
       </c>
       <c r="C102" s="45">
-        <v>99151</v>
+        <v>99146</v>
       </c>
       <c r="D102" s="45">
-        <v>378447</v>
-      </c>
-      <c r="E102" s="68"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="71">
+        <v>378455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="69">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580469</v>
+        <v>580475</v>
       </c>
       <c r="C103" s="46">
-        <v>97102</v>
+        <v>97100</v>
       </c>
       <c r="D103" s="46">
-        <v>677571</v>
-      </c>
-      <c r="E103" s="68"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="69">
+        <v>677575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="68">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643041</v>
+        <v>643087</v>
       </c>
       <c r="C104" s="45">
-        <v>89753</v>
+        <v>89745</v>
       </c>
       <c r="D104" s="45">
-        <v>732794</v>
-      </c>
-      <c r="E104" s="68"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="71">
+        <v>732832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="69">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534704</v>
+        <v>534736</v>
       </c>
       <c r="C105" s="46">
-        <v>88334</v>
+        <v>88324</v>
       </c>
       <c r="D105" s="46">
-        <v>623038</v>
-      </c>
-      <c r="E105" s="68"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="69">
+        <v>623060</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="68">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302935</v>
+        <v>303031</v>
       </c>
       <c r="C106" s="45">
-        <v>65470</v>
+        <v>65452</v>
       </c>
       <c r="D106" s="45">
-        <v>368405</v>
-      </c>
-      <c r="E106" s="68"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="71">
+        <v>368483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="69">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210490</v>
+        <v>210522</v>
       </c>
       <c r="C107" s="46">
-        <v>50092</v>
+        <v>50076</v>
       </c>
       <c r="D107" s="46">
-        <v>260582</v>
-      </c>
-      <c r="E107" s="68"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="69">
+        <v>260598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="68">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338643</v>
+        <v>338652</v>
       </c>
       <c r="C108" s="45">
-        <v>76838</v>
+        <v>76834</v>
       </c>
       <c r="D108" s="45">
-        <v>415481</v>
-      </c>
-      <c r="E108" s="68"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="71">
+        <v>415486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="69">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497654</v>
+        <v>497661</v>
       </c>
       <c r="C109" s="46">
-        <v>73400</v>
+        <v>73395</v>
       </c>
       <c r="D109" s="46">
-        <v>571054</v>
-      </c>
-      <c r="E109" s="68"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="69">
+        <v>571056</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="68">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690382</v>
+        <v>690384</v>
       </c>
       <c r="C110" s="45">
-        <v>83391</v>
+        <v>83395</v>
       </c>
       <c r="D110" s="45">
-        <v>773773</v>
-      </c>
-      <c r="E110" s="68"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="73">
+        <v>773779</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="70">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608490</v>
+        <v>608495</v>
       </c>
       <c r="C111" s="47">
-        <v>70785</v>
+        <v>70788</v>
       </c>
       <c r="D111" s="47">
-        <v>679275</v>
-      </c>
-      <c r="E111" s="68"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="69">
+        <v>679283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="68">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517943</v>
+        <v>517951</v>
       </c>
       <c r="C112" s="45">
-        <v>75369</v>
+        <v>75367</v>
       </c>
       <c r="D112" s="45">
-        <v>593312</v>
-      </c>
-      <c r="E112" s="68"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="73">
+        <v>593318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="70">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305755</v>
+        <v>305766</v>
       </c>
       <c r="C113" s="47">
-        <v>56365</v>
+        <v>56370</v>
       </c>
       <c r="D113" s="47">
-        <v>362120</v>
-      </c>
-      <c r="E113" s="68"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="69">
+        <v>362136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="68">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226952</v>
+        <v>226954</v>
       </c>
       <c r="C114" s="45">
-        <v>39224</v>
+        <v>39223</v>
       </c>
       <c r="D114" s="45">
-        <v>266176</v>
-      </c>
-      <c r="E114" s="68"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="71">
+        <v>266177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="69">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
         <v>338215</v>
       </c>
       <c r="C115" s="46">
-        <v>60789</v>
+        <v>60787</v>
       </c>
       <c r="D115" s="46">
-        <v>399004</v>
-      </c>
-      <c r="E115" s="68"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="69">
+        <v>399002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="68">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493635</v>
+        <v>493646</v>
       </c>
       <c r="C116" s="45">
-        <v>61566</v>
+        <v>61562</v>
       </c>
       <c r="D116" s="45">
-        <v>555201</v>
-      </c>
-      <c r="E116" s="68"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="71">
+        <v>555208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="69">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641701</v>
+        <v>641708</v>
       </c>
       <c r="C117" s="46">
-        <v>71653</v>
+        <v>71645</v>
       </c>
       <c r="D117" s="46">
-        <v>713354</v>
-      </c>
-      <c r="E117" s="68"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="69">
+        <v>713353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="68">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567853</v>
+        <v>567888</v>
       </c>
       <c r="C118" s="45">
-        <v>66119</v>
+        <v>66114</v>
       </c>
       <c r="D118" s="45">
-        <v>633972</v>
-      </c>
-      <c r="E118" s="68"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="71">
+        <v>634002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="69">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483366</v>
+        <v>483374</v>
       </c>
       <c r="C119" s="46">
-        <v>67550</v>
+        <v>67554</v>
       </c>
       <c r="D119" s="46">
-        <v>550916</v>
-      </c>
-      <c r="E119" s="68"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="69">
+        <v>550928</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="68">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309311</v>
+        <v>309342</v>
       </c>
       <c r="C120" s="45">
-        <v>59550</v>
+        <v>59765</v>
       </c>
       <c r="D120" s="45">
-        <v>368861</v>
-      </c>
-      <c r="E120" s="68"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="71">
+        <v>369107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="69">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235444</v>
+        <v>235463</v>
       </c>
       <c r="C121" s="46">
-        <v>47587</v>
+        <v>47749</v>
       </c>
       <c r="D121" s="46">
-        <v>283031</v>
-      </c>
-      <c r="E121" s="68"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="69">
+        <v>283212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="68">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354399</v>
+        <v>354412</v>
       </c>
       <c r="C122" s="45">
-        <v>73175</v>
+        <v>73166</v>
       </c>
       <c r="D122" s="45">
-        <v>427574</v>
-      </c>
-      <c r="E122" s="68"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="71">
+        <v>427578</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="69">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693414</v>
+        <v>693418</v>
       </c>
       <c r="C123" s="46">
-        <v>90187</v>
+        <v>90186</v>
       </c>
       <c r="D123" s="46">
-        <v>783601</v>
-      </c>
-      <c r="E123" s="68"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="69">
+        <v>783604</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="68">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993264</v>
+        <v>993271</v>
       </c>
       <c r="C124" s="45">
-        <v>126775</v>
+        <v>126774</v>
       </c>
       <c r="D124" s="45">
-        <v>1120039</v>
-      </c>
-      <c r="E124" s="68"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="71">
+        <v>1120045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="69">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808131</v>
+        <v>808134</v>
       </c>
       <c r="C125" s="46">
-        <v>131617</v>
+        <v>131615</v>
       </c>
       <c r="D125" s="46">
-        <v>939748</v>
-      </c>
-      <c r="E125" s="68"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="69">
+        <v>939749</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="68">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>661897</v>
+        <v>661917</v>
       </c>
       <c r="C126" s="45">
-        <v>137266</v>
+        <v>137257</v>
       </c>
       <c r="D126" s="45">
-        <v>799163</v>
-      </c>
-      <c r="E126" s="68"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="71">
+        <v>799174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="69">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259018</v>
+        <v>259029</v>
       </c>
       <c r="C127" s="46">
-        <v>75934</v>
+        <v>75937</v>
       </c>
       <c r="D127" s="46">
-        <v>334952</v>
-      </c>
-      <c r="E127" s="68"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="69">
+        <v>334966</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="68">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195292</v>
+        <v>195298</v>
       </c>
       <c r="C128" s="45">
-        <v>67769</v>
+        <v>67772</v>
       </c>
       <c r="D128" s="45">
-        <v>263061</v>
-      </c>
-      <c r="E128" s="68"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="71">
+        <v>263070</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="69">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332879</v>
+        <v>332910</v>
       </c>
       <c r="C129" s="46">
-        <v>115530</v>
+        <v>115571</v>
       </c>
       <c r="D129" s="46">
-        <v>448409</v>
-      </c>
-      <c r="E129" s="68"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="69">
+        <v>448481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="68">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677337</v>
+        <v>677344</v>
       </c>
       <c r="C130" s="45">
-        <v>160512</v>
+        <v>160524</v>
       </c>
       <c r="D130" s="45">
-        <v>837849</v>
-      </c>
-      <c r="E130" s="68"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="71">
+        <v>837868</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="69">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907226</v>
+        <v>907222</v>
       </c>
       <c r="C131" s="46">
         <v>224031</v>
       </c>
       <c r="D131" s="46">
-        <v>1131257</v>
-      </c>
-      <c r="E131" s="68"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="69">
+        <v>1131253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="68">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>759732</v>
+        <v>759741</v>
       </c>
       <c r="C132" s="45">
-        <v>215354</v>
+        <v>215350</v>
       </c>
       <c r="D132" s="45">
-        <v>975086</v>
-      </c>
-      <c r="E132" s="68"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="71">
+        <v>975091</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="69">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644261</v>
+        <v>644273</v>
       </c>
       <c r="C133" s="46">
-        <v>225357</v>
+        <v>225372</v>
       </c>
       <c r="D133" s="46">
-        <v>869618</v>
-      </c>
-      <c r="E133" s="68"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="69">
+        <v>869645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="68">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268087</v>
+        <v>268088</v>
       </c>
       <c r="C134" s="45">
-        <v>150488</v>
+        <v>150729</v>
       </c>
       <c r="D134" s="45">
-        <v>418575</v>
-      </c>
-      <c r="E134" s="68"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="71">
+        <v>418817</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="69">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181112</v>
+        <v>181117</v>
       </c>
       <c r="C135" s="46">
-        <v>101376</v>
+        <v>101412</v>
       </c>
       <c r="D135" s="46">
-        <v>282488</v>
-      </c>
-      <c r="E135" s="68"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="69">
+        <v>282529</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="68">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>389626</v>
+        <v>389858</v>
       </c>
       <c r="C136" s="45">
-        <v>188672</v>
+        <v>188714</v>
       </c>
       <c r="D136" s="45">
-        <v>578298</v>
-      </c>
-      <c r="E136" s="68"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="71">
+        <v>578572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="69">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>791193</v>
+        <v>791635</v>
       </c>
       <c r="C137" s="46">
-        <v>277501</v>
+        <v>277559</v>
       </c>
       <c r="D137" s="46">
-        <v>1068694</v>
-      </c>
-      <c r="E137" s="68"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="69">
+        <v>1069194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="68">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1035986</v>
+        <v>1036574</v>
       </c>
       <c r="C138" s="45">
-        <v>347479</v>
+        <v>347757</v>
       </c>
       <c r="D138" s="45">
-        <v>1383465</v>
-      </c>
-      <c r="E138" s="68"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="71">
+        <v>1384331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="69">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>262761</v>
+        <v>262940</v>
       </c>
       <c r="C139" s="46">
-        <v>150841</v>
+        <v>150914</v>
       </c>
       <c r="D139" s="46">
-        <v>413602</v>
-      </c>
-      <c r="E139" s="68"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="69">
+        <v>413854</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="68">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>509685</v>
+        <v>515820</v>
       </c>
       <c r="C140" s="45">
-        <v>211594</v>
+        <v>217543</v>
       </c>
       <c r="D140" s="45">
-        <v>721279</v>
-      </c>
-      <c r="E140" s="68"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="71"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="68"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="69" t="s">
+        <v>733363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="69">
+        <v>44331</v>
+      </c>
+      <c r="B141" s="46">
+        <v>225943</v>
+      </c>
+      <c r="C141" s="46">
+        <v>151192</v>
+      </c>
+      <c r="D141" s="46">
+        <v>377135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="68">
+        <v>44332</v>
+      </c>
+      <c r="B142" s="45">
+        <v>155602</v>
+      </c>
+      <c r="C142" s="45">
+        <v>113148</v>
+      </c>
+      <c r="D142" s="45">
+        <v>268750</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="69"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="45">
-        <v>30353408</v>
-      </c>
-      <c r="C142" s="45">
-        <v>9060934</v>
-      </c>
-      <c r="D142" s="45">
-        <v>39414342</v>
-      </c>
-      <c r="E142" s="68"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="68" t="s">
+      <c r="B144" s="45">
+        <v>30743232</v>
+      </c>
+      <c r="C144" s="45">
+        <v>9332160</v>
+      </c>
+      <c r="D144" s="45">
+        <v>40075392</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="71"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
-      <c r="B145" s="68"/>
-      <c r="C145" s="68"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F8425-B156-46BA-B5FA-629CD5652167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F50EDB-6CAA-4B01-B814-D25CB945D669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_16.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_16.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_18.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_18.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_16.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_16.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_18.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_18.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Datenstand: 17.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 16.05.21 (Impfquote_bis_einschl_16.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 16.05.21 durchgeführt und bis zum 17.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 16.05.21 (Impfstoff_bis_einschl_16.05.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 18.05.21 (Impfquote_bis_einschl_18.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 18.05.21 (Impfstoff_bis_einschl_18.05.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 19.05.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 18.05.21 durchgeführt und bis zum 19.05.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.308 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +371,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,7 +563,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -713,69 +719,78 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1127,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1147,7 +1162,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1159,12 +1174,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1197,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,102 +1289,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="77" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78" t="s">
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1421,55 +1436,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5268410</v>
+        <v>5453811</v>
       </c>
       <c r="D5" s="32">
-        <v>4028069</v>
+        <v>4128442</v>
       </c>
       <c r="E5" s="32">
-        <v>1240341</v>
+        <v>1325369</v>
       </c>
       <c r="F5" s="33">
-        <v>36.287621862791539</v>
+        <v>37.191851027990538</v>
       </c>
       <c r="G5" s="33">
-        <v>22.964233797347607</v>
+        <v>23.993609648907725</v>
       </c>
       <c r="H5" s="33">
-        <v>72.741495130692584</v>
+        <v>73.421965093244623</v>
       </c>
       <c r="I5" s="33">
-        <v>11.173846622020804</v>
+        <v>11.93983745081481</v>
       </c>
       <c r="J5" s="33">
-        <v>5.6068356943937561</v>
+        <v>6.14967793192349</v>
       </c>
       <c r="K5" s="33">
-        <v>25.860070070848224</v>
+        <v>27.118912695583177</v>
       </c>
       <c r="L5" s="32">
-        <v>1416794</v>
+        <v>1464149</v>
       </c>
       <c r="M5" s="32">
-        <v>1491608</v>
+        <v>1498188</v>
       </c>
       <c r="N5" s="32">
-        <v>416748</v>
+        <v>451984</v>
       </c>
       <c r="O5" s="32">
-        <v>703522</v>
+        <v>723741</v>
       </c>
       <c r="P5" s="34">
-        <v>446980</v>
+        <v>483169</v>
       </c>
       <c r="Q5" s="34">
-        <v>679295</v>
+        <v>693023</v>
       </c>
       <c r="R5" s="34">
-        <v>38302</v>
+        <v>47123</v>
       </c>
       <c r="S5" s="34">
-        <v>68248</v>
+        <v>85598</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1480,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6368489</v>
+        <v>6593437</v>
       </c>
       <c r="D6" s="13">
-        <v>4990668</v>
+        <v>5140469</v>
       </c>
       <c r="E6" s="13">
-        <v>1377821</v>
+        <v>1452968</v>
       </c>
       <c r="F6" s="14">
-        <v>38.024899089406517</v>
+        <v>39.166262912544461</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>77</v>
@@ -1498,7 +1513,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>10.497894167326933</v>
+        <v>11.070454211768205</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>77</v>
@@ -1519,16 +1534,16 @@
         <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>708809</v>
+        <v>756229</v>
       </c>
       <c r="Q6" s="18">
-        <v>847550</v>
+        <v>865581</v>
       </c>
       <c r="R6" s="17">
-        <v>42490</v>
+        <v>55350</v>
       </c>
       <c r="S6" s="18">
-        <v>49908</v>
+        <v>69714</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1539,16 +1554,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1703655</v>
+        <v>1775753</v>
       </c>
       <c r="D7" s="37">
-        <v>1239382</v>
+        <v>1283686</v>
       </c>
       <c r="E7" s="37">
-        <v>464273</v>
+        <v>492067</v>
       </c>
       <c r="F7" s="38">
-        <v>33.775311071753549</v>
+        <v>34.982671983662037</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>77</v>
@@ -1557,7 +1572,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>12.652245229651744</v>
+        <v>13.409679980138936</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>77</v>
@@ -1578,16 +1593,16 @@
         <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>268180</v>
+        <v>287522</v>
       </c>
       <c r="Q7" s="41">
-        <v>123572</v>
+        <v>127336</v>
       </c>
       <c r="R7" s="41">
-        <v>19856</v>
+        <v>25026</v>
       </c>
       <c r="S7" s="41">
-        <v>12040</v>
+        <v>15232</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,55 +1613,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1114386</v>
+        <v>1157375</v>
       </c>
       <c r="D8" s="13">
-        <v>812627</v>
+        <v>834947</v>
       </c>
       <c r="E8" s="13">
-        <v>301759</v>
+        <v>322428</v>
       </c>
       <c r="F8" s="14">
-        <v>32.222897640780161</v>
+        <v>33.107947085780403</v>
       </c>
       <c r="G8" s="44">
-        <v>17.933440182128091</v>
+        <v>18.706821934649479</v>
       </c>
       <c r="H8" s="44">
-        <v>60.473345886630739</v>
+        <v>61.64931570100066</v>
       </c>
       <c r="I8" s="44">
-        <v>11.965575066031747</v>
+        <v>12.785157815973951</v>
       </c>
       <c r="J8" s="63">
-        <v>6.0084402265005128</v>
+        <v>6.5591907416643451</v>
       </c>
       <c r="K8" s="44">
-        <v>23.953471034829388</v>
+        <v>25.25545479249784</v>
       </c>
       <c r="L8" s="17">
-        <v>202318</v>
+        <v>205985</v>
       </c>
       <c r="M8" s="18">
-        <v>299691</v>
+        <v>301968</v>
       </c>
       <c r="N8" s="17">
-        <v>87447</v>
+        <v>94630</v>
       </c>
       <c r="O8" s="18">
-        <v>170886</v>
+        <v>178129</v>
       </c>
       <c r="P8" s="17">
-        <v>100800</v>
+        <v>110205</v>
       </c>
       <c r="Q8" s="18">
-        <v>203238</v>
+        <v>210741</v>
       </c>
       <c r="R8" s="17">
-        <v>14110</v>
+        <v>16236</v>
       </c>
       <c r="S8" s="18">
-        <v>28324</v>
+        <v>31909</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1657,55 +1672,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>357057</v>
+        <v>368954</v>
       </c>
       <c r="D9" s="37">
-        <v>257581</v>
+        <v>263252</v>
       </c>
       <c r="E9" s="37">
-        <v>99476</v>
+        <v>105702</v>
       </c>
       <c r="F9" s="38">
-        <v>37.812719281505345</v>
+        <v>38.645218305289767</v>
       </c>
       <c r="G9" s="64">
-        <v>21.745103109444695</v>
+        <v>22.532767147197621</v>
       </c>
       <c r="H9" s="64">
-        <v>81.390377778016472</v>
+        <v>82.342073321374471</v>
       </c>
       <c r="I9" s="64">
-        <v>14.603010560744096</v>
+        <v>15.516983214964137</v>
       </c>
       <c r="J9" s="64">
-        <v>5.4869820285732755</v>
+        <v>6.0362660805481934</v>
       </c>
       <c r="K9" s="64">
-        <v>37.977593262940808</v>
+        <v>39.861112602983987</v>
       </c>
       <c r="L9" s="42">
-        <v>73112</v>
+        <v>74029</v>
       </c>
       <c r="M9" s="42">
-        <v>121124</v>
+        <v>122353</v>
       </c>
       <c r="N9" s="42">
-        <v>25150</v>
+        <v>27425</v>
       </c>
       <c r="O9" s="42">
-        <v>68401</v>
+        <v>71193</v>
       </c>
       <c r="P9" s="42">
-        <v>34528</v>
+        <v>37510</v>
       </c>
       <c r="Q9" s="42">
-        <v>30420</v>
+        <v>30963</v>
       </c>
       <c r="R9" s="42">
-        <v>2011</v>
+        <v>2455</v>
       </c>
       <c r="S9" s="42">
-        <v>2311</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,55 +1731,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>854467</v>
+        <v>886306</v>
       </c>
       <c r="D10" s="13">
-        <v>665343</v>
+        <v>681087</v>
       </c>
       <c r="E10" s="13">
-        <v>189124</v>
+        <v>205219</v>
       </c>
       <c r="F10" s="14">
-        <v>36.017968302122121</v>
+        <v>36.870260868435459</v>
       </c>
       <c r="G10" s="44">
-        <v>24.957432504157673</v>
+        <v>25.852022221435899</v>
       </c>
       <c r="H10" s="44">
-        <v>72.034509204220143</v>
+        <v>72.750533736524162</v>
       </c>
       <c r="I10" s="44">
-        <v>10.23812114528979</v>
+        <v>11.109414898771311</v>
       </c>
       <c r="J10" s="44">
-        <v>6.1009164573086583</v>
+        <v>6.651640069353526</v>
       </c>
       <c r="K10" s="44">
-        <v>23.448479167578299</v>
+        <v>25.361639601753094</v>
       </c>
       <c r="L10" s="18">
-        <v>274020</v>
+        <v>280753</v>
       </c>
       <c r="M10" s="18">
-        <v>224047</v>
+        <v>224909</v>
       </c>
       <c r="N10" s="18">
-        <v>81811</v>
+        <v>88482</v>
       </c>
       <c r="O10" s="18">
-        <v>96604</v>
+        <v>103444</v>
       </c>
       <c r="P10" s="18">
-        <v>78641</v>
+        <v>84549</v>
       </c>
       <c r="Q10" s="18">
-        <v>88729</v>
+        <v>90976</v>
       </c>
       <c r="R10" s="18">
-        <v>4398</v>
+        <v>5509</v>
       </c>
       <c r="S10" s="18">
-        <v>5210</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1775,55 +1790,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>2967320</v>
+        <v>3064159</v>
       </c>
       <c r="D11" s="37">
-        <v>2328258</v>
+        <v>2395250</v>
       </c>
       <c r="E11" s="37">
-        <v>639062</v>
+        <v>668909</v>
       </c>
       <c r="F11" s="38">
-        <v>37.026532741313723</v>
+        <v>38.091913588885639</v>
       </c>
       <c r="G11" s="64">
-        <v>24.140284499527059</v>
+        <v>25.1684605752816</v>
       </c>
       <c r="H11" s="64">
-        <v>71.320872099932203</v>
+        <v>72.499306803115772</v>
       </c>
       <c r="I11" s="64">
-        <v>10.16307044439638</v>
+        <v>10.637730435999542</v>
       </c>
       <c r="J11" s="64">
-        <v>4.5586293552341566</v>
+        <v>4.9379664330108355</v>
       </c>
       <c r="K11" s="64">
-        <v>25.086154469896616</v>
+        <v>25.800671527200116</v>
       </c>
       <c r="L11" s="41">
-        <v>815336</v>
+        <v>843106</v>
       </c>
       <c r="M11" s="41">
-        <v>869675</v>
+        <v>881117</v>
       </c>
       <c r="N11" s="41">
-        <v>189134</v>
+        <v>201431</v>
       </c>
       <c r="O11" s="41">
-        <v>406211</v>
+        <v>411299</v>
       </c>
       <c r="P11" s="41">
-        <v>288212</v>
+        <v>307444</v>
       </c>
       <c r="Q11" s="41">
-        <v>354679</v>
+        <v>363467</v>
       </c>
       <c r="R11" s="41">
-        <v>19259</v>
+        <v>24303</v>
       </c>
       <c r="S11" s="41">
-        <v>24439</v>
+        <v>31617</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1834,55 +1849,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>794509</v>
+        <v>822031</v>
       </c>
       <c r="D12" s="13">
-        <v>626394</v>
+        <v>642780</v>
       </c>
       <c r="E12" s="13">
-        <v>168115</v>
+        <v>179251</v>
       </c>
       <c r="F12" s="14">
-        <v>38.951507892979329</v>
+        <v>39.970450297175994</v>
       </c>
       <c r="G12" s="44">
-        <v>23.664407072143216</v>
+        <v>24.699418907816799</v>
       </c>
       <c r="H12" s="44">
-        <v>69.189842582169163</v>
+        <v>70.280140993227164</v>
       </c>
       <c r="I12" s="44">
-        <v>10.454015762328856</v>
+        <v>11.146493646689526</v>
       </c>
       <c r="J12" s="44">
-        <v>4.5805557327050987</v>
+        <v>5.0130923932819895</v>
       </c>
       <c r="K12" s="44">
-        <v>21.839924705187592</v>
+        <v>22.94092679055862</v>
       </c>
       <c r="L12" s="18">
-        <v>165724</v>
+        <v>171851</v>
       </c>
       <c r="M12" s="18">
-        <v>222649</v>
+        <v>224860</v>
       </c>
       <c r="N12" s="18">
-        <v>40672</v>
+        <v>43614</v>
       </c>
       <c r="O12" s="18">
-        <v>106290</v>
+        <v>109551</v>
       </c>
       <c r="P12" s="18">
-        <v>86602</v>
+        <v>91511</v>
       </c>
       <c r="Q12" s="18">
-        <v>152270</v>
+        <v>155967</v>
       </c>
       <c r="R12" s="18">
-        <v>8169</v>
+        <v>9839</v>
       </c>
       <c r="S12" s="18">
-        <v>12054</v>
+        <v>14759</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1893,55 +1908,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3817325</v>
+        <v>3938852</v>
       </c>
       <c r="D13" s="37">
-        <v>3049767</v>
+        <v>3125466</v>
       </c>
       <c r="E13" s="37">
-        <v>767558</v>
+        <v>813386</v>
       </c>
       <c r="F13" s="38">
-        <v>38.152571404552241</v>
+        <v>39.099565552876747</v>
       </c>
       <c r="G13" s="64">
-        <v>23.304400084706721</v>
+        <v>24.231104301401025</v>
       </c>
       <c r="H13" s="64">
-        <v>75.22581632639826</v>
+        <v>76.268650843922444</v>
       </c>
       <c r="I13" s="64">
-        <v>9.6021471155453195</v>
+        <v>10.175455188695768</v>
       </c>
       <c r="J13" s="64">
-        <v>3.4424164159233848</v>
+        <v>3.7661221343488753</v>
       </c>
       <c r="K13" s="64">
-        <v>24.124417218551635</v>
+        <v>25.265961931502996</v>
       </c>
       <c r="L13" s="42">
-        <v>945558</v>
+        <v>970953</v>
       </c>
       <c r="M13" s="42">
-        <v>1199145</v>
+        <v>1209397</v>
       </c>
       <c r="N13" s="42">
-        <v>173121</v>
+        <v>186022</v>
       </c>
       <c r="O13" s="42">
-        <v>532572</v>
+        <v>550412</v>
       </c>
       <c r="P13" s="42">
-        <v>378313</v>
+        <v>405562</v>
       </c>
       <c r="Q13" s="42">
-        <v>540701</v>
+        <v>554568</v>
       </c>
       <c r="R13" s="42">
-        <v>22435</v>
+        <v>27923</v>
       </c>
       <c r="S13" s="42">
-        <v>25385</v>
+        <v>33947</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1952,55 +1967,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>8869664</v>
+        <v>9201397</v>
       </c>
       <c r="D14" s="13">
-        <v>7015861</v>
+        <v>7220528</v>
       </c>
       <c r="E14" s="13">
-        <v>1853803</v>
+        <v>1980869</v>
       </c>
       <c r="F14" s="14">
-        <v>39.091628726252381</v>
+        <v>40.232011407225663</v>
       </c>
       <c r="G14" s="44">
-        <v>24.623664747222669</v>
+        <v>25.891995344570905</v>
       </c>
       <c r="H14" s="44">
-        <v>76.449735522467392</v>
+        <v>77.294139139626722</v>
       </c>
       <c r="I14" s="44">
-        <v>10.329192469407939</v>
+        <v>11.03719066032563</v>
       </c>
       <c r="J14" s="44">
-        <v>4.7761388683000279</v>
+        <v>5.2304423477583253</v>
       </c>
       <c r="K14" s="44">
-        <v>24.534920577051309</v>
+        <v>25.862756969343074</v>
       </c>
       <c r="L14" s="18">
-        <v>2118227</v>
+        <v>2196592</v>
       </c>
       <c r="M14" s="18">
-        <v>2639510</v>
+        <v>2652004</v>
       </c>
       <c r="N14" s="18">
-        <v>564400</v>
+        <v>607156</v>
       </c>
       <c r="O14" s="18">
-        <v>1165431</v>
+        <v>1208058</v>
       </c>
       <c r="P14" s="18">
-        <v>1065047</v>
+        <v>1150648</v>
       </c>
       <c r="Q14" s="18">
-        <v>1197899</v>
+        <v>1227790</v>
       </c>
       <c r="R14" s="18">
-        <v>53045</v>
+        <v>69020</v>
       </c>
       <c r="S14" s="18">
-        <v>66104</v>
+        <v>90128</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2011,55 +2026,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>1970369</v>
+        <v>2042823</v>
       </c>
       <c r="D15" s="37">
-        <v>1443859</v>
+        <v>1487254</v>
       </c>
       <c r="E15" s="37">
-        <v>526510</v>
+        <v>555569</v>
       </c>
       <c r="F15" s="38">
-        <v>35.268520040655581</v>
+        <v>36.328510958857599</v>
       </c>
       <c r="G15" s="64">
-        <v>20.808862510561454</v>
+        <v>21.830527989927269</v>
       </c>
       <c r="H15" s="64">
-        <v>70.245325199005492</v>
+        <v>71.398115454526462</v>
       </c>
       <c r="I15" s="64">
-        <v>12.86083231576322</v>
+        <v>13.570643955169432</v>
       </c>
       <c r="J15" s="64">
-        <v>6.5377133690075819</v>
+        <v>6.8718833352661495</v>
       </c>
       <c r="K15" s="64">
-        <v>28.171740175083048</v>
+        <v>29.791112132544974</v>
       </c>
       <c r="L15" s="42">
-        <v>434348</v>
+        <v>451016</v>
       </c>
       <c r="M15" s="42">
-        <v>569260</v>
+        <v>575181</v>
       </c>
       <c r="N15" s="42">
-        <v>177071</v>
+        <v>183712</v>
       </c>
       <c r="O15" s="42">
-        <v>314200</v>
+        <v>327035</v>
       </c>
       <c r="P15" s="42">
-        <v>168553</v>
+        <v>181486</v>
       </c>
       <c r="Q15" s="42">
-        <v>271278</v>
+        <v>279151</v>
       </c>
       <c r="R15" s="42">
-        <v>12348</v>
+        <v>15389</v>
       </c>
       <c r="S15" s="42">
-        <v>22896</v>
+        <v>29438</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2070,55 +2085,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>523240</v>
+        <v>544980</v>
       </c>
       <c r="D16" s="13">
-        <v>408966</v>
+        <v>418906</v>
       </c>
       <c r="E16" s="13">
-        <v>114274</v>
+        <v>126074</v>
       </c>
       <c r="F16" s="14">
-        <v>41.440002756141283</v>
+        <v>42.447210268247531</v>
       </c>
       <c r="G16" s="44">
-        <v>25.903244189966973</v>
+        <v>27.003637144826392</v>
       </c>
       <c r="H16" s="44">
-        <v>74.336109873934319</v>
+        <v>75.14601318461942</v>
       </c>
       <c r="I16" s="44">
-        <v>11.579238555173998</v>
+        <v>12.774917493086848</v>
       </c>
       <c r="J16" s="44">
-        <v>4.1912201293140745</v>
+        <v>4.8028810722267146</v>
       </c>
       <c r="K16" s="44">
-        <v>27.22210113683386</v>
+        <v>29.654338068298475</v>
       </c>
       <c r="L16" s="18">
-        <v>122197</v>
+        <v>125065</v>
       </c>
       <c r="M16" s="18">
-        <v>173001</v>
+        <v>174032</v>
       </c>
       <c r="N16" s="18">
-        <v>24348</v>
+        <v>27286</v>
       </c>
       <c r="O16" s="18">
-        <v>82082</v>
+        <v>88163</v>
       </c>
       <c r="P16" s="18">
-        <v>51434</v>
+        <v>55942</v>
       </c>
       <c r="Q16" s="18">
-        <v>62333</v>
+        <v>63866</v>
       </c>
       <c r="R16" s="18">
-        <v>3746</v>
+        <v>4908</v>
       </c>
       <c r="S16" s="18">
-        <v>4098</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2129,16 +2144,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1912294</v>
+        <v>1981281</v>
       </c>
       <c r="D17" s="37">
-        <v>1302149</v>
+        <v>1343565</v>
       </c>
       <c r="E17" s="37">
-        <v>610145</v>
+        <v>637716</v>
       </c>
       <c r="F17" s="38">
-        <v>31.978346604138391</v>
+        <v>32.995446185643267</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>77</v>
@@ -2147,7 +2162,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>14.984021251624826</v>
+        <v>15.661113500071586</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>77</v>
@@ -2168,16 +2183,16 @@
         <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>102525</v>
+        <v>108892</v>
       </c>
       <c r="Q17" s="41">
-        <v>269655</v>
+        <v>278505</v>
       </c>
       <c r="R17" s="41">
-        <v>17491</v>
+        <v>20273</v>
       </c>
       <c r="S17" s="41">
-        <v>49304</v>
+        <v>56523</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2188,16 +2203,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1024732</v>
+        <v>1059860</v>
       </c>
       <c r="D18" s="13">
-        <v>776296</v>
+        <v>795989</v>
       </c>
       <c r="E18" s="13">
-        <v>248436</v>
+        <v>263871</v>
       </c>
       <c r="F18" s="14">
-        <v>35.37007320089193</v>
+        <v>36.267337712811567</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>77</v>
@@ -2206,7 +2221,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>11.319392996662083</v>
+        <v>12.022651908025489</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>77</v>
@@ -2227,16 +2242,16 @@
         <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>66757</v>
+        <v>71298</v>
       </c>
       <c r="Q18" s="18">
-        <v>164856</v>
+        <v>169176</v>
       </c>
       <c r="R18" s="17">
-        <v>5505</v>
+        <v>6485</v>
       </c>
       <c r="S18" s="18">
-        <v>11777</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2247,55 +2262,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1396932</v>
+        <v>1452535</v>
       </c>
       <c r="D19" s="37">
-        <v>1002124</v>
+        <v>1033700</v>
       </c>
       <c r="E19" s="37">
-        <v>394808</v>
+        <v>418835</v>
       </c>
       <c r="F19" s="38">
-        <v>34.511099869032464</v>
+        <v>35.598512693657533</v>
       </c>
       <c r="G19" s="64">
-        <v>20.021466581952556</v>
+        <v>20.952012467507981</v>
       </c>
       <c r="H19" s="64">
-        <v>68.541111427612591</v>
+        <v>70.203513012631475</v>
       </c>
       <c r="I19" s="64">
-        <v>13.596379606808107</v>
+        <v>14.423820319288044</v>
       </c>
       <c r="J19" s="64">
-        <v>7.2094720065362106</v>
+        <v>7.8221926748480595</v>
       </c>
       <c r="K19" s="64">
-        <v>28.597112968346906</v>
+        <v>29.722333382154009</v>
       </c>
       <c r="L19" s="42">
-        <v>286137</v>
+        <v>294753</v>
       </c>
       <c r="M19" s="42">
-        <v>375344</v>
+        <v>381162</v>
       </c>
       <c r="N19" s="42">
-        <v>138154</v>
+        <v>149019</v>
       </c>
       <c r="O19" s="42">
-        <v>231298</v>
+        <v>237182</v>
       </c>
       <c r="P19" s="42">
-        <v>121631</v>
+        <v>131967</v>
       </c>
       <c r="Q19" s="42">
-        <v>218989</v>
+        <v>227586</v>
       </c>
       <c r="R19" s="42">
-        <v>8678</v>
+        <v>10292</v>
       </c>
       <c r="S19" s="42">
-        <v>16673</v>
+        <v>20546</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2306,55 +2321,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1041879</v>
+        <v>1074962</v>
       </c>
       <c r="D20" s="13">
-        <v>719375</v>
+        <v>740310</v>
       </c>
       <c r="E20" s="13">
-        <v>322504</v>
+        <v>334652</v>
       </c>
       <c r="F20" s="14">
-        <v>33.719997112560456</v>
+        <v>34.701304691433023</v>
       </c>
       <c r="G20" s="44">
-        <v>19.297295216697723</v>
+        <v>20.192640788297567</v>
       </c>
       <c r="H20" s="44">
-        <v>61.42847755374725</v>
+        <v>62.583372578225102</v>
       </c>
       <c r="I20" s="44">
-        <v>15.117058486587936</v>
+        <v>15.686484064239906</v>
       </c>
       <c r="J20" s="44">
-        <v>7.6022758214640591</v>
+        <v>7.9841217116846126</v>
       </c>
       <c r="K20" s="44">
-        <v>29.541957352667374</v>
+        <v>30.463162736701459</v>
       </c>
       <c r="L20" s="18">
-        <v>214203</v>
+        <v>222858</v>
       </c>
       <c r="M20" s="18">
-        <v>303917</v>
+        <v>307741</v>
       </c>
       <c r="N20" s="18">
-        <v>98974</v>
+        <v>101413</v>
       </c>
       <c r="O20" s="18">
-        <v>198334</v>
+        <v>201070</v>
       </c>
       <c r="P20" s="18">
-        <v>56523</v>
+        <v>60429</v>
       </c>
       <c r="Q20" s="18">
-        <v>144791</v>
+        <v>149403</v>
       </c>
       <c r="R20" s="18">
-        <v>7680</v>
+        <v>10598</v>
       </c>
       <c r="S20" s="18">
-        <v>17457</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2363,13 +2378,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>90664</v>
+        <v>99333</v>
       </c>
       <c r="D21" s="37">
-        <v>76513</v>
+        <v>80592</v>
       </c>
       <c r="E21" s="37">
-        <v>14151</v>
+        <v>18741</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>77</v>
@@ -2390,16 +2405,16 @@
         <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>71796</v>
+        <v>76665</v>
       </c>
       <c r="M21" s="41">
-        <v>6556</v>
+        <v>6706</v>
       </c>
       <c r="N21" s="41">
-        <v>11532</v>
+        <v>14948</v>
       </c>
       <c r="O21" s="41">
-        <v>780</v>
+        <v>1014</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>77</v>
@@ -2420,16 +2435,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>40075392</v>
+        <v>41517849</v>
       </c>
       <c r="D22" s="21">
-        <v>30743232</v>
+        <v>31616223</v>
       </c>
       <c r="E22" s="21">
-        <v>9332160</v>
+        <v>9901626</v>
       </c>
       <c r="F22" s="22">
-        <v>36.965790314829214</v>
+        <v>38.015478332430384</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>77</v>
@@ -2438,7 +2453,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>11.22102808658623</v>
+        <v>11.905756378895397</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>77</v>
@@ -2459,16 +2474,16 @@
         <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>4023535</v>
+        <v>4324363</v>
       </c>
       <c r="Q22" s="25">
-        <v>5350255</v>
+        <v>5488099</v>
       </c>
       <c r="R22" s="25">
-        <v>279523</v>
+        <v>350729</v>
       </c>
       <c r="S22" s="25">
-        <v>416228</v>
+        <v>530776</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2496,27 +2511,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2567,54 +2582,35 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2642,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36246FF8-D917-43A6-8C76-62F6D1CA6D2E}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,118 +2651,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="77"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="79" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="79" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="77"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="S3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82" t="s">
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2775,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2795,7 +2791,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="82"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2804,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="82"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2820,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="82"/>
+      <c r="X4" s="74"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2834,70 +2830,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2894879</v>
+        <v>2945361</v>
       </c>
       <c r="D5" s="45">
-        <v>1823941</v>
+        <v>1860878</v>
       </c>
       <c r="E5" s="45">
-        <v>291098</v>
+        <v>303497</v>
       </c>
       <c r="F5" s="45">
-        <v>779840</v>
+        <v>780986</v>
       </c>
       <c r="G5" s="45">
-        <v>22088</v>
+        <v>24234</v>
       </c>
       <c r="H5" s="45">
-        <v>1133793</v>
+        <v>1192701</v>
       </c>
       <c r="I5" s="45">
-        <v>974533</v>
+        <v>1009358</v>
       </c>
       <c r="J5" s="45">
-        <v>81924</v>
+        <v>92222</v>
       </c>
       <c r="K5" s="45">
-        <v>63805</v>
+        <v>74135</v>
       </c>
       <c r="L5" s="45">
-        <v>13531</v>
+        <v>16986</v>
       </c>
       <c r="M5" s="45">
-        <v>24285</v>
+        <v>29157</v>
       </c>
       <c r="N5" s="45">
-        <v>1133190</v>
+        <v>1183081</v>
       </c>
       <c r="O5" s="45">
-        <v>952156</v>
+        <v>976442</v>
       </c>
       <c r="P5" s="45">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="45">
-        <v>180718</v>
+        <v>206312</v>
       </c>
       <c r="R5" s="45">
-        <v>2639</v>
+        <v>34600</v>
       </c>
       <c r="S5" s="45">
-        <v>106548</v>
+        <v>132668</v>
       </c>
       <c r="T5" s="45">
-        <v>102826</v>
+        <v>127692</v>
       </c>
       <c r="U5" s="45">
         <v>43</v>
       </c>
       <c r="V5" s="45">
-        <v>3650</v>
+        <v>4876</v>
       </c>
       <c r="W5" s="45">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="X5" s="45">
-        <v>861</v>
+        <v>22679</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2908,70 +2904,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3434002</v>
+        <v>3518352</v>
       </c>
       <c r="D6" s="46">
-        <v>2379736</v>
+        <v>2442872</v>
       </c>
       <c r="E6" s="46">
-        <v>329488</v>
+        <v>350037</v>
       </c>
       <c r="F6" s="46">
-        <v>724778</v>
+        <v>725443</v>
       </c>
       <c r="G6" s="46">
-        <v>32251</v>
+        <v>41917</v>
       </c>
       <c r="H6" s="46">
-        <v>1285424</v>
+        <v>1327905</v>
       </c>
       <c r="I6" s="46">
-        <v>1127925</v>
+        <v>1162392</v>
       </c>
       <c r="J6" s="46">
-        <v>100937</v>
+        <v>105352</v>
       </c>
       <c r="K6" s="46">
-        <v>53874</v>
+        <v>56252</v>
       </c>
       <c r="L6" s="46">
-        <v>2688</v>
+        <v>3909</v>
       </c>
       <c r="M6" s="46">
-        <v>17424</v>
+        <v>22109</v>
       </c>
       <c r="N6" s="46">
-        <v>1556666</v>
+        <v>1622117</v>
       </c>
       <c r="O6" s="46">
-        <v>1174360</v>
+        <v>1205568</v>
       </c>
       <c r="P6" s="46">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="46">
-        <v>381870</v>
+        <v>416103</v>
       </c>
       <c r="R6" s="46">
-        <v>2099</v>
+        <v>44265</v>
       </c>
       <c r="S6" s="46">
-        <v>92397</v>
+        <v>125063</v>
       </c>
       <c r="T6" s="46">
-        <v>79320</v>
+        <v>108586</v>
       </c>
       <c r="U6" s="46">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="V6" s="46">
-        <v>12307</v>
+        <v>15667</v>
       </c>
       <c r="W6" s="46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X6" s="46">
-        <v>74</v>
+        <v>27190</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2982,70 +2978,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>845920</v>
+        <v>867118</v>
       </c>
       <c r="D7" s="45">
-        <v>568808</v>
+        <v>580470</v>
       </c>
       <c r="E7" s="45">
-        <v>91351</v>
+        <v>100882</v>
       </c>
       <c r="F7" s="45">
-        <v>185761</v>
+        <v>185766</v>
       </c>
       <c r="G7" s="45">
-        <v>8331</v>
+        <v>13329</v>
       </c>
       <c r="H7" s="45">
-        <v>432370</v>
+        <v>451802</v>
       </c>
       <c r="I7" s="45">
-        <v>374695</v>
+        <v>393278</v>
       </c>
       <c r="J7" s="45">
-        <v>52526</v>
+        <v>53119</v>
       </c>
       <c r="K7" s="45">
-        <v>1421</v>
+        <v>1677</v>
       </c>
       <c r="L7" s="45">
         <v>3728</v>
       </c>
       <c r="M7" s="45">
-        <v>6482</v>
+        <v>12277</v>
       </c>
       <c r="N7" s="45">
-        <v>393462</v>
+        <v>416568</v>
       </c>
       <c r="O7" s="45">
-        <v>292215</v>
+        <v>305181</v>
       </c>
       <c r="P7" s="45">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="45">
-        <v>101126</v>
+        <v>111263</v>
       </c>
       <c r="R7" s="45">
-        <v>132</v>
+        <v>15904</v>
       </c>
       <c r="S7" s="45">
-        <v>31903</v>
+        <v>40265</v>
       </c>
       <c r="T7" s="45">
-        <v>26788</v>
+        <v>33859</v>
       </c>
       <c r="U7" s="45">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="V7" s="45">
-        <v>5024</v>
+        <v>6305</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>19</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3056,70 +3052,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>501203</v>
+        <v>506615</v>
       </c>
       <c r="D8" s="46">
-        <v>329635</v>
+        <v>334782</v>
       </c>
       <c r="E8" s="46">
-        <v>64874</v>
+        <v>65011</v>
       </c>
       <c r="F8" s="46">
-        <v>106694</v>
+        <v>106822</v>
       </c>
       <c r="G8" s="46">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="H8" s="46">
-        <v>259139</v>
+        <v>274097</v>
       </c>
       <c r="I8" s="46">
-        <v>218237</v>
+        <v>224969</v>
       </c>
       <c r="J8" s="46">
-        <v>27073</v>
+        <v>32233</v>
       </c>
       <c r="K8" s="46">
-        <v>13023</v>
+        <v>15556</v>
       </c>
       <c r="L8" s="46">
-        <v>806</v>
+        <v>1339</v>
       </c>
       <c r="M8" s="46">
-        <v>0</v>
+        <v>9184</v>
       </c>
       <c r="N8" s="46">
-        <v>311424</v>
+        <v>328332</v>
       </c>
       <c r="O8" s="46">
-        <v>222237</v>
+        <v>229765</v>
       </c>
       <c r="P8" s="46">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="Q8" s="46">
-        <v>88611</v>
+        <v>97973</v>
       </c>
       <c r="R8" s="46">
-        <v>358</v>
+        <v>11321</v>
       </c>
       <c r="S8" s="46">
-        <v>42620</v>
+        <v>48331</v>
       </c>
       <c r="T8" s="46">
-        <v>39639</v>
+        <v>44232</v>
       </c>
       <c r="U8" s="46">
         <v>58</v>
       </c>
       <c r="V8" s="46">
-        <v>2923</v>
+        <v>4041</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>62</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3130,70 +3126,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>192633</v>
+        <v>194779</v>
       </c>
       <c r="D9" s="45">
-        <v>117456</v>
+        <v>118769</v>
       </c>
       <c r="E9" s="45">
-        <v>13512</v>
+        <v>13532</v>
       </c>
       <c r="F9" s="45">
-        <v>61665</v>
+        <v>62478</v>
       </c>
       <c r="G9" s="45">
-        <v>602</v>
+        <v>1303</v>
       </c>
       <c r="H9" s="45">
-        <v>95154</v>
+        <v>100221</v>
       </c>
       <c r="I9" s="45">
-        <v>85455</v>
+        <v>89129</v>
       </c>
       <c r="J9" s="45">
-        <v>5864</v>
+        <v>6832</v>
       </c>
       <c r="K9" s="45">
-        <v>2230</v>
+        <v>2655</v>
       </c>
       <c r="L9" s="45">
         <v>1605</v>
       </c>
       <c r="M9" s="45">
-        <v>948</v>
+        <v>2463</v>
       </c>
       <c r="N9" s="45">
-        <v>64948</v>
+        <v>68473</v>
       </c>
       <c r="O9" s="45">
-        <v>53343</v>
+        <v>54998</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>11591</v>
+        <v>13461</v>
       </c>
       <c r="R9" s="45">
-        <v>225</v>
+        <v>2625</v>
       </c>
       <c r="S9" s="45">
-        <v>4322</v>
+        <v>5481</v>
       </c>
       <c r="T9" s="45">
-        <v>4107</v>
+        <v>5229</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>5</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3204,70 +3200,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>496960</v>
+        <v>504549</v>
       </c>
       <c r="D10" s="46">
-        <v>322080</v>
+        <v>323855</v>
       </c>
       <c r="E10" s="46">
-        <v>54440</v>
+        <v>60228</v>
       </c>
       <c r="F10" s="46">
-        <v>120440</v>
+        <v>120466</v>
       </c>
       <c r="G10" s="46">
-        <v>3211</v>
+        <v>1847</v>
       </c>
       <c r="H10" s="46">
-        <v>179522</v>
+        <v>193039</v>
       </c>
       <c r="I10" s="46">
-        <v>163115</v>
+        <v>175034</v>
       </c>
       <c r="J10" s="46">
-        <v>13011</v>
+        <v>14394</v>
       </c>
       <c r="K10" s="46">
-        <v>2288</v>
+        <v>2497</v>
       </c>
       <c r="L10" s="46">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="M10" s="46">
-        <v>3093</v>
+        <v>7149</v>
       </c>
       <c r="N10" s="46">
-        <v>168383</v>
+        <v>176538</v>
       </c>
       <c r="O10" s="46">
-        <v>136874</v>
+        <v>141238</v>
       </c>
       <c r="P10" s="46">
-        <v>2122</v>
+        <v>2505</v>
       </c>
       <c r="Q10" s="46">
-        <v>29387</v>
+        <v>32795</v>
       </c>
       <c r="R10" s="46">
-        <v>204</v>
+        <v>5395</v>
       </c>
       <c r="S10" s="46">
-        <v>9602</v>
+        <v>12180</v>
       </c>
       <c r="T10" s="46">
-        <v>8845</v>
+        <v>11196</v>
       </c>
       <c r="U10" s="46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V10" s="46">
-        <v>741</v>
+        <v>963</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>10</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3278,70 +3274,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1685011</v>
+        <v>1723983</v>
       </c>
       <c r="D11" s="45">
-        <v>1040225</v>
+        <v>1069287</v>
       </c>
       <c r="E11" s="45">
-        <v>178812</v>
+        <v>188029</v>
       </c>
       <c r="F11" s="45">
-        <v>465974</v>
+        <v>466667</v>
       </c>
       <c r="G11" s="45">
-        <v>15104</v>
+        <v>18008</v>
       </c>
       <c r="H11" s="45">
-        <v>595345</v>
+        <v>612970</v>
       </c>
       <c r="I11" s="45">
-        <v>525737</v>
+        <v>536314</v>
       </c>
       <c r="J11" s="45">
-        <v>33669</v>
+        <v>36984</v>
       </c>
       <c r="K11" s="45">
-        <v>35939</v>
+        <v>39432</v>
       </c>
       <c r="L11" s="45">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="M11" s="45">
-        <v>10378</v>
+        <v>8771</v>
       </c>
       <c r="N11" s="45">
-        <v>643247</v>
+        <v>671267</v>
       </c>
       <c r="O11" s="45">
-        <v>510158</v>
+        <v>525434</v>
       </c>
       <c r="P11" s="45">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="45">
-        <v>132933</v>
+        <v>145670</v>
       </c>
       <c r="R11" s="45">
-        <v>718</v>
+        <v>19718</v>
       </c>
       <c r="S11" s="45">
-        <v>43717</v>
+        <v>55939</v>
       </c>
       <c r="T11" s="45">
-        <v>40015</v>
+        <v>51218</v>
       </c>
       <c r="U11" s="45">
         <v>126</v>
       </c>
       <c r="V11" s="45">
-        <v>3533</v>
+        <v>4552</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>74</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3352,70 +3348,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>387444</v>
+        <v>395224</v>
       </c>
       <c r="D12" s="46">
-        <v>277900</v>
+        <v>281696</v>
       </c>
       <c r="E12" s="46">
-        <v>43797</v>
+        <v>47663</v>
       </c>
       <c r="F12" s="46">
-        <v>65747</v>
+        <v>65865</v>
       </c>
       <c r="G12" s="46">
-        <v>0</v>
+        <v>4059</v>
       </c>
       <c r="H12" s="46">
-        <v>147892</v>
+        <v>154653</v>
       </c>
       <c r="I12" s="46">
-        <v>133710</v>
+        <v>138780</v>
       </c>
       <c r="J12" s="46">
-        <v>12041</v>
+        <v>12819</v>
       </c>
       <c r="K12" s="46">
-        <v>1211</v>
+        <v>1566</v>
       </c>
       <c r="L12" s="46">
-        <v>930</v>
+        <v>1488</v>
       </c>
       <c r="M12" s="46">
-        <v>0</v>
+        <v>4130</v>
       </c>
       <c r="N12" s="46">
-        <v>238950</v>
+        <v>247556</v>
       </c>
       <c r="O12" s="46">
-        <v>179750</v>
+        <v>184695</v>
       </c>
       <c r="P12" s="46">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="46">
-        <v>59103</v>
+        <v>62759</v>
       </c>
       <c r="R12" s="46">
-        <v>31</v>
+        <v>5658</v>
       </c>
       <c r="S12" s="46">
-        <v>20223</v>
+        <v>24598</v>
       </c>
       <c r="T12" s="46">
-        <v>18224</v>
+        <v>21704</v>
       </c>
       <c r="U12" s="46">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V12" s="46">
-        <v>1948</v>
+        <v>2841</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>14</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3426,70 +3422,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2130662</v>
+        <v>2165272</v>
       </c>
       <c r="D13" s="45">
-        <v>1276207</v>
+        <v>1301888</v>
       </c>
       <c r="E13" s="45">
-        <v>200256</v>
+        <v>204263</v>
       </c>
       <c r="F13" s="45">
-        <v>654199</v>
+        <v>659121</v>
       </c>
       <c r="G13" s="45">
-        <v>3831</v>
+        <v>15079</v>
       </c>
       <c r="H13" s="45">
-        <v>719734</v>
+        <v>751512</v>
       </c>
       <c r="I13" s="45">
-        <v>629765</v>
+        <v>651462</v>
       </c>
       <c r="J13" s="45">
-        <v>57611</v>
+        <v>65124</v>
       </c>
       <c r="K13" s="45">
-        <v>18305</v>
+        <v>19836</v>
       </c>
       <c r="L13" s="45">
-        <v>14053</v>
+        <v>15090</v>
       </c>
       <c r="M13" s="45">
-        <v>2386</v>
+        <v>22374</v>
       </c>
       <c r="N13" s="45">
-        <v>919105</v>
+        <v>960194</v>
       </c>
       <c r="O13" s="45">
-        <v>711517</v>
+        <v>729375</v>
       </c>
       <c r="P13" s="45">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="Q13" s="45">
-        <v>207020</v>
+        <v>230228</v>
       </c>
       <c r="R13" s="45">
-        <v>1441</v>
+        <v>27501</v>
       </c>
       <c r="S13" s="45">
-        <v>47824</v>
+        <v>61874</v>
       </c>
       <c r="T13" s="45">
-        <v>40625</v>
+        <v>53257</v>
       </c>
       <c r="U13" s="45">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="V13" s="45">
-        <v>6724</v>
+        <v>8116</v>
       </c>
       <c r="W13" s="45">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X13" s="45">
-        <v>177</v>
+        <v>11579</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3500,70 +3496,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4752915</v>
+        <v>4842090</v>
       </c>
       <c r="D14" s="46">
-        <v>3202152</v>
+        <v>3262970</v>
       </c>
       <c r="E14" s="46">
-        <v>405138</v>
+        <v>432060</v>
       </c>
       <c r="F14" s="46">
-        <v>1145625</v>
+        <v>1147060</v>
       </c>
       <c r="G14" s="46">
-        <v>32169</v>
+        <v>39781</v>
       </c>
       <c r="H14" s="46">
-        <v>1734654</v>
+        <v>1821721</v>
       </c>
       <c r="I14" s="46">
-        <v>1594497</v>
+        <v>1660611</v>
       </c>
       <c r="J14" s="46">
-        <v>105598</v>
+        <v>120267</v>
       </c>
       <c r="K14" s="46">
-        <v>29728</v>
+        <v>34326</v>
       </c>
       <c r="L14" s="46">
-        <v>4831</v>
+        <v>6517</v>
       </c>
       <c r="M14" s="46">
-        <v>28839</v>
+        <v>23334</v>
       </c>
       <c r="N14" s="46">
-        <v>2262946</v>
+        <v>2378438</v>
       </c>
       <c r="O14" s="46">
-        <v>1671941</v>
+        <v>1719895</v>
       </c>
       <c r="P14" s="46">
-        <v>6286</v>
+        <v>6363</v>
       </c>
       <c r="Q14" s="46">
-        <v>584719</v>
+        <v>652180</v>
       </c>
       <c r="R14" s="46">
-        <v>3697</v>
+        <v>76312</v>
       </c>
       <c r="S14" s="46">
-        <v>119149</v>
+        <v>159148</v>
       </c>
       <c r="T14" s="46">
-        <v>103497</v>
+        <v>139132</v>
       </c>
       <c r="U14" s="46">
-        <v>1470</v>
+        <v>1495</v>
       </c>
       <c r="V14" s="46">
-        <v>13956</v>
+        <v>18295</v>
       </c>
       <c r="W14" s="46">
         <v>226</v>
       </c>
       <c r="X14" s="46">
-        <v>337</v>
+        <v>33034</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3574,70 +3570,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>1003608</v>
+        <v>1026197</v>
       </c>
       <c r="D15" s="45">
-        <v>656724</v>
+        <v>670547</v>
       </c>
       <c r="E15" s="45">
-        <v>82982</v>
+        <v>91615</v>
       </c>
       <c r="F15" s="45">
-        <v>263902</v>
+        <v>264035</v>
       </c>
       <c r="G15" s="45">
-        <v>4060</v>
+        <v>10442</v>
       </c>
       <c r="H15" s="45">
-        <v>491271</v>
+        <v>510747</v>
       </c>
       <c r="I15" s="45">
-        <v>423875</v>
+        <v>442439</v>
       </c>
       <c r="J15" s="45">
-        <v>38318</v>
+        <v>39005</v>
       </c>
       <c r="K15" s="45">
-        <v>29078</v>
+        <v>29303</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>760</v>
+        <v>8307</v>
       </c>
       <c r="N15" s="45">
-        <v>440251</v>
+        <v>461057</v>
       </c>
       <c r="O15" s="45">
-        <v>356064</v>
+        <v>367298</v>
       </c>
       <c r="P15" s="45">
         <v>203</v>
       </c>
       <c r="Q15" s="45">
-        <v>83984</v>
+        <v>93556</v>
       </c>
       <c r="R15" s="45">
-        <v>1720</v>
+        <v>15608</v>
       </c>
       <c r="S15" s="45">
-        <v>35239</v>
+        <v>44822</v>
       </c>
       <c r="T15" s="45">
-        <v>34256</v>
+        <v>43614</v>
       </c>
       <c r="U15" s="45">
         <v>69</v>
       </c>
       <c r="V15" s="45">
-        <v>914</v>
+        <v>1139</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>19</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3648,70 +3644,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>295198</v>
+        <v>299097</v>
       </c>
       <c r="D16" s="46">
-        <v>223943</v>
+        <v>227444</v>
       </c>
       <c r="E16" s="46">
-        <v>29189</v>
+        <v>29581</v>
       </c>
       <c r="F16" s="46">
-        <v>42066</v>
+        <v>42072</v>
       </c>
       <c r="G16" s="46">
-        <v>286</v>
+        <v>1665</v>
       </c>
       <c r="H16" s="46">
-        <v>106430</v>
+        <v>115449</v>
       </c>
       <c r="I16" s="46">
-        <v>94148</v>
+        <v>101009</v>
       </c>
       <c r="J16" s="46">
-        <v>8830</v>
+        <v>10488</v>
       </c>
       <c r="K16" s="46">
-        <v>3452</v>
+        <v>3952</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>749</v>
+        <v>4140</v>
       </c>
       <c r="N16" s="46">
-        <v>113768</v>
+        <v>119809</v>
       </c>
       <c r="O16" s="46">
-        <v>94035</v>
+        <v>96459</v>
       </c>
       <c r="P16" s="46">
         <v>79</v>
       </c>
       <c r="Q16" s="46">
-        <v>19654</v>
+        <v>23271</v>
       </c>
       <c r="R16" s="46">
-        <v>121</v>
+        <v>4650</v>
       </c>
       <c r="S16" s="46">
-        <v>7844</v>
+        <v>10625</v>
       </c>
       <c r="T16" s="46">
-        <v>7076</v>
+        <v>9587</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>762</v>
+        <v>1032</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>8</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3722,70 +3718,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>926031</v>
+        <v>952230</v>
       </c>
       <c r="D17" s="45">
-        <v>655678</v>
+        <v>663398</v>
       </c>
       <c r="E17" s="45">
-        <v>88856</v>
+        <v>106023</v>
       </c>
       <c r="F17" s="45">
-        <v>181497</v>
+        <v>182809</v>
       </c>
       <c r="G17" s="45">
-        <v>10817</v>
+        <v>14482</v>
       </c>
       <c r="H17" s="45">
-        <v>543348</v>
+        <v>560918</v>
       </c>
       <c r="I17" s="45">
-        <v>497454</v>
+        <v>510366</v>
       </c>
       <c r="J17" s="45">
-        <v>42922</v>
+        <v>44449</v>
       </c>
       <c r="K17" s="45">
-        <v>2972</v>
+        <v>4282</v>
       </c>
       <c r="L17" s="45">
-        <v>0</v>
+        <v>1821</v>
       </c>
       <c r="M17" s="45">
-        <v>7507</v>
+        <v>7463</v>
       </c>
       <c r="N17" s="45">
-        <v>376118</v>
+        <v>391335</v>
       </c>
       <c r="O17" s="45">
-        <v>277098</v>
+        <v>285231</v>
       </c>
       <c r="P17" s="45">
         <v>174</v>
       </c>
       <c r="Q17" s="45">
-        <v>98846</v>
+        <v>105930</v>
       </c>
       <c r="R17" s="45">
-        <v>105</v>
+        <v>10471</v>
       </c>
       <c r="S17" s="45">
-        <v>66797</v>
+        <v>76798</v>
       </c>
       <c r="T17" s="45">
-        <v>65236</v>
+        <v>74168</v>
       </c>
       <c r="U17" s="45">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="V17" s="45">
-        <v>1488</v>
+        <v>2528</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>28</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3796,70 +3792,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>544200</v>
+        <v>555032</v>
       </c>
       <c r="D18" s="47">
-        <v>360161</v>
+        <v>367859</v>
       </c>
       <c r="E18" s="47">
-        <v>53861</v>
+        <v>56945</v>
       </c>
       <c r="F18" s="47">
-        <v>130178</v>
+        <v>130228</v>
       </c>
       <c r="G18" s="47">
-        <v>613</v>
+        <v>4824</v>
       </c>
       <c r="H18" s="47">
-        <v>231154</v>
+        <v>242891</v>
       </c>
       <c r="I18" s="47">
-        <v>193976</v>
+        <v>201118</v>
       </c>
       <c r="J18" s="47">
-        <v>28124</v>
+        <v>30749</v>
       </c>
       <c r="K18" s="47">
-        <v>6853</v>
+        <v>7413</v>
       </c>
       <c r="L18" s="47">
-        <v>2201</v>
+        <v>3611</v>
       </c>
       <c r="M18" s="47">
-        <v>1567</v>
+        <v>6227</v>
       </c>
       <c r="N18" s="46">
-        <v>232096</v>
+        <v>240957</v>
       </c>
       <c r="O18" s="46">
-        <v>193993</v>
+        <v>199523</v>
       </c>
       <c r="P18" s="46">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="46">
-        <v>38067</v>
+        <v>41394</v>
       </c>
       <c r="R18" s="46">
-        <v>96</v>
+        <v>6125</v>
       </c>
       <c r="S18" s="46">
-        <v>17282</v>
+        <v>20980</v>
       </c>
       <c r="T18" s="46">
-        <v>15959</v>
+        <v>19324</v>
       </c>
       <c r="U18" s="46">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="V18" s="46">
-        <v>1297</v>
+        <v>1608</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>88</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3870,70 +3866,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>661481</v>
+        <v>674124</v>
       </c>
       <c r="D19" s="45">
-        <v>458939</v>
+        <v>468244</v>
       </c>
       <c r="E19" s="45">
-        <v>57305</v>
+        <v>60583</v>
       </c>
       <c r="F19" s="45">
-        <v>145237</v>
+        <v>145297</v>
       </c>
       <c r="G19" s="45">
-        <v>5123</v>
+        <v>6040</v>
       </c>
       <c r="H19" s="45">
-        <v>369452</v>
+        <v>387992</v>
       </c>
       <c r="I19" s="45">
-        <v>319322</v>
+        <v>331166</v>
       </c>
       <c r="J19" s="45">
-        <v>34727</v>
+        <v>36941</v>
       </c>
       <c r="K19" s="45">
-        <v>15403</v>
+        <v>18083</v>
       </c>
       <c r="L19" s="45">
-        <v>0</v>
+        <v>1802</v>
       </c>
       <c r="M19" s="45">
-        <v>6658</v>
+        <v>9026</v>
       </c>
       <c r="N19" s="45">
-        <v>340643</v>
+        <v>359576</v>
       </c>
       <c r="O19" s="45">
-        <v>265090</v>
+        <v>272073</v>
       </c>
       <c r="P19" s="45">
-        <v>2401</v>
+        <v>2641</v>
       </c>
       <c r="Q19" s="45">
-        <v>73152</v>
+        <v>84862</v>
       </c>
       <c r="R19" s="45">
-        <v>250</v>
+        <v>13572</v>
       </c>
       <c r="S19" s="45">
-        <v>25356</v>
+        <v>30843</v>
       </c>
       <c r="T19" s="45">
-        <v>23570</v>
+        <v>28727</v>
       </c>
       <c r="U19" s="45">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="V19" s="45">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>2</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3944,70 +3940,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>518061</v>
+        <v>530478</v>
       </c>
       <c r="D20" s="47">
-        <v>351277</v>
+        <v>359463</v>
       </c>
       <c r="E20" s="47">
-        <v>57728</v>
+        <v>61959</v>
       </c>
       <c r="F20" s="47">
         <v>109056</v>
       </c>
       <c r="G20" s="47">
-        <v>2970</v>
+        <v>6798</v>
       </c>
       <c r="H20" s="47">
-        <v>297367</v>
+        <v>302604</v>
       </c>
       <c r="I20" s="47">
-        <v>276476</v>
+        <v>281501</v>
       </c>
       <c r="J20" s="47">
-        <v>19937</v>
+        <v>19982</v>
       </c>
       <c r="K20" s="47">
-        <v>895</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="47">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="M20" s="47">
-        <v>213</v>
+        <v>2292</v>
       </c>
       <c r="N20" s="47">
-        <v>201314</v>
+        <v>209832</v>
       </c>
       <c r="O20" s="46">
-        <v>168664</v>
+        <v>173450</v>
       </c>
       <c r="P20" s="46">
         <v>94</v>
       </c>
       <c r="Q20" s="46">
-        <v>32556</v>
+        <v>36288</v>
       </c>
       <c r="R20" s="46">
-        <v>310</v>
+        <v>6315</v>
       </c>
       <c r="S20" s="46">
-        <v>25137</v>
+        <v>32048</v>
       </c>
       <c r="T20" s="46">
-        <v>21416</v>
+        <v>27006</v>
       </c>
       <c r="U20" s="46">
         <v>4</v>
       </c>
       <c r="V20" s="46">
-        <v>3707</v>
+        <v>5028</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>81</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -4016,37 +4012,37 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>76513</v>
+        <v>80592</v>
       </c>
       <c r="D21" s="45">
-        <v>1611</v>
+        <v>2269</v>
       </c>
       <c r="E21" s="45">
-        <v>57032</v>
+        <v>60373</v>
       </c>
       <c r="F21" s="45">
-        <v>17870</v>
+        <v>17950</v>
       </c>
       <c r="G21" s="45">
-        <v>0</v>
+        <v>2191</v>
       </c>
       <c r="H21" s="45">
-        <v>14151</v>
+        <v>18741</v>
       </c>
       <c r="I21" s="55">
-        <v>21</v>
+        <v>393</v>
       </c>
       <c r="J21" s="55">
-        <v>12089</v>
+        <v>14847</v>
       </c>
       <c r="K21" s="55">
-        <v>200</v>
+        <v>721</v>
       </c>
       <c r="L21" s="55">
-        <v>1841</v>
+        <v>2780</v>
       </c>
       <c r="M21" s="55">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>77</v>
@@ -4086,70 +4082,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>21346721</v>
+        <v>21781093</v>
       </c>
       <c r="D22" s="57">
-        <v>14046473</v>
+        <v>14336691</v>
       </c>
       <c r="E22" s="57">
-        <v>2099719</v>
+        <v>2232281</v>
       </c>
       <c r="F22" s="57">
-        <v>5200529</v>
+        <v>5212121</v>
       </c>
       <c r="G22" s="57">
-        <v>141456</v>
+        <v>208071</v>
       </c>
       <c r="H22" s="57">
-        <v>8636200</v>
+        <v>9019963</v>
       </c>
       <c r="I22" s="57">
-        <v>7632941</v>
+        <v>7909319</v>
       </c>
       <c r="J22" s="57">
-        <v>675201</v>
+        <v>735807</v>
       </c>
       <c r="K22" s="57">
-        <v>280677</v>
+        <v>312686</v>
       </c>
       <c r="L22" s="57">
-        <v>47381</v>
+        <v>62151</v>
       </c>
       <c r="M22" s="57">
-        <v>111289</v>
+        <v>180903</v>
       </c>
       <c r="N22" s="57">
-        <v>9396511</v>
+        <v>9835130</v>
       </c>
       <c r="O22" s="57">
-        <v>7259495</v>
+        <v>7466625</v>
       </c>
       <c r="P22" s="57">
-        <v>13679</v>
+        <v>14460</v>
       </c>
       <c r="Q22" s="57">
-        <v>2123337</v>
+        <v>2354045</v>
       </c>
       <c r="R22" s="57">
-        <v>14146</v>
+        <v>300040</v>
       </c>
       <c r="S22" s="57">
-        <v>695960</v>
+        <v>881663</v>
       </c>
       <c r="T22" s="57">
-        <v>631399</v>
+        <v>798531</v>
       </c>
       <c r="U22" s="57">
-        <v>3633</v>
+        <v>3775</v>
       </c>
       <c r="V22" s="57">
-        <v>60571</v>
+        <v>78945</v>
       </c>
       <c r="W22" s="57">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="X22" s="57">
-        <v>1859</v>
+        <v>154964</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4164,35 +4160,77 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4207,12 +4245,12 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="B27:V27"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:W3"/>
+    <mergeCell ref="B27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4220,437 +4258,430 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="84" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="86">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
-        <v>23987</v>
-      </c>
-      <c r="C2" s="45">
-        <v>0</v>
-      </c>
+        <v>24073</v>
+      </c>
+      <c r="C2" s="87"/>
       <c r="D2" s="45">
-        <v>23987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+        <v>24073</v>
+      </c>
+      <c r="E2" s="85"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="88">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18522</v>
-      </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
+        <v>18523</v>
+      </c>
+      <c r="C3" s="89"/>
       <c r="D3" s="46">
-        <v>18522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+        <v>18523</v>
+      </c>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="86">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50005</v>
-      </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
+        <v>50095</v>
+      </c>
+      <c r="C4" s="87"/>
       <c r="D4" s="45">
-        <v>50005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="69">
+        <v>50095</v>
+      </c>
+      <c r="E4" s="85"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="88">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
-        <v>62547</v>
-      </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
+        <v>62661</v>
+      </c>
+      <c r="C5" s="89"/>
       <c r="D5" s="46">
-        <v>62547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+        <v>62661</v>
+      </c>
+      <c r="E5" s="85"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>49870</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
+        <v>50042</v>
+      </c>
+      <c r="C6" s="87"/>
       <c r="D6" s="45">
-        <v>49870</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+        <v>50042</v>
+      </c>
+      <c r="E6" s="85"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="88">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
-        <v>18771</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+        <v>18927</v>
+      </c>
+      <c r="C7" s="89"/>
       <c r="D7" s="46">
-        <v>18771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+        <v>18927</v>
+      </c>
+      <c r="E7" s="85"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52132</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
+        <v>52255</v>
+      </c>
+      <c r="C8" s="87"/>
       <c r="D8" s="45">
-        <v>52132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+        <v>52255</v>
+      </c>
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="88">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
-        <v>23772</v>
-      </c>
-      <c r="C9" s="46">
-        <v>0</v>
-      </c>
+        <v>23894</v>
+      </c>
+      <c r="C9" s="89"/>
       <c r="D9" s="46">
-        <v>23772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+        <v>23894</v>
+      </c>
+      <c r="E9" s="85"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48025</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
+        <v>48124</v>
+      </c>
+      <c r="C10" s="87"/>
       <c r="D10" s="45">
-        <v>48025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+        <v>48124</v>
+      </c>
+      <c r="E10" s="85"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="88">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
-        <v>53686</v>
-      </c>
-      <c r="C11" s="46">
-        <v>0</v>
-      </c>
+        <v>53739</v>
+      </c>
+      <c r="C11" s="89"/>
       <c r="D11" s="46">
-        <v>53686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+        <v>53739</v>
+      </c>
+      <c r="E11" s="85"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="86">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62664</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
+        <v>62663</v>
+      </c>
+      <c r="C12" s="87"/>
       <c r="D12" s="45">
-        <v>62664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+        <v>62663</v>
+      </c>
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="88">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>55938</v>
-      </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
+        <v>56079</v>
+      </c>
+      <c r="C13" s="89"/>
       <c r="D13" s="46">
-        <v>55938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+        <v>56079</v>
+      </c>
+      <c r="E13" s="85"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62733</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
+        <v>62734</v>
+      </c>
+      <c r="C14" s="87"/>
       <c r="D14" s="45">
-        <v>62733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+        <v>62734</v>
+      </c>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="90">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61043</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
+        <v>61392</v>
+      </c>
+      <c r="C15" s="91"/>
       <c r="D15" s="47">
-        <v>61043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="68">
+        <v>61392</v>
+      </c>
+      <c r="E15" s="85"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35504</v>
       </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
+      <c r="C16" s="87"/>
       <c r="D16" s="45">
         <v>35504</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="E16" s="85"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="90">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67526</v>
-      </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
+        <v>67551</v>
+      </c>
+      <c r="C17" s="91"/>
       <c r="D17" s="47">
-        <v>67526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+        <v>67551</v>
+      </c>
+      <c r="E17" s="85"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82600</v>
-      </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
+        <v>82599</v>
+      </c>
+      <c r="C18" s="87"/>
       <c r="D18" s="45">
-        <v>82600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+        <v>82599</v>
+      </c>
+      <c r="E18" s="85"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="88">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111515</v>
-      </c>
-      <c r="C19" s="46">
-        <v>0</v>
-      </c>
+        <v>111538</v>
+      </c>
+      <c r="C19" s="89"/>
       <c r="D19" s="46">
-        <v>111515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="68">
+        <v>111538</v>
+      </c>
+      <c r="E19" s="85"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82911</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
+        <v>82966</v>
+      </c>
+      <c r="C20" s="87"/>
       <c r="D20" s="45">
-        <v>82911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+        <v>82966</v>
+      </c>
+      <c r="E20" s="85"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="88">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90910</v>
+        <v>90907</v>
       </c>
       <c r="C21" s="46">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="68">
+        <v>91517</v>
+      </c>
+      <c r="E21" s="85"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="86">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56663</v>
+        <v>56662</v>
       </c>
       <c r="C22" s="45">
         <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+        <v>57568</v>
+      </c>
+      <c r="E22" s="85"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="88">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
-        <v>31660</v>
+        <v>31657</v>
       </c>
       <c r="C23" s="46">
         <v>17342</v>
       </c>
       <c r="D23" s="46">
-        <v>49002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="68">
+        <v>48999</v>
+      </c>
+      <c r="E23" s="85"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="86">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66855</v>
+        <v>66856</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+        <v>82628</v>
+      </c>
+      <c r="E24" s="85"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="88">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82794</v>
+        <v>82796</v>
       </c>
       <c r="C25" s="46">
-        <v>34882</v>
+        <v>34879</v>
       </c>
       <c r="D25" s="46">
-        <v>117676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="68">
+        <v>117675</v>
+      </c>
+      <c r="E25" s="85"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80503</v>
+        <v>80495</v>
       </c>
       <c r="C26" s="45">
-        <v>51510</v>
+        <v>51519</v>
       </c>
       <c r="D26" s="45">
-        <v>132013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+        <v>132014</v>
+      </c>
+      <c r="E26" s="85"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="88">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65868</v>
+        <v>65866</v>
       </c>
       <c r="C27" s="46">
         <v>41853</v>
       </c>
       <c r="D27" s="46">
-        <v>107721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="68">
+        <v>107719</v>
+      </c>
+      <c r="E27" s="85"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="86">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68478</v>
+        <v>68480</v>
       </c>
       <c r="C28" s="45">
         <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>104040</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+        <v>104042</v>
+      </c>
+      <c r="E28" s="85"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="88">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40050</v>
+        <v>40049</v>
       </c>
       <c r="C29" s="46">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="68">
+        <v>85009</v>
+      </c>
+      <c r="E29" s="85"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="86">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
-        <v>26077</v>
+        <v>26084</v>
       </c>
       <c r="C30" s="45">
         <v>23147</v>
       </c>
       <c r="D30" s="45">
-        <v>49224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+        <v>49231</v>
+      </c>
+      <c r="E30" s="85"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="90">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
@@ -4662,177 +4693,190 @@
       <c r="D31" s="47">
         <v>91704</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="68">
+      <c r="E31" s="85"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="86">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50234</v>
+        <v>50241</v>
       </c>
       <c r="C32" s="45">
         <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>98663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+        <v>98670</v>
+      </c>
+      <c r="E32" s="85"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="90">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
         <v>51514</v>
       </c>
       <c r="C33" s="47">
-        <v>59632</v>
+        <v>59631</v>
       </c>
       <c r="D33" s="47">
-        <v>111146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="68">
+        <v>111145</v>
+      </c>
+      <c r="E33" s="85"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="86">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46038</v>
+        <v>46111</v>
       </c>
       <c r="D34" s="45">
-        <v>91165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+        <v>91238</v>
+      </c>
+      <c r="E34" s="85"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="88">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51462</v>
+        <v>51463</v>
       </c>
       <c r="C35" s="46">
-        <v>57651</v>
+        <v>57650</v>
       </c>
       <c r="D35" s="46">
         <v>109113</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="68">
+      <c r="E35" s="85"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36312</v>
+        <v>36346</v>
       </c>
       <c r="C36" s="45">
-        <v>52159</v>
+        <v>52160</v>
       </c>
       <c r="D36" s="45">
-        <v>88471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="69">
+        <v>88506</v>
+      </c>
+      <c r="E36" s="85"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="88">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
-        <v>25984</v>
+        <v>25983</v>
       </c>
       <c r="C37" s="46">
-        <v>30530</v>
+        <v>30531</v>
       </c>
       <c r="D37" s="46">
         <v>56514</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
+      <c r="E37" s="85"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="86">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
-        <v>59161</v>
+        <v>59159</v>
       </c>
       <c r="C38" s="45">
-        <v>61489</v>
+        <v>61490</v>
       </c>
       <c r="D38" s="45">
-        <v>120650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+        <v>120649</v>
+      </c>
+      <c r="E38" s="85"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="88">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64214</v>
+        <v>64215</v>
       </c>
       <c r="C39" s="46">
-        <v>67477</v>
+        <v>67478</v>
       </c>
       <c r="D39" s="46">
-        <v>131691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="68">
+        <v>131693</v>
+      </c>
+      <c r="E39" s="85"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="86">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64161</v>
+        <v>64162</v>
       </c>
       <c r="C40" s="45">
-        <v>95302</v>
+        <v>95326</v>
       </c>
       <c r="D40" s="45">
-        <v>159463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+        <v>159488</v>
+      </c>
+      <c r="E40" s="85"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="88">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61086</v>
+        <v>61084</v>
       </c>
       <c r="C41" s="46">
         <v>70691</v>
       </c>
       <c r="D41" s="46">
-        <v>131777</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="68">
+        <v>131775</v>
+      </c>
+      <c r="E41" s="85"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="86">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67661</v>
+        <v>67664</v>
       </c>
       <c r="C42" s="45">
-        <v>77047</v>
+        <v>77115</v>
       </c>
       <c r="D42" s="45">
-        <v>144708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+        <v>144779</v>
+      </c>
+      <c r="E42" s="85"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="88">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
         <v>47172</v>
       </c>
       <c r="C43" s="46">
-        <v>52970</v>
+        <v>52979</v>
       </c>
       <c r="D43" s="46">
-        <v>100142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="68">
+        <v>100151</v>
+      </c>
+      <c r="E43" s="85"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="86">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
@@ -4844,1412 +4888,1552 @@
       <c r="D44" s="45">
         <v>54259</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="E44" s="85"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="88">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53168</v>
+        <v>53166</v>
       </c>
       <c r="C45" s="46">
-        <v>56780</v>
+        <v>56779</v>
       </c>
       <c r="D45" s="46">
-        <v>109948</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="68">
+        <v>109945</v>
+      </c>
+      <c r="E45" s="85"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="86">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59698</v>
+        <v>59690</v>
       </c>
       <c r="C46" s="45">
         <v>74238</v>
       </c>
       <c r="D46" s="45">
-        <v>133936</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+        <v>133928</v>
+      </c>
+      <c r="E46" s="85"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="90">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75153</v>
+        <v>75150</v>
       </c>
       <c r="C47" s="47">
-        <v>76612</v>
+        <v>76614</v>
       </c>
       <c r="D47" s="47">
-        <v>151765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="68">
+        <v>151764</v>
+      </c>
+      <c r="E47" s="85"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="86">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
         <v>73837</v>
       </c>
       <c r="C48" s="45">
-        <v>67320</v>
+        <v>67318</v>
       </c>
       <c r="D48" s="45">
-        <v>141157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+        <v>141155</v>
+      </c>
+      <c r="E48" s="85"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="90">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81422</v>
+        <v>81420</v>
       </c>
       <c r="C49" s="47">
-        <v>76073</v>
+        <v>76077</v>
       </c>
       <c r="D49" s="47">
-        <v>157495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="68">
+        <v>157497</v>
+      </c>
+      <c r="E49" s="85"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="86">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62176</v>
+        <v>62178</v>
       </c>
       <c r="C50" s="45">
-        <v>45579</v>
+        <v>45578</v>
       </c>
       <c r="D50" s="45">
-        <v>107755</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+        <v>107756</v>
+      </c>
+      <c r="E50" s="85"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="88">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40026</v>
+        <v>40025</v>
       </c>
       <c r="C51" s="46">
-        <v>25262</v>
+        <v>25269</v>
       </c>
       <c r="D51" s="46">
-        <v>65288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="68">
+        <v>65294</v>
+      </c>
+      <c r="E51" s="85"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="86">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71149</v>
+        <v>71147</v>
       </c>
       <c r="C52" s="45">
-        <v>55609</v>
+        <v>55611</v>
       </c>
       <c r="D52" s="45">
         <v>126758</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="69">
+      <c r="E52" s="85"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="88">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81985</v>
+        <v>81983</v>
       </c>
       <c r="C53" s="46">
-        <v>54620</v>
+        <v>54627</v>
       </c>
       <c r="D53" s="46">
-        <v>136605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="68">
+        <v>136610</v>
+      </c>
+      <c r="E53" s="85"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="86">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93523</v>
+        <v>93532</v>
       </c>
       <c r="C54" s="45">
-        <v>55669</v>
+        <v>55671</v>
       </c>
       <c r="D54" s="45">
-        <v>149192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+        <v>149203</v>
+      </c>
+      <c r="E54" s="85"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="88">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91456</v>
+        <v>91461</v>
       </c>
       <c r="C55" s="46">
         <v>51238</v>
       </c>
       <c r="D55" s="46">
-        <v>142694</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="68">
+        <v>142699</v>
+      </c>
+      <c r="E55" s="85"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="86">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99789</v>
+        <v>99791</v>
       </c>
       <c r="C56" s="45">
         <v>54733</v>
       </c>
       <c r="D56" s="45">
-        <v>154522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="69">
+        <v>154524</v>
+      </c>
+      <c r="E56" s="85"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="88">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76300</v>
+        <v>76305</v>
       </c>
       <c r="C57" s="46">
-        <v>37100</v>
+        <v>37099</v>
       </c>
       <c r="D57" s="46">
-        <v>113400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="68">
+        <v>113404</v>
+      </c>
+      <c r="E57" s="85"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="86">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>57044</v>
+        <v>57045</v>
       </c>
       <c r="C58" s="45">
-        <v>29109</v>
+        <v>29110</v>
       </c>
       <c r="D58" s="45">
-        <v>86153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="69">
+        <v>86155</v>
+      </c>
+      <c r="E58" s="85"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="88">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100217</v>
+        <v>100234</v>
       </c>
       <c r="C59" s="46">
-        <v>60114</v>
+        <v>60111</v>
       </c>
       <c r="D59" s="46">
-        <v>160331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="68">
+        <v>160345</v>
+      </c>
+      <c r="E59" s="85"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="86">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107410</v>
+        <v>107434</v>
       </c>
       <c r="C60" s="45">
-        <v>59773</v>
+        <v>59771</v>
       </c>
       <c r="D60" s="45">
-        <v>167183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="69">
+        <v>167205</v>
+      </c>
+      <c r="E60" s="85"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="88">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116344</v>
+        <v>116371</v>
       </c>
       <c r="C61" s="46">
-        <v>59598</v>
+        <v>59596</v>
       </c>
       <c r="D61" s="46">
-        <v>175942</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="68">
+        <v>175967</v>
+      </c>
+      <c r="E61" s="85"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="86">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130653</v>
+        <v>130819</v>
       </c>
       <c r="C62" s="45">
-        <v>58675</v>
+        <v>58530</v>
       </c>
       <c r="D62" s="45">
-        <v>189328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
+        <v>189349</v>
+      </c>
+      <c r="E62" s="85"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="90">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144375</v>
+        <v>144369</v>
       </c>
       <c r="C63" s="47">
-        <v>65425</v>
+        <v>65424</v>
       </c>
       <c r="D63" s="47">
-        <v>209800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="68">
+        <v>209793</v>
+      </c>
+      <c r="E63" s="85"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="86">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108608</v>
+        <v>108605</v>
       </c>
       <c r="C64" s="45">
-        <v>40016</v>
+        <v>40014</v>
       </c>
       <c r="D64" s="45">
-        <v>148624</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
+        <v>148619</v>
+      </c>
+      <c r="E64" s="85"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="90">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83809</v>
+        <v>83810</v>
       </c>
       <c r="C65" s="47">
         <v>24291</v>
       </c>
       <c r="D65" s="47">
-        <v>108100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="68">
+        <v>108101</v>
+      </c>
+      <c r="E65" s="85"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="86">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146430</v>
+        <v>146448</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195798</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="69">
+        <v>195816</v>
+      </c>
+      <c r="E66" s="85"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="88">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166244</v>
+        <v>166322</v>
       </c>
       <c r="C67" s="46">
         <v>53687</v>
       </c>
       <c r="D67" s="46">
-        <v>219931</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="68">
+        <v>220009</v>
+      </c>
+      <c r="E67" s="85"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="86">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174769</v>
+        <v>174721</v>
       </c>
       <c r="C68" s="45">
-        <v>68993</v>
+        <v>68995</v>
       </c>
       <c r="D68" s="45">
-        <v>243762</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="69">
+        <v>243716</v>
+      </c>
+      <c r="E68" s="85"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="88">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180453</v>
+        <v>180464</v>
       </c>
       <c r="C69" s="46">
-        <v>62679</v>
+        <v>62680</v>
       </c>
       <c r="D69" s="46">
-        <v>243132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="68">
+        <v>243144</v>
+      </c>
+      <c r="E69" s="85"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="86">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201728</v>
+        <v>201726</v>
       </c>
       <c r="C70" s="45">
-        <v>67424</v>
+        <v>67423</v>
       </c>
       <c r="D70" s="45">
-        <v>269152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="69">
+        <v>269149</v>
+      </c>
+      <c r="E70" s="85"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="88">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153198</v>
+        <v>153197</v>
       </c>
       <c r="C71" s="46">
         <v>49291</v>
       </c>
       <c r="D71" s="46">
-        <v>202489</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="68">
+        <v>202488</v>
+      </c>
+      <c r="E71" s="85"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="86">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115929</v>
+        <v>115930</v>
       </c>
       <c r="C72" s="45">
-        <v>34458</v>
+        <v>34462</v>
       </c>
       <c r="D72" s="45">
-        <v>150387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="69">
+        <v>150392</v>
+      </c>
+      <c r="E72" s="85"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="88">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186699</v>
+        <v>186717</v>
       </c>
       <c r="C73" s="46">
-        <v>52502</v>
+        <v>52508</v>
       </c>
       <c r="D73" s="46">
-        <v>239201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="68">
+        <v>239225</v>
+      </c>
+      <c r="E73" s="85"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="86">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195695</v>
+        <v>195720</v>
       </c>
       <c r="C74" s="45">
-        <v>54766</v>
+        <v>54762</v>
       </c>
       <c r="D74" s="45">
-        <v>250461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="69">
+        <v>250482</v>
+      </c>
+      <c r="E74" s="85"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="88">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218062</v>
+        <v>218075</v>
       </c>
       <c r="C75" s="46">
         <v>65687</v>
       </c>
       <c r="D75" s="46">
-        <v>283749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="68">
+        <v>283762</v>
+      </c>
+      <c r="E75" s="85"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="86">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220704</v>
+        <v>220706</v>
       </c>
       <c r="C76" s="45">
-        <v>60906</v>
+        <v>60904</v>
       </c>
       <c r="D76" s="45">
         <v>281610</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="69">
+      <c r="E76" s="85"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="88">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252347</v>
+        <v>252455</v>
       </c>
       <c r="C77" s="46">
-        <v>71651</v>
+        <v>71646</v>
       </c>
       <c r="D77" s="46">
-        <v>323998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="68">
+        <v>324101</v>
+      </c>
+      <c r="E77" s="85"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="86">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197083</v>
+        <v>197100</v>
       </c>
       <c r="C78" s="45">
-        <v>49436</v>
+        <v>49441</v>
       </c>
       <c r="D78" s="45">
-        <v>246519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="70">
+        <v>246541</v>
+      </c>
+      <c r="E78" s="85"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="90">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135211</v>
+        <v>135239</v>
       </c>
       <c r="C79" s="47">
         <v>35994</v>
       </c>
       <c r="D79" s="47">
-        <v>171205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="68">
+        <v>171233</v>
+      </c>
+      <c r="E79" s="85"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="86">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189421</v>
+        <v>189429</v>
       </c>
       <c r="C80" s="45">
         <v>58863</v>
       </c>
       <c r="D80" s="45">
-        <v>248284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="70">
+        <v>248292</v>
+      </c>
+      <c r="E80" s="85"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="90">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112135</v>
+        <v>112133</v>
       </c>
       <c r="C81" s="47">
-        <v>67021</v>
+        <v>67024</v>
       </c>
       <c r="D81" s="47">
-        <v>179156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="68">
+        <v>179157</v>
+      </c>
+      <c r="E81" s="85"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="86">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125749</v>
+        <v>125750</v>
       </c>
       <c r="C82" s="45">
-        <v>79463</v>
+        <v>79465</v>
       </c>
       <c r="D82" s="45">
-        <v>205212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="69">
+        <v>205215</v>
+      </c>
+      <c r="E82" s="85"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="88">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119361</v>
+        <v>119366</v>
       </c>
       <c r="C83" s="46">
-        <v>75344</v>
+        <v>75347</v>
       </c>
       <c r="D83" s="46">
-        <v>194705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="68">
+        <v>194713</v>
+      </c>
+      <c r="E83" s="85"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="86">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161068</v>
+        <v>161069</v>
       </c>
       <c r="C84" s="45">
-        <v>82840</v>
+        <v>82842</v>
       </c>
       <c r="D84" s="45">
-        <v>243908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="69">
+        <v>243911</v>
+      </c>
+      <c r="E84" s="85"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="88">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166339</v>
+        <v>166373</v>
       </c>
       <c r="C85" s="46">
         <v>53888</v>
       </c>
       <c r="D85" s="46">
-        <v>220227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="68">
+        <v>220261</v>
+      </c>
+      <c r="E85" s="85"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="86">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127336</v>
+        <v>127338</v>
       </c>
       <c r="C86" s="45">
-        <v>38765</v>
+        <v>38763</v>
       </c>
       <c r="D86" s="45">
         <v>166101</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="69">
+      <c r="E86" s="85"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="88">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190051</v>
+        <v>190053</v>
       </c>
       <c r="C87" s="46">
-        <v>76161</v>
+        <v>76164</v>
       </c>
       <c r="D87" s="46">
-        <v>266212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="68">
+        <v>266217</v>
+      </c>
+      <c r="E87" s="85"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="86">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214123</v>
+        <v>214161</v>
       </c>
       <c r="C88" s="45">
-        <v>83762</v>
+        <v>83763</v>
       </c>
       <c r="D88" s="45">
-        <v>297885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="69">
+        <v>297924</v>
+      </c>
+      <c r="E88" s="85"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="88">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245756</v>
+        <v>245765</v>
       </c>
       <c r="C89" s="46">
-        <v>88308</v>
+        <v>88314</v>
       </c>
       <c r="D89" s="46">
-        <v>334064</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="68">
+        <v>334079</v>
+      </c>
+      <c r="E89" s="85"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="86">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257438</v>
+        <v>257445</v>
       </c>
       <c r="C90" s="45">
-        <v>80154</v>
+        <v>80155</v>
       </c>
       <c r="D90" s="45">
-        <v>337592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="69">
+        <v>337600</v>
+      </c>
+      <c r="E90" s="85"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="88">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285974</v>
+        <v>285988</v>
       </c>
       <c r="C91" s="46">
-        <v>88749</v>
+        <v>88752</v>
       </c>
       <c r="D91" s="46">
-        <v>374723</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="68">
+        <v>374740</v>
+      </c>
+      <c r="E91" s="85"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="86">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223619</v>
+        <v>223628</v>
       </c>
       <c r="C92" s="45">
-        <v>63156</v>
+        <v>63155</v>
       </c>
       <c r="D92" s="45">
-        <v>286775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="69">
+        <v>286783</v>
+      </c>
+      <c r="E92" s="85"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="88">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144183</v>
+        <v>144184</v>
       </c>
       <c r="C93" s="46">
-        <v>52743</v>
+        <v>52741</v>
       </c>
       <c r="D93" s="46">
-        <v>196926</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="68">
+        <v>196925</v>
+      </c>
+      <c r="E93" s="85"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="86">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219749</v>
+        <v>219790</v>
       </c>
       <c r="C94" s="45">
-        <v>89030</v>
+        <v>89038</v>
       </c>
       <c r="D94" s="45">
-        <v>308779</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="70">
+        <v>308828</v>
+      </c>
+      <c r="E94" s="85"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="90">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235114</v>
+        <v>235143</v>
       </c>
       <c r="C95" s="47">
-        <v>93352</v>
+        <v>93353</v>
       </c>
       <c r="D95" s="47">
-        <v>328466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="68">
+        <v>328496</v>
+      </c>
+      <c r="E95" s="85"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="86">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238441</v>
+        <v>238536</v>
       </c>
       <c r="C96" s="45">
         <v>103075</v>
       </c>
       <c r="D96" s="45">
-        <v>341516</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="70">
+        <v>341611</v>
+      </c>
+      <c r="E96" s="85"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="90">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231317</v>
+        <v>231368</v>
       </c>
       <c r="C97" s="47">
         <v>92404</v>
       </c>
       <c r="D97" s="47">
-        <v>323721</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="68">
+        <v>323772</v>
+      </c>
+      <c r="E97" s="85"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="86">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158374</v>
+        <v>158409</v>
       </c>
       <c r="C98" s="45">
-        <v>71582</v>
+        <v>71581</v>
       </c>
       <c r="D98" s="45">
-        <v>229956</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="69">
+        <v>229990</v>
+      </c>
+      <c r="E98" s="85"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="88">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>165986</v>
+        <v>166017</v>
       </c>
       <c r="C99" s="46">
-        <v>66022</v>
+        <v>66016</v>
       </c>
       <c r="D99" s="46">
-        <v>232008</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="68">
+        <v>232033</v>
+      </c>
+      <c r="E99" s="85"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="86">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142569</v>
+        <v>142597</v>
       </c>
       <c r="C100" s="45">
-        <v>53542</v>
+        <v>53538</v>
       </c>
       <c r="D100" s="45">
-        <v>196111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="69">
+        <v>196135</v>
+      </c>
+      <c r="E100" s="85"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="88">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176250</v>
+        <v>176296</v>
       </c>
       <c r="C101" s="46">
-        <v>73397</v>
+        <v>73383</v>
       </c>
       <c r="D101" s="46">
-        <v>249647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="68">
+        <v>249679</v>
+      </c>
+      <c r="E101" s="85"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="86">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279309</v>
+        <v>279537</v>
       </c>
       <c r="C102" s="45">
-        <v>99146</v>
+        <v>99041</v>
       </c>
       <c r="D102" s="45">
-        <v>378455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="69">
+        <v>378578</v>
+      </c>
+      <c r="E102" s="85"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="88">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580475</v>
+        <v>580658</v>
       </c>
       <c r="C103" s="46">
-        <v>97100</v>
+        <v>97092</v>
       </c>
       <c r="D103" s="46">
-        <v>677575</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="68">
+        <v>677750</v>
+      </c>
+      <c r="E103" s="85"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="86">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643087</v>
+        <v>643215</v>
       </c>
       <c r="C104" s="45">
-        <v>89745</v>
+        <v>89732</v>
       </c>
       <c r="D104" s="45">
-        <v>732832</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="69">
+        <v>732947</v>
+      </c>
+      <c r="E104" s="85"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="88">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534736</v>
+        <v>534853</v>
       </c>
       <c r="C105" s="46">
-        <v>88324</v>
+        <v>88317</v>
       </c>
       <c r="D105" s="46">
-        <v>623060</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="68">
+        <v>623170</v>
+      </c>
+      <c r="E105" s="85"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="86">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>303031</v>
+        <v>303049</v>
       </c>
       <c r="C106" s="45">
-        <v>65452</v>
+        <v>65449</v>
       </c>
       <c r="D106" s="45">
-        <v>368483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="69">
+        <v>368498</v>
+      </c>
+      <c r="E106" s="85"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="88">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210522</v>
+        <v>210526</v>
       </c>
       <c r="C107" s="46">
-        <v>50076</v>
+        <v>50070</v>
       </c>
       <c r="D107" s="46">
-        <v>260598</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="68">
+        <v>260596</v>
+      </c>
+      <c r="E107" s="85"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="86">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338652</v>
+        <v>338917</v>
       </c>
       <c r="C108" s="45">
-        <v>76834</v>
+        <v>76819</v>
       </c>
       <c r="D108" s="45">
-        <v>415486</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="69">
+        <v>415736</v>
+      </c>
+      <c r="E108" s="85"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="88">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497661</v>
+        <v>497921</v>
       </c>
       <c r="C109" s="46">
-        <v>73395</v>
+        <v>73383</v>
       </c>
       <c r="D109" s="46">
-        <v>571056</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="68">
+        <v>571304</v>
+      </c>
+      <c r="E109" s="85"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="86">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690384</v>
+        <v>690514</v>
       </c>
       <c r="C110" s="45">
-        <v>83395</v>
+        <v>83394</v>
       </c>
       <c r="D110" s="45">
-        <v>773779</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="70">
+        <v>773908</v>
+      </c>
+      <c r="E110" s="85"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="90">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608495</v>
+        <v>608605</v>
       </c>
       <c r="C111" s="47">
-        <v>70788</v>
+        <v>70784</v>
       </c>
       <c r="D111" s="47">
-        <v>679283</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="68">
+        <v>679389</v>
+      </c>
+      <c r="E111" s="85"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="86">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>517951</v>
+        <v>518033</v>
       </c>
       <c r="C112" s="45">
-        <v>75367</v>
+        <v>75355</v>
       </c>
       <c r="D112" s="45">
-        <v>593318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="70">
+        <v>593388</v>
+      </c>
+      <c r="E112" s="85"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="90">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305766</v>
+        <v>305809</v>
       </c>
       <c r="C113" s="47">
-        <v>56370</v>
+        <v>56479</v>
       </c>
       <c r="D113" s="47">
-        <v>362136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="68">
+        <v>362288</v>
+      </c>
+      <c r="E113" s="85"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="86">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226954</v>
+        <v>226958</v>
       </c>
       <c r="C114" s="45">
-        <v>39223</v>
+        <v>39222</v>
       </c>
       <c r="D114" s="45">
-        <v>266177</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="69">
+        <v>266180</v>
+      </c>
+      <c r="E114" s="85"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="88">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338215</v>
+        <v>338247</v>
       </c>
       <c r="C115" s="46">
-        <v>60787</v>
+        <v>60783</v>
       </c>
       <c r="D115" s="46">
-        <v>399002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="68">
+        <v>399030</v>
+      </c>
+      <c r="E115" s="85"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="86">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493646</v>
+        <v>493769</v>
       </c>
       <c r="C116" s="45">
-        <v>61562</v>
+        <v>61614</v>
       </c>
       <c r="D116" s="45">
-        <v>555208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="69">
+        <v>555383</v>
+      </c>
+      <c r="E116" s="85"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="88">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641708</v>
+        <v>641793</v>
       </c>
       <c r="C117" s="46">
-        <v>71645</v>
+        <v>71749</v>
       </c>
       <c r="D117" s="46">
-        <v>713353</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="68">
+        <v>713542</v>
+      </c>
+      <c r="E117" s="85"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="86">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567888</v>
+        <v>567901</v>
       </c>
       <c r="C118" s="45">
-        <v>66114</v>
+        <v>66117</v>
       </c>
       <c r="D118" s="45">
-        <v>634002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="69">
+        <v>634018</v>
+      </c>
+      <c r="E118" s="85"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="88">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483374</v>
+        <v>483424</v>
       </c>
       <c r="C119" s="46">
-        <v>67554</v>
+        <v>67544</v>
       </c>
       <c r="D119" s="46">
-        <v>550928</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="68">
+        <v>550968</v>
+      </c>
+      <c r="E119" s="85"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="86">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309342</v>
+        <v>309370</v>
       </c>
       <c r="C120" s="45">
-        <v>59765</v>
+        <v>59763</v>
       </c>
       <c r="D120" s="45">
-        <v>369107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="69">
+        <v>369133</v>
+      </c>
+      <c r="E120" s="85"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="88">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235463</v>
+        <v>235491</v>
       </c>
       <c r="C121" s="46">
-        <v>47749</v>
+        <v>47748</v>
       </c>
       <c r="D121" s="46">
-        <v>283212</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="68">
+        <v>283239</v>
+      </c>
+      <c r="E121" s="85"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="86">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354412</v>
+        <v>354515</v>
       </c>
       <c r="C122" s="45">
-        <v>73166</v>
+        <v>73233</v>
       </c>
       <c r="D122" s="45">
-        <v>427578</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="69">
+        <v>427748</v>
+      </c>
+      <c r="E122" s="85"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="88">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693418</v>
+        <v>693549</v>
       </c>
       <c r="C123" s="46">
-        <v>90186</v>
+        <v>90428</v>
       </c>
       <c r="D123" s="46">
-        <v>783604</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="68">
+        <v>783977</v>
+      </c>
+      <c r="E123" s="85"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="86">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993271</v>
+        <v>993385</v>
       </c>
       <c r="C124" s="45">
-        <v>126774</v>
+        <v>126808</v>
       </c>
       <c r="D124" s="45">
-        <v>1120045</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="69">
+        <v>1120193</v>
+      </c>
+      <c r="E124" s="85"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="88">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808134</v>
+        <v>808235</v>
       </c>
       <c r="C125" s="46">
-        <v>131615</v>
+        <v>131641</v>
       </c>
       <c r="D125" s="46">
-        <v>939749</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="68">
+        <v>939876</v>
+      </c>
+      <c r="E125" s="85"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="86">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>661917</v>
+        <v>662188</v>
       </c>
       <c r="C126" s="45">
-        <v>137257</v>
+        <v>137346</v>
       </c>
       <c r="D126" s="45">
-        <v>799174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="69">
+        <v>799534</v>
+      </c>
+      <c r="E126" s="85"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="88">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259029</v>
+        <v>259041</v>
       </c>
       <c r="C127" s="46">
-        <v>75937</v>
+        <v>76146</v>
       </c>
       <c r="D127" s="46">
-        <v>334966</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="68">
+        <v>335187</v>
+      </c>
+      <c r="E127" s="85"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="86">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195298</v>
+        <v>195315</v>
       </c>
       <c r="C128" s="45">
         <v>67772</v>
       </c>
       <c r="D128" s="45">
-        <v>263070</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="69">
+        <v>263087</v>
+      </c>
+      <c r="E128" s="85"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="88">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>332910</v>
+        <v>333518</v>
       </c>
       <c r="C129" s="46">
-        <v>115571</v>
+        <v>115605</v>
       </c>
       <c r="D129" s="46">
-        <v>448481</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="68">
+        <v>449123</v>
+      </c>
+      <c r="E129" s="85"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="86">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677344</v>
+        <v>677845</v>
       </c>
       <c r="C130" s="45">
-        <v>160524</v>
+        <v>161219</v>
       </c>
       <c r="D130" s="45">
-        <v>837868</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="69">
+        <v>839064</v>
+      </c>
+      <c r="E130" s="85"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="88">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907222</v>
+        <v>907852</v>
       </c>
       <c r="C131" s="46">
-        <v>224031</v>
+        <v>225878</v>
       </c>
       <c r="D131" s="46">
-        <v>1131253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="68">
+        <v>1133730</v>
+      </c>
+      <c r="E131" s="85"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="86">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>759741</v>
+        <v>760120</v>
       </c>
       <c r="C132" s="45">
-        <v>215350</v>
+        <v>216630</v>
       </c>
       <c r="D132" s="45">
-        <v>975091</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="69">
+        <v>976750</v>
+      </c>
+      <c r="E132" s="85"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="88">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644273</v>
+        <v>644705</v>
       </c>
       <c r="C133" s="46">
-        <v>225372</v>
+        <v>227355</v>
       </c>
       <c r="D133" s="46">
-        <v>869645</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="68">
+        <v>872060</v>
+      </c>
+      <c r="E133" s="85"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="86">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268088</v>
+        <v>268505</v>
       </c>
       <c r="C134" s="45">
-        <v>150729</v>
+        <v>151763</v>
       </c>
       <c r="D134" s="45">
-        <v>418817</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="69">
+        <v>420268</v>
+      </c>
+      <c r="E134" s="85"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="88">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181117</v>
+        <v>181254</v>
       </c>
       <c r="C135" s="46">
-        <v>101412</v>
+        <v>101844</v>
       </c>
       <c r="D135" s="46">
-        <v>282529</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="68">
+        <v>283098</v>
+      </c>
+      <c r="E135" s="85"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="86">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>389858</v>
+        <v>390320</v>
       </c>
       <c r="C136" s="45">
-        <v>188714</v>
+        <v>189804</v>
       </c>
       <c r="D136" s="45">
-        <v>578572</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="69">
+        <v>580124</v>
+      </c>
+      <c r="E136" s="85"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="88">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>791635</v>
+        <v>792558</v>
       </c>
       <c r="C137" s="46">
-        <v>277559</v>
+        <v>281533</v>
       </c>
       <c r="D137" s="46">
-        <v>1069194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="68">
+        <v>1074091</v>
+      </c>
+      <c r="E137" s="85"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="86">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1036574</v>
+        <v>1039894</v>
       </c>
       <c r="C138" s="45">
-        <v>347757</v>
+        <v>357451</v>
       </c>
       <c r="D138" s="45">
-        <v>1384331</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="69">
+        <v>1397345</v>
+      </c>
+      <c r="E138" s="85"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="88">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>262940</v>
+        <v>264433</v>
       </c>
       <c r="C139" s="46">
-        <v>150914</v>
+        <v>155359</v>
       </c>
       <c r="D139" s="46">
-        <v>413854</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="68">
+        <v>419792</v>
+      </c>
+      <c r="E139" s="85"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="86">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>515820</v>
+        <v>518562</v>
       </c>
       <c r="C140" s="45">
-        <v>217543</v>
+        <v>221664</v>
       </c>
       <c r="D140" s="45">
-        <v>733363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="69">
+        <v>740226</v>
+      </c>
+      <c r="E140" s="85"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="88">
         <v>44331</v>
       </c>
       <c r="B141" s="46">
-        <v>225943</v>
+        <v>229335</v>
       </c>
       <c r="C141" s="46">
-        <v>151192</v>
+        <v>158995</v>
       </c>
       <c r="D141" s="46">
-        <v>377135</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="68">
+        <v>388330</v>
+      </c>
+      <c r="E141" s="85"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="86">
         <v>44332</v>
       </c>
       <c r="B142" s="45">
-        <v>155602</v>
+        <v>157754</v>
       </c>
       <c r="C142" s="45">
-        <v>113148</v>
+        <v>116905</v>
       </c>
       <c r="D142" s="45">
-        <v>268750</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="69"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="68" t="s">
+        <v>274659</v>
+      </c>
+      <c r="E142" s="85"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="88">
+        <v>44333</v>
+      </c>
+      <c r="B143" s="46">
+        <v>341985</v>
+      </c>
+      <c r="C143" s="46">
+        <v>190619</v>
+      </c>
+      <c r="D143" s="46">
+        <v>532604</v>
+      </c>
+      <c r="E143" s="85"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="86">
+        <v>44334</v>
+      </c>
+      <c r="B144" s="45">
+        <v>508111</v>
+      </c>
+      <c r="C144" s="45">
+        <v>335867</v>
+      </c>
+      <c r="D144" s="45">
+        <v>843978</v>
+      </c>
+      <c r="E144" s="85"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="88"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="85"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="45">
-        <v>30743232</v>
-      </c>
-      <c r="C144" s="45">
-        <v>9332160</v>
-      </c>
-      <c r="D144" s="45">
-        <v>40075392</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="71"/>
-      <c r="B145" s="71"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="71" t="s">
+      <c r="B146" s="45">
+        <v>31616223</v>
+      </c>
+      <c r="C146" s="45">
+        <v>9901626</v>
+      </c>
+      <c r="D146" s="45">
+        <v>41517849</v>
+      </c>
+      <c r="E146" s="85"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="85"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B146" s="71"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="85"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F50EDB-6CAA-4B01-B814-D25CB945D669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66ACB5-8034-4EEA-BED3-5686F884DD21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_18.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_18.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_19.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_19.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_18.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_18.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_19.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_19.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 18.05.21 (Impfquote_bis_einschl_18.05.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 18.05.21 (Impfstoff_bis_einschl_18.05.21)</t>
-  </si>
-  <si>
-    <t>Datenstand: 19.05.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 18.05.21 durchgeführt und bis zum 19.05.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 20.05.2021, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 19.05.21 durchgeführt und bis zum 20.05.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 19.05.21 (Impfquote_bis_einschl_19.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 19.05.21 (Impfstoff_bis_einschl_19.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,12 +371,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -563,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -716,6 +710,7 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,56 +735,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,113 +1127,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1263,128 +1248,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.453125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="4"/>
-    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="12" max="14" width="11.453125" style="4"/>
+    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="4"/>
+    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="73"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="S2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -1436,58 +1421,58 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5453811</v>
+        <v>5595806</v>
       </c>
       <c r="D5" s="32">
-        <v>4128442</v>
+        <v>4200570</v>
       </c>
       <c r="E5" s="32">
-        <v>1325369</v>
+        <v>1395236</v>
       </c>
       <c r="F5" s="33">
-        <v>37.191851027990538</v>
+        <v>37.841629765574083</v>
       </c>
       <c r="G5" s="33">
-        <v>23.993609648907725</v>
+        <v>24.69658030459885</v>
       </c>
       <c r="H5" s="33">
-        <v>73.421965093244623</v>
+        <v>74.002448726849678</v>
       </c>
       <c r="I5" s="33">
-        <v>11.93983745081481</v>
+        <v>12.569247542024184</v>
       </c>
       <c r="J5" s="33">
-        <v>6.14967793192349</v>
+        <v>6.5143409562313197</v>
       </c>
       <c r="K5" s="33">
-        <v>27.118912695583177</v>
+        <v>28.392934210067793</v>
       </c>
       <c r="L5" s="32">
-        <v>1464149</v>
+        <v>1490115</v>
       </c>
       <c r="M5" s="32">
-        <v>1498188</v>
+        <v>1501785</v>
       </c>
       <c r="N5" s="32">
-        <v>451984</v>
+        <v>468278</v>
       </c>
       <c r="O5" s="32">
-        <v>723741</v>
+        <v>733448</v>
       </c>
       <c r="P5" s="34">
-        <v>483169</v>
+        <v>514256</v>
       </c>
       <c r="Q5" s="34">
-        <v>693023</v>
+        <v>706750</v>
       </c>
       <c r="R5" s="34">
-        <v>47123</v>
+        <v>60425</v>
       </c>
       <c r="S5" s="34">
-        <v>85598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>113913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1495,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6593437</v>
+        <v>6760059</v>
       </c>
       <c r="D6" s="13">
-        <v>5140469</v>
+        <v>5218875</v>
       </c>
       <c r="E6" s="13">
-        <v>1452968</v>
+        <v>1541184</v>
       </c>
       <c r="F6" s="14">
-        <v>39.166262912544461</v>
+        <v>39.763653930741619</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>77</v>
@@ -1513,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>11.070454211768205</v>
+        <v>11.74258958484273</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>77</v>
@@ -1534,19 +1519,19 @@
         <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>756229</v>
+        <v>795071</v>
       </c>
       <c r="Q6" s="18">
-        <v>865581</v>
+        <v>881231</v>
       </c>
       <c r="R6" s="17">
-        <v>55350</v>
+        <v>73528</v>
       </c>
       <c r="S6" s="18">
-        <v>69714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1554,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1775753</v>
+        <v>1830887</v>
       </c>
       <c r="D7" s="37">
-        <v>1283686</v>
+        <v>1313740</v>
       </c>
       <c r="E7" s="37">
-        <v>492067</v>
+        <v>517147</v>
       </c>
       <c r="F7" s="38">
-        <v>34.982671983662037</v>
+        <v>35.801695657517627</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>77</v>
@@ -1572,7 +1557,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>13.409679980138936</v>
+        <v>14.09315351911205</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>77</v>
@@ -1593,19 +1578,19 @@
         <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>287522</v>
+        <v>302793</v>
       </c>
       <c r="Q7" s="41">
-        <v>127336</v>
+        <v>130685</v>
       </c>
       <c r="R7" s="41">
-        <v>25026</v>
+        <v>31552</v>
       </c>
       <c r="S7" s="41">
-        <v>15232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>20405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1613,58 +1598,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1157375</v>
+        <v>1190685</v>
       </c>
       <c r="D8" s="13">
-        <v>834947</v>
+        <v>851532</v>
       </c>
       <c r="E8" s="13">
-        <v>322428</v>
+        <v>339153</v>
       </c>
       <c r="F8" s="14">
-        <v>33.107947085780403</v>
+        <v>33.765587992829197</v>
       </c>
       <c r="G8" s="44">
-        <v>18.706821934649479</v>
+        <v>19.24710055796843</v>
       </c>
       <c r="H8" s="44">
-        <v>61.64931570100066</v>
+        <v>62.580231682887359</v>
       </c>
       <c r="I8" s="44">
-        <v>12.785157815973951</v>
+        <v>13.448350108430454</v>
       </c>
       <c r="J8" s="63">
-        <v>6.5591907416643451</v>
+        <v>6.9284876280809993</v>
       </c>
       <c r="K8" s="44">
-        <v>25.25545479249784</v>
+        <v>26.481204924163176</v>
       </c>
       <c r="L8" s="17">
-        <v>205985</v>
+        <v>208563</v>
       </c>
       <c r="M8" s="18">
-        <v>301968</v>
+        <v>303786</v>
       </c>
       <c r="N8" s="17">
-        <v>94630</v>
+        <v>98427</v>
       </c>
       <c r="O8" s="18">
-        <v>178129</v>
+        <v>182621</v>
       </c>
       <c r="P8" s="17">
-        <v>110205</v>
+        <v>116759</v>
       </c>
       <c r="Q8" s="18">
-        <v>210741</v>
+        <v>216665</v>
       </c>
       <c r="R8" s="17">
-        <v>16236</v>
+        <v>18681</v>
       </c>
       <c r="S8" s="18">
-        <v>31909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>37611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1672,58 +1657,58 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>368954</v>
+        <v>378525</v>
       </c>
       <c r="D9" s="37">
-        <v>263252</v>
+        <v>268555</v>
       </c>
       <c r="E9" s="37">
-        <v>105702</v>
+        <v>109970</v>
       </c>
       <c r="F9" s="38">
-        <v>38.645218305289767</v>
+        <v>39.423695174118691</v>
       </c>
       <c r="G9" s="64">
-        <v>22.532767147197621</v>
+        <v>23.373763656344948</v>
       </c>
       <c r="H9" s="64">
-        <v>82.342073321374471</v>
+        <v>83.048325939611374</v>
       </c>
       <c r="I9" s="64">
-        <v>15.516983214964137</v>
+        <v>16.143522772980702</v>
       </c>
       <c r="J9" s="64">
-        <v>6.0362660805481934</v>
+        <v>6.333837028896502</v>
       </c>
       <c r="K9" s="64">
-        <v>39.861112602983987</v>
+        <v>41.268247097113765</v>
       </c>
       <c r="L9" s="42">
-        <v>74029</v>
+        <v>75468</v>
       </c>
       <c r="M9" s="42">
-        <v>122353</v>
+        <v>123114</v>
       </c>
       <c r="N9" s="42">
-        <v>27425</v>
+        <v>28330</v>
       </c>
       <c r="O9" s="42">
-        <v>71193</v>
+        <v>72620</v>
       </c>
       <c r="P9" s="42">
-        <v>37510</v>
+        <v>40234</v>
       </c>
       <c r="Q9" s="42">
-        <v>30963</v>
+        <v>31517</v>
       </c>
       <c r="R9" s="42">
-        <v>2455</v>
+        <v>3023</v>
       </c>
       <c r="S9" s="42">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1731,58 +1716,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>886306</v>
+        <v>907049</v>
       </c>
       <c r="D10" s="13">
-        <v>681087</v>
+        <v>688514</v>
       </c>
       <c r="E10" s="13">
-        <v>205219</v>
+        <v>218535</v>
       </c>
       <c r="F10" s="14">
-        <v>36.870260868435459</v>
+        <v>37.272317327404529</v>
       </c>
       <c r="G10" s="44">
-        <v>25.852022221435899</v>
+        <v>26.221223594352644</v>
       </c>
       <c r="H10" s="44">
-        <v>72.750533736524162</v>
+        <v>73.260894097921934</v>
       </c>
       <c r="I10" s="44">
-        <v>11.109414898771311</v>
+        <v>11.830269053562235</v>
       </c>
       <c r="J10" s="44">
-        <v>6.651640069353526</v>
+        <v>7.0773857966809377</v>
       </c>
       <c r="K10" s="44">
-        <v>25.361639601753094</v>
+        <v>27.041499022346688</v>
       </c>
       <c r="L10" s="18">
-        <v>280753</v>
+        <v>281132</v>
       </c>
       <c r="M10" s="18">
-        <v>224909</v>
+        <v>225087</v>
       </c>
       <c r="N10" s="18">
-        <v>88482</v>
+        <v>92999</v>
       </c>
       <c r="O10" s="18">
-        <v>103444</v>
+        <v>107425</v>
       </c>
       <c r="P10" s="18">
-        <v>84549</v>
+        <v>89387</v>
       </c>
       <c r="Q10" s="18">
-        <v>90976</v>
+        <v>93014</v>
       </c>
       <c r="R10" s="18">
-        <v>5509</v>
+        <v>7008</v>
       </c>
       <c r="S10" s="18">
-        <v>6677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1790,58 +1775,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>3064159</v>
+        <v>3143088</v>
       </c>
       <c r="D11" s="37">
-        <v>2395250</v>
+        <v>2441929</v>
       </c>
       <c r="E11" s="37">
-        <v>668909</v>
+        <v>701159</v>
       </c>
       <c r="F11" s="38">
-        <v>38.091913588885639</v>
+        <v>38.834254653248685</v>
       </c>
       <c r="G11" s="64">
-        <v>25.1684605752816</v>
+        <v>25.874021852405697</v>
       </c>
       <c r="H11" s="64">
-        <v>72.499306803115772</v>
+        <v>73.366094167592863</v>
       </c>
       <c r="I11" s="64">
-        <v>10.637730435999542</v>
+        <v>11.150605590259666</v>
       </c>
       <c r="J11" s="64">
-        <v>4.9379664330108355</v>
+        <v>5.2536905575452222</v>
       </c>
       <c r="K11" s="64">
-        <v>25.800671527200116</v>
+        <v>26.812039956101412</v>
       </c>
       <c r="L11" s="41">
-        <v>843106</v>
+        <v>855559</v>
       </c>
       <c r="M11" s="41">
-        <v>881117</v>
+        <v>885533</v>
       </c>
       <c r="N11" s="41">
-        <v>201431</v>
+        <v>207627</v>
       </c>
       <c r="O11" s="41">
-        <v>411299</v>
+        <v>413477</v>
       </c>
       <c r="P11" s="41">
-        <v>307444</v>
+        <v>327245</v>
       </c>
       <c r="Q11" s="41">
-        <v>363467</v>
+        <v>373931</v>
       </c>
       <c r="R11" s="41">
-        <v>24303</v>
+        <v>32540</v>
       </c>
       <c r="S11" s="41">
-        <v>31617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>46801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1849,58 +1834,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>822031</v>
+        <v>844514</v>
       </c>
       <c r="D12" s="13">
-        <v>642780</v>
+        <v>652923</v>
       </c>
       <c r="E12" s="13">
-        <v>179251</v>
+        <v>191591</v>
       </c>
       <c r="F12" s="14">
-        <v>39.970450297175994</v>
+        <v>40.60117974949911</v>
       </c>
       <c r="G12" s="44">
-        <v>24.699418907816799</v>
+        <v>25.289702026132264</v>
       </c>
       <c r="H12" s="44">
-        <v>70.280140993227164</v>
+        <v>71.036410947275172</v>
       </c>
       <c r="I12" s="44">
-        <v>11.146493646689526</v>
+        <v>11.913840727599249</v>
       </c>
       <c r="J12" s="44">
-        <v>5.0130923932819895</v>
+        <v>5.3939534901169308</v>
       </c>
       <c r="K12" s="44">
-        <v>22.94092679055862</v>
+        <v>24.42283204458634</v>
       </c>
       <c r="L12" s="18">
-        <v>171851</v>
+        <v>174395</v>
       </c>
       <c r="M12" s="18">
-        <v>224860</v>
+        <v>225923</v>
       </c>
       <c r="N12" s="18">
-        <v>43614</v>
+        <v>45356</v>
       </c>
       <c r="O12" s="18">
-        <v>109551</v>
+        <v>112601</v>
       </c>
       <c r="P12" s="18">
-        <v>91511</v>
+        <v>95261</v>
       </c>
       <c r="Q12" s="18">
-        <v>155967</v>
+        <v>159002</v>
       </c>
       <c r="R12" s="18">
-        <v>9839</v>
+        <v>12158</v>
       </c>
       <c r="S12" s="18">
-        <v>14759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>19739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1908,58 +1893,58 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3938852</v>
+        <v>4054912</v>
       </c>
       <c r="D13" s="37">
-        <v>3125466</v>
+        <v>3179996</v>
       </c>
       <c r="E13" s="37">
-        <v>813386</v>
+        <v>874916</v>
       </c>
       <c r="F13" s="38">
-        <v>39.099565552876747</v>
+        <v>39.781735606749791</v>
       </c>
       <c r="G13" s="64">
-        <v>24.231104301401025</v>
+        <v>24.889799405961543</v>
       </c>
       <c r="H13" s="64">
-        <v>76.268650843922444</v>
+        <v>77.309323508721562</v>
       </c>
       <c r="I13" s="64">
-        <v>10.175455188695768</v>
+        <v>10.945195210973569</v>
       </c>
       <c r="J13" s="64">
-        <v>3.7661221343488753</v>
+        <v>4.1244181913847351</v>
       </c>
       <c r="K13" s="64">
-        <v>25.265961931502996</v>
+        <v>26.745490699493391</v>
       </c>
       <c r="L13" s="42">
-        <v>970953</v>
+        <v>982451</v>
       </c>
       <c r="M13" s="42">
-        <v>1209397</v>
+        <v>1219509</v>
       </c>
       <c r="N13" s="42">
-        <v>186022</v>
+        <v>196083</v>
       </c>
       <c r="O13" s="42">
-        <v>550412</v>
+        <v>563124</v>
       </c>
       <c r="P13" s="42">
-        <v>405562</v>
+        <v>431483</v>
       </c>
       <c r="Q13" s="42">
-        <v>554568</v>
+        <v>568525</v>
       </c>
       <c r="R13" s="42">
-        <v>27923</v>
+        <v>38216</v>
       </c>
       <c r="S13" s="42">
-        <v>33947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>55454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1967,58 +1952,58 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>9201397</v>
+        <v>9453617</v>
       </c>
       <c r="D14" s="13">
-        <v>7220528</v>
+        <v>7359823</v>
       </c>
       <c r="E14" s="13">
-        <v>1980869</v>
+        <v>2093794</v>
       </c>
       <c r="F14" s="14">
-        <v>40.232011407225663</v>
+        <v>41.008148281006847</v>
       </c>
       <c r="G14" s="44">
-        <v>25.891995344570905</v>
+        <v>26.735401233722744</v>
       </c>
       <c r="H14" s="44">
-        <v>77.294139139626722</v>
+        <v>77.909516828206051</v>
       </c>
       <c r="I14" s="44">
-        <v>11.03719066032563</v>
+        <v>11.66639670843748</v>
       </c>
       <c r="J14" s="44">
-        <v>5.2304423477583253</v>
+        <v>5.550684878101305</v>
       </c>
       <c r="K14" s="44">
-        <v>25.862756969343074</v>
+        <v>27.275183140057841</v>
       </c>
       <c r="L14" s="18">
-        <v>2196592</v>
+        <v>2233375</v>
       </c>
       <c r="M14" s="18">
-        <v>2652004</v>
+        <v>2657698</v>
       </c>
       <c r="N14" s="18">
-        <v>607156</v>
+        <v>624315</v>
       </c>
       <c r="O14" s="18">
-        <v>1208058</v>
+        <v>1230277</v>
       </c>
       <c r="P14" s="18">
-        <v>1150648</v>
+        <v>1222898</v>
       </c>
       <c r="Q14" s="18">
-        <v>1227790</v>
+        <v>1252985</v>
       </c>
       <c r="R14" s="18">
-        <v>69020</v>
+        <v>93261</v>
       </c>
       <c r="S14" s="18">
-        <v>90128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>138806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2026,58 +2011,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>2042823</v>
+        <v>2098267</v>
       </c>
       <c r="D15" s="37">
-        <v>1487254</v>
+        <v>1516763</v>
       </c>
       <c r="E15" s="37">
-        <v>555569</v>
+        <v>581504</v>
       </c>
       <c r="F15" s="38">
-        <v>36.328510958857599</v>
+        <v>37.049314553862175</v>
       </c>
       <c r="G15" s="64">
-        <v>21.830527989927269</v>
+        <v>22.489307389429154</v>
       </c>
       <c r="H15" s="64">
-        <v>71.398115454526462</v>
+        <v>72.269101393560788</v>
       </c>
       <c r="I15" s="64">
-        <v>13.570643955169432</v>
+        <v>14.204146996155014</v>
       </c>
       <c r="J15" s="64">
-        <v>6.8718833352661495</v>
+        <v>7.1550062678440272</v>
       </c>
       <c r="K15" s="64">
-        <v>29.791112132544974</v>
+        <v>31.273008378079105</v>
       </c>
       <c r="L15" s="42">
-        <v>451016</v>
+        <v>456700</v>
       </c>
       <c r="M15" s="42">
-        <v>575181</v>
+        <v>577269</v>
       </c>
       <c r="N15" s="42">
-        <v>183712</v>
+        <v>187477</v>
       </c>
       <c r="O15" s="42">
-        <v>327035</v>
+        <v>333977</v>
       </c>
       <c r="P15" s="42">
-        <v>181486</v>
+        <v>194889</v>
       </c>
       <c r="Q15" s="42">
-        <v>279151</v>
+        <v>287485</v>
       </c>
       <c r="R15" s="42">
-        <v>15389</v>
+        <v>19827</v>
       </c>
       <c r="S15" s="42">
-        <v>29438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2085,58 +2070,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>544980</v>
+        <v>559800</v>
       </c>
       <c r="D16" s="13">
-        <v>418906</v>
+        <v>424441</v>
       </c>
       <c r="E16" s="13">
-        <v>126074</v>
+        <v>135359</v>
       </c>
       <c r="F16" s="14">
-        <v>42.447210268247531</v>
+        <v>43.008064753107497</v>
       </c>
       <c r="G16" s="44">
-        <v>27.003637144826392</v>
+        <v>27.571586708160154</v>
       </c>
       <c r="H16" s="44">
-        <v>75.14601318461942</v>
+        <v>75.691845057031216</v>
       </c>
       <c r="I16" s="44">
-        <v>12.774917493086848</v>
+        <v>13.715754691266579</v>
       </c>
       <c r="J16" s="44">
-        <v>4.8028810722267146</v>
+        <v>5.240591610398833</v>
       </c>
       <c r="K16" s="44">
-        <v>29.654338068298475</v>
+        <v>31.660459724367541</v>
       </c>
       <c r="L16" s="18">
-        <v>125065</v>
+        <v>125751</v>
       </c>
       <c r="M16" s="18">
-        <v>174032</v>
+        <v>174385</v>
       </c>
       <c r="N16" s="18">
-        <v>27286</v>
+        <v>28616</v>
       </c>
       <c r="O16" s="18">
-        <v>88163</v>
+        <v>91763</v>
       </c>
       <c r="P16" s="18">
-        <v>55942</v>
+        <v>59063</v>
       </c>
       <c r="Q16" s="18">
-        <v>63866</v>
+        <v>65241</v>
       </c>
       <c r="R16" s="18">
-        <v>4908</v>
+        <v>6512</v>
       </c>
       <c r="S16" s="18">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2144,16 +2129,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1981281</v>
+        <v>2032187</v>
       </c>
       <c r="D17" s="37">
-        <v>1343565</v>
+        <v>1369335</v>
       </c>
       <c r="E17" s="37">
-        <v>637716</v>
+        <v>662852</v>
       </c>
       <c r="F17" s="38">
-        <v>32.995446185643267</v>
+        <v>33.628309238941043</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>77</v>
@@ -2162,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>15.661113500071586</v>
+        <v>16.278406697886602</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>77</v>
@@ -2183,19 +2168,19 @@
         <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>108892</v>
+        <v>114758</v>
       </c>
       <c r="Q17" s="41">
-        <v>278505</v>
+        <v>286781</v>
       </c>
       <c r="R17" s="41">
-        <v>20273</v>
+        <v>23727</v>
       </c>
       <c r="S17" s="41">
-        <v>56523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>68495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2203,16 +2188,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1059860</v>
+        <v>1087253</v>
       </c>
       <c r="D18" s="13">
-        <v>795989</v>
+        <v>811566</v>
       </c>
       <c r="E18" s="13">
-        <v>263871</v>
+        <v>275687</v>
       </c>
       <c r="F18" s="14">
-        <v>36.267337712811567</v>
+        <v>36.977066515034295</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>77</v>
@@ -2221,7 +2206,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>12.022651908025489</v>
+        <v>12.561019727699607</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>77</v>
@@ -2242,19 +2227,19 @@
         <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>71298</v>
+        <v>75295</v>
       </c>
       <c r="Q18" s="18">
-        <v>169176</v>
+        <v>173385</v>
       </c>
       <c r="R18" s="17">
-        <v>6485</v>
+        <v>7833</v>
       </c>
       <c r="S18" s="18">
-        <v>14495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2262,58 +2247,58 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1452535</v>
+        <v>1468717</v>
       </c>
       <c r="D19" s="37">
-        <v>1033700</v>
+        <v>1039642</v>
       </c>
       <c r="E19" s="37">
-        <v>418835</v>
+        <v>429075</v>
       </c>
       <c r="F19" s="38">
-        <v>35.598512693657533</v>
+        <v>35.803143014278319</v>
       </c>
       <c r="G19" s="64">
-        <v>20.952012467507981</v>
+        <v>21.175172611548156</v>
       </c>
       <c r="H19" s="64">
-        <v>70.203513012631475</v>
+        <v>70.58846594296746</v>
       </c>
       <c r="I19" s="64">
-        <v>14.423820319288044</v>
+        <v>14.776464964720038</v>
       </c>
       <c r="J19" s="64">
-        <v>7.8221926748480595</v>
+        <v>8.0956804641338191</v>
       </c>
       <c r="K19" s="64">
-        <v>29.722333382154009</v>
+        <v>30.037053737722275</v>
       </c>
       <c r="L19" s="42">
-        <v>294753</v>
+        <v>299268</v>
       </c>
       <c r="M19" s="42">
-        <v>381162</v>
+        <v>384455</v>
       </c>
       <c r="N19" s="42">
-        <v>149019</v>
+        <v>154584</v>
       </c>
       <c r="O19" s="42">
-        <v>237182</v>
+        <v>239877</v>
       </c>
       <c r="P19" s="42">
-        <v>131967</v>
+        <v>131997</v>
       </c>
       <c r="Q19" s="42">
-        <v>227586</v>
+        <v>227631</v>
       </c>
       <c r="R19" s="42">
-        <v>10292</v>
+        <v>10297</v>
       </c>
       <c r="S19" s="42">
-        <v>20546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2321,70 +2306,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1074962</v>
+        <v>1101370</v>
       </c>
       <c r="D20" s="13">
-        <v>740310</v>
+        <v>757460</v>
       </c>
       <c r="E20" s="13">
-        <v>334652</v>
+        <v>343910</v>
       </c>
       <c r="F20" s="14">
-        <v>34.701304691433023</v>
+        <v>35.505194109998321</v>
       </c>
       <c r="G20" s="44">
-        <v>20.192640788297567</v>
+        <v>20.886050685640399</v>
       </c>
       <c r="H20" s="44">
-        <v>62.583372578225102</v>
+        <v>63.599450206446384</v>
       </c>
       <c r="I20" s="44">
-        <v>15.686484064239906</v>
+        <v>16.120443728209441</v>
       </c>
       <c r="J20" s="44">
-        <v>7.9841217116846126</v>
+        <v>8.1988877499960804</v>
       </c>
       <c r="K20" s="44">
-        <v>30.463162736701459</v>
+        <v>31.318108140668294</v>
       </c>
       <c r="L20" s="18">
-        <v>222858</v>
+        <v>229314</v>
       </c>
       <c r="M20" s="18">
-        <v>307741</v>
+        <v>310716</v>
       </c>
       <c r="N20" s="18">
-        <v>101413</v>
+        <v>102731</v>
       </c>
       <c r="O20" s="18">
-        <v>201070</v>
+        <v>202045</v>
       </c>
       <c r="P20" s="18">
-        <v>60429</v>
+        <v>63701</v>
       </c>
       <c r="Q20" s="18">
-        <v>149403</v>
+        <v>153850</v>
       </c>
       <c r="R20" s="18">
-        <v>10598</v>
+        <v>12293</v>
       </c>
       <c r="S20" s="18">
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>99333</v>
+        <v>104868</v>
       </c>
       <c r="D21" s="37">
-        <v>80592</v>
+        <v>82972</v>
       </c>
       <c r="E21" s="37">
-        <v>18741</v>
+        <v>21896</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>77</v>
@@ -2405,16 +2390,16 @@
         <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>76665</v>
+        <v>79438</v>
       </c>
       <c r="M21" s="41">
-        <v>6706</v>
+        <v>6810</v>
       </c>
       <c r="N21" s="41">
-        <v>14948</v>
+        <v>17476</v>
       </c>
       <c r="O21" s="41">
-        <v>1014</v>
+        <v>1144</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>77</v>
@@ -2429,22 +2414,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>41517849</v>
+        <v>42611604</v>
       </c>
       <c r="D22" s="21">
-        <v>31616223</v>
+        <v>32178636</v>
       </c>
       <c r="E22" s="21">
-        <v>9901626</v>
+        <v>10432968</v>
       </c>
       <c r="F22" s="22">
-        <v>38.015478332430384</v>
+        <v>38.69172606813801</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>77</v>
@@ -2453,7 +2438,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>11.905756378895397</v>
+        <v>12.544644214678636</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>77</v>
@@ -2474,20 +2459,20 @@
         <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>4324363</v>
+        <v>4575090</v>
       </c>
       <c r="Q22" s="25">
-        <v>5488099</v>
+        <v>5608678</v>
       </c>
       <c r="R22" s="25">
-        <v>350729</v>
+        <v>450881</v>
       </c>
       <c r="S22" s="25">
-        <v>530776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>739097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2510,30 +2495,30 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2557,7 +2542,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2581,35 +2566,35 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B32" s="60"/>
     </row>
   </sheetData>
@@ -2640,129 +2625,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36246FF8-D917-43A6-8C76-62F6D1CA6D2E}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="75" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="74" t="s">
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="77"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="74" t="s">
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="83"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="76"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="74" t="s">
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2760,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2791,7 +2776,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2804,7 +2789,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="74"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2820,9 +2805,9 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="74"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="84"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -2830,73 +2815,73 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2945361</v>
+        <v>2972675</v>
       </c>
       <c r="D5" s="45">
-        <v>1860878</v>
+        <v>1880031</v>
       </c>
       <c r="E5" s="45">
-        <v>303497</v>
+        <v>310143</v>
       </c>
       <c r="F5" s="45">
-        <v>780986</v>
+        <v>782501</v>
       </c>
       <c r="G5" s="45">
-        <v>24234</v>
+        <v>26493</v>
       </c>
       <c r="H5" s="45">
-        <v>1192701</v>
+        <v>1220951</v>
       </c>
       <c r="I5" s="45">
-        <v>1009358</v>
+        <v>1029454</v>
       </c>
       <c r="J5" s="45">
-        <v>92222</v>
+        <v>95070</v>
       </c>
       <c r="K5" s="45">
-        <v>74135</v>
+        <v>77191</v>
       </c>
       <c r="L5" s="45">
-        <v>16986</v>
+        <v>19236</v>
       </c>
       <c r="M5" s="45">
-        <v>29157</v>
+        <v>27327</v>
       </c>
       <c r="N5" s="45">
-        <v>1183081</v>
+        <v>1227895</v>
       </c>
       <c r="O5" s="45">
-        <v>976442</v>
+        <v>1002838</v>
       </c>
       <c r="P5" s="45">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="45">
-        <v>206312</v>
+        <v>224711</v>
       </c>
       <c r="R5" s="45">
-        <v>34600</v>
+        <v>44814</v>
       </c>
       <c r="S5" s="45">
-        <v>132668</v>
+        <v>174285</v>
       </c>
       <c r="T5" s="45">
-        <v>127692</v>
+        <v>168123</v>
       </c>
       <c r="U5" s="45">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="V5" s="45">
-        <v>4876</v>
+        <v>6031</v>
       </c>
       <c r="W5" s="45">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="X5" s="45">
-        <v>22679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>41617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2904,73 +2889,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3518352</v>
+        <v>3542266</v>
       </c>
       <c r="D6" s="46">
-        <v>2442872</v>
+        <v>2456634</v>
       </c>
       <c r="E6" s="46">
-        <v>350037</v>
+        <v>359691</v>
       </c>
       <c r="F6" s="46">
-        <v>725443</v>
+        <v>725941</v>
       </c>
       <c r="G6" s="46">
-        <v>41917</v>
+        <v>23914</v>
       </c>
       <c r="H6" s="46">
-        <v>1327905</v>
+        <v>1360120</v>
       </c>
       <c r="I6" s="46">
-        <v>1162392</v>
+        <v>1187749</v>
       </c>
       <c r="J6" s="46">
-        <v>105352</v>
+        <v>107885</v>
       </c>
       <c r="K6" s="46">
-        <v>56252</v>
+        <v>57837</v>
       </c>
       <c r="L6" s="46">
-        <v>3909</v>
+        <v>6649</v>
       </c>
       <c r="M6" s="46">
-        <v>22109</v>
+        <v>32215</v>
       </c>
       <c r="N6" s="46">
-        <v>1622117</v>
+        <v>1676609</v>
       </c>
       <c r="O6" s="46">
-        <v>1205568</v>
+        <v>1239550</v>
       </c>
       <c r="P6" s="46">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="Q6" s="46">
-        <v>416103</v>
+        <v>436584</v>
       </c>
       <c r="R6" s="46">
-        <v>44265</v>
+        <v>54492</v>
       </c>
       <c r="S6" s="46">
-        <v>125063</v>
+        <v>181064</v>
       </c>
       <c r="T6" s="46">
-        <v>108586</v>
+        <v>162420</v>
       </c>
       <c r="U6" s="46">
-        <v>806</v>
+        <v>879</v>
       </c>
       <c r="V6" s="46">
-        <v>15667</v>
+        <v>17755</v>
       </c>
       <c r="W6" s="46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X6" s="46">
-        <v>27190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>56001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2978,73 +2963,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>867118</v>
+        <v>878552</v>
       </c>
       <c r="D7" s="45">
-        <v>580470</v>
+        <v>587557</v>
       </c>
       <c r="E7" s="45">
-        <v>100882</v>
+        <v>104996</v>
       </c>
       <c r="F7" s="45">
-        <v>185766</v>
+        <v>185999</v>
       </c>
       <c r="G7" s="45">
-        <v>13329</v>
+        <v>11434</v>
       </c>
       <c r="H7" s="45">
-        <v>451802</v>
+        <v>465183</v>
       </c>
       <c r="I7" s="45">
-        <v>393278</v>
+        <v>405325</v>
       </c>
       <c r="J7" s="45">
-        <v>53119</v>
+        <v>53511</v>
       </c>
       <c r="K7" s="45">
-        <v>1677</v>
+        <v>2594</v>
       </c>
       <c r="L7" s="45">
-        <v>3728</v>
+        <v>3753</v>
       </c>
       <c r="M7" s="45">
-        <v>12277</v>
+        <v>13381</v>
       </c>
       <c r="N7" s="45">
-        <v>416568</v>
+        <v>435188</v>
       </c>
       <c r="O7" s="45">
-        <v>305181</v>
+        <v>317843</v>
       </c>
       <c r="P7" s="45">
         <v>124</v>
       </c>
       <c r="Q7" s="45">
-        <v>111263</v>
+        <v>117221</v>
       </c>
       <c r="R7" s="45">
-        <v>15904</v>
+        <v>18620</v>
       </c>
       <c r="S7" s="45">
-        <v>40265</v>
+        <v>51964</v>
       </c>
       <c r="T7" s="45">
-        <v>33859</v>
+        <v>44796</v>
       </c>
       <c r="U7" s="45">
         <v>101</v>
       </c>
       <c r="V7" s="45">
-        <v>6305</v>
+        <v>7067</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>6428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>11699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3052,73 +3037,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>506615</v>
+        <v>510722</v>
       </c>
       <c r="D8" s="46">
-        <v>334782</v>
+        <v>338614</v>
       </c>
       <c r="E8" s="46">
-        <v>65011</v>
+        <v>65126</v>
       </c>
       <c r="F8" s="46">
-        <v>106822</v>
+        <v>106982</v>
       </c>
       <c r="G8" s="46">
-        <v>2072</v>
+        <v>3585</v>
       </c>
       <c r="H8" s="46">
-        <v>274097</v>
+        <v>282675</v>
       </c>
       <c r="I8" s="46">
-        <v>224969</v>
+        <v>228892</v>
       </c>
       <c r="J8" s="46">
-        <v>32233</v>
+        <v>35409</v>
       </c>
       <c r="K8" s="46">
-        <v>15556</v>
+        <v>16744</v>
       </c>
       <c r="L8" s="46">
-        <v>1339</v>
+        <v>1630</v>
       </c>
       <c r="M8" s="46">
-        <v>9184</v>
+        <v>8022</v>
       </c>
       <c r="N8" s="46">
-        <v>328332</v>
+        <v>340810</v>
       </c>
       <c r="O8" s="46">
-        <v>229765</v>
+        <v>237220</v>
       </c>
       <c r="P8" s="46">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="Q8" s="46">
-        <v>97973</v>
+        <v>102989</v>
       </c>
       <c r="R8" s="46">
-        <v>11321</v>
+        <v>12478</v>
       </c>
       <c r="S8" s="46">
-        <v>48331</v>
+        <v>56478</v>
       </c>
       <c r="T8" s="46">
-        <v>44232</v>
+        <v>51820</v>
       </c>
       <c r="U8" s="46">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="V8" s="46">
-        <v>4041</v>
+        <v>4588</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
@@ -3126,73 +3111,73 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>194779</v>
+        <v>196804</v>
       </c>
       <c r="D9" s="45">
-        <v>118769</v>
+        <v>120236</v>
       </c>
       <c r="E9" s="45">
-        <v>13532</v>
+        <v>13663</v>
       </c>
       <c r="F9" s="45">
-        <v>62478</v>
+        <v>62905</v>
       </c>
       <c r="G9" s="45">
-        <v>1303</v>
+        <v>2024</v>
       </c>
       <c r="H9" s="45">
-        <v>100221</v>
+        <v>102728</v>
       </c>
       <c r="I9" s="45">
-        <v>89129</v>
+        <v>90910</v>
       </c>
       <c r="J9" s="45">
-        <v>6832</v>
+        <v>7258</v>
       </c>
       <c r="K9" s="45">
-        <v>2655</v>
+        <v>2780</v>
       </c>
       <c r="L9" s="45">
-        <v>1605</v>
+        <v>1780</v>
       </c>
       <c r="M9" s="45">
-        <v>2463</v>
+        <v>2508</v>
       </c>
       <c r="N9" s="45">
-        <v>68473</v>
+        <v>71751</v>
       </c>
       <c r="O9" s="45">
-        <v>54998</v>
+        <v>56796</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>13461</v>
+        <v>14941</v>
       </c>
       <c r="R9" s="45">
-        <v>2625</v>
+        <v>3278</v>
       </c>
       <c r="S9" s="45">
-        <v>5481</v>
+        <v>7242</v>
       </c>
       <c r="T9" s="45">
-        <v>5229</v>
+        <v>6944</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3200,73 +3185,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>504549</v>
+        <v>505100</v>
       </c>
       <c r="D10" s="46">
-        <v>323855</v>
+        <v>323987</v>
       </c>
       <c r="E10" s="46">
-        <v>60228</v>
+        <v>60623</v>
       </c>
       <c r="F10" s="46">
-        <v>120466</v>
+        <v>120490</v>
       </c>
       <c r="G10" s="46">
-        <v>1847</v>
+        <v>303</v>
       </c>
       <c r="H10" s="46">
-        <v>193039</v>
+        <v>201543</v>
       </c>
       <c r="I10" s="46">
-        <v>175034</v>
+        <v>181210</v>
       </c>
       <c r="J10" s="46">
-        <v>14394</v>
+        <v>16413</v>
       </c>
       <c r="K10" s="46">
-        <v>2497</v>
+        <v>2800</v>
       </c>
       <c r="L10" s="46">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="M10" s="46">
-        <v>7149</v>
+        <v>8014</v>
       </c>
       <c r="N10" s="46">
-        <v>176538</v>
+        <v>183414</v>
       </c>
       <c r="O10" s="46">
-        <v>141238</v>
+        <v>145346</v>
       </c>
       <c r="P10" s="46">
-        <v>2505</v>
+        <v>2729</v>
       </c>
       <c r="Q10" s="46">
-        <v>32795</v>
+        <v>35339</v>
       </c>
       <c r="R10" s="46">
-        <v>5395</v>
+        <v>6876</v>
       </c>
       <c r="S10" s="46">
-        <v>12180</v>
+        <v>16992</v>
       </c>
       <c r="T10" s="46">
-        <v>11196</v>
+        <v>15812</v>
       </c>
       <c r="U10" s="46">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="V10" s="46">
-        <v>963</v>
+        <v>1129</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3274,73 +3259,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1723983</v>
+        <v>1740397</v>
       </c>
       <c r="D11" s="45">
-        <v>1069287</v>
+        <v>1080669</v>
       </c>
       <c r="E11" s="45">
-        <v>188029</v>
+        <v>192849</v>
       </c>
       <c r="F11" s="45">
-        <v>466667</v>
+        <v>466879</v>
       </c>
       <c r="G11" s="45">
-        <v>18008</v>
+        <v>16185</v>
       </c>
       <c r="H11" s="45">
-        <v>612970</v>
+        <v>621799</v>
       </c>
       <c r="I11" s="45">
-        <v>536314</v>
+        <v>542000</v>
       </c>
       <c r="J11" s="45">
-        <v>36984</v>
+        <v>38852</v>
       </c>
       <c r="K11" s="45">
-        <v>39432</v>
+        <v>40252</v>
       </c>
       <c r="L11" s="45">
-        <v>240</v>
+        <v>695</v>
       </c>
       <c r="M11" s="45">
-        <v>8771</v>
+        <v>8780</v>
       </c>
       <c r="N11" s="45">
-        <v>671267</v>
+        <v>701532</v>
       </c>
       <c r="O11" s="45">
-        <v>525434</v>
+        <v>544962</v>
       </c>
       <c r="P11" s="45">
         <v>163</v>
       </c>
       <c r="Q11" s="45">
-        <v>145670</v>
+        <v>156407</v>
       </c>
       <c r="R11" s="45">
-        <v>19718</v>
+        <v>30265</v>
       </c>
       <c r="S11" s="45">
-        <v>55939</v>
+        <v>79360</v>
       </c>
       <c r="T11" s="45">
-        <v>51218</v>
+        <v>73954</v>
       </c>
       <c r="U11" s="45">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="V11" s="45">
-        <v>4552</v>
+        <v>5223</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3348,73 +3333,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>395224</v>
+        <v>398582</v>
       </c>
       <c r="D12" s="46">
-        <v>281696</v>
+        <v>283327</v>
       </c>
       <c r="E12" s="46">
-        <v>47663</v>
+        <v>49139</v>
       </c>
       <c r="F12" s="46">
-        <v>65865</v>
+        <v>66116</v>
       </c>
       <c r="G12" s="46">
-        <v>4059</v>
+        <v>3228</v>
       </c>
       <c r="H12" s="46">
-        <v>154653</v>
+        <v>159694</v>
       </c>
       <c r="I12" s="46">
-        <v>138780</v>
+        <v>141846</v>
       </c>
       <c r="J12" s="46">
-        <v>12819</v>
+        <v>14265</v>
       </c>
       <c r="K12" s="46">
-        <v>1566</v>
+        <v>1846</v>
       </c>
       <c r="L12" s="46">
-        <v>1488</v>
+        <v>1737</v>
       </c>
       <c r="M12" s="46">
-        <v>4130</v>
+        <v>4859</v>
       </c>
       <c r="N12" s="46">
-        <v>247556</v>
+        <v>254341</v>
       </c>
       <c r="O12" s="46">
-        <v>184695</v>
+        <v>189915</v>
       </c>
       <c r="P12" s="46">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="46">
-        <v>62759</v>
+        <v>64318</v>
       </c>
       <c r="R12" s="46">
-        <v>5658</v>
+        <v>6785</v>
       </c>
       <c r="S12" s="46">
-        <v>24598</v>
+        <v>31897</v>
       </c>
       <c r="T12" s="46">
-        <v>21704</v>
+        <v>28644</v>
       </c>
       <c r="U12" s="46">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V12" s="46">
-        <v>2841</v>
+        <v>3199</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3422,73 +3407,73 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2165272</v>
+        <v>2179925</v>
       </c>
       <c r="D13" s="45">
-        <v>1301888</v>
+        <v>1313389</v>
       </c>
       <c r="E13" s="45">
-        <v>204263</v>
+        <v>205337</v>
       </c>
       <c r="F13" s="45">
-        <v>659121</v>
+        <v>661199</v>
       </c>
       <c r="G13" s="45">
-        <v>15079</v>
+        <v>12838</v>
       </c>
       <c r="H13" s="45">
-        <v>751512</v>
+        <v>781242</v>
       </c>
       <c r="I13" s="45">
-        <v>651462</v>
+        <v>668994</v>
       </c>
       <c r="J13" s="45">
-        <v>65124</v>
+        <v>69340</v>
       </c>
       <c r="K13" s="45">
-        <v>19836</v>
+        <v>20858</v>
       </c>
       <c r="L13" s="45">
-        <v>15090</v>
+        <v>22050</v>
       </c>
       <c r="M13" s="45">
-        <v>22374</v>
+        <v>22729</v>
       </c>
       <c r="N13" s="45">
-        <v>960194</v>
+        <v>1000071</v>
       </c>
       <c r="O13" s="45">
-        <v>729375</v>
+        <v>751199</v>
       </c>
       <c r="P13" s="45">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="Q13" s="45">
-        <v>230228</v>
+        <v>248263</v>
       </c>
       <c r="R13" s="45">
-        <v>27501</v>
+        <v>39877</v>
       </c>
       <c r="S13" s="45">
-        <v>61874</v>
+        <v>93674</v>
       </c>
       <c r="T13" s="45">
-        <v>53257</v>
+        <v>83742</v>
       </c>
       <c r="U13" s="45">
         <v>478</v>
       </c>
       <c r="V13" s="45">
-        <v>8116</v>
+        <v>9420</v>
       </c>
       <c r="W13" s="45">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X13" s="45">
-        <v>11579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
@@ -3496,73 +3481,73 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4842090</v>
+        <v>4883940</v>
       </c>
       <c r="D14" s="46">
-        <v>3262970</v>
+        <v>3291339</v>
       </c>
       <c r="E14" s="46">
-        <v>432060</v>
+        <v>445018</v>
       </c>
       <c r="F14" s="46">
-        <v>1147060</v>
+        <v>1147583</v>
       </c>
       <c r="G14" s="46">
-        <v>39781</v>
+        <v>35346</v>
       </c>
       <c r="H14" s="46">
-        <v>1821721</v>
+        <v>1861727</v>
       </c>
       <c r="I14" s="46">
-        <v>1660611</v>
+        <v>1694605</v>
       </c>
       <c r="J14" s="46">
-        <v>120267</v>
+        <v>124011</v>
       </c>
       <c r="K14" s="46">
-        <v>34326</v>
+        <v>35967</v>
       </c>
       <c r="L14" s="46">
-        <v>6517</v>
+        <v>7144</v>
       </c>
       <c r="M14" s="46">
-        <v>23334</v>
+        <v>29193</v>
       </c>
       <c r="N14" s="46">
-        <v>2378438</v>
+        <v>2475883</v>
       </c>
       <c r="O14" s="46">
-        <v>1719895</v>
+        <v>1773300</v>
       </c>
       <c r="P14" s="46">
-        <v>6363</v>
+        <v>6414</v>
       </c>
       <c r="Q14" s="46">
-        <v>652180</v>
+        <v>696169</v>
       </c>
       <c r="R14" s="46">
-        <v>76312</v>
+        <v>97445</v>
       </c>
       <c r="S14" s="46">
-        <v>159148</v>
+        <v>232067</v>
       </c>
       <c r="T14" s="46">
-        <v>139132</v>
+        <v>208575</v>
       </c>
       <c r="U14" s="46">
-        <v>1495</v>
+        <v>1717</v>
       </c>
       <c r="V14" s="46">
-        <v>18295</v>
+        <v>21503</v>
       </c>
       <c r="W14" s="46">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="X14" s="46">
-        <v>33034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3570,73 +3555,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>1026197</v>
+        <v>1033969</v>
       </c>
       <c r="D15" s="45">
-        <v>670547</v>
+        <v>675115</v>
       </c>
       <c r="E15" s="45">
-        <v>91615</v>
+        <v>94766</v>
       </c>
       <c r="F15" s="45">
-        <v>264035</v>
+        <v>264088</v>
       </c>
       <c r="G15" s="45">
-        <v>10442</v>
+        <v>6562</v>
       </c>
       <c r="H15" s="45">
-        <v>510747</v>
+        <v>521454</v>
       </c>
       <c r="I15" s="45">
-        <v>442439</v>
+        <v>451779</v>
       </c>
       <c r="J15" s="45">
-        <v>39005</v>
+        <v>39557</v>
       </c>
       <c r="K15" s="45">
-        <v>29303</v>
+        <v>30118</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>8307</v>
+        <v>9288</v>
       </c>
       <c r="N15" s="45">
-        <v>461057</v>
+        <v>482794</v>
       </c>
       <c r="O15" s="45">
-        <v>367298</v>
+        <v>380584</v>
       </c>
       <c r="P15" s="45">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="45">
-        <v>93556</v>
+        <v>101997</v>
       </c>
       <c r="R15" s="45">
-        <v>15608</v>
+        <v>21737</v>
       </c>
       <c r="S15" s="45">
-        <v>44822</v>
+        <v>60050</v>
       </c>
       <c r="T15" s="45">
-        <v>43614</v>
+        <v>58597</v>
       </c>
       <c r="U15" s="45">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="V15" s="45">
-        <v>1139</v>
+        <v>1364</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3644,73 +3629,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>299097</v>
+        <v>300136</v>
       </c>
       <c r="D16" s="46">
-        <v>227444</v>
+        <v>228177</v>
       </c>
       <c r="E16" s="46">
-        <v>29581</v>
+        <v>29882</v>
       </c>
       <c r="F16" s="46">
-        <v>42072</v>
+        <v>42077</v>
       </c>
       <c r="G16" s="46">
-        <v>1665</v>
+        <v>997</v>
       </c>
       <c r="H16" s="46">
-        <v>115449</v>
+        <v>120379</v>
       </c>
       <c r="I16" s="46">
-        <v>101009</v>
+        <v>105120</v>
       </c>
       <c r="J16" s="46">
-        <v>10488</v>
+        <v>11213</v>
       </c>
       <c r="K16" s="46">
-        <v>3952</v>
+        <v>4046</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>4140</v>
+        <v>4718</v>
       </c>
       <c r="N16" s="46">
-        <v>119809</v>
+        <v>124305</v>
       </c>
       <c r="O16" s="46">
-        <v>96459</v>
+        <v>98963</v>
       </c>
       <c r="P16" s="46">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="46">
-        <v>23271</v>
+        <v>25257</v>
       </c>
       <c r="R16" s="46">
-        <v>4650</v>
+        <v>4496</v>
       </c>
       <c r="S16" s="46">
-        <v>10625</v>
+        <v>14980</v>
       </c>
       <c r="T16" s="46">
-        <v>9587</v>
+        <v>13812</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>1032</v>
+        <v>1162</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3718,73 +3703,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>952230</v>
+        <v>963858</v>
       </c>
       <c r="D17" s="45">
-        <v>663398</v>
+        <v>665703</v>
       </c>
       <c r="E17" s="45">
-        <v>106023</v>
+        <v>114903</v>
       </c>
       <c r="F17" s="45">
-        <v>182809</v>
+        <v>183252</v>
       </c>
       <c r="G17" s="45">
-        <v>14482</v>
+        <v>11628</v>
       </c>
       <c r="H17" s="45">
-        <v>560918</v>
+        <v>570628</v>
       </c>
       <c r="I17" s="45">
-        <v>510366</v>
+        <v>515266</v>
       </c>
       <c r="J17" s="45">
-        <v>44449</v>
+        <v>47351</v>
       </c>
       <c r="K17" s="45">
-        <v>4282</v>
+        <v>4935</v>
       </c>
       <c r="L17" s="45">
-        <v>1821</v>
+        <v>3076</v>
       </c>
       <c r="M17" s="45">
-        <v>7463</v>
+        <v>9710</v>
       </c>
       <c r="N17" s="45">
-        <v>391335</v>
+        <v>405477</v>
       </c>
       <c r="O17" s="45">
-        <v>285231</v>
+        <v>295153</v>
       </c>
       <c r="P17" s="45">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="45">
-        <v>105930</v>
+        <v>110139</v>
       </c>
       <c r="R17" s="45">
-        <v>10471</v>
+        <v>14142</v>
       </c>
       <c r="S17" s="45">
-        <v>76798</v>
+        <v>92224</v>
       </c>
       <c r="T17" s="45">
-        <v>74168</v>
+        <v>88963</v>
       </c>
       <c r="U17" s="45">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="V17" s="45">
-        <v>2528</v>
+        <v>3142</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>8180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3792,73 +3777,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>555032</v>
+        <v>562403</v>
       </c>
       <c r="D18" s="47">
-        <v>367859</v>
+        <v>371956</v>
       </c>
       <c r="E18" s="47">
-        <v>56945</v>
+        <v>60219</v>
       </c>
       <c r="F18" s="47">
         <v>130228</v>
       </c>
       <c r="G18" s="47">
-        <v>4824</v>
+        <v>7371</v>
       </c>
       <c r="H18" s="47">
-        <v>242891</v>
+        <v>247723</v>
       </c>
       <c r="I18" s="47">
-        <v>201118</v>
+        <v>204963</v>
       </c>
       <c r="J18" s="47">
-        <v>30749</v>
+        <v>31366</v>
       </c>
       <c r="K18" s="47">
-        <v>7413</v>
+        <v>7624</v>
       </c>
       <c r="L18" s="47">
-        <v>3611</v>
+        <v>3770</v>
       </c>
       <c r="M18" s="47">
-        <v>6227</v>
+        <v>4832</v>
       </c>
       <c r="N18" s="46">
-        <v>240957</v>
+        <v>249163</v>
       </c>
       <c r="O18" s="46">
-        <v>199523</v>
+        <v>205443</v>
       </c>
       <c r="P18" s="46">
         <v>40</v>
       </c>
       <c r="Q18" s="46">
-        <v>41394</v>
+        <v>43680</v>
       </c>
       <c r="R18" s="46">
-        <v>6125</v>
+        <v>8206</v>
       </c>
       <c r="S18" s="46">
-        <v>20980</v>
+        <v>27964</v>
       </c>
       <c r="T18" s="46">
-        <v>19324</v>
+        <v>26003</v>
       </c>
       <c r="U18" s="46">
         <v>48</v>
       </c>
       <c r="V18" s="46">
-        <v>1608</v>
+        <v>1913</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3866,43 +3851,43 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>674124</v>
+        <v>679991</v>
       </c>
       <c r="D19" s="45">
-        <v>468244</v>
+        <v>472460</v>
       </c>
       <c r="E19" s="45">
-        <v>60583</v>
+        <v>62218</v>
       </c>
       <c r="F19" s="45">
-        <v>145297</v>
+        <v>145313</v>
       </c>
       <c r="G19" s="45">
-        <v>6040</v>
+        <v>6252</v>
       </c>
       <c r="H19" s="45">
-        <v>387992</v>
+        <v>398193</v>
       </c>
       <c r="I19" s="45">
-        <v>331166</v>
+        <v>337184</v>
       </c>
       <c r="J19" s="45">
-        <v>36941</v>
+        <v>37859</v>
       </c>
       <c r="K19" s="45">
-        <v>18083</v>
+        <v>19397</v>
       </c>
       <c r="L19" s="45">
-        <v>1802</v>
+        <v>3753</v>
       </c>
       <c r="M19" s="45">
-        <v>9026</v>
+        <v>9835</v>
       </c>
       <c r="N19" s="45">
-        <v>359576</v>
+        <v>359651</v>
       </c>
       <c r="O19" s="45">
-        <v>272073</v>
+        <v>272148</v>
       </c>
       <c r="P19" s="45">
         <v>2641</v>
@@ -3911,13 +3896,13 @@
         <v>84862</v>
       </c>
       <c r="R19" s="45">
-        <v>13572</v>
+        <v>75</v>
       </c>
       <c r="S19" s="45">
-        <v>30843</v>
+        <v>30882</v>
       </c>
       <c r="T19" s="45">
-        <v>28727</v>
+        <v>28766</v>
       </c>
       <c r="U19" s="45">
         <v>396</v>
@@ -3929,10 +3914,10 @@
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>4869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="52">
         <v>16</v>
       </c>
@@ -3940,109 +3925,109 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>530478</v>
+        <v>539909</v>
       </c>
       <c r="D20" s="47">
-        <v>359463</v>
+        <v>364761</v>
       </c>
       <c r="E20" s="47">
-        <v>61959</v>
+        <v>66093</v>
       </c>
       <c r="F20" s="47">
-        <v>109056</v>
+        <v>109055</v>
       </c>
       <c r="G20" s="47">
-        <v>6798</v>
+        <v>8555</v>
       </c>
       <c r="H20" s="47">
-        <v>302604</v>
+        <v>304897</v>
       </c>
       <c r="I20" s="47">
-        <v>281501</v>
+        <v>283684</v>
       </c>
       <c r="J20" s="47">
-        <v>19982</v>
+        <v>20043</v>
       </c>
       <c r="K20" s="47">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="L20" s="47">
         <v>121</v>
       </c>
       <c r="M20" s="47">
-        <v>2292</v>
+        <v>1744</v>
       </c>
       <c r="N20" s="47">
-        <v>209832</v>
+        <v>217551</v>
       </c>
       <c r="O20" s="46">
-        <v>173450</v>
+        <v>178638</v>
       </c>
       <c r="P20" s="46">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="46">
-        <v>36288</v>
+        <v>38818</v>
       </c>
       <c r="R20" s="46">
-        <v>6315</v>
+        <v>7719</v>
       </c>
       <c r="S20" s="46">
-        <v>32048</v>
+        <v>39013</v>
       </c>
       <c r="T20" s="46">
-        <v>27006</v>
+        <v>33111</v>
       </c>
       <c r="U20" s="46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V20" s="46">
-        <v>5028</v>
+        <v>5883</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>5919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>80592</v>
+        <v>82972</v>
       </c>
       <c r="D21" s="45">
-        <v>2269</v>
+        <v>3113</v>
       </c>
       <c r="E21" s="45">
-        <v>60373</v>
+        <v>61830</v>
       </c>
       <c r="F21" s="45">
-        <v>17950</v>
+        <v>18029</v>
       </c>
       <c r="G21" s="45">
-        <v>2191</v>
+        <v>2356</v>
       </c>
       <c r="H21" s="45">
-        <v>18741</v>
+        <v>21896</v>
       </c>
       <c r="I21" s="55">
-        <v>393</v>
+        <v>685</v>
       </c>
       <c r="J21" s="55">
-        <v>14847</v>
+        <v>17091</v>
       </c>
       <c r="K21" s="55">
-        <v>721</v>
+        <v>843</v>
       </c>
       <c r="L21" s="55">
-        <v>2780</v>
+        <v>3277</v>
       </c>
       <c r="M21" s="55">
-        <v>2500</v>
+        <v>3057</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>77</v>
@@ -4076,121 +4061,121 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>21781093</v>
+        <v>21972201</v>
       </c>
       <c r="D22" s="57">
-        <v>14336691</v>
+        <v>14457068</v>
       </c>
       <c r="E22" s="57">
-        <v>2232281</v>
+        <v>2296496</v>
       </c>
       <c r="F22" s="57">
-        <v>5212121</v>
+        <v>5218637</v>
       </c>
       <c r="G22" s="57">
-        <v>208071</v>
+        <v>179071</v>
       </c>
       <c r="H22" s="57">
-        <v>9019963</v>
+        <v>9242832</v>
       </c>
       <c r="I22" s="57">
-        <v>7909319</v>
+        <v>8069666</v>
       </c>
       <c r="J22" s="57">
-        <v>735807</v>
+        <v>766494</v>
       </c>
       <c r="K22" s="57">
-        <v>312686</v>
+        <v>326881</v>
       </c>
       <c r="L22" s="57">
-        <v>62151</v>
+        <v>79791</v>
       </c>
       <c r="M22" s="57">
-        <v>180903</v>
+        <v>200212</v>
       </c>
       <c r="N22" s="57">
-        <v>9835130</v>
+        <v>10206435</v>
       </c>
       <c r="O22" s="57">
-        <v>7466625</v>
+        <v>7689898</v>
       </c>
       <c r="P22" s="57">
-        <v>14460</v>
+        <v>14842</v>
       </c>
       <c r="Q22" s="57">
-        <v>2354045</v>
+        <v>2501695</v>
       </c>
       <c r="R22" s="57">
-        <v>300040</v>
+        <v>371305</v>
       </c>
       <c r="S22" s="57">
-        <v>881663</v>
+        <v>1190136</v>
       </c>
       <c r="T22" s="57">
-        <v>798531</v>
+        <v>1094082</v>
       </c>
       <c r="U22" s="57">
-        <v>3775</v>
+        <v>4190</v>
       </c>
       <c r="V22" s="57">
-        <v>78945</v>
+        <v>91379</v>
       </c>
       <c r="W22" s="57">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="X22" s="57">
-        <v>154964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
@@ -4211,7 +4196,7 @@
       <c r="S30" s="60"/>
       <c r="T30" s="60"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
@@ -4234,6 +4219,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="B27:V27"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4249,8 +4236,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="B27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4258,310 +4243,325 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="86">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>24073</v>
       </c>
-      <c r="C2" s="87"/>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
       <c r="D2" s="45">
         <v>24073</v>
       </c>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="87">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18523</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
       <c r="D3" s="46">
         <v>18523</v>
       </c>
-      <c r="E3" s="85"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="86">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50095</v>
-      </c>
-      <c r="C4" s="87"/>
+        <v>50094</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
       <c r="D4" s="45">
-        <v>50095</v>
-      </c>
-      <c r="E4" s="85"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+        <v>50094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="87">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62661</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
       <c r="D5" s="46">
         <v>62661</v>
       </c>
-      <c r="E5" s="85"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="86">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>50042</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
       <c r="D6" s="45">
         <v>50042</v>
       </c>
-      <c r="E6" s="85"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="87">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>18927</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="46">
         <v>18927</v>
       </c>
-      <c r="E7" s="85"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="86">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52255</v>
-      </c>
-      <c r="C8" s="87"/>
+        <v>52254</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
       <c r="D8" s="45">
-        <v>52255</v>
-      </c>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+        <v>52254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="87">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23894</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
       <c r="D9" s="46">
         <v>23894</v>
       </c>
-      <c r="E9" s="85"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="86">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48124</v>
-      </c>
-      <c r="C10" s="87"/>
+        <v>48123</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
       <c r="D10" s="45">
-        <v>48124</v>
-      </c>
-      <c r="E10" s="85"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="88">
+        <v>48123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="87">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53739</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
       <c r="D11" s="46">
         <v>53739</v>
       </c>
-      <c r="E11" s="85"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="86">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62663</v>
-      </c>
-      <c r="C12" s="87"/>
+        <v>62661</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
       <c r="D12" s="45">
-        <v>62663</v>
-      </c>
-      <c r="E12" s="85"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+        <v>62661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="87">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>56079</v>
-      </c>
-      <c r="C13" s="89"/>
+        <v>56077</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
       <c r="D13" s="46">
-        <v>56079</v>
-      </c>
-      <c r="E13" s="85"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="86">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62734</v>
-      </c>
-      <c r="C14" s="87"/>
+        <v>62733</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <v>62734</v>
-      </c>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+        <v>62733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="88">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
         <v>61392</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
         <v>61392</v>
       </c>
-      <c r="E15" s="85"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="86">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35504</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="45">
         <v>35504</v>
       </c>
-      <c r="E16" s="85"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="90">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="88">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67551</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
       <c r="D17" s="47">
         <v>67551</v>
       </c>
-      <c r="E17" s="85"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="86">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82599</v>
-      </c>
-      <c r="C18" s="87"/>
+        <v>82614</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
       <c r="D18" s="45">
-        <v>82599</v>
-      </c>
-      <c r="E18" s="85"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+        <v>82614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="87">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111538</v>
-      </c>
-      <c r="C19" s="89"/>
+        <v>111583</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
       <c r="D19" s="46">
-        <v>111538</v>
-      </c>
-      <c r="E19" s="85"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="86">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82966</v>
-      </c>
-      <c r="C20" s="87"/>
+        <v>82965</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
       <c r="D20" s="45">
-        <v>82966</v>
-      </c>
-      <c r="E20" s="85"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+        <v>82965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="87">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90907</v>
+        <v>90935</v>
       </c>
       <c r="C21" s="46">
         <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91517</v>
-      </c>
-      <c r="E21" s="85"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="86">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56662</v>
+        <v>56670</v>
       </c>
       <c r="C22" s="45">
         <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57568</v>
-      </c>
-      <c r="E22" s="85"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="88">
+        <v>57576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="87">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4573,25 +4573,23 @@
       <c r="D23" s="46">
         <v>48999</v>
       </c>
-      <c r="E23" s="85"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="86">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66856</v>
+        <v>66855</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82628</v>
-      </c>
-      <c r="E24" s="85"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="88">
+        <v>82627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="87">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
@@ -4603,9 +4601,8 @@
       <c r="D25" s="46">
         <v>117675</v>
       </c>
-      <c r="E25" s="85"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="86">
         <v>44216</v>
       </c>
@@ -4618,54 +4615,50 @@
       <c r="D26" s="45">
         <v>132014</v>
       </c>
-      <c r="E26" s="85"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="88">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="87">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65866</v>
+        <v>65867</v>
       </c>
       <c r="C27" s="46">
         <v>41853</v>
       </c>
       <c r="D27" s="46">
-        <v>107719</v>
-      </c>
-      <c r="E27" s="85"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="86">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68480</v>
+        <v>68523</v>
       </c>
       <c r="C28" s="45">
         <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>104042</v>
-      </c>
-      <c r="E28" s="85"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="88">
+        <v>104085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="87">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40049</v>
+        <v>40048</v>
       </c>
       <c r="C29" s="46">
         <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85009</v>
-      </c>
-      <c r="E29" s="85"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="86">
         <v>44220</v>
       </c>
@@ -4678,40 +4671,37 @@
       <c r="D30" s="45">
         <v>49231</v>
       </c>
-      <c r="E30" s="85"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="88">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
         <v>53104</v>
       </c>
       <c r="C31" s="47">
-        <v>38600</v>
+        <v>38599</v>
       </c>
       <c r="D31" s="47">
-        <v>91704</v>
-      </c>
-      <c r="E31" s="85"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="86">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50241</v>
+        <v>50244</v>
       </c>
       <c r="C32" s="45">
         <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>98670</v>
-      </c>
-      <c r="E32" s="85"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+        <v>98673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="88">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
@@ -4723,25 +4713,23 @@
       <c r="D33" s="47">
         <v>111145</v>
       </c>
-      <c r="E33" s="85"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="86">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45127</v>
+        <v>45125</v>
       </c>
       <c r="C34" s="45">
-        <v>46111</v>
+        <v>46109</v>
       </c>
       <c r="D34" s="45">
-        <v>91238</v>
-      </c>
-      <c r="E34" s="85"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="88">
+        <v>91234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="87">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
@@ -4753,25 +4741,23 @@
       <c r="D35" s="46">
         <v>109113</v>
       </c>
-      <c r="E35" s="85"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="86">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36346</v>
+        <v>36345</v>
       </c>
       <c r="C36" s="45">
         <v>52160</v>
       </c>
       <c r="D36" s="45">
-        <v>88506</v>
-      </c>
-      <c r="E36" s="85"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="88">
+        <v>88505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="87">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
@@ -4783,9 +4769,8 @@
       <c r="D37" s="46">
         <v>56514</v>
       </c>
-      <c r="E37" s="85"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="86">
         <v>44228</v>
       </c>
@@ -4798,40 +4783,37 @@
       <c r="D38" s="45">
         <v>120649</v>
       </c>
-      <c r="E38" s="85"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="88">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="87">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64215</v>
+        <v>64214</v>
       </c>
       <c r="C39" s="46">
-        <v>67478</v>
+        <v>67494</v>
       </c>
       <c r="D39" s="46">
-        <v>131693</v>
-      </c>
-      <c r="E39" s="85"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="86">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64162</v>
+        <v>64160</v>
       </c>
       <c r="C40" s="45">
-        <v>95326</v>
+        <v>95372</v>
       </c>
       <c r="D40" s="45">
-        <v>159488</v>
-      </c>
-      <c r="E40" s="85"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
+        <v>159532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="87">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
@@ -4843,25 +4825,23 @@
       <c r="D41" s="46">
         <v>131775</v>
       </c>
-      <c r="E41" s="85"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="86">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67664</v>
+        <v>67665</v>
       </c>
       <c r="C42" s="45">
-        <v>77115</v>
+        <v>77128</v>
       </c>
       <c r="D42" s="45">
-        <v>144779</v>
-      </c>
-      <c r="E42" s="85"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="88">
+        <v>144793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="87">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
@@ -4873,9 +4853,8 @@
       <c r="D43" s="46">
         <v>100151</v>
       </c>
-      <c r="E43" s="85"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="86">
         <v>44234</v>
       </c>
@@ -4888,84 +4867,78 @@
       <c r="D44" s="45">
         <v>54259</v>
       </c>
-      <c r="E44" s="85"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="88">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="87">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53166</v>
+        <v>53165</v>
       </c>
       <c r="C45" s="46">
-        <v>56779</v>
+        <v>56780</v>
       </c>
       <c r="D45" s="46">
         <v>109945</v>
       </c>
-      <c r="E45" s="85"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="86">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59690</v>
+        <v>59696</v>
       </c>
       <c r="C46" s="45">
-        <v>74238</v>
+        <v>74239</v>
       </c>
       <c r="D46" s="45">
-        <v>133928</v>
-      </c>
-      <c r="E46" s="85"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="90">
+        <v>133935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="88">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75150</v>
+        <v>75167</v>
       </c>
       <c r="C47" s="47">
         <v>76614</v>
       </c>
       <c r="D47" s="47">
-        <v>151764</v>
-      </c>
-      <c r="E47" s="85"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="86">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73837</v>
+        <v>73835</v>
       </c>
       <c r="C48" s="45">
         <v>67318</v>
       </c>
       <c r="D48" s="45">
-        <v>141155</v>
-      </c>
-      <c r="E48" s="85"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="90">
+        <v>141153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="88">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
         <v>81420</v>
       </c>
       <c r="C49" s="47">
-        <v>76077</v>
+        <v>76075</v>
       </c>
       <c r="D49" s="47">
-        <v>157497</v>
-      </c>
-      <c r="E49" s="85"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="86">
         <v>44240</v>
       </c>
@@ -4973,15 +4946,14 @@
         <v>62178</v>
       </c>
       <c r="C50" s="45">
-        <v>45578</v>
+        <v>45579</v>
       </c>
       <c r="D50" s="45">
-        <v>107756</v>
-      </c>
-      <c r="E50" s="85"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="88">
+        <v>107757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="87">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
@@ -4993,99 +4965,92 @@
       <c r="D51" s="46">
         <v>65294</v>
       </c>
-      <c r="E51" s="85"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="86">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71147</v>
+        <v>71223</v>
       </c>
       <c r="C52" s="45">
-        <v>55611</v>
+        <v>55617</v>
       </c>
       <c r="D52" s="45">
-        <v>126758</v>
-      </c>
-      <c r="E52" s="85"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="88">
+        <v>126840</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="87">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81983</v>
+        <v>82004</v>
       </c>
       <c r="C53" s="46">
-        <v>54627</v>
+        <v>54626</v>
       </c>
       <c r="D53" s="46">
-        <v>136610</v>
-      </c>
-      <c r="E53" s="85"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="86">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93532</v>
+        <v>93566</v>
       </c>
       <c r="C54" s="45">
-        <v>55671</v>
+        <v>55672</v>
       </c>
       <c r="D54" s="45">
-        <v>149203</v>
-      </c>
-      <c r="E54" s="85"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="88">
+        <v>149238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="87">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91461</v>
+        <v>91469</v>
       </c>
       <c r="C55" s="46">
-        <v>51238</v>
+        <v>51237</v>
       </c>
       <c r="D55" s="46">
-        <v>142699</v>
-      </c>
-      <c r="E55" s="85"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="86">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99791</v>
+        <v>99836</v>
       </c>
       <c r="C56" s="45">
-        <v>54733</v>
+        <v>54759</v>
       </c>
       <c r="D56" s="45">
-        <v>154524</v>
-      </c>
-      <c r="E56" s="85"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="88">
+        <v>154595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="87">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76305</v>
+        <v>76313</v>
       </c>
       <c r="C57" s="46">
-        <v>37099</v>
+        <v>37097</v>
       </c>
       <c r="D57" s="46">
-        <v>113404</v>
-      </c>
-      <c r="E57" s="85"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="86">
         <v>44248</v>
       </c>
@@ -5098,190 +5063,177 @@
       <c r="D58" s="45">
         <v>86155</v>
       </c>
-      <c r="E58" s="85"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="88">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="87">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100234</v>
+        <v>100242</v>
       </c>
       <c r="C59" s="46">
-        <v>60111</v>
+        <v>60115</v>
       </c>
       <c r="D59" s="46">
-        <v>160345</v>
-      </c>
-      <c r="E59" s="85"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="86">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107434</v>
+        <v>107431</v>
       </c>
       <c r="C60" s="45">
-        <v>59771</v>
+        <v>59770</v>
       </c>
       <c r="D60" s="45">
-        <v>167205</v>
-      </c>
-      <c r="E60" s="85"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="88">
+        <v>167201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="87">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116371</v>
+        <v>116393</v>
       </c>
       <c r="C61" s="46">
-        <v>59596</v>
+        <v>59591</v>
       </c>
       <c r="D61" s="46">
-        <v>175967</v>
-      </c>
-      <c r="E61" s="85"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="86">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130819</v>
+        <v>130872</v>
       </c>
       <c r="C62" s="45">
-        <v>58530</v>
+        <v>58529</v>
       </c>
       <c r="D62" s="45">
-        <v>189349</v>
-      </c>
-      <c r="E62" s="85"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="90">
+        <v>189401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="88">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144369</v>
+        <v>144402</v>
       </c>
       <c r="C63" s="47">
-        <v>65424</v>
+        <v>65411</v>
       </c>
       <c r="D63" s="47">
-        <v>209793</v>
-      </c>
-      <c r="E63" s="85"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="86">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108605</v>
+        <v>108604</v>
       </c>
       <c r="C64" s="45">
         <v>40014</v>
       </c>
       <c r="D64" s="45">
-        <v>148619</v>
-      </c>
-      <c r="E64" s="85"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
+        <v>148618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="88">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83810</v>
+        <v>83809</v>
       </c>
       <c r="C65" s="47">
-        <v>24291</v>
+        <v>24290</v>
       </c>
       <c r="D65" s="47">
-        <v>108101</v>
-      </c>
-      <c r="E65" s="85"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="86">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146448</v>
+        <v>146470</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195816</v>
-      </c>
-      <c r="E66" s="85"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="88">
+        <v>195838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="87">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166322</v>
+        <v>166338</v>
       </c>
       <c r="C67" s="46">
-        <v>53687</v>
+        <v>53686</v>
       </c>
       <c r="D67" s="46">
-        <v>220009</v>
-      </c>
-      <c r="E67" s="85"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="86">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174721</v>
+        <v>174757</v>
       </c>
       <c r="C68" s="45">
-        <v>68995</v>
+        <v>68992</v>
       </c>
       <c r="D68" s="45">
-        <v>243716</v>
-      </c>
-      <c r="E68" s="85"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="88">
+        <v>243749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="87">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180464</v>
+        <v>180470</v>
       </c>
       <c r="C69" s="46">
-        <v>62680</v>
+        <v>62682</v>
       </c>
       <c r="D69" s="46">
-        <v>243144</v>
-      </c>
-      <c r="E69" s="85"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="86">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201726</v>
+        <v>201744</v>
       </c>
       <c r="C70" s="45">
-        <v>67423</v>
+        <v>67424</v>
       </c>
       <c r="D70" s="45">
-        <v>269149</v>
-      </c>
-      <c r="E70" s="85"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="88">
+        <v>269168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="87">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
@@ -5293,9 +5245,8 @@
       <c r="D71" s="46">
         <v>202488</v>
       </c>
-      <c r="E71" s="85"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="86">
         <v>44262</v>
       </c>
@@ -5303,149 +5254,139 @@
         <v>115930</v>
       </c>
       <c r="C72" s="45">
-        <v>34462</v>
+        <v>34458</v>
       </c>
       <c r="D72" s="45">
-        <v>150392</v>
-      </c>
-      <c r="E72" s="85"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="88">
+        <v>150388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="87">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186717</v>
+        <v>186721</v>
       </c>
       <c r="C73" s="46">
-        <v>52508</v>
+        <v>52510</v>
       </c>
       <c r="D73" s="46">
-        <v>239225</v>
-      </c>
-      <c r="E73" s="85"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="86">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195720</v>
+        <v>195723</v>
       </c>
       <c r="C74" s="45">
         <v>54762</v>
       </c>
       <c r="D74" s="45">
-        <v>250482</v>
-      </c>
-      <c r="E74" s="85"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="88">
+        <v>250485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="87">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218075</v>
+        <v>218091</v>
       </c>
       <c r="C75" s="46">
-        <v>65687</v>
+        <v>65682</v>
       </c>
       <c r="D75" s="46">
-        <v>283762</v>
-      </c>
-      <c r="E75" s="85"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="86">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220706</v>
+        <v>220718</v>
       </c>
       <c r="C76" s="45">
-        <v>60904</v>
+        <v>60903</v>
       </c>
       <c r="D76" s="45">
-        <v>281610</v>
-      </c>
-      <c r="E76" s="85"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="88">
+        <v>281621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="87">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252455</v>
+        <v>252518</v>
       </c>
       <c r="C77" s="46">
-        <v>71646</v>
+        <v>71666</v>
       </c>
       <c r="D77" s="46">
-        <v>324101</v>
-      </c>
-      <c r="E77" s="85"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="86">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197100</v>
+        <v>197132</v>
       </c>
       <c r="C78" s="45">
-        <v>49441</v>
+        <v>49448</v>
       </c>
       <c r="D78" s="45">
-        <v>246541</v>
-      </c>
-      <c r="E78" s="85"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
+        <v>246580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="88">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135239</v>
+        <v>135235</v>
       </c>
       <c r="C79" s="47">
-        <v>35994</v>
+        <v>35993</v>
       </c>
       <c r="D79" s="47">
-        <v>171233</v>
-      </c>
-      <c r="E79" s="85"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="86">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189429</v>
+        <v>189428</v>
       </c>
       <c r="C80" s="45">
-        <v>58863</v>
+        <v>58862</v>
       </c>
       <c r="D80" s="45">
-        <v>248292</v>
-      </c>
-      <c r="E80" s="85"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="90">
+        <v>248290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="88">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112133</v>
+        <v>112135</v>
       </c>
       <c r="C81" s="47">
-        <v>67024</v>
+        <v>67023</v>
       </c>
       <c r="D81" s="47">
-        <v>179157</v>
-      </c>
-      <c r="E81" s="85"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="86">
         <v>44272</v>
       </c>
@@ -5453,269 +5394,251 @@
         <v>125750</v>
       </c>
       <c r="C82" s="45">
-        <v>79465</v>
+        <v>79466</v>
       </c>
       <c r="D82" s="45">
-        <v>205215</v>
-      </c>
-      <c r="E82" s="85"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="88">
+        <v>205216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="87">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119366</v>
+        <v>119367</v>
       </c>
       <c r="C83" s="46">
-        <v>75347</v>
+        <v>75345</v>
       </c>
       <c r="D83" s="46">
-        <v>194713</v>
-      </c>
-      <c r="E83" s="85"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="86">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161069</v>
+        <v>161083</v>
       </c>
       <c r="C84" s="45">
         <v>82842</v>
       </c>
       <c r="D84" s="45">
-        <v>243911</v>
-      </c>
-      <c r="E84" s="85"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="88">
+        <v>243925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="87">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166373</v>
+        <v>166380</v>
       </c>
       <c r="C85" s="46">
-        <v>53888</v>
+        <v>53887</v>
       </c>
       <c r="D85" s="46">
-        <v>220261</v>
-      </c>
-      <c r="E85" s="85"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="86">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127338</v>
+        <v>127337</v>
       </c>
       <c r="C86" s="45">
-        <v>38763</v>
+        <v>38761</v>
       </c>
       <c r="D86" s="45">
-        <v>166101</v>
-      </c>
-      <c r="E86" s="85"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="88">
+        <v>166098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="87">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190053</v>
+        <v>190049</v>
       </c>
       <c r="C87" s="46">
-        <v>76164</v>
+        <v>76163</v>
       </c>
       <c r="D87" s="46">
-        <v>266217</v>
-      </c>
-      <c r="E87" s="85"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="86">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214161</v>
+        <v>214167</v>
       </c>
       <c r="C88" s="45">
-        <v>83763</v>
+        <v>83762</v>
       </c>
       <c r="D88" s="45">
-        <v>297924</v>
-      </c>
-      <c r="E88" s="85"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="88">
+        <v>297929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="87">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245765</v>
+        <v>245802</v>
       </c>
       <c r="C89" s="46">
-        <v>88314</v>
+        <v>88310</v>
       </c>
       <c r="D89" s="46">
-        <v>334079</v>
-      </c>
-      <c r="E89" s="85"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="86">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257445</v>
+        <v>257460</v>
       </c>
       <c r="C90" s="45">
         <v>80155</v>
       </c>
       <c r="D90" s="45">
-        <v>337600</v>
-      </c>
-      <c r="E90" s="85"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="88">
+        <v>337615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="87">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285988</v>
+        <v>286011</v>
       </c>
       <c r="C91" s="46">
-        <v>88752</v>
+        <v>88766</v>
       </c>
       <c r="D91" s="46">
-        <v>374740</v>
-      </c>
-      <c r="E91" s="85"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="86">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223628</v>
+        <v>223625</v>
       </c>
       <c r="C92" s="45">
-        <v>63155</v>
+        <v>63159</v>
       </c>
       <c r="D92" s="45">
-        <v>286783</v>
-      </c>
-      <c r="E92" s="85"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="88">
+        <v>286784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="87">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
         <v>144184</v>
       </c>
       <c r="C93" s="46">
-        <v>52741</v>
+        <v>52740</v>
       </c>
       <c r="D93" s="46">
-        <v>196925</v>
-      </c>
-      <c r="E93" s="85"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196924</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="86">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219790</v>
+        <v>219804</v>
       </c>
       <c r="C94" s="45">
-        <v>89038</v>
+        <v>89040</v>
       </c>
       <c r="D94" s="45">
-        <v>308828</v>
-      </c>
-      <c r="E94" s="85"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+        <v>308844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="88">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235143</v>
+        <v>235187</v>
       </c>
       <c r="C95" s="47">
         <v>93353</v>
       </c>
       <c r="D95" s="47">
-        <v>328496</v>
-      </c>
-      <c r="E95" s="85"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328540</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="86">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238536</v>
+        <v>238542</v>
       </c>
       <c r="C96" s="45">
-        <v>103075</v>
+        <v>103098</v>
       </c>
       <c r="D96" s="45">
-        <v>341611</v>
-      </c>
-      <c r="E96" s="85"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="90">
+        <v>341640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="88">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231368</v>
+        <v>231621</v>
       </c>
       <c r="C97" s="47">
-        <v>92404</v>
+        <v>92402</v>
       </c>
       <c r="D97" s="47">
-        <v>323772</v>
-      </c>
-      <c r="E97" s="85"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="86">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158409</v>
+        <v>158411</v>
       </c>
       <c r="C98" s="45">
         <v>71581</v>
       </c>
       <c r="D98" s="45">
-        <v>229990</v>
-      </c>
-      <c r="E98" s="85"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="88">
+        <v>229992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="87">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>166017</v>
+        <v>166018</v>
       </c>
       <c r="C99" s="46">
         <v>66016</v>
       </c>
       <c r="D99" s="46">
-        <v>232033</v>
-      </c>
-      <c r="E99" s="85"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="86">
         <v>44290</v>
       </c>
@@ -5723,717 +5646,675 @@
         <v>142597</v>
       </c>
       <c r="C100" s="45">
-        <v>53538</v>
+        <v>53537</v>
       </c>
       <c r="D100" s="45">
-        <v>196135</v>
-      </c>
-      <c r="E100" s="85"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="88">
+        <v>196134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="87">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176296</v>
+        <v>176300</v>
       </c>
       <c r="C101" s="46">
-        <v>73383</v>
+        <v>73380</v>
       </c>
       <c r="D101" s="46">
-        <v>249679</v>
-      </c>
-      <c r="E101" s="85"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="86">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279537</v>
+        <v>279591</v>
       </c>
       <c r="C102" s="45">
-        <v>99041</v>
+        <v>99047</v>
       </c>
       <c r="D102" s="45">
-        <v>378578</v>
-      </c>
-      <c r="E102" s="85"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="88">
+        <v>378638</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="87">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580658</v>
+        <v>581115</v>
       </c>
       <c r="C103" s="46">
-        <v>97092</v>
+        <v>97062</v>
       </c>
       <c r="D103" s="46">
-        <v>677750</v>
-      </c>
-      <c r="E103" s="85"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>678177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="86">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643215</v>
+        <v>643242</v>
       </c>
       <c r="C104" s="45">
-        <v>89732</v>
+        <v>89718</v>
       </c>
       <c r="D104" s="45">
-        <v>732947</v>
-      </c>
-      <c r="E104" s="85"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="88">
+        <v>732960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="87">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534853</v>
+        <v>534444</v>
       </c>
       <c r="C105" s="46">
-        <v>88317</v>
+        <v>88463</v>
       </c>
       <c r="D105" s="46">
-        <v>623170</v>
-      </c>
-      <c r="E105" s="85"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>622907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="86">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>303049</v>
+        <v>302879</v>
       </c>
       <c r="C106" s="45">
-        <v>65449</v>
+        <v>65561</v>
       </c>
       <c r="D106" s="45">
-        <v>368498</v>
-      </c>
-      <c r="E106" s="85"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="88">
+        <v>368440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="87">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210526</v>
+        <v>210531</v>
       </c>
       <c r="C107" s="46">
-        <v>50070</v>
+        <v>50067</v>
       </c>
       <c r="D107" s="46">
-        <v>260596</v>
-      </c>
-      <c r="E107" s="85"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="86">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338917</v>
+        <v>338915</v>
       </c>
       <c r="C108" s="45">
-        <v>76819</v>
+        <v>76945</v>
       </c>
       <c r="D108" s="45">
-        <v>415736</v>
-      </c>
-      <c r="E108" s="85"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="88">
+        <v>415860</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="87">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
         <v>497921</v>
       </c>
       <c r="C109" s="46">
-        <v>73383</v>
+        <v>73518</v>
       </c>
       <c r="D109" s="46">
-        <v>571304</v>
-      </c>
-      <c r="E109" s="85"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>571439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="86">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690514</v>
+        <v>690771</v>
       </c>
       <c r="C110" s="45">
-        <v>83394</v>
+        <v>83498</v>
       </c>
       <c r="D110" s="45">
-        <v>773908</v>
-      </c>
-      <c r="E110" s="85"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="90">
+        <v>774269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="88">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608605</v>
+        <v>608624</v>
       </c>
       <c r="C111" s="47">
-        <v>70784</v>
+        <v>70904</v>
       </c>
       <c r="D111" s="47">
-        <v>679389</v>
-      </c>
-      <c r="E111" s="85"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>679528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="86">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>518033</v>
+        <v>518120</v>
       </c>
       <c r="C112" s="45">
-        <v>75355</v>
+        <v>75382</v>
       </c>
       <c r="D112" s="45">
-        <v>593388</v>
-      </c>
-      <c r="E112" s="85"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="90">
+        <v>593502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="88">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305809</v>
+        <v>305814</v>
       </c>
       <c r="C113" s="47">
-        <v>56479</v>
+        <v>56484</v>
       </c>
       <c r="D113" s="47">
-        <v>362288</v>
-      </c>
-      <c r="E113" s="85"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>362298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="86">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226958</v>
+        <v>226961</v>
       </c>
       <c r="C114" s="45">
-        <v>39222</v>
+        <v>39223</v>
       </c>
       <c r="D114" s="45">
-        <v>266180</v>
-      </c>
-      <c r="E114" s="85"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="88">
+        <v>266184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="87">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338247</v>
+        <v>338335</v>
       </c>
       <c r="C115" s="46">
-        <v>60783</v>
+        <v>60787</v>
       </c>
       <c r="D115" s="46">
-        <v>399030</v>
-      </c>
-      <c r="E115" s="85"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="86">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493769</v>
+        <v>493797</v>
       </c>
       <c r="C116" s="45">
-        <v>61614</v>
+        <v>61618</v>
       </c>
       <c r="D116" s="45">
-        <v>555383</v>
-      </c>
-      <c r="E116" s="85"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="88">
+        <v>555415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="87">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641793</v>
+        <v>641897</v>
       </c>
       <c r="C117" s="46">
         <v>71749</v>
       </c>
       <c r="D117" s="46">
-        <v>713542</v>
-      </c>
-      <c r="E117" s="85"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>713646</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="86">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567901</v>
+        <v>567970</v>
       </c>
       <c r="C118" s="45">
-        <v>66117</v>
+        <v>66114</v>
       </c>
       <c r="D118" s="45">
-        <v>634018</v>
-      </c>
-      <c r="E118" s="85"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="88">
+        <v>634084</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="87">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483424</v>
+        <v>483509</v>
       </c>
       <c r="C119" s="46">
-        <v>67544</v>
+        <v>67539</v>
       </c>
       <c r="D119" s="46">
-        <v>550968</v>
-      </c>
-      <c r="E119" s="85"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>551048</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="86">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309370</v>
+        <v>309378</v>
       </c>
       <c r="C120" s="45">
-        <v>59763</v>
+        <v>59757</v>
       </c>
       <c r="D120" s="45">
-        <v>369133</v>
-      </c>
-      <c r="E120" s="85"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="88">
+        <v>369135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="87">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235491</v>
+        <v>235497</v>
       </c>
       <c r="C121" s="46">
-        <v>47748</v>
+        <v>47745</v>
       </c>
       <c r="D121" s="46">
-        <v>283239</v>
-      </c>
-      <c r="E121" s="85"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="86">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354515</v>
+        <v>354559</v>
       </c>
       <c r="C122" s="45">
-        <v>73233</v>
+        <v>73227</v>
       </c>
       <c r="D122" s="45">
-        <v>427748</v>
-      </c>
-      <c r="E122" s="85"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="88">
+        <v>427786</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="87">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693549</v>
+        <v>693564</v>
       </c>
       <c r="C123" s="46">
-        <v>90428</v>
+        <v>90441</v>
       </c>
       <c r="D123" s="46">
-        <v>783977</v>
-      </c>
-      <c r="E123" s="85"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>784005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="86">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993385</v>
+        <v>993418</v>
       </c>
       <c r="C124" s="45">
-        <v>126808</v>
+        <v>127087</v>
       </c>
       <c r="D124" s="45">
-        <v>1120193</v>
-      </c>
-      <c r="E124" s="85"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="88">
+        <v>1120505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="87">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808235</v>
+        <v>808254</v>
       </c>
       <c r="C125" s="46">
-        <v>131641</v>
+        <v>131710</v>
       </c>
       <c r="D125" s="46">
-        <v>939876</v>
-      </c>
-      <c r="E125" s="85"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>939964</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="86">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>662188</v>
+        <v>662193</v>
       </c>
       <c r="C126" s="45">
-        <v>137346</v>
+        <v>137401</v>
       </c>
       <c r="D126" s="45">
-        <v>799534</v>
-      </c>
-      <c r="E126" s="85"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="88">
+        <v>799594</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="87">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259041</v>
+        <v>259053</v>
       </c>
       <c r="C127" s="46">
-        <v>76146</v>
+        <v>76172</v>
       </c>
       <c r="D127" s="46">
-        <v>335187</v>
-      </c>
-      <c r="E127" s="85"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>335225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="86">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195315</v>
+        <v>195322</v>
       </c>
       <c r="C128" s="45">
-        <v>67772</v>
+        <v>67768</v>
       </c>
       <c r="D128" s="45">
-        <v>263087</v>
-      </c>
-      <c r="E128" s="85"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="88">
+        <v>263090</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="87">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>333518</v>
+        <v>333545</v>
       </c>
       <c r="C129" s="46">
-        <v>115605</v>
+        <v>115619</v>
       </c>
       <c r="D129" s="46">
-        <v>449123</v>
-      </c>
-      <c r="E129" s="85"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="86">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677845</v>
+        <v>677991</v>
       </c>
       <c r="C130" s="45">
-        <v>161219</v>
+        <v>161281</v>
       </c>
       <c r="D130" s="45">
-        <v>839064</v>
-      </c>
-      <c r="E130" s="85"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="88">
+        <v>839272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="87">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907852</v>
+        <v>907925</v>
       </c>
       <c r="C131" s="46">
-        <v>225878</v>
+        <v>225983</v>
       </c>
       <c r="D131" s="46">
-        <v>1133730</v>
-      </c>
-      <c r="E131" s="85"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1133908</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="86">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>760120</v>
+        <v>760745</v>
       </c>
       <c r="C132" s="45">
-        <v>216630</v>
+        <v>217151</v>
       </c>
       <c r="D132" s="45">
-        <v>976750</v>
-      </c>
-      <c r="E132" s="85"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="88">
+        <v>977896</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="87">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644705</v>
+        <v>644956</v>
       </c>
       <c r="C133" s="46">
-        <v>227355</v>
+        <v>228862</v>
       </c>
       <c r="D133" s="46">
-        <v>872060</v>
-      </c>
-      <c r="E133" s="85"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>873818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="86">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268505</v>
+        <v>268527</v>
       </c>
       <c r="C134" s="45">
-        <v>151763</v>
+        <v>152163</v>
       </c>
       <c r="D134" s="45">
-        <v>420268</v>
-      </c>
-      <c r="E134" s="85"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="88">
+        <v>420690</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="87">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181254</v>
+        <v>181264</v>
       </c>
       <c r="C135" s="46">
-        <v>101844</v>
+        <v>101890</v>
       </c>
       <c r="D135" s="46">
-        <v>283098</v>
-      </c>
-      <c r="E135" s="85"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="86">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>390320</v>
+        <v>391115</v>
       </c>
       <c r="C136" s="45">
-        <v>189804</v>
+        <v>190169</v>
       </c>
       <c r="D136" s="45">
-        <v>580124</v>
-      </c>
-      <c r="E136" s="85"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="88">
+        <v>581284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="87">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>792558</v>
+        <v>792614</v>
       </c>
       <c r="C137" s="46">
-        <v>281533</v>
+        <v>281812</v>
       </c>
       <c r="D137" s="46">
-        <v>1074091</v>
-      </c>
-      <c r="E137" s="85"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1074426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="86">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1039894</v>
+        <v>1040504</v>
       </c>
       <c r="C138" s="45">
-        <v>357451</v>
+        <v>358412</v>
       </c>
       <c r="D138" s="45">
-        <v>1397345</v>
-      </c>
-      <c r="E138" s="85"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="88">
+        <v>1398916</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="87">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>264433</v>
+        <v>264503</v>
       </c>
       <c r="C139" s="46">
-        <v>155359</v>
+        <v>156278</v>
       </c>
       <c r="D139" s="46">
-        <v>419792</v>
-      </c>
-      <c r="E139" s="85"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>420781</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="86">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>518562</v>
+        <v>518998</v>
       </c>
       <c r="C140" s="45">
-        <v>221664</v>
+        <v>222726</v>
       </c>
       <c r="D140" s="45">
-        <v>740226</v>
-      </c>
-      <c r="E140" s="85"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="88">
+        <v>741724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="87">
         <v>44331</v>
       </c>
       <c r="B141" s="46">
-        <v>229335</v>
+        <v>229787</v>
       </c>
       <c r="C141" s="46">
-        <v>158995</v>
+        <v>159826</v>
       </c>
       <c r="D141" s="46">
-        <v>388330</v>
-      </c>
-      <c r="E141" s="85"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>389613</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="86">
         <v>44332</v>
       </c>
       <c r="B142" s="45">
-        <v>157754</v>
+        <v>157911</v>
       </c>
       <c r="C142" s="45">
-        <v>116905</v>
+        <v>117258</v>
       </c>
       <c r="D142" s="45">
-        <v>274659</v>
-      </c>
-      <c r="E142" s="85"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="88">
+        <v>275169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="87">
         <v>44333</v>
       </c>
       <c r="B143" s="46">
-        <v>341985</v>
+        <v>343955</v>
       </c>
       <c r="C143" s="46">
-        <v>190619</v>
+        <v>197192</v>
       </c>
       <c r="D143" s="46">
-        <v>532604</v>
-      </c>
-      <c r="E143" s="85"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="86">
         <v>44334</v>
       </c>
       <c r="B144" s="45">
-        <v>508111</v>
+        <v>512498</v>
       </c>
       <c r="C144" s="45">
-        <v>335867</v>
+        <v>343242</v>
       </c>
       <c r="D144" s="45">
-        <v>843978</v>
-      </c>
-      <c r="E144" s="85"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="88"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="85"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="86" t="s">
+        <v>855740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="87">
+        <v>44335</v>
+      </c>
+      <c r="B145" s="46">
+        <v>550376</v>
+      </c>
+      <c r="C145" s="46">
+        <v>508685</v>
+      </c>
+      <c r="D145" s="46">
+        <v>1059061</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="87"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="45">
-        <v>31616223</v>
-      </c>
-      <c r="C146" s="45">
-        <v>9901626</v>
-      </c>
-      <c r="D146" s="45">
-        <v>41517849</v>
-      </c>
-      <c r="E146" s="85"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="85"/>
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="85" t="s">
+      <c r="B147" s="45">
+        <v>32178636</v>
+      </c>
+      <c r="C147" s="45">
+        <v>10432968</v>
+      </c>
+      <c r="D147" s="45">
+        <v>42611604</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="66"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="85"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66ACB5-8034-4EEA-BED3-5686F884DD21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB40CF-C512-4144-9AE7-8F200CFBA8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_19.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_19.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_20.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_20.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_19.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_19.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_20.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_20.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Datenstand: 20.05.2021, 14:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 19.05.21 durchgeführt und bis zum 20.05.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 19.05.21 (Impfquote_bis_einschl_19.05.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 19.05.21 (Impfstoff_bis_einschl_19.05.21)</t>
+    <t>Datenstand: 21.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 20.05.21 (Impfquote_bis_einschl_20.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 20.05.21 durchgeführt und bis zum 21.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 20.05.21 (Impfstoff_bis_einschl_20.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +371,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,7 +563,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -710,10 +716,37 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,6 +768,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,30 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1159,12 +1180,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1248,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,102 +1295,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="73" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="74"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1421,55 +1442,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5595806</v>
+        <v>5730000</v>
       </c>
       <c r="D5" s="32">
-        <v>4200570</v>
+        <v>4269085</v>
       </c>
       <c r="E5" s="32">
-        <v>1395236</v>
+        <v>1460915</v>
       </c>
       <c r="F5" s="33">
-        <v>37.841629765574083</v>
+        <v>38.458860108929464</v>
       </c>
       <c r="G5" s="33">
-        <v>24.69658030459885</v>
+        <v>25.395645088594286</v>
       </c>
       <c r="H5" s="33">
-        <v>74.002448726849678</v>
+        <v>74.47657960975846</v>
       </c>
       <c r="I5" s="33">
-        <v>12.569247542024184</v>
+        <v>13.160929242691747</v>
       </c>
       <c r="J5" s="33">
-        <v>6.5143409562313197</v>
+        <v>6.8630847810728106</v>
       </c>
       <c r="K5" s="33">
-        <v>28.392934210067793</v>
+        <v>29.564489841871488</v>
       </c>
       <c r="L5" s="32">
-        <v>1490115</v>
+        <v>1520580</v>
       </c>
       <c r="M5" s="32">
-        <v>1501785</v>
+        <v>1505327</v>
       </c>
       <c r="N5" s="32">
-        <v>468278</v>
+        <v>484375</v>
       </c>
       <c r="O5" s="32">
-        <v>733448</v>
+        <v>743373</v>
       </c>
       <c r="P5" s="34">
-        <v>514256</v>
+        <v>540527</v>
       </c>
       <c r="Q5" s="34">
-        <v>706750</v>
+        <v>717358</v>
       </c>
       <c r="R5" s="34">
-        <v>60425</v>
+        <v>72632</v>
       </c>
       <c r="S5" s="34">
-        <v>113913</v>
+        <v>138952</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1480,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6760059</v>
+        <v>6912047</v>
       </c>
       <c r="D6" s="13">
-        <v>5218875</v>
+        <v>5276597</v>
       </c>
       <c r="E6" s="13">
-        <v>1541184</v>
+        <v>1635450</v>
       </c>
       <c r="F6" s="14">
-        <v>39.763653930741619</v>
+        <v>40.20344941007199</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>77</v>
@@ -1498,7 +1519,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>11.74258958484273</v>
+        <v>12.46082111969177</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>77</v>
@@ -1519,16 +1540,16 @@
         <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>795071</v>
+        <v>824519</v>
       </c>
       <c r="Q6" s="18">
-        <v>881231</v>
+        <v>892618</v>
       </c>
       <c r="R6" s="17">
-        <v>73528</v>
+        <v>89125</v>
       </c>
       <c r="S6" s="18">
-        <v>107537</v>
+        <v>138524</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -1539,16 +1560,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1830887</v>
+        <v>1872093</v>
       </c>
       <c r="D7" s="37">
-        <v>1313740</v>
+        <v>1339193</v>
       </c>
       <c r="E7" s="37">
-        <v>517147</v>
+        <v>532900</v>
       </c>
       <c r="F7" s="38">
-        <v>35.801695657517627</v>
+        <v>36.495334094020123</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>77</v>
@@ -1557,7 +1578,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>14.09315351911205</v>
+        <v>14.522450116378538</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>77</v>
@@ -1578,16 +1599,16 @@
         <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>302793</v>
+        <v>315612</v>
       </c>
       <c r="Q7" s="41">
-        <v>130685</v>
+        <v>133400</v>
       </c>
       <c r="R7" s="41">
-        <v>31552</v>
+        <v>37620</v>
       </c>
       <c r="S7" s="41">
-        <v>20405</v>
+        <v>24988</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1598,55 +1619,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1190685</v>
+        <v>1219781</v>
       </c>
       <c r="D8" s="13">
-        <v>851532</v>
+        <v>865688</v>
       </c>
       <c r="E8" s="13">
-        <v>339153</v>
+        <v>354093</v>
       </c>
       <c r="F8" s="14">
-        <v>33.765587992829197</v>
+        <v>34.326912363054262</v>
       </c>
       <c r="G8" s="44">
-        <v>19.24710055796843</v>
+        <v>19.699935926221084</v>
       </c>
       <c r="H8" s="44">
-        <v>62.580231682887359</v>
+        <v>63.379121605860135</v>
       </c>
       <c r="I8" s="44">
-        <v>13.448350108430454</v>
+        <v>14.040762236938681</v>
       </c>
       <c r="J8" s="63">
-        <v>6.9284876280809993</v>
+        <v>7.2635881671171951</v>
       </c>
       <c r="K8" s="44">
-        <v>26.481204924163176</v>
+        <v>27.579498204782276</v>
       </c>
       <c r="L8" s="17">
-        <v>208563</v>
+        <v>210572</v>
       </c>
       <c r="M8" s="18">
-        <v>303786</v>
+        <v>305569</v>
       </c>
       <c r="N8" s="17">
-        <v>98427</v>
+        <v>101391</v>
       </c>
       <c r="O8" s="18">
-        <v>182621</v>
+        <v>186747</v>
       </c>
       <c r="P8" s="17">
-        <v>116759</v>
+        <v>122404</v>
       </c>
       <c r="Q8" s="18">
-        <v>216665</v>
+        <v>221526</v>
       </c>
       <c r="R8" s="17">
-        <v>18681</v>
+        <v>21381</v>
       </c>
       <c r="S8" s="18">
-        <v>37611</v>
+        <v>42619</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1657,55 +1678,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>378525</v>
+        <v>387299</v>
       </c>
       <c r="D9" s="37">
-        <v>268555</v>
+        <v>272280</v>
       </c>
       <c r="E9" s="37">
-        <v>109970</v>
+        <v>115019</v>
       </c>
       <c r="F9" s="38">
-        <v>39.423695174118691</v>
+        <v>39.970522693709057</v>
       </c>
       <c r="G9" s="64">
-        <v>23.373763656344948</v>
+        <v>24.07233822483677</v>
       </c>
       <c r="H9" s="64">
-        <v>83.048325939611374</v>
+        <v>83.567139650042435</v>
       </c>
       <c r="I9" s="64">
-        <v>16.143522772980702</v>
+        <v>16.884712610943598</v>
       </c>
       <c r="J9" s="64">
-        <v>6.333837028896502</v>
+        <v>6.7360527506626164</v>
       </c>
       <c r="K9" s="64">
-        <v>41.268247097113765</v>
+        <v>42.535205216064966</v>
       </c>
       <c r="L9" s="42">
-        <v>75468</v>
+        <v>77243</v>
       </c>
       <c r="M9" s="42">
-        <v>123114</v>
+        <v>123695</v>
       </c>
       <c r="N9" s="42">
-        <v>28330</v>
+        <v>29574</v>
       </c>
       <c r="O9" s="42">
-        <v>72620</v>
+        <v>73869</v>
       </c>
       <c r="P9" s="42">
-        <v>40234</v>
+        <v>41917</v>
       </c>
       <c r="Q9" s="42">
-        <v>31517</v>
+        <v>31902</v>
       </c>
       <c r="R9" s="42">
-        <v>3023</v>
+        <v>3770</v>
       </c>
       <c r="S9" s="42">
-        <v>4219</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1716,55 +1737,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>907049</v>
+        <v>927435</v>
       </c>
       <c r="D10" s="13">
-        <v>688514</v>
+        <v>696331</v>
       </c>
       <c r="E10" s="13">
-        <v>218535</v>
+        <v>231104</v>
       </c>
       <c r="F10" s="14">
-        <v>37.272317327404529</v>
+        <v>37.695486216560482</v>
       </c>
       <c r="G10" s="44">
-        <v>26.221223594352644</v>
+        <v>26.642510880719012</v>
       </c>
       <c r="H10" s="44">
-        <v>73.260894097921934</v>
+        <v>73.731871958507895</v>
       </c>
       <c r="I10" s="44">
-        <v>11.830269053562235</v>
+        <v>12.510684784379833</v>
       </c>
       <c r="J10" s="44">
-        <v>7.0773857966809377</v>
+        <v>7.4960546335939986</v>
       </c>
       <c r="K10" s="44">
-        <v>27.041499022346688</v>
+        <v>28.53204607061674</v>
       </c>
       <c r="L10" s="18">
-        <v>281132</v>
+        <v>282689</v>
       </c>
       <c r="M10" s="18">
-        <v>225087</v>
+        <v>225259</v>
       </c>
       <c r="N10" s="18">
-        <v>92999</v>
+        <v>97108</v>
       </c>
       <c r="O10" s="18">
-        <v>107425</v>
+        <v>110665</v>
       </c>
       <c r="P10" s="18">
-        <v>89387</v>
+        <v>93783</v>
       </c>
       <c r="Q10" s="18">
-        <v>93014</v>
+        <v>94887</v>
       </c>
       <c r="R10" s="18">
-        <v>7008</v>
+        <v>8815</v>
       </c>
       <c r="S10" s="18">
-        <v>9990</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1775,55 +1796,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>3143088</v>
+        <v>3209963</v>
       </c>
       <c r="D11" s="37">
-        <v>2441929</v>
+        <v>2480085</v>
       </c>
       <c r="E11" s="37">
-        <v>701159</v>
+        <v>729878</v>
       </c>
       <c r="F11" s="38">
-        <v>38.834254653248685</v>
+        <v>39.441053548937042</v>
       </c>
       <c r="G11" s="64">
-        <v>25.874021852405697</v>
+        <v>26.476791772141379</v>
       </c>
       <c r="H11" s="64">
-        <v>73.366094167592863</v>
+        <v>74.004476071309568</v>
       </c>
       <c r="I11" s="64">
-        <v>11.150605590259666</v>
+        <v>11.607326878792891</v>
       </c>
       <c r="J11" s="64">
-        <v>5.2536905575452222</v>
+        <v>5.5936742299288884</v>
       </c>
       <c r="K11" s="64">
-        <v>26.812039956101412</v>
+        <v>27.558770280377754</v>
       </c>
       <c r="L11" s="41">
-        <v>855559</v>
+        <v>869826</v>
       </c>
       <c r="M11" s="41">
-        <v>885533</v>
+        <v>890207</v>
       </c>
       <c r="N11" s="41">
-        <v>207627</v>
+        <v>216726</v>
       </c>
       <c r="O11" s="41">
-        <v>413477</v>
+        <v>416379</v>
       </c>
       <c r="P11" s="41">
-        <v>327245</v>
+        <v>340533</v>
       </c>
       <c r="Q11" s="41">
-        <v>373931</v>
+        <v>380216</v>
       </c>
       <c r="R11" s="41">
-        <v>32540</v>
+        <v>38983</v>
       </c>
       <c r="S11" s="41">
-        <v>46801</v>
+        <v>56718</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1834,55 +1855,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>844514</v>
+        <v>864262</v>
       </c>
       <c r="D12" s="13">
-        <v>652923</v>
+        <v>661283</v>
       </c>
       <c r="E12" s="13">
-        <v>191591</v>
+        <v>202979</v>
       </c>
       <c r="F12" s="14">
-        <v>40.60117974949911</v>
+        <v>41.121035632514122</v>
       </c>
       <c r="G12" s="44">
-        <v>25.289702026132264</v>
+        <v>25.77372668034678</v>
       </c>
       <c r="H12" s="44">
-        <v>71.036410947275172</v>
+        <v>71.659254064628044</v>
       </c>
       <c r="I12" s="44">
-        <v>11.913840727599249</v>
+        <v>12.621988908912046</v>
       </c>
       <c r="J12" s="44">
-        <v>5.3939534901169308</v>
+        <v>5.7599027636579168</v>
       </c>
       <c r="K12" s="44">
-        <v>24.42283204458634</v>
+        <v>25.771864100245445</v>
       </c>
       <c r="L12" s="18">
-        <v>174395</v>
+        <v>176633</v>
       </c>
       <c r="M12" s="18">
-        <v>225923</v>
+        <v>226902</v>
       </c>
       <c r="N12" s="18">
-        <v>45356</v>
+        <v>47075</v>
       </c>
       <c r="O12" s="18">
-        <v>112601</v>
+        <v>115276</v>
       </c>
       <c r="P12" s="18">
-        <v>95261</v>
+        <v>98184</v>
       </c>
       <c r="Q12" s="18">
-        <v>159002</v>
+        <v>161398</v>
       </c>
       <c r="R12" s="18">
-        <v>12158</v>
+        <v>14341</v>
       </c>
       <c r="S12" s="18">
-        <v>19739</v>
+        <v>24374</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1893,55 +1914,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>4054912</v>
+        <v>4142889</v>
       </c>
       <c r="D13" s="37">
-        <v>3179996</v>
+        <v>3218202</v>
       </c>
       <c r="E13" s="37">
-        <v>874916</v>
+        <v>924687</v>
       </c>
       <c r="F13" s="38">
-        <v>39.781735606749791</v>
+        <v>40.259692494302946</v>
       </c>
       <c r="G13" s="64">
-        <v>24.889799405961543</v>
+        <v>25.359875946547454</v>
       </c>
       <c r="H13" s="64">
-        <v>77.309323508721562</v>
+        <v>77.884635755919902</v>
       </c>
       <c r="I13" s="64">
-        <v>10.945195210973569</v>
+        <v>11.567830196326865</v>
       </c>
       <c r="J13" s="64">
-        <v>4.1244181913847351</v>
+        <v>4.4365761937143455</v>
       </c>
       <c r="K13" s="64">
-        <v>26.745490699493391</v>
+        <v>28.052719805294895</v>
       </c>
       <c r="L13" s="42">
-        <v>982451</v>
+        <v>991935</v>
       </c>
       <c r="M13" s="42">
-        <v>1219509</v>
+        <v>1224432</v>
       </c>
       <c r="N13" s="42">
-        <v>196083</v>
+        <v>205653</v>
       </c>
       <c r="O13" s="42">
-        <v>563124</v>
+        <v>577572</v>
       </c>
       <c r="P13" s="42">
-        <v>431483</v>
+        <v>448703</v>
       </c>
       <c r="Q13" s="42">
-        <v>568525</v>
+        <v>576908</v>
       </c>
       <c r="R13" s="42">
-        <v>38216</v>
+        <v>46379</v>
       </c>
       <c r="S13" s="42">
-        <v>55454</v>
+        <v>71240</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -1952,55 +1973,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>9453617</v>
+        <v>9653573</v>
       </c>
       <c r="D14" s="13">
-        <v>7359823</v>
+        <v>7462875</v>
       </c>
       <c r="E14" s="13">
-        <v>2093794</v>
+        <v>2190698</v>
       </c>
       <c r="F14" s="14">
-        <v>41.008148281006847</v>
+        <v>41.582343026811785</v>
       </c>
       <c r="G14" s="44">
-        <v>26.735401233722744</v>
+        <v>27.362651150219889</v>
       </c>
       <c r="H14" s="44">
-        <v>77.909516828206051</v>
+        <v>78.34740739102692</v>
       </c>
       <c r="I14" s="44">
-        <v>11.66639670843748</v>
+        <v>12.206335454385947</v>
       </c>
       <c r="J14" s="44">
-        <v>5.550684878101305</v>
+        <v>5.8445963559494176</v>
       </c>
       <c r="K14" s="44">
-        <v>27.275183140057841</v>
+        <v>28.448423046112588</v>
       </c>
       <c r="L14" s="18">
-        <v>2233375</v>
+        <v>2261405</v>
       </c>
       <c r="M14" s="18">
-        <v>2657698</v>
+        <v>2661222</v>
       </c>
       <c r="N14" s="18">
-        <v>624315</v>
+        <v>642711</v>
       </c>
       <c r="O14" s="18">
-        <v>1230277</v>
+        <v>1252877</v>
       </c>
       <c r="P14" s="18">
-        <v>1222898</v>
+        <v>1275957</v>
       </c>
       <c r="Q14" s="18">
-        <v>1252985</v>
+        <v>1271441</v>
       </c>
       <c r="R14" s="18">
-        <v>93261</v>
+        <v>112861</v>
       </c>
       <c r="S14" s="18">
-        <v>138806</v>
+        <v>175097</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -2011,55 +2032,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>2098267</v>
+        <v>2149119</v>
       </c>
       <c r="D15" s="37">
-        <v>1516763</v>
+        <v>1544397</v>
       </c>
       <c r="E15" s="37">
-        <v>581504</v>
+        <v>604722</v>
       </c>
       <c r="F15" s="38">
-        <v>37.049314553862175</v>
+        <v>37.724318333873569</v>
       </c>
       <c r="G15" s="64">
-        <v>22.489307389429154</v>
+        <v>23.134557081559283</v>
       </c>
       <c r="H15" s="64">
-        <v>72.269101393560788</v>
+        <v>73.016150262206708</v>
       </c>
       <c r="I15" s="64">
-        <v>14.204146996155014</v>
+        <v>14.771283051894487</v>
       </c>
       <c r="J15" s="64">
-        <v>7.1550062678440272</v>
+        <v>7.4040288155155372</v>
       </c>
       <c r="K15" s="64">
-        <v>31.273008378079105</v>
+        <v>32.610408875331679</v>
       </c>
       <c r="L15" s="42">
-        <v>456700</v>
+        <v>465468</v>
       </c>
       <c r="M15" s="42">
-        <v>577269</v>
+        <v>580561</v>
       </c>
       <c r="N15" s="42">
-        <v>187477</v>
+        <v>191255</v>
       </c>
       <c r="O15" s="42">
-        <v>333977</v>
+        <v>341512</v>
       </c>
       <c r="P15" s="42">
-        <v>194889</v>
+        <v>204816</v>
       </c>
       <c r="Q15" s="42">
-        <v>287485</v>
+        <v>293132</v>
       </c>
       <c r="R15" s="42">
-        <v>19827</v>
+        <v>23264</v>
       </c>
       <c r="S15" s="42">
-        <v>40228</v>
+        <v>48696</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -2070,55 +2091,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>559800</v>
+        <v>572930</v>
       </c>
       <c r="D16" s="13">
-        <v>424441</v>
+        <v>428677</v>
       </c>
       <c r="E16" s="13">
-        <v>135359</v>
+        <v>144253</v>
       </c>
       <c r="F16" s="14">
-        <v>43.008064753107497</v>
+        <v>43.437293226073507</v>
       </c>
       <c r="G16" s="44">
-        <v>27.571586708160154</v>
+        <v>28.0052692352448</v>
       </c>
       <c r="H16" s="44">
-        <v>75.691845057031216</v>
+        <v>76.120487331836088</v>
       </c>
       <c r="I16" s="44">
-        <v>13.715754691266579</v>
+        <v>14.616972358537502</v>
       </c>
       <c r="J16" s="44">
-        <v>5.240591610398833</v>
+        <v>5.63891715127121</v>
       </c>
       <c r="K16" s="44">
-        <v>31.660459724367541</v>
+        <v>33.617620766881146</v>
       </c>
       <c r="L16" s="18">
-        <v>125751</v>
+        <v>126501</v>
       </c>
       <c r="M16" s="18">
-        <v>174385</v>
+        <v>174717</v>
       </c>
       <c r="N16" s="18">
-        <v>28616</v>
+        <v>30037</v>
       </c>
       <c r="O16" s="18">
-        <v>91763</v>
+        <v>95862</v>
       </c>
       <c r="P16" s="18">
-        <v>59063</v>
+        <v>61220</v>
       </c>
       <c r="Q16" s="18">
-        <v>65241</v>
+        <v>66266</v>
       </c>
       <c r="R16" s="18">
-        <v>6512</v>
+        <v>7761</v>
       </c>
       <c r="S16" s="18">
-        <v>8468</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -2129,16 +2150,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>2032187</v>
+        <v>2078297</v>
       </c>
       <c r="D17" s="37">
-        <v>1369335</v>
+        <v>1392294</v>
       </c>
       <c r="E17" s="37">
-        <v>662852</v>
+        <v>686003</v>
       </c>
       <c r="F17" s="38">
-        <v>33.628309238941043</v>
+        <v>34.192139384096791</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>77</v>
@@ -2147,7 +2168,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>16.278406697886602</v>
+        <v>16.846952004324194</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>77</v>
@@ -2168,16 +2189,16 @@
         <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>114758</v>
+        <v>120117</v>
       </c>
       <c r="Q17" s="41">
-        <v>286781</v>
+        <v>293208</v>
       </c>
       <c r="R17" s="41">
-        <v>23727</v>
+        <v>27494</v>
       </c>
       <c r="S17" s="41">
-        <v>68495</v>
+        <v>77995</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -2188,16 +2209,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1087253</v>
+        <v>1108670</v>
       </c>
       <c r="D18" s="13">
-        <v>811566</v>
+        <v>823265</v>
       </c>
       <c r="E18" s="13">
-        <v>275687</v>
+        <v>285405</v>
       </c>
       <c r="F18" s="14">
-        <v>36.977066515034295</v>
+        <v>37.510103509141231</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>77</v>
@@ -2206,7 +2227,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>12.561019727699607</v>
+        <v>13.003797188057858</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>77</v>
@@ -2227,16 +2248,16 @@
         <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>75295</v>
+        <v>78432</v>
       </c>
       <c r="Q18" s="18">
-        <v>173385</v>
+        <v>176035</v>
       </c>
       <c r="R18" s="17">
-        <v>7833</v>
+        <v>9046</v>
       </c>
       <c r="S18" s="18">
-        <v>20131</v>
+        <v>24740</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -2247,55 +2268,55 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1468717</v>
+        <v>1485928</v>
       </c>
       <c r="D19" s="37">
-        <v>1039642</v>
+        <v>1046263</v>
       </c>
       <c r="E19" s="37">
-        <v>429075</v>
+        <v>439665</v>
       </c>
       <c r="F19" s="38">
-        <v>35.803143014278319</v>
+        <v>36.031156705431179</v>
       </c>
       <c r="G19" s="64">
-        <v>21.175172611548156</v>
+        <v>21.405992377694002</v>
       </c>
       <c r="H19" s="64">
-        <v>70.58846594296746</v>
+        <v>70.977455228175145</v>
       </c>
       <c r="I19" s="64">
-        <v>14.776464964720038</v>
+        <v>15.141162893931448</v>
       </c>
       <c r="J19" s="64">
-        <v>8.0956804641338191</v>
+        <v>8.4038329534619045</v>
       </c>
       <c r="K19" s="64">
-        <v>30.037053737722275</v>
+        <v>30.36699691737812</v>
       </c>
       <c r="L19" s="42">
-        <v>299268</v>
+        <v>303945</v>
       </c>
       <c r="M19" s="42">
-        <v>384455</v>
+        <v>387780</v>
       </c>
       <c r="N19" s="42">
-        <v>154584</v>
+        <v>160859</v>
       </c>
       <c r="O19" s="42">
-        <v>239877</v>
+        <v>242711</v>
       </c>
       <c r="P19" s="42">
-        <v>131997</v>
+        <v>132021</v>
       </c>
       <c r="Q19" s="42">
-        <v>227631</v>
+        <v>227679</v>
       </c>
       <c r="R19" s="42">
-        <v>10297</v>
+        <v>10298</v>
       </c>
       <c r="S19" s="42">
-        <v>20580</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -2306,55 +2327,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1101370</v>
+        <v>1124639</v>
       </c>
       <c r="D20" s="13">
-        <v>757460</v>
+        <v>772043</v>
       </c>
       <c r="E20" s="13">
-        <v>343910</v>
+        <v>352596</v>
       </c>
       <c r="F20" s="14">
-        <v>35.505194109998321</v>
+        <v>36.188757922880988</v>
       </c>
       <c r="G20" s="44">
-        <v>20.886050685640399</v>
+        <v>21.474251597736725</v>
       </c>
       <c r="H20" s="44">
-        <v>63.599450206446384</v>
+        <v>64.466169077945835</v>
       </c>
       <c r="I20" s="44">
-        <v>16.120443728209441</v>
+        <v>16.527591453553942</v>
       </c>
       <c r="J20" s="44">
-        <v>8.1988877499960804</v>
+        <v>8.4048863728703385</v>
       </c>
       <c r="K20" s="44">
-        <v>31.318108140668294</v>
+        <v>32.111585092052088</v>
       </c>
       <c r="L20" s="18">
-        <v>229314</v>
+        <v>234651</v>
       </c>
       <c r="M20" s="18">
-        <v>310716</v>
+        <v>313190</v>
       </c>
       <c r="N20" s="18">
-        <v>102731</v>
+        <v>103698</v>
       </c>
       <c r="O20" s="18">
-        <v>202045</v>
+        <v>202606</v>
       </c>
       <c r="P20" s="18">
-        <v>63701</v>
+        <v>66616</v>
       </c>
       <c r="Q20" s="18">
-        <v>153850</v>
+        <v>157707</v>
       </c>
       <c r="R20" s="18">
-        <v>12293</v>
+        <v>14216</v>
       </c>
       <c r="S20" s="18">
-        <v>26720</v>
+        <v>31955</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -2363,13 +2384,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>104868</v>
+        <v>110747</v>
       </c>
       <c r="D21" s="37">
-        <v>82972</v>
+        <v>85282</v>
       </c>
       <c r="E21" s="37">
-        <v>21896</v>
+        <v>25465</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>77</v>
@@ -2390,16 +2411,16 @@
         <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>79438</v>
+        <v>81820</v>
       </c>
       <c r="M21" s="41">
-        <v>6810</v>
+        <v>6885</v>
       </c>
       <c r="N21" s="41">
-        <v>17476</v>
+        <v>20697</v>
       </c>
       <c r="O21" s="41">
-        <v>1144</v>
+        <v>1345</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>77</v>
@@ -2420,16 +2441,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>42611604</v>
+        <v>43549672</v>
       </c>
       <c r="D22" s="21">
-        <v>32178636</v>
+        <v>32633840</v>
       </c>
       <c r="E22" s="21">
-        <v>10432968</v>
+        <v>10915832</v>
       </c>
       <c r="F22" s="22">
-        <v>38.69172606813801</v>
+        <v>39.239065255327937</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>77</v>
@@ -2438,7 +2459,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>12.544644214678636</v>
+        <v>13.125241901173656</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>77</v>
@@ -2459,16 +2480,16 @@
         <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>4575090</v>
+        <v>4765361</v>
       </c>
       <c r="Q22" s="25">
-        <v>5608678</v>
+        <v>5695681</v>
       </c>
       <c r="R22" s="25">
-        <v>450881</v>
+        <v>537986</v>
       </c>
       <c r="S22" s="25">
-        <v>739097</v>
+        <v>905621</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2496,27 +2517,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
@@ -2567,27 +2588,27 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
@@ -2625,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36246FF8-D917-43A6-8C76-62F6D1CA6D2E}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2636,42 +2657,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="81" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="87"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="84" t="s">
         <v>60</v>
       </c>
@@ -2679,14 +2700,14 @@
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="84" t="s">
         <v>60</v>
       </c>
@@ -2694,18 +2715,18 @@
       <c r="P2" s="84"/>
       <c r="Q2" s="84"/>
       <c r="R2" s="84"/>
-      <c r="S2" s="81" t="s">
+      <c r="S2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="83"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="87"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="84" t="s">
         <v>16</v>
       </c>
@@ -2715,12 +2736,12 @@
       <c r="G3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="48"/>
       <c r="M3" s="84" t="s">
         <v>13</v>
@@ -2734,20 +2755,20 @@
       <c r="R3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="81" t="s">
+      <c r="S3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="83"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="87"/>
       <c r="X3" s="84" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2815,70 +2836,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2972675</v>
+        <v>3004300</v>
       </c>
       <c r="D5" s="45">
-        <v>1880031</v>
+        <v>1900580</v>
       </c>
       <c r="E5" s="45">
-        <v>310143</v>
+        <v>319787</v>
       </c>
       <c r="F5" s="45">
-        <v>782501</v>
+        <v>783933</v>
       </c>
       <c r="G5" s="45">
-        <v>26493</v>
+        <v>31077</v>
       </c>
       <c r="H5" s="45">
-        <v>1220951</v>
+        <v>1249355</v>
       </c>
       <c r="I5" s="45">
-        <v>1029454</v>
+        <v>1049462</v>
       </c>
       <c r="J5" s="45">
-        <v>95070</v>
+        <v>98160</v>
       </c>
       <c r="K5" s="45">
-        <v>77191</v>
+        <v>80115</v>
       </c>
       <c r="L5" s="45">
-        <v>19236</v>
+        <v>21618</v>
       </c>
       <c r="M5" s="45">
-        <v>27327</v>
+        <v>27379</v>
       </c>
       <c r="N5" s="45">
-        <v>1227895</v>
+        <v>1264785</v>
       </c>
       <c r="O5" s="45">
-        <v>1002838</v>
+        <v>1022632</v>
       </c>
       <c r="P5" s="45">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="45">
-        <v>224711</v>
+        <v>241782</v>
       </c>
       <c r="R5" s="45">
-        <v>44814</v>
+        <v>36890</v>
       </c>
       <c r="S5" s="45">
-        <v>174285</v>
+        <v>211560</v>
       </c>
       <c r="T5" s="45">
-        <v>168123</v>
+        <v>204408</v>
       </c>
       <c r="U5" s="45">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" s="45">
-        <v>6031</v>
+        <v>6995</v>
       </c>
       <c r="W5" s="45">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="X5" s="45">
-        <v>41617</v>
+        <v>37275</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -2889,70 +2910,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3542266</v>
+        <v>3559153</v>
       </c>
       <c r="D6" s="46">
-        <v>2456634</v>
+        <v>2466502</v>
       </c>
       <c r="E6" s="46">
-        <v>359691</v>
+        <v>366173</v>
       </c>
       <c r="F6" s="46">
-        <v>725941</v>
+        <v>726478</v>
       </c>
       <c r="G6" s="46">
-        <v>23914</v>
+        <v>16887</v>
       </c>
       <c r="H6" s="46">
-        <v>1360120</v>
+        <v>1407802</v>
       </c>
       <c r="I6" s="46">
-        <v>1187749</v>
+        <v>1227868</v>
       </c>
       <c r="J6" s="46">
-        <v>107885</v>
+        <v>112581</v>
       </c>
       <c r="K6" s="46">
-        <v>57837</v>
+        <v>59365</v>
       </c>
       <c r="L6" s="46">
-        <v>6649</v>
+        <v>7988</v>
       </c>
       <c r="M6" s="46">
-        <v>32215</v>
+        <v>47682</v>
       </c>
       <c r="N6" s="46">
-        <v>1676609</v>
+        <v>1717444</v>
       </c>
       <c r="O6" s="46">
-        <v>1239550</v>
+        <v>1262366</v>
       </c>
       <c r="P6" s="46">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="Q6" s="46">
-        <v>436584</v>
+        <v>454531</v>
       </c>
       <c r="R6" s="46">
-        <v>54492</v>
+        <v>40835</v>
       </c>
       <c r="S6" s="46">
-        <v>181064</v>
+        <v>227648</v>
       </c>
       <c r="T6" s="46">
-        <v>162420</v>
+        <v>206420</v>
       </c>
       <c r="U6" s="46">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="V6" s="46">
-        <v>17755</v>
+        <v>19899</v>
       </c>
       <c r="W6" s="46">
-        <v>10</v>
+        <v>428</v>
       </c>
       <c r="X6" s="46">
-        <v>56001</v>
+        <v>46584</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -2963,70 +2984,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>878552</v>
+        <v>888471</v>
       </c>
       <c r="D7" s="45">
-        <v>587557</v>
+        <v>593510</v>
       </c>
       <c r="E7" s="45">
-        <v>104996</v>
+        <v>108960</v>
       </c>
       <c r="F7" s="45">
-        <v>185999</v>
+        <v>186001</v>
       </c>
       <c r="G7" s="45">
-        <v>11434</v>
+        <v>9919</v>
       </c>
       <c r="H7" s="45">
-        <v>465183</v>
+        <v>470285</v>
       </c>
       <c r="I7" s="45">
-        <v>405325</v>
+        <v>409852</v>
       </c>
       <c r="J7" s="45">
-        <v>53511</v>
+        <v>54001</v>
       </c>
       <c r="K7" s="45">
-        <v>2594</v>
+        <v>2679</v>
       </c>
       <c r="L7" s="45">
         <v>3753</v>
       </c>
       <c r="M7" s="45">
-        <v>13381</v>
+        <v>5102</v>
       </c>
       <c r="N7" s="45">
-        <v>435188</v>
+        <v>450722</v>
       </c>
       <c r="O7" s="45">
-        <v>317843</v>
+        <v>327486</v>
       </c>
       <c r="P7" s="45">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="45">
-        <v>117221</v>
+        <v>123088</v>
       </c>
       <c r="R7" s="45">
-        <v>18620</v>
+        <v>15534</v>
       </c>
       <c r="S7" s="45">
-        <v>51964</v>
+        <v>62615</v>
       </c>
       <c r="T7" s="45">
-        <v>44796</v>
+        <v>54609</v>
       </c>
       <c r="U7" s="45">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="V7" s="45">
-        <v>7067</v>
+        <v>7899</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>11699</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -3037,70 +3058,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>510722</v>
+        <v>514372</v>
       </c>
       <c r="D8" s="46">
-        <v>338614</v>
+        <v>341932</v>
       </c>
       <c r="E8" s="46">
-        <v>65126</v>
+        <v>65247</v>
       </c>
       <c r="F8" s="46">
-        <v>106982</v>
+        <v>107193</v>
       </c>
       <c r="G8" s="46">
-        <v>3585</v>
+        <v>3365</v>
       </c>
       <c r="H8" s="46">
-        <v>282675</v>
+        <v>289907</v>
       </c>
       <c r="I8" s="46">
-        <v>228892</v>
+        <v>232577</v>
       </c>
       <c r="J8" s="46">
-        <v>35409</v>
+        <v>37905</v>
       </c>
       <c r="K8" s="46">
-        <v>16744</v>
+        <v>17653</v>
       </c>
       <c r="L8" s="46">
-        <v>1630</v>
+        <v>1772</v>
       </c>
       <c r="M8" s="46">
-        <v>8022</v>
+        <v>7067</v>
       </c>
       <c r="N8" s="46">
-        <v>340810</v>
+        <v>351316</v>
       </c>
       <c r="O8" s="46">
-        <v>237220</v>
+        <v>242988</v>
       </c>
       <c r="P8" s="46">
         <v>601</v>
       </c>
       <c r="Q8" s="46">
-        <v>102989</v>
+        <v>107727</v>
       </c>
       <c r="R8" s="46">
-        <v>12478</v>
+        <v>10506</v>
       </c>
       <c r="S8" s="46">
-        <v>56478</v>
+        <v>64186</v>
       </c>
       <c r="T8" s="46">
-        <v>51820</v>
+        <v>59043</v>
       </c>
       <c r="U8" s="46">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="V8" s="46">
-        <v>4588</v>
+        <v>5061</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>8147</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -3111,70 +3132,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>196804</v>
+        <v>198461</v>
       </c>
       <c r="D9" s="45">
-        <v>120236</v>
+        <v>121287</v>
       </c>
       <c r="E9" s="45">
-        <v>13663</v>
+        <v>13729</v>
       </c>
       <c r="F9" s="45">
-        <v>62905</v>
+        <v>63445</v>
       </c>
       <c r="G9" s="45">
-        <v>2024</v>
+        <v>1655</v>
       </c>
       <c r="H9" s="45">
-        <v>102728</v>
+        <v>105920</v>
       </c>
       <c r="I9" s="45">
-        <v>90910</v>
+        <v>93068</v>
       </c>
       <c r="J9" s="45">
-        <v>7258</v>
+        <v>7423</v>
       </c>
       <c r="K9" s="45">
-        <v>2780</v>
+        <v>2950</v>
       </c>
       <c r="L9" s="45">
-        <v>1780</v>
+        <v>2479</v>
       </c>
       <c r="M9" s="45">
-        <v>2508</v>
+        <v>3198</v>
       </c>
       <c r="N9" s="45">
-        <v>71751</v>
+        <v>73819</v>
       </c>
       <c r="O9" s="45">
-        <v>56796</v>
+        <v>57968</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>14941</v>
+        <v>15837</v>
       </c>
       <c r="R9" s="45">
-        <v>3278</v>
+        <v>2068</v>
       </c>
       <c r="S9" s="45">
-        <v>7242</v>
+        <v>9099</v>
       </c>
       <c r="T9" s="45">
-        <v>6944</v>
+        <v>8765</v>
       </c>
       <c r="U9" s="45">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="V9" s="45">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>1761</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -3185,70 +3206,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>505100</v>
+        <v>506648</v>
       </c>
       <c r="D10" s="46">
-        <v>323987</v>
+        <v>324289</v>
       </c>
       <c r="E10" s="46">
-        <v>60623</v>
+        <v>61846</v>
       </c>
       <c r="F10" s="46">
-        <v>120490</v>
+        <v>120513</v>
       </c>
       <c r="G10" s="46">
-        <v>303</v>
+        <v>1389</v>
       </c>
       <c r="H10" s="46">
-        <v>201543</v>
+        <v>209073</v>
       </c>
       <c r="I10" s="46">
-        <v>181210</v>
+        <v>187905</v>
       </c>
       <c r="J10" s="46">
-        <v>16413</v>
+        <v>16871</v>
       </c>
       <c r="K10" s="46">
-        <v>2800</v>
+        <v>2996</v>
       </c>
       <c r="L10" s="46">
-        <v>1120</v>
+        <v>1301</v>
       </c>
       <c r="M10" s="46">
-        <v>8014</v>
+        <v>7406</v>
       </c>
       <c r="N10" s="46">
-        <v>183414</v>
+        <v>189683</v>
       </c>
       <c r="O10" s="46">
-        <v>145346</v>
+        <v>149064</v>
       </c>
       <c r="P10" s="46">
-        <v>2729</v>
+        <v>2941</v>
       </c>
       <c r="Q10" s="46">
-        <v>35339</v>
+        <v>37678</v>
       </c>
       <c r="R10" s="46">
-        <v>6876</v>
+        <v>6269</v>
       </c>
       <c r="S10" s="46">
-        <v>16992</v>
+        <v>22031</v>
       </c>
       <c r="T10" s="46">
-        <v>15812</v>
+        <v>20650</v>
       </c>
       <c r="U10" s="46">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V10" s="46">
-        <v>1129</v>
+        <v>1327</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>4812</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -3259,70 +3280,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1740397</v>
+        <v>1758980</v>
       </c>
       <c r="D11" s="45">
-        <v>1080669</v>
+        <v>1094542</v>
       </c>
       <c r="E11" s="45">
-        <v>192849</v>
+        <v>197298</v>
       </c>
       <c r="F11" s="45">
-        <v>466879</v>
+        <v>467140</v>
       </c>
       <c r="G11" s="45">
-        <v>16185</v>
+        <v>16421</v>
       </c>
       <c r="H11" s="45">
-        <v>621799</v>
+        <v>634158</v>
       </c>
       <c r="I11" s="45">
-        <v>542000</v>
+        <v>550819</v>
       </c>
       <c r="J11" s="45">
-        <v>38852</v>
+        <v>41128</v>
       </c>
       <c r="K11" s="45">
-        <v>40252</v>
+        <v>41158</v>
       </c>
       <c r="L11" s="45">
-        <v>695</v>
+        <v>1053</v>
       </c>
       <c r="M11" s="45">
-        <v>8780</v>
+        <v>10773</v>
       </c>
       <c r="N11" s="45">
-        <v>701532</v>
+        <v>721105</v>
       </c>
       <c r="O11" s="45">
-        <v>544962</v>
+        <v>555913</v>
       </c>
       <c r="P11" s="45">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="45">
-        <v>156407</v>
+        <v>165020</v>
       </c>
       <c r="R11" s="45">
-        <v>30265</v>
+        <v>19573</v>
       </c>
       <c r="S11" s="45">
-        <v>79360</v>
+        <v>95720</v>
       </c>
       <c r="T11" s="45">
-        <v>73954</v>
+        <v>89594</v>
       </c>
       <c r="U11" s="45">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="V11" s="45">
-        <v>5223</v>
+        <v>5940</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>23421</v>
+        <v>16360</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -3333,70 +3354,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>398582</v>
+        <v>401623</v>
       </c>
       <c r="D12" s="46">
-        <v>283327</v>
+        <v>285340</v>
       </c>
       <c r="E12" s="46">
-        <v>49139</v>
+        <v>50163</v>
       </c>
       <c r="F12" s="46">
-        <v>66116</v>
+        <v>66120</v>
       </c>
       <c r="G12" s="46">
-        <v>3228</v>
+        <v>3037</v>
       </c>
       <c r="H12" s="46">
-        <v>159694</v>
+        <v>164264</v>
       </c>
       <c r="I12" s="46">
-        <v>141846</v>
+        <v>145079</v>
       </c>
       <c r="J12" s="46">
-        <v>14265</v>
+        <v>15360</v>
       </c>
       <c r="K12" s="46">
-        <v>1846</v>
+        <v>1912</v>
       </c>
       <c r="L12" s="46">
-        <v>1737</v>
+        <v>1913</v>
       </c>
       <c r="M12" s="46">
-        <v>4859</v>
+        <v>4576</v>
       </c>
       <c r="N12" s="46">
-        <v>254341</v>
+        <v>259660</v>
       </c>
       <c r="O12" s="46">
-        <v>189915</v>
+        <v>193684</v>
       </c>
       <c r="P12" s="46">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="46">
-        <v>64318</v>
+        <v>65839</v>
       </c>
       <c r="R12" s="46">
-        <v>6785</v>
+        <v>5319</v>
       </c>
       <c r="S12" s="46">
-        <v>31897</v>
+        <v>38715</v>
       </c>
       <c r="T12" s="46">
-        <v>28644</v>
+        <v>34991</v>
       </c>
       <c r="U12" s="46">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="V12" s="46">
-        <v>3199</v>
+        <v>3628</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>7299</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -3407,70 +3428,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2179925</v>
+        <v>2192528</v>
       </c>
       <c r="D13" s="45">
-        <v>1313389</v>
+        <v>1323005</v>
       </c>
       <c r="E13" s="45">
-        <v>205337</v>
+        <v>206258</v>
       </c>
       <c r="F13" s="45">
-        <v>661199</v>
+        <v>663265</v>
       </c>
       <c r="G13" s="45">
-        <v>12838</v>
+        <v>11850</v>
       </c>
       <c r="H13" s="45">
-        <v>781242</v>
+        <v>807064</v>
       </c>
       <c r="I13" s="45">
-        <v>668994</v>
+        <v>687147</v>
       </c>
       <c r="J13" s="45">
-        <v>69340</v>
+        <v>74567</v>
       </c>
       <c r="K13" s="45">
-        <v>20858</v>
+        <v>21494</v>
       </c>
       <c r="L13" s="45">
-        <v>22050</v>
+        <v>23856</v>
       </c>
       <c r="M13" s="45">
-        <v>22729</v>
+        <v>25496</v>
       </c>
       <c r="N13" s="45">
-        <v>1000071</v>
+        <v>1025674</v>
       </c>
       <c r="O13" s="45">
-        <v>751199</v>
+        <v>764476</v>
       </c>
       <c r="P13" s="45">
         <v>609</v>
       </c>
       <c r="Q13" s="45">
-        <v>248263</v>
+        <v>260589</v>
       </c>
       <c r="R13" s="45">
-        <v>39877</v>
+        <v>25603</v>
       </c>
       <c r="S13" s="45">
-        <v>93674</v>
+        <v>117623</v>
       </c>
       <c r="T13" s="45">
-        <v>83742</v>
+        <v>106688</v>
       </c>
       <c r="U13" s="45">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="V13" s="45">
-        <v>9420</v>
+        <v>10379</v>
       </c>
       <c r="W13" s="45">
         <v>34</v>
       </c>
       <c r="X13" s="45">
-        <v>31800</v>
+        <v>23949</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -3481,70 +3502,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4883940</v>
+        <v>4915477</v>
       </c>
       <c r="D14" s="46">
-        <v>3291339</v>
+        <v>3308644</v>
       </c>
       <c r="E14" s="46">
-        <v>445018</v>
+        <v>459053</v>
       </c>
       <c r="F14" s="46">
-        <v>1147583</v>
+        <v>1147780</v>
       </c>
       <c r="G14" s="46">
-        <v>35346</v>
+        <v>28969</v>
       </c>
       <c r="H14" s="46">
-        <v>1861727</v>
+        <v>1902740</v>
       </c>
       <c r="I14" s="46">
-        <v>1694605</v>
+        <v>1730858</v>
       </c>
       <c r="J14" s="46">
-        <v>124011</v>
+        <v>125881</v>
       </c>
       <c r="K14" s="46">
-        <v>35967</v>
+        <v>38839</v>
       </c>
       <c r="L14" s="46">
-        <v>7144</v>
+        <v>7162</v>
       </c>
       <c r="M14" s="46">
-        <v>29193</v>
+        <v>31726</v>
       </c>
       <c r="N14" s="46">
-        <v>2475883</v>
+        <v>2547398</v>
       </c>
       <c r="O14" s="46">
-        <v>1773300</v>
+        <v>1808518</v>
       </c>
       <c r="P14" s="46">
-        <v>6414</v>
+        <v>6533</v>
       </c>
       <c r="Q14" s="46">
-        <v>696169</v>
+        <v>732347</v>
       </c>
       <c r="R14" s="46">
-        <v>97445</v>
+        <v>71515</v>
       </c>
       <c r="S14" s="46">
-        <v>232067</v>
+        <v>287958</v>
       </c>
       <c r="T14" s="46">
-        <v>208575</v>
+        <v>261393</v>
       </c>
       <c r="U14" s="46">
-        <v>1717</v>
+        <v>1922</v>
       </c>
       <c r="V14" s="46">
-        <v>21503</v>
+        <v>24209</v>
       </c>
       <c r="W14" s="46">
-        <v>272</v>
+        <v>434</v>
       </c>
       <c r="X14" s="46">
-        <v>72919</v>
+        <v>55891</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -3555,70 +3576,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>1033969</v>
+        <v>1046029</v>
       </c>
       <c r="D15" s="45">
-        <v>675115</v>
+        <v>681710</v>
       </c>
       <c r="E15" s="45">
-        <v>94766</v>
+        <v>100202</v>
       </c>
       <c r="F15" s="45">
-        <v>264088</v>
+        <v>264117</v>
       </c>
       <c r="G15" s="45">
-        <v>6562</v>
+        <v>8549</v>
       </c>
       <c r="H15" s="45">
-        <v>521454</v>
+        <v>532767</v>
       </c>
       <c r="I15" s="45">
-        <v>451779</v>
+        <v>461900</v>
       </c>
       <c r="J15" s="45">
-        <v>39557</v>
+        <v>40049</v>
       </c>
       <c r="K15" s="45">
-        <v>30118</v>
+        <v>30818</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>9288</v>
+        <v>8464</v>
       </c>
       <c r="N15" s="45">
-        <v>482794</v>
+        <v>498368</v>
       </c>
       <c r="O15" s="45">
-        <v>380584</v>
+        <v>389566</v>
       </c>
       <c r="P15" s="45">
         <v>213</v>
       </c>
       <c r="Q15" s="45">
-        <v>101997</v>
+        <v>108589</v>
       </c>
       <c r="R15" s="45">
-        <v>21737</v>
+        <v>15574</v>
       </c>
       <c r="S15" s="45">
-        <v>60050</v>
+        <v>71955</v>
       </c>
       <c r="T15" s="45">
-        <v>58597</v>
+        <v>70362</v>
       </c>
       <c r="U15" s="45">
         <v>89</v>
       </c>
       <c r="V15" s="45">
-        <v>1364</v>
+        <v>1504</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>15228</v>
+        <v>11905</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -3629,70 +3650,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>300136</v>
+        <v>301190</v>
       </c>
       <c r="D16" s="46">
-        <v>228177</v>
+        <v>228972</v>
       </c>
       <c r="E16" s="46">
-        <v>29882</v>
+        <v>30127</v>
       </c>
       <c r="F16" s="46">
-        <v>42077</v>
+        <v>42091</v>
       </c>
       <c r="G16" s="46">
-        <v>997</v>
+        <v>928</v>
       </c>
       <c r="H16" s="46">
-        <v>120379</v>
+        <v>125927</v>
       </c>
       <c r="I16" s="46">
-        <v>105120</v>
+        <v>109553</v>
       </c>
       <c r="J16" s="46">
-        <v>11213</v>
+        <v>12008</v>
       </c>
       <c r="K16" s="46">
-        <v>4046</v>
+        <v>4338</v>
       </c>
       <c r="L16" s="46">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M16" s="46">
-        <v>4718</v>
+        <v>5015</v>
       </c>
       <c r="N16" s="46">
-        <v>124305</v>
+        <v>127487</v>
       </c>
       <c r="O16" s="46">
-        <v>98963</v>
+        <v>100744</v>
       </c>
       <c r="P16" s="46">
         <v>85</v>
       </c>
       <c r="Q16" s="46">
-        <v>25257</v>
+        <v>26658</v>
       </c>
       <c r="R16" s="46">
-        <v>4496</v>
+        <v>3182</v>
       </c>
       <c r="S16" s="46">
-        <v>14980</v>
+        <v>18326</v>
       </c>
       <c r="T16" s="46">
-        <v>13812</v>
+        <v>17035</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>1162</v>
+        <v>1285</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>4355</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
@@ -3703,70 +3724,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>963858</v>
+        <v>975031</v>
       </c>
       <c r="D17" s="45">
-        <v>665703</v>
+        <v>668005</v>
       </c>
       <c r="E17" s="45">
-        <v>114903</v>
+        <v>123324</v>
       </c>
       <c r="F17" s="45">
-        <v>183252</v>
+        <v>183702</v>
       </c>
       <c r="G17" s="45">
-        <v>11628</v>
+        <v>11173</v>
       </c>
       <c r="H17" s="45">
-        <v>570628</v>
+        <v>580512</v>
       </c>
       <c r="I17" s="45">
-        <v>515266</v>
+        <v>521184</v>
       </c>
       <c r="J17" s="45">
-        <v>47351</v>
+        <v>50310</v>
       </c>
       <c r="K17" s="45">
-        <v>4935</v>
+        <v>5530</v>
       </c>
       <c r="L17" s="45">
-        <v>3076</v>
+        <v>3488</v>
       </c>
       <c r="M17" s="45">
-        <v>9710</v>
+        <v>9884</v>
       </c>
       <c r="N17" s="45">
-        <v>405477</v>
+        <v>417263</v>
       </c>
       <c r="O17" s="45">
-        <v>295153</v>
+        <v>303030</v>
       </c>
       <c r="P17" s="45">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="45">
-        <v>110139</v>
+        <v>114027</v>
       </c>
       <c r="R17" s="45">
-        <v>14142</v>
+        <v>11786</v>
       </c>
       <c r="S17" s="45">
-        <v>92224</v>
+        <v>105491</v>
       </c>
       <c r="T17" s="45">
-        <v>88963</v>
+        <v>101594</v>
       </c>
       <c r="U17" s="45">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="V17" s="45">
-        <v>3142</v>
+        <v>3769</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>15426</v>
+        <v>13267</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
@@ -3777,70 +3798,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>562403</v>
+        <v>568315</v>
       </c>
       <c r="D18" s="47">
-        <v>371956</v>
+        <v>377024</v>
       </c>
       <c r="E18" s="47">
-        <v>60219</v>
+        <v>61053</v>
       </c>
       <c r="F18" s="47">
-        <v>130228</v>
+        <v>130238</v>
       </c>
       <c r="G18" s="47">
-        <v>7371</v>
+        <v>5912</v>
       </c>
       <c r="H18" s="47">
-        <v>247723</v>
+        <v>251619</v>
       </c>
       <c r="I18" s="47">
-        <v>204963</v>
+        <v>208233</v>
       </c>
       <c r="J18" s="47">
-        <v>31366</v>
+        <v>31583</v>
       </c>
       <c r="K18" s="47">
-        <v>7624</v>
+        <v>7821</v>
       </c>
       <c r="L18" s="47">
-        <v>3770</v>
+        <v>3982</v>
       </c>
       <c r="M18" s="47">
-        <v>4832</v>
+        <v>3896</v>
       </c>
       <c r="N18" s="46">
-        <v>249163</v>
+        <v>254950</v>
       </c>
       <c r="O18" s="46">
-        <v>205443</v>
+        <v>209680</v>
       </c>
       <c r="P18" s="46">
         <v>40</v>
       </c>
       <c r="Q18" s="46">
-        <v>43680</v>
+        <v>45230</v>
       </c>
       <c r="R18" s="46">
-        <v>8206</v>
+        <v>5787</v>
       </c>
       <c r="S18" s="46">
-        <v>27964</v>
+        <v>33786</v>
       </c>
       <c r="T18" s="46">
-        <v>26003</v>
+        <v>31614</v>
       </c>
       <c r="U18" s="46">
         <v>48</v>
       </c>
       <c r="V18" s="46">
-        <v>1913</v>
+        <v>2124</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>6984</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
@@ -3851,70 +3872,70 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>679991</v>
+        <v>686540</v>
       </c>
       <c r="D19" s="45">
-        <v>472460</v>
+        <v>477303</v>
       </c>
       <c r="E19" s="45">
-        <v>62218</v>
+        <v>63908</v>
       </c>
       <c r="F19" s="45">
-        <v>145313</v>
+        <v>145329</v>
       </c>
       <c r="G19" s="45">
-        <v>6252</v>
+        <v>6221</v>
       </c>
       <c r="H19" s="45">
-        <v>398193</v>
+        <v>408755</v>
       </c>
       <c r="I19" s="45">
-        <v>337184</v>
+        <v>343661</v>
       </c>
       <c r="J19" s="45">
-        <v>37859</v>
+        <v>39110</v>
       </c>
       <c r="K19" s="45">
-        <v>19397</v>
+        <v>20767</v>
       </c>
       <c r="L19" s="45">
-        <v>3753</v>
+        <v>5217</v>
       </c>
       <c r="M19" s="45">
-        <v>9835</v>
+        <v>9306</v>
       </c>
       <c r="N19" s="45">
-        <v>359651</v>
+        <v>359723</v>
       </c>
       <c r="O19" s="45">
-        <v>272148</v>
+        <v>272176</v>
       </c>
       <c r="P19" s="45">
         <v>2641</v>
       </c>
       <c r="Q19" s="45">
-        <v>84862</v>
+        <v>84906</v>
       </c>
       <c r="R19" s="45">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S19" s="45">
-        <v>30882</v>
+        <v>30910</v>
       </c>
       <c r="T19" s="45">
-        <v>28766</v>
+        <v>28792</v>
       </c>
       <c r="U19" s="45">
         <v>396</v>
       </c>
       <c r="V19" s="45">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
@@ -3925,70 +3946,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>539909</v>
+        <v>547720</v>
       </c>
       <c r="D20" s="47">
-        <v>364761</v>
+        <v>369689</v>
       </c>
       <c r="E20" s="47">
-        <v>66093</v>
+        <v>68967</v>
       </c>
       <c r="F20" s="47">
-        <v>109055</v>
+        <v>109064</v>
       </c>
       <c r="G20" s="47">
-        <v>8555</v>
+        <v>7808</v>
       </c>
       <c r="H20" s="47">
-        <v>304897</v>
+        <v>306425</v>
       </c>
       <c r="I20" s="47">
-        <v>283684</v>
+        <v>285117</v>
       </c>
       <c r="J20" s="47">
-        <v>20043</v>
+        <v>20052</v>
       </c>
       <c r="K20" s="47">
-        <v>1049</v>
+        <v>1135</v>
       </c>
       <c r="L20" s="47">
         <v>121</v>
       </c>
       <c r="M20" s="47">
-        <v>1744</v>
+        <v>1528</v>
       </c>
       <c r="N20" s="47">
-        <v>217551</v>
+        <v>224323</v>
       </c>
       <c r="O20" s="46">
-        <v>178638</v>
+        <v>182990</v>
       </c>
       <c r="P20" s="46">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="46">
-        <v>38818</v>
+        <v>41214</v>
       </c>
       <c r="R20" s="46">
-        <v>7719</v>
+        <v>6772</v>
       </c>
       <c r="S20" s="46">
-        <v>39013</v>
+        <v>46171</v>
       </c>
       <c r="T20" s="46">
-        <v>33111</v>
+        <v>39366</v>
       </c>
       <c r="U20" s="46">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="V20" s="46">
-        <v>5883</v>
+        <v>6754</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>6965</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
@@ -3997,37 +4018,37 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>82972</v>
+        <v>85282</v>
       </c>
       <c r="D21" s="45">
-        <v>3113</v>
+        <v>4016</v>
       </c>
       <c r="E21" s="45">
-        <v>61830</v>
+        <v>63213</v>
       </c>
       <c r="F21" s="45">
-        <v>18029</v>
+        <v>18053</v>
       </c>
       <c r="G21" s="45">
-        <v>2356</v>
+        <v>2251</v>
       </c>
       <c r="H21" s="45">
-        <v>21896</v>
+        <v>25465</v>
       </c>
       <c r="I21" s="55">
-        <v>685</v>
+        <v>912</v>
       </c>
       <c r="J21" s="55">
-        <v>17091</v>
+        <v>19739</v>
       </c>
       <c r="K21" s="55">
-        <v>843</v>
+        <v>1390</v>
       </c>
       <c r="L21" s="55">
-        <v>3277</v>
+        <v>3424</v>
       </c>
       <c r="M21" s="55">
-        <v>3057</v>
+        <v>3522</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>77</v>
@@ -4067,70 +4088,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>21972201</v>
+        <v>22150120</v>
       </c>
       <c r="D22" s="57">
-        <v>14457068</v>
+        <v>14566350</v>
       </c>
       <c r="E22" s="57">
-        <v>2296496</v>
+        <v>2359308</v>
       </c>
       <c r="F22" s="57">
-        <v>5218637</v>
+        <v>5224462</v>
       </c>
       <c r="G22" s="57">
-        <v>179071</v>
+        <v>167411</v>
       </c>
       <c r="H22" s="57">
-        <v>9242832</v>
+        <v>9472038</v>
       </c>
       <c r="I22" s="57">
-        <v>8069666</v>
+        <v>8245195</v>
       </c>
       <c r="J22" s="57">
-        <v>766494</v>
+        <v>796728</v>
       </c>
       <c r="K22" s="57">
-        <v>326881</v>
+        <v>340960</v>
       </c>
       <c r="L22" s="57">
-        <v>79791</v>
+        <v>89155</v>
       </c>
       <c r="M22" s="57">
-        <v>200212</v>
+        <v>212020</v>
       </c>
       <c r="N22" s="57">
-        <v>10206435</v>
+        <v>10483720</v>
       </c>
       <c r="O22" s="57">
-        <v>7689898</v>
+        <v>7843281</v>
       </c>
       <c r="P22" s="57">
-        <v>14842</v>
+        <v>15377</v>
       </c>
       <c r="Q22" s="57">
-        <v>2501695</v>
+        <v>2625062</v>
       </c>
       <c r="R22" s="57">
-        <v>371305</v>
+        <v>277285</v>
       </c>
       <c r="S22" s="57">
-        <v>1190136</v>
+        <v>1443794</v>
       </c>
       <c r="T22" s="57">
-        <v>1094082</v>
+        <v>1335324</v>
       </c>
       <c r="U22" s="57">
-        <v>4190</v>
+        <v>4577</v>
       </c>
       <c r="V22" s="57">
-        <v>91379</v>
+        <v>102803</v>
       </c>
       <c r="W22" s="57">
-        <v>485</v>
+        <v>1090</v>
       </c>
       <c r="X22" s="57">
-        <v>308473</v>
+        <v>253658</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -4145,29 +4166,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
@@ -4219,6 +4240,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="B27:V27"/>
     <mergeCell ref="A1:A4"/>
@@ -4233,9 +4257,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4243,311 +4264,295 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="86">
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="69">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>24073</v>
       </c>
-      <c r="C2" s="45">
-        <v>0</v>
-      </c>
+      <c r="C2" s="70"/>
       <c r="D2" s="45">
         <v>24073</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="87">
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="71">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18523</v>
       </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
+      <c r="C3" s="72"/>
       <c r="D3" s="46">
         <v>18523</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="86">
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="69">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
         <v>50094</v>
       </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
+      <c r="C4" s="70"/>
       <c r="D4" s="45">
         <v>50094</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="87">
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="71">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62661</v>
       </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
+      <c r="C5" s="72"/>
       <c r="D5" s="46">
         <v>62661</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="86">
+      <c r="E5" s="68"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="69">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>50042</v>
       </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
+      <c r="C6" s="70"/>
       <c r="D6" s="45">
         <v>50042</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="87">
+      <c r="E6" s="68"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="71">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>18927</v>
       </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+      <c r="C7" s="72"/>
       <c r="D7" s="46">
         <v>18927</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="86">
+      <c r="E7" s="68"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="69">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52254</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
+        <v>52253</v>
+      </c>
+      <c r="C8" s="70"/>
       <c r="D8" s="45">
-        <v>52254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="87">
+        <v>52253</v>
+      </c>
+      <c r="E8" s="68"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="71">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
-        <v>23894</v>
-      </c>
-      <c r="C9" s="46">
-        <v>0</v>
-      </c>
+        <v>23893</v>
+      </c>
+      <c r="C9" s="72"/>
       <c r="D9" s="46">
-        <v>23894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="86">
+        <v>23893</v>
+      </c>
+      <c r="E9" s="68"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="69">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
         <v>48123</v>
       </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
+      <c r="C10" s="70"/>
       <c r="D10" s="45">
         <v>48123</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="87">
+      <c r="E10" s="68"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="71">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
-        <v>53739</v>
-      </c>
-      <c r="C11" s="46">
-        <v>0</v>
-      </c>
+        <v>53737</v>
+      </c>
+      <c r="C11" s="72"/>
       <c r="D11" s="46">
-        <v>53739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="86">
+        <v>53737</v>
+      </c>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="69">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
         <v>62661</v>
       </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
+      <c r="C12" s="70"/>
       <c r="D12" s="45">
         <v>62661</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="87">
+      <c r="E12" s="68"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="71">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>56077</v>
-      </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
+        <v>56076</v>
+      </c>
+      <c r="C13" s="72"/>
       <c r="D13" s="46">
-        <v>56077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="86">
+        <v>56076</v>
+      </c>
+      <c r="E13" s="68"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="69">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
         <v>62733</v>
       </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
+      <c r="C14" s="70"/>
       <c r="D14" s="45">
         <v>62733</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="88">
+      <c r="E14" s="68"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="73">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61392</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
+        <v>61391</v>
+      </c>
+      <c r="C15" s="74"/>
       <c r="D15" s="47">
-        <v>61392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="86">
+        <v>61391</v>
+      </c>
+      <c r="E15" s="68"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="69">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35504</v>
       </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
+      <c r="C16" s="70"/>
       <c r="D16" s="45">
         <v>35504</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="88">
+      <c r="E16" s="68"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="73">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67551</v>
       </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
+      <c r="C17" s="74"/>
       <c r="D17" s="47">
         <v>67551</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="86">
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="69">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82614</v>
-      </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
+        <v>82620</v>
+      </c>
+      <c r="C18" s="70"/>
       <c r="D18" s="45">
-        <v>82614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="87">
+        <v>82620</v>
+      </c>
+      <c r="E18" s="68"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="71">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111583</v>
-      </c>
-      <c r="C19" s="46">
-        <v>0</v>
-      </c>
+        <v>111582</v>
+      </c>
+      <c r="C19" s="72"/>
       <c r="D19" s="46">
-        <v>111583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="86">
+        <v>111582</v>
+      </c>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="69">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82965</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
+        <v>82963</v>
+      </c>
+      <c r="C20" s="70"/>
       <c r="D20" s="45">
-        <v>82965</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="87">
+        <v>82963</v>
+      </c>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="71">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90935</v>
+        <v>90951</v>
       </c>
       <c r="C21" s="46">
         <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="86">
+        <v>91561</v>
+      </c>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="69">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
@@ -4559,65 +4564,70 @@
       <c r="D22" s="45">
         <v>57576</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="87">
+      <c r="E22" s="68"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="71">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
         <v>31657</v>
       </c>
       <c r="C23" s="46">
-        <v>17342</v>
+        <v>17343</v>
       </c>
       <c r="D23" s="46">
-        <v>48999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="86">
+        <v>49000</v>
+      </c>
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="69">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66855</v>
+        <v>66854</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="87">
+        <v>82626</v>
+      </c>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="71">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82796</v>
+        <v>82822</v>
       </c>
       <c r="C25" s="46">
-        <v>34879</v>
+        <v>34883</v>
       </c>
       <c r="D25" s="46">
-        <v>117675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="86">
+        <v>117705</v>
+      </c>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="69">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80495</v>
+        <v>80505</v>
       </c>
       <c r="C26" s="45">
         <v>51519</v>
       </c>
       <c r="D26" s="45">
-        <v>132014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="87">
+        <v>132024</v>
+      </c>
+      <c r="E26" s="68"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="71">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
@@ -4629,9 +4639,10 @@
       <c r="D27" s="46">
         <v>107720</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="86">
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="69">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
@@ -4643,23 +4654,25 @@
       <c r="D28" s="45">
         <v>104085</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="87">
+      <c r="E28" s="68"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="71">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40048</v>
+        <v>40047</v>
       </c>
       <c r="C29" s="46">
-        <v>44960</v>
+        <v>44958</v>
       </c>
       <c r="D29" s="46">
-        <v>85008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="86">
+        <v>85005</v>
+      </c>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="69">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
@@ -4671,9 +4684,10 @@
       <c r="D30" s="45">
         <v>49231</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="88">
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="73">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
@@ -4685,9 +4699,10 @@
       <c r="D31" s="47">
         <v>91703</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="86">
+      <c r="E31" s="68"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="69">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
@@ -4699,51 +4714,55 @@
       <c r="D32" s="45">
         <v>98673</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="88">
+      <c r="E32" s="68"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="73">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
         <v>51514</v>
       </c>
       <c r="C33" s="47">
-        <v>59631</v>
+        <v>59629</v>
       </c>
       <c r="D33" s="47">
-        <v>111145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="86">
+        <v>111143</v>
+      </c>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="69">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
         <v>45125</v>
       </c>
       <c r="C34" s="45">
-        <v>46109</v>
+        <v>46107</v>
       </c>
       <c r="D34" s="45">
-        <v>91234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="87">
+        <v>91232</v>
+      </c>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="71">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51463</v>
+        <v>51465</v>
       </c>
       <c r="C35" s="46">
-        <v>57650</v>
+        <v>57649</v>
       </c>
       <c r="D35" s="46">
-        <v>109113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="86">
+        <v>109114</v>
+      </c>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="69">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
@@ -4755,9 +4774,10 @@
       <c r="D36" s="45">
         <v>88505</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="87">
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="71">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
@@ -4769,9 +4789,10 @@
       <c r="D37" s="46">
         <v>56514</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="86">
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="69">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
@@ -4783,177 +4804,190 @@
       <c r="D38" s="45">
         <v>120649</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="87">
+      <c r="E38" s="68"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="71">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
         <v>64214</v>
       </c>
       <c r="C39" s="46">
-        <v>67494</v>
+        <v>67500</v>
       </c>
       <c r="D39" s="46">
-        <v>131708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="86">
+        <v>131714</v>
+      </c>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="69">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
         <v>64160</v>
       </c>
       <c r="C40" s="45">
-        <v>95372</v>
+        <v>95371</v>
       </c>
       <c r="D40" s="45">
-        <v>159532</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="87">
+        <v>159531</v>
+      </c>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="71">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61084</v>
+        <v>61082</v>
       </c>
       <c r="C41" s="46">
-        <v>70691</v>
+        <v>70690</v>
       </c>
       <c r="D41" s="46">
-        <v>131775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="86">
+        <v>131772</v>
+      </c>
+      <c r="E41" s="68"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="69">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67665</v>
+        <v>67666</v>
       </c>
       <c r="C42" s="45">
         <v>77128</v>
       </c>
       <c r="D42" s="45">
-        <v>144793</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="87">
+        <v>144794</v>
+      </c>
+      <c r="E42" s="68"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="71">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
         <v>47172</v>
       </c>
       <c r="C43" s="46">
-        <v>52979</v>
+        <v>52978</v>
       </c>
       <c r="D43" s="46">
-        <v>100151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="86">
+        <v>100150</v>
+      </c>
+      <c r="E43" s="68"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="69">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
         <v>28179</v>
       </c>
       <c r="C44" s="45">
-        <v>26080</v>
+        <v>26078</v>
       </c>
       <c r="D44" s="45">
-        <v>54259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="87">
+        <v>54257</v>
+      </c>
+      <c r="E44" s="68"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="71">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53165</v>
+        <v>53164</v>
       </c>
       <c r="C45" s="46">
         <v>56780</v>
       </c>
       <c r="D45" s="46">
-        <v>109945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="86">
+        <v>109944</v>
+      </c>
+      <c r="E45" s="68"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="69">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59696</v>
+        <v>59697</v>
       </c>
       <c r="C46" s="45">
-        <v>74239</v>
+        <v>74237</v>
       </c>
       <c r="D46" s="45">
-        <v>133935</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="88">
+        <v>133934</v>
+      </c>
+      <c r="E46" s="68"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="73">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75167</v>
+        <v>75169</v>
       </c>
       <c r="C47" s="47">
-        <v>76614</v>
+        <v>76615</v>
       </c>
       <c r="D47" s="47">
-        <v>151781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="86">
+        <v>151784</v>
+      </c>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="69">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73835</v>
+        <v>73834</v>
       </c>
       <c r="C48" s="45">
         <v>67318</v>
       </c>
       <c r="D48" s="45">
-        <v>141153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="88">
+        <v>141152</v>
+      </c>
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="73">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81420</v>
+        <v>81419</v>
       </c>
       <c r="C49" s="47">
         <v>76075</v>
       </c>
       <c r="D49" s="47">
-        <v>157495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="86">
+        <v>157494</v>
+      </c>
+      <c r="E49" s="68"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="69">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62178</v>
+        <v>62180</v>
       </c>
       <c r="C50" s="45">
         <v>45579</v>
       </c>
       <c r="D50" s="45">
-        <v>107757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="87">
+        <v>107759</v>
+      </c>
+      <c r="E50" s="68"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="71">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
@@ -4965,415 +4999,445 @@
       <c r="D51" s="46">
         <v>65294</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="86">
+      <c r="E51" s="68"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="69">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71223</v>
+        <v>71222</v>
       </c>
       <c r="C52" s="45">
         <v>55617</v>
       </c>
       <c r="D52" s="45">
-        <v>126840</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="87">
+        <v>126839</v>
+      </c>
+      <c r="E52" s="68"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="71">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>82004</v>
+        <v>82007</v>
       </c>
       <c r="C53" s="46">
-        <v>54626</v>
+        <v>54625</v>
       </c>
       <c r="D53" s="46">
-        <v>136630</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="86">
+        <v>136632</v>
+      </c>
+      <c r="E53" s="68"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="69">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93566</v>
+        <v>93567</v>
       </c>
       <c r="C54" s="45">
         <v>55672</v>
       </c>
       <c r="D54" s="45">
-        <v>149238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="87">
+        <v>149239</v>
+      </c>
+      <c r="E54" s="68"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="71">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91469</v>
+        <v>91470</v>
       </c>
       <c r="C55" s="46">
-        <v>51237</v>
+        <v>51236</v>
       </c>
       <c r="D55" s="46">
         <v>142706</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="86">
+      <c r="E55" s="68"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="69">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99836</v>
+        <v>99832</v>
       </c>
       <c r="C56" s="45">
         <v>54759</v>
       </c>
       <c r="D56" s="45">
-        <v>154595</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="87">
+        <v>154591</v>
+      </c>
+      <c r="E56" s="68"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="71">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76313</v>
+        <v>76312</v>
       </c>
       <c r="C57" s="46">
-        <v>37097</v>
+        <v>37098</v>
       </c>
       <c r="D57" s="46">
         <v>113410</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="86">
+      <c r="E57" s="68"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="69">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>57045</v>
+        <v>57044</v>
       </c>
       <c r="C58" s="45">
         <v>29110</v>
       </c>
       <c r="D58" s="45">
-        <v>86155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="87">
+        <v>86154</v>
+      </c>
+      <c r="E58" s="68"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="71">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100242</v>
+        <v>100240</v>
       </c>
       <c r="C59" s="46">
-        <v>60115</v>
+        <v>60112</v>
       </c>
       <c r="D59" s="46">
-        <v>160357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="86">
+        <v>160352</v>
+      </c>
+      <c r="E59" s="68"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="69">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107431</v>
+        <v>107401</v>
       </c>
       <c r="C60" s="45">
-        <v>59770</v>
+        <v>59768</v>
       </c>
       <c r="D60" s="45">
-        <v>167201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="87">
+        <v>167169</v>
+      </c>
+      <c r="E60" s="68"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="71">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116393</v>
+        <v>116399</v>
       </c>
       <c r="C61" s="46">
-        <v>59591</v>
+        <v>59590</v>
       </c>
       <c r="D61" s="46">
-        <v>175984</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="86">
+        <v>175989</v>
+      </c>
+      <c r="E61" s="68"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="69">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130872</v>
+        <v>130874</v>
       </c>
       <c r="C62" s="45">
         <v>58529</v>
       </c>
       <c r="D62" s="45">
-        <v>189401</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="88">
+        <v>189403</v>
+      </c>
+      <c r="E62" s="68"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="73">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144402</v>
+        <v>144401</v>
       </c>
       <c r="C63" s="47">
-        <v>65411</v>
+        <v>65410</v>
       </c>
       <c r="D63" s="47">
-        <v>209813</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="86">
+        <v>209811</v>
+      </c>
+      <c r="E63" s="68"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="69">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
         <v>108604</v>
       </c>
       <c r="C64" s="45">
-        <v>40014</v>
+        <v>40013</v>
       </c>
       <c r="D64" s="45">
-        <v>148618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="88">
+        <v>148617</v>
+      </c>
+      <c r="E64" s="68"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="73">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83809</v>
+        <v>83808</v>
       </c>
       <c r="C65" s="47">
         <v>24290</v>
       </c>
       <c r="D65" s="47">
-        <v>108099</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="86">
+        <v>108098</v>
+      </c>
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="69">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146470</v>
+        <v>146476</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="87">
+        <v>195844</v>
+      </c>
+      <c r="E66" s="68"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="71">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166338</v>
+        <v>166398</v>
       </c>
       <c r="C67" s="46">
-        <v>53686</v>
+        <v>53684</v>
       </c>
       <c r="D67" s="46">
-        <v>220024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="86">
+        <v>220082</v>
+      </c>
+      <c r="E67" s="68"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="69">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174757</v>
+        <v>174755</v>
       </c>
       <c r="C68" s="45">
-        <v>68992</v>
+        <v>68989</v>
       </c>
       <c r="D68" s="45">
-        <v>243749</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="87">
+        <v>243744</v>
+      </c>
+      <c r="E68" s="68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="71">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180470</v>
+        <v>180502</v>
       </c>
       <c r="C69" s="46">
-        <v>62682</v>
+        <v>62681</v>
       </c>
       <c r="D69" s="46">
-        <v>243152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="86">
+        <v>243183</v>
+      </c>
+      <c r="E69" s="68"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="69">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201744</v>
+        <v>201747</v>
       </c>
       <c r="C70" s="45">
-        <v>67424</v>
+        <v>67421</v>
       </c>
       <c r="D70" s="45">
         <v>269168</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="87">
+      <c r="E70" s="68"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="71">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153197</v>
+        <v>153199</v>
       </c>
       <c r="C71" s="46">
-        <v>49291</v>
+        <v>49290</v>
       </c>
       <c r="D71" s="46">
-        <v>202488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="86">
+        <v>202489</v>
+      </c>
+      <c r="E71" s="68"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="69">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115930</v>
+        <v>115925</v>
       </c>
       <c r="C72" s="45">
         <v>34458</v>
       </c>
       <c r="D72" s="45">
-        <v>150388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="87">
+        <v>150383</v>
+      </c>
+      <c r="E72" s="68"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="71">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186721</v>
+        <v>186719</v>
       </c>
       <c r="C73" s="46">
-        <v>52510</v>
+        <v>52509</v>
       </c>
       <c r="D73" s="46">
-        <v>239231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="86">
+        <v>239228</v>
+      </c>
+      <c r="E73" s="68"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="69">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195723</v>
+        <v>195722</v>
       </c>
       <c r="C74" s="45">
-        <v>54762</v>
+        <v>54760</v>
       </c>
       <c r="D74" s="45">
-        <v>250485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="87">
+        <v>250482</v>
+      </c>
+      <c r="E74" s="68"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="71">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218091</v>
+        <v>218094</v>
       </c>
       <c r="C75" s="46">
-        <v>65682</v>
+        <v>65681</v>
       </c>
       <c r="D75" s="46">
-        <v>283773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="86">
+        <v>283775</v>
+      </c>
+      <c r="E75" s="68"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="69">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220718</v>
+        <v>220729</v>
       </c>
       <c r="C76" s="45">
-        <v>60903</v>
+        <v>60901</v>
       </c>
       <c r="D76" s="45">
-        <v>281621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="87">
+        <v>281630</v>
+      </c>
+      <c r="E76" s="68"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="71">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252518</v>
+        <v>252535</v>
       </c>
       <c r="C77" s="46">
-        <v>71666</v>
+        <v>71669</v>
       </c>
       <c r="D77" s="46">
-        <v>324184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="86">
+        <v>324204</v>
+      </c>
+      <c r="E77" s="68"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="69">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197132</v>
+        <v>197130</v>
       </c>
       <c r="C78" s="45">
-        <v>49448</v>
+        <v>49446</v>
       </c>
       <c r="D78" s="45">
-        <v>246580</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="88">
+        <v>246576</v>
+      </c>
+      <c r="E78" s="68"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="73">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135235</v>
+        <v>135232</v>
       </c>
       <c r="C79" s="47">
-        <v>35993</v>
+        <v>35995</v>
       </c>
       <c r="D79" s="47">
-        <v>171228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="86">
+        <v>171227</v>
+      </c>
+      <c r="E79" s="68"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="69">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189428</v>
+        <v>189426</v>
       </c>
       <c r="C80" s="45">
-        <v>58862</v>
+        <v>58864</v>
       </c>
       <c r="D80" s="45">
         <v>248290</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="88">
+      <c r="E80" s="68"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="73">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
@@ -5385,936 +5449,1363 @@
       <c r="D81" s="47">
         <v>179158</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="86">
+      <c r="E81" s="68"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="69">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125750</v>
+        <v>125754</v>
       </c>
       <c r="C82" s="45">
         <v>79466</v>
       </c>
       <c r="D82" s="45">
-        <v>205216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="87">
+        <v>205220</v>
+      </c>
+      <c r="E82" s="68"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="71">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119367</v>
+        <v>119369</v>
       </c>
       <c r="C83" s="46">
-        <v>75345</v>
+        <v>75344</v>
       </c>
       <c r="D83" s="46">
-        <v>194712</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="86">
+        <v>194713</v>
+      </c>
+      <c r="E83" s="68"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="69">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161083</v>
+        <v>161090</v>
       </c>
       <c r="C84" s="45">
         <v>82842</v>
       </c>
       <c r="D84" s="45">
-        <v>243925</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="87">
+        <v>243932</v>
+      </c>
+      <c r="E84" s="68"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="71">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166380</v>
+        <v>166378</v>
       </c>
       <c r="C85" s="46">
         <v>53887</v>
       </c>
       <c r="D85" s="46">
-        <v>220267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="86">
+        <v>220265</v>
+      </c>
+      <c r="E85" s="68"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="69">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127337</v>
+        <v>127336</v>
       </c>
       <c r="C86" s="45">
-        <v>38761</v>
+        <v>38760</v>
       </c>
       <c r="D86" s="45">
-        <v>166098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="87">
+        <v>166096</v>
+      </c>
+      <c r="E86" s="68"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="71">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190049</v>
+        <v>190056</v>
       </c>
       <c r="C87" s="46">
-        <v>76163</v>
+        <v>76162</v>
       </c>
       <c r="D87" s="46">
-        <v>266212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="86">
+        <v>266218</v>
+      </c>
+      <c r="E87" s="68"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="69">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214167</v>
+        <v>214168</v>
       </c>
       <c r="C88" s="45">
         <v>83762</v>
       </c>
       <c r="D88" s="45">
-        <v>297929</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="87">
+        <v>297930</v>
+      </c>
+      <c r="E88" s="68"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="71">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245802</v>
+        <v>245810</v>
       </c>
       <c r="C89" s="46">
-        <v>88310</v>
+        <v>88309</v>
       </c>
       <c r="D89" s="46">
-        <v>334112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="86">
+        <v>334119</v>
+      </c>
+      <c r="E89" s="68"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="69">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257460</v>
+        <v>257462</v>
       </c>
       <c r="C90" s="45">
-        <v>80155</v>
+        <v>80152</v>
       </c>
       <c r="D90" s="45">
-        <v>337615</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="87">
+        <v>337614</v>
+      </c>
+      <c r="E90" s="68"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="71">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>286011</v>
+        <v>286013</v>
       </c>
       <c r="C91" s="46">
         <v>88766</v>
       </c>
       <c r="D91" s="46">
-        <v>374777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="86">
+        <v>374779</v>
+      </c>
+      <c r="E91" s="68"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="69">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223625</v>
+        <v>223626</v>
       </c>
       <c r="C92" s="45">
         <v>63159</v>
       </c>
       <c r="D92" s="45">
-        <v>286784</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="87">
+        <v>286785</v>
+      </c>
+      <c r="E92" s="68"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="71">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144184</v>
+        <v>144185</v>
       </c>
       <c r="C93" s="46">
-        <v>52740</v>
+        <v>52741</v>
       </c>
       <c r="D93" s="46">
-        <v>196924</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="86">
+        <v>196926</v>
+      </c>
+      <c r="E93" s="68"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="69">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219804</v>
+        <v>219861</v>
       </c>
       <c r="C94" s="45">
         <v>89040</v>
       </c>
       <c r="D94" s="45">
-        <v>308844</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="88">
+        <v>308901</v>
+      </c>
+      <c r="E94" s="68"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="73">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235187</v>
+        <v>235200</v>
       </c>
       <c r="C95" s="47">
         <v>93353</v>
       </c>
       <c r="D95" s="47">
-        <v>328540</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="86">
+        <v>328553</v>
+      </c>
+      <c r="E95" s="68"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="69">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238542</v>
+        <v>238554</v>
       </c>
       <c r="C96" s="45">
-        <v>103098</v>
+        <v>103099</v>
       </c>
       <c r="D96" s="45">
-        <v>341640</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="88">
+        <v>341653</v>
+      </c>
+      <c r="E96" s="68"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="73">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231621</v>
+        <v>231686</v>
       </c>
       <c r="C97" s="47">
         <v>92402</v>
       </c>
       <c r="D97" s="47">
-        <v>324023</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="86">
+        <v>324088</v>
+      </c>
+      <c r="E97" s="68"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="69">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158411</v>
+        <v>158410</v>
       </c>
       <c r="C98" s="45">
-        <v>71581</v>
+        <v>71580</v>
       </c>
       <c r="D98" s="45">
-        <v>229992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="87">
+        <v>229990</v>
+      </c>
+      <c r="E98" s="68"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="71">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
         <v>166018</v>
       </c>
       <c r="C99" s="46">
-        <v>66016</v>
+        <v>66014</v>
       </c>
       <c r="D99" s="46">
-        <v>232034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="86">
+        <v>232032</v>
+      </c>
+      <c r="E99" s="68"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="69">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142597</v>
+        <v>142595</v>
       </c>
       <c r="C100" s="45">
-        <v>53537</v>
+        <v>53534</v>
       </c>
       <c r="D100" s="45">
-        <v>196134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="87">
+        <v>196129</v>
+      </c>
+      <c r="E100" s="68"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="71">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176300</v>
+        <v>176301</v>
       </c>
       <c r="C101" s="46">
-        <v>73380</v>
+        <v>73379</v>
       </c>
       <c r="D101" s="46">
         <v>249680</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="86">
+      <c r="E101" s="68"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="69">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279591</v>
+        <v>279614</v>
       </c>
       <c r="C102" s="45">
-        <v>99047</v>
+        <v>99042</v>
       </c>
       <c r="D102" s="45">
-        <v>378638</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="87">
+        <v>378656</v>
+      </c>
+      <c r="E102" s="68"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="71">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>581115</v>
+        <v>581177</v>
       </c>
       <c r="C103" s="46">
-        <v>97062</v>
+        <v>97058</v>
       </c>
       <c r="D103" s="46">
-        <v>678177</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="86">
+        <v>678235</v>
+      </c>
+      <c r="E103" s="68"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="69">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643242</v>
+        <v>643410</v>
       </c>
       <c r="C104" s="45">
-        <v>89718</v>
+        <v>89695</v>
       </c>
       <c r="D104" s="45">
-        <v>732960</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="87">
+        <v>733105</v>
+      </c>
+      <c r="E104" s="68"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="71">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534444</v>
+        <v>534449</v>
       </c>
       <c r="C105" s="46">
-        <v>88463</v>
+        <v>88468</v>
       </c>
       <c r="D105" s="46">
-        <v>622907</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="86">
+        <v>622917</v>
+      </c>
+      <c r="E105" s="68"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="69">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>302879</v>
+        <v>302892</v>
       </c>
       <c r="C106" s="45">
-        <v>65561</v>
+        <v>65553</v>
       </c>
       <c r="D106" s="45">
-        <v>368440</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="87">
+        <v>368445</v>
+      </c>
+      <c r="E106" s="68"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="71">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210531</v>
+        <v>210530</v>
       </c>
       <c r="C107" s="46">
-        <v>50067</v>
+        <v>50066</v>
       </c>
       <c r="D107" s="46">
-        <v>260598</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="86">
+        <v>260596</v>
+      </c>
+      <c r="E107" s="68"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="69">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338915</v>
+        <v>338926</v>
       </c>
       <c r="C108" s="45">
-        <v>76945</v>
+        <v>76941</v>
       </c>
       <c r="D108" s="45">
-        <v>415860</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="87">
+        <v>415867</v>
+      </c>
+      <c r="E108" s="68"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="71">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>497921</v>
+        <v>497939</v>
       </c>
       <c r="C109" s="46">
-        <v>73518</v>
+        <v>73517</v>
       </c>
       <c r="D109" s="46">
-        <v>571439</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="86">
+        <v>571456</v>
+      </c>
+      <c r="E109" s="68"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="69">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690771</v>
+        <v>690814</v>
       </c>
       <c r="C110" s="45">
-        <v>83498</v>
+        <v>83509</v>
       </c>
       <c r="D110" s="45">
-        <v>774269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="88">
+        <v>774323</v>
+      </c>
+      <c r="E110" s="68"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="73">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608624</v>
+        <v>609073</v>
       </c>
       <c r="C111" s="47">
-        <v>70904</v>
+        <v>70897</v>
       </c>
       <c r="D111" s="47">
-        <v>679528</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="86">
+        <v>679970</v>
+      </c>
+      <c r="E111" s="68"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="69">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>518120</v>
+        <v>518151</v>
       </c>
       <c r="C112" s="45">
-        <v>75382</v>
+        <v>75379</v>
       </c>
       <c r="D112" s="45">
-        <v>593502</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="88">
+        <v>593530</v>
+      </c>
+      <c r="E112" s="68"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="73">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305814</v>
+        <v>305819</v>
       </c>
       <c r="C113" s="47">
         <v>56484</v>
       </c>
       <c r="D113" s="47">
-        <v>362298</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="86">
+        <v>362303</v>
+      </c>
+      <c r="E113" s="68"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="69">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226961</v>
+        <v>226963</v>
       </c>
       <c r="C114" s="45">
         <v>39223</v>
       </c>
       <c r="D114" s="45">
-        <v>266184</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="87">
+        <v>266186</v>
+      </c>
+      <c r="E114" s="68"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="71">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338335</v>
+        <v>338339</v>
       </c>
       <c r="C115" s="46">
         <v>60787</v>
       </c>
       <c r="D115" s="46">
-        <v>399122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="86">
+        <v>399126</v>
+      </c>
+      <c r="E115" s="68"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="69">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493797</v>
+        <v>493819</v>
       </c>
       <c r="C116" s="45">
-        <v>61618</v>
+        <v>61616</v>
       </c>
       <c r="D116" s="45">
-        <v>555415</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="87">
+        <v>555435</v>
+      </c>
+      <c r="E116" s="68"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="71">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641897</v>
+        <v>641938</v>
       </c>
       <c r="C117" s="46">
-        <v>71749</v>
+        <v>71752</v>
       </c>
       <c r="D117" s="46">
-        <v>713646</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="86">
+        <v>713690</v>
+      </c>
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="69">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567970</v>
+        <v>568000</v>
       </c>
       <c r="C118" s="45">
-        <v>66114</v>
+        <v>66113</v>
       </c>
       <c r="D118" s="45">
-        <v>634084</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="87">
+        <v>634113</v>
+      </c>
+      <c r="E118" s="68"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="71">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483509</v>
+        <v>483530</v>
       </c>
       <c r="C119" s="46">
-        <v>67539</v>
+        <v>67535</v>
       </c>
       <c r="D119" s="46">
-        <v>551048</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="86">
+        <v>551065</v>
+      </c>
+      <c r="E119" s="68"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="69">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309378</v>
+        <v>309375</v>
       </c>
       <c r="C120" s="45">
-        <v>59757</v>
+        <v>59758</v>
       </c>
       <c r="D120" s="45">
-        <v>369135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="87">
+        <v>369133</v>
+      </c>
+      <c r="E120" s="68"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="71">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
         <v>235497</v>
       </c>
       <c r="C121" s="46">
-        <v>47745</v>
+        <v>47747</v>
       </c>
       <c r="D121" s="46">
-        <v>283242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="86">
+        <v>283244</v>
+      </c>
+      <c r="E121" s="68"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="69">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354559</v>
+        <v>354567</v>
       </c>
       <c r="C122" s="45">
-        <v>73227</v>
+        <v>73220</v>
       </c>
       <c r="D122" s="45">
-        <v>427786</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="87">
+        <v>427787</v>
+      </c>
+      <c r="E122" s="68"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="71">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693564</v>
+        <v>693566</v>
       </c>
       <c r="C123" s="46">
-        <v>90441</v>
+        <v>90445</v>
       </c>
       <c r="D123" s="46">
-        <v>784005</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="86">
+        <v>784011</v>
+      </c>
+      <c r="E123" s="68"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="69">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993418</v>
+        <v>993476</v>
       </c>
       <c r="C124" s="45">
-        <v>127087</v>
+        <v>127084</v>
       </c>
       <c r="D124" s="45">
-        <v>1120505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="87">
+        <v>1120560</v>
+      </c>
+      <c r="E124" s="68"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="71">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808254</v>
+        <v>808264</v>
       </c>
       <c r="C125" s="46">
-        <v>131710</v>
+        <v>132755</v>
       </c>
       <c r="D125" s="46">
-        <v>939964</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="86">
+        <v>941019</v>
+      </c>
+      <c r="E125" s="68"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="69">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>662193</v>
+        <v>662197</v>
       </c>
       <c r="C126" s="45">
-        <v>137401</v>
+        <v>137413</v>
       </c>
       <c r="D126" s="45">
-        <v>799594</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="87">
+        <v>799610</v>
+      </c>
+      <c r="E126" s="68"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="71">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259053</v>
+        <v>259058</v>
       </c>
       <c r="C127" s="46">
-        <v>76172</v>
+        <v>76177</v>
       </c>
       <c r="D127" s="46">
-        <v>335225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="86">
+        <v>335235</v>
+      </c>
+      <c r="E127" s="68"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="69">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195322</v>
+        <v>195327</v>
       </c>
       <c r="C128" s="45">
-        <v>67768</v>
+        <v>67767</v>
       </c>
       <c r="D128" s="45">
-        <v>263090</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="87">
+        <v>263094</v>
+      </c>
+      <c r="E128" s="68"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="71">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>333545</v>
+        <v>333573</v>
       </c>
       <c r="C129" s="46">
         <v>115619</v>
       </c>
       <c r="D129" s="46">
-        <v>449164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="86">
+        <v>449192</v>
+      </c>
+      <c r="E129" s="68"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="69">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677991</v>
+        <v>678057</v>
       </c>
       <c r="C130" s="45">
-        <v>161281</v>
+        <v>161384</v>
       </c>
       <c r="D130" s="45">
-        <v>839272</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="87">
+        <v>839441</v>
+      </c>
+      <c r="E130" s="68"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="71">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907925</v>
+        <v>908028</v>
       </c>
       <c r="C131" s="46">
-        <v>225983</v>
+        <v>226017</v>
       </c>
       <c r="D131" s="46">
-        <v>1133908</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="86">
+        <v>1134045</v>
+      </c>
+      <c r="E131" s="68"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="69">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>760745</v>
+        <v>760838</v>
       </c>
       <c r="C132" s="45">
-        <v>217151</v>
+        <v>217372</v>
       </c>
       <c r="D132" s="45">
-        <v>977896</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="87">
+        <v>978210</v>
+      </c>
+      <c r="E132" s="68"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="71">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644956</v>
+        <v>645491</v>
       </c>
       <c r="C133" s="46">
-        <v>228862</v>
+        <v>229755</v>
       </c>
       <c r="D133" s="46">
-        <v>873818</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="86">
+        <v>875246</v>
+      </c>
+      <c r="E133" s="68"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="69">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268527</v>
+        <v>268547</v>
       </c>
       <c r="C134" s="45">
-        <v>152163</v>
+        <v>152301</v>
       </c>
       <c r="D134" s="45">
-        <v>420690</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="87">
+        <v>420848</v>
+      </c>
+      <c r="E134" s="68"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="71">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181264</v>
+        <v>181265</v>
       </c>
       <c r="C135" s="46">
-        <v>101890</v>
+        <v>101886</v>
       </c>
       <c r="D135" s="46">
-        <v>283154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="86">
+        <v>283151</v>
+      </c>
+      <c r="E135" s="68"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="69">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>391115</v>
+        <v>391229</v>
       </c>
       <c r="C136" s="45">
-        <v>190169</v>
+        <v>190180</v>
       </c>
       <c r="D136" s="45">
-        <v>581284</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="87">
+        <v>581409</v>
+      </c>
+      <c r="E136" s="68"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="71">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>792614</v>
+        <v>792793</v>
       </c>
       <c r="C137" s="46">
-        <v>281812</v>
+        <v>281835</v>
       </c>
       <c r="D137" s="46">
-        <v>1074426</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="86">
+        <v>1074628</v>
+      </c>
+      <c r="E137" s="68"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="69">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1040504</v>
+        <v>1040782</v>
       </c>
       <c r="C138" s="45">
-        <v>358412</v>
+        <v>358628</v>
       </c>
       <c r="D138" s="45">
-        <v>1398916</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="87">
+        <v>1399410</v>
+      </c>
+      <c r="E138" s="68"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="71">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>264503</v>
+        <v>264506</v>
       </c>
       <c r="C139" s="46">
-        <v>156278</v>
+        <v>156342</v>
       </c>
       <c r="D139" s="46">
-        <v>420781</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="86">
+        <v>420848</v>
+      </c>
+      <c r="E139" s="68"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="69">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>518998</v>
+        <v>519116</v>
       </c>
       <c r="C140" s="45">
-        <v>222726</v>
+        <v>223167</v>
       </c>
       <c r="D140" s="45">
-        <v>741724</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="87">
+        <v>742283</v>
+      </c>
+      <c r="E140" s="68"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="71">
         <v>44331</v>
       </c>
       <c r="B141" s="46">
-        <v>229787</v>
+        <v>229850</v>
       </c>
       <c r="C141" s="46">
-        <v>159826</v>
+        <v>160087</v>
       </c>
       <c r="D141" s="46">
-        <v>389613</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="86">
+        <v>389937</v>
+      </c>
+      <c r="E141" s="68"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="69">
         <v>44332</v>
       </c>
       <c r="B142" s="45">
-        <v>157911</v>
+        <v>157981</v>
       </c>
       <c r="C142" s="45">
-        <v>117258</v>
+        <v>118140</v>
       </c>
       <c r="D142" s="45">
-        <v>275169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="87">
+        <v>276121</v>
+      </c>
+      <c r="E142" s="68"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="71">
         <v>44333</v>
       </c>
       <c r="B143" s="46">
-        <v>343955</v>
+        <v>344125</v>
       </c>
       <c r="C143" s="46">
-        <v>197192</v>
+        <v>197928</v>
       </c>
       <c r="D143" s="46">
-        <v>541147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="86">
+        <v>542053</v>
+      </c>
+      <c r="E143" s="68"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="69">
         <v>44334</v>
       </c>
       <c r="B144" s="45">
-        <v>512498</v>
+        <v>514216</v>
       </c>
       <c r="C144" s="45">
-        <v>343242</v>
+        <v>348730</v>
       </c>
       <c r="D144" s="45">
-        <v>855740</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="87">
+        <v>862946</v>
+      </c>
+      <c r="E144" s="68"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="71">
         <v>44335</v>
       </c>
       <c r="B145" s="46">
-        <v>550376</v>
+        <v>555973</v>
       </c>
       <c r="C145" s="46">
-        <v>508685</v>
+        <v>515384</v>
       </c>
       <c r="D145" s="46">
-        <v>1059061</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="87"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="86" t="s">
+        <v>1071357</v>
+      </c>
+      <c r="E145" s="68"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="75">
+        <v>44336</v>
+      </c>
+      <c r="B146" s="76">
+        <v>444696</v>
+      </c>
+      <c r="C146" s="76">
+        <v>465678</v>
+      </c>
+      <c r="D146" s="76">
+        <v>910374</v>
+      </c>
+      <c r="E146" s="68"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="71"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="68"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="45">
-        <v>32178636</v>
-      </c>
-      <c r="C147" s="45">
-        <v>10432968</v>
-      </c>
-      <c r="D147" s="45">
-        <v>42611604</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="66"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="66"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="66" t="s">
+      <c r="B148" s="45">
+        <v>32633840</v>
+      </c>
+      <c r="C148" s="45">
+        <v>10915832</v>
+      </c>
+      <c r="D148" s="45">
+        <v>43549672</v>
+      </c>
+      <c r="E148" s="68"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="68"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="68"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B149" s="66"/>
-      <c r="C149" s="66"/>
-      <c r="D149" s="66"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="68"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="68"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="68"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="68"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="68"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="68"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="68"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="68"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="68"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="68"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="68"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="68"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="68"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="68"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="68"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="68"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="68"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="68"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="68"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="68"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="68"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="68"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="68"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="68"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="68"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="68"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="68"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="68"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="68"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="68"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="68"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="68"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="68"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="68"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="68"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="68"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="68"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="68"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="68"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="68"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="68"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="68"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="68"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="68"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="68"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="68"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="68"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="68"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="68"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="68"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="68"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="68"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="68"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="68"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="68"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="68"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="68"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="68"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="68"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="68"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="68"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="68"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="68"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="68"/>
+      <c r="B188" s="68"/>
+      <c r="C188" s="68"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="68"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="68"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="68"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="68"/>
+      <c r="B190" s="68"/>
+      <c r="C190" s="68"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="68"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="68"/>
+      <c r="B191" s="68"/>
+      <c r="C191" s="68"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="68"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="68"/>
+      <c r="B192" s="68"/>
+      <c r="C192" s="68"/>
+      <c r="D192" s="68"/>
+      <c r="E192" s="68"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="68"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="68"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="68"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="68"/>
+      <c r="B194" s="68"/>
+      <c r="C194" s="68"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="68"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="68"/>
+      <c r="B195" s="68"/>
+      <c r="C195" s="68"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="68"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="68"/>
+      <c r="B196" s="68"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="68"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="68"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="68"/>
+      <c r="D197" s="68"/>
+      <c r="E197" s="68"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="68"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="68"/>
+      <c r="D198" s="68"/>
+      <c r="E198" s="68"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="68"/>
+      <c r="B199" s="68"/>
+      <c r="C199" s="68"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/source/Impfquotenmonitoring.xlsx
+++ b/data/source/Impfquotenmonitoring.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB40CF-C512-4144-9AE7-8F200CFBA8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFC9F2-C99B-47EA-A727-7B7B285C7717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_20.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_20.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_21.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_21.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_20.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_20.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_21.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_21.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Datenstand: 21.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 20.05.21 (Impfquote_bis_einschl_20.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 20.05.21 durchgeführt und bis zum 21.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 20.05.21 (Impfstoff_bis_einschl_20.05.21)</t>
+    <t>Datenstand: 22.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 21.05.21 (Impfquote_bis_einschl_21.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 21.05.21 durchgeführt und bis zum 22.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 21.05.21 (Impfstoff_bis_einschl_21.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2317 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -370,13 +370,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -563,7 +563,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -722,31 +722,25 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,35 +762,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1295,102 +1289,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="82" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="83"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1442,55 +1436,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5730000</v>
+        <v>5851511</v>
       </c>
       <c r="D5" s="32">
-        <v>4269085</v>
+        <v>4332021</v>
       </c>
       <c r="E5" s="32">
-        <v>1460915</v>
+        <v>1519490</v>
       </c>
       <c r="F5" s="33">
-        <v>38.458860108929464</v>
+        <v>39.025830975008638</v>
       </c>
       <c r="G5" s="33">
-        <v>25.395645088594286</v>
+        <v>26.047457450025174</v>
       </c>
       <c r="H5" s="33">
-        <v>74.47657960975846</v>
+        <v>74.875888283371438</v>
       </c>
       <c r="I5" s="33">
-        <v>13.160929242691747</v>
+        <v>13.688613214990387</v>
       </c>
       <c r="J5" s="33">
-        <v>6.8630847810728106</v>
+        <v>7.1919049638577492</v>
       </c>
       <c r="K5" s="33">
-        <v>29.564489841871488</v>
+        <v>30.56991537350121</v>
       </c>
       <c r="L5" s="32">
-        <v>1520580</v>
+        <v>1550155</v>
       </c>
       <c r="M5" s="32">
-        <v>1505327</v>
+        <v>1508593</v>
       </c>
       <c r="N5" s="32">
-        <v>484375</v>
+        <v>501016</v>
       </c>
       <c r="O5" s="32">
-        <v>743373</v>
+        <v>755610</v>
       </c>
       <c r="P5" s="34">
-        <v>540527</v>
+        <v>563853</v>
       </c>
       <c r="Q5" s="34">
-        <v>717358</v>
+        <v>726009</v>
       </c>
       <c r="R5" s="34">
-        <v>72632</v>
+        <v>82678</v>
       </c>
       <c r="S5" s="34">
-        <v>138952</v>
+        <v>156721</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1501,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6912047</v>
+        <v>7045955</v>
       </c>
       <c r="D6" s="13">
-        <v>5276597</v>
+        <v>5326499</v>
       </c>
       <c r="E6" s="13">
-        <v>1635450</v>
+        <v>1719456</v>
       <